--- a/Boletin_ Epi_Pereira/Datos/evento 831 datos basicos.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/evento 831 datos basicos.xlsx
@@ -8,22 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JorgeMario/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5044C50B-89F6-2249-A77E-C9B20147D62A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DCB07DB-3018-FA4A-B826-457D96919132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380"/>
   </bookViews>
   <sheets>
     <sheet name="evento 831 datos basicos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'evento 831 datos basicos'!$A$1:$CE$164</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12131" uniqueCount="1318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12422" uniqueCount="1345">
   <si>
     <t>cod_eve</t>
   </si>
@@ -3265,6 +3262,30 @@
     <t>JUAN DAVID ORTIZ SISSIV[FC0]</t>
   </si>
   <si>
+    <t>JHANA</t>
+  </si>
+  <si>
+    <t>MAITE</t>
+  </si>
+  <si>
+    <t>1087563838</t>
+  </si>
+  <si>
+    <t>CAIMALITO CENTRO CASA 251</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>3215871935</t>
+  </si>
+  <si>
+    <t>GUSTAVO RAMOS SEPLUVEDA</t>
+  </si>
+  <si>
+    <t>LA VIRGINIA</t>
+  </si>
+  <si>
     <t>ANGELO</t>
   </si>
   <si>
@@ -3460,6 +3481,66 @@
     <t>CARLOS ALBERTO GOMEZ DIAZ</t>
   </si>
   <si>
+    <t>YULIETH</t>
+  </si>
+  <si>
+    <t>ARENAS</t>
+  </si>
+  <si>
+    <t>29916104</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>CORREG ARABIA</t>
+  </si>
+  <si>
+    <t>CORREG ARABIA B SAN MARTIN  MZ 1CASA 2 CUBA</t>
+  </si>
+  <si>
+    <t>3146588963</t>
+  </si>
+  <si>
+    <t>JUAN CARLOS LOPEZ BENITES SISSIV[C00FC0]</t>
+  </si>
+  <si>
+    <t>SIVIGILA - 2018 -18.6.0$0$0.2</t>
+  </si>
+  <si>
+    <t>ALBEIRO</t>
+  </si>
+  <si>
+    <t>9866678</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>SIN INOFRMAICON</t>
+  </si>
+  <si>
+    <t>IBARRA</t>
+  </si>
+  <si>
+    <t>PUENTES</t>
+  </si>
+  <si>
+    <t>1088271799</t>
+  </si>
+  <si>
+    <t>CORREG ALTAGRACIA</t>
+  </si>
+  <si>
+    <t>CORREG ALTAGRACIA B QUINTAS DE ARENALES CASA 2 CUB</t>
+  </si>
+  <si>
+    <t>3217525820</t>
+  </si>
+  <si>
+    <t>LINA MARIA SILVA SERNA SISSIV[C00FC0]</t>
+  </si>
+  <si>
     <t>ANTONIO</t>
   </si>
   <si>
@@ -3905,9 +3986,6 @@
   </si>
   <si>
     <t>1225093404</t>
-  </si>
-  <si>
-    <t>CORREG ARABIA</t>
   </si>
   <si>
     <t>CORREGIMIENTO DE ARABIA B SAN GABRIEL CASA 5B-26 C</t>
@@ -4394,10 +4472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CE164"/>
+  <dimension ref="A1:CE168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4413,7 +4491,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>1317</v>
+        <v>1344</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -4841,7 +4919,7 @@
         <v>111</v>
       </c>
       <c r="BL2" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM2" t="s">
         <v>112</v>
@@ -5089,7 +5167,7 @@
         <v>137</v>
       </c>
       <c r="BL3" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM3" t="s">
         <v>138</v>
@@ -5334,7 +5412,7 @@
         <v>88</v>
       </c>
       <c r="BL4" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM4" t="s">
         <v>157</v>
@@ -5579,7 +5657,7 @@
         <v>88</v>
       </c>
       <c r="BL5" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM5" t="s">
         <v>157</v>
@@ -5824,7 +5902,7 @@
         <v>88</v>
       </c>
       <c r="BL6" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM6" t="s">
         <v>157</v>
@@ -6069,7 +6147,7 @@
         <v>88</v>
       </c>
       <c r="BL7" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM7" t="s">
         <v>178</v>
@@ -6314,7 +6392,7 @@
         <v>88</v>
       </c>
       <c r="BL8" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM8" t="s">
         <v>192</v>
@@ -6559,7 +6637,7 @@
         <v>88</v>
       </c>
       <c r="BL9" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM9" t="s">
         <v>204</v>
@@ -6804,7 +6882,7 @@
         <v>88</v>
       </c>
       <c r="BL10" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM10" t="s">
         <v>220</v>
@@ -7049,7 +7127,7 @@
         <v>88</v>
       </c>
       <c r="BL11" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM11" t="s">
         <v>234</v>
@@ -7294,7 +7372,7 @@
         <v>88</v>
       </c>
       <c r="BL12" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM12" t="s">
         <v>246</v>
@@ -7539,7 +7617,7 @@
         <v>88</v>
       </c>
       <c r="BL13" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM13" t="s">
         <v>262</v>
@@ -7784,7 +7862,7 @@
         <v>88</v>
       </c>
       <c r="BL14" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM14" t="s">
         <v>274</v>
@@ -8029,7 +8107,7 @@
         <v>88</v>
       </c>
       <c r="BL15" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM15" t="s">
         <v>286</v>
@@ -8274,7 +8352,7 @@
         <v>88</v>
       </c>
       <c r="BL16" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM16" t="s">
         <v>296</v>
@@ -8519,7 +8597,7 @@
         <v>88</v>
       </c>
       <c r="BL17" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM17" t="s">
         <v>305</v>
@@ -8764,7 +8842,7 @@
         <v>88</v>
       </c>
       <c r="BL18" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM18" t="s">
         <v>315</v>
@@ -9009,7 +9087,7 @@
         <v>88</v>
       </c>
       <c r="BL19" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM19" t="s">
         <v>326</v>
@@ -9254,7 +9332,7 @@
         <v>88</v>
       </c>
       <c r="BL20" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM20" t="s">
         <v>339</v>
@@ -9499,7 +9577,7 @@
         <v>88</v>
       </c>
       <c r="BL21" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM21" t="s">
         <v>349</v>
@@ -9744,7 +9822,7 @@
         <v>88</v>
       </c>
       <c r="BL22" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM22" t="s">
         <v>359</v>
@@ -9989,7 +10067,7 @@
         <v>88</v>
       </c>
       <c r="BL23" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM23" t="s">
         <v>368</v>
@@ -10234,7 +10312,7 @@
         <v>88</v>
       </c>
       <c r="BL24" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM24" t="s">
         <v>377</v>
@@ -10479,7 +10557,7 @@
         <v>88</v>
       </c>
       <c r="BL25" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM25" t="s">
         <v>388</v>
@@ -10724,7 +10802,7 @@
         <v>88</v>
       </c>
       <c r="BL26" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM26" t="s">
         <v>398</v>
@@ -10957,7 +11035,7 @@
         <v>88</v>
       </c>
       <c r="BL27" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM27" t="s">
         <v>274</v>
@@ -11202,7 +11280,7 @@
         <v>88</v>
       </c>
       <c r="BL28" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM28" t="s">
         <v>413</v>
@@ -11447,7 +11525,7 @@
         <v>88</v>
       </c>
       <c r="BL29" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM29" t="s">
         <v>423</v>
@@ -11692,7 +11770,7 @@
         <v>88</v>
       </c>
       <c r="BL30" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM30" t="s">
         <v>430</v>
@@ -11937,7 +12015,7 @@
         <v>88</v>
       </c>
       <c r="BL31" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM31" t="s">
         <v>437</v>
@@ -12182,7 +12260,7 @@
         <v>88</v>
       </c>
       <c r="BL32" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM32" t="s">
         <v>443</v>
@@ -12427,7 +12505,7 @@
         <v>88</v>
       </c>
       <c r="BL33" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM33" t="s">
         <v>450</v>
@@ -12672,7 +12750,7 @@
         <v>88</v>
       </c>
       <c r="BL34" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM34" t="s">
         <v>457</v>
@@ -12917,7 +12995,7 @@
         <v>88</v>
       </c>
       <c r="BL35" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM35" t="s">
         <v>463</v>
@@ -13162,7 +13240,7 @@
         <v>88</v>
       </c>
       <c r="BL36" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM36" t="s">
         <v>423</v>
@@ -13407,7 +13485,7 @@
         <v>88</v>
       </c>
       <c r="BL37" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM37" t="s">
         <v>482</v>
@@ -13652,7 +13730,7 @@
         <v>88</v>
       </c>
       <c r="BL38" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM38" t="s">
         <v>490</v>
@@ -13897,7 +13975,7 @@
         <v>88</v>
       </c>
       <c r="BL39" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM39" t="s">
         <v>500</v>
@@ -14142,7 +14220,7 @@
         <v>88</v>
       </c>
       <c r="BL40" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM40" t="s">
         <v>505</v>
@@ -14387,7 +14465,7 @@
         <v>88</v>
       </c>
       <c r="BL41" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM41" t="s">
         <v>413</v>
@@ -14632,7 +14710,7 @@
         <v>88</v>
       </c>
       <c r="BL42" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM42" t="s">
         <v>525</v>
@@ -14877,7 +14955,7 @@
         <v>88</v>
       </c>
       <c r="BL43" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM43" t="s">
         <v>525</v>
@@ -15122,7 +15200,7 @@
         <v>88</v>
       </c>
       <c r="BL44" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM44" t="s">
         <v>544</v>
@@ -15367,7 +15445,7 @@
         <v>88</v>
       </c>
       <c r="BL45" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM45" t="s">
         <v>555</v>
@@ -15600,7 +15678,7 @@
         <v>88</v>
       </c>
       <c r="BL46" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM46" t="s">
         <v>563</v>
@@ -15845,7 +15923,7 @@
         <v>88</v>
       </c>
       <c r="BL47" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM47" t="s">
         <v>570</v>
@@ -16090,7 +16168,7 @@
         <v>88</v>
       </c>
       <c r="BL48" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM48" t="s">
         <v>578</v>
@@ -16335,7 +16413,7 @@
         <v>88</v>
       </c>
       <c r="BL49" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM49" t="s">
         <v>586</v>
@@ -16580,7 +16658,7 @@
         <v>88</v>
       </c>
       <c r="BL50" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM50" t="s">
         <v>592</v>
@@ -16825,7 +16903,7 @@
         <v>88</v>
       </c>
       <c r="BL51" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM51" t="s">
         <v>500</v>
@@ -17070,7 +17148,7 @@
         <v>88</v>
       </c>
       <c r="BL52" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM52" t="s">
         <v>606</v>
@@ -17315,7 +17393,7 @@
         <v>88</v>
       </c>
       <c r="BL53" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM53" t="s">
         <v>612</v>
@@ -17560,7 +17638,7 @@
         <v>88</v>
       </c>
       <c r="BL54" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM54" t="s">
         <v>234</v>
@@ -17805,7 +17883,7 @@
         <v>88</v>
       </c>
       <c r="BL55" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM55" t="s">
         <v>627</v>
@@ -18050,7 +18128,7 @@
         <v>88</v>
       </c>
       <c r="BL56" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM56" t="s">
         <v>635</v>
@@ -18295,7 +18373,7 @@
         <v>88</v>
       </c>
       <c r="BL57" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM57" t="s">
         <v>570</v>
@@ -18540,7 +18618,7 @@
         <v>88</v>
       </c>
       <c r="BL58" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM58" t="s">
         <v>650</v>
@@ -18785,7 +18863,7 @@
         <v>88</v>
       </c>
       <c r="BL59" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM59" t="s">
         <v>657</v>
@@ -19030,7 +19108,7 @@
         <v>88</v>
       </c>
       <c r="BL60" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM60" t="s">
         <v>664</v>
@@ -19275,7 +19353,7 @@
         <v>88</v>
       </c>
       <c r="BL61" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM61" t="s">
         <v>670</v>
@@ -19520,7 +19598,7 @@
         <v>88</v>
       </c>
       <c r="BL62" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM62" t="s">
         <v>627</v>
@@ -19765,7 +19843,7 @@
         <v>88</v>
       </c>
       <c r="BL63" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM63" t="s">
         <v>680</v>
@@ -20010,7 +20088,7 @@
         <v>88</v>
       </c>
       <c r="BL64" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM64" t="s">
         <v>690</v>
@@ -20255,7 +20333,7 @@
         <v>88</v>
       </c>
       <c r="BL65" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM65" t="s">
         <v>698</v>
@@ -20500,7 +20578,7 @@
         <v>88</v>
       </c>
       <c r="BL66" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM66" t="s">
         <v>443</v>
@@ -20745,7 +20823,7 @@
         <v>88</v>
       </c>
       <c r="BL67" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM67" t="s">
         <v>710</v>
@@ -20978,7 +21056,7 @@
         <v>88</v>
       </c>
       <c r="BL68" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM68" t="s">
         <v>720</v>
@@ -21223,7 +21301,7 @@
         <v>88</v>
       </c>
       <c r="BL69" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM69" t="s">
         <v>729</v>
@@ -21468,7 +21546,7 @@
         <v>88</v>
       </c>
       <c r="BL70" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM70" t="s">
         <v>736</v>
@@ -21713,7 +21791,7 @@
         <v>88</v>
       </c>
       <c r="BL71" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM71" t="s">
         <v>157</v>
@@ -21958,7 +22036,7 @@
         <v>88</v>
       </c>
       <c r="BL72" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM72" t="s">
         <v>157</v>
@@ -22203,7 +22281,7 @@
         <v>88</v>
       </c>
       <c r="BL73" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM73" t="s">
         <v>627</v>
@@ -22448,7 +22526,7 @@
         <v>88</v>
       </c>
       <c r="BL74" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM74" t="s">
         <v>757</v>
@@ -22693,7 +22771,7 @@
         <v>88</v>
       </c>
       <c r="BL75" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM75" t="s">
         <v>767</v>
@@ -22938,7 +23016,7 @@
         <v>88</v>
       </c>
       <c r="BL76" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM76" t="s">
         <v>157</v>
@@ -23183,7 +23261,7 @@
         <v>88</v>
       </c>
       <c r="BL77" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM77" t="s">
         <v>157</v>
@@ -23428,7 +23506,7 @@
         <v>88</v>
       </c>
       <c r="BL78" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM78" t="s">
         <v>157</v>
@@ -23673,7 +23751,7 @@
         <v>88</v>
       </c>
       <c r="BL79" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM79" t="s">
         <v>505</v>
@@ -23918,7 +23996,7 @@
         <v>88</v>
       </c>
       <c r="BL80" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM80" t="s">
         <v>791</v>
@@ -24163,7 +24241,7 @@
         <v>88</v>
       </c>
       <c r="BL81" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM81" t="s">
         <v>798</v>
@@ -24408,7 +24486,7 @@
         <v>88</v>
       </c>
       <c r="BL82" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM82" t="s">
         <v>805</v>
@@ -24653,7 +24731,7 @@
         <v>88</v>
       </c>
       <c r="BL83" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM83" t="s">
         <v>812</v>
@@ -24898,7 +24976,7 @@
         <v>88</v>
       </c>
       <c r="BL84" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM84" t="s">
         <v>817</v>
@@ -25143,7 +25221,7 @@
         <v>88</v>
       </c>
       <c r="BL85" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM85" t="s">
         <v>822</v>
@@ -25388,7 +25466,7 @@
         <v>88</v>
       </c>
       <c r="BL86" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM86" t="s">
         <v>830</v>
@@ -25633,7 +25711,7 @@
         <v>88</v>
       </c>
       <c r="BL87" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM87" t="s">
         <v>837</v>
@@ -25878,7 +25956,7 @@
         <v>88</v>
       </c>
       <c r="BL88" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM88" t="s">
         <v>847</v>
@@ -26123,7 +26201,7 @@
         <v>88</v>
       </c>
       <c r="BL89" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM89" t="s">
         <v>850</v>
@@ -26368,7 +26446,7 @@
         <v>88</v>
       </c>
       <c r="BL90" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM90" t="s">
         <v>858</v>
@@ -26613,7 +26691,7 @@
         <v>88</v>
       </c>
       <c r="BL91" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM91" t="s">
         <v>627</v>
@@ -26858,7 +26936,7 @@
         <v>88</v>
       </c>
       <c r="BL92" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM92" t="s">
         <v>877</v>
@@ -27103,7 +27181,7 @@
         <v>88</v>
       </c>
       <c r="BL93" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM93" t="s">
         <v>885</v>
@@ -27348,7 +27426,7 @@
         <v>88</v>
       </c>
       <c r="BL94" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM94" t="s">
         <v>893</v>
@@ -27593,7 +27671,7 @@
         <v>88</v>
       </c>
       <c r="BL95" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM95" t="s">
         <v>339</v>
@@ -27838,7 +27916,7 @@
         <v>88</v>
       </c>
       <c r="BL96" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM96" t="s">
         <v>904</v>
@@ -28083,7 +28161,7 @@
         <v>88</v>
       </c>
       <c r="BL97" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM97" t="s">
         <v>570</v>
@@ -28328,7 +28406,7 @@
         <v>88</v>
       </c>
       <c r="BL98" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM98" t="s">
         <v>627</v>
@@ -28573,7 +28651,7 @@
         <v>88</v>
       </c>
       <c r="BL99" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM99" t="s">
         <v>555</v>
@@ -28806,7 +28884,7 @@
         <v>88</v>
       </c>
       <c r="BL100" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM100" t="s">
         <v>928</v>
@@ -29051,7 +29129,7 @@
         <v>88</v>
       </c>
       <c r="BL101" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM101" t="s">
         <v>936</v>
@@ -29296,7 +29374,7 @@
         <v>88</v>
       </c>
       <c r="BL102" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM102" t="s">
         <v>720</v>
@@ -29541,7 +29619,7 @@
         <v>88</v>
       </c>
       <c r="BL103" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM103" t="s">
         <v>368</v>
@@ -29786,7 +29864,7 @@
         <v>88</v>
       </c>
       <c r="BL104" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM104" t="s">
         <v>627</v>
@@ -30031,7 +30109,7 @@
         <v>88</v>
       </c>
       <c r="BL105" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM105" t="s">
         <v>953</v>
@@ -30276,7 +30354,7 @@
         <v>88</v>
       </c>
       <c r="BL106" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM106" t="s">
         <v>563</v>
@@ -30521,7 +30599,7 @@
         <v>88</v>
       </c>
       <c r="BL107" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM107" t="s">
         <v>965</v>
@@ -30766,7 +30844,7 @@
         <v>88</v>
       </c>
       <c r="BL108" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM108" t="s">
         <v>505</v>
@@ -31011,7 +31089,7 @@
         <v>88</v>
       </c>
       <c r="BL109" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM109" t="s">
         <v>979</v>
@@ -31256,7 +31334,7 @@
         <v>88</v>
       </c>
       <c r="BL110" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM110" t="s">
         <v>986</v>
@@ -31501,7 +31579,7 @@
         <v>88</v>
       </c>
       <c r="BL111" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM111" t="s">
         <v>996</v>
@@ -31746,7 +31824,7 @@
         <v>88</v>
       </c>
       <c r="BL112" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM112" t="s">
         <v>1006</v>
@@ -31991,7 +32069,7 @@
         <v>88</v>
       </c>
       <c r="BL113" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM113" t="s">
         <v>1012</v>
@@ -32236,7 +32314,7 @@
         <v>88</v>
       </c>
       <c r="BL114" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM114" t="s">
         <v>1020</v>
@@ -32481,7 +32559,7 @@
         <v>88</v>
       </c>
       <c r="BL115" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM115" t="s">
         <v>1027</v>
@@ -32726,7 +32804,7 @@
         <v>88</v>
       </c>
       <c r="BL116" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM116" t="s">
         <v>1032</v>
@@ -32971,7 +33049,7 @@
         <v>88</v>
       </c>
       <c r="BL117" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM117" t="s">
         <v>1038</v>
@@ -33216,7 +33294,7 @@
         <v>88</v>
       </c>
       <c r="BL118" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM118" t="s">
         <v>1032</v>
@@ -33461,7 +33539,7 @@
         <v>88</v>
       </c>
       <c r="BL119" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM119" t="s">
         <v>1054</v>
@@ -33706,7 +33784,7 @@
         <v>88</v>
       </c>
       <c r="BL120" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM120" t="s">
         <v>1061</v>
@@ -33951,7 +34029,7 @@
         <v>88</v>
       </c>
       <c r="BL121" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM121" t="s">
         <v>1067</v>
@@ -34196,7 +34274,7 @@
         <v>88</v>
       </c>
       <c r="BL122" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM122" t="s">
         <v>157</v>
@@ -34441,7 +34519,7 @@
         <v>88</v>
       </c>
       <c r="BL123" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM123" t="s">
         <v>1075</v>
@@ -34686,7 +34764,7 @@
         <v>88</v>
       </c>
       <c r="BL124" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM124" t="s">
         <v>1079</v>
@@ -34751,7 +34829,7 @@
         <v>82</v>
       </c>
       <c r="B125" s="1">
-        <v>44757</v>
+        <v>44760</v>
       </c>
       <c r="C125" t="s">
         <v>281</v>
@@ -34760,7 +34838,7 @@
         <v>84</v>
       </c>
       <c r="E125" t="s">
-        <v>238</v>
+        <v>390</v>
       </c>
       <c r="F125" t="s">
         <v>86</v>
@@ -34772,19 +34850,19 @@
         <v>1081</v>
       </c>
       <c r="I125" t="s">
-        <v>279</v>
+        <v>342</v>
       </c>
       <c r="J125" t="s">
         <v>332</v>
       </c>
       <c r="K125" t="s">
-        <v>254</v>
+        <v>91</v>
       </c>
       <c r="L125" t="s">
         <v>1082</v>
       </c>
       <c r="M125" t="s">
-        <v>256</v>
+        <v>94</v>
       </c>
       <c r="N125" t="s">
         <v>94</v>
@@ -34796,7 +34874,7 @@
         <v>96</v>
       </c>
       <c r="Q125" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="R125" t="s">
         <v>95</v>
@@ -34805,40 +34883,40 @@
         <v>98</v>
       </c>
       <c r="T125" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="U125" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="V125" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="W125" t="s">
-        <v>88</v>
+        <v>394</v>
       </c>
       <c r="X125" t="s">
         <v>88</v>
       </c>
       <c r="Y125" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z125" t="s">
         <v>1083</v>
       </c>
-      <c r="Z125" t="s">
-        <v>1084</v>
-      </c>
       <c r="AA125" t="s">
-        <v>259</v>
+        <v>132</v>
       </c>
       <c r="AB125" t="s">
-        <v>153</v>
+        <v>103</v>
       </c>
       <c r="AC125" t="s">
-        <v>154</v>
+        <v>553</v>
       </c>
       <c r="AD125" t="s">
         <v>105</v>
       </c>
       <c r="AF125" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="AG125" t="s">
         <v>99</v>
@@ -34853,7 +34931,7 @@
         <v>99</v>
       </c>
       <c r="AK125" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AL125" t="s">
         <v>88</v>
@@ -34865,7 +34943,7 @@
         <v>99</v>
       </c>
       <c r="AO125" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AP125" t="s">
         <v>99</v>
@@ -34889,13 +34967,13 @@
         <v>98</v>
       </c>
       <c r="AW125" t="s">
-        <v>95</v>
+        <v>1084</v>
       </c>
       <c r="AX125" s="1">
+        <v>44760</v>
+      </c>
+      <c r="AY125" s="1">
         <v>44757</v>
-      </c>
-      <c r="AY125" s="1">
-        <v>44754</v>
       </c>
       <c r="AZ125" t="s">
         <v>93</v>
@@ -34919,7 +34997,7 @@
         <v>1085</v>
       </c>
       <c r="BG125" s="1">
-        <v>39254</v>
+        <v>44388</v>
       </c>
       <c r="BH125" t="s">
         <v>88</v>
@@ -34931,19 +35009,16 @@
         <v>88</v>
       </c>
       <c r="BL125" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM125" t="s">
         <v>1086</v>
       </c>
       <c r="BN125" t="s">
-        <v>247</v>
+        <v>711</v>
       </c>
       <c r="BO125" s="1">
-        <v>44757</v>
-      </c>
-      <c r="BP125" t="s">
-        <v>248</v>
+        <v>44761</v>
       </c>
       <c r="BQ125" t="s">
         <v>88</v>
@@ -34960,9 +35035,6 @@
       <c r="BU125" t="s">
         <v>116</v>
       </c>
-      <c r="BV125" t="s">
-        <v>249</v>
-      </c>
       <c r="BW125" t="s">
         <v>96</v>
       </c>
@@ -34970,7 +35042,7 @@
         <v>118</v>
       </c>
       <c r="BY125" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BZ125" t="s">
         <v>96</v>
@@ -34979,16 +35051,10 @@
         <v>118</v>
       </c>
       <c r="CB125" t="s">
-        <v>119</v>
-      </c>
-      <c r="CC125" t="s">
-        <v>118</v>
-      </c>
-      <c r="CD125" t="s">
-        <v>120</v>
+        <v>1087</v>
       </c>
       <c r="CE125">
-        <v>148</v>
+        <v>169</v>
       </c>
     </row>
     <row r="126" spans="1:83" x14ac:dyDescent="0.15">
@@ -34996,40 +35062,40 @@
         <v>82</v>
       </c>
       <c r="B126" s="1">
-        <v>44766</v>
+        <v>44757</v>
       </c>
       <c r="C126" t="s">
-        <v>842</v>
+        <v>281</v>
       </c>
       <c r="D126" t="s">
         <v>84</v>
       </c>
       <c r="E126" t="s">
-        <v>197</v>
+        <v>238</v>
       </c>
       <c r="F126" t="s">
         <v>86</v>
       </c>
       <c r="G126" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="H126" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="I126" t="s">
-        <v>432</v>
+        <v>279</v>
       </c>
       <c r="J126" t="s">
-        <v>486</v>
+        <v>332</v>
       </c>
       <c r="K126" t="s">
-        <v>148</v>
+        <v>254</v>
       </c>
       <c r="L126" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="M126" t="s">
-        <v>1090</v>
+        <v>256</v>
       </c>
       <c r="N126" t="s">
         <v>94</v>
@@ -35041,7 +35107,7 @@
         <v>96</v>
       </c>
       <c r="Q126" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="R126" t="s">
         <v>95</v>
@@ -35050,13 +35116,13 @@
         <v>98</v>
       </c>
       <c r="T126" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="U126" t="s">
         <v>94</v>
       </c>
       <c r="V126" t="s">
-        <v>186</v>
+        <v>119</v>
       </c>
       <c r="W126" t="s">
         <v>88</v>
@@ -35065,25 +35131,25 @@
         <v>88</v>
       </c>
       <c r="Y126" t="s">
-        <v>201</v>
+        <v>1091</v>
       </c>
       <c r="Z126" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="AA126" t="s">
-        <v>132</v>
+        <v>259</v>
       </c>
       <c r="AB126" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="AC126" t="s">
-        <v>294</v>
+        <v>154</v>
       </c>
       <c r="AD126" t="s">
         <v>105</v>
       </c>
       <c r="AF126" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG126" t="s">
         <v>99</v>
@@ -35098,7 +35164,7 @@
         <v>99</v>
       </c>
       <c r="AK126" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="AL126" t="s">
         <v>88</v>
@@ -35110,7 +35176,7 @@
         <v>99</v>
       </c>
       <c r="AO126" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="AP126" t="s">
         <v>99</v>
@@ -35134,13 +35200,13 @@
         <v>98</v>
       </c>
       <c r="AW126" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="AX126" s="1">
-        <v>44766</v>
+        <v>44757</v>
       </c>
       <c r="AY126" s="1">
-        <v>44762</v>
+        <v>44754</v>
       </c>
       <c r="AZ126" t="s">
         <v>93</v>
@@ -35161,10 +35227,10 @@
         <v>155</v>
       </c>
       <c r="BF126" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="BG126" s="1">
-        <v>23340</v>
+        <v>39254</v>
       </c>
       <c r="BH126" t="s">
         <v>88</v>
@@ -35176,19 +35242,19 @@
         <v>88</v>
       </c>
       <c r="BL126" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM126" t="s">
-        <v>657</v>
+        <v>1094</v>
       </c>
       <c r="BN126" t="s">
-        <v>205</v>
+        <v>247</v>
       </c>
       <c r="BO126" s="1">
-        <v>44767</v>
+        <v>44757</v>
       </c>
       <c r="BP126" t="s">
-        <v>206</v>
+        <v>248</v>
       </c>
       <c r="BQ126" t="s">
         <v>88</v>
@@ -35206,7 +35272,7 @@
         <v>116</v>
       </c>
       <c r="BV126" t="s">
-        <v>207</v>
+        <v>249</v>
       </c>
       <c r="BW126" t="s">
         <v>96</v>
@@ -35215,7 +35281,7 @@
         <v>118</v>
       </c>
       <c r="BY126" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BZ126" t="s">
         <v>96</v>
@@ -35224,7 +35290,7 @@
         <v>118</v>
       </c>
       <c r="CB126" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="CC126" t="s">
         <v>118</v>
@@ -35233,7 +35299,7 @@
         <v>120</v>
       </c>
       <c r="CE126">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="127" spans="1:83" x14ac:dyDescent="0.15">
@@ -35241,7 +35307,7 @@
         <v>82</v>
       </c>
       <c r="B127" s="1">
-        <v>44765</v>
+        <v>44766</v>
       </c>
       <c r="C127" t="s">
         <v>842</v>
@@ -35250,31 +35316,31 @@
         <v>84</v>
       </c>
       <c r="E127" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="F127" t="s">
         <v>86</v>
       </c>
       <c r="G127" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="H127" t="s">
-        <v>88</v>
+        <v>1096</v>
       </c>
       <c r="I127" t="s">
-        <v>1094</v>
+        <v>432</v>
       </c>
       <c r="J127" t="s">
-        <v>565</v>
+        <v>486</v>
       </c>
       <c r="K127" t="s">
-        <v>91</v>
+        <v>148</v>
       </c>
       <c r="L127" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="M127" t="s">
-        <v>99</v>
+        <v>1098</v>
       </c>
       <c r="N127" t="s">
         <v>94</v>
@@ -35286,7 +35352,7 @@
         <v>96</v>
       </c>
       <c r="Q127" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="R127" t="s">
         <v>95</v>
@@ -35301,7 +35367,7 @@
         <v>94</v>
       </c>
       <c r="V127" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="W127" t="s">
         <v>88</v>
@@ -35310,10 +35376,10 @@
         <v>88</v>
       </c>
       <c r="Y127" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="Z127" t="s">
-        <v>1096</v>
+        <v>1099</v>
       </c>
       <c r="AA127" t="s">
         <v>132</v>
@@ -35322,13 +35388,13 @@
         <v>133</v>
       </c>
       <c r="AC127" t="s">
-        <v>134</v>
+        <v>294</v>
       </c>
       <c r="AD127" t="s">
         <v>105</v>
       </c>
       <c r="AF127" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="AG127" t="s">
         <v>99</v>
@@ -35343,7 +35409,7 @@
         <v>99</v>
       </c>
       <c r="AK127" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AL127" t="s">
         <v>88</v>
@@ -35355,7 +35421,7 @@
         <v>99</v>
       </c>
       <c r="AO127" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AP127" t="s">
         <v>99</v>
@@ -35382,7 +35448,7 @@
         <v>129</v>
       </c>
       <c r="AX127" s="1">
-        <v>44765</v>
+        <v>44766</v>
       </c>
       <c r="AY127" s="1">
         <v>44762</v>
@@ -35406,10 +35472,10 @@
         <v>155</v>
       </c>
       <c r="BF127" t="s">
-        <v>1097</v>
+        <v>1100</v>
       </c>
       <c r="BG127" s="1">
-        <v>43974</v>
+        <v>23340</v>
       </c>
       <c r="BH127" t="s">
         <v>88</v>
@@ -35421,19 +35487,19 @@
         <v>88</v>
       </c>
       <c r="BL127" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM127" t="s">
-        <v>817</v>
+        <v>657</v>
       </c>
       <c r="BN127" t="s">
-        <v>1098</v>
+        <v>205</v>
       </c>
       <c r="BO127" s="1">
         <v>44767</v>
       </c>
       <c r="BP127" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="BQ127" t="s">
         <v>88</v>
@@ -35451,7 +35517,7 @@
         <v>116</v>
       </c>
       <c r="BV127" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="BW127" t="s">
         <v>96</v>
@@ -35478,7 +35544,7 @@
         <v>120</v>
       </c>
       <c r="CE127">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="128" spans="1:83" x14ac:dyDescent="0.15">
@@ -35486,7 +35552,7 @@
         <v>82</v>
       </c>
       <c r="B128" s="1">
-        <v>44760</v>
+        <v>44765</v>
       </c>
       <c r="C128" t="s">
         <v>842</v>
@@ -35495,31 +35561,31 @@
         <v>84</v>
       </c>
       <c r="E128" t="s">
-        <v>85</v>
+        <v>209</v>
       </c>
       <c r="F128" t="s">
         <v>86</v>
       </c>
       <c r="G128" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="H128" t="s">
-        <v>1100</v>
+        <v>88</v>
       </c>
       <c r="I128" t="s">
-        <v>467</v>
+        <v>1102</v>
       </c>
       <c r="J128" t="s">
-        <v>1101</v>
+        <v>565</v>
       </c>
       <c r="K128" t="s">
-        <v>254</v>
+        <v>91</v>
       </c>
       <c r="L128" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="M128" t="s">
-        <v>335</v>
+        <v>99</v>
       </c>
       <c r="N128" t="s">
         <v>94</v>
@@ -35531,7 +35597,7 @@
         <v>96</v>
       </c>
       <c r="Q128" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="R128" t="s">
         <v>95</v>
@@ -35543,31 +35609,31 @@
         <v>129</v>
       </c>
       <c r="U128" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="V128" t="s">
-        <v>88</v>
+        <v>215</v>
       </c>
       <c r="W128" t="s">
         <v>88</v>
       </c>
       <c r="X128" t="s">
-        <v>1103</v>
+        <v>88</v>
       </c>
       <c r="Y128" t="s">
-        <v>88</v>
+        <v>187</v>
       </c>
       <c r="Z128" t="s">
         <v>1104</v>
       </c>
       <c r="AA128" t="s">
-        <v>259</v>
+        <v>132</v>
       </c>
       <c r="AB128" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="AC128" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="AD128" t="s">
         <v>105</v>
@@ -35588,7 +35654,7 @@
         <v>99</v>
       </c>
       <c r="AK128" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="AL128" t="s">
         <v>88</v>
@@ -35600,7 +35666,7 @@
         <v>99</v>
       </c>
       <c r="AO128" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="AP128" t="s">
         <v>99</v>
@@ -35627,10 +35693,10 @@
         <v>129</v>
       </c>
       <c r="AX128" s="1">
-        <v>44760</v>
+        <v>44765</v>
       </c>
       <c r="AY128" s="1">
-        <v>44759</v>
+        <v>44762</v>
       </c>
       <c r="AZ128" t="s">
         <v>93</v>
@@ -35654,7 +35720,7 @@
         <v>1105</v>
       </c>
       <c r="BG128" s="1">
-        <v>38815</v>
+        <v>43974</v>
       </c>
       <c r="BH128" t="s">
         <v>88</v>
@@ -35666,19 +35732,19 @@
         <v>88</v>
       </c>
       <c r="BL128" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM128" t="s">
+        <v>817</v>
+      </c>
+      <c r="BN128" t="s">
         <v>1106</v>
       </c>
-      <c r="BN128" t="s">
-        <v>113</v>
-      </c>
       <c r="BO128" s="1">
-        <v>44763</v>
+        <v>44767</v>
       </c>
       <c r="BP128" t="s">
-        <v>114</v>
+        <v>222</v>
       </c>
       <c r="BQ128" t="s">
         <v>88</v>
@@ -35696,7 +35762,7 @@
         <v>116</v>
       </c>
       <c r="BV128" t="s">
-        <v>117</v>
+        <v>224</v>
       </c>
       <c r="BW128" t="s">
         <v>96</v>
@@ -35723,7 +35789,7 @@
         <v>120</v>
       </c>
       <c r="CE128">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="129" spans="1:83" x14ac:dyDescent="0.15">
@@ -35731,40 +35797,40 @@
         <v>82</v>
       </c>
       <c r="B129" s="1">
-        <v>44578</v>
+        <v>44760</v>
       </c>
       <c r="C129" t="s">
-        <v>106</v>
+        <v>842</v>
       </c>
       <c r="D129" t="s">
         <v>84</v>
       </c>
       <c r="E129" t="s">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="F129" t="s">
-        <v>143</v>
+        <v>86</v>
       </c>
       <c r="G129" t="s">
-        <v>780</v>
+        <v>1107</v>
       </c>
       <c r="H129" t="s">
-        <v>88</v>
+        <v>1108</v>
       </c>
       <c r="I129" t="s">
-        <v>1107</v>
+        <v>467</v>
       </c>
       <c r="J129" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="K129" t="s">
-        <v>148</v>
+        <v>254</v>
       </c>
       <c r="L129" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="M129" t="s">
-        <v>373</v>
+        <v>335</v>
       </c>
       <c r="N129" t="s">
         <v>94</v>
@@ -35776,7 +35842,7 @@
         <v>96</v>
       </c>
       <c r="Q129" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="R129" t="s">
         <v>95</v>
@@ -35788,37 +35854,37 @@
         <v>129</v>
       </c>
       <c r="U129" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="V129" t="s">
         <v>88</v>
       </c>
       <c r="W129" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="X129" t="s">
-        <v>88</v>
+        <v>1111</v>
       </c>
       <c r="Y129" t="s">
         <v>88</v>
       </c>
       <c r="Z129" t="s">
-        <v>152</v>
+        <v>1112</v>
       </c>
       <c r="AA129" t="s">
-        <v>132</v>
+        <v>259</v>
       </c>
       <c r="AB129" t="s">
-        <v>153</v>
+        <v>103</v>
       </c>
       <c r="AC129" t="s">
-        <v>154</v>
+        <v>104</v>
       </c>
       <c r="AD129" t="s">
         <v>105</v>
       </c>
       <c r="AF129" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AG129" t="s">
         <v>99</v>
@@ -35830,10 +35896,10 @@
         <v>99</v>
       </c>
       <c r="AJ129" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AK129" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AL129" t="s">
         <v>88</v>
@@ -35845,7 +35911,7 @@
         <v>99</v>
       </c>
       <c r="AO129" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AP129" t="s">
         <v>99</v>
@@ -35857,10 +35923,10 @@
         <v>99</v>
       </c>
       <c r="AS129" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="AT129" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="AU129" t="s">
         <v>95</v>
@@ -35872,10 +35938,10 @@
         <v>129</v>
       </c>
       <c r="AX129" s="1">
-        <v>44578</v>
+        <v>44760</v>
       </c>
       <c r="AY129" s="1">
-        <v>44577</v>
+        <v>44759</v>
       </c>
       <c r="AZ129" t="s">
         <v>93</v>
@@ -35896,10 +35962,10 @@
         <v>155</v>
       </c>
       <c r="BF129" t="s">
-        <v>156</v>
+        <v>1113</v>
       </c>
       <c r="BG129" s="1">
-        <v>34647</v>
+        <v>38815</v>
       </c>
       <c r="BH129" t="s">
         <v>88</v>
@@ -35911,19 +35977,19 @@
         <v>88</v>
       </c>
       <c r="BL129" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM129" t="s">
-        <v>157</v>
+        <v>1114</v>
       </c>
       <c r="BN129" t="s">
-        <v>158</v>
+        <v>113</v>
       </c>
       <c r="BO129" s="1">
-        <v>44588</v>
+        <v>44763</v>
       </c>
       <c r="BP129" t="s">
-        <v>159</v>
+        <v>114</v>
       </c>
       <c r="BQ129" t="s">
         <v>88</v>
@@ -35935,13 +36001,13 @@
         <v>88</v>
       </c>
       <c r="BT129" t="s">
-        <v>195</v>
+        <v>721</v>
       </c>
       <c r="BU129" t="s">
         <v>116</v>
       </c>
       <c r="BV129" t="s">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="BW129" t="s">
         <v>96</v>
@@ -35968,7 +36034,7 @@
         <v>120</v>
       </c>
       <c r="CE129">
-        <v>25</v>
+        <v>160</v>
       </c>
     </row>
     <row r="130" spans="1:83" x14ac:dyDescent="0.15">
@@ -35976,7 +36042,7 @@
         <v>82</v>
       </c>
       <c r="B130" s="1">
-        <v>44584</v>
+        <v>44578</v>
       </c>
       <c r="C130" t="s">
         <v>106</v>
@@ -35985,31 +36051,31 @@
         <v>84</v>
       </c>
       <c r="E130" t="s">
-        <v>209</v>
+        <v>142</v>
       </c>
       <c r="F130" t="s">
-        <v>86</v>
+        <v>143</v>
       </c>
       <c r="G130" t="s">
-        <v>1110</v>
+        <v>780</v>
       </c>
       <c r="H130" t="s">
-        <v>444</v>
+        <v>88</v>
       </c>
       <c r="I130" t="s">
-        <v>1111</v>
+        <v>1115</v>
       </c>
       <c r="J130" t="s">
-        <v>1112</v>
+        <v>1116</v>
       </c>
       <c r="K130" t="s">
-        <v>91</v>
+        <v>148</v>
       </c>
       <c r="L130" t="s">
-        <v>1113</v>
+        <v>1117</v>
       </c>
       <c r="M130" t="s">
-        <v>93</v>
+        <v>373</v>
       </c>
       <c r="N130" t="s">
         <v>94</v>
@@ -36030,34 +36096,34 @@
         <v>98</v>
       </c>
       <c r="T130" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="U130" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="V130" t="s">
-        <v>215</v>
+        <v>88</v>
       </c>
       <c r="W130" t="s">
-        <v>88</v>
+        <v>151</v>
       </c>
       <c r="X130" t="s">
         <v>88</v>
       </c>
       <c r="Y130" t="s">
-        <v>1114</v>
+        <v>88</v>
       </c>
       <c r="Z130" t="s">
-        <v>1115</v>
+        <v>152</v>
       </c>
       <c r="AA130" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="AB130" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="AC130" t="s">
-        <v>190</v>
+        <v>154</v>
       </c>
       <c r="AD130" t="s">
         <v>105</v>
@@ -36075,7 +36141,7 @@
         <v>99</v>
       </c>
       <c r="AJ130" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="AK130" t="s">
         <v>88</v>
@@ -36102,10 +36168,10 @@
         <v>99</v>
       </c>
       <c r="AS130" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AT130" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AU130" t="s">
         <v>95</v>
@@ -36114,13 +36180,13 @@
         <v>98</v>
       </c>
       <c r="AW130" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="AX130" s="1">
-        <v>44583</v>
+        <v>44578</v>
       </c>
       <c r="AY130" s="1">
-        <v>44580</v>
+        <v>44577</v>
       </c>
       <c r="AZ130" t="s">
         <v>93</v>
@@ -36141,10 +36207,10 @@
         <v>155</v>
       </c>
       <c r="BF130" t="s">
-        <v>1116</v>
+        <v>156</v>
       </c>
       <c r="BG130" s="1">
-        <v>42966</v>
+        <v>34647</v>
       </c>
       <c r="BH130" t="s">
         <v>88</v>
@@ -36156,19 +36222,19 @@
         <v>88</v>
       </c>
       <c r="BL130" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM130" t="s">
-        <v>817</v>
+        <v>157</v>
       </c>
       <c r="BN130" t="s">
-        <v>378</v>
+        <v>158</v>
       </c>
       <c r="BO130" s="1">
-        <v>44586</v>
+        <v>44588</v>
       </c>
       <c r="BP130" t="s">
-        <v>222</v>
+        <v>159</v>
       </c>
       <c r="BQ130" t="s">
         <v>88</v>
@@ -36180,13 +36246,13 @@
         <v>88</v>
       </c>
       <c r="BT130" t="s">
-        <v>1117</v>
+        <v>195</v>
       </c>
       <c r="BU130" t="s">
         <v>116</v>
       </c>
       <c r="BV130" t="s">
-        <v>224</v>
+        <v>161</v>
       </c>
       <c r="BW130" t="s">
         <v>96</v>
@@ -36195,7 +36261,7 @@
         <v>118</v>
       </c>
       <c r="BY130" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BZ130" t="s">
         <v>96</v>
@@ -36204,7 +36270,7 @@
         <v>118</v>
       </c>
       <c r="CB130" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="CC130" t="s">
         <v>118</v>
@@ -36213,7 +36279,7 @@
         <v>120</v>
       </c>
       <c r="CE130">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="131" spans="1:83" x14ac:dyDescent="0.15">
@@ -36221,7 +36287,7 @@
         <v>82</v>
       </c>
       <c r="B131" s="1">
-        <v>44585</v>
+        <v>44584</v>
       </c>
       <c r="C131" t="s">
         <v>106</v>
@@ -36230,31 +36296,31 @@
         <v>84</v>
       </c>
       <c r="E131" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="F131" t="s">
-        <v>180</v>
+        <v>86</v>
       </c>
       <c r="G131" t="s">
-        <v>319</v>
+        <v>1118</v>
       </c>
       <c r="H131" t="s">
-        <v>1118</v>
+        <v>444</v>
       </c>
       <c r="I131" t="s">
         <v>1119</v>
       </c>
       <c r="J131" t="s">
-        <v>253</v>
+        <v>1120</v>
       </c>
       <c r="K131" t="s">
         <v>91</v>
       </c>
       <c r="L131" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="M131" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="N131" t="s">
         <v>94</v>
@@ -36266,7 +36332,7 @@
         <v>96</v>
       </c>
       <c r="Q131" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="R131" t="s">
         <v>95</v>
@@ -36275,13 +36341,13 @@
         <v>98</v>
       </c>
       <c r="T131" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="U131" t="s">
         <v>94</v>
       </c>
       <c r="V131" t="s">
-        <v>186</v>
+        <v>215</v>
       </c>
       <c r="W131" t="s">
         <v>88</v>
@@ -36290,13 +36356,13 @@
         <v>88</v>
       </c>
       <c r="Y131" t="s">
-        <v>215</v>
+        <v>1122</v>
       </c>
       <c r="Z131" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="AA131" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="AB131" t="s">
         <v>133</v>
@@ -36308,7 +36374,7 @@
         <v>105</v>
       </c>
       <c r="AF131" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="AG131" t="s">
         <v>99</v>
@@ -36323,7 +36389,7 @@
         <v>99</v>
       </c>
       <c r="AK131" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="AL131" t="s">
         <v>88</v>
@@ -36335,7 +36401,7 @@
         <v>99</v>
       </c>
       <c r="AO131" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="AP131" t="s">
         <v>99</v>
@@ -36359,13 +36425,13 @@
         <v>98</v>
       </c>
       <c r="AW131" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="AX131" s="1">
-        <v>44581</v>
+        <v>44583</v>
       </c>
       <c r="AY131" s="1">
-        <v>44579</v>
+        <v>44580</v>
       </c>
       <c r="AZ131" t="s">
         <v>93</v>
@@ -36386,10 +36452,10 @@
         <v>155</v>
       </c>
       <c r="BF131" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="BG131" s="1">
-        <v>43371</v>
+        <v>42966</v>
       </c>
       <c r="BH131" t="s">
         <v>88</v>
@@ -36401,19 +36467,19 @@
         <v>88</v>
       </c>
       <c r="BL131" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM131" t="s">
-        <v>1123</v>
+        <v>817</v>
       </c>
       <c r="BN131" t="s">
-        <v>424</v>
+        <v>378</v>
       </c>
       <c r="BO131" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="BP131" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="BQ131" t="s">
         <v>88</v>
@@ -36425,13 +36491,13 @@
         <v>88</v>
       </c>
       <c r="BT131" t="s">
-        <v>195</v>
+        <v>1125</v>
       </c>
       <c r="BU131" t="s">
         <v>116</v>
       </c>
       <c r="BV131" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="BW131" t="s">
         <v>96</v>
@@ -36440,7 +36506,7 @@
         <v>118</v>
       </c>
       <c r="BY131" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BZ131" t="s">
         <v>96</v>
@@ -36449,7 +36515,7 @@
         <v>118</v>
       </c>
       <c r="CB131" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="CC131" t="s">
         <v>118</v>
@@ -36458,7 +36524,7 @@
         <v>120</v>
       </c>
       <c r="CE131">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="132" spans="1:83" x14ac:dyDescent="0.15">
@@ -36466,7 +36532,7 @@
         <v>82</v>
       </c>
       <c r="B132" s="1">
-        <v>44583</v>
+        <v>44585</v>
       </c>
       <c r="C132" t="s">
         <v>106</v>
@@ -36475,31 +36541,31 @@
         <v>84</v>
       </c>
       <c r="E132" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="F132" t="s">
-        <v>86</v>
+        <v>180</v>
       </c>
       <c r="G132" t="s">
-        <v>1124</v>
+        <v>319</v>
       </c>
       <c r="H132" t="s">
-        <v>88</v>
+        <v>1126</v>
       </c>
       <c r="I132" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="J132" t="s">
-        <v>175</v>
+        <v>253</v>
       </c>
       <c r="K132" t="s">
         <v>91</v>
       </c>
       <c r="L132" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="M132" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="N132" t="s">
         <v>94</v>
@@ -36526,19 +36592,19 @@
         <v>94</v>
       </c>
       <c r="V132" t="s">
+        <v>186</v>
+      </c>
+      <c r="W132" t="s">
+        <v>88</v>
+      </c>
+      <c r="X132" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y132" t="s">
         <v>215</v>
       </c>
-      <c r="W132" t="s">
-        <v>88</v>
-      </c>
-      <c r="X132" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y132" t="s">
-        <v>1127</v>
-      </c>
       <c r="Z132" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="AA132" t="s">
         <v>132</v>
@@ -36553,7 +36619,7 @@
         <v>105</v>
       </c>
       <c r="AF132" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="AG132" t="s">
         <v>99</v>
@@ -36607,10 +36673,10 @@
         <v>129</v>
       </c>
       <c r="AX132" s="1">
-        <v>44583</v>
+        <v>44581</v>
       </c>
       <c r="AY132" s="1">
-        <v>44582</v>
+        <v>44579</v>
       </c>
       <c r="AZ132" t="s">
         <v>93</v>
@@ -36631,10 +36697,10 @@
         <v>155</v>
       </c>
       <c r="BF132" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="BG132" s="1">
-        <v>44041</v>
+        <v>43371</v>
       </c>
       <c r="BH132" t="s">
         <v>88</v>
@@ -36646,19 +36712,19 @@
         <v>88</v>
       </c>
       <c r="BL132" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM132" t="s">
-        <v>274</v>
+        <v>1131</v>
       </c>
       <c r="BN132" t="s">
-        <v>275</v>
+        <v>424</v>
       </c>
       <c r="BO132" s="1">
         <v>44585</v>
       </c>
       <c r="BP132" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="BQ132" t="s">
         <v>88</v>
@@ -36676,7 +36742,7 @@
         <v>116</v>
       </c>
       <c r="BV132" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="BW132" t="s">
         <v>96</v>
@@ -36703,7 +36769,7 @@
         <v>120</v>
       </c>
       <c r="CE132">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133" spans="1:83" x14ac:dyDescent="0.15">
@@ -36711,7 +36777,7 @@
         <v>82</v>
       </c>
       <c r="B133" s="1">
-        <v>44586</v>
+        <v>44583</v>
       </c>
       <c r="C133" t="s">
         <v>106</v>
@@ -36726,25 +36792,25 @@
         <v>86</v>
       </c>
       <c r="G133" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="H133" t="s">
-        <v>1131</v>
+        <v>88</v>
       </c>
       <c r="I133" t="s">
-        <v>342</v>
+        <v>1133</v>
       </c>
       <c r="J133" t="s">
-        <v>1132</v>
+        <v>175</v>
       </c>
       <c r="K133" t="s">
-        <v>254</v>
+        <v>91</v>
       </c>
       <c r="L133" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="M133" t="s">
-        <v>256</v>
+        <v>94</v>
       </c>
       <c r="N133" t="s">
         <v>94</v>
@@ -36756,7 +36822,7 @@
         <v>96</v>
       </c>
       <c r="Q133" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="R133" t="s">
         <v>95</v>
@@ -36780,13 +36846,13 @@
         <v>88</v>
       </c>
       <c r="Y133" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="Z133" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="AA133" t="s">
-        <v>259</v>
+        <v>132</v>
       </c>
       <c r="AB133" t="s">
         <v>133</v>
@@ -36798,7 +36864,7 @@
         <v>105</v>
       </c>
       <c r="AF133" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="AG133" t="s">
         <v>99</v>
@@ -36813,7 +36879,7 @@
         <v>99</v>
       </c>
       <c r="AK133" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AL133" t="s">
         <v>88</v>
@@ -36825,7 +36891,7 @@
         <v>99</v>
       </c>
       <c r="AO133" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AP133" t="s">
         <v>99</v>
@@ -36852,7 +36918,7 @@
         <v>129</v>
       </c>
       <c r="AX133" s="1">
-        <v>44586</v>
+        <v>44583</v>
       </c>
       <c r="AY133" s="1">
         <v>44582</v>
@@ -36876,10 +36942,10 @@
         <v>155</v>
       </c>
       <c r="BF133" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="BG133" s="1">
-        <v>39100</v>
+        <v>44041</v>
       </c>
       <c r="BH133" t="s">
         <v>88</v>
@@ -36891,16 +36957,16 @@
         <v>88</v>
       </c>
       <c r="BL133" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM133" t="s">
-        <v>1137</v>
+        <v>274</v>
       </c>
       <c r="BN133" t="s">
-        <v>1138</v>
+        <v>275</v>
       </c>
       <c r="BO133" s="1">
-        <v>44587</v>
+        <v>44585</v>
       </c>
       <c r="BP133" t="s">
         <v>222</v>
@@ -36948,7 +37014,7 @@
         <v>120</v>
       </c>
       <c r="CE133">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="134" spans="1:83" x14ac:dyDescent="0.15">
@@ -36956,7 +37022,7 @@
         <v>82</v>
       </c>
       <c r="B134" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="C134" t="s">
         <v>106</v>
@@ -36965,31 +37031,31 @@
         <v>84</v>
       </c>
       <c r="E134" t="s">
-        <v>85</v>
+        <v>209</v>
       </c>
       <c r="F134" t="s">
-        <v>208</v>
+        <v>86</v>
       </c>
       <c r="G134" t="s">
-        <v>276</v>
+        <v>1138</v>
       </c>
       <c r="H134" t="s">
-        <v>277</v>
+        <v>1139</v>
       </c>
       <c r="I134" t="s">
-        <v>1022</v>
+        <v>342</v>
       </c>
       <c r="J134" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="K134" t="s">
         <v>254</v>
       </c>
       <c r="L134" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="M134" t="s">
-        <v>454</v>
+        <v>256</v>
       </c>
       <c r="N134" t="s">
         <v>94</v>
@@ -37001,7 +37067,7 @@
         <v>96</v>
       </c>
       <c r="Q134" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="R134" t="s">
         <v>95</v>
@@ -37013,37 +37079,37 @@
         <v>129</v>
       </c>
       <c r="U134" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="V134" t="s">
-        <v>88</v>
+        <v>215</v>
       </c>
       <c r="W134" t="s">
-        <v>1141</v>
+        <v>88</v>
       </c>
       <c r="X134" t="s">
         <v>88</v>
       </c>
       <c r="Y134" t="s">
-        <v>88</v>
+        <v>1142</v>
       </c>
       <c r="Z134" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="AA134" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="AB134" t="s">
-        <v>875</v>
+        <v>133</v>
       </c>
       <c r="AC134" t="s">
-        <v>88</v>
+        <v>190</v>
       </c>
       <c r="AD134" t="s">
         <v>105</v>
       </c>
       <c r="AF134" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="AG134" t="s">
         <v>99</v>
@@ -37058,7 +37124,7 @@
         <v>99</v>
       </c>
       <c r="AK134" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="AL134" t="s">
         <v>88</v>
@@ -37070,7 +37136,7 @@
         <v>99</v>
       </c>
       <c r="AO134" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="AP134" t="s">
         <v>99</v>
@@ -37097,7 +37163,7 @@
         <v>129</v>
       </c>
       <c r="AX134" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="AY134" s="1">
         <v>44582</v>
@@ -37121,10 +37187,10 @@
         <v>155</v>
       </c>
       <c r="BF134" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="BG134" s="1">
-        <v>38044</v>
+        <v>39100</v>
       </c>
       <c r="BH134" t="s">
         <v>88</v>
@@ -37136,19 +37202,19 @@
         <v>88</v>
       </c>
       <c r="BL134" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM134" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="BN134" t="s">
-        <v>113</v>
+        <v>1146</v>
       </c>
       <c r="BO134" s="1">
-        <v>44586</v>
+        <v>44587</v>
       </c>
       <c r="BP134" t="s">
-        <v>114</v>
+        <v>222</v>
       </c>
       <c r="BQ134" t="s">
         <v>88</v>
@@ -37160,13 +37226,13 @@
         <v>88</v>
       </c>
       <c r="BT134" t="s">
-        <v>1117</v>
+        <v>195</v>
       </c>
       <c r="BU134" t="s">
         <v>116</v>
       </c>
       <c r="BV134" t="s">
-        <v>111</v>
+        <v>224</v>
       </c>
       <c r="BW134" t="s">
         <v>96</v>
@@ -37193,7 +37259,7 @@
         <v>120</v>
       </c>
       <c r="CE134">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="135" spans="1:83" x14ac:dyDescent="0.15">
@@ -37204,37 +37270,37 @@
         <v>44585</v>
       </c>
       <c r="C135" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="D135" t="s">
         <v>84</v>
       </c>
       <c r="E135" t="s">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="F135" t="s">
-        <v>143</v>
+        <v>208</v>
       </c>
       <c r="G135" t="s">
-        <v>330</v>
+        <v>276</v>
       </c>
       <c r="H135" t="s">
-        <v>1145</v>
+        <v>277</v>
       </c>
       <c r="I135" t="s">
-        <v>1146</v>
+        <v>1022</v>
       </c>
       <c r="J135" t="s">
         <v>1147</v>
       </c>
       <c r="K135" t="s">
-        <v>148</v>
+        <v>254</v>
       </c>
       <c r="L135" t="s">
         <v>1148</v>
       </c>
       <c r="M135" t="s">
-        <v>214</v>
+        <v>454</v>
       </c>
       <c r="N135" t="s">
         <v>94</v>
@@ -37246,7 +37312,7 @@
         <v>96</v>
       </c>
       <c r="Q135" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="R135" t="s">
         <v>95</v>
@@ -37264,7 +37330,7 @@
         <v>88</v>
       </c>
       <c r="W135" t="s">
-        <v>151</v>
+        <v>1149</v>
       </c>
       <c r="X135" t="s">
         <v>88</v>
@@ -37273,22 +37339,22 @@
         <v>88</v>
       </c>
       <c r="Z135" t="s">
-        <v>152</v>
+        <v>1150</v>
       </c>
       <c r="AA135" t="s">
-        <v>132</v>
+        <v>283</v>
       </c>
       <c r="AB135" t="s">
-        <v>153</v>
+        <v>875</v>
       </c>
       <c r="AC135" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="AD135" t="s">
         <v>105</v>
       </c>
       <c r="AF135" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="AG135" t="s">
         <v>99</v>
@@ -37300,10 +37366,10 @@
         <v>99</v>
       </c>
       <c r="AJ135" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AK135" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AL135" t="s">
         <v>88</v>
@@ -37315,7 +37381,7 @@
         <v>99</v>
       </c>
       <c r="AO135" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AP135" t="s">
         <v>99</v>
@@ -37327,10 +37393,10 @@
         <v>99</v>
       </c>
       <c r="AS135" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="AT135" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="AU135" t="s">
         <v>95</v>
@@ -37345,7 +37411,7 @@
         <v>44585</v>
       </c>
       <c r="AY135" s="1">
-        <v>44585</v>
+        <v>44582</v>
       </c>
       <c r="AZ135" t="s">
         <v>93</v>
@@ -37366,10 +37432,10 @@
         <v>155</v>
       </c>
       <c r="BF135" t="s">
-        <v>156</v>
+        <v>1151</v>
       </c>
       <c r="BG135" s="1">
-        <v>32999</v>
+        <v>38044</v>
       </c>
       <c r="BH135" t="s">
         <v>88</v>
@@ -37381,19 +37447,19 @@
         <v>88</v>
       </c>
       <c r="BL135" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM135" t="s">
-        <v>157</v>
+        <v>1152</v>
       </c>
       <c r="BN135" t="s">
-        <v>158</v>
+        <v>113</v>
       </c>
       <c r="BO135" s="1">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="BP135" t="s">
-        <v>159</v>
+        <v>114</v>
       </c>
       <c r="BQ135" t="s">
         <v>88</v>
@@ -37405,13 +37471,13 @@
         <v>88</v>
       </c>
       <c r="BT135" t="s">
-        <v>195</v>
+        <v>1125</v>
       </c>
       <c r="BU135" t="s">
         <v>116</v>
       </c>
       <c r="BV135" t="s">
-        <v>161</v>
+        <v>111</v>
       </c>
       <c r="BW135" t="s">
         <v>96</v>
@@ -37438,7 +37504,7 @@
         <v>120</v>
       </c>
       <c r="CE135">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="136" spans="1:83" x14ac:dyDescent="0.15">
@@ -37446,40 +37512,40 @@
         <v>82</v>
       </c>
       <c r="B136" s="1">
-        <v>44590</v>
+        <v>44772</v>
       </c>
       <c r="C136" t="s">
-        <v>93</v>
+        <v>477</v>
       </c>
       <c r="D136" t="s">
         <v>84</v>
       </c>
       <c r="E136" t="s">
-        <v>122</v>
+        <v>250</v>
       </c>
       <c r="F136" t="s">
-        <v>86</v>
+        <v>226</v>
       </c>
       <c r="G136" t="s">
-        <v>722</v>
+        <v>319</v>
       </c>
       <c r="H136" t="s">
-        <v>1149</v>
+        <v>1153</v>
       </c>
       <c r="I136" t="s">
-        <v>1150</v>
+        <v>1154</v>
       </c>
       <c r="J136" t="s">
-        <v>510</v>
+        <v>446</v>
       </c>
       <c r="K136" t="s">
         <v>148</v>
       </c>
       <c r="L136" t="s">
-        <v>1151</v>
+        <v>1155</v>
       </c>
       <c r="M136" t="s">
-        <v>763</v>
+        <v>1156</v>
       </c>
       <c r="N136" t="s">
         <v>94</v>
@@ -37503,37 +37569,37 @@
         <v>129</v>
       </c>
       <c r="U136" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="V136" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="W136" t="s">
-        <v>88</v>
+        <v>1157</v>
       </c>
       <c r="X136" t="s">
         <v>88</v>
       </c>
       <c r="Y136" t="s">
-        <v>201</v>
+        <v>88</v>
       </c>
       <c r="Z136" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="AA136" t="s">
         <v>132</v>
       </c>
       <c r="AB136" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="AC136" t="s">
-        <v>134</v>
+        <v>260</v>
       </c>
       <c r="AD136" t="s">
         <v>105</v>
       </c>
       <c r="AF136" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="AG136" t="s">
         <v>99</v>
@@ -37587,19 +37653,19 @@
         <v>129</v>
       </c>
       <c r="AX136" s="1">
-        <v>44588</v>
+        <v>44772</v>
       </c>
       <c r="AY136" s="1">
-        <v>44586</v>
+        <v>44770</v>
       </c>
       <c r="AZ136" t="s">
         <v>93</v>
       </c>
       <c r="BA136" t="s">
-        <v>99</v>
-      </c>
-      <c r="BB136" t="s">
-        <v>107</v>
+        <v>94</v>
+      </c>
+      <c r="BB136" s="1">
+        <v>44772</v>
       </c>
       <c r="BC136" t="s">
         <v>94</v>
@@ -37611,10 +37677,10 @@
         <v>155</v>
       </c>
       <c r="BF136" t="s">
-        <v>1153</v>
+        <v>1159</v>
       </c>
       <c r="BG136" s="1">
-        <v>36204</v>
+        <v>30142</v>
       </c>
       <c r="BH136" t="s">
         <v>88</v>
@@ -37626,19 +37692,19 @@
         <v>88</v>
       </c>
       <c r="BL136" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM136" t="s">
-        <v>1154</v>
+        <v>1160</v>
       </c>
       <c r="BN136" t="s">
-        <v>758</v>
+        <v>263</v>
       </c>
       <c r="BO136" s="1">
-        <v>44590</v>
+        <v>44776</v>
       </c>
       <c r="BP136" t="s">
-        <v>140</v>
+        <v>264</v>
       </c>
       <c r="BQ136" t="s">
         <v>88</v>
@@ -37650,13 +37716,13 @@
         <v>88</v>
       </c>
       <c r="BT136" t="s">
-        <v>195</v>
+        <v>1161</v>
       </c>
       <c r="BU136" t="s">
         <v>116</v>
       </c>
       <c r="BV136" t="s">
-        <v>137</v>
+        <v>980</v>
       </c>
       <c r="BW136" t="s">
         <v>96</v>
@@ -37683,7 +37749,7 @@
         <v>120</v>
       </c>
       <c r="CE136">
-        <v>20</v>
+        <v>166</v>
       </c>
     </row>
     <row r="137" spans="1:83" x14ac:dyDescent="0.15">
@@ -37691,40 +37757,40 @@
         <v>82</v>
       </c>
       <c r="B137" s="1">
-        <v>44628</v>
+        <v>44778</v>
       </c>
       <c r="C137" t="s">
-        <v>93</v>
+        <v>214</v>
       </c>
       <c r="D137" t="s">
         <v>84</v>
       </c>
       <c r="E137" t="s">
-        <v>535</v>
+        <v>142</v>
       </c>
       <c r="F137" t="s">
-        <v>226</v>
+        <v>143</v>
       </c>
       <c r="G137" t="s">
-        <v>426</v>
+        <v>1162</v>
       </c>
       <c r="H137" t="s">
-        <v>88</v>
+        <v>251</v>
       </c>
       <c r="I137" t="s">
-        <v>1155</v>
+        <v>310</v>
       </c>
       <c r="J137" t="s">
-        <v>88</v>
+        <v>165</v>
       </c>
       <c r="K137" t="s">
         <v>148</v>
       </c>
       <c r="L137" t="s">
-        <v>1156</v>
+        <v>1163</v>
       </c>
       <c r="M137" t="s">
-        <v>290</v>
+        <v>1164</v>
       </c>
       <c r="N137" t="s">
         <v>94</v>
@@ -37736,7 +37802,7 @@
         <v>96</v>
       </c>
       <c r="Q137" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="R137" t="s">
         <v>95</v>
@@ -37748,37 +37814,37 @@
         <v>129</v>
       </c>
       <c r="U137" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="V137" t="s">
-        <v>186</v>
+        <v>88</v>
       </c>
       <c r="W137" t="s">
-        <v>88</v>
+        <v>151</v>
       </c>
       <c r="X137" t="s">
         <v>88</v>
       </c>
       <c r="Y137" t="s">
-        <v>186</v>
+        <v>88</v>
       </c>
       <c r="Z137" t="s">
-        <v>1157</v>
+        <v>152</v>
       </c>
       <c r="AA137" t="s">
-        <v>259</v>
+        <v>132</v>
       </c>
       <c r="AB137" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="AC137" t="s">
-        <v>347</v>
+        <v>154</v>
       </c>
       <c r="AD137" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="AF137" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="AG137" t="s">
         <v>99</v>
@@ -37790,10 +37856,10 @@
         <v>99</v>
       </c>
       <c r="AJ137" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="AK137" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="AL137" t="s">
         <v>88</v>
@@ -37805,7 +37871,7 @@
         <v>99</v>
       </c>
       <c r="AO137" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="AP137" t="s">
         <v>99</v>
@@ -37817,10 +37883,10 @@
         <v>99</v>
       </c>
       <c r="AS137" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AT137" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AU137" t="s">
         <v>95</v>
@@ -37832,10 +37898,10 @@
         <v>129</v>
       </c>
       <c r="AX137" s="1">
-        <v>44585</v>
+        <v>44778</v>
       </c>
       <c r="AY137" s="1">
-        <v>44584</v>
+        <v>44778</v>
       </c>
       <c r="AZ137" t="s">
         <v>93</v>
@@ -37856,10 +37922,10 @@
         <v>155</v>
       </c>
       <c r="BF137" t="s">
-        <v>1158</v>
+        <v>1165</v>
       </c>
       <c r="BG137" s="1">
-        <v>36155</v>
+        <v>30274</v>
       </c>
       <c r="BH137" t="s">
         <v>88</v>
@@ -37871,19 +37937,19 @@
         <v>88</v>
       </c>
       <c r="BL137" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM137" t="s">
-        <v>1159</v>
+        <v>157</v>
       </c>
       <c r="BN137" t="s">
-        <v>545</v>
+        <v>158</v>
       </c>
       <c r="BO137" s="1">
-        <v>44628</v>
+        <v>44781</v>
       </c>
       <c r="BP137" t="s">
-        <v>546</v>
+        <v>159</v>
       </c>
       <c r="BQ137" t="s">
         <v>88</v>
@@ -37895,13 +37961,13 @@
         <v>88</v>
       </c>
       <c r="BT137" t="s">
-        <v>223</v>
+        <v>465</v>
       </c>
       <c r="BU137" t="s">
         <v>116</v>
       </c>
       <c r="BV137" t="s">
-        <v>547</v>
+        <v>161</v>
       </c>
       <c r="BW137" t="s">
         <v>96</v>
@@ -37928,7 +37994,7 @@
         <v>120</v>
       </c>
       <c r="CE137">
-        <v>49</v>
+        <v>168</v>
       </c>
     </row>
     <row r="138" spans="1:83" x14ac:dyDescent="0.15">
@@ -37936,40 +38002,40 @@
         <v>82</v>
       </c>
       <c r="B138" s="1">
-        <v>44588</v>
+        <v>44776</v>
       </c>
       <c r="C138" t="s">
-        <v>93</v>
+        <v>214</v>
       </c>
       <c r="D138" t="s">
         <v>84</v>
       </c>
       <c r="E138" t="s">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="F138" t="s">
-        <v>86</v>
+        <v>226</v>
       </c>
       <c r="G138" t="s">
-        <v>1160</v>
+        <v>426</v>
       </c>
       <c r="H138" t="s">
         <v>88</v>
       </c>
       <c r="I138" t="s">
-        <v>776</v>
+        <v>1166</v>
       </c>
       <c r="J138" t="s">
-        <v>309</v>
+        <v>1167</v>
       </c>
       <c r="K138" t="s">
-        <v>91</v>
+        <v>254</v>
       </c>
       <c r="L138" t="s">
-        <v>1161</v>
+        <v>1168</v>
       </c>
       <c r="M138" t="s">
-        <v>94</v>
+        <v>506</v>
       </c>
       <c r="N138" t="s">
         <v>94</v>
@@ -37990,40 +38056,40 @@
         <v>98</v>
       </c>
       <c r="T138" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="U138" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="V138" t="s">
-        <v>215</v>
+        <v>88</v>
       </c>
       <c r="W138" t="s">
-        <v>88</v>
+        <v>1169</v>
       </c>
       <c r="X138" t="s">
         <v>88</v>
       </c>
       <c r="Y138" t="s">
-        <v>1162</v>
+        <v>88</v>
       </c>
       <c r="Z138" t="s">
-        <v>1163</v>
+        <v>1170</v>
       </c>
       <c r="AA138" t="s">
-        <v>132</v>
+        <v>259</v>
       </c>
       <c r="AB138" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="AC138" t="s">
-        <v>134</v>
+        <v>260</v>
       </c>
       <c r="AD138" t="s">
         <v>105</v>
       </c>
       <c r="AF138" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="AG138" t="s">
         <v>99</v>
@@ -38074,13 +38140,13 @@
         <v>98</v>
       </c>
       <c r="AW138" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="AX138" s="1">
-        <v>44588</v>
+        <v>44776</v>
       </c>
       <c r="AY138" s="1">
-        <v>44585</v>
+        <v>44774</v>
       </c>
       <c r="AZ138" t="s">
         <v>93</v>
@@ -38101,10 +38167,10 @@
         <v>155</v>
       </c>
       <c r="BF138" t="s">
-        <v>1164</v>
+        <v>1171</v>
       </c>
       <c r="BG138" s="1">
-        <v>44203</v>
+        <v>39330</v>
       </c>
       <c r="BH138" t="s">
         <v>88</v>
@@ -38116,19 +38182,19 @@
         <v>88</v>
       </c>
       <c r="BL138" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM138" t="s">
-        <v>1165</v>
+        <v>1172</v>
       </c>
       <c r="BN138" t="s">
-        <v>378</v>
+        <v>263</v>
       </c>
       <c r="BO138" s="1">
-        <v>44589</v>
+        <v>44777</v>
       </c>
       <c r="BP138" t="s">
-        <v>222</v>
+        <v>264</v>
       </c>
       <c r="BQ138" t="s">
         <v>88</v>
@@ -38140,13 +38206,13 @@
         <v>88</v>
       </c>
       <c r="BT138" t="s">
-        <v>1166</v>
+        <v>1161</v>
       </c>
       <c r="BU138" t="s">
         <v>116</v>
       </c>
       <c r="BV138" t="s">
-        <v>224</v>
+        <v>980</v>
       </c>
       <c r="BW138" t="s">
         <v>96</v>
@@ -38155,7 +38221,7 @@
         <v>118</v>
       </c>
       <c r="BY138" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BZ138" t="s">
         <v>96</v>
@@ -38164,7 +38230,7 @@
         <v>118</v>
       </c>
       <c r="CB138" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="CC138" t="s">
         <v>118</v>
@@ -38173,7 +38239,7 @@
         <v>120</v>
       </c>
       <c r="CE138">
-        <v>24</v>
+        <v>167</v>
       </c>
     </row>
     <row r="139" spans="1:83" x14ac:dyDescent="0.15">
@@ -38181,40 +38247,40 @@
         <v>82</v>
       </c>
       <c r="B139" s="1">
-        <v>44594</v>
+        <v>44585</v>
       </c>
       <c r="C139" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="D139" t="s">
         <v>84</v>
       </c>
       <c r="E139" t="s">
-        <v>85</v>
+        <v>142</v>
       </c>
       <c r="F139" t="s">
-        <v>572</v>
+        <v>143</v>
       </c>
       <c r="G139" t="s">
-        <v>773</v>
+        <v>330</v>
       </c>
       <c r="H139" t="s">
-        <v>967</v>
+        <v>1173</v>
       </c>
       <c r="I139" t="s">
-        <v>899</v>
+        <v>1174</v>
       </c>
       <c r="J139" t="s">
-        <v>933</v>
+        <v>1175</v>
       </c>
       <c r="K139" t="s">
         <v>148</v>
       </c>
       <c r="L139" t="s">
-        <v>1167</v>
+        <v>1176</v>
       </c>
       <c r="M139" t="s">
-        <v>167</v>
+        <v>214</v>
       </c>
       <c r="N139" t="s">
         <v>94</v>
@@ -38235,40 +38301,40 @@
         <v>98</v>
       </c>
       <c r="T139" t="s">
-        <v>1168</v>
+        <v>129</v>
       </c>
       <c r="U139" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="V139" t="s">
         <v>88</v>
       </c>
       <c r="W139" t="s">
-        <v>88</v>
+        <v>151</v>
       </c>
       <c r="X139" t="s">
-        <v>1169</v>
+        <v>88</v>
       </c>
       <c r="Y139" t="s">
         <v>88</v>
       </c>
       <c r="Z139" t="s">
-        <v>1170</v>
+        <v>152</v>
       </c>
       <c r="AA139" t="s">
-        <v>803</v>
+        <v>132</v>
       </c>
       <c r="AB139" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="AC139" t="s">
-        <v>294</v>
+        <v>154</v>
       </c>
       <c r="AD139" t="s">
         <v>105</v>
       </c>
       <c r="AF139" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="AG139" t="s">
         <v>99</v>
@@ -38280,7 +38346,7 @@
         <v>99</v>
       </c>
       <c r="AJ139" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="AK139" t="s">
         <v>88</v>
@@ -38307,10 +38373,10 @@
         <v>99</v>
       </c>
       <c r="AS139" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AT139" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AU139" t="s">
         <v>95</v>
@@ -38319,13 +38385,13 @@
         <v>98</v>
       </c>
       <c r="AW139" t="s">
-        <v>1171</v>
+        <v>129</v>
       </c>
       <c r="AX139" s="1">
-        <v>44594</v>
+        <v>44585</v>
       </c>
       <c r="AY139" s="1">
-        <v>44591</v>
+        <v>44585</v>
       </c>
       <c r="AZ139" t="s">
         <v>93</v>
@@ -38346,10 +38412,10 @@
         <v>155</v>
       </c>
       <c r="BF139" t="s">
-        <v>1172</v>
+        <v>156</v>
       </c>
       <c r="BG139" s="1">
-        <v>30833</v>
+        <v>32999</v>
       </c>
       <c r="BH139" t="s">
         <v>88</v>
@@ -38361,19 +38427,19 @@
         <v>88</v>
       </c>
       <c r="BL139" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM139" t="s">
-        <v>1173</v>
+        <v>157</v>
       </c>
       <c r="BN139" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="BO139" s="1">
-        <v>44598</v>
+        <v>44585</v>
       </c>
       <c r="BP139" t="s">
-        <v>114</v>
+        <v>159</v>
       </c>
       <c r="BQ139" t="s">
         <v>88</v>
@@ -38385,13 +38451,13 @@
         <v>88</v>
       </c>
       <c r="BT139" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="BU139" t="s">
         <v>116</v>
       </c>
       <c r="BV139" t="s">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="BW139" t="s">
         <v>96</v>
@@ -38400,7 +38466,7 @@
         <v>118</v>
       </c>
       <c r="BY139" t="s">
-        <v>1174</v>
+        <v>120</v>
       </c>
       <c r="BZ139" t="s">
         <v>96</v>
@@ -38409,7 +38475,7 @@
         <v>118</v>
       </c>
       <c r="CB139" t="s">
-        <v>1175</v>
+        <v>120</v>
       </c>
       <c r="CC139" t="s">
         <v>118</v>
@@ -38418,7 +38484,7 @@
         <v>120</v>
       </c>
       <c r="CE139">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="140" spans="1:83" x14ac:dyDescent="0.15">
@@ -38426,40 +38492,40 @@
         <v>82</v>
       </c>
       <c r="B140" s="1">
-        <v>44592</v>
+        <v>44590</v>
       </c>
       <c r="C140" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="D140" t="s">
         <v>84</v>
       </c>
       <c r="E140" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="F140" t="s">
-        <v>208</v>
+        <v>86</v>
       </c>
       <c r="G140" t="s">
-        <v>330</v>
+        <v>722</v>
       </c>
       <c r="H140" t="s">
-        <v>227</v>
+        <v>1177</v>
       </c>
       <c r="I140" t="s">
-        <v>431</v>
+        <v>1178</v>
       </c>
       <c r="J140" t="s">
-        <v>310</v>
+        <v>510</v>
       </c>
       <c r="K140" t="s">
-        <v>254</v>
+        <v>148</v>
       </c>
       <c r="L140" t="s">
-        <v>1176</v>
+        <v>1179</v>
       </c>
       <c r="M140" t="s">
-        <v>256</v>
+        <v>763</v>
       </c>
       <c r="N140" t="s">
         <v>94</v>
@@ -38471,7 +38537,7 @@
         <v>96</v>
       </c>
       <c r="Q140" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="R140" t="s">
         <v>95</v>
@@ -38483,37 +38549,37 @@
         <v>129</v>
       </c>
       <c r="U140" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="V140" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="W140" t="s">
-        <v>826</v>
+        <v>88</v>
       </c>
       <c r="X140" t="s">
         <v>88</v>
       </c>
       <c r="Y140" t="s">
-        <v>88</v>
+        <v>201</v>
       </c>
       <c r="Z140" t="s">
-        <v>1177</v>
+        <v>1180</v>
       </c>
       <c r="AA140" t="s">
-        <v>259</v>
+        <v>132</v>
       </c>
       <c r="AB140" t="s">
         <v>133</v>
       </c>
       <c r="AC140" t="s">
-        <v>294</v>
+        <v>134</v>
       </c>
       <c r="AD140" t="s">
         <v>105</v>
       </c>
       <c r="AF140" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="AG140" t="s">
         <v>99</v>
@@ -38528,7 +38594,7 @@
         <v>99</v>
       </c>
       <c r="AK140" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AL140" t="s">
         <v>88</v>
@@ -38540,7 +38606,7 @@
         <v>99</v>
       </c>
       <c r="AO140" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AP140" t="s">
         <v>99</v>
@@ -38567,10 +38633,10 @@
         <v>129</v>
       </c>
       <c r="AX140" s="1">
-        <v>44592</v>
+        <v>44588</v>
       </c>
       <c r="AY140" s="1">
-        <v>44591</v>
+        <v>44586</v>
       </c>
       <c r="AZ140" t="s">
         <v>93</v>
@@ -38591,10 +38657,10 @@
         <v>155</v>
       </c>
       <c r="BF140" t="s">
-        <v>1178</v>
+        <v>1181</v>
       </c>
       <c r="BG140" s="1">
-        <v>39050</v>
+        <v>36204</v>
       </c>
       <c r="BH140" t="s">
         <v>88</v>
@@ -38606,19 +38672,19 @@
         <v>88</v>
       </c>
       <c r="BL140" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM140" t="s">
-        <v>1179</v>
+        <v>1182</v>
       </c>
       <c r="BN140" t="s">
-        <v>113</v>
+        <v>758</v>
       </c>
       <c r="BO140" s="1">
-        <v>44598</v>
+        <v>44590</v>
       </c>
       <c r="BP140" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="BQ140" t="s">
         <v>88</v>
@@ -38630,13 +38696,13 @@
         <v>88</v>
       </c>
       <c r="BT140" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="BU140" t="s">
         <v>116</v>
       </c>
       <c r="BV140" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="BW140" t="s">
         <v>96</v>
@@ -38663,7 +38729,7 @@
         <v>120</v>
       </c>
       <c r="CE140">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="141" spans="1:83" x14ac:dyDescent="0.15">
@@ -38671,40 +38737,40 @@
         <v>82</v>
       </c>
       <c r="B141" s="1">
-        <v>44717</v>
+        <v>44628</v>
       </c>
       <c r="C141" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="D141" t="s">
         <v>84</v>
       </c>
       <c r="E141" t="s">
-        <v>209</v>
+        <v>535</v>
       </c>
       <c r="F141" t="s">
-        <v>86</v>
+        <v>226</v>
       </c>
       <c r="G141" t="s">
-        <v>319</v>
+        <v>426</v>
       </c>
       <c r="H141" t="s">
-        <v>251</v>
+        <v>88</v>
       </c>
       <c r="I141" t="s">
-        <v>1180</v>
+        <v>1183</v>
       </c>
       <c r="J141" t="s">
-        <v>1181</v>
+        <v>88</v>
       </c>
       <c r="K141" t="s">
-        <v>254</v>
+        <v>148</v>
       </c>
       <c r="L141" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="M141" t="s">
-        <v>208</v>
+        <v>290</v>
       </c>
       <c r="N141" t="s">
         <v>94</v>
@@ -38731,7 +38797,7 @@
         <v>94</v>
       </c>
       <c r="V141" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="W141" t="s">
         <v>88</v>
@@ -38740,10 +38806,10 @@
         <v>88</v>
       </c>
       <c r="Y141" t="s">
-        <v>1183</v>
+        <v>186</v>
       </c>
       <c r="Z141" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="AA141" t="s">
         <v>259</v>
@@ -38752,7 +38818,7 @@
         <v>133</v>
       </c>
       <c r="AC141" t="s">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="AD141" t="s">
         <v>105</v>
@@ -38812,10 +38878,10 @@
         <v>129</v>
       </c>
       <c r="AX141" s="1">
-        <v>44716</v>
+        <v>44585</v>
       </c>
       <c r="AY141" s="1">
-        <v>44594</v>
+        <v>44584</v>
       </c>
       <c r="AZ141" t="s">
         <v>93</v>
@@ -38836,10 +38902,10 @@
         <v>155</v>
       </c>
       <c r="BF141" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="BG141" s="1">
-        <v>40761</v>
+        <v>36155</v>
       </c>
       <c r="BH141" t="s">
         <v>88</v>
@@ -38851,19 +38917,19 @@
         <v>88</v>
       </c>
       <c r="BL141" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM141" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="BN141" t="s">
-        <v>378</v>
+        <v>545</v>
       </c>
       <c r="BO141" s="1">
-        <v>44737</v>
+        <v>44628</v>
       </c>
       <c r="BP141" t="s">
-        <v>222</v>
+        <v>546</v>
       </c>
       <c r="BQ141" t="s">
         <v>88</v>
@@ -38875,13 +38941,13 @@
         <v>88</v>
       </c>
       <c r="BT141" t="s">
-        <v>465</v>
+        <v>223</v>
       </c>
       <c r="BU141" t="s">
         <v>116</v>
       </c>
       <c r="BV141" t="s">
-        <v>224</v>
+        <v>547</v>
       </c>
       <c r="BW141" t="s">
         <v>96</v>
@@ -38908,7 +38974,7 @@
         <v>120</v>
       </c>
       <c r="CE141">
-        <v>138</v>
+        <v>49</v>
       </c>
     </row>
     <row r="142" spans="1:83" x14ac:dyDescent="0.15">
@@ -38916,31 +38982,31 @@
         <v>82</v>
       </c>
       <c r="B142" s="1">
-        <v>44609</v>
+        <v>44588</v>
       </c>
       <c r="C142" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="D142" t="s">
         <v>84</v>
       </c>
       <c r="E142" t="s">
-        <v>122</v>
+        <v>209</v>
       </c>
       <c r="F142" t="s">
         <v>86</v>
       </c>
       <c r="G142" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="H142" t="s">
         <v>88</v>
       </c>
       <c r="I142" t="s">
-        <v>1188</v>
+        <v>776</v>
       </c>
       <c r="J142" t="s">
-        <v>467</v>
+        <v>309</v>
       </c>
       <c r="K142" t="s">
         <v>91</v>
@@ -38949,7 +39015,7 @@
         <v>1189</v>
       </c>
       <c r="M142" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="N142" t="s">
         <v>94</v>
@@ -38961,7 +39027,7 @@
         <v>96</v>
       </c>
       <c r="Q142" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="R142" t="s">
         <v>95</v>
@@ -38970,13 +39036,13 @@
         <v>98</v>
       </c>
       <c r="T142" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="U142" t="s">
         <v>94</v>
       </c>
       <c r="V142" t="s">
-        <v>120</v>
+        <v>215</v>
       </c>
       <c r="W142" t="s">
         <v>88</v>
@@ -38985,10 +39051,10 @@
         <v>88</v>
       </c>
       <c r="Y142" t="s">
-        <v>130</v>
+        <v>1190</v>
       </c>
       <c r="Z142" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="AA142" t="s">
         <v>132</v>
@@ -39003,7 +39069,7 @@
         <v>105</v>
       </c>
       <c r="AF142" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="AG142" t="s">
         <v>99</v>
@@ -39018,7 +39084,7 @@
         <v>99</v>
       </c>
       <c r="AK142" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AL142" t="s">
         <v>88</v>
@@ -39030,7 +39096,7 @@
         <v>99</v>
       </c>
       <c r="AO142" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AP142" t="s">
         <v>99</v>
@@ -39054,13 +39120,13 @@
         <v>98</v>
       </c>
       <c r="AW142" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="AX142" s="1">
-        <v>44607</v>
+        <v>44588</v>
       </c>
       <c r="AY142" s="1">
-        <v>44604</v>
+        <v>44585</v>
       </c>
       <c r="AZ142" t="s">
         <v>93</v>
@@ -39081,10 +39147,10 @@
         <v>155</v>
       </c>
       <c r="BF142" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="BG142" s="1">
-        <v>43485</v>
+        <v>44203</v>
       </c>
       <c r="BH142" t="s">
         <v>88</v>
@@ -39096,19 +39162,19 @@
         <v>88</v>
       </c>
       <c r="BL142" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM142" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="BN142" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="BO142" s="1">
-        <v>44609</v>
+        <v>44589</v>
       </c>
       <c r="BP142" t="s">
-        <v>140</v>
+        <v>222</v>
       </c>
       <c r="BQ142" t="s">
         <v>88</v>
@@ -39120,13 +39186,13 @@
         <v>88</v>
       </c>
       <c r="BT142" t="s">
-        <v>223</v>
+        <v>1194</v>
       </c>
       <c r="BU142" t="s">
         <v>116</v>
       </c>
       <c r="BV142" t="s">
-        <v>137</v>
+        <v>224</v>
       </c>
       <c r="BW142" t="s">
         <v>96</v>
@@ -39135,7 +39201,7 @@
         <v>118</v>
       </c>
       <c r="BY142" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BZ142" t="s">
         <v>96</v>
@@ -39144,7 +39210,7 @@
         <v>118</v>
       </c>
       <c r="CB142" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="CC142" t="s">
         <v>118</v>
@@ -39153,7 +39219,7 @@
         <v>120</v>
       </c>
       <c r="CE142">
-        <v>136</v>
+        <v>24</v>
       </c>
     </row>
     <row r="143" spans="1:83" x14ac:dyDescent="0.15">
@@ -39161,40 +39227,40 @@
         <v>82</v>
       </c>
       <c r="B143" s="1">
-        <v>44608</v>
+        <v>44594</v>
       </c>
       <c r="C143" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="D143" t="s">
         <v>84</v>
       </c>
       <c r="E143" t="s">
-        <v>197</v>
+        <v>85</v>
       </c>
       <c r="F143" t="s">
-        <v>86</v>
+        <v>572</v>
       </c>
       <c r="G143" t="s">
-        <v>1193</v>
+        <v>773</v>
       </c>
       <c r="H143" t="s">
-        <v>1194</v>
+        <v>967</v>
       </c>
       <c r="I143" t="s">
-        <v>600</v>
+        <v>899</v>
       </c>
       <c r="J143" t="s">
+        <v>933</v>
+      </c>
+      <c r="K143" t="s">
+        <v>148</v>
+      </c>
+      <c r="L143" t="s">
         <v>1195</v>
       </c>
-      <c r="K143" t="s">
-        <v>91</v>
-      </c>
-      <c r="L143" t="s">
-        <v>1196</v>
-      </c>
       <c r="M143" t="s">
-        <v>106</v>
+        <v>167</v>
       </c>
       <c r="N143" t="s">
         <v>94</v>
@@ -39215,40 +39281,40 @@
         <v>98</v>
       </c>
       <c r="T143" t="s">
-        <v>129</v>
+        <v>1196</v>
       </c>
       <c r="U143" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="V143" t="s">
-        <v>186</v>
+        <v>88</v>
       </c>
       <c r="W143" t="s">
         <v>88</v>
       </c>
       <c r="X143" t="s">
-        <v>88</v>
+        <v>1197</v>
       </c>
       <c r="Y143" t="s">
-        <v>201</v>
+        <v>88</v>
       </c>
       <c r="Z143" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="AA143" t="s">
-        <v>132</v>
+        <v>803</v>
       </c>
       <c r="AB143" t="s">
         <v>133</v>
       </c>
       <c r="AC143" t="s">
-        <v>190</v>
+        <v>294</v>
       </c>
       <c r="AD143" t="s">
         <v>105</v>
       </c>
       <c r="AF143" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="AG143" t="s">
         <v>99</v>
@@ -39299,13 +39365,13 @@
         <v>98</v>
       </c>
       <c r="AW143" t="s">
-        <v>129</v>
+        <v>1199</v>
       </c>
       <c r="AX143" s="1">
-        <v>44608</v>
+        <v>44594</v>
       </c>
       <c r="AY143" s="1">
-        <v>44605</v>
+        <v>44591</v>
       </c>
       <c r="AZ143" t="s">
         <v>93</v>
@@ -39326,10 +39392,10 @@
         <v>155</v>
       </c>
       <c r="BF143" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="BG143" s="1">
-        <v>43504</v>
+        <v>30833</v>
       </c>
       <c r="BH143" t="s">
         <v>88</v>
@@ -39341,19 +39407,19 @@
         <v>88</v>
       </c>
       <c r="BL143" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM143" t="s">
-        <v>798</v>
+        <v>1201</v>
       </c>
       <c r="BN143" t="s">
-        <v>651</v>
+        <v>113</v>
       </c>
       <c r="BO143" s="1">
-        <v>44610</v>
+        <v>44598</v>
       </c>
       <c r="BP143" t="s">
-        <v>206</v>
+        <v>114</v>
       </c>
       <c r="BQ143" t="s">
         <v>88</v>
@@ -39371,7 +39437,7 @@
         <v>116</v>
       </c>
       <c r="BV143" t="s">
-        <v>207</v>
+        <v>111</v>
       </c>
       <c r="BW143" t="s">
         <v>96</v>
@@ -39380,7 +39446,7 @@
         <v>118</v>
       </c>
       <c r="BY143" t="s">
-        <v>120</v>
+        <v>1202</v>
       </c>
       <c r="BZ143" t="s">
         <v>96</v>
@@ -39389,7 +39455,7 @@
         <v>118</v>
       </c>
       <c r="CB143" t="s">
-        <v>120</v>
+        <v>1203</v>
       </c>
       <c r="CC143" t="s">
         <v>118</v>
@@ -39398,7 +39464,7 @@
         <v>120</v>
       </c>
       <c r="CE143">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="144" spans="1:83" x14ac:dyDescent="0.15">
@@ -39406,10 +39472,10 @@
         <v>82</v>
       </c>
       <c r="B144" s="1">
-        <v>44610</v>
+        <v>44592</v>
       </c>
       <c r="C144" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="D144" t="s">
         <v>84</v>
@@ -39421,25 +39487,25 @@
         <v>208</v>
       </c>
       <c r="G144" t="s">
-        <v>1199</v>
+        <v>330</v>
       </c>
       <c r="H144" t="s">
-        <v>704</v>
+        <v>227</v>
       </c>
       <c r="I144" t="s">
-        <v>1200</v>
+        <v>431</v>
       </c>
       <c r="J144" t="s">
-        <v>175</v>
+        <v>310</v>
       </c>
       <c r="K144" t="s">
         <v>254</v>
       </c>
       <c r="L144" t="s">
-        <v>1201</v>
+        <v>1204</v>
       </c>
       <c r="M144" t="s">
-        <v>1202</v>
+        <v>256</v>
       </c>
       <c r="N144" t="s">
         <v>94</v>
@@ -39469,7 +39535,7 @@
         <v>88</v>
       </c>
       <c r="W144" t="s">
-        <v>130</v>
+        <v>826</v>
       </c>
       <c r="X144" t="s">
         <v>88</v>
@@ -39478,7 +39544,7 @@
         <v>88</v>
       </c>
       <c r="Z144" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="AA144" t="s">
         <v>259</v>
@@ -39487,7 +39553,7 @@
         <v>133</v>
       </c>
       <c r="AC144" t="s">
-        <v>734</v>
+        <v>294</v>
       </c>
       <c r="AD144" t="s">
         <v>105</v>
@@ -39547,10 +39613,10 @@
         <v>129</v>
       </c>
       <c r="AX144" s="1">
-        <v>44610</v>
+        <v>44592</v>
       </c>
       <c r="AY144" s="1">
-        <v>44609</v>
+        <v>44591</v>
       </c>
       <c r="AZ144" t="s">
         <v>93</v>
@@ -39571,10 +39637,10 @@
         <v>155</v>
       </c>
       <c r="BF144" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="BG144" s="1">
-        <v>40979</v>
+        <v>39050</v>
       </c>
       <c r="BH144" t="s">
         <v>88</v>
@@ -39586,16 +39652,16 @@
         <v>88</v>
       </c>
       <c r="BL144" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM144" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="BN144" t="s">
         <v>113</v>
       </c>
       <c r="BO144" s="1">
-        <v>44615</v>
+        <v>44598</v>
       </c>
       <c r="BP144" t="s">
         <v>114</v>
@@ -39610,7 +39676,7 @@
         <v>88</v>
       </c>
       <c r="BT144" t="s">
-        <v>1117</v>
+        <v>223</v>
       </c>
       <c r="BU144" t="s">
         <v>116</v>
@@ -39643,7 +39709,7 @@
         <v>120</v>
       </c>
       <c r="CE144">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="145" spans="1:83" x14ac:dyDescent="0.15">
@@ -39651,40 +39717,40 @@
         <v>82</v>
       </c>
       <c r="B145" s="1">
-        <v>44670</v>
+        <v>44717</v>
       </c>
       <c r="C145" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="D145" t="s">
         <v>84</v>
       </c>
       <c r="E145" t="s">
-        <v>250</v>
+        <v>209</v>
       </c>
       <c r="F145" t="s">
         <v>86</v>
       </c>
       <c r="G145" t="s">
-        <v>1206</v>
+        <v>319</v>
       </c>
       <c r="H145" t="s">
-        <v>407</v>
+        <v>251</v>
       </c>
       <c r="I145" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="J145" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="K145" t="s">
         <v>254</v>
       </c>
       <c r="L145" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="M145" t="s">
-        <v>335</v>
+        <v>208</v>
       </c>
       <c r="N145" t="s">
         <v>94</v>
@@ -39702,25 +39768,25 @@
         <v>95</v>
       </c>
       <c r="S145" t="s">
-        <v>454</v>
+        <v>98</v>
       </c>
       <c r="T145" t="s">
-        <v>1210</v>
+        <v>129</v>
       </c>
       <c r="U145" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="V145" t="s">
-        <v>88</v>
+        <v>215</v>
       </c>
       <c r="W145" t="s">
+        <v>88</v>
+      </c>
+      <c r="X145" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y145" t="s">
         <v>1211</v>
-      </c>
-      <c r="X145" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y145" t="s">
-        <v>88</v>
       </c>
       <c r="Z145" t="s">
         <v>1212</v>
@@ -39729,16 +39795,16 @@
         <v>259</v>
       </c>
       <c r="AB145" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="AC145" t="s">
-        <v>260</v>
+        <v>190</v>
       </c>
       <c r="AD145" t="s">
         <v>105</v>
       </c>
       <c r="AF145" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AG145" t="s">
         <v>99</v>
@@ -39786,16 +39852,16 @@
         <v>95</v>
       </c>
       <c r="AV145" t="s">
-        <v>454</v>
+        <v>98</v>
       </c>
       <c r="AW145" t="s">
-        <v>1210</v>
+        <v>129</v>
       </c>
       <c r="AX145" s="1">
-        <v>44610</v>
+        <v>44716</v>
       </c>
       <c r="AY145" s="1">
-        <v>44606</v>
+        <v>44594</v>
       </c>
       <c r="AZ145" t="s">
         <v>93</v>
@@ -39819,7 +39885,7 @@
         <v>1213</v>
       </c>
       <c r="BG145" s="1">
-        <v>38694</v>
+        <v>40761</v>
       </c>
       <c r="BH145" t="s">
         <v>88</v>
@@ -39831,19 +39897,19 @@
         <v>88</v>
       </c>
       <c r="BL145" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM145" t="s">
         <v>1214</v>
       </c>
       <c r="BN145" t="s">
-        <v>263</v>
+        <v>378</v>
       </c>
       <c r="BO145" s="1">
-        <v>44670</v>
+        <v>44737</v>
       </c>
       <c r="BP145" t="s">
-        <v>264</v>
+        <v>222</v>
       </c>
       <c r="BQ145" t="s">
         <v>88</v>
@@ -39855,31 +39921,31 @@
         <v>88</v>
       </c>
       <c r="BT145" t="s">
-        <v>141</v>
+        <v>465</v>
       </c>
       <c r="BU145" t="s">
         <v>116</v>
       </c>
       <c r="BV145" t="s">
-        <v>265</v>
+        <v>224</v>
       </c>
       <c r="BW145" t="s">
         <v>96</v>
       </c>
       <c r="BX145" t="s">
-        <v>1215</v>
+        <v>118</v>
       </c>
       <c r="BY145" t="s">
-        <v>1216</v>
+        <v>120</v>
       </c>
       <c r="BZ145" t="s">
         <v>96</v>
       </c>
       <c r="CA145" t="s">
-        <v>1215</v>
+        <v>118</v>
       </c>
       <c r="CB145" t="s">
-        <v>1216</v>
+        <v>120</v>
       </c>
       <c r="CC145" t="s">
         <v>118</v>
@@ -39888,7 +39954,7 @@
         <v>120</v>
       </c>
       <c r="CE145">
-        <v>74</v>
+        <v>138</v>
       </c>
     </row>
     <row r="146" spans="1:83" x14ac:dyDescent="0.15">
@@ -39896,40 +39962,40 @@
         <v>82</v>
       </c>
       <c r="B146" s="1">
-        <v>44620</v>
+        <v>44609</v>
       </c>
       <c r="C146" t="s">
-        <v>356</v>
+        <v>105</v>
       </c>
       <c r="D146" t="s">
         <v>84</v>
       </c>
       <c r="E146" t="s">
-        <v>987</v>
+        <v>122</v>
       </c>
       <c r="F146" t="s">
         <v>86</v>
       </c>
       <c r="G146" t="s">
+        <v>1215</v>
+      </c>
+      <c r="H146" t="s">
+        <v>88</v>
+      </c>
+      <c r="I146" t="s">
+        <v>1216</v>
+      </c>
+      <c r="J146" t="s">
+        <v>467</v>
+      </c>
+      <c r="K146" t="s">
+        <v>91</v>
+      </c>
+      <c r="L146" t="s">
         <v>1217</v>
       </c>
-      <c r="H146" t="s">
-        <v>1218</v>
-      </c>
-      <c r="I146" t="s">
-        <v>1147</v>
-      </c>
-      <c r="J146" t="s">
-        <v>933</v>
-      </c>
-      <c r="K146" t="s">
-        <v>148</v>
-      </c>
-      <c r="L146" t="s">
-        <v>1219</v>
-      </c>
       <c r="M146" t="s">
-        <v>778</v>
+        <v>106</v>
       </c>
       <c r="N146" t="s">
         <v>94</v>
@@ -39941,7 +40007,7 @@
         <v>96</v>
       </c>
       <c r="Q146" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="R146" t="s">
         <v>95</v>
@@ -39956,7 +40022,7 @@
         <v>94</v>
       </c>
       <c r="V146" t="s">
-        <v>215</v>
+        <v>120</v>
       </c>
       <c r="W146" t="s">
         <v>88</v>
@@ -39965,19 +40031,19 @@
         <v>88</v>
       </c>
       <c r="Y146" t="s">
-        <v>201</v>
+        <v>130</v>
       </c>
       <c r="Z146" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="AA146" t="s">
-        <v>1221</v>
+        <v>132</v>
       </c>
       <c r="AB146" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="AC146" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="AD146" t="s">
         <v>105</v>
@@ -39998,7 +40064,7 @@
         <v>99</v>
       </c>
       <c r="AK146" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="AL146" t="s">
         <v>88</v>
@@ -40010,7 +40076,7 @@
         <v>99</v>
       </c>
       <c r="AO146" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="AP146" t="s">
         <v>99</v>
@@ -40037,10 +40103,10 @@
         <v>129</v>
       </c>
       <c r="AX146" s="1">
-        <v>44620</v>
+        <v>44607</v>
       </c>
       <c r="AY146" s="1">
-        <v>44616</v>
+        <v>44604</v>
       </c>
       <c r="AZ146" t="s">
         <v>93</v>
@@ -40061,10 +40127,10 @@
         <v>155</v>
       </c>
       <c r="BF146" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="BG146" s="1">
-        <v>31112</v>
+        <v>43485</v>
       </c>
       <c r="BH146" t="s">
         <v>88</v>
@@ -40076,19 +40142,19 @@
         <v>88</v>
       </c>
       <c r="BL146" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM146" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="BN146" t="s">
-        <v>997</v>
+        <v>389</v>
       </c>
       <c r="BO146" s="1">
-        <v>44620</v>
+        <v>44609</v>
       </c>
       <c r="BP146" t="s">
-        <v>998</v>
+        <v>140</v>
       </c>
       <c r="BQ146" t="s">
         <v>88</v>
@@ -40106,7 +40172,7 @@
         <v>116</v>
       </c>
       <c r="BV146" t="s">
-        <v>999</v>
+        <v>137</v>
       </c>
       <c r="BW146" t="s">
         <v>96</v>
@@ -40133,7 +40199,7 @@
         <v>120</v>
       </c>
       <c r="CE146">
-        <v>39</v>
+        <v>136</v>
       </c>
     </row>
     <row r="147" spans="1:83" x14ac:dyDescent="0.15">
@@ -40141,40 +40207,40 @@
         <v>82</v>
       </c>
       <c r="B147" s="1">
-        <v>44618</v>
+        <v>44608</v>
       </c>
       <c r="C147" t="s">
-        <v>356</v>
+        <v>108</v>
       </c>
       <c r="D147" t="s">
         <v>84</v>
       </c>
       <c r="E147" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="F147" t="s">
         <v>86</v>
       </c>
       <c r="G147" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="H147" t="s">
-        <v>88</v>
+        <v>1222</v>
       </c>
       <c r="I147" t="s">
-        <v>1225</v>
+        <v>600</v>
       </c>
       <c r="J147" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="K147" t="s">
         <v>91</v>
       </c>
       <c r="L147" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="M147" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="N147" t="s">
         <v>94</v>
@@ -40186,7 +40252,7 @@
         <v>96</v>
       </c>
       <c r="Q147" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="R147" t="s">
         <v>95</v>
@@ -40195,13 +40261,13 @@
         <v>98</v>
       </c>
       <c r="T147" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="U147" t="s">
         <v>94</v>
       </c>
       <c r="V147" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="W147" t="s">
         <v>88</v>
@@ -40210,10 +40276,10 @@
         <v>88</v>
       </c>
       <c r="Y147" t="s">
-        <v>1228</v>
+        <v>201</v>
       </c>
       <c r="Z147" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="AA147" t="s">
         <v>132</v>
@@ -40222,7 +40288,7 @@
         <v>133</v>
       </c>
       <c r="AC147" t="s">
-        <v>134</v>
+        <v>190</v>
       </c>
       <c r="AD147" t="s">
         <v>105</v>
@@ -40243,7 +40309,7 @@
         <v>99</v>
       </c>
       <c r="AK147" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="AL147" t="s">
         <v>88</v>
@@ -40255,7 +40321,7 @@
         <v>99</v>
       </c>
       <c r="AO147" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="AP147" t="s">
         <v>99</v>
@@ -40279,13 +40345,13 @@
         <v>98</v>
       </c>
       <c r="AW147" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="AX147" s="1">
-        <v>44618</v>
+        <v>44608</v>
       </c>
       <c r="AY147" s="1">
-        <v>44617</v>
+        <v>44605</v>
       </c>
       <c r="AZ147" t="s">
         <v>93</v>
@@ -40306,10 +40372,10 @@
         <v>155</v>
       </c>
       <c r="BF147" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="BG147" s="1">
-        <v>43616</v>
+        <v>43504</v>
       </c>
       <c r="BH147" t="s">
         <v>88</v>
@@ -40321,19 +40387,19 @@
         <v>88</v>
       </c>
       <c r="BL147" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM147" t="s">
-        <v>570</v>
+        <v>798</v>
       </c>
       <c r="BN147" t="s">
-        <v>1231</v>
+        <v>651</v>
       </c>
       <c r="BO147" s="1">
-        <v>44620</v>
+        <v>44610</v>
       </c>
       <c r="BP147" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="BQ147" t="s">
         <v>88</v>
@@ -40351,7 +40417,7 @@
         <v>116</v>
       </c>
       <c r="BV147" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="BW147" t="s">
         <v>96</v>
@@ -40360,7 +40426,7 @@
         <v>118</v>
       </c>
       <c r="BY147" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BZ147" t="s">
         <v>96</v>
@@ -40369,7 +40435,7 @@
         <v>118</v>
       </c>
       <c r="CB147" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="CC147" t="s">
         <v>118</v>
@@ -40378,7 +40444,7 @@
         <v>120</v>
       </c>
       <c r="CE147">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="148" spans="1:83" x14ac:dyDescent="0.15">
@@ -40386,40 +40452,40 @@
         <v>82</v>
       </c>
       <c r="B148" s="1">
-        <v>44620</v>
+        <v>44610</v>
       </c>
       <c r="C148" t="s">
-        <v>356</v>
+        <v>108</v>
       </c>
       <c r="D148" t="s">
         <v>84</v>
       </c>
       <c r="E148" t="s">
-        <v>209</v>
+        <v>85</v>
       </c>
       <c r="F148" t="s">
-        <v>86</v>
+        <v>208</v>
       </c>
       <c r="G148" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
       <c r="H148" t="s">
-        <v>88</v>
+        <v>704</v>
       </c>
       <c r="I148" t="s">
-        <v>212</v>
+        <v>1228</v>
       </c>
       <c r="J148" t="s">
-        <v>1233</v>
+        <v>175</v>
       </c>
       <c r="K148" t="s">
-        <v>91</v>
+        <v>254</v>
       </c>
       <c r="L148" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
       <c r="M148" t="s">
-        <v>93</v>
+        <v>1230</v>
       </c>
       <c r="N148" t="s">
         <v>94</v>
@@ -40440,40 +40506,40 @@
         <v>98</v>
       </c>
       <c r="T148" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="U148" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="V148" t="s">
-        <v>215</v>
+        <v>88</v>
       </c>
       <c r="W148" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="X148" t="s">
         <v>88</v>
       </c>
       <c r="Y148" t="s">
-        <v>1235</v>
+        <v>88</v>
       </c>
       <c r="Z148" t="s">
-        <v>1236</v>
+        <v>1231</v>
       </c>
       <c r="AA148" t="s">
-        <v>102</v>
+        <v>259</v>
       </c>
       <c r="AB148" t="s">
         <v>133</v>
       </c>
       <c r="AC148" t="s">
-        <v>190</v>
+        <v>734</v>
       </c>
       <c r="AD148" t="s">
         <v>105</v>
       </c>
       <c r="AF148" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="AG148" t="s">
         <v>99</v>
@@ -40524,13 +40590,13 @@
         <v>98</v>
       </c>
       <c r="AW148" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="AX148" s="1">
-        <v>44620</v>
+        <v>44610</v>
       </c>
       <c r="AY148" s="1">
-        <v>44618</v>
+        <v>44609</v>
       </c>
       <c r="AZ148" t="s">
         <v>93</v>
@@ -40551,10 +40617,10 @@
         <v>155</v>
       </c>
       <c r="BF148" t="s">
-        <v>1237</v>
+        <v>1232</v>
       </c>
       <c r="BG148" s="1">
-        <v>43136</v>
+        <v>40979</v>
       </c>
       <c r="BH148" t="s">
         <v>88</v>
@@ -40566,19 +40632,19 @@
         <v>88</v>
       </c>
       <c r="BL148" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM148" t="s">
-        <v>274</v>
+        <v>1233</v>
       </c>
       <c r="BN148" t="s">
-        <v>275</v>
+        <v>113</v>
       </c>
       <c r="BO148" s="1">
-        <v>44623</v>
+        <v>44615</v>
       </c>
       <c r="BP148" t="s">
-        <v>222</v>
+        <v>114</v>
       </c>
       <c r="BQ148" t="s">
         <v>88</v>
@@ -40590,13 +40656,13 @@
         <v>88</v>
       </c>
       <c r="BT148" t="s">
-        <v>223</v>
+        <v>1125</v>
       </c>
       <c r="BU148" t="s">
         <v>116</v>
       </c>
       <c r="BV148" t="s">
-        <v>224</v>
+        <v>111</v>
       </c>
       <c r="BW148" t="s">
         <v>96</v>
@@ -40605,7 +40671,7 @@
         <v>118</v>
       </c>
       <c r="BY148" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BZ148" t="s">
         <v>96</v>
@@ -40614,7 +40680,7 @@
         <v>118</v>
       </c>
       <c r="CB148" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="CC148" t="s">
         <v>118</v>
@@ -40623,7 +40689,7 @@
         <v>120</v>
       </c>
       <c r="CE148">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="149" spans="1:83" x14ac:dyDescent="0.15">
@@ -40631,40 +40697,40 @@
         <v>82</v>
       </c>
       <c r="B149" s="1">
-        <v>44620</v>
+        <v>44670</v>
       </c>
       <c r="C149" t="s">
-        <v>356</v>
+        <v>108</v>
       </c>
       <c r="D149" t="s">
         <v>84</v>
       </c>
       <c r="E149" t="s">
-        <v>85</v>
+        <v>250</v>
       </c>
       <c r="F149" t="s">
-        <v>208</v>
+        <v>86</v>
       </c>
       <c r="G149" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="H149" t="s">
-        <v>88</v>
+        <v>407</v>
       </c>
       <c r="I149" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="J149" t="s">
-        <v>241</v>
+        <v>1236</v>
       </c>
       <c r="K149" t="s">
         <v>254</v>
       </c>
       <c r="L149" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="M149" t="s">
-        <v>108</v>
+        <v>335</v>
       </c>
       <c r="N149" t="s">
         <v>94</v>
@@ -40682,10 +40748,10 @@
         <v>95</v>
       </c>
       <c r="S149" t="s">
-        <v>98</v>
+        <v>454</v>
       </c>
       <c r="T149" t="s">
-        <v>129</v>
+        <v>1238</v>
       </c>
       <c r="U149" t="s">
         <v>99</v>
@@ -40694,7 +40760,7 @@
         <v>88</v>
       </c>
       <c r="W149" t="s">
-        <v>130</v>
+        <v>1239</v>
       </c>
       <c r="X149" t="s">
         <v>88</v>
@@ -40703,22 +40769,22 @@
         <v>88</v>
       </c>
       <c r="Z149" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="AA149" t="s">
         <v>259</v>
       </c>
       <c r="AB149" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="AC149" t="s">
-        <v>134</v>
+        <v>260</v>
       </c>
       <c r="AD149" t="s">
         <v>105</v>
       </c>
       <c r="AF149" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="AG149" t="s">
         <v>99</v>
@@ -40766,16 +40832,16 @@
         <v>95</v>
       </c>
       <c r="AV149" t="s">
-        <v>98</v>
+        <v>454</v>
       </c>
       <c r="AW149" t="s">
-        <v>129</v>
+        <v>1238</v>
       </c>
       <c r="AX149" s="1">
-        <v>44620</v>
+        <v>44610</v>
       </c>
       <c r="AY149" s="1">
-        <v>44617</v>
+        <v>44606</v>
       </c>
       <c r="AZ149" t="s">
         <v>93</v>
@@ -40796,34 +40862,34 @@
         <v>155</v>
       </c>
       <c r="BF149" t="s">
+        <v>1241</v>
+      </c>
+      <c r="BG149" s="1">
+        <v>38694</v>
+      </c>
+      <c r="BH149" t="s">
+        <v>88</v>
+      </c>
+      <c r="BI149" t="s">
+        <v>88</v>
+      </c>
+      <c r="BJ149" t="s">
+        <v>88</v>
+      </c>
+      <c r="BL149" s="1">
+        <v>44782</v>
+      </c>
+      <c r="BM149" t="s">
         <v>1242</v>
       </c>
-      <c r="BG149" s="1">
-        <v>41709</v>
-      </c>
-      <c r="BH149" t="s">
-        <v>88</v>
-      </c>
-      <c r="BI149" t="s">
-        <v>88</v>
-      </c>
-      <c r="BJ149" t="s">
-        <v>88</v>
-      </c>
-      <c r="BL149" s="1">
-        <v>44775</v>
-      </c>
-      <c r="BM149" t="s">
-        <v>368</v>
-      </c>
       <c r="BN149" t="s">
-        <v>113</v>
+        <v>263</v>
       </c>
       <c r="BO149" s="1">
-        <v>44622</v>
+        <v>44670</v>
       </c>
       <c r="BP149" t="s">
-        <v>114</v>
+        <v>264</v>
       </c>
       <c r="BQ149" t="s">
         <v>88</v>
@@ -40835,31 +40901,31 @@
         <v>88</v>
       </c>
       <c r="BT149" t="s">
-        <v>223</v>
+        <v>141</v>
       </c>
       <c r="BU149" t="s">
         <v>116</v>
       </c>
       <c r="BV149" t="s">
-        <v>111</v>
+        <v>265</v>
       </c>
       <c r="BW149" t="s">
         <v>96</v>
       </c>
       <c r="BX149" t="s">
-        <v>118</v>
+        <v>1243</v>
       </c>
       <c r="BY149" t="s">
-        <v>120</v>
+        <v>1244</v>
       </c>
       <c r="BZ149" t="s">
         <v>96</v>
       </c>
       <c r="CA149" t="s">
-        <v>118</v>
+        <v>1243</v>
       </c>
       <c r="CB149" t="s">
-        <v>120</v>
+        <v>1244</v>
       </c>
       <c r="CC149" t="s">
         <v>118</v>
@@ -40868,7 +40934,7 @@
         <v>120</v>
       </c>
       <c r="CE149">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="150" spans="1:83" x14ac:dyDescent="0.15">
@@ -40876,7 +40942,7 @@
         <v>82</v>
       </c>
       <c r="B150" s="1">
-        <v>44615</v>
+        <v>44620</v>
       </c>
       <c r="C150" t="s">
         <v>356</v>
@@ -40885,31 +40951,31 @@
         <v>84</v>
       </c>
       <c r="E150" t="s">
-        <v>122</v>
+        <v>987</v>
       </c>
       <c r="F150" t="s">
         <v>86</v>
       </c>
       <c r="G150" t="s">
-        <v>1193</v>
+        <v>1245</v>
       </c>
       <c r="H150" t="s">
-        <v>88</v>
+        <v>1246</v>
       </c>
       <c r="I150" t="s">
-        <v>1243</v>
+        <v>1175</v>
       </c>
       <c r="J150" t="s">
-        <v>170</v>
+        <v>933</v>
       </c>
       <c r="K150" t="s">
-        <v>254</v>
+        <v>148</v>
       </c>
       <c r="L150" t="s">
-        <v>1244</v>
+        <v>1247</v>
       </c>
       <c r="M150" t="s">
-        <v>108</v>
+        <v>778</v>
       </c>
       <c r="N150" t="s">
         <v>94</v>
@@ -40921,7 +40987,7 @@
         <v>96</v>
       </c>
       <c r="Q150" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="R150" t="s">
         <v>95</v>
@@ -40936,7 +41002,7 @@
         <v>94</v>
       </c>
       <c r="V150" t="s">
-        <v>120</v>
+        <v>215</v>
       </c>
       <c r="W150" t="s">
         <v>88</v>
@@ -40945,19 +41011,19 @@
         <v>88</v>
       </c>
       <c r="Y150" t="s">
-        <v>120</v>
+        <v>201</v>
       </c>
       <c r="Z150" t="s">
-        <v>1245</v>
+        <v>1248</v>
       </c>
       <c r="AA150" t="s">
-        <v>259</v>
+        <v>1249</v>
       </c>
       <c r="AB150" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="AC150" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="AD150" t="s">
         <v>105</v>
@@ -40978,7 +41044,7 @@
         <v>99</v>
       </c>
       <c r="AK150" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AL150" t="s">
         <v>88</v>
@@ -40990,7 +41056,7 @@
         <v>99</v>
       </c>
       <c r="AO150" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AP150" t="s">
         <v>99</v>
@@ -41017,10 +41083,10 @@
         <v>129</v>
       </c>
       <c r="AX150" s="1">
-        <v>44613</v>
+        <v>44620</v>
       </c>
       <c r="AY150" s="1">
-        <v>44612</v>
+        <v>44616</v>
       </c>
       <c r="AZ150" t="s">
         <v>93</v>
@@ -41041,10 +41107,10 @@
         <v>155</v>
       </c>
       <c r="BF150" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="BG150" s="1">
-        <v>41724</v>
+        <v>31112</v>
       </c>
       <c r="BH150" t="s">
         <v>88</v>
@@ -41056,19 +41122,19 @@
         <v>88</v>
       </c>
       <c r="BL150" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM150" t="s">
-        <v>1247</v>
+        <v>1251</v>
       </c>
       <c r="BN150" t="s">
-        <v>389</v>
+        <v>997</v>
       </c>
       <c r="BO150" s="1">
-        <v>44615</v>
+        <v>44620</v>
       </c>
       <c r="BP150" t="s">
-        <v>140</v>
+        <v>998</v>
       </c>
       <c r="BQ150" t="s">
         <v>88</v>
@@ -41086,7 +41152,7 @@
         <v>116</v>
       </c>
       <c r="BV150" t="s">
-        <v>137</v>
+        <v>999</v>
       </c>
       <c r="BW150" t="s">
         <v>96</v>
@@ -41113,7 +41179,7 @@
         <v>120</v>
       </c>
       <c r="CE150">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="151" spans="1:83" x14ac:dyDescent="0.15">
@@ -41130,31 +41196,31 @@
         <v>84</v>
       </c>
       <c r="E151" t="s">
-        <v>85</v>
+        <v>209</v>
       </c>
       <c r="F151" t="s">
-        <v>208</v>
+        <v>86</v>
       </c>
       <c r="G151" t="s">
-        <v>426</v>
+        <v>1252</v>
       </c>
       <c r="H151" t="s">
         <v>88</v>
       </c>
       <c r="I151" t="s">
-        <v>745</v>
+        <v>1253</v>
       </c>
       <c r="J151" t="s">
-        <v>310</v>
+        <v>1254</v>
       </c>
       <c r="K151" t="s">
-        <v>254</v>
+        <v>91</v>
       </c>
       <c r="L151" t="s">
-        <v>1248</v>
+        <v>1255</v>
       </c>
       <c r="M151" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="N151" t="s">
         <v>94</v>
@@ -41175,34 +41241,34 @@
         <v>98</v>
       </c>
       <c r="T151" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="U151" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="V151" t="s">
-        <v>88</v>
+        <v>215</v>
       </c>
       <c r="W151" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="X151" t="s">
         <v>88</v>
       </c>
       <c r="Y151" t="s">
-        <v>88</v>
+        <v>1256</v>
       </c>
       <c r="Z151" t="s">
-        <v>1249</v>
+        <v>1257</v>
       </c>
       <c r="AA151" t="s">
-        <v>259</v>
+        <v>132</v>
       </c>
       <c r="AB151" t="s">
         <v>133</v>
       </c>
       <c r="AC151" t="s">
-        <v>294</v>
+        <v>134</v>
       </c>
       <c r="AD151" t="s">
         <v>105</v>
@@ -41259,7 +41325,7 @@
         <v>98</v>
       </c>
       <c r="AW151" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="AX151" s="1">
         <v>44618</v>
@@ -41286,10 +41352,10 @@
         <v>155</v>
       </c>
       <c r="BF151" t="s">
-        <v>1250</v>
+        <v>1258</v>
       </c>
       <c r="BG151" s="1">
-        <v>41755</v>
+        <v>43616</v>
       </c>
       <c r="BH151" t="s">
         <v>88</v>
@@ -41301,19 +41367,19 @@
         <v>88</v>
       </c>
       <c r="BL151" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM151" t="s">
-        <v>1251</v>
+        <v>570</v>
       </c>
       <c r="BN151" t="s">
-        <v>113</v>
+        <v>1259</v>
       </c>
       <c r="BO151" s="1">
-        <v>44621</v>
+        <v>44620</v>
       </c>
       <c r="BP151" t="s">
-        <v>114</v>
+        <v>222</v>
       </c>
       <c r="BQ151" t="s">
         <v>88</v>
@@ -41331,7 +41397,7 @@
         <v>116</v>
       </c>
       <c r="BV151" t="s">
-        <v>111</v>
+        <v>224</v>
       </c>
       <c r="BW151" t="s">
         <v>96</v>
@@ -41340,7 +41406,7 @@
         <v>118</v>
       </c>
       <c r="BY151" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BZ151" t="s">
         <v>96</v>
@@ -41349,7 +41415,7 @@
         <v>118</v>
       </c>
       <c r="CB151" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="CC151" t="s">
         <v>118</v>
@@ -41358,7 +41424,7 @@
         <v>120</v>
       </c>
       <c r="CE151">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="152" spans="1:83" x14ac:dyDescent="0.15">
@@ -41366,7 +41432,7 @@
         <v>82</v>
       </c>
       <c r="B152" s="1">
-        <v>44614</v>
+        <v>44620</v>
       </c>
       <c r="C152" t="s">
         <v>356</v>
@@ -41381,25 +41447,25 @@
         <v>86</v>
       </c>
       <c r="G152" t="s">
-        <v>867</v>
+        <v>1260</v>
       </c>
       <c r="H152" t="s">
         <v>88</v>
       </c>
       <c r="I152" t="s">
-        <v>1252</v>
+        <v>212</v>
       </c>
       <c r="J152" t="s">
-        <v>1155</v>
+        <v>1261</v>
       </c>
       <c r="K152" t="s">
-        <v>254</v>
+        <v>91</v>
       </c>
       <c r="L152" t="s">
-        <v>1253</v>
+        <v>1262</v>
       </c>
       <c r="M152" t="s">
-        <v>335</v>
+        <v>93</v>
       </c>
       <c r="N152" t="s">
         <v>94</v>
@@ -41411,7 +41477,7 @@
         <v>96</v>
       </c>
       <c r="Q152" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="R152" t="s">
         <v>95</v>
@@ -41420,7 +41486,7 @@
         <v>98</v>
       </c>
       <c r="T152" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="U152" t="s">
         <v>94</v>
@@ -41435,13 +41501,13 @@
         <v>88</v>
       </c>
       <c r="Y152" t="s">
-        <v>1254</v>
+        <v>1263</v>
       </c>
       <c r="Z152" t="s">
-        <v>1255</v>
+        <v>1264</v>
       </c>
       <c r="AA152" t="s">
-        <v>259</v>
+        <v>102</v>
       </c>
       <c r="AB152" t="s">
         <v>133</v>
@@ -41468,7 +41534,7 @@
         <v>99</v>
       </c>
       <c r="AK152" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="AL152" t="s">
         <v>88</v>
@@ -41480,7 +41546,7 @@
         <v>99</v>
       </c>
       <c r="AO152" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="AP152" t="s">
         <v>99</v>
@@ -41504,13 +41570,13 @@
         <v>98</v>
       </c>
       <c r="AW152" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="AX152" s="1">
-        <v>44614</v>
+        <v>44620</v>
       </c>
       <c r="AY152" s="1">
-        <v>44612</v>
+        <v>44618</v>
       </c>
       <c r="AZ152" t="s">
         <v>93</v>
@@ -41531,10 +41597,10 @@
         <v>155</v>
       </c>
       <c r="BF152" t="s">
-        <v>1256</v>
+        <v>1265</v>
       </c>
       <c r="BG152" s="1">
-        <v>38646</v>
+        <v>43136</v>
       </c>
       <c r="BH152" t="s">
         <v>88</v>
@@ -41546,16 +41612,16 @@
         <v>88</v>
       </c>
       <c r="BL152" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM152" t="s">
-        <v>627</v>
+        <v>274</v>
       </c>
       <c r="BN152" t="s">
-        <v>628</v>
+        <v>275</v>
       </c>
       <c r="BO152" s="1">
-        <v>44616</v>
+        <v>44623</v>
       </c>
       <c r="BP152" t="s">
         <v>222</v>
@@ -41570,7 +41636,7 @@
         <v>88</v>
       </c>
       <c r="BT152" t="s">
-        <v>1117</v>
+        <v>223</v>
       </c>
       <c r="BU152" t="s">
         <v>116</v>
@@ -41585,7 +41651,7 @@
         <v>118</v>
       </c>
       <c r="BY152" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BZ152" t="s">
         <v>96</v>
@@ -41594,7 +41660,7 @@
         <v>118</v>
       </c>
       <c r="CB152" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="CC152" t="s">
         <v>118</v>
@@ -41603,7 +41669,7 @@
         <v>120</v>
       </c>
       <c r="CE152">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="153" spans="1:83" x14ac:dyDescent="0.15">
@@ -41611,7 +41677,7 @@
         <v>82</v>
       </c>
       <c r="B153" s="1">
-        <v>44615</v>
+        <v>44620</v>
       </c>
       <c r="C153" t="s">
         <v>356</v>
@@ -41623,28 +41689,28 @@
         <v>85</v>
       </c>
       <c r="F153" t="s">
-        <v>86</v>
+        <v>208</v>
       </c>
       <c r="G153" t="s">
-        <v>645</v>
+        <v>1266</v>
       </c>
       <c r="H153" t="s">
         <v>88</v>
       </c>
       <c r="I153" t="s">
-        <v>529</v>
+        <v>1267</v>
       </c>
       <c r="J153" t="s">
-        <v>510</v>
+        <v>241</v>
       </c>
       <c r="K153" t="s">
         <v>254</v>
       </c>
       <c r="L153" t="s">
-        <v>1257</v>
+        <v>1268</v>
       </c>
       <c r="M153" t="s">
-        <v>270</v>
+        <v>108</v>
       </c>
       <c r="N153" t="s">
         <v>94</v>
@@ -41674,7 +41740,7 @@
         <v>88</v>
       </c>
       <c r="W153" t="s">
-        <v>497</v>
+        <v>130</v>
       </c>
       <c r="X153" t="s">
         <v>88</v>
@@ -41683,7 +41749,7 @@
         <v>88</v>
       </c>
       <c r="Z153" t="s">
-        <v>1258</v>
+        <v>1269</v>
       </c>
       <c r="AA153" t="s">
         <v>259</v>
@@ -41692,7 +41758,7 @@
         <v>133</v>
       </c>
       <c r="AC153" t="s">
-        <v>294</v>
+        <v>134</v>
       </c>
       <c r="AD153" t="s">
         <v>105</v>
@@ -41752,10 +41818,10 @@
         <v>129</v>
       </c>
       <c r="AX153" s="1">
-        <v>44615</v>
+        <v>44620</v>
       </c>
       <c r="AY153" s="1">
-        <v>44614</v>
+        <v>44617</v>
       </c>
       <c r="AZ153" t="s">
         <v>93</v>
@@ -41776,10 +41842,10 @@
         <v>155</v>
       </c>
       <c r="BF153" t="s">
-        <v>1259</v>
+        <v>1270</v>
       </c>
       <c r="BG153" s="1">
-        <v>40237</v>
+        <v>41709</v>
       </c>
       <c r="BH153" t="s">
         <v>88</v>
@@ -41791,16 +41857,16 @@
         <v>88</v>
       </c>
       <c r="BL153" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM153" t="s">
-        <v>1260</v>
+        <v>368</v>
       </c>
       <c r="BN153" t="s">
         <v>113</v>
       </c>
       <c r="BO153" s="1">
-        <v>44616</v>
+        <v>44622</v>
       </c>
       <c r="BP153" t="s">
         <v>114</v>
@@ -41815,13 +41881,13 @@
         <v>88</v>
       </c>
       <c r="BT153" t="s">
-        <v>1117</v>
+        <v>223</v>
       </c>
       <c r="BU153" t="s">
         <v>116</v>
       </c>
       <c r="BV153" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="BW153" t="s">
         <v>96</v>
@@ -41848,7 +41914,7 @@
         <v>120</v>
       </c>
       <c r="CE153">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="154" spans="1:83" x14ac:dyDescent="0.15">
@@ -41856,40 +41922,40 @@
         <v>82</v>
       </c>
       <c r="B154" s="1">
-        <v>44623</v>
+        <v>44615</v>
       </c>
       <c r="C154" t="s">
-        <v>1202</v>
+        <v>356</v>
       </c>
       <c r="D154" t="s">
         <v>84</v>
       </c>
       <c r="E154" t="s">
-        <v>197</v>
+        <v>122</v>
       </c>
       <c r="F154" t="s">
         <v>86</v>
       </c>
       <c r="G154" t="s">
-        <v>319</v>
+        <v>1221</v>
       </c>
       <c r="H154" t="s">
-        <v>251</v>
+        <v>88</v>
       </c>
       <c r="I154" t="s">
-        <v>288</v>
+        <v>1271</v>
       </c>
       <c r="J154" t="s">
-        <v>723</v>
+        <v>170</v>
       </c>
       <c r="K154" t="s">
-        <v>91</v>
+        <v>254</v>
       </c>
       <c r="L154" t="s">
-        <v>1261</v>
+        <v>1272</v>
       </c>
       <c r="M154" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N154" t="s">
         <v>94</v>
@@ -41901,7 +41967,7 @@
         <v>96</v>
       </c>
       <c r="Q154" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="R154" t="s">
         <v>95</v>
@@ -41916,7 +41982,7 @@
         <v>94</v>
       </c>
       <c r="V154" t="s">
-        <v>186</v>
+        <v>120</v>
       </c>
       <c r="W154" t="s">
         <v>88</v>
@@ -41925,25 +41991,25 @@
         <v>88</v>
       </c>
       <c r="Y154" t="s">
-        <v>201</v>
+        <v>120</v>
       </c>
       <c r="Z154" t="s">
-        <v>1262</v>
+        <v>1273</v>
       </c>
       <c r="AA154" t="s">
-        <v>132</v>
+        <v>259</v>
       </c>
       <c r="AB154" t="s">
         <v>133</v>
       </c>
       <c r="AC154" t="s">
-        <v>1263</v>
+        <v>134</v>
       </c>
       <c r="AD154" t="s">
         <v>105</v>
       </c>
       <c r="AF154" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="AG154" t="s">
         <v>99</v>
@@ -41958,7 +42024,7 @@
         <v>99</v>
       </c>
       <c r="AK154" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="AL154" t="s">
         <v>88</v>
@@ -41970,7 +42036,7 @@
         <v>99</v>
       </c>
       <c r="AO154" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="AP154" t="s">
         <v>99</v>
@@ -41997,10 +42063,10 @@
         <v>129</v>
       </c>
       <c r="AX154" s="1">
-        <v>44623</v>
+        <v>44613</v>
       </c>
       <c r="AY154" s="1">
-        <v>44621</v>
+        <v>44612</v>
       </c>
       <c r="AZ154" t="s">
         <v>93</v>
@@ -42021,10 +42087,10 @@
         <v>155</v>
       </c>
       <c r="BF154" t="s">
-        <v>1264</v>
+        <v>1274</v>
       </c>
       <c r="BG154" s="1">
-        <v>43489</v>
+        <v>41724</v>
       </c>
       <c r="BH154" t="s">
         <v>88</v>
@@ -42036,19 +42102,19 @@
         <v>88</v>
       </c>
       <c r="BL154" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM154" t="s">
-        <v>1265</v>
+        <v>1275</v>
       </c>
       <c r="BN154" t="s">
-        <v>651</v>
+        <v>389</v>
       </c>
       <c r="BO154" s="1">
-        <v>44624</v>
+        <v>44615</v>
       </c>
       <c r="BP154" t="s">
-        <v>206</v>
+        <v>140</v>
       </c>
       <c r="BQ154" t="s">
         <v>88</v>
@@ -42066,7 +42132,7 @@
         <v>116</v>
       </c>
       <c r="BV154" t="s">
-        <v>207</v>
+        <v>137</v>
       </c>
       <c r="BW154" t="s">
         <v>96</v>
@@ -42093,7 +42159,7 @@
         <v>120</v>
       </c>
       <c r="CE154">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="155" spans="1:83" x14ac:dyDescent="0.15">
@@ -42101,40 +42167,40 @@
         <v>82</v>
       </c>
       <c r="B155" s="1">
-        <v>44653</v>
+        <v>44618</v>
       </c>
       <c r="C155" t="s">
-        <v>1202</v>
+        <v>356</v>
       </c>
       <c r="D155" t="s">
         <v>84</v>
       </c>
       <c r="E155" t="s">
-        <v>225</v>
+        <v>85</v>
       </c>
       <c r="F155" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="G155" t="s">
-        <v>308</v>
+        <v>426</v>
       </c>
       <c r="H155" t="s">
         <v>88</v>
       </c>
       <c r="I155" t="s">
-        <v>1266</v>
+        <v>745</v>
       </c>
       <c r="J155" t="s">
-        <v>1267</v>
+        <v>310</v>
       </c>
       <c r="K155" t="s">
-        <v>91</v>
+        <v>254</v>
       </c>
       <c r="L155" t="s">
-        <v>1268</v>
+        <v>1276</v>
       </c>
       <c r="M155" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="N155" t="s">
         <v>94</v>
@@ -42158,37 +42224,37 @@
         <v>129</v>
       </c>
       <c r="U155" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="V155" t="s">
-        <v>186</v>
+        <v>88</v>
       </c>
       <c r="W155" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="X155" t="s">
         <v>88</v>
       </c>
       <c r="Y155" t="s">
-        <v>201</v>
+        <v>88</v>
       </c>
       <c r="Z155" t="s">
-        <v>1269</v>
+        <v>1277</v>
       </c>
       <c r="AA155" t="s">
-        <v>132</v>
+        <v>259</v>
       </c>
       <c r="AB155" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="AC155" t="s">
-        <v>1059</v>
+        <v>294</v>
       </c>
       <c r="AD155" t="s">
         <v>105</v>
       </c>
       <c r="AF155" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="AG155" t="s">
         <v>99</v>
@@ -42242,10 +42308,10 @@
         <v>129</v>
       </c>
       <c r="AX155" s="1">
-        <v>44652</v>
+        <v>44618</v>
       </c>
       <c r="AY155" s="1">
-        <v>44620</v>
+        <v>44617</v>
       </c>
       <c r="AZ155" t="s">
         <v>93</v>
@@ -42266,10 +42332,10 @@
         <v>155</v>
       </c>
       <c r="BF155" t="s">
-        <v>1270</v>
+        <v>1278</v>
       </c>
       <c r="BG155" s="1">
-        <v>42728</v>
+        <v>41755</v>
       </c>
       <c r="BH155" t="s">
         <v>88</v>
@@ -42281,19 +42347,19 @@
         <v>88</v>
       </c>
       <c r="BL155" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM155" t="s">
-        <v>1271</v>
+        <v>1279</v>
       </c>
       <c r="BN155" t="s">
-        <v>792</v>
+        <v>113</v>
       </c>
       <c r="BO155" s="1">
-        <v>44655</v>
+        <v>44621</v>
       </c>
       <c r="BP155" t="s">
-        <v>236</v>
+        <v>114</v>
       </c>
       <c r="BQ155" t="s">
         <v>88</v>
@@ -42305,13 +42371,13 @@
         <v>88</v>
       </c>
       <c r="BT155" t="s">
-        <v>141</v>
+        <v>223</v>
       </c>
       <c r="BU155" t="s">
         <v>116</v>
       </c>
       <c r="BV155" t="s">
-        <v>237</v>
+        <v>111</v>
       </c>
       <c r="BW155" t="s">
         <v>96</v>
@@ -42338,7 +42404,7 @@
         <v>120</v>
       </c>
       <c r="CE155">
-        <v>68</v>
+        <v>33</v>
       </c>
     </row>
     <row r="156" spans="1:83" x14ac:dyDescent="0.15">
@@ -42346,40 +42412,40 @@
         <v>82</v>
       </c>
       <c r="B156" s="1">
-        <v>44632</v>
+        <v>44614</v>
       </c>
       <c r="C156" t="s">
-        <v>1202</v>
+        <v>356</v>
       </c>
       <c r="D156" t="s">
         <v>84</v>
       </c>
       <c r="E156" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="F156" t="s">
-        <v>180</v>
+        <v>86</v>
       </c>
       <c r="G156" t="s">
-        <v>425</v>
+        <v>867</v>
       </c>
       <c r="H156" t="s">
-        <v>1272</v>
+        <v>88</v>
       </c>
       <c r="I156" t="s">
-        <v>652</v>
+        <v>1280</v>
       </c>
       <c r="J156" t="s">
-        <v>1273</v>
+        <v>1183</v>
       </c>
       <c r="K156" t="s">
-        <v>91</v>
+        <v>254</v>
       </c>
       <c r="L156" t="s">
-        <v>1274</v>
+        <v>1281</v>
       </c>
       <c r="M156" t="s">
-        <v>121</v>
+        <v>335</v>
       </c>
       <c r="N156" t="s">
         <v>94</v>
@@ -42406,7 +42472,7 @@
         <v>94</v>
       </c>
       <c r="V156" t="s">
-        <v>186</v>
+        <v>215</v>
       </c>
       <c r="W156" t="s">
         <v>88</v>
@@ -42415,10 +42481,10 @@
         <v>88</v>
       </c>
       <c r="Y156" t="s">
-        <v>1275</v>
+        <v>1282</v>
       </c>
       <c r="Z156" t="s">
-        <v>1276</v>
+        <v>1283</v>
       </c>
       <c r="AA156" t="s">
         <v>259</v>
@@ -42433,7 +42499,7 @@
         <v>105</v>
       </c>
       <c r="AF156" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="AG156" t="s">
         <v>99</v>
@@ -42487,10 +42553,10 @@
         <v>129</v>
       </c>
       <c r="AX156" s="1">
-        <v>44629</v>
+        <v>44614</v>
       </c>
       <c r="AY156" s="1">
-        <v>44624</v>
+        <v>44612</v>
       </c>
       <c r="AZ156" t="s">
         <v>93</v>
@@ -42511,10 +42577,10 @@
         <v>155</v>
       </c>
       <c r="BF156" t="s">
-        <v>1277</v>
+        <v>1284</v>
       </c>
       <c r="BG156" s="1">
-        <v>42615</v>
+        <v>38646</v>
       </c>
       <c r="BH156" t="s">
         <v>88</v>
@@ -42526,19 +42592,19 @@
         <v>88</v>
       </c>
       <c r="BL156" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM156" t="s">
-        <v>305</v>
+        <v>627</v>
       </c>
       <c r="BN156" t="s">
-        <v>306</v>
+        <v>628</v>
       </c>
       <c r="BO156" s="1">
-        <v>44632</v>
+        <v>44616</v>
       </c>
       <c r="BP156" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="BQ156" t="s">
         <v>88</v>
@@ -42550,13 +42616,13 @@
         <v>88</v>
       </c>
       <c r="BT156" t="s">
-        <v>195</v>
+        <v>1125</v>
       </c>
       <c r="BU156" t="s">
         <v>116</v>
       </c>
       <c r="BV156" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="BW156" t="s">
         <v>96</v>
@@ -42583,7 +42649,7 @@
         <v>120</v>
       </c>
       <c r="CE156">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="157" spans="1:83" x14ac:dyDescent="0.15">
@@ -42591,40 +42657,40 @@
         <v>82</v>
       </c>
       <c r="B157" s="1">
-        <v>44622</v>
+        <v>44615</v>
       </c>
       <c r="C157" t="s">
-        <v>1202</v>
+        <v>356</v>
       </c>
       <c r="D157" t="s">
         <v>84</v>
       </c>
       <c r="E157" t="s">
-        <v>209</v>
+        <v>85</v>
       </c>
       <c r="F157" t="s">
         <v>86</v>
       </c>
       <c r="G157" t="s">
-        <v>1278</v>
+        <v>645</v>
       </c>
       <c r="H157" t="s">
         <v>88</v>
       </c>
       <c r="I157" t="s">
-        <v>170</v>
+        <v>529</v>
       </c>
       <c r="J157" t="s">
-        <v>600</v>
+        <v>510</v>
       </c>
       <c r="K157" t="s">
-        <v>91</v>
+        <v>254</v>
       </c>
       <c r="L157" t="s">
-        <v>1279</v>
+        <v>1285</v>
       </c>
       <c r="M157" t="s">
-        <v>106</v>
+        <v>270</v>
       </c>
       <c r="N157" t="s">
         <v>94</v>
@@ -42648,31 +42714,31 @@
         <v>129</v>
       </c>
       <c r="U157" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="V157" t="s">
-        <v>215</v>
+        <v>88</v>
       </c>
       <c r="W157" t="s">
-        <v>88</v>
+        <v>497</v>
       </c>
       <c r="X157" t="s">
         <v>88</v>
       </c>
       <c r="Y157" t="s">
-        <v>1280</v>
+        <v>88</v>
       </c>
       <c r="Z157" t="s">
-        <v>1281</v>
+        <v>1286</v>
       </c>
       <c r="AA157" t="s">
-        <v>132</v>
+        <v>259</v>
       </c>
       <c r="AB157" t="s">
         <v>133</v>
       </c>
       <c r="AC157" t="s">
-        <v>190</v>
+        <v>294</v>
       </c>
       <c r="AD157" t="s">
         <v>105</v>
@@ -42732,10 +42798,10 @@
         <v>129</v>
       </c>
       <c r="AX157" s="1">
-        <v>44622</v>
+        <v>44615</v>
       </c>
       <c r="AY157" s="1">
-        <v>44620</v>
+        <v>44614</v>
       </c>
       <c r="AZ157" t="s">
         <v>93</v>
@@ -42756,10 +42822,10 @@
         <v>155</v>
       </c>
       <c r="BF157" t="s">
-        <v>1282</v>
+        <v>1287</v>
       </c>
       <c r="BG157" s="1">
-        <v>43486</v>
+        <v>40237</v>
       </c>
       <c r="BH157" t="s">
         <v>88</v>
@@ -42771,19 +42837,19 @@
         <v>88</v>
       </c>
       <c r="BL157" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM157" t="s">
-        <v>274</v>
+        <v>1288</v>
       </c>
       <c r="BN157" t="s">
-        <v>275</v>
+        <v>113</v>
       </c>
       <c r="BO157" s="1">
-        <v>44625</v>
+        <v>44616</v>
       </c>
       <c r="BP157" t="s">
-        <v>222</v>
+        <v>114</v>
       </c>
       <c r="BQ157" t="s">
         <v>88</v>
@@ -42795,13 +42861,13 @@
         <v>88</v>
       </c>
       <c r="BT157" t="s">
-        <v>223</v>
+        <v>1125</v>
       </c>
       <c r="BU157" t="s">
         <v>116</v>
       </c>
       <c r="BV157" t="s">
-        <v>224</v>
+        <v>117</v>
       </c>
       <c r="BW157" t="s">
         <v>96</v>
@@ -42828,7 +42894,7 @@
         <v>120</v>
       </c>
       <c r="CE157">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="158" spans="1:83" x14ac:dyDescent="0.15">
@@ -42836,10 +42902,10 @@
         <v>82</v>
       </c>
       <c r="B158" s="1">
-        <v>44625</v>
+        <v>44623</v>
       </c>
       <c r="C158" t="s">
-        <v>1202</v>
+        <v>1230</v>
       </c>
       <c r="D158" t="s">
         <v>84</v>
@@ -42851,25 +42917,25 @@
         <v>86</v>
       </c>
       <c r="G158" t="s">
-        <v>227</v>
+        <v>319</v>
       </c>
       <c r="H158" t="s">
-        <v>88</v>
+        <v>251</v>
       </c>
       <c r="I158" t="s">
-        <v>692</v>
+        <v>288</v>
       </c>
       <c r="J158" t="s">
-        <v>1283</v>
+        <v>723</v>
       </c>
       <c r="K158" t="s">
         <v>91</v>
       </c>
       <c r="L158" t="s">
-        <v>1284</v>
+        <v>1289</v>
       </c>
       <c r="M158" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="N158" t="s">
         <v>94</v>
@@ -42881,7 +42947,7 @@
         <v>96</v>
       </c>
       <c r="Q158" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="R158" t="s">
         <v>95</v>
@@ -42890,7 +42956,7 @@
         <v>98</v>
       </c>
       <c r="T158" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="U158" t="s">
         <v>94</v>
@@ -42908,7 +42974,7 @@
         <v>201</v>
       </c>
       <c r="Z158" t="s">
-        <v>1285</v>
+        <v>1290</v>
       </c>
       <c r="AA158" t="s">
         <v>132</v>
@@ -42917,13 +42983,13 @@
         <v>133</v>
       </c>
       <c r="AC158" t="s">
-        <v>134</v>
+        <v>1291</v>
       </c>
       <c r="AD158" t="s">
         <v>105</v>
       </c>
       <c r="AF158" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="AG158" t="s">
         <v>99</v>
@@ -42938,7 +43004,7 @@
         <v>99</v>
       </c>
       <c r="AK158" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AL158" t="s">
         <v>88</v>
@@ -42950,7 +43016,7 @@
         <v>99</v>
       </c>
       <c r="AO158" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AP158" t="s">
         <v>99</v>
@@ -42965,7 +43031,7 @@
         <v>94</v>
       </c>
       <c r="AT158" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="AU158" t="s">
         <v>95</v>
@@ -42974,13 +43040,13 @@
         <v>98</v>
       </c>
       <c r="AW158" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="AX158" s="1">
-        <v>44625</v>
+        <v>44623</v>
       </c>
       <c r="AY158" s="1">
-        <v>44622</v>
+        <v>44621</v>
       </c>
       <c r="AZ158" t="s">
         <v>93</v>
@@ -43001,10 +43067,10 @@
         <v>155</v>
       </c>
       <c r="BF158" t="s">
-        <v>1286</v>
+        <v>1292</v>
       </c>
       <c r="BG158" s="1">
-        <v>44261</v>
+        <v>43489</v>
       </c>
       <c r="BH158" t="s">
         <v>88</v>
@@ -43016,16 +43082,16 @@
         <v>88</v>
       </c>
       <c r="BL158" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM158" t="s">
-        <v>1265</v>
+        <v>1293</v>
       </c>
       <c r="BN158" t="s">
         <v>651</v>
       </c>
       <c r="BO158" s="1">
-        <v>44627</v>
+        <v>44624</v>
       </c>
       <c r="BP158" t="s">
         <v>206</v>
@@ -43055,7 +43121,7 @@
         <v>118</v>
       </c>
       <c r="BY158" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BZ158" t="s">
         <v>96</v>
@@ -43064,7 +43130,7 @@
         <v>118</v>
       </c>
       <c r="CB158" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="CC158" t="s">
         <v>118</v>
@@ -43073,7 +43139,7 @@
         <v>120</v>
       </c>
       <c r="CE158">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="159" spans="1:83" x14ac:dyDescent="0.15">
@@ -43081,43 +43147,43 @@
         <v>82</v>
       </c>
       <c r="B159" s="1">
-        <v>44628</v>
+        <v>44653</v>
       </c>
       <c r="C159" t="s">
-        <v>1202</v>
+        <v>1230</v>
       </c>
       <c r="D159" t="s">
         <v>84</v>
       </c>
       <c r="E159" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="F159" t="s">
-        <v>86</v>
+        <v>226</v>
       </c>
       <c r="G159" t="s">
-        <v>1287</v>
+        <v>308</v>
       </c>
       <c r="H159" t="s">
         <v>88</v>
       </c>
       <c r="I159" t="s">
-        <v>252</v>
+        <v>1294</v>
       </c>
       <c r="J159" t="s">
-        <v>1094</v>
+        <v>1295</v>
       </c>
       <c r="K159" t="s">
         <v>91</v>
       </c>
       <c r="L159" t="s">
-        <v>1288</v>
+        <v>1296</v>
       </c>
       <c r="M159" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="N159" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="O159" t="s">
         <v>95</v>
@@ -43126,7 +43192,7 @@
         <v>96</v>
       </c>
       <c r="Q159" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="R159" t="s">
         <v>95</v>
@@ -43141,7 +43207,7 @@
         <v>94</v>
       </c>
       <c r="V159" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="W159" t="s">
         <v>88</v>
@@ -43150,25 +43216,25 @@
         <v>88</v>
       </c>
       <c r="Y159" t="s">
-        <v>1289</v>
+        <v>201</v>
       </c>
       <c r="Z159" t="s">
-        <v>1290</v>
+        <v>1297</v>
       </c>
       <c r="AA159" t="s">
         <v>132</v>
       </c>
       <c r="AB159" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="AC159" t="s">
-        <v>190</v>
+        <v>1059</v>
       </c>
       <c r="AD159" t="s">
         <v>105</v>
       </c>
       <c r="AF159" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="AG159" t="s">
         <v>99</v>
@@ -43183,7 +43249,7 @@
         <v>99</v>
       </c>
       <c r="AK159" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AL159" t="s">
         <v>88</v>
@@ -43195,7 +43261,7 @@
         <v>99</v>
       </c>
       <c r="AO159" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AP159" t="s">
         <v>99</v>
@@ -43222,10 +43288,10 @@
         <v>129</v>
       </c>
       <c r="AX159" s="1">
-        <v>44628</v>
+        <v>44652</v>
       </c>
       <c r="AY159" s="1">
-        <v>44621</v>
+        <v>44620</v>
       </c>
       <c r="AZ159" t="s">
         <v>93</v>
@@ -43246,10 +43312,10 @@
         <v>155</v>
       </c>
       <c r="BF159" t="s">
-        <v>1291</v>
+        <v>1298</v>
       </c>
       <c r="BG159" s="1">
-        <v>44392</v>
+        <v>42728</v>
       </c>
       <c r="BH159" t="s">
         <v>88</v>
@@ -43261,19 +43327,19 @@
         <v>88</v>
       </c>
       <c r="BL159" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM159" t="s">
-        <v>413</v>
+        <v>1299</v>
       </c>
       <c r="BN159" t="s">
-        <v>414</v>
+        <v>792</v>
       </c>
       <c r="BO159" s="1">
-        <v>44629</v>
+        <v>44655</v>
       </c>
       <c r="BP159" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="BQ159" t="s">
         <v>88</v>
@@ -43285,13 +43351,13 @@
         <v>88</v>
       </c>
       <c r="BT159" t="s">
-        <v>223</v>
+        <v>141</v>
       </c>
       <c r="BU159" t="s">
         <v>116</v>
       </c>
       <c r="BV159" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="BW159" t="s">
         <v>96</v>
@@ -43318,7 +43384,7 @@
         <v>120</v>
       </c>
       <c r="CE159">
-        <v>46</v>
+        <v>68</v>
       </c>
     </row>
     <row r="160" spans="1:83" x14ac:dyDescent="0.15">
@@ -43326,40 +43392,40 @@
         <v>82</v>
       </c>
       <c r="B160" s="1">
-        <v>44622</v>
+        <v>44632</v>
       </c>
       <c r="C160" t="s">
-        <v>1202</v>
+        <v>1230</v>
       </c>
       <c r="D160" t="s">
         <v>84</v>
       </c>
       <c r="E160" t="s">
-        <v>250</v>
+        <v>179</v>
       </c>
       <c r="F160" t="s">
-        <v>226</v>
+        <v>180</v>
       </c>
       <c r="G160" t="s">
-        <v>251</v>
+        <v>425</v>
       </c>
       <c r="H160" t="s">
-        <v>1292</v>
+        <v>1300</v>
       </c>
       <c r="I160" t="s">
-        <v>418</v>
+        <v>652</v>
       </c>
       <c r="J160" t="s">
-        <v>510</v>
+        <v>1301</v>
       </c>
       <c r="K160" t="s">
         <v>91</v>
       </c>
       <c r="L160" t="s">
-        <v>1293</v>
+        <v>1302</v>
       </c>
       <c r="M160" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="N160" t="s">
         <v>94</v>
@@ -43371,7 +43437,7 @@
         <v>96</v>
       </c>
       <c r="Q160" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="R160" t="s">
         <v>95</v>
@@ -43383,37 +43449,37 @@
         <v>129</v>
       </c>
       <c r="U160" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="V160" t="s">
-        <v>88</v>
+        <v>186</v>
       </c>
       <c r="W160" t="s">
-        <v>1294</v>
+        <v>88</v>
       </c>
       <c r="X160" t="s">
         <v>88</v>
       </c>
       <c r="Y160" t="s">
-        <v>88</v>
+        <v>1303</v>
       </c>
       <c r="Z160" t="s">
-        <v>1295</v>
+        <v>1304</v>
       </c>
       <c r="AA160" t="s">
-        <v>132</v>
+        <v>259</v>
       </c>
       <c r="AB160" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="AC160" t="s">
-        <v>260</v>
+        <v>190</v>
       </c>
       <c r="AD160" t="s">
         <v>105</v>
       </c>
       <c r="AF160" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="AG160" t="s">
         <v>99</v>
@@ -43428,7 +43494,7 @@
         <v>99</v>
       </c>
       <c r="AK160" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AL160" t="s">
         <v>88</v>
@@ -43440,7 +43506,7 @@
         <v>99</v>
       </c>
       <c r="AO160" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AP160" t="s">
         <v>99</v>
@@ -43467,10 +43533,10 @@
         <v>129</v>
       </c>
       <c r="AX160" s="1">
-        <v>44622</v>
+        <v>44629</v>
       </c>
       <c r="AY160" s="1">
-        <v>44619</v>
+        <v>44624</v>
       </c>
       <c r="AZ160" t="s">
         <v>93</v>
@@ -43491,10 +43557,10 @@
         <v>155</v>
       </c>
       <c r="BF160" t="s">
-        <v>1296</v>
+        <v>1305</v>
       </c>
       <c r="BG160" s="1">
-        <v>43029</v>
+        <v>42615</v>
       </c>
       <c r="BH160" t="s">
         <v>88</v>
@@ -43506,19 +43572,19 @@
         <v>88</v>
       </c>
       <c r="BL160" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM160" t="s">
-        <v>1297</v>
+        <v>305</v>
       </c>
       <c r="BN160" t="s">
-        <v>263</v>
+        <v>306</v>
       </c>
       <c r="BO160" s="1">
-        <v>44691</v>
+        <v>44632</v>
       </c>
       <c r="BP160" t="s">
-        <v>264</v>
+        <v>194</v>
       </c>
       <c r="BQ160" t="s">
         <v>88</v>
@@ -43530,13 +43596,13 @@
         <v>88</v>
       </c>
       <c r="BT160" t="s">
-        <v>465</v>
+        <v>195</v>
       </c>
       <c r="BU160" t="s">
         <v>116</v>
       </c>
       <c r="BV160" t="s">
-        <v>980</v>
+        <v>196</v>
       </c>
       <c r="BW160" t="s">
         <v>96</v>
@@ -43563,7 +43629,7 @@
         <v>120</v>
       </c>
       <c r="CE160">
-        <v>98</v>
+        <v>42</v>
       </c>
     </row>
     <row r="161" spans="1:83" x14ac:dyDescent="0.15">
@@ -43571,40 +43637,40 @@
         <v>82</v>
       </c>
       <c r="B161" s="1">
-        <v>44624</v>
+        <v>44622</v>
       </c>
       <c r="C161" t="s">
-        <v>1202</v>
+        <v>1230</v>
       </c>
       <c r="D161" t="s">
         <v>84</v>
       </c>
       <c r="E161" t="s">
-        <v>250</v>
+        <v>209</v>
       </c>
       <c r="F161" t="s">
-        <v>226</v>
+        <v>86</v>
       </c>
       <c r="G161" t="s">
-        <v>1298</v>
+        <v>1306</v>
       </c>
       <c r="H161" t="s">
-        <v>308</v>
+        <v>88</v>
       </c>
       <c r="I161" t="s">
-        <v>299</v>
+        <v>170</v>
       </c>
       <c r="J161" t="s">
-        <v>458</v>
+        <v>600</v>
       </c>
       <c r="K161" t="s">
-        <v>254</v>
+        <v>91</v>
       </c>
       <c r="L161" t="s">
-        <v>1299</v>
+        <v>1307</v>
       </c>
       <c r="M161" t="s">
-        <v>208</v>
+        <v>106</v>
       </c>
       <c r="N161" t="s">
         <v>94</v>
@@ -43628,37 +43694,37 @@
         <v>129</v>
       </c>
       <c r="U161" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="V161" t="s">
-        <v>88</v>
+        <v>215</v>
       </c>
       <c r="W161" t="s">
-        <v>1300</v>
+        <v>88</v>
       </c>
       <c r="X161" t="s">
         <v>88</v>
       </c>
       <c r="Y161" t="s">
-        <v>88</v>
+        <v>1308</v>
       </c>
       <c r="Z161" t="s">
-        <v>1301</v>
+        <v>1309</v>
       </c>
       <c r="AA161" t="s">
         <v>132</v>
       </c>
       <c r="AB161" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="AC161" t="s">
-        <v>284</v>
+        <v>190</v>
       </c>
       <c r="AD161" t="s">
         <v>105</v>
       </c>
       <c r="AF161" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AG161" t="s">
         <v>99</v>
@@ -43712,10 +43778,10 @@
         <v>129</v>
       </c>
       <c r="AX161" s="1">
-        <v>44624</v>
+        <v>44622</v>
       </c>
       <c r="AY161" s="1">
-        <v>44624</v>
+        <v>44620</v>
       </c>
       <c r="AZ161" t="s">
         <v>93</v>
@@ -43736,10 +43802,10 @@
         <v>155</v>
       </c>
       <c r="BF161" t="s">
-        <v>1302</v>
+        <v>1310</v>
       </c>
       <c r="BG161" s="1">
-        <v>40674</v>
+        <v>43486</v>
       </c>
       <c r="BH161" t="s">
         <v>88</v>
@@ -43751,19 +43817,19 @@
         <v>88</v>
       </c>
       <c r="BL161" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM161" t="s">
-        <v>1297</v>
+        <v>274</v>
       </c>
       <c r="BN161" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="BO161" s="1">
-        <v>44691</v>
+        <v>44625</v>
       </c>
       <c r="BP161" t="s">
-        <v>264</v>
+        <v>222</v>
       </c>
       <c r="BQ161" t="s">
         <v>88</v>
@@ -43775,13 +43841,13 @@
         <v>88</v>
       </c>
       <c r="BT161" t="s">
-        <v>465</v>
+        <v>223</v>
       </c>
       <c r="BU161" t="s">
         <v>116</v>
       </c>
       <c r="BV161" t="s">
-        <v>980</v>
+        <v>224</v>
       </c>
       <c r="BW161" t="s">
         <v>96</v>
@@ -43808,7 +43874,7 @@
         <v>120</v>
       </c>
       <c r="CE161">
-        <v>99</v>
+        <v>38</v>
       </c>
     </row>
     <row r="162" spans="1:83" x14ac:dyDescent="0.15">
@@ -43816,40 +43882,40 @@
         <v>82</v>
       </c>
       <c r="B162" s="1">
-        <v>44626</v>
+        <v>44625</v>
       </c>
       <c r="C162" t="s">
-        <v>1202</v>
+        <v>1230</v>
       </c>
       <c r="D162" t="s">
         <v>84</v>
       </c>
       <c r="E162" t="s">
-        <v>250</v>
+        <v>197</v>
       </c>
       <c r="F162" t="s">
-        <v>520</v>
+        <v>86</v>
       </c>
       <c r="G162" t="s">
-        <v>168</v>
+        <v>227</v>
       </c>
       <c r="H162" t="s">
-        <v>169</v>
+        <v>88</v>
       </c>
       <c r="I162" t="s">
-        <v>184</v>
+        <v>692</v>
       </c>
       <c r="J162" t="s">
-        <v>267</v>
+        <v>1311</v>
       </c>
       <c r="K162" t="s">
-        <v>254</v>
+        <v>91</v>
       </c>
       <c r="L162" t="s">
-        <v>1303</v>
+        <v>1312</v>
       </c>
       <c r="M162" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="N162" t="s">
         <v>94</v>
@@ -43870,40 +43936,40 @@
         <v>98</v>
       </c>
       <c r="T162" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="U162" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="V162" t="s">
-        <v>88</v>
+        <v>186</v>
       </c>
       <c r="W162" t="s">
-        <v>1304</v>
+        <v>88</v>
       </c>
       <c r="X162" t="s">
         <v>88</v>
       </c>
       <c r="Y162" t="s">
-        <v>88</v>
+        <v>201</v>
       </c>
       <c r="Z162" t="s">
-        <v>1304</v>
+        <v>1313</v>
       </c>
       <c r="AA162" t="s">
-        <v>259</v>
+        <v>132</v>
       </c>
       <c r="AB162" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="AC162" t="s">
-        <v>284</v>
+        <v>134</v>
       </c>
       <c r="AD162" t="s">
         <v>105</v>
       </c>
       <c r="AF162" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="AG162" t="s">
         <v>99</v>
@@ -43945,7 +44011,7 @@
         <v>94</v>
       </c>
       <c r="AT162" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AU162" t="s">
         <v>95</v>
@@ -43954,13 +44020,13 @@
         <v>98</v>
       </c>
       <c r="AW162" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="AX162" s="1">
-        <v>44626</v>
+        <v>44625</v>
       </c>
       <c r="AY162" s="1">
-        <v>44624</v>
+        <v>44622</v>
       </c>
       <c r="AZ162" t="s">
         <v>93</v>
@@ -43981,10 +44047,10 @@
         <v>155</v>
       </c>
       <c r="BF162" t="s">
-        <v>1305</v>
+        <v>1314</v>
       </c>
       <c r="BG162" s="1">
-        <v>40244</v>
+        <v>44261</v>
       </c>
       <c r="BH162" t="s">
         <v>88</v>
@@ -43996,19 +44062,19 @@
         <v>88</v>
       </c>
       <c r="BL162" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM162" t="s">
-        <v>1306</v>
+        <v>1293</v>
       </c>
       <c r="BN162" t="s">
-        <v>263</v>
+        <v>651</v>
       </c>
       <c r="BO162" s="1">
-        <v>44628</v>
+        <v>44627</v>
       </c>
       <c r="BP162" t="s">
-        <v>878</v>
+        <v>206</v>
       </c>
       <c r="BQ162" t="s">
         <v>88</v>
@@ -44026,7 +44092,7 @@
         <v>116</v>
       </c>
       <c r="BV162" t="s">
-        <v>879</v>
+        <v>207</v>
       </c>
       <c r="BW162" t="s">
         <v>96</v>
@@ -44035,7 +44101,7 @@
         <v>118</v>
       </c>
       <c r="BY162" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BZ162" t="s">
         <v>96</v>
@@ -44044,7 +44110,7 @@
         <v>118</v>
       </c>
       <c r="CB162" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="CC162" t="s">
         <v>118</v>
@@ -44053,7 +44119,7 @@
         <v>120</v>
       </c>
       <c r="CE162">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="163" spans="1:83" x14ac:dyDescent="0.15">
@@ -44061,10 +44127,10 @@
         <v>82</v>
       </c>
       <c r="B163" s="1">
-        <v>44622</v>
+        <v>44628</v>
       </c>
       <c r="C163" t="s">
-        <v>1202</v>
+        <v>1230</v>
       </c>
       <c r="D163" t="s">
         <v>84</v>
@@ -44076,28 +44142,28 @@
         <v>86</v>
       </c>
       <c r="G163" t="s">
-        <v>1307</v>
+        <v>1315</v>
       </c>
       <c r="H163" t="s">
         <v>88</v>
       </c>
       <c r="I163" t="s">
-        <v>1308</v>
+        <v>252</v>
       </c>
       <c r="J163" t="s">
-        <v>241</v>
+        <v>1102</v>
       </c>
       <c r="K163" t="s">
-        <v>254</v>
+        <v>91</v>
       </c>
       <c r="L163" t="s">
-        <v>1309</v>
+        <v>1316</v>
       </c>
       <c r="M163" t="s">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="N163" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="O163" t="s">
         <v>95</v>
@@ -44130,13 +44196,13 @@
         <v>88</v>
       </c>
       <c r="Y163" t="s">
-        <v>1310</v>
+        <v>1317</v>
       </c>
       <c r="Z163" t="s">
-        <v>1311</v>
+        <v>1318</v>
       </c>
       <c r="AA163" t="s">
-        <v>259</v>
+        <v>132</v>
       </c>
       <c r="AB163" t="s">
         <v>133</v>
@@ -44148,7 +44214,7 @@
         <v>105</v>
       </c>
       <c r="AF163" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="AG163" t="s">
         <v>99</v>
@@ -44202,7 +44268,7 @@
         <v>129</v>
       </c>
       <c r="AX163" s="1">
-        <v>44622</v>
+        <v>44628</v>
       </c>
       <c r="AY163" s="1">
         <v>44621</v>
@@ -44226,10 +44292,10 @@
         <v>155</v>
       </c>
       <c r="BF163" t="s">
-        <v>1312</v>
+        <v>1319</v>
       </c>
       <c r="BG163" s="1">
-        <v>40724</v>
+        <v>44392</v>
       </c>
       <c r="BH163" t="s">
         <v>88</v>
@@ -44241,16 +44307,16 @@
         <v>88</v>
       </c>
       <c r="BL163" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM163" t="s">
-        <v>627</v>
+        <v>413</v>
       </c>
       <c r="BN163" t="s">
-        <v>628</v>
+        <v>414</v>
       </c>
       <c r="BO163" s="1">
-        <v>44624</v>
+        <v>44629</v>
       </c>
       <c r="BP163" t="s">
         <v>222</v>
@@ -44298,7 +44364,7 @@
         <v>120</v>
       </c>
       <c r="CE163">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="164" spans="1:83" x14ac:dyDescent="0.15">
@@ -44306,40 +44372,40 @@
         <v>82</v>
       </c>
       <c r="B164" s="1">
-        <v>44627</v>
+        <v>44622</v>
       </c>
       <c r="C164" t="s">
-        <v>1202</v>
+        <v>1230</v>
       </c>
       <c r="D164" t="s">
         <v>84</v>
       </c>
       <c r="E164" t="s">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="F164" t="s">
-        <v>86</v>
+        <v>226</v>
       </c>
       <c r="G164" t="s">
-        <v>831</v>
+        <v>251</v>
       </c>
       <c r="H164" t="s">
-        <v>380</v>
+        <v>1320</v>
       </c>
       <c r="I164" t="s">
-        <v>881</v>
+        <v>418</v>
       </c>
       <c r="J164" t="s">
-        <v>170</v>
+        <v>510</v>
       </c>
       <c r="K164" t="s">
-        <v>254</v>
+        <v>91</v>
       </c>
       <c r="L164" t="s">
-        <v>1313</v>
+        <v>1321</v>
       </c>
       <c r="M164" t="s">
-        <v>466</v>
+        <v>93</v>
       </c>
       <c r="N164" t="s">
         <v>94</v>
@@ -44363,37 +44429,37 @@
         <v>129</v>
       </c>
       <c r="U164" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="V164" t="s">
-        <v>215</v>
+        <v>88</v>
       </c>
       <c r="W164" t="s">
-        <v>88</v>
+        <v>1157</v>
       </c>
       <c r="X164" t="s">
         <v>88</v>
       </c>
       <c r="Y164" t="s">
-        <v>1314</v>
+        <v>88</v>
       </c>
       <c r="Z164" t="s">
-        <v>1315</v>
+        <v>1322</v>
       </c>
       <c r="AA164" t="s">
-        <v>259</v>
+        <v>132</v>
       </c>
       <c r="AB164" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="AC164" t="s">
-        <v>190</v>
+        <v>260</v>
       </c>
       <c r="AD164" t="s">
         <v>105</v>
       </c>
       <c r="AF164" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="AG164" t="s">
         <v>99</v>
@@ -44447,10 +44513,10 @@
         <v>129</v>
       </c>
       <c r="AX164" s="1">
-        <v>44627</v>
+        <v>44622</v>
       </c>
       <c r="AY164" s="1">
-        <v>44624</v>
+        <v>44619</v>
       </c>
       <c r="AZ164" t="s">
         <v>93</v>
@@ -44471,10 +44537,10 @@
         <v>155</v>
       </c>
       <c r="BF164" t="s">
-        <v>1316</v>
+        <v>1323</v>
       </c>
       <c r="BG164" s="1">
-        <v>39656</v>
+        <v>43029</v>
       </c>
       <c r="BH164" t="s">
         <v>88</v>
@@ -44486,19 +44552,19 @@
         <v>88</v>
       </c>
       <c r="BL164" s="1">
-        <v>44775</v>
+        <v>44782</v>
       </c>
       <c r="BM164" t="s">
-        <v>627</v>
+        <v>1324</v>
       </c>
       <c r="BN164" t="s">
-        <v>628</v>
+        <v>263</v>
       </c>
       <c r="BO164" s="1">
-        <v>44628</v>
+        <v>44691</v>
       </c>
       <c r="BP164" t="s">
-        <v>222</v>
+        <v>264</v>
       </c>
       <c r="BQ164" t="s">
         <v>88</v>
@@ -44510,13 +44576,13 @@
         <v>88</v>
       </c>
       <c r="BT164" t="s">
-        <v>223</v>
+        <v>465</v>
       </c>
       <c r="BU164" t="s">
         <v>116</v>
       </c>
       <c r="BV164" t="s">
-        <v>224</v>
+        <v>980</v>
       </c>
       <c r="BW164" t="s">
         <v>96</v>
@@ -44543,11 +44609,990 @@
         <v>120</v>
       </c>
       <c r="CE164">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="165" spans="1:83" x14ac:dyDescent="0.15">
+      <c r="A165" t="s">
+        <v>82</v>
+      </c>
+      <c r="B165" s="1">
+        <v>44624</v>
+      </c>
+      <c r="C165" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D165" t="s">
+        <v>84</v>
+      </c>
+      <c r="E165" t="s">
+        <v>250</v>
+      </c>
+      <c r="F165" t="s">
+        <v>226</v>
+      </c>
+      <c r="G165" t="s">
+        <v>1325</v>
+      </c>
+      <c r="H165" t="s">
+        <v>308</v>
+      </c>
+      <c r="I165" t="s">
+        <v>299</v>
+      </c>
+      <c r="J165" t="s">
+        <v>458</v>
+      </c>
+      <c r="K165" t="s">
+        <v>254</v>
+      </c>
+      <c r="L165" t="s">
+        <v>1326</v>
+      </c>
+      <c r="M165" t="s">
+        <v>208</v>
+      </c>
+      <c r="N165" t="s">
+        <v>94</v>
+      </c>
+      <c r="O165" t="s">
+        <v>95</v>
+      </c>
+      <c r="P165" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q165" t="s">
+        <v>97</v>
+      </c>
+      <c r="R165" t="s">
+        <v>95</v>
+      </c>
+      <c r="S165" t="s">
+        <v>98</v>
+      </c>
+      <c r="T165" t="s">
+        <v>129</v>
+      </c>
+      <c r="U165" t="s">
+        <v>99</v>
+      </c>
+      <c r="V165" t="s">
+        <v>88</v>
+      </c>
+      <c r="W165" t="s">
+        <v>1327</v>
+      </c>
+      <c r="X165" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y165" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z165" t="s">
+        <v>1328</v>
+      </c>
+      <c r="AA165" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB165" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC165" t="s">
+        <v>284</v>
+      </c>
+      <c r="AD165" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF165" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG165" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH165" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI165" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ165" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK165" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL165" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM165" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN165" t="s">
+        <v>99</v>
+      </c>
+      <c r="AO165" t="s">
+        <v>99</v>
+      </c>
+      <c r="AP165" t="s">
+        <v>99</v>
+      </c>
+      <c r="AQ165" t="s">
+        <v>99</v>
+      </c>
+      <c r="AR165" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS165" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT165" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU165" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV165" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW165" t="s">
+        <v>129</v>
+      </c>
+      <c r="AX165" s="1">
+        <v>44624</v>
+      </c>
+      <c r="AY165" s="1">
+        <v>44624</v>
+      </c>
+      <c r="AZ165" t="s">
+        <v>93</v>
+      </c>
+      <c r="BA165" t="s">
+        <v>99</v>
+      </c>
+      <c r="BB165" t="s">
+        <v>107</v>
+      </c>
+      <c r="BC165" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD165" t="s">
+        <v>107</v>
+      </c>
+      <c r="BE165" t="s">
+        <v>155</v>
+      </c>
+      <c r="BF165" t="s">
+        <v>1329</v>
+      </c>
+      <c r="BG165" s="1">
+        <v>40674</v>
+      </c>
+      <c r="BH165" t="s">
+        <v>88</v>
+      </c>
+      <c r="BI165" t="s">
+        <v>88</v>
+      </c>
+      <c r="BJ165" t="s">
+        <v>88</v>
+      </c>
+      <c r="BL165" s="1">
+        <v>44782</v>
+      </c>
+      <c r="BM165" t="s">
+        <v>1324</v>
+      </c>
+      <c r="BN165" t="s">
+        <v>263</v>
+      </c>
+      <c r="BO165" s="1">
+        <v>44691</v>
+      </c>
+      <c r="BP165" t="s">
+        <v>264</v>
+      </c>
+      <c r="BQ165" t="s">
+        <v>88</v>
+      </c>
+      <c r="BR165" t="s">
+        <v>88</v>
+      </c>
+      <c r="BS165" t="s">
+        <v>88</v>
+      </c>
+      <c r="BT165" t="s">
+        <v>465</v>
+      </c>
+      <c r="BU165" t="s">
+        <v>116</v>
+      </c>
+      <c r="BV165" t="s">
+        <v>980</v>
+      </c>
+      <c r="BW165" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX165" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY165" t="s">
+        <v>120</v>
+      </c>
+      <c r="BZ165" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA165" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB165" t="s">
+        <v>120</v>
+      </c>
+      <c r="CC165" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD165" t="s">
+        <v>120</v>
+      </c>
+      <c r="CE165">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="166" spans="1:83" x14ac:dyDescent="0.15">
+      <c r="A166" t="s">
+        <v>82</v>
+      </c>
+      <c r="B166" s="1">
+        <v>44626</v>
+      </c>
+      <c r="C166" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D166" t="s">
+        <v>84</v>
+      </c>
+      <c r="E166" t="s">
+        <v>250</v>
+      </c>
+      <c r="F166" t="s">
+        <v>520</v>
+      </c>
+      <c r="G166" t="s">
+        <v>168</v>
+      </c>
+      <c r="H166" t="s">
+        <v>169</v>
+      </c>
+      <c r="I166" t="s">
+        <v>184</v>
+      </c>
+      <c r="J166" t="s">
+        <v>267</v>
+      </c>
+      <c r="K166" t="s">
+        <v>254</v>
+      </c>
+      <c r="L166" t="s">
+        <v>1330</v>
+      </c>
+      <c r="M166" t="s">
+        <v>83</v>
+      </c>
+      <c r="N166" t="s">
+        <v>94</v>
+      </c>
+      <c r="O166" t="s">
+        <v>95</v>
+      </c>
+      <c r="P166" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q166" t="s">
+        <v>128</v>
+      </c>
+      <c r="R166" t="s">
+        <v>95</v>
+      </c>
+      <c r="S166" t="s">
+        <v>98</v>
+      </c>
+      <c r="T166" t="s">
+        <v>129</v>
+      </c>
+      <c r="U166" t="s">
+        <v>99</v>
+      </c>
+      <c r="V166" t="s">
+        <v>88</v>
+      </c>
+      <c r="W166" t="s">
+        <v>1331</v>
+      </c>
+      <c r="X166" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y166" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z166" t="s">
+        <v>1331</v>
+      </c>
+      <c r="AA166" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB166" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC166" t="s">
+        <v>284</v>
+      </c>
+      <c r="AD166" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF166" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG166" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH166" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI166" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ166" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK166" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL166" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM166" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN166" t="s">
+        <v>99</v>
+      </c>
+      <c r="AO166" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP166" t="s">
+        <v>99</v>
+      </c>
+      <c r="AQ166" t="s">
+        <v>99</v>
+      </c>
+      <c r="AR166" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS166" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT166" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU166" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV166" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW166" t="s">
+        <v>129</v>
+      </c>
+      <c r="AX166" s="1">
+        <v>44626</v>
+      </c>
+      <c r="AY166" s="1">
+        <v>44624</v>
+      </c>
+      <c r="AZ166" t="s">
+        <v>93</v>
+      </c>
+      <c r="BA166" t="s">
+        <v>99</v>
+      </c>
+      <c r="BB166" t="s">
+        <v>107</v>
+      </c>
+      <c r="BC166" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD166" t="s">
+        <v>107</v>
+      </c>
+      <c r="BE166" t="s">
+        <v>155</v>
+      </c>
+      <c r="BF166" t="s">
+        <v>1332</v>
+      </c>
+      <c r="BG166" s="1">
+        <v>40244</v>
+      </c>
+      <c r="BH166" t="s">
+        <v>88</v>
+      </c>
+      <c r="BI166" t="s">
+        <v>88</v>
+      </c>
+      <c r="BJ166" t="s">
+        <v>88</v>
+      </c>
+      <c r="BL166" s="1">
+        <v>44782</v>
+      </c>
+      <c r="BM166" t="s">
+        <v>1333</v>
+      </c>
+      <c r="BN166" t="s">
+        <v>263</v>
+      </c>
+      <c r="BO166" s="1">
+        <v>44628</v>
+      </c>
+      <c r="BP166" t="s">
+        <v>878</v>
+      </c>
+      <c r="BQ166" t="s">
+        <v>88</v>
+      </c>
+      <c r="BR166" t="s">
+        <v>88</v>
+      </c>
+      <c r="BS166" t="s">
+        <v>88</v>
+      </c>
+      <c r="BT166" t="s">
+        <v>223</v>
+      </c>
+      <c r="BU166" t="s">
+        <v>116</v>
+      </c>
+      <c r="BV166" t="s">
+        <v>879</v>
+      </c>
+      <c r="BW166" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX166" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY166" t="s">
+        <v>120</v>
+      </c>
+      <c r="BZ166" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA166" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB166" t="s">
+        <v>120</v>
+      </c>
+      <c r="CC166" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD166" t="s">
+        <v>120</v>
+      </c>
+      <c r="CE166">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="167" spans="1:83" x14ac:dyDescent="0.15">
+      <c r="A167" t="s">
+        <v>82</v>
+      </c>
+      <c r="B167" s="1">
+        <v>44622</v>
+      </c>
+      <c r="C167" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D167" t="s">
+        <v>84</v>
+      </c>
+      <c r="E167" t="s">
+        <v>209</v>
+      </c>
+      <c r="F167" t="s">
+        <v>86</v>
+      </c>
+      <c r="G167" t="s">
+        <v>1334</v>
+      </c>
+      <c r="H167" t="s">
+        <v>88</v>
+      </c>
+      <c r="I167" t="s">
+        <v>1335</v>
+      </c>
+      <c r="J167" t="s">
+        <v>241</v>
+      </c>
+      <c r="K167" t="s">
+        <v>254</v>
+      </c>
+      <c r="L167" t="s">
+        <v>1336</v>
+      </c>
+      <c r="M167" t="s">
+        <v>208</v>
+      </c>
+      <c r="N167" t="s">
+        <v>94</v>
+      </c>
+      <c r="O167" t="s">
+        <v>95</v>
+      </c>
+      <c r="P167" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q167" t="s">
+        <v>128</v>
+      </c>
+      <c r="R167" t="s">
+        <v>95</v>
+      </c>
+      <c r="S167" t="s">
+        <v>98</v>
+      </c>
+      <c r="T167" t="s">
+        <v>129</v>
+      </c>
+      <c r="U167" t="s">
+        <v>94</v>
+      </c>
+      <c r="V167" t="s">
+        <v>215</v>
+      </c>
+      <c r="W167" t="s">
+        <v>88</v>
+      </c>
+      <c r="X167" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y167" t="s">
+        <v>1337</v>
+      </c>
+      <c r="Z167" t="s">
+        <v>1338</v>
+      </c>
+      <c r="AA167" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB167" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC167" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD167" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF167" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG167" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH167" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI167" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ167" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK167" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL167" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM167" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN167" t="s">
+        <v>99</v>
+      </c>
+      <c r="AO167" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP167" t="s">
+        <v>99</v>
+      </c>
+      <c r="AQ167" t="s">
+        <v>99</v>
+      </c>
+      <c r="AR167" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS167" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT167" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU167" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV167" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW167" t="s">
+        <v>129</v>
+      </c>
+      <c r="AX167" s="1">
+        <v>44622</v>
+      </c>
+      <c r="AY167" s="1">
+        <v>44621</v>
+      </c>
+      <c r="AZ167" t="s">
+        <v>93</v>
+      </c>
+      <c r="BA167" t="s">
+        <v>99</v>
+      </c>
+      <c r="BB167" t="s">
+        <v>107</v>
+      </c>
+      <c r="BC167" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD167" t="s">
+        <v>107</v>
+      </c>
+      <c r="BE167" t="s">
+        <v>155</v>
+      </c>
+      <c r="BF167" t="s">
+        <v>1339</v>
+      </c>
+      <c r="BG167" s="1">
+        <v>40724</v>
+      </c>
+      <c r="BH167" t="s">
+        <v>88</v>
+      </c>
+      <c r="BI167" t="s">
+        <v>88</v>
+      </c>
+      <c r="BJ167" t="s">
+        <v>88</v>
+      </c>
+      <c r="BL167" s="1">
+        <v>44782</v>
+      </c>
+      <c r="BM167" t="s">
+        <v>627</v>
+      </c>
+      <c r="BN167" t="s">
+        <v>628</v>
+      </c>
+      <c r="BO167" s="1">
+        <v>44624</v>
+      </c>
+      <c r="BP167" t="s">
+        <v>222</v>
+      </c>
+      <c r="BQ167" t="s">
+        <v>88</v>
+      </c>
+      <c r="BR167" t="s">
+        <v>88</v>
+      </c>
+      <c r="BS167" t="s">
+        <v>88</v>
+      </c>
+      <c r="BT167" t="s">
+        <v>223</v>
+      </c>
+      <c r="BU167" t="s">
+        <v>116</v>
+      </c>
+      <c r="BV167" t="s">
+        <v>224</v>
+      </c>
+      <c r="BW167" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX167" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY167" t="s">
+        <v>120</v>
+      </c>
+      <c r="BZ167" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA167" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB167" t="s">
+        <v>120</v>
+      </c>
+      <c r="CC167" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD167" t="s">
+        <v>120</v>
+      </c>
+      <c r="CE167">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="168" spans="1:83" x14ac:dyDescent="0.15">
+      <c r="A168" t="s">
+        <v>82</v>
+      </c>
+      <c r="B168" s="1">
+        <v>44627</v>
+      </c>
+      <c r="C168" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D168" t="s">
+        <v>84</v>
+      </c>
+      <c r="E168" t="s">
+        <v>209</v>
+      </c>
+      <c r="F168" t="s">
+        <v>86</v>
+      </c>
+      <c r="G168" t="s">
+        <v>831</v>
+      </c>
+      <c r="H168" t="s">
+        <v>380</v>
+      </c>
+      <c r="I168" t="s">
+        <v>881</v>
+      </c>
+      <c r="J168" t="s">
+        <v>170</v>
+      </c>
+      <c r="K168" t="s">
+        <v>254</v>
+      </c>
+      <c r="L168" t="s">
+        <v>1340</v>
+      </c>
+      <c r="M168" t="s">
+        <v>466</v>
+      </c>
+      <c r="N168" t="s">
+        <v>94</v>
+      </c>
+      <c r="O168" t="s">
+        <v>95</v>
+      </c>
+      <c r="P168" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q168" t="s">
+        <v>128</v>
+      </c>
+      <c r="R168" t="s">
+        <v>95</v>
+      </c>
+      <c r="S168" t="s">
+        <v>98</v>
+      </c>
+      <c r="T168" t="s">
+        <v>129</v>
+      </c>
+      <c r="U168" t="s">
+        <v>94</v>
+      </c>
+      <c r="V168" t="s">
+        <v>215</v>
+      </c>
+      <c r="W168" t="s">
+        <v>88</v>
+      </c>
+      <c r="X168" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y168" t="s">
+        <v>1341</v>
+      </c>
+      <c r="Z168" t="s">
+        <v>1342</v>
+      </c>
+      <c r="AA168" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB168" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC168" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD168" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF168" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG168" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH168" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI168" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ168" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK168" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL168" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM168" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN168" t="s">
+        <v>99</v>
+      </c>
+      <c r="AO168" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP168" t="s">
+        <v>99</v>
+      </c>
+      <c r="AQ168" t="s">
+        <v>99</v>
+      </c>
+      <c r="AR168" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS168" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT168" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU168" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV168" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW168" t="s">
+        <v>129</v>
+      </c>
+      <c r="AX168" s="1">
+        <v>44627</v>
+      </c>
+      <c r="AY168" s="1">
+        <v>44624</v>
+      </c>
+      <c r="AZ168" t="s">
+        <v>93</v>
+      </c>
+      <c r="BA168" t="s">
+        <v>99</v>
+      </c>
+      <c r="BB168" t="s">
+        <v>107</v>
+      </c>
+      <c r="BC168" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD168" t="s">
+        <v>107</v>
+      </c>
+      <c r="BE168" t="s">
+        <v>155</v>
+      </c>
+      <c r="BF168" t="s">
+        <v>1343</v>
+      </c>
+      <c r="BG168" s="1">
+        <v>39656</v>
+      </c>
+      <c r="BH168" t="s">
+        <v>88</v>
+      </c>
+      <c r="BI168" t="s">
+        <v>88</v>
+      </c>
+      <c r="BJ168" t="s">
+        <v>88</v>
+      </c>
+      <c r="BL168" s="1">
+        <v>44782</v>
+      </c>
+      <c r="BM168" t="s">
+        <v>627</v>
+      </c>
+      <c r="BN168" t="s">
+        <v>628</v>
+      </c>
+      <c r="BO168" s="1">
+        <v>44628</v>
+      </c>
+      <c r="BP168" t="s">
+        <v>222</v>
+      </c>
+      <c r="BQ168" t="s">
+        <v>88</v>
+      </c>
+      <c r="BR168" t="s">
+        <v>88</v>
+      </c>
+      <c r="BS168" t="s">
+        <v>88</v>
+      </c>
+      <c r="BT168" t="s">
+        <v>223</v>
+      </c>
+      <c r="BU168" t="s">
+        <v>116</v>
+      </c>
+      <c r="BV168" t="s">
+        <v>224</v>
+      </c>
+      <c r="BW168" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX168" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY168" t="s">
+        <v>120</v>
+      </c>
+      <c r="BZ168" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA168" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB168" t="s">
+        <v>120</v>
+      </c>
+      <c r="CC168" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD168" t="s">
+        <v>120</v>
+      </c>
+      <c r="CE168">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:CE164"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Boletin_ Epi_Pereira/Datos/evento 831 datos basicos.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/evento 831 datos basicos.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JorgeMario/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A88AF140-869C-0249-9DEA-261F238FE0F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B174FB34-6089-144F-8CFD-50138B43330E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="evento 831 datos basicos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13383" uniqueCount="1425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13975" uniqueCount="1473">
   <si>
     <t>cod_eve</t>
   </si>
@@ -3736,6 +3736,30 @@
     <t>3152161337</t>
   </si>
   <si>
+    <t>6617000278</t>
+  </si>
+  <si>
+    <t>1094929819</t>
+  </si>
+  <si>
+    <t>CRA 2 CLL 15-38</t>
+  </si>
+  <si>
+    <t>3204864166</t>
+  </si>
+  <si>
+    <t>ALBERTO KENNEDY OLIVARES</t>
+  </si>
+  <si>
+    <t>3302507</t>
+  </si>
+  <si>
+    <t>8914116631</t>
+  </si>
+  <si>
+    <t>ESE HOSPITAL SANTA M”NICA</t>
+  </si>
+  <si>
     <t>GUSTAVO</t>
   </si>
   <si>
@@ -3784,12 +3808,141 @@
     <t>JORGE MARTINEZ</t>
   </si>
   <si>
+    <t>JAIRO</t>
+  </si>
+  <si>
+    <t>RESTREPO</t>
+  </si>
+  <si>
+    <t>4515543</t>
+  </si>
+  <si>
+    <t>MZ CS 3 MIRADOR DE LLANO GRANDE - PARQUE INDUSTRIA</t>
+  </si>
+  <si>
+    <t>5169</t>
+  </si>
+  <si>
+    <t>3023227479</t>
+  </si>
+  <si>
+    <t>YULI SOFIA FOLLECO SISSIV[C00FC0]</t>
+  </si>
+  <si>
+    <t>3419093</t>
+  </si>
+  <si>
+    <t>1088271798</t>
+  </si>
+  <si>
+    <t>B ARENALES CASA 045 CORREG ALTAGRACIA CUBA</t>
+  </si>
+  <si>
+    <t>3017712033</t>
+  </si>
+  <si>
+    <t>LINA MARIA SILVA SISSIV[C00FC0]</t>
+  </si>
+  <si>
+    <t>PUESTO DE SALUD ALTAGRACIA</t>
+  </si>
+  <si>
+    <t>ANGELA</t>
+  </si>
+  <si>
+    <t>ARBOLEDA</t>
+  </si>
+  <si>
+    <t>RICO</t>
+  </si>
+  <si>
+    <t>1089098373</t>
+  </si>
+  <si>
+    <t>SAMARIA 2 MANZANA 29 CASA 26</t>
+  </si>
+  <si>
+    <t>3186343419</t>
+  </si>
+  <si>
+    <t>ANDREA ARENAS GALLEGO SISSIV[C00C80]</t>
+  </si>
+  <si>
+    <t>SOL</t>
+  </si>
+  <si>
+    <t>VALERIN</t>
+  </si>
+  <si>
+    <t>1089614315</t>
+  </si>
+  <si>
+    <t>EL BOSQUE</t>
+  </si>
+  <si>
+    <t>CL 5  31-01  EL BOSQIUE</t>
+  </si>
+  <si>
+    <t>3155194903</t>
+  </si>
+  <si>
+    <t>VALENTINA PE—A</t>
+  </si>
+  <si>
+    <t>SERNA</t>
+  </si>
+  <si>
+    <t>1088028851</t>
+  </si>
+  <si>
+    <t>BOSQUES DE LA ACUARELA 3 MANZANA 1</t>
+  </si>
+  <si>
+    <t>3105198510</t>
+  </si>
+  <si>
+    <t>JENIFFER VELEZ RESTREPO SISSIV[C00FC0]</t>
+  </si>
+  <si>
+    <t>MARISOL</t>
+  </si>
+  <si>
+    <t>BAYER</t>
+  </si>
+  <si>
+    <t>1088335012</t>
+  </si>
+  <si>
+    <t>MANZANA 51 CASA 43 VILLA DEL PRADO</t>
+  </si>
+  <si>
+    <t>3148160326</t>
+  </si>
+  <si>
+    <t>EDNA MELO SISSIV[C00FC0]</t>
+  </si>
+  <si>
+    <t>MARIANA</t>
+  </si>
+  <si>
+    <t>MACHADO</t>
+  </si>
+  <si>
+    <t>1089934034</t>
+  </si>
+  <si>
+    <t>LA LAGUNA</t>
+  </si>
+  <si>
+    <t>BARRIO LA LAGUNA CASA 42</t>
+  </si>
+  <si>
+    <t>3146385651</t>
+  </si>
+  <si>
     <t>ANTONIO</t>
   </si>
   <si>
-    <t>ARBOLEDA</t>
-  </si>
-  <si>
     <t>PATI—O</t>
   </si>
   <si>
@@ -3811,9 +3964,6 @@
     <t>3007851682</t>
   </si>
   <si>
-    <t>JENIFFER VELEZ RESTREPO SISSIV[C00FC0]</t>
-  </si>
-  <si>
     <t>URIBE</t>
   </si>
   <si>
@@ -4021,9 +4171,6 @@
     <t>ADALBERTO CARNET</t>
   </si>
   <si>
-    <t>MARIANA</t>
-  </si>
-  <si>
     <t>RIVAS</t>
   </si>
   <si>
@@ -4163,9 +4310,6 @@
   </si>
   <si>
     <t>LUCIA</t>
-  </si>
-  <si>
-    <t>SERNA</t>
   </si>
   <si>
     <t>1089629958</t>
@@ -4718,7 +4862,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CE181"/>
+  <dimension ref="A1:CE189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -4737,7 +4881,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1424</v>
+        <v>1472</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -5165,7 +5309,7 @@
         <v>111</v>
       </c>
       <c r="BL2" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM2" t="s">
         <v>112</v>
@@ -5413,7 +5557,7 @@
         <v>137</v>
       </c>
       <c r="BL3" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM3" t="s">
         <v>138</v>
@@ -5658,7 +5802,7 @@
         <v>88</v>
       </c>
       <c r="BL4" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM4" t="s">
         <v>157</v>
@@ -5903,7 +6047,7 @@
         <v>88</v>
       </c>
       <c r="BL5" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM5" t="s">
         <v>157</v>
@@ -6148,7 +6292,7 @@
         <v>88</v>
       </c>
       <c r="BL6" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM6" t="s">
         <v>157</v>
@@ -6393,7 +6537,7 @@
         <v>88</v>
       </c>
       <c r="BL7" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM7" t="s">
         <v>178</v>
@@ -6638,7 +6782,7 @@
         <v>88</v>
       </c>
       <c r="BL8" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM8" t="s">
         <v>192</v>
@@ -6883,7 +7027,7 @@
         <v>88</v>
       </c>
       <c r="BL9" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM9" t="s">
         <v>204</v>
@@ -7128,7 +7272,7 @@
         <v>88</v>
       </c>
       <c r="BL10" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM10" t="s">
         <v>220</v>
@@ -7373,7 +7517,7 @@
         <v>88</v>
       </c>
       <c r="BL11" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM11" t="s">
         <v>234</v>
@@ -7618,7 +7762,7 @@
         <v>88</v>
       </c>
       <c r="BL12" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM12" t="s">
         <v>246</v>
@@ -7863,7 +8007,7 @@
         <v>88</v>
       </c>
       <c r="BL13" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM13" t="s">
         <v>262</v>
@@ -8108,7 +8252,7 @@
         <v>88</v>
       </c>
       <c r="BL14" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM14" t="s">
         <v>274</v>
@@ -8353,7 +8497,7 @@
         <v>88</v>
       </c>
       <c r="BL15" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM15" t="s">
         <v>286</v>
@@ -8598,7 +8742,7 @@
         <v>88</v>
       </c>
       <c r="BL16" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM16" t="s">
         <v>296</v>
@@ -8843,7 +8987,7 @@
         <v>88</v>
       </c>
       <c r="BL17" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM17" t="s">
         <v>305</v>
@@ -9088,7 +9232,7 @@
         <v>88</v>
       </c>
       <c r="BL18" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM18" t="s">
         <v>315</v>
@@ -9333,7 +9477,7 @@
         <v>88</v>
       </c>
       <c r="BL19" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM19" t="s">
         <v>326</v>
@@ -9578,7 +9722,7 @@
         <v>88</v>
       </c>
       <c r="BL20" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM20" t="s">
         <v>339</v>
@@ -9823,7 +9967,7 @@
         <v>88</v>
       </c>
       <c r="BL21" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM21" t="s">
         <v>349</v>
@@ -10068,7 +10212,7 @@
         <v>88</v>
       </c>
       <c r="BL22" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM22" t="s">
         <v>359</v>
@@ -10313,7 +10457,7 @@
         <v>88</v>
       </c>
       <c r="BL23" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM23" t="s">
         <v>368</v>
@@ -10558,7 +10702,7 @@
         <v>88</v>
       </c>
       <c r="BL24" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM24" t="s">
         <v>377</v>
@@ -10803,7 +10947,7 @@
         <v>88</v>
       </c>
       <c r="BL25" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM25" t="s">
         <v>388</v>
@@ -11048,7 +11192,7 @@
         <v>88</v>
       </c>
       <c r="BL26" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM26" t="s">
         <v>398</v>
@@ -11281,7 +11425,7 @@
         <v>88</v>
       </c>
       <c r="BL27" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM27" t="s">
         <v>274</v>
@@ -11526,7 +11670,7 @@
         <v>88</v>
       </c>
       <c r="BL28" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM28" t="s">
         <v>413</v>
@@ -11771,7 +11915,7 @@
         <v>88</v>
       </c>
       <c r="BL29" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM29" t="s">
         <v>423</v>
@@ -12016,7 +12160,7 @@
         <v>88</v>
       </c>
       <c r="BL30" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM30" t="s">
         <v>430</v>
@@ -12261,7 +12405,7 @@
         <v>88</v>
       </c>
       <c r="BL31" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM31" t="s">
         <v>437</v>
@@ -12506,7 +12650,7 @@
         <v>88</v>
       </c>
       <c r="BL32" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM32" t="s">
         <v>443</v>
@@ -12751,7 +12895,7 @@
         <v>88</v>
       </c>
       <c r="BL33" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM33" t="s">
         <v>450</v>
@@ -12996,7 +13140,7 @@
         <v>88</v>
       </c>
       <c r="BL34" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM34" t="s">
         <v>457</v>
@@ -13241,7 +13385,7 @@
         <v>88</v>
       </c>
       <c r="BL35" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM35" t="s">
         <v>463</v>
@@ -13486,7 +13630,7 @@
         <v>88</v>
       </c>
       <c r="BL36" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM36" t="s">
         <v>423</v>
@@ -13731,7 +13875,7 @@
         <v>88</v>
       </c>
       <c r="BL37" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM37" t="s">
         <v>482</v>
@@ -13976,7 +14120,7 @@
         <v>88</v>
       </c>
       <c r="BL38" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM38" t="s">
         <v>490</v>
@@ -14221,7 +14365,7 @@
         <v>88</v>
       </c>
       <c r="BL39" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM39" t="s">
         <v>500</v>
@@ -14466,7 +14610,7 @@
         <v>88</v>
       </c>
       <c r="BL40" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM40" t="s">
         <v>505</v>
@@ -14711,7 +14855,7 @@
         <v>88</v>
       </c>
       <c r="BL41" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM41" t="s">
         <v>413</v>
@@ -14956,7 +15100,7 @@
         <v>88</v>
       </c>
       <c r="BL42" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM42" t="s">
         <v>525</v>
@@ -15201,7 +15345,7 @@
         <v>88</v>
       </c>
       <c r="BL43" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM43" t="s">
         <v>525</v>
@@ -15446,7 +15590,7 @@
         <v>88</v>
       </c>
       <c r="BL44" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM44" t="s">
         <v>544</v>
@@ -15691,7 +15835,7 @@
         <v>88</v>
       </c>
       <c r="BL45" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM45" t="s">
         <v>555</v>
@@ -15924,7 +16068,7 @@
         <v>88</v>
       </c>
       <c r="BL46" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM46" t="s">
         <v>563</v>
@@ -16169,7 +16313,7 @@
         <v>88</v>
       </c>
       <c r="BL47" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM47" t="s">
         <v>570</v>
@@ -16414,7 +16558,7 @@
         <v>88</v>
       </c>
       <c r="BL48" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM48" t="s">
         <v>578</v>
@@ -16659,7 +16803,7 @@
         <v>88</v>
       </c>
       <c r="BL49" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM49" t="s">
         <v>586</v>
@@ -16904,7 +17048,7 @@
         <v>88</v>
       </c>
       <c r="BL50" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM50" t="s">
         <v>592</v>
@@ -17149,7 +17293,7 @@
         <v>88</v>
       </c>
       <c r="BL51" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM51" t="s">
         <v>500</v>
@@ -17394,7 +17538,7 @@
         <v>88</v>
       </c>
       <c r="BL52" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM52" t="s">
         <v>606</v>
@@ -17639,7 +17783,7 @@
         <v>88</v>
       </c>
       <c r="BL53" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM53" t="s">
         <v>612</v>
@@ -17884,7 +18028,7 @@
         <v>88</v>
       </c>
       <c r="BL54" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM54" t="s">
         <v>234</v>
@@ -18129,7 +18273,7 @@
         <v>88</v>
       </c>
       <c r="BL55" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM55" t="s">
         <v>627</v>
@@ -18374,7 +18518,7 @@
         <v>88</v>
       </c>
       <c r="BL56" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM56" t="s">
         <v>635</v>
@@ -18619,7 +18763,7 @@
         <v>88</v>
       </c>
       <c r="BL57" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM57" t="s">
         <v>570</v>
@@ -18864,7 +19008,7 @@
         <v>88</v>
       </c>
       <c r="BL58" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM58" t="s">
         <v>650</v>
@@ -19109,7 +19253,7 @@
         <v>88</v>
       </c>
       <c r="BL59" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM59" t="s">
         <v>657</v>
@@ -19354,7 +19498,7 @@
         <v>88</v>
       </c>
       <c r="BL60" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM60" t="s">
         <v>664</v>
@@ -19599,7 +19743,7 @@
         <v>88</v>
       </c>
       <c r="BL61" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM61" t="s">
         <v>671</v>
@@ -19844,7 +19988,7 @@
         <v>88</v>
       </c>
       <c r="BL62" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM62" t="s">
         <v>677</v>
@@ -20089,7 +20233,7 @@
         <v>88</v>
       </c>
       <c r="BL63" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM63" t="s">
         <v>627</v>
@@ -20334,7 +20478,7 @@
         <v>88</v>
       </c>
       <c r="BL64" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM64" t="s">
         <v>687</v>
@@ -20579,7 +20723,7 @@
         <v>88</v>
       </c>
       <c r="BL65" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM65" t="s">
         <v>697</v>
@@ -20824,7 +20968,7 @@
         <v>88</v>
       </c>
       <c r="BL66" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM66" t="s">
         <v>705</v>
@@ -21069,7 +21213,7 @@
         <v>88</v>
       </c>
       <c r="BL67" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM67" t="s">
         <v>443</v>
@@ -21314,7 +21458,7 @@
         <v>88</v>
       </c>
       <c r="BL68" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM68" t="s">
         <v>717</v>
@@ -21547,7 +21691,7 @@
         <v>88</v>
       </c>
       <c r="BL69" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM69" t="s">
         <v>727</v>
@@ -21792,7 +21936,7 @@
         <v>88</v>
       </c>
       <c r="BL70" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM70" t="s">
         <v>736</v>
@@ -22037,7 +22181,7 @@
         <v>88</v>
       </c>
       <c r="BL71" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM71" t="s">
         <v>743</v>
@@ -22282,7 +22426,7 @@
         <v>88</v>
       </c>
       <c r="BL72" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM72" t="s">
         <v>157</v>
@@ -22527,7 +22671,7 @@
         <v>88</v>
       </c>
       <c r="BL73" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM73" t="s">
         <v>157</v>
@@ -22772,7 +22916,7 @@
         <v>88</v>
       </c>
       <c r="BL74" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM74" t="s">
         <v>627</v>
@@ -23017,7 +23161,7 @@
         <v>88</v>
       </c>
       <c r="BL75" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM75" t="s">
         <v>763</v>
@@ -23262,7 +23406,7 @@
         <v>88</v>
       </c>
       <c r="BL76" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM76" t="s">
         <v>773</v>
@@ -23507,7 +23651,7 @@
         <v>88</v>
       </c>
       <c r="BL77" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM77" t="s">
         <v>157</v>
@@ -23752,7 +23896,7 @@
         <v>88</v>
       </c>
       <c r="BL78" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM78" t="s">
         <v>157</v>
@@ -23997,7 +24141,7 @@
         <v>88</v>
       </c>
       <c r="BL79" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM79" t="s">
         <v>157</v>
@@ -24242,7 +24386,7 @@
         <v>88</v>
       </c>
       <c r="BL80" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM80" t="s">
         <v>505</v>
@@ -24487,7 +24631,7 @@
         <v>88</v>
       </c>
       <c r="BL81" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM81" t="s">
         <v>797</v>
@@ -24732,7 +24876,7 @@
         <v>88</v>
       </c>
       <c r="BL82" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM82" t="s">
         <v>804</v>
@@ -24977,7 +25121,7 @@
         <v>88</v>
       </c>
       <c r="BL83" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM83" t="s">
         <v>811</v>
@@ -25222,7 +25366,7 @@
         <v>88</v>
       </c>
       <c r="BL84" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM84" t="s">
         <v>818</v>
@@ -25467,7 +25611,7 @@
         <v>88</v>
       </c>
       <c r="BL85" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM85" t="s">
         <v>823</v>
@@ -25712,7 +25856,7 @@
         <v>88</v>
       </c>
       <c r="BL86" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM86" t="s">
         <v>828</v>
@@ -25957,7 +26101,7 @@
         <v>88</v>
       </c>
       <c r="BL87" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM87" t="s">
         <v>836</v>
@@ -26202,7 +26346,7 @@
         <v>88</v>
       </c>
       <c r="BL88" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM88" t="s">
         <v>843</v>
@@ -26447,7 +26591,7 @@
         <v>88</v>
       </c>
       <c r="BL89" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM89" t="s">
         <v>853</v>
@@ -26692,7 +26836,7 @@
         <v>88</v>
       </c>
       <c r="BL90" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM90" t="s">
         <v>856</v>
@@ -26937,7 +27081,7 @@
         <v>88</v>
       </c>
       <c r="BL91" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM91" t="s">
         <v>864</v>
@@ -27182,7 +27326,7 @@
         <v>88</v>
       </c>
       <c r="BL92" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM92" t="s">
         <v>627</v>
@@ -27427,7 +27571,7 @@
         <v>88</v>
       </c>
       <c r="BL93" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM93" t="s">
         <v>883</v>
@@ -27672,7 +27816,7 @@
         <v>88</v>
       </c>
       <c r="BL94" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM94" t="s">
         <v>891</v>
@@ -27917,7 +28061,7 @@
         <v>88</v>
       </c>
       <c r="BL95" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM95" t="s">
         <v>899</v>
@@ -28162,7 +28306,7 @@
         <v>88</v>
       </c>
       <c r="BL96" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM96" t="s">
         <v>339</v>
@@ -28407,7 +28551,7 @@
         <v>88</v>
       </c>
       <c r="BL97" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM97" t="s">
         <v>910</v>
@@ -28652,7 +28796,7 @@
         <v>88</v>
       </c>
       <c r="BL98" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM98" t="s">
         <v>570</v>
@@ -28897,7 +29041,7 @@
         <v>88</v>
       </c>
       <c r="BL99" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM99" t="s">
         <v>627</v>
@@ -29142,7 +29286,7 @@
         <v>88</v>
       </c>
       <c r="BL100" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM100" t="s">
         <v>555</v>
@@ -29375,7 +29519,7 @@
         <v>88</v>
       </c>
       <c r="BL101" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM101" t="s">
         <v>934</v>
@@ -29620,7 +29764,7 @@
         <v>88</v>
       </c>
       <c r="BL102" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM102" t="s">
         <v>942</v>
@@ -29865,7 +30009,7 @@
         <v>88</v>
       </c>
       <c r="BL103" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM103" t="s">
         <v>727</v>
@@ -30110,7 +30254,7 @@
         <v>88</v>
       </c>
       <c r="BL104" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM104" t="s">
         <v>368</v>
@@ -30355,7 +30499,7 @@
         <v>88</v>
       </c>
       <c r="BL105" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM105" t="s">
         <v>627</v>
@@ -30600,7 +30744,7 @@
         <v>88</v>
       </c>
       <c r="BL106" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM106" t="s">
         <v>959</v>
@@ -30845,7 +30989,7 @@
         <v>88</v>
       </c>
       <c r="BL107" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM107" t="s">
         <v>563</v>
@@ -31090,7 +31234,7 @@
         <v>88</v>
       </c>
       <c r="BL108" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM108" t="s">
         <v>971</v>
@@ -31335,7 +31479,7 @@
         <v>88</v>
       </c>
       <c r="BL109" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM109" t="s">
         <v>505</v>
@@ -31580,7 +31724,7 @@
         <v>88</v>
       </c>
       <c r="BL110" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM110" t="s">
         <v>985</v>
@@ -31825,7 +31969,7 @@
         <v>88</v>
       </c>
       <c r="BL111" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM111" t="s">
         <v>992</v>
@@ -32070,7 +32214,7 @@
         <v>88</v>
       </c>
       <c r="BL112" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM112" t="s">
         <v>1002</v>
@@ -32315,7 +32459,7 @@
         <v>88</v>
       </c>
       <c r="BL113" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM113" t="s">
         <v>1012</v>
@@ -32560,7 +32704,7 @@
         <v>88</v>
       </c>
       <c r="BL114" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM114" t="s">
         <v>1018</v>
@@ -32805,7 +32949,7 @@
         <v>88</v>
       </c>
       <c r="BL115" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM115" t="s">
         <v>463</v>
@@ -33050,7 +33194,7 @@
         <v>88</v>
       </c>
       <c r="BL116" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM116" t="s">
         <v>1032</v>
@@ -33295,7 +33439,7 @@
         <v>88</v>
       </c>
       <c r="BL117" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM117" t="s">
         <v>1038</v>
@@ -33540,7 +33684,7 @@
         <v>88</v>
       </c>
       <c r="BL118" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM118" t="s">
         <v>1045</v>
@@ -33785,7 +33929,7 @@
         <v>88</v>
       </c>
       <c r="BL119" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM119" t="s">
         <v>1051</v>
@@ -34030,7 +34174,7 @@
         <v>88</v>
       </c>
       <c r="BL120" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM120" t="s">
         <v>1057</v>
@@ -34275,7 +34419,7 @@
         <v>88</v>
       </c>
       <c r="BL121" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM121" t="s">
         <v>1063</v>
@@ -34520,7 +34664,7 @@
         <v>88</v>
       </c>
       <c r="BL122" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM122" t="s">
         <v>1057</v>
@@ -34765,7 +34909,7 @@
         <v>88</v>
       </c>
       <c r="BL123" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM123" t="s">
         <v>1079</v>
@@ -35010,7 +35154,7 @@
         <v>88</v>
       </c>
       <c r="BL124" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM124" t="s">
         <v>1086</v>
@@ -35255,7 +35399,7 @@
         <v>88</v>
       </c>
       <c r="BL125" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM125" t="s">
         <v>1092</v>
@@ -35500,7 +35644,7 @@
         <v>88</v>
       </c>
       <c r="BL126" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM126" t="s">
         <v>157</v>
@@ -35745,7 +35889,7 @@
         <v>88</v>
       </c>
       <c r="BL127" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM127" t="s">
         <v>1100</v>
@@ -35990,7 +36134,7 @@
         <v>88</v>
       </c>
       <c r="BL128" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM128" t="s">
         <v>1104</v>
@@ -36235,7 +36379,7 @@
         <v>88</v>
       </c>
       <c r="BL129" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM129" t="s">
         <v>1111</v>
@@ -36468,7 +36612,7 @@
         <v>88</v>
       </c>
       <c r="BL130" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM130" t="s">
         <v>1119</v>
@@ -36713,7 +36857,7 @@
         <v>88</v>
       </c>
       <c r="BL131" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM131" t="s">
         <v>1124</v>
@@ -36958,7 +37102,7 @@
         <v>88</v>
       </c>
       <c r="BL132" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM132" t="s">
         <v>657</v>
@@ -37203,7 +37347,7 @@
         <v>88</v>
       </c>
       <c r="BL133" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM133" t="s">
         <v>823</v>
@@ -37448,7 +37592,7 @@
         <v>88</v>
       </c>
       <c r="BL134" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM134" t="s">
         <v>1145</v>
@@ -37693,7 +37837,7 @@
         <v>88</v>
       </c>
       <c r="BL135" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM135" t="s">
         <v>157</v>
@@ -37938,7 +38082,7 @@
         <v>88</v>
       </c>
       <c r="BL136" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM136" t="s">
         <v>823</v>
@@ -38183,7 +38327,7 @@
         <v>88</v>
       </c>
       <c r="BL137" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM137" t="s">
         <v>1162</v>
@@ -38428,7 +38572,7 @@
         <v>88</v>
       </c>
       <c r="BL138" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM138" t="s">
         <v>274</v>
@@ -38673,7 +38817,7 @@
         <v>88</v>
       </c>
       <c r="BL139" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM139" t="s">
         <v>1176</v>
@@ -38918,7 +39062,7 @@
         <v>88</v>
       </c>
       <c r="BL140" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM140" t="s">
         <v>1183</v>
@@ -39163,7 +39307,7 @@
         <v>88</v>
       </c>
       <c r="BL141" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM141" t="s">
         <v>1191</v>
@@ -39408,7 +39552,7 @@
         <v>88</v>
       </c>
       <c r="BL142" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM142" t="s">
         <v>1197</v>
@@ -39653,7 +39797,7 @@
         <v>88</v>
       </c>
       <c r="BL143" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM143" t="s">
         <v>1205</v>
@@ -39898,7 +40042,7 @@
         <v>88</v>
       </c>
       <c r="BL144" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM144" t="s">
         <v>1214</v>
@@ -40143,7 +40287,7 @@
         <v>88</v>
       </c>
       <c r="BL145" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM145" t="s">
         <v>157</v>
@@ -40388,7 +40532,7 @@
         <v>88</v>
       </c>
       <c r="BL146" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM146" t="s">
         <v>1226</v>
@@ -40633,7 +40777,7 @@
         <v>88</v>
       </c>
       <c r="BL147" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM147" t="s">
         <v>1231</v>
@@ -40878,7 +41022,7 @@
         <v>88</v>
       </c>
       <c r="BL148" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM148" t="s">
         <v>1057</v>
@@ -40943,7 +41087,7 @@
         <v>82</v>
       </c>
       <c r="B149" s="1">
-        <v>44793</v>
+        <v>44787</v>
       </c>
       <c r="C149" t="s">
         <v>384</v>
@@ -40952,22 +41096,22 @@
         <v>84</v>
       </c>
       <c r="E149" t="s">
-        <v>179</v>
+        <v>1238</v>
       </c>
       <c r="F149" t="s">
-        <v>180</v>
+        <v>86</v>
       </c>
       <c r="G149" t="s">
-        <v>1238</v>
+        <v>508</v>
       </c>
       <c r="H149" t="s">
-        <v>1046</v>
+        <v>573</v>
       </c>
       <c r="I149" t="s">
-        <v>253</v>
+        <v>288</v>
       </c>
       <c r="J149" t="s">
-        <v>846</v>
+        <v>418</v>
       </c>
       <c r="K149" t="s">
         <v>148</v>
@@ -40976,7 +41120,7 @@
         <v>1239</v>
       </c>
       <c r="M149" t="s">
-        <v>1240</v>
+        <v>848</v>
       </c>
       <c r="N149" t="s">
         <v>94</v>
@@ -40988,7 +41132,7 @@
         <v>96</v>
       </c>
       <c r="Q149" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="R149" t="s">
         <v>95</v>
@@ -40997,13 +41141,13 @@
         <v>98</v>
       </c>
       <c r="T149" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="U149" t="s">
         <v>94</v>
       </c>
       <c r="V149" t="s">
-        <v>186</v>
+        <v>119</v>
       </c>
       <c r="W149" t="s">
         <v>88</v>
@@ -41012,19 +41156,19 @@
         <v>88</v>
       </c>
       <c r="Y149" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="Z149" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="AA149" t="s">
-        <v>1242</v>
+        <v>620</v>
       </c>
       <c r="AB149" t="s">
         <v>133</v>
       </c>
       <c r="AC149" t="s">
-        <v>190</v>
+        <v>597</v>
       </c>
       <c r="AD149" t="s">
         <v>105</v>
@@ -41045,7 +41189,7 @@
         <v>99</v>
       </c>
       <c r="AK149" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AL149" t="s">
         <v>88</v>
@@ -41057,7 +41201,7 @@
         <v>99</v>
       </c>
       <c r="AO149" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AP149" t="s">
         <v>99</v>
@@ -41084,10 +41228,10 @@
         <v>129</v>
       </c>
       <c r="AX149" s="1">
-        <v>44790</v>
+        <v>44787</v>
       </c>
       <c r="AY149" s="1">
-        <v>44786</v>
+        <v>44785</v>
       </c>
       <c r="AZ149" t="s">
         <v>93</v>
@@ -41108,35 +41252,35 @@
         <v>155</v>
       </c>
       <c r="BF149" t="s">
+        <v>1241</v>
+      </c>
+      <c r="BG149" s="1">
+        <v>33852</v>
+      </c>
+      <c r="BH149" t="s">
+        <v>88</v>
+      </c>
+      <c r="BI149" t="s">
+        <v>88</v>
+      </c>
+      <c r="BJ149" t="s">
+        <v>88</v>
+      </c>
+      <c r="BL149" s="1">
+        <v>44803</v>
+      </c>
+      <c r="BM149" t="s">
+        <v>1242</v>
+      </c>
+      <c r="BN149" t="s">
         <v>1243</v>
       </c>
-      <c r="BG149" s="1">
-        <v>26698</v>
-      </c>
-      <c r="BH149" t="s">
-        <v>88</v>
-      </c>
-      <c r="BI149" t="s">
-        <v>88</v>
-      </c>
-      <c r="BJ149" t="s">
-        <v>88</v>
-      </c>
-      <c r="BL149" s="1">
-        <v>44796</v>
-      </c>
-      <c r="BM149" t="s">
+      <c r="BO149" s="1">
+        <v>44789</v>
+      </c>
+      <c r="BP149" t="s">
         <v>1244</v>
       </c>
-      <c r="BN149" t="s">
-        <v>424</v>
-      </c>
-      <c r="BO149" s="1">
-        <v>44795</v>
-      </c>
-      <c r="BP149" t="s">
-        <v>194</v>
-      </c>
       <c r="BQ149" t="s">
         <v>88</v>
       </c>
@@ -41147,13 +41291,13 @@
         <v>88</v>
       </c>
       <c r="BT149" t="s">
-        <v>672</v>
+        <v>1024</v>
       </c>
       <c r="BU149" t="s">
         <v>116</v>
       </c>
       <c r="BV149" t="s">
-        <v>196</v>
+        <v>1245</v>
       </c>
       <c r="BW149" t="s">
         <v>96</v>
@@ -41162,7 +41306,7 @@
         <v>118</v>
       </c>
       <c r="BY149" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BZ149" t="s">
         <v>96</v>
@@ -41177,10 +41321,10 @@
         <v>118</v>
       </c>
       <c r="CD149" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="CE149">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="150" spans="1:83" x14ac:dyDescent="0.15">
@@ -41188,7 +41332,7 @@
         <v>82</v>
       </c>
       <c r="B150" s="1">
-        <v>44786</v>
+        <v>44793</v>
       </c>
       <c r="C150" t="s">
         <v>384</v>
@@ -41197,31 +41341,31 @@
         <v>84</v>
       </c>
       <c r="E150" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="F150" t="s">
-        <v>86</v>
+        <v>180</v>
       </c>
       <c r="G150" t="s">
-        <v>319</v>
+        <v>1246</v>
       </c>
       <c r="H150" t="s">
-        <v>1245</v>
+        <v>1046</v>
       </c>
       <c r="I150" t="s">
-        <v>806</v>
+        <v>253</v>
       </c>
       <c r="J150" t="s">
-        <v>320</v>
+        <v>846</v>
       </c>
       <c r="K150" t="s">
-        <v>254</v>
+        <v>148</v>
       </c>
       <c r="L150" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="M150" t="s">
-        <v>466</v>
+        <v>1248</v>
       </c>
       <c r="N150" t="s">
         <v>94</v>
@@ -41233,7 +41377,7 @@
         <v>96</v>
       </c>
       <c r="Q150" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="R150" t="s">
         <v>95</v>
@@ -41242,40 +41386,40 @@
         <v>98</v>
       </c>
       <c r="T150" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="U150" t="s">
         <v>94</v>
       </c>
       <c r="V150" t="s">
+        <v>186</v>
+      </c>
+      <c r="W150" t="s">
+        <v>88</v>
+      </c>
+      <c r="X150" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y150" t="s">
         <v>215</v>
       </c>
-      <c r="W150" t="s">
-        <v>88</v>
-      </c>
-      <c r="X150" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y150" t="s">
-        <v>1247</v>
-      </c>
       <c r="Z150" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="AA150" t="s">
-        <v>259</v>
+        <v>1250</v>
       </c>
       <c r="AB150" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="AC150" t="s">
-        <v>553</v>
+        <v>190</v>
       </c>
       <c r="AD150" t="s">
         <v>105</v>
       </c>
       <c r="AF150" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="AG150" t="s">
         <v>99</v>
@@ -41290,7 +41434,7 @@
         <v>99</v>
       </c>
       <c r="AK150" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="AL150" t="s">
         <v>88</v>
@@ -41302,7 +41446,7 @@
         <v>99</v>
       </c>
       <c r="AO150" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="AP150" t="s">
         <v>99</v>
@@ -41326,13 +41470,13 @@
         <v>98</v>
       </c>
       <c r="AW150" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="AX150" s="1">
+        <v>44790</v>
+      </c>
+      <c r="AY150" s="1">
         <v>44786</v>
-      </c>
-      <c r="AY150" s="1">
-        <v>44785</v>
       </c>
       <c r="AZ150" t="s">
         <v>93</v>
@@ -41353,10 +41497,10 @@
         <v>155</v>
       </c>
       <c r="BF150" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="BG150" s="1">
-        <v>39783</v>
+        <v>26698</v>
       </c>
       <c r="BH150" t="s">
         <v>88</v>
@@ -41368,19 +41512,19 @@
         <v>88</v>
       </c>
       <c r="BL150" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM150" t="s">
-        <v>627</v>
+        <v>1252</v>
       </c>
       <c r="BN150" t="s">
-        <v>628</v>
+        <v>424</v>
       </c>
       <c r="BO150" s="1">
-        <v>44791</v>
+        <v>44795</v>
       </c>
       <c r="BP150" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="BQ150" t="s">
         <v>88</v>
@@ -41398,7 +41542,7 @@
         <v>116</v>
       </c>
       <c r="BV150" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="BW150" t="s">
         <v>96</v>
@@ -41407,7 +41551,7 @@
         <v>118</v>
       </c>
       <c r="BY150" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BZ150" t="s">
         <v>96</v>
@@ -41416,7 +41560,7 @@
         <v>118</v>
       </c>
       <c r="CB150" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="CC150" t="s">
         <v>118</v>
@@ -41425,7 +41569,7 @@
         <v>120</v>
       </c>
       <c r="CE150">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="151" spans="1:83" x14ac:dyDescent="0.15">
@@ -41433,40 +41577,40 @@
         <v>82</v>
       </c>
       <c r="B151" s="1">
-        <v>44793</v>
+        <v>44786</v>
       </c>
       <c r="C151" t="s">
-        <v>364</v>
+        <v>384</v>
       </c>
       <c r="D151" t="s">
         <v>84</v>
       </c>
       <c r="E151" t="s">
-        <v>340</v>
+        <v>209</v>
       </c>
       <c r="F151" t="s">
-        <v>466</v>
+        <v>86</v>
       </c>
       <c r="G151" t="s">
         <v>319</v>
       </c>
       <c r="H151" t="s">
-        <v>277</v>
+        <v>1253</v>
       </c>
       <c r="I151" t="s">
-        <v>446</v>
+        <v>806</v>
       </c>
       <c r="J151" t="s">
-        <v>1027</v>
+        <v>320</v>
       </c>
       <c r="K151" t="s">
-        <v>148</v>
+        <v>254</v>
       </c>
       <c r="L151" t="s">
-        <v>1250</v>
+        <v>1254</v>
       </c>
       <c r="M151" t="s">
-        <v>290</v>
+        <v>466</v>
       </c>
       <c r="N151" t="s">
         <v>94</v>
@@ -41487,13 +41631,13 @@
         <v>98</v>
       </c>
       <c r="T151" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="U151" t="s">
         <v>94</v>
       </c>
       <c r="V151" t="s">
-        <v>120</v>
+        <v>215</v>
       </c>
       <c r="W151" t="s">
         <v>88</v>
@@ -41502,19 +41646,19 @@
         <v>88</v>
       </c>
       <c r="Y151" t="s">
-        <v>201</v>
+        <v>1255</v>
       </c>
       <c r="Z151" t="s">
-        <v>1251</v>
+        <v>1256</v>
       </c>
       <c r="AA151" t="s">
-        <v>132</v>
+        <v>259</v>
       </c>
       <c r="AB151" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="AC151" t="s">
-        <v>597</v>
+        <v>553</v>
       </c>
       <c r="AD151" t="s">
         <v>105</v>
@@ -41571,16 +41715,16 @@
         <v>98</v>
       </c>
       <c r="AW151" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="AX151" s="1">
-        <v>44793</v>
+        <v>44786</v>
       </c>
       <c r="AY151" s="1">
-        <v>44792</v>
+        <v>44785</v>
       </c>
       <c r="AZ151" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="BA151" t="s">
         <v>99</v>
@@ -41598,10 +41742,10 @@
         <v>155</v>
       </c>
       <c r="BF151" t="s">
-        <v>1252</v>
+        <v>1257</v>
       </c>
       <c r="BG151" s="1">
-        <v>36084</v>
+        <v>39783</v>
       </c>
       <c r="BH151" t="s">
         <v>88</v>
@@ -41613,19 +41757,19 @@
         <v>88</v>
       </c>
       <c r="BL151" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM151" t="s">
-        <v>1253</v>
+        <v>627</v>
       </c>
       <c r="BN151" t="s">
-        <v>1101</v>
+        <v>628</v>
       </c>
       <c r="BO151" s="1">
-        <v>44795</v>
+        <v>44791</v>
       </c>
       <c r="BP151" t="s">
-        <v>351</v>
+        <v>222</v>
       </c>
       <c r="BQ151" t="s">
         <v>88</v>
@@ -41643,7 +41787,7 @@
         <v>116</v>
       </c>
       <c r="BV151" t="s">
-        <v>689</v>
+        <v>224</v>
       </c>
       <c r="BW151" t="s">
         <v>96</v>
@@ -41652,7 +41796,7 @@
         <v>118</v>
       </c>
       <c r="BY151" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BZ151" t="s">
         <v>96</v>
@@ -41661,7 +41805,7 @@
         <v>118</v>
       </c>
       <c r="CB151" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="CC151" t="s">
         <v>118</v>
@@ -41670,7 +41814,7 @@
         <v>120</v>
       </c>
       <c r="CE151">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="152" spans="1:83" x14ac:dyDescent="0.15">
@@ -41678,40 +41822,40 @@
         <v>82</v>
       </c>
       <c r="B152" s="1">
-        <v>44585</v>
+        <v>44793</v>
       </c>
       <c r="C152" t="s">
-        <v>93</v>
+        <v>364</v>
       </c>
       <c r="D152" t="s">
         <v>84</v>
       </c>
       <c r="E152" t="s">
-        <v>142</v>
+        <v>340</v>
       </c>
       <c r="F152" t="s">
-        <v>143</v>
+        <v>466</v>
       </c>
       <c r="G152" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="H152" t="s">
-        <v>1254</v>
+        <v>277</v>
       </c>
       <c r="I152" t="s">
-        <v>1255</v>
+        <v>446</v>
       </c>
       <c r="J152" t="s">
-        <v>1256</v>
+        <v>1027</v>
       </c>
       <c r="K152" t="s">
         <v>148</v>
       </c>
       <c r="L152" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="M152" t="s">
-        <v>214</v>
+        <v>290</v>
       </c>
       <c r="N152" t="s">
         <v>94</v>
@@ -41723,7 +41867,7 @@
         <v>96</v>
       </c>
       <c r="Q152" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="R152" t="s">
         <v>95</v>
@@ -41735,37 +41879,37 @@
         <v>129</v>
       </c>
       <c r="U152" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="V152" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="W152" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="X152" t="s">
         <v>88</v>
       </c>
       <c r="Y152" t="s">
-        <v>88</v>
+        <v>201</v>
       </c>
       <c r="Z152" t="s">
-        <v>152</v>
+        <v>1259</v>
       </c>
       <c r="AA152" t="s">
         <v>132</v>
       </c>
       <c r="AB152" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="AC152" t="s">
-        <v>154</v>
+        <v>597</v>
       </c>
       <c r="AD152" t="s">
         <v>105</v>
       </c>
       <c r="AF152" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AG152" t="s">
         <v>99</v>
@@ -41777,10 +41921,10 @@
         <v>99</v>
       </c>
       <c r="AJ152" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AK152" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AL152" t="s">
         <v>88</v>
@@ -41792,7 +41936,7 @@
         <v>99</v>
       </c>
       <c r="AO152" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AP152" t="s">
         <v>99</v>
@@ -41804,10 +41948,10 @@
         <v>99</v>
       </c>
       <c r="AS152" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="AT152" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="AU152" t="s">
         <v>95</v>
@@ -41819,13 +41963,13 @@
         <v>129</v>
       </c>
       <c r="AX152" s="1">
-        <v>44585</v>
+        <v>44793</v>
       </c>
       <c r="AY152" s="1">
-        <v>44585</v>
+        <v>44792</v>
       </c>
       <c r="AZ152" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="BA152" t="s">
         <v>99</v>
@@ -41843,10 +41987,10 @@
         <v>155</v>
       </c>
       <c r="BF152" t="s">
-        <v>156</v>
+        <v>1260</v>
       </c>
       <c r="BG152" s="1">
-        <v>32999</v>
+        <v>36084</v>
       </c>
       <c r="BH152" t="s">
         <v>88</v>
@@ -41858,19 +42002,19 @@
         <v>88</v>
       </c>
       <c r="BL152" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM152" t="s">
-        <v>157</v>
+        <v>1261</v>
       </c>
       <c r="BN152" t="s">
-        <v>158</v>
+        <v>1101</v>
       </c>
       <c r="BO152" s="1">
-        <v>44585</v>
+        <v>44795</v>
       </c>
       <c r="BP152" t="s">
-        <v>159</v>
+        <v>351</v>
       </c>
       <c r="BQ152" t="s">
         <v>88</v>
@@ -41882,13 +42026,13 @@
         <v>88</v>
       </c>
       <c r="BT152" t="s">
-        <v>195</v>
+        <v>672</v>
       </c>
       <c r="BU152" t="s">
         <v>116</v>
       </c>
       <c r="BV152" t="s">
-        <v>161</v>
+        <v>689</v>
       </c>
       <c r="BW152" t="s">
         <v>96</v>
@@ -41915,7 +42059,7 @@
         <v>120</v>
       </c>
       <c r="CE152">
-        <v>19</v>
+        <v>176</v>
       </c>
     </row>
     <row r="153" spans="1:83" x14ac:dyDescent="0.15">
@@ -41923,40 +42067,40 @@
         <v>82</v>
       </c>
       <c r="B153" s="1">
-        <v>44590</v>
+        <v>44795</v>
       </c>
       <c r="C153" t="s">
-        <v>93</v>
+        <v>364</v>
       </c>
       <c r="D153" t="s">
         <v>84</v>
       </c>
       <c r="E153" t="s">
-        <v>122</v>
+        <v>179</v>
       </c>
       <c r="F153" t="s">
-        <v>86</v>
+        <v>536</v>
       </c>
       <c r="G153" t="s">
-        <v>729</v>
+        <v>537</v>
       </c>
       <c r="H153" t="s">
-        <v>1258</v>
+        <v>1262</v>
       </c>
       <c r="I153" t="s">
-        <v>1259</v>
+        <v>1263</v>
       </c>
       <c r="J153" t="s">
-        <v>510</v>
+        <v>458</v>
       </c>
       <c r="K153" t="s">
         <v>148</v>
       </c>
       <c r="L153" t="s">
-        <v>1260</v>
+        <v>1264</v>
       </c>
       <c r="M153" t="s">
-        <v>769</v>
+        <v>1008</v>
       </c>
       <c r="N153" t="s">
         <v>94</v>
@@ -41968,7 +42112,7 @@
         <v>96</v>
       </c>
       <c r="Q153" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="R153" t="s">
         <v>95</v>
@@ -41983,7 +42127,7 @@
         <v>94</v>
       </c>
       <c r="V153" t="s">
-        <v>120</v>
+        <v>187</v>
       </c>
       <c r="W153" t="s">
         <v>88</v>
@@ -41995,16 +42139,16 @@
         <v>201</v>
       </c>
       <c r="Z153" t="s">
-        <v>1261</v>
+        <v>1265</v>
       </c>
       <c r="AA153" t="s">
-        <v>132</v>
+        <v>1266</v>
       </c>
       <c r="AB153" t="s">
         <v>133</v>
       </c>
       <c r="AC153" t="s">
-        <v>134</v>
+        <v>190</v>
       </c>
       <c r="AD153" t="s">
         <v>105</v>
@@ -42025,7 +42169,7 @@
         <v>99</v>
       </c>
       <c r="AK153" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="AL153" t="s">
         <v>88</v>
@@ -42037,7 +42181,7 @@
         <v>99</v>
       </c>
       <c r="AO153" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="AP153" t="s">
         <v>99</v>
@@ -42064,10 +42208,10 @@
         <v>129</v>
       </c>
       <c r="AX153" s="1">
-        <v>44588</v>
+        <v>44795</v>
       </c>
       <c r="AY153" s="1">
-        <v>44586</v>
+        <v>44788</v>
       </c>
       <c r="AZ153" t="s">
         <v>93</v>
@@ -42088,10 +42232,10 @@
         <v>155</v>
       </c>
       <c r="BF153" t="s">
-        <v>1262</v>
+        <v>1267</v>
       </c>
       <c r="BG153" s="1">
-        <v>36204</v>
+        <v>30773</v>
       </c>
       <c r="BH153" t="s">
         <v>88</v>
@@ -42103,19 +42247,19 @@
         <v>88</v>
       </c>
       <c r="BL153" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM153" t="s">
-        <v>1263</v>
+        <v>1268</v>
       </c>
       <c r="BN153" t="s">
-        <v>764</v>
+        <v>1269</v>
       </c>
       <c r="BO153" s="1">
-        <v>44590</v>
+        <v>44802</v>
       </c>
       <c r="BP153" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="BQ153" t="s">
         <v>88</v>
@@ -42127,13 +42271,13 @@
         <v>88</v>
       </c>
       <c r="BT153" t="s">
-        <v>195</v>
+        <v>672</v>
       </c>
       <c r="BU153" t="s">
         <v>116</v>
       </c>
       <c r="BV153" t="s">
-        <v>137</v>
+        <v>936</v>
       </c>
       <c r="BW153" t="s">
         <v>96</v>
@@ -42160,7 +42304,7 @@
         <v>120</v>
       </c>
       <c r="CE153">
-        <v>20</v>
+        <v>190</v>
       </c>
     </row>
     <row r="154" spans="1:83" x14ac:dyDescent="0.15">
@@ -42168,40 +42312,40 @@
         <v>82</v>
       </c>
       <c r="B154" s="1">
-        <v>44628</v>
+        <v>44796</v>
       </c>
       <c r="C154" t="s">
-        <v>93</v>
+        <v>364</v>
       </c>
       <c r="D154" t="s">
         <v>84</v>
       </c>
       <c r="E154" t="s">
-        <v>535</v>
+        <v>250</v>
       </c>
       <c r="F154" t="s">
-        <v>226</v>
+        <v>769</v>
       </c>
       <c r="G154" t="s">
-        <v>426</v>
+        <v>1253</v>
       </c>
       <c r="H154" t="s">
         <v>88</v>
       </c>
       <c r="I154" t="s">
-        <v>1264</v>
+        <v>1220</v>
       </c>
       <c r="J154" t="s">
-        <v>88</v>
+        <v>1221</v>
       </c>
       <c r="K154" t="s">
-        <v>148</v>
+        <v>254</v>
       </c>
       <c r="L154" t="s">
-        <v>1265</v>
+        <v>1270</v>
       </c>
       <c r="M154" t="s">
-        <v>290</v>
+        <v>506</v>
       </c>
       <c r="N154" t="s">
         <v>94</v>
@@ -42225,37 +42369,37 @@
         <v>129</v>
       </c>
       <c r="U154" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="V154" t="s">
-        <v>186</v>
+        <v>88</v>
       </c>
       <c r="W154" t="s">
-        <v>88</v>
+        <v>471</v>
       </c>
       <c r="X154" t="s">
         <v>88</v>
       </c>
       <c r="Y154" t="s">
-        <v>186</v>
+        <v>88</v>
       </c>
       <c r="Z154" t="s">
-        <v>1266</v>
+        <v>1271</v>
       </c>
       <c r="AA154" t="s">
         <v>259</v>
       </c>
       <c r="AB154" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="AC154" t="s">
-        <v>347</v>
+        <v>260</v>
       </c>
       <c r="AD154" t="s">
         <v>105</v>
       </c>
       <c r="AF154" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="AG154" t="s">
         <v>99</v>
@@ -42309,10 +42453,10 @@
         <v>129</v>
       </c>
       <c r="AX154" s="1">
-        <v>44585</v>
+        <v>44796</v>
       </c>
       <c r="AY154" s="1">
-        <v>44584</v>
+        <v>44792</v>
       </c>
       <c r="AZ154" t="s">
         <v>93</v>
@@ -42333,10 +42477,10 @@
         <v>155</v>
       </c>
       <c r="BF154" t="s">
-        <v>1267</v>
+        <v>1272</v>
       </c>
       <c r="BG154" s="1">
-        <v>36155</v>
+        <v>39330</v>
       </c>
       <c r="BH154" t="s">
         <v>88</v>
@@ -42348,19 +42492,19 @@
         <v>88</v>
       </c>
       <c r="BL154" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM154" t="s">
-        <v>1268</v>
+        <v>1273</v>
       </c>
       <c r="BN154" t="s">
-        <v>545</v>
+        <v>263</v>
       </c>
       <c r="BO154" s="1">
-        <v>44628</v>
+        <v>44798</v>
       </c>
       <c r="BP154" t="s">
-        <v>546</v>
+        <v>264</v>
       </c>
       <c r="BQ154" t="s">
         <v>88</v>
@@ -42372,13 +42516,13 @@
         <v>88</v>
       </c>
       <c r="BT154" t="s">
-        <v>223</v>
+        <v>672</v>
       </c>
       <c r="BU154" t="s">
         <v>116</v>
       </c>
       <c r="BV154" t="s">
-        <v>547</v>
+        <v>1274</v>
       </c>
       <c r="BW154" t="s">
         <v>96</v>
@@ -42405,7 +42549,7 @@
         <v>120</v>
       </c>
       <c r="CE154">
-        <v>49</v>
+        <v>186</v>
       </c>
     </row>
     <row r="155" spans="1:83" x14ac:dyDescent="0.15">
@@ -42413,40 +42557,40 @@
         <v>82</v>
       </c>
       <c r="B155" s="1">
-        <v>44588</v>
+        <v>44797</v>
       </c>
       <c r="C155" t="s">
-        <v>93</v>
+        <v>364</v>
       </c>
       <c r="D155" t="s">
         <v>84</v>
       </c>
       <c r="E155" t="s">
-        <v>209</v>
+        <v>535</v>
       </c>
       <c r="F155" t="s">
-        <v>86</v>
+        <v>536</v>
       </c>
       <c r="G155" t="s">
-        <v>1269</v>
+        <v>1275</v>
       </c>
       <c r="H155" t="s">
-        <v>88</v>
+        <v>319</v>
       </c>
       <c r="I155" t="s">
-        <v>782</v>
+        <v>1276</v>
       </c>
       <c r="J155" t="s">
-        <v>309</v>
+        <v>1277</v>
       </c>
       <c r="K155" t="s">
-        <v>91</v>
+        <v>254</v>
       </c>
       <c r="L155" t="s">
-        <v>1270</v>
+        <v>1278</v>
       </c>
       <c r="M155" t="s">
-        <v>94</v>
+        <v>335</v>
       </c>
       <c r="N155" t="s">
         <v>94</v>
@@ -42467,13 +42611,13 @@
         <v>98</v>
       </c>
       <c r="T155" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="U155" t="s">
         <v>94</v>
       </c>
       <c r="V155" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="W155" t="s">
         <v>88</v>
@@ -42482,19 +42626,19 @@
         <v>88</v>
       </c>
       <c r="Y155" t="s">
-        <v>1271</v>
+        <v>186</v>
       </c>
       <c r="Z155" t="s">
-        <v>1272</v>
+        <v>1279</v>
       </c>
       <c r="AA155" t="s">
-        <v>132</v>
+        <v>259</v>
       </c>
       <c r="AB155" t="s">
         <v>133</v>
       </c>
       <c r="AC155" t="s">
-        <v>134</v>
+        <v>347</v>
       </c>
       <c r="AD155" t="s">
         <v>105</v>
@@ -42542,7 +42686,7 @@
         <v>94</v>
       </c>
       <c r="AT155" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AU155" t="s">
         <v>95</v>
@@ -42551,13 +42695,13 @@
         <v>98</v>
       </c>
       <c r="AW155" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="AX155" s="1">
-        <v>44588</v>
+        <v>44787</v>
       </c>
       <c r="AY155" s="1">
-        <v>44585</v>
+        <v>44787</v>
       </c>
       <c r="AZ155" t="s">
         <v>93</v>
@@ -42578,10 +42722,10 @@
         <v>155</v>
       </c>
       <c r="BF155" t="s">
-        <v>1273</v>
+        <v>1280</v>
       </c>
       <c r="BG155" s="1">
-        <v>44203</v>
+        <v>38754</v>
       </c>
       <c r="BH155" t="s">
         <v>88</v>
@@ -42593,19 +42737,19 @@
         <v>88</v>
       </c>
       <c r="BL155" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM155" t="s">
-        <v>1274</v>
+        <v>1281</v>
       </c>
       <c r="BN155" t="s">
-        <v>378</v>
+        <v>545</v>
       </c>
       <c r="BO155" s="1">
-        <v>44589</v>
+        <v>44797</v>
       </c>
       <c r="BP155" t="s">
-        <v>222</v>
+        <v>546</v>
       </c>
       <c r="BQ155" t="s">
         <v>88</v>
@@ -42617,13 +42761,13 @@
         <v>88</v>
       </c>
       <c r="BT155" t="s">
-        <v>1275</v>
+        <v>672</v>
       </c>
       <c r="BU155" t="s">
         <v>116</v>
       </c>
       <c r="BV155" t="s">
-        <v>224</v>
+        <v>547</v>
       </c>
       <c r="BW155" t="s">
         <v>96</v>
@@ -42632,7 +42776,7 @@
         <v>118</v>
       </c>
       <c r="BY155" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BZ155" t="s">
         <v>96</v>
@@ -42641,7 +42785,7 @@
         <v>118</v>
       </c>
       <c r="CB155" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="CC155" t="s">
         <v>118</v>
@@ -42650,7 +42794,7 @@
         <v>120</v>
       </c>
       <c r="CE155">
-        <v>24</v>
+        <v>187</v>
       </c>
     </row>
     <row r="156" spans="1:83" x14ac:dyDescent="0.15">
@@ -42658,40 +42802,40 @@
         <v>82</v>
       </c>
       <c r="B156" s="1">
-        <v>44594</v>
+        <v>44795</v>
       </c>
       <c r="C156" t="s">
-        <v>121</v>
+        <v>364</v>
       </c>
       <c r="D156" t="s">
         <v>84</v>
       </c>
       <c r="E156" t="s">
-        <v>85</v>
+        <v>250</v>
       </c>
       <c r="F156" t="s">
-        <v>572</v>
+        <v>520</v>
       </c>
       <c r="G156" t="s">
-        <v>779</v>
+        <v>1282</v>
       </c>
       <c r="H156" t="s">
-        <v>973</v>
+        <v>1283</v>
       </c>
       <c r="I156" t="s">
-        <v>905</v>
+        <v>1040</v>
       </c>
       <c r="J156" t="s">
-        <v>939</v>
+        <v>227</v>
       </c>
       <c r="K156" t="s">
-        <v>148</v>
+        <v>254</v>
       </c>
       <c r="L156" t="s">
-        <v>1276</v>
+        <v>1284</v>
       </c>
       <c r="M156" t="s">
-        <v>167</v>
+        <v>83</v>
       </c>
       <c r="N156" t="s">
         <v>94</v>
@@ -42703,7 +42847,7 @@
         <v>96</v>
       </c>
       <c r="Q156" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="R156" t="s">
         <v>95</v>
@@ -42712,40 +42856,40 @@
         <v>98</v>
       </c>
       <c r="T156" t="s">
-        <v>1277</v>
+        <v>129</v>
       </c>
       <c r="U156" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="V156" t="s">
         <v>88</v>
       </c>
       <c r="W156" t="s">
-        <v>88</v>
+        <v>1285</v>
       </c>
       <c r="X156" t="s">
-        <v>1278</v>
+        <v>88</v>
       </c>
       <c r="Y156" t="s">
         <v>88</v>
       </c>
       <c r="Z156" t="s">
-        <v>1279</v>
+        <v>1286</v>
       </c>
       <c r="AA156" t="s">
-        <v>809</v>
+        <v>259</v>
       </c>
       <c r="AB156" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="AC156" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="AD156" t="s">
         <v>105</v>
       </c>
       <c r="AF156" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="AG156" t="s">
         <v>99</v>
@@ -42760,7 +42904,7 @@
         <v>99</v>
       </c>
       <c r="AK156" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AL156" t="s">
         <v>88</v>
@@ -42769,10 +42913,10 @@
         <v>99</v>
       </c>
       <c r="AN156" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="AO156" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AP156" t="s">
         <v>99</v>
@@ -42784,7 +42928,7 @@
         <v>99</v>
       </c>
       <c r="AS156" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AT156" t="s">
         <v>94</v>
@@ -42796,13 +42940,13 @@
         <v>98</v>
       </c>
       <c r="AW156" t="s">
-        <v>1280</v>
+        <v>129</v>
       </c>
       <c r="AX156" s="1">
-        <v>44594</v>
+        <v>44795</v>
       </c>
       <c r="AY156" s="1">
-        <v>44591</v>
+        <v>44790</v>
       </c>
       <c r="AZ156" t="s">
         <v>93</v>
@@ -42823,10 +42967,10 @@
         <v>155</v>
       </c>
       <c r="BF156" t="s">
-        <v>1281</v>
+        <v>1287</v>
       </c>
       <c r="BG156" s="1">
-        <v>30833</v>
+        <v>40369</v>
       </c>
       <c r="BH156" t="s">
         <v>88</v>
@@ -42838,19 +42982,19 @@
         <v>88</v>
       </c>
       <c r="BL156" s="1">
+        <v>44803</v>
+      </c>
+      <c r="BM156" t="s">
+        <v>1288</v>
+      </c>
+      <c r="BN156" t="s">
+        <v>1125</v>
+      </c>
+      <c r="BO156" s="1">
         <v>44796</v>
       </c>
-      <c r="BM156" t="s">
-        <v>1282</v>
-      </c>
-      <c r="BN156" t="s">
-        <v>113</v>
-      </c>
-      <c r="BO156" s="1">
-        <v>44598</v>
-      </c>
       <c r="BP156" t="s">
-        <v>114</v>
+        <v>884</v>
       </c>
       <c r="BQ156" t="s">
         <v>88</v>
@@ -42862,13 +43006,13 @@
         <v>88</v>
       </c>
       <c r="BT156" t="s">
-        <v>223</v>
+        <v>672</v>
       </c>
       <c r="BU156" t="s">
         <v>116</v>
       </c>
       <c r="BV156" t="s">
-        <v>111</v>
+        <v>885</v>
       </c>
       <c r="BW156" t="s">
         <v>96</v>
@@ -42877,7 +43021,7 @@
         <v>118</v>
       </c>
       <c r="BY156" t="s">
-        <v>1283</v>
+        <v>120</v>
       </c>
       <c r="BZ156" t="s">
         <v>96</v>
@@ -42886,7 +43030,7 @@
         <v>118</v>
       </c>
       <c r="CB156" t="s">
-        <v>1284</v>
+        <v>120</v>
       </c>
       <c r="CC156" t="s">
         <v>118</v>
@@ -42895,7 +43039,7 @@
         <v>120</v>
       </c>
       <c r="CE156">
-        <v>26</v>
+        <v>185</v>
       </c>
     </row>
     <row r="157" spans="1:83" x14ac:dyDescent="0.15">
@@ -42903,40 +43047,40 @@
         <v>82</v>
       </c>
       <c r="B157" s="1">
-        <v>44592</v>
+        <v>44798</v>
       </c>
       <c r="C157" t="s">
-        <v>121</v>
+        <v>1091</v>
       </c>
       <c r="D157" t="s">
         <v>84</v>
       </c>
       <c r="E157" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="F157" t="s">
-        <v>208</v>
+        <v>86</v>
       </c>
       <c r="G157" t="s">
-        <v>330</v>
+        <v>799</v>
       </c>
       <c r="H157" t="s">
-        <v>227</v>
+        <v>88</v>
       </c>
       <c r="I157" t="s">
-        <v>431</v>
+        <v>1289</v>
       </c>
       <c r="J157" t="s">
-        <v>310</v>
+        <v>242</v>
       </c>
       <c r="K157" t="s">
-        <v>254</v>
+        <v>148</v>
       </c>
       <c r="L157" t="s">
-        <v>1285</v>
+        <v>1290</v>
       </c>
       <c r="M157" t="s">
-        <v>256</v>
+        <v>520</v>
       </c>
       <c r="N157" t="s">
         <v>94</v>
@@ -42948,7 +43092,7 @@
         <v>96</v>
       </c>
       <c r="Q157" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="R157" t="s">
         <v>95</v>
@@ -42960,31 +43104,31 @@
         <v>129</v>
       </c>
       <c r="U157" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="V157" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="W157" t="s">
-        <v>832</v>
+        <v>88</v>
       </c>
       <c r="X157" t="s">
         <v>88</v>
       </c>
       <c r="Y157" t="s">
-        <v>88</v>
+        <v>1234</v>
       </c>
       <c r="Z157" t="s">
-        <v>1286</v>
+        <v>1291</v>
       </c>
       <c r="AA157" t="s">
-        <v>259</v>
+        <v>132</v>
       </c>
       <c r="AB157" t="s">
         <v>133</v>
       </c>
       <c r="AC157" t="s">
-        <v>294</v>
+        <v>134</v>
       </c>
       <c r="AD157" t="s">
         <v>105</v>
@@ -43005,7 +43149,7 @@
         <v>99</v>
       </c>
       <c r="AK157" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AL157" t="s">
         <v>88</v>
@@ -43017,7 +43161,7 @@
         <v>99</v>
       </c>
       <c r="AO157" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AP157" t="s">
         <v>99</v>
@@ -43044,10 +43188,10 @@
         <v>129</v>
       </c>
       <c r="AX157" s="1">
-        <v>44592</v>
+        <v>44797</v>
       </c>
       <c r="AY157" s="1">
-        <v>44591</v>
+        <v>44794</v>
       </c>
       <c r="AZ157" t="s">
         <v>93</v>
@@ -43068,10 +43212,10 @@
         <v>155</v>
       </c>
       <c r="BF157" t="s">
-        <v>1287</v>
+        <v>1292</v>
       </c>
       <c r="BG157" s="1">
-        <v>39050</v>
+        <v>35420</v>
       </c>
       <c r="BH157" t="s">
         <v>88</v>
@@ -43083,19 +43227,19 @@
         <v>88</v>
       </c>
       <c r="BL157" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM157" t="s">
-        <v>1288</v>
+        <v>1293</v>
       </c>
       <c r="BN157" t="s">
-        <v>113</v>
+        <v>389</v>
       </c>
       <c r="BO157" s="1">
-        <v>44598</v>
+        <v>44798</v>
       </c>
       <c r="BP157" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="BQ157" t="s">
         <v>88</v>
@@ -43107,13 +43251,13 @@
         <v>88</v>
       </c>
       <c r="BT157" t="s">
-        <v>223</v>
+        <v>672</v>
       </c>
       <c r="BU157" t="s">
         <v>116</v>
       </c>
       <c r="BV157" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="BW157" t="s">
         <v>96</v>
@@ -43140,7 +43284,7 @@
         <v>120</v>
       </c>
       <c r="CE157">
-        <v>27</v>
+        <v>184</v>
       </c>
     </row>
     <row r="158" spans="1:83" x14ac:dyDescent="0.15">
@@ -43148,40 +43292,40 @@
         <v>82</v>
       </c>
       <c r="B158" s="1">
-        <v>44717</v>
+        <v>44797</v>
       </c>
       <c r="C158" t="s">
-        <v>121</v>
+        <v>1091</v>
       </c>
       <c r="D158" t="s">
         <v>84</v>
       </c>
       <c r="E158" t="s">
-        <v>209</v>
+        <v>340</v>
       </c>
       <c r="F158" t="s">
-        <v>86</v>
+        <v>466</v>
       </c>
       <c r="G158" t="s">
-        <v>319</v>
+        <v>1294</v>
       </c>
       <c r="H158" t="s">
-        <v>251</v>
+        <v>88</v>
       </c>
       <c r="I158" t="s">
-        <v>1289</v>
+        <v>1295</v>
       </c>
       <c r="J158" t="s">
-        <v>1290</v>
+        <v>418</v>
       </c>
       <c r="K158" t="s">
-        <v>254</v>
+        <v>148</v>
       </c>
       <c r="L158" t="s">
-        <v>1291</v>
+        <v>1296</v>
       </c>
       <c r="M158" t="s">
-        <v>208</v>
+        <v>581</v>
       </c>
       <c r="N158" t="s">
         <v>94</v>
@@ -43208,7 +43352,7 @@
         <v>94</v>
       </c>
       <c r="V158" t="s">
-        <v>215</v>
+        <v>120</v>
       </c>
       <c r="W158" t="s">
         <v>88</v>
@@ -43217,25 +43361,25 @@
         <v>88</v>
       </c>
       <c r="Y158" t="s">
-        <v>1292</v>
+        <v>201</v>
       </c>
       <c r="Z158" t="s">
-        <v>1293</v>
+        <v>1297</v>
       </c>
       <c r="AA158" t="s">
-        <v>259</v>
+        <v>132</v>
       </c>
       <c r="AB158" t="s">
         <v>133</v>
       </c>
       <c r="AC158" t="s">
-        <v>190</v>
+        <v>597</v>
       </c>
       <c r="AD158" t="s">
         <v>105</v>
       </c>
       <c r="AF158" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="AG158" t="s">
         <v>99</v>
@@ -43289,13 +43433,13 @@
         <v>129</v>
       </c>
       <c r="AX158" s="1">
-        <v>44716</v>
+        <v>44797</v>
       </c>
       <c r="AY158" s="1">
-        <v>44594</v>
+        <v>44797</v>
       </c>
       <c r="AZ158" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="BA158" t="s">
         <v>99</v>
@@ -43313,10 +43457,10 @@
         <v>155</v>
       </c>
       <c r="BF158" t="s">
-        <v>1294</v>
+        <v>1298</v>
       </c>
       <c r="BG158" s="1">
-        <v>40761</v>
+        <v>35168</v>
       </c>
       <c r="BH158" t="s">
         <v>88</v>
@@ -43328,19 +43472,19 @@
         <v>88</v>
       </c>
       <c r="BL158" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM158" t="s">
-        <v>1295</v>
+        <v>1299</v>
       </c>
       <c r="BN158" t="s">
-        <v>378</v>
+        <v>1101</v>
       </c>
       <c r="BO158" s="1">
-        <v>44737</v>
+        <v>44800</v>
       </c>
       <c r="BP158" t="s">
-        <v>222</v>
+        <v>351</v>
       </c>
       <c r="BQ158" t="s">
         <v>88</v>
@@ -43352,13 +43496,13 @@
         <v>88</v>
       </c>
       <c r="BT158" t="s">
-        <v>465</v>
+        <v>672</v>
       </c>
       <c r="BU158" t="s">
         <v>116</v>
       </c>
       <c r="BV158" t="s">
-        <v>224</v>
+        <v>689</v>
       </c>
       <c r="BW158" t="s">
         <v>96</v>
@@ -43385,7 +43529,7 @@
         <v>120</v>
       </c>
       <c r="CE158">
-        <v>138</v>
+        <v>188</v>
       </c>
     </row>
     <row r="159" spans="1:83" x14ac:dyDescent="0.15">
@@ -43393,40 +43537,40 @@
         <v>82</v>
       </c>
       <c r="B159" s="1">
-        <v>44609</v>
+        <v>44797</v>
       </c>
       <c r="C159" t="s">
-        <v>105</v>
+        <v>1091</v>
       </c>
       <c r="D159" t="s">
         <v>84</v>
       </c>
       <c r="E159" t="s">
-        <v>122</v>
+        <v>209</v>
       </c>
       <c r="F159" t="s">
         <v>86</v>
       </c>
       <c r="G159" t="s">
-        <v>1296</v>
+        <v>1300</v>
       </c>
       <c r="H159" t="s">
         <v>88</v>
       </c>
       <c r="I159" t="s">
-        <v>1297</v>
+        <v>1301</v>
       </c>
       <c r="J159" t="s">
-        <v>467</v>
+        <v>229</v>
       </c>
       <c r="K159" t="s">
-        <v>91</v>
+        <v>254</v>
       </c>
       <c r="L159" t="s">
-        <v>1298</v>
+        <v>1302</v>
       </c>
       <c r="M159" t="s">
-        <v>106</v>
+        <v>335</v>
       </c>
       <c r="N159" t="s">
         <v>94</v>
@@ -43438,7 +43582,7 @@
         <v>96</v>
       </c>
       <c r="Q159" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="R159" t="s">
         <v>95</v>
@@ -43453,7 +43597,7 @@
         <v>94</v>
       </c>
       <c r="V159" t="s">
-        <v>120</v>
+        <v>215</v>
       </c>
       <c r="W159" t="s">
         <v>88</v>
@@ -43462,25 +43606,25 @@
         <v>88</v>
       </c>
       <c r="Y159" t="s">
-        <v>130</v>
+        <v>1303</v>
       </c>
       <c r="Z159" t="s">
-        <v>1299</v>
+        <v>1304</v>
       </c>
       <c r="AA159" t="s">
-        <v>132</v>
+        <v>259</v>
       </c>
       <c r="AB159" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="AC159" t="s">
-        <v>134</v>
+        <v>553</v>
       </c>
       <c r="AD159" t="s">
         <v>105</v>
       </c>
       <c r="AF159" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="AG159" t="s">
         <v>99</v>
@@ -43495,7 +43639,7 @@
         <v>99</v>
       </c>
       <c r="AK159" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AL159" t="s">
         <v>88</v>
@@ -43507,7 +43651,7 @@
         <v>99</v>
       </c>
       <c r="AO159" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AP159" t="s">
         <v>99</v>
@@ -43534,10 +43678,10 @@
         <v>129</v>
       </c>
       <c r="AX159" s="1">
-        <v>44607</v>
+        <v>44797</v>
       </c>
       <c r="AY159" s="1">
-        <v>44604</v>
+        <v>44795</v>
       </c>
       <c r="AZ159" t="s">
         <v>93</v>
@@ -43558,10 +43702,10 @@
         <v>155</v>
       </c>
       <c r="BF159" t="s">
-        <v>1300</v>
+        <v>1305</v>
       </c>
       <c r="BG159" s="1">
-        <v>43485</v>
+        <v>38949</v>
       </c>
       <c r="BH159" t="s">
         <v>88</v>
@@ -43573,19 +43717,19 @@
         <v>88</v>
       </c>
       <c r="BL159" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM159" t="s">
-        <v>1301</v>
+        <v>627</v>
       </c>
       <c r="BN159" t="s">
-        <v>389</v>
+        <v>628</v>
       </c>
       <c r="BO159" s="1">
-        <v>44609</v>
+        <v>44797</v>
       </c>
       <c r="BP159" t="s">
-        <v>140</v>
+        <v>222</v>
       </c>
       <c r="BQ159" t="s">
         <v>88</v>
@@ -43597,13 +43741,13 @@
         <v>88</v>
       </c>
       <c r="BT159" t="s">
-        <v>223</v>
+        <v>672</v>
       </c>
       <c r="BU159" t="s">
         <v>116</v>
       </c>
       <c r="BV159" t="s">
-        <v>137</v>
+        <v>224</v>
       </c>
       <c r="BW159" t="s">
         <v>96</v>
@@ -43630,7 +43774,7 @@
         <v>120</v>
       </c>
       <c r="CE159">
-        <v>136</v>
+        <v>189</v>
       </c>
     </row>
     <row r="160" spans="1:83" x14ac:dyDescent="0.15">
@@ -43638,40 +43782,40 @@
         <v>82</v>
       </c>
       <c r="B160" s="1">
-        <v>44608</v>
+        <v>44585</v>
       </c>
       <c r="C160" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="D160" t="s">
         <v>84</v>
       </c>
       <c r="E160" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
       <c r="F160" t="s">
-        <v>86</v>
+        <v>143</v>
       </c>
       <c r="G160" t="s">
-        <v>1302</v>
+        <v>330</v>
       </c>
       <c r="H160" t="s">
-        <v>1303</v>
+        <v>1306</v>
       </c>
       <c r="I160" t="s">
-        <v>600</v>
+        <v>1276</v>
       </c>
       <c r="J160" t="s">
-        <v>1304</v>
+        <v>1307</v>
       </c>
       <c r="K160" t="s">
-        <v>91</v>
+        <v>148</v>
       </c>
       <c r="L160" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="M160" t="s">
-        <v>106</v>
+        <v>214</v>
       </c>
       <c r="N160" t="s">
         <v>94</v>
@@ -43695,37 +43839,37 @@
         <v>129</v>
       </c>
       <c r="U160" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="V160" t="s">
-        <v>186</v>
+        <v>88</v>
       </c>
       <c r="W160" t="s">
-        <v>88</v>
+        <v>151</v>
       </c>
       <c r="X160" t="s">
         <v>88</v>
       </c>
       <c r="Y160" t="s">
-        <v>201</v>
+        <v>88</v>
       </c>
       <c r="Z160" t="s">
-        <v>1306</v>
+        <v>152</v>
       </c>
       <c r="AA160" t="s">
         <v>132</v>
       </c>
       <c r="AB160" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="AC160" t="s">
-        <v>190</v>
+        <v>154</v>
       </c>
       <c r="AD160" t="s">
         <v>105</v>
       </c>
       <c r="AF160" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="AG160" t="s">
         <v>99</v>
@@ -43737,7 +43881,7 @@
         <v>99</v>
       </c>
       <c r="AJ160" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="AK160" t="s">
         <v>88</v>
@@ -43764,10 +43908,10 @@
         <v>99</v>
       </c>
       <c r="AS160" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AT160" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AU160" t="s">
         <v>95</v>
@@ -43779,10 +43923,10 @@
         <v>129</v>
       </c>
       <c r="AX160" s="1">
-        <v>44608</v>
+        <v>44585</v>
       </c>
       <c r="AY160" s="1">
-        <v>44605</v>
+        <v>44585</v>
       </c>
       <c r="AZ160" t="s">
         <v>93</v>
@@ -43803,10 +43947,10 @@
         <v>155</v>
       </c>
       <c r="BF160" t="s">
-        <v>1307</v>
+        <v>156</v>
       </c>
       <c r="BG160" s="1">
-        <v>43504</v>
+        <v>32999</v>
       </c>
       <c r="BH160" t="s">
         <v>88</v>
@@ -43818,19 +43962,19 @@
         <v>88</v>
       </c>
       <c r="BL160" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM160" t="s">
-        <v>804</v>
+        <v>157</v>
       </c>
       <c r="BN160" t="s">
-        <v>651</v>
+        <v>158</v>
       </c>
       <c r="BO160" s="1">
-        <v>44610</v>
+        <v>44585</v>
       </c>
       <c r="BP160" t="s">
-        <v>206</v>
+        <v>159</v>
       </c>
       <c r="BQ160" t="s">
         <v>88</v>
@@ -43842,13 +43986,13 @@
         <v>88</v>
       </c>
       <c r="BT160" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="BU160" t="s">
         <v>116</v>
       </c>
       <c r="BV160" t="s">
-        <v>207</v>
+        <v>161</v>
       </c>
       <c r="BW160" t="s">
         <v>96</v>
@@ -43875,7 +44019,7 @@
         <v>120</v>
       </c>
       <c r="CE160">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="161" spans="1:83" x14ac:dyDescent="0.15">
@@ -43883,40 +44027,40 @@
         <v>82</v>
       </c>
       <c r="B161" s="1">
-        <v>44610</v>
+        <v>44590</v>
       </c>
       <c r="C161" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="D161" t="s">
         <v>84</v>
       </c>
       <c r="E161" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="F161" t="s">
-        <v>208</v>
+        <v>86</v>
       </c>
       <c r="G161" t="s">
-        <v>1308</v>
+        <v>729</v>
       </c>
       <c r="H161" t="s">
-        <v>711</v>
+        <v>1309</v>
       </c>
       <c r="I161" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="J161" t="s">
-        <v>175</v>
+        <v>510</v>
       </c>
       <c r="K161" t="s">
-        <v>254</v>
+        <v>148</v>
       </c>
       <c r="L161" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="M161" t="s">
-        <v>1311</v>
+        <v>769</v>
       </c>
       <c r="N161" t="s">
         <v>94</v>
@@ -43928,7 +44072,7 @@
         <v>96</v>
       </c>
       <c r="Q161" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="R161" t="s">
         <v>95</v>
@@ -43940,37 +44084,37 @@
         <v>129</v>
       </c>
       <c r="U161" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="V161" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="W161" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="X161" t="s">
         <v>88</v>
       </c>
       <c r="Y161" t="s">
-        <v>88</v>
+        <v>201</v>
       </c>
       <c r="Z161" t="s">
         <v>1312</v>
       </c>
       <c r="AA161" t="s">
-        <v>259</v>
+        <v>132</v>
       </c>
       <c r="AB161" t="s">
         <v>133</v>
       </c>
       <c r="AC161" t="s">
-        <v>741</v>
+        <v>134</v>
       </c>
       <c r="AD161" t="s">
         <v>105</v>
       </c>
       <c r="AF161" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="AG161" t="s">
         <v>99</v>
@@ -43985,7 +44129,7 @@
         <v>99</v>
       </c>
       <c r="AK161" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AL161" t="s">
         <v>88</v>
@@ -43997,7 +44141,7 @@
         <v>99</v>
       </c>
       <c r="AO161" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AP161" t="s">
         <v>99</v>
@@ -44024,10 +44168,10 @@
         <v>129</v>
       </c>
       <c r="AX161" s="1">
-        <v>44610</v>
+        <v>44588</v>
       </c>
       <c r="AY161" s="1">
-        <v>44609</v>
+        <v>44586</v>
       </c>
       <c r="AZ161" t="s">
         <v>93</v>
@@ -44051,7 +44195,7 @@
         <v>1313</v>
       </c>
       <c r="BG161" s="1">
-        <v>40979</v>
+        <v>36204</v>
       </c>
       <c r="BH161" t="s">
         <v>88</v>
@@ -44063,19 +44207,19 @@
         <v>88</v>
       </c>
       <c r="BL161" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM161" t="s">
-        <v>1314</v>
+        <v>1293</v>
       </c>
       <c r="BN161" t="s">
-        <v>113</v>
+        <v>764</v>
       </c>
       <c r="BO161" s="1">
-        <v>44615</v>
+        <v>44590</v>
       </c>
       <c r="BP161" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="BQ161" t="s">
         <v>88</v>
@@ -44087,13 +44231,13 @@
         <v>88</v>
       </c>
       <c r="BT161" t="s">
-        <v>1156</v>
+        <v>195</v>
       </c>
       <c r="BU161" t="s">
         <v>116</v>
       </c>
       <c r="BV161" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="BW161" t="s">
         <v>96</v>
@@ -44120,7 +44264,7 @@
         <v>120</v>
       </c>
       <c r="CE161">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="162" spans="1:83" x14ac:dyDescent="0.15">
@@ -44128,40 +44272,40 @@
         <v>82</v>
       </c>
       <c r="B162" s="1">
-        <v>44670</v>
+        <v>44628</v>
       </c>
       <c r="C162" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="D162" t="s">
         <v>84</v>
       </c>
       <c r="E162" t="s">
-        <v>250</v>
+        <v>535</v>
       </c>
       <c r="F162" t="s">
-        <v>86</v>
+        <v>226</v>
       </c>
       <c r="G162" t="s">
+        <v>426</v>
+      </c>
+      <c r="H162" t="s">
+        <v>88</v>
+      </c>
+      <c r="I162" t="s">
+        <v>1314</v>
+      </c>
+      <c r="J162" t="s">
+        <v>88</v>
+      </c>
+      <c r="K162" t="s">
+        <v>148</v>
+      </c>
+      <c r="L162" t="s">
         <v>1315</v>
       </c>
-      <c r="H162" t="s">
-        <v>407</v>
-      </c>
-      <c r="I162" t="s">
-        <v>1316</v>
-      </c>
-      <c r="J162" t="s">
-        <v>1317</v>
-      </c>
-      <c r="K162" t="s">
-        <v>254</v>
-      </c>
-      <c r="L162" t="s">
-        <v>1318</v>
-      </c>
       <c r="M162" t="s">
-        <v>335</v>
+        <v>290</v>
       </c>
       <c r="N162" t="s">
         <v>94</v>
@@ -44179,43 +44323,43 @@
         <v>95</v>
       </c>
       <c r="S162" t="s">
-        <v>454</v>
+        <v>98</v>
       </c>
       <c r="T162" t="s">
-        <v>1319</v>
+        <v>129</v>
       </c>
       <c r="U162" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="V162" t="s">
-        <v>88</v>
+        <v>186</v>
       </c>
       <c r="W162" t="s">
-        <v>1320</v>
+        <v>88</v>
       </c>
       <c r="X162" t="s">
         <v>88</v>
       </c>
       <c r="Y162" t="s">
-        <v>88</v>
+        <v>186</v>
       </c>
       <c r="Z162" t="s">
-        <v>1321</v>
+        <v>1316</v>
       </c>
       <c r="AA162" t="s">
         <v>259</v>
       </c>
       <c r="AB162" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="AC162" t="s">
-        <v>260</v>
+        <v>347</v>
       </c>
       <c r="AD162" t="s">
         <v>105</v>
       </c>
       <c r="AF162" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AG162" t="s">
         <v>99</v>
@@ -44263,16 +44407,16 @@
         <v>95</v>
       </c>
       <c r="AV162" t="s">
-        <v>454</v>
+        <v>98</v>
       </c>
       <c r="AW162" t="s">
-        <v>1319</v>
+        <v>129</v>
       </c>
       <c r="AX162" s="1">
-        <v>44610</v>
+        <v>44585</v>
       </c>
       <c r="AY162" s="1">
-        <v>44606</v>
+        <v>44584</v>
       </c>
       <c r="AZ162" t="s">
         <v>93</v>
@@ -44293,10 +44437,10 @@
         <v>155</v>
       </c>
       <c r="BF162" t="s">
-        <v>1322</v>
+        <v>1317</v>
       </c>
       <c r="BG162" s="1">
-        <v>38694</v>
+        <v>36155</v>
       </c>
       <c r="BH162" t="s">
         <v>88</v>
@@ -44308,19 +44452,19 @@
         <v>88</v>
       </c>
       <c r="BL162" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM162" t="s">
-        <v>1323</v>
+        <v>1318</v>
       </c>
       <c r="BN162" t="s">
-        <v>263</v>
+        <v>545</v>
       </c>
       <c r="BO162" s="1">
-        <v>44670</v>
+        <v>44628</v>
       </c>
       <c r="BP162" t="s">
-        <v>264</v>
+        <v>546</v>
       </c>
       <c r="BQ162" t="s">
         <v>88</v>
@@ -44332,31 +44476,31 @@
         <v>88</v>
       </c>
       <c r="BT162" t="s">
-        <v>141</v>
+        <v>223</v>
       </c>
       <c r="BU162" t="s">
         <v>116</v>
       </c>
       <c r="BV162" t="s">
-        <v>265</v>
+        <v>547</v>
       </c>
       <c r="BW162" t="s">
         <v>96</v>
       </c>
       <c r="BX162" t="s">
-        <v>1324</v>
+        <v>118</v>
       </c>
       <c r="BY162" t="s">
-        <v>1325</v>
+        <v>120</v>
       </c>
       <c r="BZ162" t="s">
         <v>96</v>
       </c>
       <c r="CA162" t="s">
-        <v>1324</v>
+        <v>118</v>
       </c>
       <c r="CB162" t="s">
-        <v>1325</v>
+        <v>120</v>
       </c>
       <c r="CC162" t="s">
         <v>118</v>
@@ -44365,7 +44509,7 @@
         <v>120</v>
       </c>
       <c r="CE162">
-        <v>74</v>
+        <v>49</v>
       </c>
     </row>
     <row r="163" spans="1:83" x14ac:dyDescent="0.15">
@@ -44373,40 +44517,40 @@
         <v>82</v>
       </c>
       <c r="B163" s="1">
-        <v>44620</v>
+        <v>44588</v>
       </c>
       <c r="C163" t="s">
-        <v>356</v>
+        <v>93</v>
       </c>
       <c r="D163" t="s">
         <v>84</v>
       </c>
       <c r="E163" t="s">
-        <v>993</v>
+        <v>209</v>
       </c>
       <c r="F163" t="s">
         <v>86</v>
       </c>
       <c r="G163" t="s">
-        <v>1326</v>
+        <v>1319</v>
       </c>
       <c r="H163" t="s">
-        <v>1327</v>
+        <v>88</v>
       </c>
       <c r="I163" t="s">
-        <v>1256</v>
+        <v>782</v>
       </c>
       <c r="J163" t="s">
-        <v>939</v>
+        <v>309</v>
       </c>
       <c r="K163" t="s">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="L163" t="s">
-        <v>1328</v>
+        <v>1320</v>
       </c>
       <c r="M163" t="s">
-        <v>784</v>
+        <v>94</v>
       </c>
       <c r="N163" t="s">
         <v>94</v>
@@ -44427,7 +44571,7 @@
         <v>98</v>
       </c>
       <c r="T163" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="U163" t="s">
         <v>94</v>
@@ -44442,25 +44586,25 @@
         <v>88</v>
       </c>
       <c r="Y163" t="s">
-        <v>201</v>
+        <v>1321</v>
       </c>
       <c r="Z163" t="s">
-        <v>1329</v>
+        <v>1322</v>
       </c>
       <c r="AA163" t="s">
-        <v>1330</v>
+        <v>132</v>
       </c>
       <c r="AB163" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="AC163" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="AD163" t="s">
         <v>105</v>
       </c>
       <c r="AF163" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="AG163" t="s">
         <v>99</v>
@@ -44511,13 +44655,13 @@
         <v>98</v>
       </c>
       <c r="AW163" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="AX163" s="1">
-        <v>44620</v>
+        <v>44588</v>
       </c>
       <c r="AY163" s="1">
-        <v>44616</v>
+        <v>44585</v>
       </c>
       <c r="AZ163" t="s">
         <v>93</v>
@@ -44538,10 +44682,10 @@
         <v>155</v>
       </c>
       <c r="BF163" t="s">
-        <v>1331</v>
+        <v>1323</v>
       </c>
       <c r="BG163" s="1">
-        <v>31112</v>
+        <v>44203</v>
       </c>
       <c r="BH163" t="s">
         <v>88</v>
@@ -44553,19 +44697,19 @@
         <v>88</v>
       </c>
       <c r="BL163" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM163" t="s">
-        <v>1332</v>
+        <v>1324</v>
       </c>
       <c r="BN163" t="s">
-        <v>1003</v>
+        <v>378</v>
       </c>
       <c r="BO163" s="1">
-        <v>44620</v>
+        <v>44589</v>
       </c>
       <c r="BP163" t="s">
-        <v>1004</v>
+        <v>222</v>
       </c>
       <c r="BQ163" t="s">
         <v>88</v>
@@ -44577,13 +44721,13 @@
         <v>88</v>
       </c>
       <c r="BT163" t="s">
-        <v>223</v>
+        <v>1325</v>
       </c>
       <c r="BU163" t="s">
         <v>116</v>
       </c>
       <c r="BV163" t="s">
-        <v>1005</v>
+        <v>224</v>
       </c>
       <c r="BW163" t="s">
         <v>96</v>
@@ -44592,7 +44736,7 @@
         <v>118</v>
       </c>
       <c r="BY163" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BZ163" t="s">
         <v>96</v>
@@ -44601,7 +44745,7 @@
         <v>118</v>
       </c>
       <c r="CB163" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="CC163" t="s">
         <v>118</v>
@@ -44610,7 +44754,7 @@
         <v>120</v>
       </c>
       <c r="CE163">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="164" spans="1:83" x14ac:dyDescent="0.15">
@@ -44618,40 +44762,40 @@
         <v>82</v>
       </c>
       <c r="B164" s="1">
-        <v>44618</v>
+        <v>44594</v>
       </c>
       <c r="C164" t="s">
-        <v>356</v>
+        <v>121</v>
       </c>
       <c r="D164" t="s">
         <v>84</v>
       </c>
       <c r="E164" t="s">
-        <v>209</v>
+        <v>85</v>
       </c>
       <c r="F164" t="s">
-        <v>86</v>
+        <v>572</v>
       </c>
       <c r="G164" t="s">
-        <v>1333</v>
+        <v>779</v>
       </c>
       <c r="H164" t="s">
-        <v>88</v>
+        <v>973</v>
       </c>
       <c r="I164" t="s">
-        <v>1334</v>
+        <v>905</v>
       </c>
       <c r="J164" t="s">
-        <v>1335</v>
+        <v>939</v>
       </c>
       <c r="K164" t="s">
-        <v>91</v>
+        <v>148</v>
       </c>
       <c r="L164" t="s">
-        <v>1336</v>
+        <v>1326</v>
       </c>
       <c r="M164" t="s">
-        <v>99</v>
+        <v>167</v>
       </c>
       <c r="N164" t="s">
         <v>94</v>
@@ -44663,7 +44807,7 @@
         <v>96</v>
       </c>
       <c r="Q164" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="R164" t="s">
         <v>95</v>
@@ -44672,40 +44816,40 @@
         <v>98</v>
       </c>
       <c r="T164" t="s">
-        <v>95</v>
+        <v>1327</v>
       </c>
       <c r="U164" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="V164" t="s">
-        <v>215</v>
+        <v>88</v>
       </c>
       <c r="W164" t="s">
         <v>88</v>
       </c>
       <c r="X164" t="s">
-        <v>88</v>
+        <v>1328</v>
       </c>
       <c r="Y164" t="s">
-        <v>1337</v>
+        <v>88</v>
       </c>
       <c r="Z164" t="s">
-        <v>1338</v>
+        <v>1329</v>
       </c>
       <c r="AA164" t="s">
-        <v>132</v>
+        <v>809</v>
       </c>
       <c r="AB164" t="s">
         <v>133</v>
       </c>
       <c r="AC164" t="s">
-        <v>134</v>
+        <v>294</v>
       </c>
       <c r="AD164" t="s">
         <v>105</v>
       </c>
       <c r="AF164" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="AG164" t="s">
         <v>99</v>
@@ -44720,7 +44864,7 @@
         <v>99</v>
       </c>
       <c r="AK164" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="AL164" t="s">
         <v>88</v>
@@ -44732,7 +44876,7 @@
         <v>99</v>
       </c>
       <c r="AO164" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="AP164" t="s">
         <v>99</v>
@@ -44756,13 +44900,13 @@
         <v>98</v>
       </c>
       <c r="AW164" t="s">
-        <v>95</v>
+        <v>1330</v>
       </c>
       <c r="AX164" s="1">
-        <v>44618</v>
+        <v>44594</v>
       </c>
       <c r="AY164" s="1">
-        <v>44617</v>
+        <v>44591</v>
       </c>
       <c r="AZ164" t="s">
         <v>93</v>
@@ -44783,10 +44927,10 @@
         <v>155</v>
       </c>
       <c r="BF164" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
       <c r="BG164" s="1">
-        <v>43616</v>
+        <v>30833</v>
       </c>
       <c r="BH164" t="s">
         <v>88</v>
@@ -44798,19 +44942,19 @@
         <v>88</v>
       </c>
       <c r="BL164" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM164" t="s">
-        <v>570</v>
+        <v>1332</v>
       </c>
       <c r="BN164" t="s">
-        <v>1340</v>
+        <v>113</v>
       </c>
       <c r="BO164" s="1">
-        <v>44620</v>
+        <v>44598</v>
       </c>
       <c r="BP164" t="s">
-        <v>222</v>
+        <v>114</v>
       </c>
       <c r="BQ164" t="s">
         <v>88</v>
@@ -44828,7 +44972,7 @@
         <v>116</v>
       </c>
       <c r="BV164" t="s">
-        <v>224</v>
+        <v>111</v>
       </c>
       <c r="BW164" t="s">
         <v>96</v>
@@ -44837,7 +44981,7 @@
         <v>118</v>
       </c>
       <c r="BY164" t="s">
-        <v>119</v>
+        <v>1333</v>
       </c>
       <c r="BZ164" t="s">
         <v>96</v>
@@ -44846,7 +44990,7 @@
         <v>118</v>
       </c>
       <c r="CB164" t="s">
-        <v>119</v>
+        <v>1334</v>
       </c>
       <c r="CC164" t="s">
         <v>118</v>
@@ -44855,7 +44999,7 @@
         <v>120</v>
       </c>
       <c r="CE164">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="165" spans="1:83" x14ac:dyDescent="0.15">
@@ -44863,40 +45007,40 @@
         <v>82</v>
       </c>
       <c r="B165" s="1">
-        <v>44620</v>
+        <v>44592</v>
       </c>
       <c r="C165" t="s">
-        <v>356</v>
+        <v>121</v>
       </c>
       <c r="D165" t="s">
         <v>84</v>
       </c>
       <c r="E165" t="s">
-        <v>209</v>
+        <v>85</v>
       </c>
       <c r="F165" t="s">
-        <v>86</v>
+        <v>208</v>
       </c>
       <c r="G165" t="s">
-        <v>1341</v>
+        <v>330</v>
       </c>
       <c r="H165" t="s">
-        <v>88</v>
+        <v>227</v>
       </c>
       <c r="I165" t="s">
-        <v>212</v>
+        <v>431</v>
       </c>
       <c r="J165" t="s">
-        <v>1342</v>
+        <v>310</v>
       </c>
       <c r="K165" t="s">
-        <v>91</v>
+        <v>254</v>
       </c>
       <c r="L165" t="s">
-        <v>1343</v>
+        <v>1335</v>
       </c>
       <c r="M165" t="s">
-        <v>93</v>
+        <v>256</v>
       </c>
       <c r="N165" t="s">
         <v>94</v>
@@ -44917,40 +45061,40 @@
         <v>98</v>
       </c>
       <c r="T165" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="U165" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="V165" t="s">
-        <v>215</v>
+        <v>88</v>
       </c>
       <c r="W165" t="s">
-        <v>88</v>
+        <v>832</v>
       </c>
       <c r="X165" t="s">
         <v>88</v>
       </c>
       <c r="Y165" t="s">
-        <v>1344</v>
+        <v>88</v>
       </c>
       <c r="Z165" t="s">
-        <v>1345</v>
+        <v>1336</v>
       </c>
       <c r="AA165" t="s">
-        <v>102</v>
+        <v>259</v>
       </c>
       <c r="AB165" t="s">
         <v>133</v>
       </c>
       <c r="AC165" t="s">
-        <v>190</v>
+        <v>294</v>
       </c>
       <c r="AD165" t="s">
         <v>105</v>
       </c>
       <c r="AF165" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="AG165" t="s">
         <v>99</v>
@@ -45001,13 +45145,13 @@
         <v>98</v>
       </c>
       <c r="AW165" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="AX165" s="1">
-        <v>44620</v>
+        <v>44592</v>
       </c>
       <c r="AY165" s="1">
-        <v>44618</v>
+        <v>44591</v>
       </c>
       <c r="AZ165" t="s">
         <v>93</v>
@@ -45028,10 +45172,10 @@
         <v>155</v>
       </c>
       <c r="BF165" t="s">
-        <v>1346</v>
+        <v>1337</v>
       </c>
       <c r="BG165" s="1">
-        <v>43136</v>
+        <v>39050</v>
       </c>
       <c r="BH165" t="s">
         <v>88</v>
@@ -45043,19 +45187,19 @@
         <v>88</v>
       </c>
       <c r="BL165" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM165" t="s">
-        <v>274</v>
+        <v>1338</v>
       </c>
       <c r="BN165" t="s">
-        <v>275</v>
+        <v>113</v>
       </c>
       <c r="BO165" s="1">
-        <v>44623</v>
+        <v>44598</v>
       </c>
       <c r="BP165" t="s">
-        <v>222</v>
+        <v>114</v>
       </c>
       <c r="BQ165" t="s">
         <v>88</v>
@@ -45073,7 +45217,7 @@
         <v>116</v>
       </c>
       <c r="BV165" t="s">
-        <v>224</v>
+        <v>111</v>
       </c>
       <c r="BW165" t="s">
         <v>96</v>
@@ -45082,7 +45226,7 @@
         <v>118</v>
       </c>
       <c r="BY165" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BZ165" t="s">
         <v>96</v>
@@ -45091,7 +45235,7 @@
         <v>118</v>
       </c>
       <c r="CB165" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="CC165" t="s">
         <v>118</v>
@@ -45100,7 +45244,7 @@
         <v>120</v>
       </c>
       <c r="CE165">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="166" spans="1:83" x14ac:dyDescent="0.15">
@@ -45108,40 +45252,40 @@
         <v>82</v>
       </c>
       <c r="B166" s="1">
-        <v>44620</v>
+        <v>44717</v>
       </c>
       <c r="C166" t="s">
-        <v>356</v>
+        <v>121</v>
       </c>
       <c r="D166" t="s">
         <v>84</v>
       </c>
       <c r="E166" t="s">
-        <v>85</v>
+        <v>209</v>
       </c>
       <c r="F166" t="s">
-        <v>208</v>
+        <v>86</v>
       </c>
       <c r="G166" t="s">
-        <v>1347</v>
+        <v>319</v>
       </c>
       <c r="H166" t="s">
-        <v>88</v>
+        <v>251</v>
       </c>
       <c r="I166" t="s">
-        <v>1348</v>
+        <v>1339</v>
       </c>
       <c r="J166" t="s">
-        <v>241</v>
+        <v>1340</v>
       </c>
       <c r="K166" t="s">
         <v>254</v>
       </c>
       <c r="L166" t="s">
-        <v>1349</v>
+        <v>1341</v>
       </c>
       <c r="M166" t="s">
-        <v>108</v>
+        <v>208</v>
       </c>
       <c r="N166" t="s">
         <v>94</v>
@@ -45165,22 +45309,22 @@
         <v>129</v>
       </c>
       <c r="U166" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="V166" t="s">
-        <v>88</v>
+        <v>215</v>
       </c>
       <c r="W166" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="X166" t="s">
         <v>88</v>
       </c>
       <c r="Y166" t="s">
-        <v>88</v>
+        <v>1342</v>
       </c>
       <c r="Z166" t="s">
-        <v>1350</v>
+        <v>1343</v>
       </c>
       <c r="AA166" t="s">
         <v>259</v>
@@ -45189,7 +45333,7 @@
         <v>133</v>
       </c>
       <c r="AC166" t="s">
-        <v>134</v>
+        <v>190</v>
       </c>
       <c r="AD166" t="s">
         <v>105</v>
@@ -45249,10 +45393,10 @@
         <v>129</v>
       </c>
       <c r="AX166" s="1">
-        <v>44620</v>
+        <v>44716</v>
       </c>
       <c r="AY166" s="1">
-        <v>44617</v>
+        <v>44594</v>
       </c>
       <c r="AZ166" t="s">
         <v>93</v>
@@ -45273,10 +45417,10 @@
         <v>155</v>
       </c>
       <c r="BF166" t="s">
-        <v>1351</v>
+        <v>1344</v>
       </c>
       <c r="BG166" s="1">
-        <v>41709</v>
+        <v>40761</v>
       </c>
       <c r="BH166" t="s">
         <v>88</v>
@@ -45288,19 +45432,19 @@
         <v>88</v>
       </c>
       <c r="BL166" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM166" t="s">
-        <v>368</v>
+        <v>1345</v>
       </c>
       <c r="BN166" t="s">
-        <v>113</v>
+        <v>378</v>
       </c>
       <c r="BO166" s="1">
-        <v>44622</v>
+        <v>44737</v>
       </c>
       <c r="BP166" t="s">
-        <v>114</v>
+        <v>222</v>
       </c>
       <c r="BQ166" t="s">
         <v>88</v>
@@ -45312,13 +45456,13 @@
         <v>88</v>
       </c>
       <c r="BT166" t="s">
-        <v>223</v>
+        <v>465</v>
       </c>
       <c r="BU166" t="s">
         <v>116</v>
       </c>
       <c r="BV166" t="s">
-        <v>111</v>
+        <v>224</v>
       </c>
       <c r="BW166" t="s">
         <v>96</v>
@@ -45345,7 +45489,7 @@
         <v>120</v>
       </c>
       <c r="CE166">
-        <v>34</v>
+        <v>138</v>
       </c>
     </row>
     <row r="167" spans="1:83" x14ac:dyDescent="0.15">
@@ -45353,10 +45497,10 @@
         <v>82</v>
       </c>
       <c r="B167" s="1">
-        <v>44615</v>
+        <v>44609</v>
       </c>
       <c r="C167" t="s">
-        <v>356</v>
+        <v>105</v>
       </c>
       <c r="D167" t="s">
         <v>84</v>
@@ -45368,25 +45512,25 @@
         <v>86</v>
       </c>
       <c r="G167" t="s">
-        <v>1302</v>
+        <v>1346</v>
       </c>
       <c r="H167" t="s">
         <v>88</v>
       </c>
       <c r="I167" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
       <c r="J167" t="s">
-        <v>170</v>
+        <v>467</v>
       </c>
       <c r="K167" t="s">
-        <v>254</v>
+        <v>91</v>
       </c>
       <c r="L167" t="s">
-        <v>1353</v>
+        <v>1348</v>
       </c>
       <c r="M167" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="N167" t="s">
         <v>94</v>
@@ -45422,13 +45566,13 @@
         <v>88</v>
       </c>
       <c r="Y167" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="Z167" t="s">
-        <v>1354</v>
+        <v>1349</v>
       </c>
       <c r="AA167" t="s">
-        <v>259</v>
+        <v>132</v>
       </c>
       <c r="AB167" t="s">
         <v>133</v>
@@ -45494,10 +45638,10 @@
         <v>129</v>
       </c>
       <c r="AX167" s="1">
-        <v>44613</v>
+        <v>44607</v>
       </c>
       <c r="AY167" s="1">
-        <v>44612</v>
+        <v>44604</v>
       </c>
       <c r="AZ167" t="s">
         <v>93</v>
@@ -45518,10 +45662,10 @@
         <v>155</v>
       </c>
       <c r="BF167" t="s">
-        <v>1355</v>
+        <v>1350</v>
       </c>
       <c r="BG167" s="1">
-        <v>41724</v>
+        <v>43485</v>
       </c>
       <c r="BH167" t="s">
         <v>88</v>
@@ -45533,16 +45677,16 @@
         <v>88</v>
       </c>
       <c r="BL167" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM167" t="s">
-        <v>1356</v>
+        <v>1351</v>
       </c>
       <c r="BN167" t="s">
         <v>389</v>
       </c>
       <c r="BO167" s="1">
-        <v>44615</v>
+        <v>44609</v>
       </c>
       <c r="BP167" t="s">
         <v>140</v>
@@ -45590,7 +45734,7 @@
         <v>120</v>
       </c>
       <c r="CE167">
-        <v>29</v>
+        <v>136</v>
       </c>
     </row>
     <row r="168" spans="1:83" x14ac:dyDescent="0.15">
@@ -45598,40 +45742,40 @@
         <v>82</v>
       </c>
       <c r="B168" s="1">
-        <v>44618</v>
+        <v>44608</v>
       </c>
       <c r="C168" t="s">
-        <v>356</v>
+        <v>108</v>
       </c>
       <c r="D168" t="s">
         <v>84</v>
       </c>
       <c r="E168" t="s">
-        <v>85</v>
+        <v>197</v>
       </c>
       <c r="F168" t="s">
-        <v>208</v>
+        <v>86</v>
       </c>
       <c r="G168" t="s">
-        <v>426</v>
+        <v>1352</v>
       </c>
       <c r="H168" t="s">
-        <v>88</v>
+        <v>1353</v>
       </c>
       <c r="I168" t="s">
-        <v>752</v>
+        <v>600</v>
       </c>
       <c r="J168" t="s">
-        <v>310</v>
+        <v>1354</v>
       </c>
       <c r="K168" t="s">
-        <v>254</v>
+        <v>91</v>
       </c>
       <c r="L168" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="M168" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="N168" t="s">
         <v>94</v>
@@ -45643,7 +45787,7 @@
         <v>96</v>
       </c>
       <c r="Q168" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="R168" t="s">
         <v>95</v>
@@ -45655,31 +45799,31 @@
         <v>129</v>
       </c>
       <c r="U168" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="V168" t="s">
-        <v>88</v>
+        <v>186</v>
       </c>
       <c r="W168" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="X168" t="s">
         <v>88</v>
       </c>
       <c r="Y168" t="s">
-        <v>88</v>
+        <v>201</v>
       </c>
       <c r="Z168" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="AA168" t="s">
-        <v>259</v>
+        <v>132</v>
       </c>
       <c r="AB168" t="s">
         <v>133</v>
       </c>
       <c r="AC168" t="s">
-        <v>294</v>
+        <v>190</v>
       </c>
       <c r="AD168" t="s">
         <v>105</v>
@@ -45700,7 +45844,7 @@
         <v>99</v>
       </c>
       <c r="AK168" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="AL168" t="s">
         <v>88</v>
@@ -45712,7 +45856,7 @@
         <v>99</v>
       </c>
       <c r="AO168" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="AP168" t="s">
         <v>99</v>
@@ -45739,10 +45883,10 @@
         <v>129</v>
       </c>
       <c r="AX168" s="1">
-        <v>44618</v>
+        <v>44608</v>
       </c>
       <c r="AY168" s="1">
-        <v>44617</v>
+        <v>44605</v>
       </c>
       <c r="AZ168" t="s">
         <v>93</v>
@@ -45763,10 +45907,10 @@
         <v>155</v>
       </c>
       <c r="BF168" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="BG168" s="1">
-        <v>41755</v>
+        <v>43504</v>
       </c>
       <c r="BH168" t="s">
         <v>88</v>
@@ -45778,19 +45922,19 @@
         <v>88</v>
       </c>
       <c r="BL168" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM168" t="s">
-        <v>1360</v>
+        <v>804</v>
       </c>
       <c r="BN168" t="s">
-        <v>113</v>
+        <v>651</v>
       </c>
       <c r="BO168" s="1">
-        <v>44621</v>
+        <v>44610</v>
       </c>
       <c r="BP168" t="s">
-        <v>114</v>
+        <v>206</v>
       </c>
       <c r="BQ168" t="s">
         <v>88</v>
@@ -45808,7 +45952,7 @@
         <v>116</v>
       </c>
       <c r="BV168" t="s">
-        <v>111</v>
+        <v>207</v>
       </c>
       <c r="BW168" t="s">
         <v>96</v>
@@ -45835,7 +45979,7 @@
         <v>120</v>
       </c>
       <c r="CE168">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="169" spans="1:83" x14ac:dyDescent="0.15">
@@ -45843,40 +45987,40 @@
         <v>82</v>
       </c>
       <c r="B169" s="1">
-        <v>44614</v>
+        <v>44610</v>
       </c>
       <c r="C169" t="s">
-        <v>356</v>
+        <v>108</v>
       </c>
       <c r="D169" t="s">
         <v>84</v>
       </c>
       <c r="E169" t="s">
-        <v>209</v>
+        <v>85</v>
       </c>
       <c r="F169" t="s">
-        <v>86</v>
+        <v>208</v>
       </c>
       <c r="G169" t="s">
-        <v>873</v>
+        <v>1358</v>
       </c>
       <c r="H169" t="s">
-        <v>88</v>
+        <v>711</v>
       </c>
       <c r="I169" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="J169" t="s">
-        <v>1264</v>
+        <v>175</v>
       </c>
       <c r="K169" t="s">
         <v>254</v>
       </c>
       <c r="L169" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="M169" t="s">
-        <v>335</v>
+        <v>1361</v>
       </c>
       <c r="N169" t="s">
         <v>94</v>
@@ -45888,7 +46032,7 @@
         <v>96</v>
       </c>
       <c r="Q169" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="R169" t="s">
         <v>95</v>
@@ -45900,22 +46044,22 @@
         <v>129</v>
       </c>
       <c r="U169" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="V169" t="s">
-        <v>215</v>
+        <v>88</v>
       </c>
       <c r="W169" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="X169" t="s">
         <v>88</v>
       </c>
       <c r="Y169" t="s">
-        <v>1363</v>
+        <v>88</v>
       </c>
       <c r="Z169" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="AA169" t="s">
         <v>259</v>
@@ -45924,13 +46068,13 @@
         <v>133</v>
       </c>
       <c r="AC169" t="s">
-        <v>190</v>
+        <v>741</v>
       </c>
       <c r="AD169" t="s">
         <v>105</v>
       </c>
       <c r="AF169" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="AG169" t="s">
         <v>99</v>
@@ -45945,7 +46089,7 @@
         <v>99</v>
       </c>
       <c r="AK169" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="AL169" t="s">
         <v>88</v>
@@ -45957,7 +46101,7 @@
         <v>99</v>
       </c>
       <c r="AO169" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="AP169" t="s">
         <v>99</v>
@@ -45984,10 +46128,10 @@
         <v>129</v>
       </c>
       <c r="AX169" s="1">
-        <v>44614</v>
+        <v>44610</v>
       </c>
       <c r="AY169" s="1">
-        <v>44612</v>
+        <v>44609</v>
       </c>
       <c r="AZ169" t="s">
         <v>93</v>
@@ -46008,10 +46152,10 @@
         <v>155</v>
       </c>
       <c r="BF169" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="BG169" s="1">
-        <v>38646</v>
+        <v>40979</v>
       </c>
       <c r="BH169" t="s">
         <v>88</v>
@@ -46023,19 +46167,19 @@
         <v>88</v>
       </c>
       <c r="BL169" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM169" t="s">
-        <v>627</v>
+        <v>1364</v>
       </c>
       <c r="BN169" t="s">
-        <v>628</v>
+        <v>113</v>
       </c>
       <c r="BO169" s="1">
-        <v>44616</v>
+        <v>44615</v>
       </c>
       <c r="BP169" t="s">
-        <v>222</v>
+        <v>114</v>
       </c>
       <c r="BQ169" t="s">
         <v>88</v>
@@ -46053,7 +46197,7 @@
         <v>116</v>
       </c>
       <c r="BV169" t="s">
-        <v>224</v>
+        <v>111</v>
       </c>
       <c r="BW169" t="s">
         <v>96</v>
@@ -46080,7 +46224,7 @@
         <v>120</v>
       </c>
       <c r="CE169">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="170" spans="1:83" x14ac:dyDescent="0.15">
@@ -46088,40 +46232,40 @@
         <v>82</v>
       </c>
       <c r="B170" s="1">
-        <v>44615</v>
+        <v>44670</v>
       </c>
       <c r="C170" t="s">
-        <v>356</v>
+        <v>108</v>
       </c>
       <c r="D170" t="s">
         <v>84</v>
       </c>
       <c r="E170" t="s">
-        <v>85</v>
+        <v>250</v>
       </c>
       <c r="F170" t="s">
         <v>86</v>
       </c>
       <c r="G170" t="s">
-        <v>645</v>
+        <v>1365</v>
       </c>
       <c r="H170" t="s">
-        <v>88</v>
+        <v>407</v>
       </c>
       <c r="I170" t="s">
-        <v>529</v>
+        <v>1366</v>
       </c>
       <c r="J170" t="s">
-        <v>510</v>
+        <v>1367</v>
       </c>
       <c r="K170" t="s">
         <v>254</v>
       </c>
       <c r="L170" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="M170" t="s">
-        <v>270</v>
+        <v>335</v>
       </c>
       <c r="N170" t="s">
         <v>94</v>
@@ -46139,10 +46283,10 @@
         <v>95</v>
       </c>
       <c r="S170" t="s">
-        <v>98</v>
+        <v>454</v>
       </c>
       <c r="T170" t="s">
-        <v>129</v>
+        <v>1369</v>
       </c>
       <c r="U170" t="s">
         <v>99</v>
@@ -46151,7 +46295,7 @@
         <v>88</v>
       </c>
       <c r="W170" t="s">
-        <v>497</v>
+        <v>1370</v>
       </c>
       <c r="X170" t="s">
         <v>88</v>
@@ -46160,22 +46304,22 @@
         <v>88</v>
       </c>
       <c r="Z170" t="s">
-        <v>1367</v>
+        <v>1371</v>
       </c>
       <c r="AA170" t="s">
         <v>259</v>
       </c>
       <c r="AB170" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="AC170" t="s">
-        <v>294</v>
+        <v>260</v>
       </c>
       <c r="AD170" t="s">
         <v>105</v>
       </c>
       <c r="AF170" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="AG170" t="s">
         <v>99</v>
@@ -46223,16 +46367,16 @@
         <v>95</v>
       </c>
       <c r="AV170" t="s">
-        <v>98</v>
+        <v>454</v>
       </c>
       <c r="AW170" t="s">
-        <v>129</v>
+        <v>1369</v>
       </c>
       <c r="AX170" s="1">
-        <v>44615</v>
+        <v>44610</v>
       </c>
       <c r="AY170" s="1">
-        <v>44614</v>
+        <v>44606</v>
       </c>
       <c r="AZ170" t="s">
         <v>93</v>
@@ -46253,10 +46397,10 @@
         <v>155</v>
       </c>
       <c r="BF170" t="s">
-        <v>1368</v>
+        <v>1372</v>
       </c>
       <c r="BG170" s="1">
-        <v>40237</v>
+        <v>38694</v>
       </c>
       <c r="BH170" t="s">
         <v>88</v>
@@ -46268,19 +46412,19 @@
         <v>88</v>
       </c>
       <c r="BL170" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM170" t="s">
-        <v>1369</v>
+        <v>1373</v>
       </c>
       <c r="BN170" t="s">
-        <v>113</v>
+        <v>263</v>
       </c>
       <c r="BO170" s="1">
-        <v>44616</v>
+        <v>44670</v>
       </c>
       <c r="BP170" t="s">
-        <v>114</v>
+        <v>264</v>
       </c>
       <c r="BQ170" t="s">
         <v>88</v>
@@ -46292,31 +46436,31 @@
         <v>88</v>
       </c>
       <c r="BT170" t="s">
-        <v>1156</v>
+        <v>141</v>
       </c>
       <c r="BU170" t="s">
         <v>116</v>
       </c>
       <c r="BV170" t="s">
-        <v>117</v>
+        <v>265</v>
       </c>
       <c r="BW170" t="s">
         <v>96</v>
       </c>
       <c r="BX170" t="s">
-        <v>118</v>
+        <v>1374</v>
       </c>
       <c r="BY170" t="s">
-        <v>120</v>
+        <v>1375</v>
       </c>
       <c r="BZ170" t="s">
         <v>96</v>
       </c>
       <c r="CA170" t="s">
-        <v>118</v>
+        <v>1374</v>
       </c>
       <c r="CB170" t="s">
-        <v>120</v>
+        <v>1375</v>
       </c>
       <c r="CC170" t="s">
         <v>118</v>
@@ -46325,7 +46469,7 @@
         <v>120</v>
       </c>
       <c r="CE170">
-        <v>31</v>
+        <v>74</v>
       </c>
     </row>
     <row r="171" spans="1:83" x14ac:dyDescent="0.15">
@@ -46333,40 +46477,40 @@
         <v>82</v>
       </c>
       <c r="B171" s="1">
-        <v>44623</v>
+        <v>44620</v>
       </c>
       <c r="C171" t="s">
-        <v>1311</v>
+        <v>356</v>
       </c>
       <c r="D171" t="s">
         <v>84</v>
       </c>
       <c r="E171" t="s">
-        <v>197</v>
+        <v>993</v>
       </c>
       <c r="F171" t="s">
         <v>86</v>
       </c>
       <c r="G171" t="s">
-        <v>319</v>
+        <v>1376</v>
       </c>
       <c r="H171" t="s">
-        <v>251</v>
+        <v>1377</v>
       </c>
       <c r="I171" t="s">
-        <v>288</v>
+        <v>1307</v>
       </c>
       <c r="J171" t="s">
-        <v>730</v>
+        <v>939</v>
       </c>
       <c r="K171" t="s">
-        <v>91</v>
+        <v>148</v>
       </c>
       <c r="L171" t="s">
-        <v>1370</v>
+        <v>1378</v>
       </c>
       <c r="M171" t="s">
-        <v>106</v>
+        <v>784</v>
       </c>
       <c r="N171" t="s">
         <v>94</v>
@@ -46393,7 +46537,7 @@
         <v>94</v>
       </c>
       <c r="V171" t="s">
-        <v>186</v>
+        <v>215</v>
       </c>
       <c r="W171" t="s">
         <v>88</v>
@@ -46405,22 +46549,22 @@
         <v>201</v>
       </c>
       <c r="Z171" t="s">
-        <v>1371</v>
+        <v>1379</v>
       </c>
       <c r="AA171" t="s">
-        <v>132</v>
+        <v>1380</v>
       </c>
       <c r="AB171" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="AC171" t="s">
-        <v>1372</v>
+        <v>154</v>
       </c>
       <c r="AD171" t="s">
         <v>105</v>
       </c>
       <c r="AF171" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="AG171" t="s">
         <v>99</v>
@@ -46474,10 +46618,10 @@
         <v>129</v>
       </c>
       <c r="AX171" s="1">
-        <v>44623</v>
+        <v>44620</v>
       </c>
       <c r="AY171" s="1">
-        <v>44621</v>
+        <v>44616</v>
       </c>
       <c r="AZ171" t="s">
         <v>93</v>
@@ -46498,10 +46642,10 @@
         <v>155</v>
       </c>
       <c r="BF171" t="s">
-        <v>1373</v>
+        <v>1381</v>
       </c>
       <c r="BG171" s="1">
-        <v>43489</v>
+        <v>31112</v>
       </c>
       <c r="BH171" t="s">
         <v>88</v>
@@ -46513,19 +46657,19 @@
         <v>88</v>
       </c>
       <c r="BL171" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM171" t="s">
-        <v>1374</v>
+        <v>1382</v>
       </c>
       <c r="BN171" t="s">
-        <v>651</v>
+        <v>1003</v>
       </c>
       <c r="BO171" s="1">
-        <v>44624</v>
+        <v>44620</v>
       </c>
       <c r="BP171" t="s">
-        <v>206</v>
+        <v>1004</v>
       </c>
       <c r="BQ171" t="s">
         <v>88</v>
@@ -46543,7 +46687,7 @@
         <v>116</v>
       </c>
       <c r="BV171" t="s">
-        <v>207</v>
+        <v>1005</v>
       </c>
       <c r="BW171" t="s">
         <v>96</v>
@@ -46570,7 +46714,7 @@
         <v>120</v>
       </c>
       <c r="CE171">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="172" spans="1:83" x14ac:dyDescent="0.15">
@@ -46578,40 +46722,40 @@
         <v>82</v>
       </c>
       <c r="B172" s="1">
-        <v>44653</v>
+        <v>44618</v>
       </c>
       <c r="C172" t="s">
-        <v>1311</v>
+        <v>356</v>
       </c>
       <c r="D172" t="s">
         <v>84</v>
       </c>
       <c r="E172" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="F172" t="s">
-        <v>226</v>
+        <v>86</v>
       </c>
       <c r="G172" t="s">
-        <v>308</v>
+        <v>1300</v>
       </c>
       <c r="H172" t="s">
         <v>88</v>
       </c>
       <c r="I172" t="s">
-        <v>1227</v>
+        <v>1383</v>
       </c>
       <c r="J172" t="s">
-        <v>1375</v>
+        <v>1384</v>
       </c>
       <c r="K172" t="s">
         <v>91</v>
       </c>
       <c r="L172" t="s">
-        <v>1376</v>
+        <v>1385</v>
       </c>
       <c r="M172" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="N172" t="s">
         <v>94</v>
@@ -46632,13 +46776,13 @@
         <v>98</v>
       </c>
       <c r="T172" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="U172" t="s">
         <v>94</v>
       </c>
       <c r="V172" t="s">
-        <v>186</v>
+        <v>215</v>
       </c>
       <c r="W172" t="s">
         <v>88</v>
@@ -46647,25 +46791,25 @@
         <v>88</v>
       </c>
       <c r="Y172" t="s">
-        <v>201</v>
+        <v>1386</v>
       </c>
       <c r="Z172" t="s">
-        <v>1377</v>
+        <v>1387</v>
       </c>
       <c r="AA172" t="s">
         <v>132</v>
       </c>
       <c r="AB172" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="AC172" t="s">
-        <v>1084</v>
+        <v>134</v>
       </c>
       <c r="AD172" t="s">
         <v>105</v>
       </c>
       <c r="AF172" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="AG172" t="s">
         <v>99</v>
@@ -46716,13 +46860,13 @@
         <v>98</v>
       </c>
       <c r="AW172" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="AX172" s="1">
-        <v>44652</v>
+        <v>44618</v>
       </c>
       <c r="AY172" s="1">
-        <v>44620</v>
+        <v>44617</v>
       </c>
       <c r="AZ172" t="s">
         <v>93</v>
@@ -46743,10 +46887,10 @@
         <v>155</v>
       </c>
       <c r="BF172" t="s">
-        <v>1378</v>
+        <v>1388</v>
       </c>
       <c r="BG172" s="1">
-        <v>42728</v>
+        <v>43616</v>
       </c>
       <c r="BH172" t="s">
         <v>88</v>
@@ -46758,19 +46902,19 @@
         <v>88</v>
       </c>
       <c r="BL172" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM172" t="s">
-        <v>1379</v>
+        <v>570</v>
       </c>
       <c r="BN172" t="s">
-        <v>798</v>
+        <v>1389</v>
       </c>
       <c r="BO172" s="1">
-        <v>44655</v>
+        <v>44620</v>
       </c>
       <c r="BP172" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="BQ172" t="s">
         <v>88</v>
@@ -46782,13 +46926,13 @@
         <v>88</v>
       </c>
       <c r="BT172" t="s">
-        <v>141</v>
+        <v>223</v>
       </c>
       <c r="BU172" t="s">
         <v>116</v>
       </c>
       <c r="BV172" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="BW172" t="s">
         <v>96</v>
@@ -46797,7 +46941,7 @@
         <v>118</v>
       </c>
       <c r="BY172" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BZ172" t="s">
         <v>96</v>
@@ -46806,7 +46950,7 @@
         <v>118</v>
       </c>
       <c r="CB172" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="CC172" t="s">
         <v>118</v>
@@ -46815,7 +46959,7 @@
         <v>120</v>
       </c>
       <c r="CE172">
-        <v>68</v>
+        <v>35</v>
       </c>
     </row>
     <row r="173" spans="1:83" x14ac:dyDescent="0.15">
@@ -46823,40 +46967,40 @@
         <v>82</v>
       </c>
       <c r="B173" s="1">
-        <v>44632</v>
+        <v>44620</v>
       </c>
       <c r="C173" t="s">
-        <v>1311</v>
+        <v>356</v>
       </c>
       <c r="D173" t="s">
         <v>84</v>
       </c>
       <c r="E173" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="F173" t="s">
-        <v>180</v>
+        <v>86</v>
       </c>
       <c r="G173" t="s">
-        <v>425</v>
+        <v>1390</v>
       </c>
       <c r="H173" t="s">
-        <v>1380</v>
+        <v>88</v>
       </c>
       <c r="I173" t="s">
-        <v>652</v>
+        <v>212</v>
       </c>
       <c r="J173" t="s">
-        <v>1381</v>
+        <v>1391</v>
       </c>
       <c r="K173" t="s">
         <v>91</v>
       </c>
       <c r="L173" t="s">
-        <v>1382</v>
+        <v>1392</v>
       </c>
       <c r="M173" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="N173" t="s">
         <v>94</v>
@@ -46868,7 +47012,7 @@
         <v>96</v>
       </c>
       <c r="Q173" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="R173" t="s">
         <v>95</v>
@@ -46877,13 +47021,13 @@
         <v>98</v>
       </c>
       <c r="T173" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="U173" t="s">
         <v>94</v>
       </c>
       <c r="V173" t="s">
-        <v>186</v>
+        <v>215</v>
       </c>
       <c r="W173" t="s">
         <v>88</v>
@@ -46892,13 +47036,13 @@
         <v>88</v>
       </c>
       <c r="Y173" t="s">
-        <v>1383</v>
+        <v>1393</v>
       </c>
       <c r="Z173" t="s">
-        <v>1384</v>
+        <v>1394</v>
       </c>
       <c r="AA173" t="s">
-        <v>259</v>
+        <v>102</v>
       </c>
       <c r="AB173" t="s">
         <v>133</v>
@@ -46910,7 +47054,7 @@
         <v>105</v>
       </c>
       <c r="AF173" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="AG173" t="s">
         <v>99</v>
@@ -46925,7 +47069,7 @@
         <v>99</v>
       </c>
       <c r="AK173" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="AL173" t="s">
         <v>88</v>
@@ -46937,7 +47081,7 @@
         <v>99</v>
       </c>
       <c r="AO173" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="AP173" t="s">
         <v>99</v>
@@ -46961,13 +47105,13 @@
         <v>98</v>
       </c>
       <c r="AW173" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="AX173" s="1">
-        <v>44629</v>
+        <v>44620</v>
       </c>
       <c r="AY173" s="1">
-        <v>44624</v>
+        <v>44618</v>
       </c>
       <c r="AZ173" t="s">
         <v>93</v>
@@ -46988,10 +47132,10 @@
         <v>155</v>
       </c>
       <c r="BF173" t="s">
-        <v>1385</v>
+        <v>1395</v>
       </c>
       <c r="BG173" s="1">
-        <v>42615</v>
+        <v>43136</v>
       </c>
       <c r="BH173" t="s">
         <v>88</v>
@@ -47003,19 +47147,19 @@
         <v>88</v>
       </c>
       <c r="BL173" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM173" t="s">
-        <v>305</v>
+        <v>274</v>
       </c>
       <c r="BN173" t="s">
-        <v>306</v>
+        <v>275</v>
       </c>
       <c r="BO173" s="1">
-        <v>44632</v>
+        <v>44623</v>
       </c>
       <c r="BP173" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="BQ173" t="s">
         <v>88</v>
@@ -47027,13 +47171,13 @@
         <v>88</v>
       </c>
       <c r="BT173" t="s">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="BU173" t="s">
         <v>116</v>
       </c>
       <c r="BV173" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="BW173" t="s">
         <v>96</v>
@@ -47042,7 +47186,7 @@
         <v>118</v>
       </c>
       <c r="BY173" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BZ173" t="s">
         <v>96</v>
@@ -47051,7 +47195,7 @@
         <v>118</v>
       </c>
       <c r="CB173" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="CC173" t="s">
         <v>118</v>
@@ -47060,7 +47204,7 @@
         <v>120</v>
       </c>
       <c r="CE173">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="174" spans="1:83" x14ac:dyDescent="0.15">
@@ -47068,40 +47212,40 @@
         <v>82</v>
       </c>
       <c r="B174" s="1">
-        <v>44622</v>
+        <v>44620</v>
       </c>
       <c r="C174" t="s">
-        <v>1311</v>
+        <v>356</v>
       </c>
       <c r="D174" t="s">
         <v>84</v>
       </c>
       <c r="E174" t="s">
-        <v>209</v>
+        <v>85</v>
       </c>
       <c r="F174" t="s">
-        <v>86</v>
+        <v>208</v>
       </c>
       <c r="G174" t="s">
-        <v>1386</v>
+        <v>1396</v>
       </c>
       <c r="H174" t="s">
         <v>88</v>
       </c>
       <c r="I174" t="s">
-        <v>170</v>
+        <v>1397</v>
       </c>
       <c r="J174" t="s">
-        <v>600</v>
+        <v>241</v>
       </c>
       <c r="K174" t="s">
-        <v>91</v>
+        <v>254</v>
       </c>
       <c r="L174" t="s">
-        <v>1387</v>
+        <v>1398</v>
       </c>
       <c r="M174" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N174" t="s">
         <v>94</v>
@@ -47125,31 +47269,31 @@
         <v>129</v>
       </c>
       <c r="U174" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="V174" t="s">
-        <v>215</v>
+        <v>88</v>
       </c>
       <c r="W174" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="X174" t="s">
         <v>88</v>
       </c>
       <c r="Y174" t="s">
-        <v>1388</v>
+        <v>88</v>
       </c>
       <c r="Z174" t="s">
-        <v>1389</v>
+        <v>1399</v>
       </c>
       <c r="AA174" t="s">
-        <v>132</v>
+        <v>259</v>
       </c>
       <c r="AB174" t="s">
         <v>133</v>
       </c>
       <c r="AC174" t="s">
-        <v>190</v>
+        <v>134</v>
       </c>
       <c r="AD174" t="s">
         <v>105</v>
@@ -47209,10 +47353,10 @@
         <v>129</v>
       </c>
       <c r="AX174" s="1">
-        <v>44622</v>
+        <v>44620</v>
       </c>
       <c r="AY174" s="1">
-        <v>44620</v>
+        <v>44617</v>
       </c>
       <c r="AZ174" t="s">
         <v>93</v>
@@ -47233,10 +47377,10 @@
         <v>155</v>
       </c>
       <c r="BF174" t="s">
-        <v>1390</v>
+        <v>1400</v>
       </c>
       <c r="BG174" s="1">
-        <v>43486</v>
+        <v>41709</v>
       </c>
       <c r="BH174" t="s">
         <v>88</v>
@@ -47248,19 +47392,19 @@
         <v>88</v>
       </c>
       <c r="BL174" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM174" t="s">
-        <v>274</v>
+        <v>368</v>
       </c>
       <c r="BN174" t="s">
-        <v>275</v>
+        <v>113</v>
       </c>
       <c r="BO174" s="1">
-        <v>44625</v>
+        <v>44622</v>
       </c>
       <c r="BP174" t="s">
-        <v>222</v>
+        <v>114</v>
       </c>
       <c r="BQ174" t="s">
         <v>88</v>
@@ -47278,7 +47422,7 @@
         <v>116</v>
       </c>
       <c r="BV174" t="s">
-        <v>224</v>
+        <v>111</v>
       </c>
       <c r="BW174" t="s">
         <v>96</v>
@@ -47305,7 +47449,7 @@
         <v>120</v>
       </c>
       <c r="CE174">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="175" spans="1:83" x14ac:dyDescent="0.15">
@@ -47313,40 +47457,40 @@
         <v>82</v>
       </c>
       <c r="B175" s="1">
-        <v>44625</v>
+        <v>44615</v>
       </c>
       <c r="C175" t="s">
-        <v>1311</v>
+        <v>356</v>
       </c>
       <c r="D175" t="s">
         <v>84</v>
       </c>
       <c r="E175" t="s">
-        <v>197</v>
+        <v>122</v>
       </c>
       <c r="F175" t="s">
         <v>86</v>
       </c>
       <c r="G175" t="s">
-        <v>227</v>
+        <v>1352</v>
       </c>
       <c r="H175" t="s">
         <v>88</v>
       </c>
       <c r="I175" t="s">
-        <v>699</v>
+        <v>1401</v>
       </c>
       <c r="J175" t="s">
-        <v>1391</v>
+        <v>170</v>
       </c>
       <c r="K175" t="s">
-        <v>91</v>
+        <v>254</v>
       </c>
       <c r="L175" t="s">
-        <v>1392</v>
+        <v>1402</v>
       </c>
       <c r="M175" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="N175" t="s">
         <v>94</v>
@@ -47367,13 +47511,13 @@
         <v>98</v>
       </c>
       <c r="T175" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="U175" t="s">
         <v>94</v>
       </c>
       <c r="V175" t="s">
-        <v>186</v>
+        <v>120</v>
       </c>
       <c r="W175" t="s">
         <v>88</v>
@@ -47382,13 +47526,13 @@
         <v>88</v>
       </c>
       <c r="Y175" t="s">
-        <v>201</v>
+        <v>120</v>
       </c>
       <c r="Z175" t="s">
-        <v>1393</v>
+        <v>1403</v>
       </c>
       <c r="AA175" t="s">
-        <v>132</v>
+        <v>259</v>
       </c>
       <c r="AB175" t="s">
         <v>133</v>
@@ -47442,7 +47586,7 @@
         <v>94</v>
       </c>
       <c r="AT175" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="AU175" t="s">
         <v>95</v>
@@ -47451,13 +47595,13 @@
         <v>98</v>
       </c>
       <c r="AW175" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="AX175" s="1">
-        <v>44625</v>
+        <v>44613</v>
       </c>
       <c r="AY175" s="1">
-        <v>44622</v>
+        <v>44612</v>
       </c>
       <c r="AZ175" t="s">
         <v>93</v>
@@ -47478,10 +47622,10 @@
         <v>155</v>
       </c>
       <c r="BF175" t="s">
-        <v>1394</v>
+        <v>1404</v>
       </c>
       <c r="BG175" s="1">
-        <v>44261</v>
+        <v>41724</v>
       </c>
       <c r="BH175" t="s">
         <v>88</v>
@@ -47493,19 +47637,19 @@
         <v>88</v>
       </c>
       <c r="BL175" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM175" t="s">
-        <v>1374</v>
+        <v>1405</v>
       </c>
       <c r="BN175" t="s">
-        <v>651</v>
+        <v>389</v>
       </c>
       <c r="BO175" s="1">
-        <v>44627</v>
+        <v>44615</v>
       </c>
       <c r="BP175" t="s">
-        <v>206</v>
+        <v>140</v>
       </c>
       <c r="BQ175" t="s">
         <v>88</v>
@@ -47523,7 +47667,7 @@
         <v>116</v>
       </c>
       <c r="BV175" t="s">
-        <v>207</v>
+        <v>137</v>
       </c>
       <c r="BW175" t="s">
         <v>96</v>
@@ -47532,7 +47676,7 @@
         <v>118</v>
       </c>
       <c r="BY175" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BZ175" t="s">
         <v>96</v>
@@ -47541,7 +47685,7 @@
         <v>118</v>
       </c>
       <c r="CB175" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="CC175" t="s">
         <v>118</v>
@@ -47550,7 +47694,7 @@
         <v>120</v>
       </c>
       <c r="CE175">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="176" spans="1:83" x14ac:dyDescent="0.15">
@@ -47558,43 +47702,43 @@
         <v>82</v>
       </c>
       <c r="B176" s="1">
-        <v>44628</v>
+        <v>44618</v>
       </c>
       <c r="C176" t="s">
-        <v>1311</v>
+        <v>356</v>
       </c>
       <c r="D176" t="s">
         <v>84</v>
       </c>
       <c r="E176" t="s">
-        <v>209</v>
+        <v>85</v>
       </c>
       <c r="F176" t="s">
-        <v>86</v>
+        <v>208</v>
       </c>
       <c r="G176" t="s">
-        <v>1395</v>
+        <v>426</v>
       </c>
       <c r="H176" t="s">
         <v>88</v>
       </c>
       <c r="I176" t="s">
-        <v>252</v>
+        <v>752</v>
       </c>
       <c r="J176" t="s">
-        <v>1133</v>
+        <v>310</v>
       </c>
       <c r="K176" t="s">
-        <v>91</v>
+        <v>254</v>
       </c>
       <c r="L176" t="s">
-        <v>1396</v>
+        <v>1406</v>
       </c>
       <c r="M176" t="s">
         <v>108</v>
       </c>
       <c r="N176" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="O176" t="s">
         <v>95</v>
@@ -47603,7 +47747,7 @@
         <v>96</v>
       </c>
       <c r="Q176" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="R176" t="s">
         <v>95</v>
@@ -47615,31 +47759,31 @@
         <v>129</v>
       </c>
       <c r="U176" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="V176" t="s">
-        <v>215</v>
+        <v>88</v>
       </c>
       <c r="W176" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="X176" t="s">
         <v>88</v>
       </c>
       <c r="Y176" t="s">
-        <v>1397</v>
+        <v>88</v>
       </c>
       <c r="Z176" t="s">
-        <v>1398</v>
+        <v>1407</v>
       </c>
       <c r="AA176" t="s">
-        <v>132</v>
+        <v>259</v>
       </c>
       <c r="AB176" t="s">
         <v>133</v>
       </c>
       <c r="AC176" t="s">
-        <v>190</v>
+        <v>294</v>
       </c>
       <c r="AD176" t="s">
         <v>105</v>
@@ -47660,7 +47804,7 @@
         <v>99</v>
       </c>
       <c r="AK176" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AL176" t="s">
         <v>88</v>
@@ -47672,7 +47816,7 @@
         <v>99</v>
       </c>
       <c r="AO176" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AP176" t="s">
         <v>99</v>
@@ -47699,10 +47843,10 @@
         <v>129</v>
       </c>
       <c r="AX176" s="1">
-        <v>44628</v>
+        <v>44618</v>
       </c>
       <c r="AY176" s="1">
-        <v>44621</v>
+        <v>44617</v>
       </c>
       <c r="AZ176" t="s">
         <v>93</v>
@@ -47723,10 +47867,10 @@
         <v>155</v>
       </c>
       <c r="BF176" t="s">
-        <v>1399</v>
+        <v>1408</v>
       </c>
       <c r="BG176" s="1">
-        <v>44392</v>
+        <v>41755</v>
       </c>
       <c r="BH176" t="s">
         <v>88</v>
@@ -47738,19 +47882,19 @@
         <v>88</v>
       </c>
       <c r="BL176" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM176" t="s">
-        <v>413</v>
+        <v>1409</v>
       </c>
       <c r="BN176" t="s">
-        <v>414</v>
+        <v>113</v>
       </c>
       <c r="BO176" s="1">
-        <v>44629</v>
+        <v>44621</v>
       </c>
       <c r="BP176" t="s">
-        <v>222</v>
+        <v>114</v>
       </c>
       <c r="BQ176" t="s">
         <v>88</v>
@@ -47768,7 +47912,7 @@
         <v>116</v>
       </c>
       <c r="BV176" t="s">
-        <v>224</v>
+        <v>111</v>
       </c>
       <c r="BW176" t="s">
         <v>96</v>
@@ -47795,7 +47939,7 @@
         <v>120</v>
       </c>
       <c r="CE176">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="177" spans="1:83" x14ac:dyDescent="0.15">
@@ -47803,40 +47947,40 @@
         <v>82</v>
       </c>
       <c r="B177" s="1">
-        <v>44622</v>
+        <v>44614</v>
       </c>
       <c r="C177" t="s">
-        <v>1311</v>
+        <v>356</v>
       </c>
       <c r="D177" t="s">
         <v>84</v>
       </c>
       <c r="E177" t="s">
-        <v>250</v>
+        <v>209</v>
       </c>
       <c r="F177" t="s">
-        <v>226</v>
+        <v>86</v>
       </c>
       <c r="G177" t="s">
-        <v>251</v>
+        <v>873</v>
       </c>
       <c r="H177" t="s">
-        <v>1400</v>
+        <v>88</v>
       </c>
       <c r="I177" t="s">
-        <v>418</v>
+        <v>1410</v>
       </c>
       <c r="J177" t="s">
-        <v>510</v>
+        <v>1314</v>
       </c>
       <c r="K177" t="s">
-        <v>91</v>
+        <v>254</v>
       </c>
       <c r="L177" t="s">
-        <v>1401</v>
+        <v>1411</v>
       </c>
       <c r="M177" t="s">
-        <v>93</v>
+        <v>335</v>
       </c>
       <c r="N177" t="s">
         <v>94</v>
@@ -47848,7 +47992,7 @@
         <v>96</v>
       </c>
       <c r="Q177" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="R177" t="s">
         <v>95</v>
@@ -47860,37 +48004,37 @@
         <v>129</v>
       </c>
       <c r="U177" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="V177" t="s">
-        <v>88</v>
+        <v>215</v>
       </c>
       <c r="W177" t="s">
-        <v>1188</v>
+        <v>88</v>
       </c>
       <c r="X177" t="s">
         <v>88</v>
       </c>
       <c r="Y177" t="s">
-        <v>88</v>
+        <v>1412</v>
       </c>
       <c r="Z177" t="s">
-        <v>1402</v>
+        <v>1413</v>
       </c>
       <c r="AA177" t="s">
-        <v>132</v>
+        <v>259</v>
       </c>
       <c r="AB177" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="AC177" t="s">
-        <v>260</v>
+        <v>190</v>
       </c>
       <c r="AD177" t="s">
         <v>105</v>
       </c>
       <c r="AF177" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AG177" t="s">
         <v>99</v>
@@ -47905,7 +48049,7 @@
         <v>99</v>
       </c>
       <c r="AK177" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AL177" t="s">
         <v>88</v>
@@ -47917,7 +48061,7 @@
         <v>99</v>
       </c>
       <c r="AO177" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AP177" t="s">
         <v>99</v>
@@ -47944,10 +48088,10 @@
         <v>129</v>
       </c>
       <c r="AX177" s="1">
-        <v>44622</v>
+        <v>44614</v>
       </c>
       <c r="AY177" s="1">
-        <v>44619</v>
+        <v>44612</v>
       </c>
       <c r="AZ177" t="s">
         <v>93</v>
@@ -47968,10 +48112,10 @@
         <v>155</v>
       </c>
       <c r="BF177" t="s">
-        <v>1403</v>
+        <v>1414</v>
       </c>
       <c r="BG177" s="1">
-        <v>43029</v>
+        <v>38646</v>
       </c>
       <c r="BH177" t="s">
         <v>88</v>
@@ -47983,19 +48127,19 @@
         <v>88</v>
       </c>
       <c r="BL177" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM177" t="s">
-        <v>1404</v>
+        <v>627</v>
       </c>
       <c r="BN177" t="s">
-        <v>263</v>
+        <v>628</v>
       </c>
       <c r="BO177" s="1">
-        <v>44691</v>
+        <v>44616</v>
       </c>
       <c r="BP177" t="s">
-        <v>264</v>
+        <v>222</v>
       </c>
       <c r="BQ177" t="s">
         <v>88</v>
@@ -48007,13 +48151,13 @@
         <v>88</v>
       </c>
       <c r="BT177" t="s">
-        <v>465</v>
+        <v>1156</v>
       </c>
       <c r="BU177" t="s">
         <v>116</v>
       </c>
       <c r="BV177" t="s">
-        <v>986</v>
+        <v>224</v>
       </c>
       <c r="BW177" t="s">
         <v>96</v>
@@ -48040,7 +48184,7 @@
         <v>120</v>
       </c>
       <c r="CE177">
-        <v>98</v>
+        <v>32</v>
       </c>
     </row>
     <row r="178" spans="1:83" x14ac:dyDescent="0.15">
@@ -48048,40 +48192,40 @@
         <v>82</v>
       </c>
       <c r="B178" s="1">
-        <v>44624</v>
+        <v>44615</v>
       </c>
       <c r="C178" t="s">
-        <v>1311</v>
+        <v>356</v>
       </c>
       <c r="D178" t="s">
         <v>84</v>
       </c>
       <c r="E178" t="s">
-        <v>250</v>
+        <v>85</v>
       </c>
       <c r="F178" t="s">
-        <v>226</v>
+        <v>86</v>
       </c>
       <c r="G178" t="s">
-        <v>1405</v>
+        <v>645</v>
       </c>
       <c r="H178" t="s">
-        <v>308</v>
+        <v>88</v>
       </c>
       <c r="I178" t="s">
-        <v>299</v>
+        <v>529</v>
       </c>
       <c r="J178" t="s">
-        <v>458</v>
+        <v>510</v>
       </c>
       <c r="K178" t="s">
         <v>254</v>
       </c>
       <c r="L178" t="s">
-        <v>1406</v>
+        <v>1415</v>
       </c>
       <c r="M178" t="s">
-        <v>208</v>
+        <v>270</v>
       </c>
       <c r="N178" t="s">
         <v>94</v>
@@ -48111,7 +48255,7 @@
         <v>88</v>
       </c>
       <c r="W178" t="s">
-        <v>1407</v>
+        <v>497</v>
       </c>
       <c r="X178" t="s">
         <v>88</v>
@@ -48120,22 +48264,22 @@
         <v>88</v>
       </c>
       <c r="Z178" t="s">
-        <v>1408</v>
+        <v>1416</v>
       </c>
       <c r="AA178" t="s">
-        <v>132</v>
+        <v>259</v>
       </c>
       <c r="AB178" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="AC178" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="AD178" t="s">
         <v>105</v>
       </c>
       <c r="AF178" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AG178" t="s">
         <v>99</v>
@@ -48189,10 +48333,10 @@
         <v>129</v>
       </c>
       <c r="AX178" s="1">
-        <v>44624</v>
+        <v>44615</v>
       </c>
       <c r="AY178" s="1">
-        <v>44624</v>
+        <v>44614</v>
       </c>
       <c r="AZ178" t="s">
         <v>93</v>
@@ -48213,10 +48357,10 @@
         <v>155</v>
       </c>
       <c r="BF178" t="s">
-        <v>1409</v>
+        <v>1417</v>
       </c>
       <c r="BG178" s="1">
-        <v>40674</v>
+        <v>40237</v>
       </c>
       <c r="BH178" t="s">
         <v>88</v>
@@ -48228,19 +48372,19 @@
         <v>88</v>
       </c>
       <c r="BL178" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM178" t="s">
-        <v>1404</v>
+        <v>1418</v>
       </c>
       <c r="BN178" t="s">
-        <v>263</v>
+        <v>113</v>
       </c>
       <c r="BO178" s="1">
-        <v>44691</v>
+        <v>44616</v>
       </c>
       <c r="BP178" t="s">
-        <v>264</v>
+        <v>114</v>
       </c>
       <c r="BQ178" t="s">
         <v>88</v>
@@ -48252,13 +48396,13 @@
         <v>88</v>
       </c>
       <c r="BT178" t="s">
-        <v>465</v>
+        <v>1156</v>
       </c>
       <c r="BU178" t="s">
         <v>116</v>
       </c>
       <c r="BV178" t="s">
-        <v>986</v>
+        <v>117</v>
       </c>
       <c r="BW178" t="s">
         <v>96</v>
@@ -48285,7 +48429,7 @@
         <v>120</v>
       </c>
       <c r="CE178">
-        <v>99</v>
+        <v>31</v>
       </c>
     </row>
     <row r="179" spans="1:83" x14ac:dyDescent="0.15">
@@ -48293,40 +48437,40 @@
         <v>82</v>
       </c>
       <c r="B179" s="1">
-        <v>44626</v>
+        <v>44623</v>
       </c>
       <c r="C179" t="s">
-        <v>1311</v>
+        <v>1361</v>
       </c>
       <c r="D179" t="s">
         <v>84</v>
       </c>
       <c r="E179" t="s">
-        <v>250</v>
+        <v>197</v>
       </c>
       <c r="F179" t="s">
-        <v>520</v>
+        <v>86</v>
       </c>
       <c r="G179" t="s">
-        <v>168</v>
+        <v>319</v>
       </c>
       <c r="H179" t="s">
-        <v>169</v>
+        <v>251</v>
       </c>
       <c r="I179" t="s">
-        <v>184</v>
+        <v>288</v>
       </c>
       <c r="J179" t="s">
-        <v>267</v>
+        <v>730</v>
       </c>
       <c r="K179" t="s">
-        <v>254</v>
+        <v>91</v>
       </c>
       <c r="L179" t="s">
-        <v>1410</v>
+        <v>1419</v>
       </c>
       <c r="M179" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="N179" t="s">
         <v>94</v>
@@ -48338,7 +48482,7 @@
         <v>96</v>
       </c>
       <c r="Q179" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="R179" t="s">
         <v>95</v>
@@ -48350,37 +48494,37 @@
         <v>129</v>
       </c>
       <c r="U179" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="V179" t="s">
-        <v>88</v>
+        <v>186</v>
       </c>
       <c r="W179" t="s">
-        <v>1411</v>
+        <v>88</v>
       </c>
       <c r="X179" t="s">
         <v>88</v>
       </c>
       <c r="Y179" t="s">
-        <v>88</v>
+        <v>201</v>
       </c>
       <c r="Z179" t="s">
-        <v>1411</v>
+        <v>1420</v>
       </c>
       <c r="AA179" t="s">
-        <v>259</v>
+        <v>132</v>
       </c>
       <c r="AB179" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="AC179" t="s">
-        <v>284</v>
+        <v>1421</v>
       </c>
       <c r="AD179" t="s">
         <v>105</v>
       </c>
       <c r="AF179" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AG179" t="s">
         <v>99</v>
@@ -48395,7 +48539,7 @@
         <v>99</v>
       </c>
       <c r="AK179" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AL179" t="s">
         <v>88</v>
@@ -48407,7 +48551,7 @@
         <v>99</v>
       </c>
       <c r="AO179" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AP179" t="s">
         <v>99</v>
@@ -48434,10 +48578,10 @@
         <v>129</v>
       </c>
       <c r="AX179" s="1">
-        <v>44626</v>
+        <v>44623</v>
       </c>
       <c r="AY179" s="1">
-        <v>44624</v>
+        <v>44621</v>
       </c>
       <c r="AZ179" t="s">
         <v>93</v>
@@ -48458,10 +48602,10 @@
         <v>155</v>
       </c>
       <c r="BF179" t="s">
-        <v>1412</v>
+        <v>1422</v>
       </c>
       <c r="BG179" s="1">
-        <v>40244</v>
+        <v>43489</v>
       </c>
       <c r="BH179" t="s">
         <v>88</v>
@@ -48473,19 +48617,19 @@
         <v>88</v>
       </c>
       <c r="BL179" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM179" t="s">
-        <v>1413</v>
+        <v>1423</v>
       </c>
       <c r="BN179" t="s">
-        <v>263</v>
+        <v>651</v>
       </c>
       <c r="BO179" s="1">
-        <v>44628</v>
+        <v>44624</v>
       </c>
       <c r="BP179" t="s">
-        <v>884</v>
+        <v>206</v>
       </c>
       <c r="BQ179" t="s">
         <v>88</v>
@@ -48503,7 +48647,7 @@
         <v>116</v>
       </c>
       <c r="BV179" t="s">
-        <v>885</v>
+        <v>207</v>
       </c>
       <c r="BW179" t="s">
         <v>96</v>
@@ -48530,7 +48674,7 @@
         <v>120</v>
       </c>
       <c r="CE179">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="180" spans="1:83" x14ac:dyDescent="0.15">
@@ -48538,40 +48682,40 @@
         <v>82</v>
       </c>
       <c r="B180" s="1">
-        <v>44622</v>
+        <v>44653</v>
       </c>
       <c r="C180" t="s">
-        <v>1311</v>
+        <v>1361</v>
       </c>
       <c r="D180" t="s">
         <v>84</v>
       </c>
       <c r="E180" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="F180" t="s">
-        <v>86</v>
+        <v>226</v>
       </c>
       <c r="G180" t="s">
-        <v>1414</v>
+        <v>308</v>
       </c>
       <c r="H180" t="s">
         <v>88</v>
       </c>
       <c r="I180" t="s">
-        <v>1415</v>
+        <v>1227</v>
       </c>
       <c r="J180" t="s">
-        <v>241</v>
+        <v>1424</v>
       </c>
       <c r="K180" t="s">
-        <v>254</v>
+        <v>91</v>
       </c>
       <c r="L180" t="s">
-        <v>1416</v>
+        <v>1425</v>
       </c>
       <c r="M180" t="s">
-        <v>208</v>
+        <v>121</v>
       </c>
       <c r="N180" t="s">
         <v>94</v>
@@ -48583,7 +48727,7 @@
         <v>96</v>
       </c>
       <c r="Q180" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="R180" t="s">
         <v>95</v>
@@ -48598,7 +48742,7 @@
         <v>94</v>
       </c>
       <c r="V180" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="W180" t="s">
         <v>88</v>
@@ -48607,19 +48751,19 @@
         <v>88</v>
       </c>
       <c r="Y180" t="s">
-        <v>1417</v>
+        <v>201</v>
       </c>
       <c r="Z180" t="s">
-        <v>1418</v>
+        <v>1426</v>
       </c>
       <c r="AA180" t="s">
-        <v>259</v>
+        <v>132</v>
       </c>
       <c r="AB180" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="AC180" t="s">
-        <v>190</v>
+        <v>1084</v>
       </c>
       <c r="AD180" t="s">
         <v>105</v>
@@ -48640,7 +48784,7 @@
         <v>99</v>
       </c>
       <c r="AK180" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AL180" t="s">
         <v>88</v>
@@ -48652,7 +48796,7 @@
         <v>99</v>
       </c>
       <c r="AO180" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AP180" t="s">
         <v>99</v>
@@ -48679,10 +48823,10 @@
         <v>129</v>
       </c>
       <c r="AX180" s="1">
-        <v>44622</v>
+        <v>44652</v>
       </c>
       <c r="AY180" s="1">
-        <v>44621</v>
+        <v>44620</v>
       </c>
       <c r="AZ180" t="s">
         <v>93</v>
@@ -48703,10 +48847,10 @@
         <v>155</v>
       </c>
       <c r="BF180" t="s">
-        <v>1419</v>
+        <v>1427</v>
       </c>
       <c r="BG180" s="1">
-        <v>40724</v>
+        <v>42728</v>
       </c>
       <c r="BH180" t="s">
         <v>88</v>
@@ -48718,19 +48862,19 @@
         <v>88</v>
       </c>
       <c r="BL180" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM180" t="s">
-        <v>627</v>
+        <v>1428</v>
       </c>
       <c r="BN180" t="s">
-        <v>628</v>
+        <v>798</v>
       </c>
       <c r="BO180" s="1">
-        <v>44624</v>
+        <v>44655</v>
       </c>
       <c r="BP180" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="BQ180" t="s">
         <v>88</v>
@@ -48742,13 +48886,13 @@
         <v>88</v>
       </c>
       <c r="BT180" t="s">
-        <v>223</v>
+        <v>141</v>
       </c>
       <c r="BU180" t="s">
         <v>116</v>
       </c>
       <c r="BV180" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="BW180" t="s">
         <v>96</v>
@@ -48775,7 +48919,7 @@
         <v>120</v>
       </c>
       <c r="CE180">
-        <v>37</v>
+        <v>68</v>
       </c>
     </row>
     <row r="181" spans="1:83" x14ac:dyDescent="0.15">
@@ -48783,40 +48927,40 @@
         <v>82</v>
       </c>
       <c r="B181" s="1">
-        <v>44627</v>
+        <v>44632</v>
       </c>
       <c r="C181" t="s">
-        <v>1311</v>
+        <v>1361</v>
       </c>
       <c r="D181" t="s">
         <v>84</v>
       </c>
       <c r="E181" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="F181" t="s">
-        <v>86</v>
+        <v>180</v>
       </c>
       <c r="G181" t="s">
-        <v>837</v>
+        <v>425</v>
       </c>
       <c r="H181" t="s">
-        <v>380</v>
+        <v>1429</v>
       </c>
       <c r="I181" t="s">
-        <v>887</v>
+        <v>652</v>
       </c>
       <c r="J181" t="s">
-        <v>170</v>
+        <v>1289</v>
       </c>
       <c r="K181" t="s">
-        <v>254</v>
+        <v>91</v>
       </c>
       <c r="L181" t="s">
-        <v>1420</v>
+        <v>1430</v>
       </c>
       <c r="M181" t="s">
-        <v>466</v>
+        <v>121</v>
       </c>
       <c r="N181" t="s">
         <v>94</v>
@@ -48828,7 +48972,7 @@
         <v>96</v>
       </c>
       <c r="Q181" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="R181" t="s">
         <v>95</v>
@@ -48843,7 +48987,7 @@
         <v>94</v>
       </c>
       <c r="V181" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="W181" t="s">
         <v>88</v>
@@ -48852,10 +48996,10 @@
         <v>88</v>
       </c>
       <c r="Y181" t="s">
-        <v>1421</v>
+        <v>1431</v>
       </c>
       <c r="Z181" t="s">
-        <v>1422</v>
+        <v>1432</v>
       </c>
       <c r="AA181" t="s">
         <v>259</v>
@@ -48870,7 +49014,7 @@
         <v>105</v>
       </c>
       <c r="AF181" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="AG181" t="s">
         <v>99</v>
@@ -48885,7 +49029,7 @@
         <v>99</v>
       </c>
       <c r="AK181" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AL181" t="s">
         <v>88</v>
@@ -48897,7 +49041,7 @@
         <v>99</v>
       </c>
       <c r="AO181" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AP181" t="s">
         <v>99</v>
@@ -48924,7 +49068,7 @@
         <v>129</v>
       </c>
       <c r="AX181" s="1">
-        <v>44627</v>
+        <v>44629</v>
       </c>
       <c r="AY181" s="1">
         <v>44624</v>
@@ -48948,10 +49092,10 @@
         <v>155</v>
       </c>
       <c r="BF181" t="s">
-        <v>1423</v>
+        <v>1433</v>
       </c>
       <c r="BG181" s="1">
-        <v>39656</v>
+        <v>42615</v>
       </c>
       <c r="BH181" t="s">
         <v>88</v>
@@ -48963,19 +49107,19 @@
         <v>88</v>
       </c>
       <c r="BL181" s="1">
-        <v>44796</v>
+        <v>44803</v>
       </c>
       <c r="BM181" t="s">
-        <v>627</v>
+        <v>305</v>
       </c>
       <c r="BN181" t="s">
-        <v>628</v>
+        <v>306</v>
       </c>
       <c r="BO181" s="1">
-        <v>44628</v>
+        <v>44632</v>
       </c>
       <c r="BP181" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="BQ181" t="s">
         <v>88</v>
@@ -48987,13 +49131,13 @@
         <v>88</v>
       </c>
       <c r="BT181" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="BU181" t="s">
         <v>116</v>
       </c>
       <c r="BV181" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="BW181" t="s">
         <v>96</v>
@@ -49020,6 +49164,1966 @@
         <v>120</v>
       </c>
       <c r="CE181">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="182" spans="1:83" x14ac:dyDescent="0.15">
+      <c r="A182" t="s">
+        <v>82</v>
+      </c>
+      <c r="B182" s="1">
+        <v>44622</v>
+      </c>
+      <c r="C182" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D182" t="s">
+        <v>84</v>
+      </c>
+      <c r="E182" t="s">
+        <v>209</v>
+      </c>
+      <c r="F182" t="s">
+        <v>86</v>
+      </c>
+      <c r="G182" t="s">
+        <v>1434</v>
+      </c>
+      <c r="H182" t="s">
+        <v>88</v>
+      </c>
+      <c r="I182" t="s">
+        <v>170</v>
+      </c>
+      <c r="J182" t="s">
+        <v>600</v>
+      </c>
+      <c r="K182" t="s">
+        <v>91</v>
+      </c>
+      <c r="L182" t="s">
+        <v>1435</v>
+      </c>
+      <c r="M182" t="s">
+        <v>106</v>
+      </c>
+      <c r="N182" t="s">
+        <v>94</v>
+      </c>
+      <c r="O182" t="s">
+        <v>95</v>
+      </c>
+      <c r="P182" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q182" t="s">
+        <v>97</v>
+      </c>
+      <c r="R182" t="s">
+        <v>95</v>
+      </c>
+      <c r="S182" t="s">
+        <v>98</v>
+      </c>
+      <c r="T182" t="s">
+        <v>129</v>
+      </c>
+      <c r="U182" t="s">
+        <v>94</v>
+      </c>
+      <c r="V182" t="s">
+        <v>215</v>
+      </c>
+      <c r="W182" t="s">
+        <v>88</v>
+      </c>
+      <c r="X182" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y182" t="s">
+        <v>1436</v>
+      </c>
+      <c r="Z182" t="s">
+        <v>1437</v>
+      </c>
+      <c r="AA182" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB182" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC182" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD182" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF182" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG182" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH182" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI182" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ182" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK182" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL182" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM182" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN182" t="s">
+        <v>99</v>
+      </c>
+      <c r="AO182" t="s">
+        <v>99</v>
+      </c>
+      <c r="AP182" t="s">
+        <v>99</v>
+      </c>
+      <c r="AQ182" t="s">
+        <v>99</v>
+      </c>
+      <c r="AR182" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS182" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT182" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU182" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV182" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW182" t="s">
+        <v>129</v>
+      </c>
+      <c r="AX182" s="1">
+        <v>44622</v>
+      </c>
+      <c r="AY182" s="1">
+        <v>44620</v>
+      </c>
+      <c r="AZ182" t="s">
+        <v>93</v>
+      </c>
+      <c r="BA182" t="s">
+        <v>99</v>
+      </c>
+      <c r="BB182" t="s">
+        <v>107</v>
+      </c>
+      <c r="BC182" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD182" t="s">
+        <v>107</v>
+      </c>
+      <c r="BE182" t="s">
+        <v>155</v>
+      </c>
+      <c r="BF182" t="s">
+        <v>1438</v>
+      </c>
+      <c r="BG182" s="1">
+        <v>43486</v>
+      </c>
+      <c r="BH182" t="s">
+        <v>88</v>
+      </c>
+      <c r="BI182" t="s">
+        <v>88</v>
+      </c>
+      <c r="BJ182" t="s">
+        <v>88</v>
+      </c>
+      <c r="BL182" s="1">
+        <v>44803</v>
+      </c>
+      <c r="BM182" t="s">
+        <v>274</v>
+      </c>
+      <c r="BN182" t="s">
+        <v>275</v>
+      </c>
+      <c r="BO182" s="1">
+        <v>44625</v>
+      </c>
+      <c r="BP182" t="s">
+        <v>222</v>
+      </c>
+      <c r="BQ182" t="s">
+        <v>88</v>
+      </c>
+      <c r="BR182" t="s">
+        <v>88</v>
+      </c>
+      <c r="BS182" t="s">
+        <v>88</v>
+      </c>
+      <c r="BT182" t="s">
+        <v>223</v>
+      </c>
+      <c r="BU182" t="s">
+        <v>116</v>
+      </c>
+      <c r="BV182" t="s">
+        <v>224</v>
+      </c>
+      <c r="BW182" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX182" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY182" t="s">
+        <v>120</v>
+      </c>
+      <c r="BZ182" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA182" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB182" t="s">
+        <v>120</v>
+      </c>
+      <c r="CC182" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD182" t="s">
+        <v>120</v>
+      </c>
+      <c r="CE182">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="183" spans="1:83" x14ac:dyDescent="0.15">
+      <c r="A183" t="s">
+        <v>82</v>
+      </c>
+      <c r="B183" s="1">
+        <v>44625</v>
+      </c>
+      <c r="C183" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D183" t="s">
+        <v>84</v>
+      </c>
+      <c r="E183" t="s">
+        <v>197</v>
+      </c>
+      <c r="F183" t="s">
+        <v>86</v>
+      </c>
+      <c r="G183" t="s">
+        <v>227</v>
+      </c>
+      <c r="H183" t="s">
+        <v>88</v>
+      </c>
+      <c r="I183" t="s">
+        <v>699</v>
+      </c>
+      <c r="J183" t="s">
+        <v>1439</v>
+      </c>
+      <c r="K183" t="s">
+        <v>91</v>
+      </c>
+      <c r="L183" t="s">
+        <v>1440</v>
+      </c>
+      <c r="M183" t="s">
+        <v>94</v>
+      </c>
+      <c r="N183" t="s">
+        <v>94</v>
+      </c>
+      <c r="O183" t="s">
+        <v>95</v>
+      </c>
+      <c r="P183" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q183" t="s">
+        <v>128</v>
+      </c>
+      <c r="R183" t="s">
+        <v>95</v>
+      </c>
+      <c r="S183" t="s">
+        <v>98</v>
+      </c>
+      <c r="T183" t="s">
+        <v>95</v>
+      </c>
+      <c r="U183" t="s">
+        <v>94</v>
+      </c>
+      <c r="V183" t="s">
+        <v>186</v>
+      </c>
+      <c r="W183" t="s">
+        <v>88</v>
+      </c>
+      <c r="X183" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y183" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z183" t="s">
+        <v>1441</v>
+      </c>
+      <c r="AA183" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB183" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC183" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD183" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF183" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG183" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH183" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI183" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ183" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK183" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL183" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM183" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN183" t="s">
+        <v>99</v>
+      </c>
+      <c r="AO183" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP183" t="s">
+        <v>99</v>
+      </c>
+      <c r="AQ183" t="s">
+        <v>99</v>
+      </c>
+      <c r="AR183" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS183" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT183" t="s">
+        <v>99</v>
+      </c>
+      <c r="AU183" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV183" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW183" t="s">
+        <v>95</v>
+      </c>
+      <c r="AX183" s="1">
+        <v>44625</v>
+      </c>
+      <c r="AY183" s="1">
+        <v>44622</v>
+      </c>
+      <c r="AZ183" t="s">
+        <v>93</v>
+      </c>
+      <c r="BA183" t="s">
+        <v>99</v>
+      </c>
+      <c r="BB183" t="s">
+        <v>107</v>
+      </c>
+      <c r="BC183" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD183" t="s">
+        <v>107</v>
+      </c>
+      <c r="BE183" t="s">
+        <v>155</v>
+      </c>
+      <c r="BF183" t="s">
+        <v>1442</v>
+      </c>
+      <c r="BG183" s="1">
+        <v>44261</v>
+      </c>
+      <c r="BH183" t="s">
+        <v>88</v>
+      </c>
+      <c r="BI183" t="s">
+        <v>88</v>
+      </c>
+      <c r="BJ183" t="s">
+        <v>88</v>
+      </c>
+      <c r="BL183" s="1">
+        <v>44803</v>
+      </c>
+      <c r="BM183" t="s">
+        <v>1423</v>
+      </c>
+      <c r="BN183" t="s">
+        <v>651</v>
+      </c>
+      <c r="BO183" s="1">
+        <v>44627</v>
+      </c>
+      <c r="BP183" t="s">
+        <v>206</v>
+      </c>
+      <c r="BQ183" t="s">
+        <v>88</v>
+      </c>
+      <c r="BR183" t="s">
+        <v>88</v>
+      </c>
+      <c r="BS183" t="s">
+        <v>88</v>
+      </c>
+      <c r="BT183" t="s">
+        <v>223</v>
+      </c>
+      <c r="BU183" t="s">
+        <v>116</v>
+      </c>
+      <c r="BV183" t="s">
+        <v>207</v>
+      </c>
+      <c r="BW183" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX183" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY183" t="s">
+        <v>119</v>
+      </c>
+      <c r="BZ183" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA183" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB183" t="s">
+        <v>119</v>
+      </c>
+      <c r="CC183" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD183" t="s">
+        <v>120</v>
+      </c>
+      <c r="CE183">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="184" spans="1:83" x14ac:dyDescent="0.15">
+      <c r="A184" t="s">
+        <v>82</v>
+      </c>
+      <c r="B184" s="1">
+        <v>44628</v>
+      </c>
+      <c r="C184" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D184" t="s">
+        <v>84</v>
+      </c>
+      <c r="E184" t="s">
+        <v>209</v>
+      </c>
+      <c r="F184" t="s">
+        <v>86</v>
+      </c>
+      <c r="G184" t="s">
+        <v>1443</v>
+      </c>
+      <c r="H184" t="s">
+        <v>88</v>
+      </c>
+      <c r="I184" t="s">
+        <v>252</v>
+      </c>
+      <c r="J184" t="s">
+        <v>1133</v>
+      </c>
+      <c r="K184" t="s">
+        <v>91</v>
+      </c>
+      <c r="L184" t="s">
+        <v>1444</v>
+      </c>
+      <c r="M184" t="s">
+        <v>108</v>
+      </c>
+      <c r="N184" t="s">
+        <v>99</v>
+      </c>
+      <c r="O184" t="s">
+        <v>95</v>
+      </c>
+      <c r="P184" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q184" t="s">
+        <v>128</v>
+      </c>
+      <c r="R184" t="s">
+        <v>95</v>
+      </c>
+      <c r="S184" t="s">
+        <v>98</v>
+      </c>
+      <c r="T184" t="s">
+        <v>129</v>
+      </c>
+      <c r="U184" t="s">
+        <v>94</v>
+      </c>
+      <c r="V184" t="s">
+        <v>215</v>
+      </c>
+      <c r="W184" t="s">
+        <v>88</v>
+      </c>
+      <c r="X184" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y184" t="s">
+        <v>1445</v>
+      </c>
+      <c r="Z184" t="s">
+        <v>1446</v>
+      </c>
+      <c r="AA184" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB184" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC184" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD184" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF184" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG184" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH184" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI184" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ184" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK184" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL184" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM184" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN184" t="s">
+        <v>99</v>
+      </c>
+      <c r="AO184" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP184" t="s">
+        <v>99</v>
+      </c>
+      <c r="AQ184" t="s">
+        <v>99</v>
+      </c>
+      <c r="AR184" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS184" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT184" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU184" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV184" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW184" t="s">
+        <v>129</v>
+      </c>
+      <c r="AX184" s="1">
+        <v>44628</v>
+      </c>
+      <c r="AY184" s="1">
+        <v>44621</v>
+      </c>
+      <c r="AZ184" t="s">
+        <v>93</v>
+      </c>
+      <c r="BA184" t="s">
+        <v>99</v>
+      </c>
+      <c r="BB184" t="s">
+        <v>107</v>
+      </c>
+      <c r="BC184" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD184" t="s">
+        <v>107</v>
+      </c>
+      <c r="BE184" t="s">
+        <v>155</v>
+      </c>
+      <c r="BF184" t="s">
+        <v>1447</v>
+      </c>
+      <c r="BG184" s="1">
+        <v>44392</v>
+      </c>
+      <c r="BH184" t="s">
+        <v>88</v>
+      </c>
+      <c r="BI184" t="s">
+        <v>88</v>
+      </c>
+      <c r="BJ184" t="s">
+        <v>88</v>
+      </c>
+      <c r="BL184" s="1">
+        <v>44803</v>
+      </c>
+      <c r="BM184" t="s">
+        <v>413</v>
+      </c>
+      <c r="BN184" t="s">
+        <v>414</v>
+      </c>
+      <c r="BO184" s="1">
+        <v>44629</v>
+      </c>
+      <c r="BP184" t="s">
+        <v>222</v>
+      </c>
+      <c r="BQ184" t="s">
+        <v>88</v>
+      </c>
+      <c r="BR184" t="s">
+        <v>88</v>
+      </c>
+      <c r="BS184" t="s">
+        <v>88</v>
+      </c>
+      <c r="BT184" t="s">
+        <v>223</v>
+      </c>
+      <c r="BU184" t="s">
+        <v>116</v>
+      </c>
+      <c r="BV184" t="s">
+        <v>224</v>
+      </c>
+      <c r="BW184" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX184" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY184" t="s">
+        <v>120</v>
+      </c>
+      <c r="BZ184" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA184" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB184" t="s">
+        <v>120</v>
+      </c>
+      <c r="CC184" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD184" t="s">
+        <v>120</v>
+      </c>
+      <c r="CE184">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="185" spans="1:83" x14ac:dyDescent="0.15">
+      <c r="A185" t="s">
+        <v>82</v>
+      </c>
+      <c r="B185" s="1">
+        <v>44622</v>
+      </c>
+      <c r="C185" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D185" t="s">
+        <v>84</v>
+      </c>
+      <c r="E185" t="s">
+        <v>250</v>
+      </c>
+      <c r="F185" t="s">
+        <v>226</v>
+      </c>
+      <c r="G185" t="s">
+        <v>251</v>
+      </c>
+      <c r="H185" t="s">
+        <v>1448</v>
+      </c>
+      <c r="I185" t="s">
+        <v>418</v>
+      </c>
+      <c r="J185" t="s">
+        <v>510</v>
+      </c>
+      <c r="K185" t="s">
+        <v>91</v>
+      </c>
+      <c r="L185" t="s">
+        <v>1449</v>
+      </c>
+      <c r="M185" t="s">
+        <v>93</v>
+      </c>
+      <c r="N185" t="s">
+        <v>94</v>
+      </c>
+      <c r="O185" t="s">
+        <v>95</v>
+      </c>
+      <c r="P185" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q185" t="s">
+        <v>128</v>
+      </c>
+      <c r="R185" t="s">
+        <v>95</v>
+      </c>
+      <c r="S185" t="s">
+        <v>98</v>
+      </c>
+      <c r="T185" t="s">
+        <v>129</v>
+      </c>
+      <c r="U185" t="s">
+        <v>99</v>
+      </c>
+      <c r="V185" t="s">
+        <v>88</v>
+      </c>
+      <c r="W185" t="s">
+        <v>1188</v>
+      </c>
+      <c r="X185" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y185" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z185" t="s">
+        <v>1450</v>
+      </c>
+      <c r="AA185" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB185" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC185" t="s">
+        <v>260</v>
+      </c>
+      <c r="AD185" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF185" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG185" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH185" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI185" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ185" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK185" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL185" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM185" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN185" t="s">
+        <v>99</v>
+      </c>
+      <c r="AO185" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP185" t="s">
+        <v>99</v>
+      </c>
+      <c r="AQ185" t="s">
+        <v>99</v>
+      </c>
+      <c r="AR185" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS185" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT185" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU185" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV185" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW185" t="s">
+        <v>129</v>
+      </c>
+      <c r="AX185" s="1">
+        <v>44622</v>
+      </c>
+      <c r="AY185" s="1">
+        <v>44619</v>
+      </c>
+      <c r="AZ185" t="s">
+        <v>93</v>
+      </c>
+      <c r="BA185" t="s">
+        <v>99</v>
+      </c>
+      <c r="BB185" t="s">
+        <v>107</v>
+      </c>
+      <c r="BC185" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD185" t="s">
+        <v>107</v>
+      </c>
+      <c r="BE185" t="s">
+        <v>155</v>
+      </c>
+      <c r="BF185" t="s">
+        <v>1451</v>
+      </c>
+      <c r="BG185" s="1">
+        <v>43029</v>
+      </c>
+      <c r="BH185" t="s">
+        <v>88</v>
+      </c>
+      <c r="BI185" t="s">
+        <v>88</v>
+      </c>
+      <c r="BJ185" t="s">
+        <v>88</v>
+      </c>
+      <c r="BL185" s="1">
+        <v>44803</v>
+      </c>
+      <c r="BM185" t="s">
+        <v>1452</v>
+      </c>
+      <c r="BN185" t="s">
+        <v>263</v>
+      </c>
+      <c r="BO185" s="1">
+        <v>44691</v>
+      </c>
+      <c r="BP185" t="s">
+        <v>264</v>
+      </c>
+      <c r="BQ185" t="s">
+        <v>88</v>
+      </c>
+      <c r="BR185" t="s">
+        <v>88</v>
+      </c>
+      <c r="BS185" t="s">
+        <v>88</v>
+      </c>
+      <c r="BT185" t="s">
+        <v>465</v>
+      </c>
+      <c r="BU185" t="s">
+        <v>116</v>
+      </c>
+      <c r="BV185" t="s">
+        <v>986</v>
+      </c>
+      <c r="BW185" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX185" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY185" t="s">
+        <v>120</v>
+      </c>
+      <c r="BZ185" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA185" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB185" t="s">
+        <v>120</v>
+      </c>
+      <c r="CC185" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD185" t="s">
+        <v>120</v>
+      </c>
+      <c r="CE185">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="186" spans="1:83" x14ac:dyDescent="0.15">
+      <c r="A186" t="s">
+        <v>82</v>
+      </c>
+      <c r="B186" s="1">
+        <v>44624</v>
+      </c>
+      <c r="C186" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D186" t="s">
+        <v>84</v>
+      </c>
+      <c r="E186" t="s">
+        <v>250</v>
+      </c>
+      <c r="F186" t="s">
+        <v>226</v>
+      </c>
+      <c r="G186" t="s">
+        <v>1453</v>
+      </c>
+      <c r="H186" t="s">
+        <v>308</v>
+      </c>
+      <c r="I186" t="s">
+        <v>299</v>
+      </c>
+      <c r="J186" t="s">
+        <v>458</v>
+      </c>
+      <c r="K186" t="s">
+        <v>254</v>
+      </c>
+      <c r="L186" t="s">
+        <v>1454</v>
+      </c>
+      <c r="M186" t="s">
+        <v>208</v>
+      </c>
+      <c r="N186" t="s">
+        <v>94</v>
+      </c>
+      <c r="O186" t="s">
+        <v>95</v>
+      </c>
+      <c r="P186" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q186" t="s">
+        <v>97</v>
+      </c>
+      <c r="R186" t="s">
+        <v>95</v>
+      </c>
+      <c r="S186" t="s">
+        <v>98</v>
+      </c>
+      <c r="T186" t="s">
+        <v>129</v>
+      </c>
+      <c r="U186" t="s">
+        <v>99</v>
+      </c>
+      <c r="V186" t="s">
+        <v>88</v>
+      </c>
+      <c r="W186" t="s">
+        <v>1455</v>
+      </c>
+      <c r="X186" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y186" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z186" t="s">
+        <v>1456</v>
+      </c>
+      <c r="AA186" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB186" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC186" t="s">
+        <v>284</v>
+      </c>
+      <c r="AD186" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF186" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG186" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH186" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI186" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ186" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK186" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL186" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM186" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN186" t="s">
+        <v>99</v>
+      </c>
+      <c r="AO186" t="s">
+        <v>99</v>
+      </c>
+      <c r="AP186" t="s">
+        <v>99</v>
+      </c>
+      <c r="AQ186" t="s">
+        <v>99</v>
+      </c>
+      <c r="AR186" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS186" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT186" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU186" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV186" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW186" t="s">
+        <v>129</v>
+      </c>
+      <c r="AX186" s="1">
+        <v>44624</v>
+      </c>
+      <c r="AY186" s="1">
+        <v>44624</v>
+      </c>
+      <c r="AZ186" t="s">
+        <v>93</v>
+      </c>
+      <c r="BA186" t="s">
+        <v>99</v>
+      </c>
+      <c r="BB186" t="s">
+        <v>107</v>
+      </c>
+      <c r="BC186" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD186" t="s">
+        <v>107</v>
+      </c>
+      <c r="BE186" t="s">
+        <v>155</v>
+      </c>
+      <c r="BF186" t="s">
+        <v>1457</v>
+      </c>
+      <c r="BG186" s="1">
+        <v>40674</v>
+      </c>
+      <c r="BH186" t="s">
+        <v>88</v>
+      </c>
+      <c r="BI186" t="s">
+        <v>88</v>
+      </c>
+      <c r="BJ186" t="s">
+        <v>88</v>
+      </c>
+      <c r="BL186" s="1">
+        <v>44803</v>
+      </c>
+      <c r="BM186" t="s">
+        <v>1452</v>
+      </c>
+      <c r="BN186" t="s">
+        <v>263</v>
+      </c>
+      <c r="BO186" s="1">
+        <v>44691</v>
+      </c>
+      <c r="BP186" t="s">
+        <v>264</v>
+      </c>
+      <c r="BQ186" t="s">
+        <v>88</v>
+      </c>
+      <c r="BR186" t="s">
+        <v>88</v>
+      </c>
+      <c r="BS186" t="s">
+        <v>88</v>
+      </c>
+      <c r="BT186" t="s">
+        <v>465</v>
+      </c>
+      <c r="BU186" t="s">
+        <v>116</v>
+      </c>
+      <c r="BV186" t="s">
+        <v>986</v>
+      </c>
+      <c r="BW186" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX186" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY186" t="s">
+        <v>120</v>
+      </c>
+      <c r="BZ186" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA186" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB186" t="s">
+        <v>120</v>
+      </c>
+      <c r="CC186" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD186" t="s">
+        <v>120</v>
+      </c>
+      <c r="CE186">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="187" spans="1:83" x14ac:dyDescent="0.15">
+      <c r="A187" t="s">
+        <v>82</v>
+      </c>
+      <c r="B187" s="1">
+        <v>44626</v>
+      </c>
+      <c r="C187" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D187" t="s">
+        <v>84</v>
+      </c>
+      <c r="E187" t="s">
+        <v>250</v>
+      </c>
+      <c r="F187" t="s">
+        <v>520</v>
+      </c>
+      <c r="G187" t="s">
+        <v>168</v>
+      </c>
+      <c r="H187" t="s">
+        <v>169</v>
+      </c>
+      <c r="I187" t="s">
+        <v>184</v>
+      </c>
+      <c r="J187" t="s">
+        <v>267</v>
+      </c>
+      <c r="K187" t="s">
+        <v>254</v>
+      </c>
+      <c r="L187" t="s">
+        <v>1458</v>
+      </c>
+      <c r="M187" t="s">
+        <v>83</v>
+      </c>
+      <c r="N187" t="s">
+        <v>94</v>
+      </c>
+      <c r="O187" t="s">
+        <v>95</v>
+      </c>
+      <c r="P187" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q187" t="s">
+        <v>128</v>
+      </c>
+      <c r="R187" t="s">
+        <v>95</v>
+      </c>
+      <c r="S187" t="s">
+        <v>98</v>
+      </c>
+      <c r="T187" t="s">
+        <v>129</v>
+      </c>
+      <c r="U187" t="s">
+        <v>99</v>
+      </c>
+      <c r="V187" t="s">
+        <v>88</v>
+      </c>
+      <c r="W187" t="s">
+        <v>1459</v>
+      </c>
+      <c r="X187" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y187" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z187" t="s">
+        <v>1459</v>
+      </c>
+      <c r="AA187" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB187" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC187" t="s">
+        <v>284</v>
+      </c>
+      <c r="AD187" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF187" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG187" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH187" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI187" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ187" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK187" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL187" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM187" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN187" t="s">
+        <v>99</v>
+      </c>
+      <c r="AO187" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP187" t="s">
+        <v>99</v>
+      </c>
+      <c r="AQ187" t="s">
+        <v>99</v>
+      </c>
+      <c r="AR187" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS187" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT187" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU187" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV187" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW187" t="s">
+        <v>129</v>
+      </c>
+      <c r="AX187" s="1">
+        <v>44626</v>
+      </c>
+      <c r="AY187" s="1">
+        <v>44624</v>
+      </c>
+      <c r="AZ187" t="s">
+        <v>93</v>
+      </c>
+      <c r="BA187" t="s">
+        <v>99</v>
+      </c>
+      <c r="BB187" t="s">
+        <v>107</v>
+      </c>
+      <c r="BC187" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD187" t="s">
+        <v>107</v>
+      </c>
+      <c r="BE187" t="s">
+        <v>155</v>
+      </c>
+      <c r="BF187" t="s">
+        <v>1460</v>
+      </c>
+      <c r="BG187" s="1">
+        <v>40244</v>
+      </c>
+      <c r="BH187" t="s">
+        <v>88</v>
+      </c>
+      <c r="BI187" t="s">
+        <v>88</v>
+      </c>
+      <c r="BJ187" t="s">
+        <v>88</v>
+      </c>
+      <c r="BL187" s="1">
+        <v>44803</v>
+      </c>
+      <c r="BM187" t="s">
+        <v>1461</v>
+      </c>
+      <c r="BN187" t="s">
+        <v>263</v>
+      </c>
+      <c r="BO187" s="1">
+        <v>44628</v>
+      </c>
+      <c r="BP187" t="s">
+        <v>884</v>
+      </c>
+      <c r="BQ187" t="s">
+        <v>88</v>
+      </c>
+      <c r="BR187" t="s">
+        <v>88</v>
+      </c>
+      <c r="BS187" t="s">
+        <v>88</v>
+      </c>
+      <c r="BT187" t="s">
+        <v>223</v>
+      </c>
+      <c r="BU187" t="s">
+        <v>116</v>
+      </c>
+      <c r="BV187" t="s">
+        <v>885</v>
+      </c>
+      <c r="BW187" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX187" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY187" t="s">
+        <v>120</v>
+      </c>
+      <c r="BZ187" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA187" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB187" t="s">
+        <v>120</v>
+      </c>
+      <c r="CC187" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD187" t="s">
+        <v>120</v>
+      </c>
+      <c r="CE187">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="188" spans="1:83" x14ac:dyDescent="0.15">
+      <c r="A188" t="s">
+        <v>82</v>
+      </c>
+      <c r="B188" s="1">
+        <v>44622</v>
+      </c>
+      <c r="C188" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D188" t="s">
+        <v>84</v>
+      </c>
+      <c r="E188" t="s">
+        <v>209</v>
+      </c>
+      <c r="F188" t="s">
+        <v>86</v>
+      </c>
+      <c r="G188" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H188" t="s">
+        <v>88</v>
+      </c>
+      <c r="I188" t="s">
+        <v>1463</v>
+      </c>
+      <c r="J188" t="s">
+        <v>241</v>
+      </c>
+      <c r="K188" t="s">
+        <v>254</v>
+      </c>
+      <c r="L188" t="s">
+        <v>1464</v>
+      </c>
+      <c r="M188" t="s">
+        <v>208</v>
+      </c>
+      <c r="N188" t="s">
+        <v>94</v>
+      </c>
+      <c r="O188" t="s">
+        <v>95</v>
+      </c>
+      <c r="P188" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q188" t="s">
+        <v>128</v>
+      </c>
+      <c r="R188" t="s">
+        <v>95</v>
+      </c>
+      <c r="S188" t="s">
+        <v>98</v>
+      </c>
+      <c r="T188" t="s">
+        <v>129</v>
+      </c>
+      <c r="U188" t="s">
+        <v>94</v>
+      </c>
+      <c r="V188" t="s">
+        <v>215</v>
+      </c>
+      <c r="W188" t="s">
+        <v>88</v>
+      </c>
+      <c r="X188" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y188" t="s">
+        <v>1465</v>
+      </c>
+      <c r="Z188" t="s">
+        <v>1466</v>
+      </c>
+      <c r="AA188" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB188" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC188" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD188" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF188" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG188" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH188" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI188" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ188" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK188" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL188" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM188" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN188" t="s">
+        <v>99</v>
+      </c>
+      <c r="AO188" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP188" t="s">
+        <v>99</v>
+      </c>
+      <c r="AQ188" t="s">
+        <v>99</v>
+      </c>
+      <c r="AR188" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS188" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT188" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU188" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV188" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW188" t="s">
+        <v>129</v>
+      </c>
+      <c r="AX188" s="1">
+        <v>44622</v>
+      </c>
+      <c r="AY188" s="1">
+        <v>44621</v>
+      </c>
+      <c r="AZ188" t="s">
+        <v>93</v>
+      </c>
+      <c r="BA188" t="s">
+        <v>99</v>
+      </c>
+      <c r="BB188" t="s">
+        <v>107</v>
+      </c>
+      <c r="BC188" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD188" t="s">
+        <v>107</v>
+      </c>
+      <c r="BE188" t="s">
+        <v>155</v>
+      </c>
+      <c r="BF188" t="s">
+        <v>1467</v>
+      </c>
+      <c r="BG188" s="1">
+        <v>40724</v>
+      </c>
+      <c r="BH188" t="s">
+        <v>88</v>
+      </c>
+      <c r="BI188" t="s">
+        <v>88</v>
+      </c>
+      <c r="BJ188" t="s">
+        <v>88</v>
+      </c>
+      <c r="BL188" s="1">
+        <v>44803</v>
+      </c>
+      <c r="BM188" t="s">
+        <v>627</v>
+      </c>
+      <c r="BN188" t="s">
+        <v>628</v>
+      </c>
+      <c r="BO188" s="1">
+        <v>44624</v>
+      </c>
+      <c r="BP188" t="s">
+        <v>222</v>
+      </c>
+      <c r="BQ188" t="s">
+        <v>88</v>
+      </c>
+      <c r="BR188" t="s">
+        <v>88</v>
+      </c>
+      <c r="BS188" t="s">
+        <v>88</v>
+      </c>
+      <c r="BT188" t="s">
+        <v>223</v>
+      </c>
+      <c r="BU188" t="s">
+        <v>116</v>
+      </c>
+      <c r="BV188" t="s">
+        <v>224</v>
+      </c>
+      <c r="BW188" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX188" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY188" t="s">
+        <v>120</v>
+      </c>
+      <c r="BZ188" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA188" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB188" t="s">
+        <v>120</v>
+      </c>
+      <c r="CC188" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD188" t="s">
+        <v>120</v>
+      </c>
+      <c r="CE188">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="189" spans="1:83" x14ac:dyDescent="0.15">
+      <c r="A189" t="s">
+        <v>82</v>
+      </c>
+      <c r="B189" s="1">
+        <v>44627</v>
+      </c>
+      <c r="C189" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D189" t="s">
+        <v>84</v>
+      </c>
+      <c r="E189" t="s">
+        <v>209</v>
+      </c>
+      <c r="F189" t="s">
+        <v>86</v>
+      </c>
+      <c r="G189" t="s">
+        <v>837</v>
+      </c>
+      <c r="H189" t="s">
+        <v>380</v>
+      </c>
+      <c r="I189" t="s">
+        <v>887</v>
+      </c>
+      <c r="J189" t="s">
+        <v>170</v>
+      </c>
+      <c r="K189" t="s">
+        <v>254</v>
+      </c>
+      <c r="L189" t="s">
+        <v>1468</v>
+      </c>
+      <c r="M189" t="s">
+        <v>466</v>
+      </c>
+      <c r="N189" t="s">
+        <v>94</v>
+      </c>
+      <c r="O189" t="s">
+        <v>95</v>
+      </c>
+      <c r="P189" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q189" t="s">
+        <v>128</v>
+      </c>
+      <c r="R189" t="s">
+        <v>95</v>
+      </c>
+      <c r="S189" t="s">
+        <v>98</v>
+      </c>
+      <c r="T189" t="s">
+        <v>129</v>
+      </c>
+      <c r="U189" t="s">
+        <v>94</v>
+      </c>
+      <c r="V189" t="s">
+        <v>215</v>
+      </c>
+      <c r="W189" t="s">
+        <v>88</v>
+      </c>
+      <c r="X189" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y189" t="s">
+        <v>1469</v>
+      </c>
+      <c r="Z189" t="s">
+        <v>1470</v>
+      </c>
+      <c r="AA189" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB189" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC189" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD189" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF189" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG189" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH189" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI189" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ189" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK189" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL189" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM189" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN189" t="s">
+        <v>99</v>
+      </c>
+      <c r="AO189" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP189" t="s">
+        <v>99</v>
+      </c>
+      <c r="AQ189" t="s">
+        <v>99</v>
+      </c>
+      <c r="AR189" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS189" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT189" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU189" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV189" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW189" t="s">
+        <v>129</v>
+      </c>
+      <c r="AX189" s="1">
+        <v>44627</v>
+      </c>
+      <c r="AY189" s="1">
+        <v>44624</v>
+      </c>
+      <c r="AZ189" t="s">
+        <v>93</v>
+      </c>
+      <c r="BA189" t="s">
+        <v>99</v>
+      </c>
+      <c r="BB189" t="s">
+        <v>107</v>
+      </c>
+      <c r="BC189" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD189" t="s">
+        <v>107</v>
+      </c>
+      <c r="BE189" t="s">
+        <v>155</v>
+      </c>
+      <c r="BF189" t="s">
+        <v>1471</v>
+      </c>
+      <c r="BG189" s="1">
+        <v>39656</v>
+      </c>
+      <c r="BH189" t="s">
+        <v>88</v>
+      </c>
+      <c r="BI189" t="s">
+        <v>88</v>
+      </c>
+      <c r="BJ189" t="s">
+        <v>88</v>
+      </c>
+      <c r="BL189" s="1">
+        <v>44803</v>
+      </c>
+      <c r="BM189" t="s">
+        <v>627</v>
+      </c>
+      <c r="BN189" t="s">
+        <v>628</v>
+      </c>
+      <c r="BO189" s="1">
+        <v>44628</v>
+      </c>
+      <c r="BP189" t="s">
+        <v>222</v>
+      </c>
+      <c r="BQ189" t="s">
+        <v>88</v>
+      </c>
+      <c r="BR189" t="s">
+        <v>88</v>
+      </c>
+      <c r="BS189" t="s">
+        <v>88</v>
+      </c>
+      <c r="BT189" t="s">
+        <v>223</v>
+      </c>
+      <c r="BU189" t="s">
+        <v>116</v>
+      </c>
+      <c r="BV189" t="s">
+        <v>224</v>
+      </c>
+      <c r="BW189" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX189" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY189" t="s">
+        <v>120</v>
+      </c>
+      <c r="BZ189" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA189" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB189" t="s">
+        <v>120</v>
+      </c>
+      <c r="CC189" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD189" t="s">
+        <v>120</v>
+      </c>
+      <c r="CE189">
         <v>45</v>
       </c>
     </row>

--- a/Boletin_ Epi_Pereira/Datos/evento 831 datos basicos.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/evento 831 datos basicos.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JorgeMario/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{285900FE-5F50-B94D-8EAA-D5FE562B52BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{993E2137-C2AA-D543-A7D7-54505D31FADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460"/>
   </bookViews>
   <sheets>
     <sheet name="evento 831 datos basicos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16385" uniqueCount="1671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16755" uniqueCount="1698">
   <si>
     <t>cod_eve</t>
   </si>
@@ -4540,6 +4540,30 @@
     <t>OLGA JANET ZAMORA AGUDELO</t>
   </si>
   <si>
+    <t>JESIBETH</t>
+  </si>
+  <si>
+    <t>PALACIOS</t>
+  </si>
+  <si>
+    <t>BORJA</t>
+  </si>
+  <si>
+    <t>1029151345</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>CIUDAD PEREIRA</t>
+  </si>
+  <si>
+    <t>CARRERA 38A # 80-35</t>
+  </si>
+  <si>
+    <t>3222552018</t>
+  </si>
+  <si>
     <t>GUAPACHA</t>
   </si>
   <si>
@@ -4612,6 +4636,66 @@
     <t>SIVIGILA - 2018 -18.4.0$0$0.3</t>
   </si>
   <si>
+    <t>CIRO</t>
+  </si>
+  <si>
+    <t>1010092754</t>
+  </si>
+  <si>
+    <t>MANZANA 19 CASA 24 HACIENDA CUBA</t>
+  </si>
+  <si>
+    <t>3136300398</t>
+  </si>
+  <si>
+    <t>ANYELA SOFIA PRADILLA SERRANO</t>
+  </si>
+  <si>
+    <t>1088833683</t>
+  </si>
+  <si>
+    <t>MZ 26 CS 10 INTERMEDIO VILLASANTANA</t>
+  </si>
+  <si>
+    <t>3123953959</t>
+  </si>
+  <si>
+    <t>JOSE HUMBERTO ROJAS</t>
+  </si>
+  <si>
+    <t>1092459306</t>
+  </si>
+  <si>
+    <t>SAMARIA 1</t>
+  </si>
+  <si>
+    <t>MANZANA 41 CASA 23 PISO 2</t>
+  </si>
+  <si>
+    <t>3103813565</t>
+  </si>
+  <si>
+    <t>31464008557</t>
+  </si>
+  <si>
+    <t>YENY</t>
+  </si>
+  <si>
+    <t>1109291734</t>
+  </si>
+  <si>
+    <t>CL 17  4-48</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>MARIA DEL PILAR VILLAMIL</t>
+  </si>
+  <si>
+    <t>CENTRO DE SALUD SANTA TERESITA</t>
+  </si>
+  <si>
     <t>4438717</t>
   </si>
   <si>
@@ -4706,9 +4790,6 @@
   </si>
   <si>
     <t>1089614427</t>
-  </si>
-  <si>
-    <t>9</t>
   </si>
   <si>
     <t>MANZANA 7 CASA 36 HACIENDA CUBA</t>
@@ -5450,10 +5531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CE222"/>
+  <dimension ref="A1:CE227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5469,7 +5550,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>1670</v>
+        <v>1697</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -5897,7 +5978,7 @@
         <v>111</v>
       </c>
       <c r="BL2" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM2" t="s">
         <v>112</v>
@@ -6145,7 +6226,7 @@
         <v>137</v>
       </c>
       <c r="BL3" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM3" t="s">
         <v>138</v>
@@ -6390,7 +6471,7 @@
         <v>88</v>
       </c>
       <c r="BL4" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM4" t="s">
         <v>157</v>
@@ -6635,7 +6716,7 @@
         <v>88</v>
       </c>
       <c r="BL5" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM5" t="s">
         <v>157</v>
@@ -6880,7 +6961,7 @@
         <v>88</v>
       </c>
       <c r="BL6" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM6" t="s">
         <v>157</v>
@@ -7125,7 +7206,7 @@
         <v>88</v>
       </c>
       <c r="BL7" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM7" t="s">
         <v>178</v>
@@ -7370,7 +7451,7 @@
         <v>88</v>
       </c>
       <c r="BL8" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM8" t="s">
         <v>192</v>
@@ -7615,7 +7696,7 @@
         <v>88</v>
       </c>
       <c r="BL9" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM9" t="s">
         <v>204</v>
@@ -7860,7 +7941,7 @@
         <v>88</v>
       </c>
       <c r="BL10" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM10" t="s">
         <v>220</v>
@@ -8105,7 +8186,7 @@
         <v>88</v>
       </c>
       <c r="BL11" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM11" t="s">
         <v>234</v>
@@ -8350,7 +8431,7 @@
         <v>88</v>
       </c>
       <c r="BL12" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM12" t="s">
         <v>246</v>
@@ -8595,7 +8676,7 @@
         <v>88</v>
       </c>
       <c r="BL13" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM13" t="s">
         <v>262</v>
@@ -8840,7 +8921,7 @@
         <v>88</v>
       </c>
       <c r="BL14" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM14" t="s">
         <v>274</v>
@@ -9085,7 +9166,7 @@
         <v>88</v>
       </c>
       <c r="BL15" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM15" t="s">
         <v>286</v>
@@ -9330,7 +9411,7 @@
         <v>88</v>
       </c>
       <c r="BL16" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM16" t="s">
         <v>296</v>
@@ -9575,7 +9656,7 @@
         <v>88</v>
       </c>
       <c r="BL17" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM17" t="s">
         <v>305</v>
@@ -9820,7 +9901,7 @@
         <v>88</v>
       </c>
       <c r="BL18" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM18" t="s">
         <v>315</v>
@@ -10065,7 +10146,7 @@
         <v>88</v>
       </c>
       <c r="BL19" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM19" t="s">
         <v>326</v>
@@ -10310,7 +10391,7 @@
         <v>88</v>
       </c>
       <c r="BL20" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM20" t="s">
         <v>339</v>
@@ -10555,7 +10636,7 @@
         <v>88</v>
       </c>
       <c r="BL21" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM21" t="s">
         <v>349</v>
@@ -10800,7 +10881,7 @@
         <v>88</v>
       </c>
       <c r="BL22" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM22" t="s">
         <v>359</v>
@@ -11045,7 +11126,7 @@
         <v>88</v>
       </c>
       <c r="BL23" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM23" t="s">
         <v>368</v>
@@ -11290,7 +11371,7 @@
         <v>88</v>
       </c>
       <c r="BL24" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM24" t="s">
         <v>377</v>
@@ -11535,7 +11616,7 @@
         <v>88</v>
       </c>
       <c r="BL25" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM25" t="s">
         <v>388</v>
@@ -11780,7 +11861,7 @@
         <v>88</v>
       </c>
       <c r="BL26" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM26" t="s">
         <v>398</v>
@@ -12013,7 +12094,7 @@
         <v>88</v>
       </c>
       <c r="BL27" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM27" t="s">
         <v>274</v>
@@ -12258,7 +12339,7 @@
         <v>88</v>
       </c>
       <c r="BL28" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM28" t="s">
         <v>413</v>
@@ -12503,7 +12584,7 @@
         <v>88</v>
       </c>
       <c r="BL29" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM29" t="s">
         <v>423</v>
@@ -12748,7 +12829,7 @@
         <v>88</v>
       </c>
       <c r="BL30" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM30" t="s">
         <v>430</v>
@@ -12993,7 +13074,7 @@
         <v>88</v>
       </c>
       <c r="BL31" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM31" t="s">
         <v>437</v>
@@ -13238,7 +13319,7 @@
         <v>88</v>
       </c>
       <c r="BL32" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM32" t="s">
         <v>443</v>
@@ -13483,7 +13564,7 @@
         <v>88</v>
       </c>
       <c r="BL33" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM33" t="s">
         <v>450</v>
@@ -13728,7 +13809,7 @@
         <v>88</v>
       </c>
       <c r="BL34" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM34" t="s">
         <v>457</v>
@@ -13973,7 +14054,7 @@
         <v>88</v>
       </c>
       <c r="BL35" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM35" t="s">
         <v>463</v>
@@ -14218,7 +14299,7 @@
         <v>88</v>
       </c>
       <c r="BL36" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM36" t="s">
         <v>423</v>
@@ -14463,7 +14544,7 @@
         <v>88</v>
       </c>
       <c r="BL37" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM37" t="s">
         <v>482</v>
@@ -14708,7 +14789,7 @@
         <v>88</v>
       </c>
       <c r="BL38" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM38" t="s">
         <v>490</v>
@@ -14953,7 +15034,7 @@
         <v>88</v>
       </c>
       <c r="BL39" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM39" t="s">
         <v>500</v>
@@ -15198,7 +15279,7 @@
         <v>88</v>
       </c>
       <c r="BL40" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM40" t="s">
         <v>505</v>
@@ -15443,7 +15524,7 @@
         <v>88</v>
       </c>
       <c r="BL41" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM41" t="s">
         <v>413</v>
@@ -15688,7 +15769,7 @@
         <v>88</v>
       </c>
       <c r="BL42" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM42" t="s">
         <v>525</v>
@@ -15933,7 +16014,7 @@
         <v>88</v>
       </c>
       <c r="BL43" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM43" t="s">
         <v>525</v>
@@ -16178,7 +16259,7 @@
         <v>88</v>
       </c>
       <c r="BL44" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM44" t="s">
         <v>544</v>
@@ -16423,7 +16504,7 @@
         <v>88</v>
       </c>
       <c r="BL45" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM45" t="s">
         <v>555</v>
@@ -16656,7 +16737,7 @@
         <v>88</v>
       </c>
       <c r="BL46" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM46" t="s">
         <v>563</v>
@@ -16901,7 +16982,7 @@
         <v>88</v>
       </c>
       <c r="BL47" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM47" t="s">
         <v>570</v>
@@ -17146,7 +17227,7 @@
         <v>88</v>
       </c>
       <c r="BL48" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM48" t="s">
         <v>578</v>
@@ -17391,7 +17472,7 @@
         <v>88</v>
       </c>
       <c r="BL49" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM49" t="s">
         <v>587</v>
@@ -17636,7 +17717,7 @@
         <v>88</v>
       </c>
       <c r="BL50" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM50" t="s">
         <v>593</v>
@@ -17881,7 +17962,7 @@
         <v>88</v>
       </c>
       <c r="BL51" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM51" t="s">
         <v>500</v>
@@ -18126,7 +18207,7 @@
         <v>88</v>
       </c>
       <c r="BL52" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM52" t="s">
         <v>607</v>
@@ -18371,7 +18452,7 @@
         <v>88</v>
       </c>
       <c r="BL53" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM53" t="s">
         <v>613</v>
@@ -18616,7 +18697,7 @@
         <v>88</v>
       </c>
       <c r="BL54" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM54" t="s">
         <v>234</v>
@@ -18861,7 +18942,7 @@
         <v>88</v>
       </c>
       <c r="BL55" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM55" t="s">
         <v>628</v>
@@ -19106,7 +19187,7 @@
         <v>88</v>
       </c>
       <c r="BL56" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM56" t="s">
         <v>636</v>
@@ -19351,7 +19432,7 @@
         <v>88</v>
       </c>
       <c r="BL57" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM57" t="s">
         <v>570</v>
@@ -19596,7 +19677,7 @@
         <v>88</v>
       </c>
       <c r="BL58" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM58" t="s">
         <v>651</v>
@@ -19841,7 +19922,7 @@
         <v>88</v>
       </c>
       <c r="BL59" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM59" t="s">
         <v>658</v>
@@ -20086,7 +20167,7 @@
         <v>88</v>
       </c>
       <c r="BL60" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM60" t="s">
         <v>665</v>
@@ -20331,7 +20412,7 @@
         <v>88</v>
       </c>
       <c r="BL61" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM61" t="s">
         <v>672</v>
@@ -20576,7 +20657,7 @@
         <v>88</v>
       </c>
       <c r="BL62" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM62" t="s">
         <v>678</v>
@@ -20821,7 +20902,7 @@
         <v>88</v>
       </c>
       <c r="BL63" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM63" t="s">
         <v>628</v>
@@ -21066,7 +21147,7 @@
         <v>88</v>
       </c>
       <c r="BL64" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM64" t="s">
         <v>688</v>
@@ -21311,7 +21392,7 @@
         <v>88</v>
       </c>
       <c r="BL65" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM65" t="s">
         <v>698</v>
@@ -21556,7 +21637,7 @@
         <v>88</v>
       </c>
       <c r="BL66" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM66" t="s">
         <v>706</v>
@@ -21801,7 +21882,7 @@
         <v>88</v>
       </c>
       <c r="BL67" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM67" t="s">
         <v>443</v>
@@ -22046,7 +22127,7 @@
         <v>88</v>
       </c>
       <c r="BL68" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM68" t="s">
         <v>718</v>
@@ -22279,7 +22360,7 @@
         <v>88</v>
       </c>
       <c r="BL69" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM69" t="s">
         <v>728</v>
@@ -22524,7 +22605,7 @@
         <v>88</v>
       </c>
       <c r="BL70" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM70" t="s">
         <v>737</v>
@@ -22769,7 +22850,7 @@
         <v>88</v>
       </c>
       <c r="BL71" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM71" t="s">
         <v>744</v>
@@ -23014,7 +23095,7 @@
         <v>88</v>
       </c>
       <c r="BL72" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM72" t="s">
         <v>157</v>
@@ -23259,7 +23340,7 @@
         <v>88</v>
       </c>
       <c r="BL73" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM73" t="s">
         <v>157</v>
@@ -23504,7 +23585,7 @@
         <v>88</v>
       </c>
       <c r="BL74" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM74" t="s">
         <v>628</v>
@@ -23749,7 +23830,7 @@
         <v>88</v>
       </c>
       <c r="BL75" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM75" t="s">
         <v>764</v>
@@ -23994,7 +24075,7 @@
         <v>88</v>
       </c>
       <c r="BL76" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM76" t="s">
         <v>774</v>
@@ -24239,7 +24320,7 @@
         <v>88</v>
       </c>
       <c r="BL77" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM77" t="s">
         <v>157</v>
@@ -24484,7 +24565,7 @@
         <v>88</v>
       </c>
       <c r="BL78" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM78" t="s">
         <v>157</v>
@@ -24729,7 +24810,7 @@
         <v>88</v>
       </c>
       <c r="BL79" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM79" t="s">
         <v>157</v>
@@ -24974,7 +25055,7 @@
         <v>88</v>
       </c>
       <c r="BL80" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM80" t="s">
         <v>505</v>
@@ -25219,7 +25300,7 @@
         <v>88</v>
       </c>
       <c r="BL81" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM81" t="s">
         <v>798</v>
@@ -25464,7 +25545,7 @@
         <v>88</v>
       </c>
       <c r="BL82" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM82" t="s">
         <v>805</v>
@@ -25709,7 +25790,7 @@
         <v>88</v>
       </c>
       <c r="BL83" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM83" t="s">
         <v>812</v>
@@ -25954,7 +26035,7 @@
         <v>88</v>
       </c>
       <c r="BL84" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM84" t="s">
         <v>819</v>
@@ -26199,7 +26280,7 @@
         <v>88</v>
       </c>
       <c r="BL85" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM85" t="s">
         <v>824</v>
@@ -26444,7 +26525,7 @@
         <v>88</v>
       </c>
       <c r="BL86" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM86" t="s">
         <v>829</v>
@@ -26689,7 +26770,7 @@
         <v>88</v>
       </c>
       <c r="BL87" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM87" t="s">
         <v>837</v>
@@ -26934,7 +27015,7 @@
         <v>88</v>
       </c>
       <c r="BL88" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM88" t="s">
         <v>844</v>
@@ -27179,7 +27260,7 @@
         <v>88</v>
       </c>
       <c r="BL89" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM89" t="s">
         <v>854</v>
@@ -27424,7 +27505,7 @@
         <v>88</v>
       </c>
       <c r="BL90" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM90" t="s">
         <v>857</v>
@@ -27669,7 +27750,7 @@
         <v>88</v>
       </c>
       <c r="BL91" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM91" t="s">
         <v>865</v>
@@ -27914,7 +27995,7 @@
         <v>88</v>
       </c>
       <c r="BL92" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM92" t="s">
         <v>628</v>
@@ -28159,7 +28240,7 @@
         <v>88</v>
       </c>
       <c r="BL93" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM93" t="s">
         <v>884</v>
@@ -28404,7 +28485,7 @@
         <v>88</v>
       </c>
       <c r="BL94" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM94" t="s">
         <v>892</v>
@@ -28649,7 +28730,7 @@
         <v>88</v>
       </c>
       <c r="BL95" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM95" t="s">
         <v>900</v>
@@ -28894,7 +28975,7 @@
         <v>88</v>
       </c>
       <c r="BL96" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM96" t="s">
         <v>339</v>
@@ -29139,7 +29220,7 @@
         <v>88</v>
       </c>
       <c r="BL97" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM97" t="s">
         <v>911</v>
@@ -29384,7 +29465,7 @@
         <v>88</v>
       </c>
       <c r="BL98" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM98" t="s">
         <v>570</v>
@@ -29629,7 +29710,7 @@
         <v>88</v>
       </c>
       <c r="BL99" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM99" t="s">
         <v>628</v>
@@ -29874,7 +29955,7 @@
         <v>88</v>
       </c>
       <c r="BL100" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM100" t="s">
         <v>555</v>
@@ -30107,7 +30188,7 @@
         <v>88</v>
       </c>
       <c r="BL101" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM101" t="s">
         <v>935</v>
@@ -30352,7 +30433,7 @@
         <v>88</v>
       </c>
       <c r="BL102" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM102" t="s">
         <v>943</v>
@@ -30597,7 +30678,7 @@
         <v>88</v>
       </c>
       <c r="BL103" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM103" t="s">
         <v>728</v>
@@ -30842,7 +30923,7 @@
         <v>88</v>
       </c>
       <c r="BL104" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM104" t="s">
         <v>368</v>
@@ -31087,7 +31168,7 @@
         <v>88</v>
       </c>
       <c r="BL105" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM105" t="s">
         <v>628</v>
@@ -31332,7 +31413,7 @@
         <v>88</v>
       </c>
       <c r="BL106" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM106" t="s">
         <v>960</v>
@@ -31577,7 +31658,7 @@
         <v>88</v>
       </c>
       <c r="BL107" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM107" t="s">
         <v>968</v>
@@ -31822,7 +31903,7 @@
         <v>88</v>
       </c>
       <c r="BL108" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM108" t="s">
         <v>563</v>
@@ -32067,7 +32148,7 @@
         <v>88</v>
       </c>
       <c r="BL109" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM109" t="s">
         <v>980</v>
@@ -32312,7 +32393,7 @@
         <v>88</v>
       </c>
       <c r="BL110" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM110" t="s">
         <v>505</v>
@@ -32557,7 +32638,7 @@
         <v>88</v>
       </c>
       <c r="BL111" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM111" t="s">
         <v>994</v>
@@ -32802,7 +32883,7 @@
         <v>88</v>
       </c>
       <c r="BL112" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM112" t="s">
         <v>1001</v>
@@ -33047,7 +33128,7 @@
         <v>88</v>
       </c>
       <c r="BL113" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM113" t="s">
         <v>1011</v>
@@ -33292,7 +33373,7 @@
         <v>88</v>
       </c>
       <c r="BL114" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM114" t="s">
         <v>1021</v>
@@ -33537,7 +33618,7 @@
         <v>88</v>
       </c>
       <c r="BL115" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM115" t="s">
         <v>1027</v>
@@ -33782,7 +33863,7 @@
         <v>88</v>
       </c>
       <c r="BL116" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM116" t="s">
         <v>463</v>
@@ -34027,7 +34108,7 @@
         <v>88</v>
       </c>
       <c r="BL117" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM117" t="s">
         <v>1041</v>
@@ -34272,7 +34353,7 @@
         <v>88</v>
       </c>
       <c r="BL118" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM118" t="s">
         <v>1047</v>
@@ -34517,7 +34598,7 @@
         <v>88</v>
       </c>
       <c r="BL119" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM119" t="s">
         <v>1054</v>
@@ -34762,7 +34843,7 @@
         <v>88</v>
       </c>
       <c r="BL120" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM120" t="s">
         <v>1060</v>
@@ -35007,7 +35088,7 @@
         <v>88</v>
       </c>
       <c r="BL121" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM121" t="s">
         <v>1066</v>
@@ -35252,7 +35333,7 @@
         <v>88</v>
       </c>
       <c r="BL122" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM122" t="s">
         <v>1072</v>
@@ -35497,7 +35578,7 @@
         <v>88</v>
       </c>
       <c r="BL123" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM123" t="s">
         <v>1066</v>
@@ -35742,7 +35823,7 @@
         <v>88</v>
       </c>
       <c r="BL124" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM124" t="s">
         <v>1088</v>
@@ -35987,7 +36068,7 @@
         <v>88</v>
       </c>
       <c r="BL125" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM125" t="s">
         <v>1095</v>
@@ -36232,7 +36313,7 @@
         <v>88</v>
       </c>
       <c r="BL126" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM126" t="s">
         <v>1101</v>
@@ -36477,7 +36558,7 @@
         <v>88</v>
       </c>
       <c r="BL127" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM127" t="s">
         <v>157</v>
@@ -36722,7 +36803,7 @@
         <v>88</v>
       </c>
       <c r="BL128" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM128" t="s">
         <v>1109</v>
@@ -36967,7 +37048,7 @@
         <v>88</v>
       </c>
       <c r="BL129" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM129" t="s">
         <v>1113</v>
@@ -37212,7 +37293,7 @@
         <v>88</v>
       </c>
       <c r="BL130" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM130" t="s">
         <v>1120</v>
@@ -37445,7 +37526,7 @@
         <v>88</v>
       </c>
       <c r="BL131" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM131" t="s">
         <v>1128</v>
@@ -37690,7 +37771,7 @@
         <v>88</v>
       </c>
       <c r="BL132" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM132" t="s">
         <v>1133</v>
@@ -37935,7 +38016,7 @@
         <v>88</v>
       </c>
       <c r="BL133" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM133" t="s">
         <v>658</v>
@@ -38180,7 +38261,7 @@
         <v>88</v>
       </c>
       <c r="BL134" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM134" t="s">
         <v>824</v>
@@ -38425,7 +38506,7 @@
         <v>88</v>
       </c>
       <c r="BL135" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM135" t="s">
         <v>1154</v>
@@ -38670,7 +38751,7 @@
         <v>88</v>
       </c>
       <c r="BL136" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM136" t="s">
         <v>157</v>
@@ -38915,7 +38996,7 @@
         <v>88</v>
       </c>
       <c r="BL137" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM137" t="s">
         <v>824</v>
@@ -39160,7 +39241,7 @@
         <v>88</v>
       </c>
       <c r="BL138" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM138" t="s">
         <v>1171</v>
@@ -39405,7 +39486,7 @@
         <v>88</v>
       </c>
       <c r="BL139" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM139" t="s">
         <v>274</v>
@@ -39650,7 +39731,7 @@
         <v>88</v>
       </c>
       <c r="BL140" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM140" t="s">
         <v>1185</v>
@@ -39895,7 +39976,7 @@
         <v>88</v>
       </c>
       <c r="BL141" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM141" t="s">
         <v>1192</v>
@@ -40140,7 +40221,7 @@
         <v>88</v>
       </c>
       <c r="BL142" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM142" t="s">
         <v>1199</v>
@@ -40385,7 +40466,7 @@
         <v>88</v>
       </c>
       <c r="BL143" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM143" t="s">
         <v>1208</v>
@@ -40630,7 +40711,7 @@
         <v>88</v>
       </c>
       <c r="BL144" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM144" t="s">
         <v>1214</v>
@@ -40875,7 +40956,7 @@
         <v>88</v>
       </c>
       <c r="BL145" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM145" t="s">
         <v>1222</v>
@@ -41120,7 +41201,7 @@
         <v>88</v>
       </c>
       <c r="BL146" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM146" t="s">
         <v>1231</v>
@@ -41365,7 +41446,7 @@
         <v>88</v>
       </c>
       <c r="BL147" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM147" t="s">
         <v>157</v>
@@ -41610,7 +41691,7 @@
         <v>88</v>
       </c>
       <c r="BL148" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM148" t="s">
         <v>1243</v>
@@ -41855,7 +41936,7 @@
         <v>88</v>
       </c>
       <c r="BL149" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM149" t="s">
         <v>1248</v>
@@ -42100,7 +42181,7 @@
         <v>88</v>
       </c>
       <c r="BL150" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM150" t="s">
         <v>1066</v>
@@ -42345,7 +42426,7 @@
         <v>88</v>
       </c>
       <c r="BL151" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM151" t="s">
         <v>1259</v>
@@ -42578,7 +42659,7 @@
         <v>88</v>
       </c>
       <c r="BL152" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM152" t="s">
         <v>1267</v>
@@ -42823,7 +42904,7 @@
         <v>88</v>
       </c>
       <c r="BL153" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM153" t="s">
         <v>628</v>
@@ -43068,7 +43149,7 @@
         <v>88</v>
       </c>
       <c r="BL154" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM154" t="s">
         <v>1276</v>
@@ -43313,7 +43394,7 @@
         <v>88</v>
       </c>
       <c r="BL155" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM155" t="s">
         <v>1283</v>
@@ -43558,7 +43639,7 @@
         <v>88</v>
       </c>
       <c r="BL156" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM156" t="s">
         <v>1288</v>
@@ -43803,7 +43884,7 @@
         <v>88</v>
       </c>
       <c r="BL157" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM157" t="s">
         <v>1296</v>
@@ -44048,7 +44129,7 @@
         <v>88</v>
       </c>
       <c r="BL158" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM158" t="s">
         <v>1303</v>
@@ -44293,7 +44374,7 @@
         <v>88</v>
       </c>
       <c r="BL159" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM159" t="s">
         <v>1310</v>
@@ -44526,7 +44607,7 @@
         <v>88</v>
       </c>
       <c r="BL160" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM160" t="s">
         <v>1316</v>
@@ -44771,7 +44852,7 @@
         <v>88</v>
       </c>
       <c r="BL161" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM161" t="s">
         <v>1322</v>
@@ -45016,7 +45097,7 @@
         <v>88</v>
       </c>
       <c r="BL162" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM162" t="s">
         <v>563</v>
@@ -45261,7 +45342,7 @@
         <v>88</v>
       </c>
       <c r="BL163" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM163" t="s">
         <v>1333</v>
@@ -45506,7 +45587,7 @@
         <v>88</v>
       </c>
       <c r="BL164" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM164" t="s">
         <v>1339</v>
@@ -45751,7 +45832,7 @@
         <v>88</v>
       </c>
       <c r="BL165" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM165" t="s">
         <v>628</v>
@@ -45996,7 +46077,7 @@
         <v>88</v>
       </c>
       <c r="BL166" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM166" t="s">
         <v>1354</v>
@@ -46241,7 +46322,7 @@
         <v>88</v>
       </c>
       <c r="BL167" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM167" t="s">
         <v>1357</v>
@@ -46486,7 +46567,7 @@
         <v>88</v>
       </c>
       <c r="BL168" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM168" t="s">
         <v>1310</v>
@@ -46719,7 +46800,7 @@
         <v>88</v>
       </c>
       <c r="BL169" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM169" t="s">
         <v>1047</v>
@@ -46964,7 +47045,7 @@
         <v>88</v>
       </c>
       <c r="BL170" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM170" t="s">
         <v>1047</v>
@@ -47209,7 +47290,7 @@
         <v>88</v>
       </c>
       <c r="BL171" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM171" t="s">
         <v>1368</v>
@@ -47454,7 +47535,7 @@
         <v>88</v>
       </c>
       <c r="BL172" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM172" t="s">
         <v>1378</v>
@@ -47699,7 +47780,7 @@
         <v>88</v>
       </c>
       <c r="BL173" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM173" t="s">
         <v>563</v>
@@ -47944,7 +48025,7 @@
         <v>88</v>
       </c>
       <c r="BL174" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM174" t="s">
         <v>1391</v>
@@ -48189,7 +48270,7 @@
         <v>88</v>
       </c>
       <c r="BL175" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM175" t="s">
         <v>1396</v>
@@ -48434,7 +48515,7 @@
         <v>88</v>
       </c>
       <c r="BL176" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM176" t="s">
         <v>1404</v>
@@ -48679,7 +48760,7 @@
         <v>88</v>
       </c>
       <c r="BL177" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM177" t="s">
         <v>1413</v>
@@ -48924,7 +49005,7 @@
         <v>88</v>
       </c>
       <c r="BL178" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM178" t="s">
         <v>1422</v>
@@ -49169,7 +49250,7 @@
         <v>88</v>
       </c>
       <c r="BL179" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM179" t="s">
         <v>1429</v>
@@ -49414,7 +49495,7 @@
         <v>88</v>
       </c>
       <c r="BL180" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM180" t="s">
         <v>1434</v>
@@ -49647,7 +49728,7 @@
         <v>88</v>
       </c>
       <c r="BL181" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM181" t="s">
         <v>1441</v>
@@ -49880,7 +49961,7 @@
         <v>88</v>
       </c>
       <c r="BL182" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM182" t="s">
         <v>1448</v>
@@ -50113,7 +50194,7 @@
         <v>88</v>
       </c>
       <c r="BL183" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM183" t="s">
         <v>628</v>
@@ -50358,7 +50439,7 @@
         <v>88</v>
       </c>
       <c r="BL184" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM184" t="s">
         <v>1458</v>
@@ -50603,7 +50684,7 @@
         <v>88</v>
       </c>
       <c r="BL185" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM185" t="s">
         <v>1465</v>
@@ -50848,7 +50929,7 @@
         <v>88</v>
       </c>
       <c r="BL186" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM186" t="s">
         <v>1471</v>
@@ -51093,7 +51174,7 @@
         <v>88</v>
       </c>
       <c r="BL187" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM187" t="s">
         <v>1482</v>
@@ -51326,7 +51407,7 @@
         <v>88</v>
       </c>
       <c r="BL188" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM188" t="s">
         <v>1482</v>
@@ -51559,7 +51640,7 @@
         <v>88</v>
       </c>
       <c r="BL189" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM189" t="s">
         <v>1192</v>
@@ -51804,7 +51885,7 @@
         <v>88</v>
       </c>
       <c r="BL190" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM190" t="s">
         <v>1500</v>
@@ -52049,7 +52130,7 @@
         <v>88</v>
       </c>
       <c r="BL191" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM191" t="s">
         <v>1505</v>
@@ -52114,7 +52195,7 @@
         <v>82</v>
       </c>
       <c r="B192" s="1">
-        <v>44831</v>
+        <v>44837</v>
       </c>
       <c r="C192" t="s">
         <v>1235</v>
@@ -52123,31 +52204,31 @@
         <v>84</v>
       </c>
       <c r="E192" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="F192" t="s">
         <v>86</v>
       </c>
       <c r="G192" t="s">
-        <v>227</v>
+        <v>1506</v>
       </c>
       <c r="H192" t="s">
         <v>88</v>
       </c>
       <c r="I192" t="s">
-        <v>170</v>
+        <v>1507</v>
       </c>
       <c r="J192" t="s">
-        <v>1506</v>
+        <v>1508</v>
       </c>
       <c r="K192" t="s">
         <v>254</v>
       </c>
       <c r="L192" t="s">
-        <v>1507</v>
+        <v>1509</v>
       </c>
       <c r="M192" t="s">
-        <v>256</v>
+        <v>1510</v>
       </c>
       <c r="N192" t="s">
         <v>94</v>
@@ -52159,7 +52240,7 @@
         <v>96</v>
       </c>
       <c r="Q192" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="R192" t="s">
         <v>95</v>
@@ -52168,13 +52249,13 @@
         <v>98</v>
       </c>
       <c r="T192" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="U192" t="s">
         <v>94</v>
       </c>
       <c r="V192" t="s">
-        <v>186</v>
+        <v>215</v>
       </c>
       <c r="W192" t="s">
         <v>88</v>
@@ -52183,13 +52264,13 @@
         <v>88</v>
       </c>
       <c r="Y192" t="s">
-        <v>201</v>
+        <v>1511</v>
       </c>
       <c r="Z192" t="s">
-        <v>1508</v>
+        <v>1512</v>
       </c>
       <c r="AA192" t="s">
-        <v>132</v>
+        <v>259</v>
       </c>
       <c r="AB192" t="s">
         <v>133</v>
@@ -52201,7 +52282,7 @@
         <v>105</v>
       </c>
       <c r="AF192" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="AG192" t="s">
         <v>99</v>
@@ -52216,7 +52297,7 @@
         <v>99</v>
       </c>
       <c r="AK192" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AL192" t="s">
         <v>88</v>
@@ -52228,7 +52309,7 @@
         <v>99</v>
       </c>
       <c r="AO192" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AP192" t="s">
         <v>99</v>
@@ -52243,7 +52324,7 @@
         <v>94</v>
       </c>
       <c r="AT192" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AU192" t="s">
         <v>95</v>
@@ -52252,13 +52333,13 @@
         <v>98</v>
       </c>
       <c r="AW192" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="AX192" s="1">
-        <v>44831</v>
+        <v>44837</v>
       </c>
       <c r="AY192" s="1">
-        <v>44831</v>
+        <v>44834</v>
       </c>
       <c r="AZ192" t="s">
         <v>93</v>
@@ -52279,10 +52360,10 @@
         <v>155</v>
       </c>
       <c r="BF192" t="s">
-        <v>1509</v>
+        <v>1513</v>
       </c>
       <c r="BG192" s="1">
-        <v>39285</v>
+        <v>41406</v>
       </c>
       <c r="BH192" t="s">
         <v>88</v>
@@ -52294,19 +52375,19 @@
         <v>88</v>
       </c>
       <c r="BL192" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM192" t="s">
-        <v>1510</v>
+        <v>900</v>
       </c>
       <c r="BN192" t="s">
-        <v>205</v>
+        <v>378</v>
       </c>
       <c r="BO192" s="1">
-        <v>44832</v>
+        <v>44841</v>
       </c>
       <c r="BP192" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="BQ192" t="s">
         <v>88</v>
@@ -52318,13 +52399,13 @@
         <v>88</v>
       </c>
       <c r="BT192" t="s">
-        <v>673</v>
+        <v>1216</v>
       </c>
       <c r="BU192" t="s">
         <v>116</v>
       </c>
       <c r="BV192" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="BW192" t="s">
         <v>96</v>
@@ -52333,7 +52414,7 @@
         <v>118</v>
       </c>
       <c r="BY192" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BZ192" t="s">
         <v>96</v>
@@ -52342,7 +52423,7 @@
         <v>118</v>
       </c>
       <c r="CB192" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="CC192" t="s">
         <v>118</v>
@@ -52351,7 +52432,7 @@
         <v>120</v>
       </c>
       <c r="CE192">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="193" spans="1:83" x14ac:dyDescent="0.15">
@@ -52359,40 +52440,40 @@
         <v>82</v>
       </c>
       <c r="B193" s="1">
-        <v>44585</v>
+        <v>44831</v>
       </c>
       <c r="C193" t="s">
-        <v>93</v>
+        <v>1235</v>
       </c>
       <c r="D193" t="s">
         <v>84</v>
       </c>
       <c r="E193" t="s">
-        <v>142</v>
+        <v>197</v>
       </c>
       <c r="F193" t="s">
-        <v>143</v>
+        <v>86</v>
       </c>
       <c r="G193" t="s">
-        <v>330</v>
+        <v>227</v>
       </c>
       <c r="H193" t="s">
-        <v>1488</v>
+        <v>88</v>
       </c>
       <c r="I193" t="s">
-        <v>1291</v>
+        <v>170</v>
       </c>
       <c r="J193" t="s">
-        <v>1511</v>
+        <v>1514</v>
       </c>
       <c r="K193" t="s">
-        <v>148</v>
+        <v>254</v>
       </c>
       <c r="L193" t="s">
-        <v>1512</v>
+        <v>1515</v>
       </c>
       <c r="M193" t="s">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="N193" t="s">
         <v>94</v>
@@ -52413,40 +52494,40 @@
         <v>98</v>
       </c>
       <c r="T193" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="U193" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="V193" t="s">
-        <v>88</v>
+        <v>186</v>
       </c>
       <c r="W193" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="X193" t="s">
         <v>88</v>
       </c>
       <c r="Y193" t="s">
-        <v>88</v>
+        <v>201</v>
       </c>
       <c r="Z193" t="s">
-        <v>152</v>
+        <v>1516</v>
       </c>
       <c r="AA193" t="s">
         <v>132</v>
       </c>
       <c r="AB193" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="AC193" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="AD193" t="s">
         <v>105</v>
       </c>
       <c r="AF193" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="AG193" t="s">
         <v>99</v>
@@ -52458,7 +52539,7 @@
         <v>99</v>
       </c>
       <c r="AJ193" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AK193" t="s">
         <v>88</v>
@@ -52485,10 +52566,10 @@
         <v>99</v>
       </c>
       <c r="AS193" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="AT193" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="AU193" t="s">
         <v>95</v>
@@ -52497,13 +52578,13 @@
         <v>98</v>
       </c>
       <c r="AW193" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="AX193" s="1">
-        <v>44585</v>
+        <v>44831</v>
       </c>
       <c r="AY193" s="1">
-        <v>44585</v>
+        <v>44831</v>
       </c>
       <c r="AZ193" t="s">
         <v>93</v>
@@ -52524,10 +52605,10 @@
         <v>155</v>
       </c>
       <c r="BF193" t="s">
-        <v>156</v>
+        <v>1517</v>
       </c>
       <c r="BG193" s="1">
-        <v>32999</v>
+        <v>39285</v>
       </c>
       <c r="BH193" t="s">
         <v>88</v>
@@ -52539,19 +52620,19 @@
         <v>88</v>
       </c>
       <c r="BL193" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM193" t="s">
-        <v>157</v>
+        <v>1518</v>
       </c>
       <c r="BN193" t="s">
-        <v>158</v>
+        <v>205</v>
       </c>
       <c r="BO193" s="1">
-        <v>44585</v>
+        <v>44832</v>
       </c>
       <c r="BP193" t="s">
-        <v>159</v>
+        <v>206</v>
       </c>
       <c r="BQ193" t="s">
         <v>88</v>
@@ -52563,13 +52644,13 @@
         <v>88</v>
       </c>
       <c r="BT193" t="s">
-        <v>195</v>
+        <v>673</v>
       </c>
       <c r="BU193" t="s">
         <v>116</v>
       </c>
       <c r="BV193" t="s">
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="BW193" t="s">
         <v>96</v>
@@ -52578,7 +52659,7 @@
         <v>118</v>
       </c>
       <c r="BY193" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BZ193" t="s">
         <v>96</v>
@@ -52587,7 +52668,7 @@
         <v>118</v>
       </c>
       <c r="CB193" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="CC193" t="s">
         <v>118</v>
@@ -52596,7 +52677,7 @@
         <v>120</v>
       </c>
       <c r="CE193">
-        <v>19</v>
+        <v>222</v>
       </c>
     </row>
     <row r="194" spans="1:83" x14ac:dyDescent="0.15">
@@ -52604,7 +52685,7 @@
         <v>82</v>
       </c>
       <c r="B194" s="1">
-        <v>44590</v>
+        <v>44585</v>
       </c>
       <c r="C194" t="s">
         <v>93</v>
@@ -52613,31 +52694,31 @@
         <v>84</v>
       </c>
       <c r="E194" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="F194" t="s">
-        <v>86</v>
+        <v>143</v>
       </c>
       <c r="G194" t="s">
-        <v>730</v>
+        <v>330</v>
       </c>
       <c r="H194" t="s">
-        <v>1513</v>
+        <v>1488</v>
       </c>
       <c r="I194" t="s">
-        <v>1514</v>
+        <v>1291</v>
       </c>
       <c r="J194" t="s">
-        <v>510</v>
+        <v>1519</v>
       </c>
       <c r="K194" t="s">
         <v>148</v>
       </c>
       <c r="L194" t="s">
-        <v>1515</v>
+        <v>1520</v>
       </c>
       <c r="M194" t="s">
-        <v>770</v>
+        <v>214</v>
       </c>
       <c r="N194" t="s">
         <v>94</v>
@@ -52649,7 +52730,7 @@
         <v>96</v>
       </c>
       <c r="Q194" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="R194" t="s">
         <v>95</v>
@@ -52661,37 +52742,37 @@
         <v>129</v>
       </c>
       <c r="U194" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="V194" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="W194" t="s">
-        <v>88</v>
+        <v>151</v>
       </c>
       <c r="X194" t="s">
         <v>88</v>
       </c>
       <c r="Y194" t="s">
-        <v>201</v>
+        <v>88</v>
       </c>
       <c r="Z194" t="s">
-        <v>1516</v>
+        <v>152</v>
       </c>
       <c r="AA194" t="s">
         <v>132</v>
       </c>
       <c r="AB194" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="AC194" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="AD194" t="s">
         <v>105</v>
       </c>
       <c r="AF194" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="AG194" t="s">
         <v>99</v>
@@ -52703,10 +52784,10 @@
         <v>99</v>
       </c>
       <c r="AJ194" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="AK194" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="AL194" t="s">
         <v>88</v>
@@ -52718,7 +52799,7 @@
         <v>99</v>
       </c>
       <c r="AO194" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="AP194" t="s">
         <v>99</v>
@@ -52730,10 +52811,10 @@
         <v>99</v>
       </c>
       <c r="AS194" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AT194" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AU194" t="s">
         <v>95</v>
@@ -52745,10 +52826,10 @@
         <v>129</v>
       </c>
       <c r="AX194" s="1">
-        <v>44588</v>
+        <v>44585</v>
       </c>
       <c r="AY194" s="1">
-        <v>44586</v>
+        <v>44585</v>
       </c>
       <c r="AZ194" t="s">
         <v>93</v>
@@ -52769,10 +52850,10 @@
         <v>155</v>
       </c>
       <c r="BF194" t="s">
-        <v>1517</v>
+        <v>156</v>
       </c>
       <c r="BG194" s="1">
-        <v>36204</v>
+        <v>32999</v>
       </c>
       <c r="BH194" t="s">
         <v>88</v>
@@ -52784,19 +52865,19 @@
         <v>88</v>
       </c>
       <c r="BL194" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM194" t="s">
-        <v>1316</v>
+        <v>157</v>
       </c>
       <c r="BN194" t="s">
-        <v>765</v>
+        <v>158</v>
       </c>
       <c r="BO194" s="1">
-        <v>44590</v>
+        <v>44585</v>
       </c>
       <c r="BP194" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="BQ194" t="s">
         <v>88</v>
@@ -52814,7 +52895,7 @@
         <v>116</v>
       </c>
       <c r="BV194" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="BW194" t="s">
         <v>96</v>
@@ -52841,7 +52922,7 @@
         <v>120</v>
       </c>
       <c r="CE194">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="195" spans="1:83" x14ac:dyDescent="0.15">
@@ -52849,7 +52930,7 @@
         <v>82</v>
       </c>
       <c r="B195" s="1">
-        <v>44628</v>
+        <v>44590</v>
       </c>
       <c r="C195" t="s">
         <v>93</v>
@@ -52858,31 +52939,31 @@
         <v>84</v>
       </c>
       <c r="E195" t="s">
-        <v>535</v>
+        <v>122</v>
       </c>
       <c r="F195" t="s">
-        <v>226</v>
+        <v>86</v>
       </c>
       <c r="G195" t="s">
-        <v>426</v>
+        <v>730</v>
       </c>
       <c r="H195" t="s">
-        <v>88</v>
+        <v>1521</v>
       </c>
       <c r="I195" t="s">
-        <v>1518</v>
+        <v>1522</v>
       </c>
       <c r="J195" t="s">
-        <v>88</v>
+        <v>510</v>
       </c>
       <c r="K195" t="s">
         <v>148</v>
       </c>
       <c r="L195" t="s">
-        <v>1519</v>
+        <v>1523</v>
       </c>
       <c r="M195" t="s">
-        <v>290</v>
+        <v>770</v>
       </c>
       <c r="N195" t="s">
         <v>94</v>
@@ -52909,7 +52990,7 @@
         <v>94</v>
       </c>
       <c r="V195" t="s">
-        <v>186</v>
+        <v>120</v>
       </c>
       <c r="W195" t="s">
         <v>88</v>
@@ -52918,19 +52999,19 @@
         <v>88</v>
       </c>
       <c r="Y195" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="Z195" t="s">
-        <v>1520</v>
+        <v>1524</v>
       </c>
       <c r="AA195" t="s">
-        <v>259</v>
+        <v>132</v>
       </c>
       <c r="AB195" t="s">
         <v>133</v>
       </c>
       <c r="AC195" t="s">
-        <v>347</v>
+        <v>134</v>
       </c>
       <c r="AD195" t="s">
         <v>105</v>
@@ -52990,10 +53071,10 @@
         <v>129</v>
       </c>
       <c r="AX195" s="1">
-        <v>44585</v>
+        <v>44588</v>
       </c>
       <c r="AY195" s="1">
-        <v>44584</v>
+        <v>44586</v>
       </c>
       <c r="AZ195" t="s">
         <v>93</v>
@@ -53014,10 +53095,10 @@
         <v>155</v>
       </c>
       <c r="BF195" t="s">
-        <v>1521</v>
+        <v>1525</v>
       </c>
       <c r="BG195" s="1">
-        <v>36155</v>
+        <v>36204</v>
       </c>
       <c r="BH195" t="s">
         <v>88</v>
@@ -53029,19 +53110,19 @@
         <v>88</v>
       </c>
       <c r="BL195" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM195" t="s">
-        <v>1522</v>
+        <v>1316</v>
       </c>
       <c r="BN195" t="s">
-        <v>545</v>
+        <v>765</v>
       </c>
       <c r="BO195" s="1">
-        <v>44628</v>
+        <v>44590</v>
       </c>
       <c r="BP195" t="s">
-        <v>546</v>
+        <v>140</v>
       </c>
       <c r="BQ195" t="s">
         <v>88</v>
@@ -53053,13 +53134,13 @@
         <v>88</v>
       </c>
       <c r="BT195" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="BU195" t="s">
         <v>116</v>
       </c>
       <c r="BV195" t="s">
-        <v>547</v>
+        <v>137</v>
       </c>
       <c r="BW195" t="s">
         <v>96</v>
@@ -53086,7 +53167,7 @@
         <v>120</v>
       </c>
       <c r="CE195">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="196" spans="1:83" x14ac:dyDescent="0.15">
@@ -53094,7 +53175,7 @@
         <v>82</v>
       </c>
       <c r="B196" s="1">
-        <v>44588</v>
+        <v>44628</v>
       </c>
       <c r="C196" t="s">
         <v>93</v>
@@ -53103,31 +53184,31 @@
         <v>84</v>
       </c>
       <c r="E196" t="s">
-        <v>209</v>
+        <v>535</v>
       </c>
       <c r="F196" t="s">
-        <v>86</v>
+        <v>226</v>
       </c>
       <c r="G196" t="s">
-        <v>1523</v>
+        <v>426</v>
       </c>
       <c r="H196" t="s">
         <v>88</v>
       </c>
       <c r="I196" t="s">
-        <v>783</v>
+        <v>1526</v>
       </c>
       <c r="J196" t="s">
-        <v>309</v>
+        <v>88</v>
       </c>
       <c r="K196" t="s">
-        <v>91</v>
+        <v>148</v>
       </c>
       <c r="L196" t="s">
-        <v>1524</v>
+        <v>1527</v>
       </c>
       <c r="M196" t="s">
-        <v>94</v>
+        <v>290</v>
       </c>
       <c r="N196" t="s">
         <v>94</v>
@@ -53148,13 +53229,13 @@
         <v>98</v>
       </c>
       <c r="T196" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="U196" t="s">
         <v>94</v>
       </c>
       <c r="V196" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="W196" t="s">
         <v>88</v>
@@ -53163,19 +53244,19 @@
         <v>88</v>
       </c>
       <c r="Y196" t="s">
-        <v>1525</v>
+        <v>186</v>
       </c>
       <c r="Z196" t="s">
-        <v>1526</v>
+        <v>1528</v>
       </c>
       <c r="AA196" t="s">
-        <v>132</v>
+        <v>259</v>
       </c>
       <c r="AB196" t="s">
         <v>133</v>
       </c>
       <c r="AC196" t="s">
-        <v>134</v>
+        <v>347</v>
       </c>
       <c r="AD196" t="s">
         <v>105</v>
@@ -53232,13 +53313,13 @@
         <v>98</v>
       </c>
       <c r="AW196" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="AX196" s="1">
-        <v>44588</v>
+        <v>44585</v>
       </c>
       <c r="AY196" s="1">
-        <v>44585</v>
+        <v>44584</v>
       </c>
       <c r="AZ196" t="s">
         <v>93</v>
@@ -53259,10 +53340,10 @@
         <v>155</v>
       </c>
       <c r="BF196" t="s">
-        <v>1527</v>
+        <v>1529</v>
       </c>
       <c r="BG196" s="1">
-        <v>44203</v>
+        <v>36155</v>
       </c>
       <c r="BH196" t="s">
         <v>88</v>
@@ -53274,19 +53355,19 @@
         <v>88</v>
       </c>
       <c r="BL196" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM196" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="BN196" t="s">
-        <v>378</v>
+        <v>545</v>
       </c>
       <c r="BO196" s="1">
-        <v>44589</v>
+        <v>44628</v>
       </c>
       <c r="BP196" t="s">
-        <v>222</v>
+        <v>546</v>
       </c>
       <c r="BQ196" t="s">
         <v>88</v>
@@ -53298,13 +53379,13 @@
         <v>88</v>
       </c>
       <c r="BT196" t="s">
-        <v>1529</v>
+        <v>223</v>
       </c>
       <c r="BU196" t="s">
         <v>116</v>
       </c>
       <c r="BV196" t="s">
-        <v>224</v>
+        <v>547</v>
       </c>
       <c r="BW196" t="s">
         <v>96</v>
@@ -53313,7 +53394,7 @@
         <v>118</v>
       </c>
       <c r="BY196" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BZ196" t="s">
         <v>96</v>
@@ -53322,7 +53403,7 @@
         <v>118</v>
       </c>
       <c r="CB196" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="CC196" t="s">
         <v>118</v>
@@ -53331,7 +53412,7 @@
         <v>120</v>
       </c>
       <c r="CE196">
-        <v>24</v>
+        <v>49</v>
       </c>
     </row>
     <row r="197" spans="1:83" x14ac:dyDescent="0.15">
@@ -53339,40 +53420,40 @@
         <v>82</v>
       </c>
       <c r="B197" s="1">
-        <v>44594</v>
+        <v>44588</v>
       </c>
       <c r="C197" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="D197" t="s">
         <v>84</v>
       </c>
       <c r="E197" t="s">
-        <v>85</v>
+        <v>209</v>
       </c>
       <c r="F197" t="s">
-        <v>572</v>
+        <v>86</v>
       </c>
       <c r="G197" t="s">
-        <v>780</v>
+        <v>1531</v>
       </c>
       <c r="H197" t="s">
-        <v>982</v>
+        <v>88</v>
       </c>
       <c r="I197" t="s">
-        <v>906</v>
+        <v>783</v>
       </c>
       <c r="J197" t="s">
-        <v>940</v>
+        <v>309</v>
       </c>
       <c r="K197" t="s">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="L197" t="s">
-        <v>1530</v>
+        <v>1532</v>
       </c>
       <c r="M197" t="s">
-        <v>167</v>
+        <v>94</v>
       </c>
       <c r="N197" t="s">
         <v>94</v>
@@ -53384,7 +53465,7 @@
         <v>96</v>
       </c>
       <c r="Q197" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="R197" t="s">
         <v>95</v>
@@ -53393,34 +53474,34 @@
         <v>98</v>
       </c>
       <c r="T197" t="s">
-        <v>1531</v>
+        <v>95</v>
       </c>
       <c r="U197" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="V197" t="s">
-        <v>88</v>
+        <v>215</v>
       </c>
       <c r="W197" t="s">
         <v>88</v>
       </c>
       <c r="X197" t="s">
-        <v>1532</v>
+        <v>88</v>
       </c>
       <c r="Y197" t="s">
-        <v>88</v>
+        <v>1533</v>
       </c>
       <c r="Z197" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="AA197" t="s">
-        <v>810</v>
+        <v>132</v>
       </c>
       <c r="AB197" t="s">
         <v>133</v>
       </c>
       <c r="AC197" t="s">
-        <v>294</v>
+        <v>134</v>
       </c>
       <c r="AD197" t="s">
         <v>105</v>
@@ -53441,7 +53522,7 @@
         <v>99</v>
       </c>
       <c r="AK197" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AL197" t="s">
         <v>88</v>
@@ -53453,7 +53534,7 @@
         <v>99</v>
       </c>
       <c r="AO197" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AP197" t="s">
         <v>99</v>
@@ -53477,13 +53558,13 @@
         <v>98</v>
       </c>
       <c r="AW197" t="s">
-        <v>1373</v>
+        <v>95</v>
       </c>
       <c r="AX197" s="1">
-        <v>44594</v>
+        <v>44588</v>
       </c>
       <c r="AY197" s="1">
-        <v>44591</v>
+        <v>44585</v>
       </c>
       <c r="AZ197" t="s">
         <v>93</v>
@@ -53504,10 +53585,10 @@
         <v>155</v>
       </c>
       <c r="BF197" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="BG197" s="1">
-        <v>30833</v>
+        <v>44203</v>
       </c>
       <c r="BH197" t="s">
         <v>88</v>
@@ -53519,19 +53600,19 @@
         <v>88</v>
       </c>
       <c r="BL197" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM197" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="BN197" t="s">
-        <v>113</v>
+        <v>378</v>
       </c>
       <c r="BO197" s="1">
-        <v>44598</v>
+        <v>44589</v>
       </c>
       <c r="BP197" t="s">
-        <v>114</v>
+        <v>222</v>
       </c>
       <c r="BQ197" t="s">
         <v>88</v>
@@ -53543,13 +53624,13 @@
         <v>88</v>
       </c>
       <c r="BT197" t="s">
-        <v>223</v>
+        <v>1537</v>
       </c>
       <c r="BU197" t="s">
         <v>116</v>
       </c>
       <c r="BV197" t="s">
-        <v>579</v>
+        <v>224</v>
       </c>
       <c r="BW197" t="s">
         <v>96</v>
@@ -53558,7 +53639,7 @@
         <v>118</v>
       </c>
       <c r="BY197" t="s">
-        <v>1536</v>
+        <v>119</v>
       </c>
       <c r="BZ197" t="s">
         <v>96</v>
@@ -53567,7 +53648,7 @@
         <v>118</v>
       </c>
       <c r="CB197" t="s">
-        <v>1380</v>
+        <v>119</v>
       </c>
       <c r="CC197" t="s">
         <v>118</v>
@@ -53576,7 +53657,7 @@
         <v>120</v>
       </c>
       <c r="CE197">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="198" spans="1:83" x14ac:dyDescent="0.15">
@@ -53584,10 +53665,10 @@
         <v>82</v>
       </c>
       <c r="B198" s="1">
-        <v>44592</v>
+        <v>44839</v>
       </c>
       <c r="C198" t="s">
-        <v>121</v>
+        <v>1204</v>
       </c>
       <c r="D198" t="s">
         <v>84</v>
@@ -53596,28 +53677,28 @@
         <v>85</v>
       </c>
       <c r="F198" t="s">
-        <v>208</v>
+        <v>572</v>
       </c>
       <c r="G198" t="s">
-        <v>330</v>
+        <v>800</v>
       </c>
       <c r="H198" t="s">
-        <v>227</v>
+        <v>88</v>
       </c>
       <c r="I198" t="s">
-        <v>431</v>
+        <v>1538</v>
       </c>
       <c r="J198" t="s">
-        <v>310</v>
+        <v>990</v>
       </c>
       <c r="K198" t="s">
-        <v>254</v>
+        <v>148</v>
       </c>
       <c r="L198" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="M198" t="s">
-        <v>256</v>
+        <v>770</v>
       </c>
       <c r="N198" t="s">
         <v>94</v>
@@ -53629,7 +53710,7 @@
         <v>96</v>
       </c>
       <c r="Q198" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="R198" t="s">
         <v>95</v>
@@ -53647,7 +53728,7 @@
         <v>88</v>
       </c>
       <c r="W198" t="s">
-        <v>833</v>
+        <v>130</v>
       </c>
       <c r="X198" t="s">
         <v>88</v>
@@ -53656,10 +53737,10 @@
         <v>88</v>
       </c>
       <c r="Z198" t="s">
-        <v>1538</v>
+        <v>1540</v>
       </c>
       <c r="AA198" t="s">
-        <v>259</v>
+        <v>1498</v>
       </c>
       <c r="AB198" t="s">
         <v>133</v>
@@ -53671,7 +53752,7 @@
         <v>105</v>
       </c>
       <c r="AF198" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="AG198" t="s">
         <v>99</v>
@@ -53686,7 +53767,7 @@
         <v>99</v>
       </c>
       <c r="AK198" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AL198" t="s">
         <v>88</v>
@@ -53698,7 +53779,7 @@
         <v>99</v>
       </c>
       <c r="AO198" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AP198" t="s">
         <v>99</v>
@@ -53725,10 +53806,10 @@
         <v>129</v>
       </c>
       <c r="AX198" s="1">
-        <v>44592</v>
+        <v>44839</v>
       </c>
       <c r="AY198" s="1">
-        <v>44591</v>
+        <v>44837</v>
       </c>
       <c r="AZ198" t="s">
         <v>93</v>
@@ -53749,10 +53830,10 @@
         <v>155</v>
       </c>
       <c r="BF198" t="s">
-        <v>1539</v>
+        <v>1541</v>
       </c>
       <c r="BG198" s="1">
-        <v>39050</v>
+        <v>36663</v>
       </c>
       <c r="BH198" t="s">
         <v>88</v>
@@ -53764,16 +53845,16 @@
         <v>88</v>
       </c>
       <c r="BL198" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM198" t="s">
-        <v>1540</v>
+        <v>1542</v>
       </c>
       <c r="BN198" t="s">
         <v>113</v>
       </c>
       <c r="BO198" s="1">
-        <v>44598</v>
+        <v>44841</v>
       </c>
       <c r="BP198" t="s">
         <v>114</v>
@@ -53788,13 +53869,13 @@
         <v>88</v>
       </c>
       <c r="BT198" t="s">
-        <v>223</v>
+        <v>1216</v>
       </c>
       <c r="BU198" t="s">
         <v>116</v>
       </c>
       <c r="BV198" t="s">
-        <v>111</v>
+        <v>579</v>
       </c>
       <c r="BW198" t="s">
         <v>96</v>
@@ -53821,7 +53902,7 @@
         <v>120</v>
       </c>
       <c r="CE198">
-        <v>27</v>
+        <v>225</v>
       </c>
     </row>
     <row r="199" spans="1:83" x14ac:dyDescent="0.15">
@@ -53829,31 +53910,31 @@
         <v>82</v>
       </c>
       <c r="B199" s="1">
-        <v>44717</v>
+        <v>44840</v>
       </c>
       <c r="C199" t="s">
-        <v>121</v>
+        <v>1204</v>
       </c>
       <c r="D199" t="s">
         <v>84</v>
       </c>
       <c r="E199" t="s">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="F199" t="s">
         <v>86</v>
       </c>
       <c r="G199" t="s">
-        <v>319</v>
+        <v>1435</v>
       </c>
       <c r="H199" t="s">
-        <v>251</v>
+        <v>501</v>
       </c>
       <c r="I199" t="s">
-        <v>1541</v>
+        <v>418</v>
       </c>
       <c r="J199" t="s">
-        <v>1542</v>
+        <v>229</v>
       </c>
       <c r="K199" t="s">
         <v>254</v>
@@ -53862,7 +53943,7 @@
         <v>1543</v>
       </c>
       <c r="M199" t="s">
-        <v>208</v>
+        <v>270</v>
       </c>
       <c r="N199" t="s">
         <v>94</v>
@@ -53874,7 +53955,7 @@
         <v>96</v>
       </c>
       <c r="Q199" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="R199" t="s">
         <v>95</v>
@@ -53886,37 +53967,37 @@
         <v>129</v>
       </c>
       <c r="U199" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="V199" t="s">
-        <v>215</v>
+        <v>88</v>
       </c>
       <c r="W199" t="s">
-        <v>88</v>
+        <v>497</v>
       </c>
       <c r="X199" t="s">
         <v>88</v>
       </c>
       <c r="Y199" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z199" t="s">
         <v>1544</v>
-      </c>
-      <c r="Z199" t="s">
-        <v>1545</v>
       </c>
       <c r="AA199" t="s">
         <v>259</v>
       </c>
       <c r="AB199" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="AC199" t="s">
-        <v>190</v>
+        <v>396</v>
       </c>
       <c r="AD199" t="s">
         <v>105</v>
       </c>
       <c r="AF199" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="AG199" t="s">
         <v>99</v>
@@ -53931,7 +54012,7 @@
         <v>99</v>
       </c>
       <c r="AK199" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="AL199" t="s">
         <v>88</v>
@@ -53943,7 +54024,7 @@
         <v>99</v>
       </c>
       <c r="AO199" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="AP199" t="s">
         <v>99</v>
@@ -53970,10 +54051,10 @@
         <v>129</v>
       </c>
       <c r="AX199" s="1">
-        <v>44716</v>
+        <v>44840</v>
       </c>
       <c r="AY199" s="1">
-        <v>44594</v>
+        <v>44837</v>
       </c>
       <c r="AZ199" t="s">
         <v>93</v>
@@ -53994,34 +54075,34 @@
         <v>155</v>
       </c>
       <c r="BF199" t="s">
+        <v>1545</v>
+      </c>
+      <c r="BG199" s="1">
+        <v>40641</v>
+      </c>
+      <c r="BH199" t="s">
+        <v>88</v>
+      </c>
+      <c r="BI199" t="s">
+        <v>88</v>
+      </c>
+      <c r="BJ199" t="s">
+        <v>88</v>
+      </c>
+      <c r="BL199" s="1">
+        <v>44845</v>
+      </c>
+      <c r="BM199" t="s">
         <v>1546</v>
       </c>
-      <c r="BG199" s="1">
-        <v>40761</v>
-      </c>
-      <c r="BH199" t="s">
-        <v>88</v>
-      </c>
-      <c r="BI199" t="s">
-        <v>88</v>
-      </c>
-      <c r="BJ199" t="s">
-        <v>88</v>
-      </c>
-      <c r="BL199" s="1">
-        <v>44837</v>
-      </c>
-      <c r="BM199" t="s">
-        <v>1547</v>
-      </c>
       <c r="BN199" t="s">
-        <v>378</v>
+        <v>1134</v>
       </c>
       <c r="BO199" s="1">
-        <v>44737</v>
+        <v>44844</v>
       </c>
       <c r="BP199" t="s">
-        <v>222</v>
+        <v>264</v>
       </c>
       <c r="BQ199" t="s">
         <v>88</v>
@@ -54033,13 +54114,13 @@
         <v>88</v>
       </c>
       <c r="BT199" t="s">
-        <v>465</v>
+        <v>673</v>
       </c>
       <c r="BU199" t="s">
         <v>116</v>
       </c>
       <c r="BV199" t="s">
-        <v>224</v>
+        <v>265</v>
       </c>
       <c r="BW199" t="s">
         <v>96</v>
@@ -54066,7 +54147,7 @@
         <v>120</v>
       </c>
       <c r="CE199">
-        <v>138</v>
+        <v>224</v>
       </c>
     </row>
     <row r="200" spans="1:83" x14ac:dyDescent="0.15">
@@ -54074,40 +54155,40 @@
         <v>82</v>
       </c>
       <c r="B200" s="1">
-        <v>44609</v>
+        <v>44841</v>
       </c>
       <c r="C200" t="s">
-        <v>105</v>
+        <v>1204</v>
       </c>
       <c r="D200" t="s">
         <v>84</v>
       </c>
       <c r="E200" t="s">
-        <v>122</v>
+        <v>209</v>
       </c>
       <c r="F200" t="s">
         <v>86</v>
       </c>
       <c r="G200" t="s">
-        <v>1548</v>
+        <v>319</v>
       </c>
       <c r="H200" t="s">
-        <v>88</v>
+        <v>251</v>
       </c>
       <c r="I200" t="s">
-        <v>1549</v>
+        <v>147</v>
       </c>
       <c r="J200" t="s">
-        <v>467</v>
+        <v>446</v>
       </c>
       <c r="K200" t="s">
-        <v>91</v>
+        <v>254</v>
       </c>
       <c r="L200" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
       <c r="M200" t="s">
-        <v>106</v>
+        <v>466</v>
       </c>
       <c r="N200" t="s">
         <v>94</v>
@@ -54119,7 +54200,7 @@
         <v>96</v>
       </c>
       <c r="Q200" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="R200" t="s">
         <v>95</v>
@@ -54134,7 +54215,7 @@
         <v>94</v>
       </c>
       <c r="V200" t="s">
-        <v>120</v>
+        <v>215</v>
       </c>
       <c r="W200" t="s">
         <v>88</v>
@@ -54143,25 +54224,25 @@
         <v>88</v>
       </c>
       <c r="Y200" t="s">
-        <v>130</v>
+        <v>1548</v>
       </c>
       <c r="Z200" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="AA200" t="s">
-        <v>132</v>
+        <v>259</v>
       </c>
       <c r="AB200" t="s">
         <v>133</v>
       </c>
       <c r="AC200" t="s">
-        <v>134</v>
+        <v>190</v>
       </c>
       <c r="AD200" t="s">
         <v>105</v>
       </c>
       <c r="AF200" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="AG200" t="s">
         <v>99</v>
@@ -54176,7 +54257,7 @@
         <v>99</v>
       </c>
       <c r="AK200" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AL200" t="s">
         <v>88</v>
@@ -54188,7 +54269,7 @@
         <v>99</v>
       </c>
       <c r="AO200" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AP200" t="s">
         <v>99</v>
@@ -54215,10 +54296,10 @@
         <v>129</v>
       </c>
       <c r="AX200" s="1">
-        <v>44607</v>
+        <v>44841</v>
       </c>
       <c r="AY200" s="1">
-        <v>44604</v>
+        <v>44839</v>
       </c>
       <c r="AZ200" t="s">
         <v>93</v>
@@ -54239,10 +54320,10 @@
         <v>155</v>
       </c>
       <c r="BF200" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="BG200" s="1">
-        <v>43485</v>
+        <v>39756</v>
       </c>
       <c r="BH200" t="s">
         <v>88</v>
@@ -54254,19 +54335,19 @@
         <v>88</v>
       </c>
       <c r="BL200" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM200" t="s">
-        <v>1553</v>
+        <v>1185</v>
       </c>
       <c r="BN200" t="s">
-        <v>389</v>
+        <v>1551</v>
       </c>
       <c r="BO200" s="1">
-        <v>44609</v>
+        <v>44841</v>
       </c>
       <c r="BP200" t="s">
-        <v>140</v>
+        <v>222</v>
       </c>
       <c r="BQ200" t="s">
         <v>88</v>
@@ -54278,13 +54359,13 @@
         <v>88</v>
       </c>
       <c r="BT200" t="s">
-        <v>223</v>
+        <v>673</v>
       </c>
       <c r="BU200" t="s">
         <v>116</v>
       </c>
       <c r="BV200" t="s">
-        <v>137</v>
+        <v>224</v>
       </c>
       <c r="BW200" t="s">
         <v>96</v>
@@ -54311,7 +54392,7 @@
         <v>120</v>
       </c>
       <c r="CE200">
-        <v>136</v>
+        <v>228</v>
       </c>
     </row>
     <row r="201" spans="1:83" x14ac:dyDescent="0.15">
@@ -54319,40 +54400,40 @@
         <v>82</v>
       </c>
       <c r="B201" s="1">
-        <v>44608</v>
+        <v>44838</v>
       </c>
       <c r="C201" t="s">
-        <v>108</v>
+        <v>1204</v>
       </c>
       <c r="D201" t="s">
         <v>84</v>
       </c>
       <c r="E201" t="s">
-        <v>197</v>
+        <v>250</v>
       </c>
       <c r="F201" t="s">
-        <v>86</v>
+        <v>341</v>
       </c>
       <c r="G201" t="s">
-        <v>1381</v>
+        <v>1552</v>
       </c>
       <c r="H201" t="s">
-        <v>1554</v>
+        <v>767</v>
       </c>
       <c r="I201" t="s">
-        <v>601</v>
+        <v>446</v>
       </c>
       <c r="J201" t="s">
-        <v>1555</v>
+        <v>776</v>
       </c>
       <c r="K201" t="s">
-        <v>91</v>
+        <v>254</v>
       </c>
       <c r="L201" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="M201" t="s">
-        <v>106</v>
+        <v>454</v>
       </c>
       <c r="N201" t="s">
         <v>94</v>
@@ -54364,7 +54445,7 @@
         <v>96</v>
       </c>
       <c r="Q201" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="R201" t="s">
         <v>95</v>
@@ -54376,31 +54457,31 @@
         <v>129</v>
       </c>
       <c r="U201" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="V201" t="s">
-        <v>186</v>
+        <v>88</v>
       </c>
       <c r="W201" t="s">
-        <v>88</v>
+        <v>215</v>
       </c>
       <c r="X201" t="s">
         <v>88</v>
       </c>
       <c r="Y201" t="s">
-        <v>201</v>
+        <v>88</v>
       </c>
       <c r="Z201" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="AA201" t="s">
-        <v>132</v>
+        <v>259</v>
       </c>
       <c r="AB201" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="AC201" t="s">
-        <v>190</v>
+        <v>284</v>
       </c>
       <c r="AD201" t="s">
         <v>105</v>
@@ -54421,7 +54502,7 @@
         <v>99</v>
       </c>
       <c r="AK201" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AL201" t="s">
         <v>88</v>
@@ -54433,7 +54514,7 @@
         <v>99</v>
       </c>
       <c r="AO201" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AP201" t="s">
         <v>99</v>
@@ -54460,10 +54541,10 @@
         <v>129</v>
       </c>
       <c r="AX201" s="1">
-        <v>44608</v>
+        <v>44838</v>
       </c>
       <c r="AY201" s="1">
-        <v>44605</v>
+        <v>44834</v>
       </c>
       <c r="AZ201" t="s">
         <v>93</v>
@@ -54484,10 +54565,10 @@
         <v>155</v>
       </c>
       <c r="BF201" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="BG201" s="1">
-        <v>43504</v>
+        <v>38385</v>
       </c>
       <c r="BH201" t="s">
         <v>88</v>
@@ -54499,19 +54580,19 @@
         <v>88</v>
       </c>
       <c r="BL201" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM201" t="s">
-        <v>805</v>
+        <v>1556</v>
       </c>
       <c r="BN201" t="s">
-        <v>652</v>
+        <v>1134</v>
       </c>
       <c r="BO201" s="1">
-        <v>44610</v>
+        <v>44840</v>
       </c>
       <c r="BP201" t="s">
-        <v>206</v>
+        <v>264</v>
       </c>
       <c r="BQ201" t="s">
         <v>88</v>
@@ -54523,13 +54604,13 @@
         <v>88</v>
       </c>
       <c r="BT201" t="s">
-        <v>223</v>
+        <v>673</v>
       </c>
       <c r="BU201" t="s">
         <v>116</v>
       </c>
       <c r="BV201" t="s">
-        <v>207</v>
+        <v>1557</v>
       </c>
       <c r="BW201" t="s">
         <v>96</v>
@@ -54556,7 +54637,7 @@
         <v>120</v>
       </c>
       <c r="CE201">
-        <v>28</v>
+        <v>226</v>
       </c>
     </row>
     <row r="202" spans="1:83" x14ac:dyDescent="0.15">
@@ -54564,10 +54645,10 @@
         <v>82</v>
       </c>
       <c r="B202" s="1">
-        <v>44610</v>
+        <v>44594</v>
       </c>
       <c r="C202" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="D202" t="s">
         <v>84</v>
@@ -54576,28 +54657,28 @@
         <v>85</v>
       </c>
       <c r="F202" t="s">
-        <v>208</v>
+        <v>572</v>
       </c>
       <c r="G202" t="s">
-        <v>1559</v>
+        <v>780</v>
       </c>
       <c r="H202" t="s">
-        <v>712</v>
+        <v>982</v>
       </c>
       <c r="I202" t="s">
-        <v>1560</v>
+        <v>906</v>
       </c>
       <c r="J202" t="s">
-        <v>175</v>
+        <v>940</v>
       </c>
       <c r="K202" t="s">
-        <v>254</v>
+        <v>148</v>
       </c>
       <c r="L202" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
       <c r="M202" t="s">
-        <v>1562</v>
+        <v>167</v>
       </c>
       <c r="N202" t="s">
         <v>94</v>
@@ -54618,40 +54699,40 @@
         <v>98</v>
       </c>
       <c r="T202" t="s">
-        <v>129</v>
+        <v>1559</v>
       </c>
       <c r="U202" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="V202" t="s">
         <v>88</v>
       </c>
       <c r="W202" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="X202" t="s">
-        <v>88</v>
+        <v>1560</v>
       </c>
       <c r="Y202" t="s">
         <v>88</v>
       </c>
       <c r="Z202" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="AA202" t="s">
-        <v>259</v>
+        <v>810</v>
       </c>
       <c r="AB202" t="s">
         <v>133</v>
       </c>
       <c r="AC202" t="s">
-        <v>742</v>
+        <v>294</v>
       </c>
       <c r="AD202" t="s">
         <v>105</v>
       </c>
       <c r="AF202" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="AG202" t="s">
         <v>99</v>
@@ -54702,13 +54783,13 @@
         <v>98</v>
       </c>
       <c r="AW202" t="s">
-        <v>129</v>
+        <v>1373</v>
       </c>
       <c r="AX202" s="1">
-        <v>44610</v>
+        <v>44594</v>
       </c>
       <c r="AY202" s="1">
-        <v>44609</v>
+        <v>44591</v>
       </c>
       <c r="AZ202" t="s">
         <v>93</v>
@@ -54729,10 +54810,10 @@
         <v>155</v>
       </c>
       <c r="BF202" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="BG202" s="1">
-        <v>40979</v>
+        <v>30833</v>
       </c>
       <c r="BH202" t="s">
         <v>88</v>
@@ -54744,16 +54825,16 @@
         <v>88</v>
       </c>
       <c r="BL202" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM202" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="BN202" t="s">
         <v>113</v>
       </c>
       <c r="BO202" s="1">
-        <v>44615</v>
+        <v>44598</v>
       </c>
       <c r="BP202" t="s">
         <v>114</v>
@@ -54768,13 +54849,13 @@
         <v>88</v>
       </c>
       <c r="BT202" t="s">
-        <v>1165</v>
+        <v>223</v>
       </c>
       <c r="BU202" t="s">
         <v>116</v>
       </c>
       <c r="BV202" t="s">
-        <v>111</v>
+        <v>579</v>
       </c>
       <c r="BW202" t="s">
         <v>96</v>
@@ -54783,7 +54864,7 @@
         <v>118</v>
       </c>
       <c r="BY202" t="s">
-        <v>120</v>
+        <v>1564</v>
       </c>
       <c r="BZ202" t="s">
         <v>96</v>
@@ -54792,7 +54873,7 @@
         <v>118</v>
       </c>
       <c r="CB202" t="s">
-        <v>120</v>
+        <v>1380</v>
       </c>
       <c r="CC202" t="s">
         <v>118</v>
@@ -54801,7 +54882,7 @@
         <v>120</v>
       </c>
       <c r="CE202">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="203" spans="1:83" x14ac:dyDescent="0.15">
@@ -54809,40 +54890,40 @@
         <v>82</v>
       </c>
       <c r="B203" s="1">
-        <v>44670</v>
+        <v>44592</v>
       </c>
       <c r="C203" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="D203" t="s">
         <v>84</v>
       </c>
       <c r="E203" t="s">
-        <v>250</v>
+        <v>85</v>
       </c>
       <c r="F203" t="s">
-        <v>86</v>
+        <v>208</v>
       </c>
       <c r="G203" t="s">
-        <v>1566</v>
+        <v>330</v>
       </c>
       <c r="H203" t="s">
-        <v>407</v>
+        <v>227</v>
       </c>
       <c r="I203" t="s">
-        <v>1567</v>
+        <v>431</v>
       </c>
       <c r="J203" t="s">
-        <v>1568</v>
+        <v>310</v>
       </c>
       <c r="K203" t="s">
         <v>254</v>
       </c>
       <c r="L203" t="s">
-        <v>1569</v>
+        <v>1565</v>
       </c>
       <c r="M203" t="s">
-        <v>335</v>
+        <v>256</v>
       </c>
       <c r="N203" t="s">
         <v>94</v>
@@ -54854,16 +54935,16 @@
         <v>96</v>
       </c>
       <c r="Q203" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="R203" t="s">
         <v>95</v>
       </c>
       <c r="S203" t="s">
-        <v>454</v>
+        <v>98</v>
       </c>
       <c r="T203" t="s">
-        <v>1570</v>
+        <v>129</v>
       </c>
       <c r="U203" t="s">
         <v>99</v>
@@ -54872,7 +54953,7 @@
         <v>88</v>
       </c>
       <c r="W203" t="s">
-        <v>1571</v>
+        <v>833</v>
       </c>
       <c r="X203" t="s">
         <v>88</v>
@@ -54881,22 +54962,22 @@
         <v>88</v>
       </c>
       <c r="Z203" t="s">
-        <v>1572</v>
+        <v>1566</v>
       </c>
       <c r="AA203" t="s">
         <v>259</v>
       </c>
       <c r="AB203" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="AC203" t="s">
-        <v>260</v>
+        <v>294</v>
       </c>
       <c r="AD203" t="s">
         <v>105</v>
       </c>
       <c r="AF203" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="AG203" t="s">
         <v>99</v>
@@ -54911,7 +54992,7 @@
         <v>99</v>
       </c>
       <c r="AK203" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="AL203" t="s">
         <v>88</v>
@@ -54923,7 +55004,7 @@
         <v>99</v>
       </c>
       <c r="AO203" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="AP203" t="s">
         <v>99</v>
@@ -54944,16 +55025,16 @@
         <v>95</v>
       </c>
       <c r="AV203" t="s">
-        <v>454</v>
+        <v>98</v>
       </c>
       <c r="AW203" t="s">
-        <v>1570</v>
+        <v>129</v>
       </c>
       <c r="AX203" s="1">
-        <v>44610</v>
+        <v>44592</v>
       </c>
       <c r="AY203" s="1">
-        <v>44606</v>
+        <v>44591</v>
       </c>
       <c r="AZ203" t="s">
         <v>93</v>
@@ -54974,10 +55055,10 @@
         <v>155</v>
       </c>
       <c r="BF203" t="s">
-        <v>1573</v>
+        <v>1567</v>
       </c>
       <c r="BG203" s="1">
-        <v>38694</v>
+        <v>39050</v>
       </c>
       <c r="BH203" t="s">
         <v>88</v>
@@ -54989,19 +55070,19 @@
         <v>88</v>
       </c>
       <c r="BL203" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM203" t="s">
-        <v>1574</v>
+        <v>1568</v>
       </c>
       <c r="BN203" t="s">
-        <v>263</v>
+        <v>113</v>
       </c>
       <c r="BO203" s="1">
-        <v>44670</v>
+        <v>44598</v>
       </c>
       <c r="BP203" t="s">
-        <v>264</v>
+        <v>114</v>
       </c>
       <c r="BQ203" t="s">
         <v>88</v>
@@ -55013,31 +55094,31 @@
         <v>88</v>
       </c>
       <c r="BT203" t="s">
-        <v>141</v>
+        <v>223</v>
       </c>
       <c r="BU203" t="s">
         <v>116</v>
       </c>
       <c r="BV203" t="s">
-        <v>265</v>
+        <v>111</v>
       </c>
       <c r="BW203" t="s">
         <v>96</v>
       </c>
       <c r="BX203" t="s">
-        <v>1575</v>
+        <v>118</v>
       </c>
       <c r="BY203" t="s">
-        <v>1576</v>
+        <v>120</v>
       </c>
       <c r="BZ203" t="s">
         <v>96</v>
       </c>
       <c r="CA203" t="s">
-        <v>1575</v>
+        <v>118</v>
       </c>
       <c r="CB203" t="s">
-        <v>1576</v>
+        <v>120</v>
       </c>
       <c r="CC203" t="s">
         <v>118</v>
@@ -55046,7 +55127,7 @@
         <v>120</v>
       </c>
       <c r="CE203">
-        <v>74</v>
+        <v>27</v>
       </c>
     </row>
     <row r="204" spans="1:83" x14ac:dyDescent="0.15">
@@ -55054,40 +55135,40 @@
         <v>82</v>
       </c>
       <c r="B204" s="1">
-        <v>44620</v>
+        <v>44717</v>
       </c>
       <c r="C204" t="s">
-        <v>356</v>
+        <v>121</v>
       </c>
       <c r="D204" t="s">
         <v>84</v>
       </c>
       <c r="E204" t="s">
-        <v>1002</v>
+        <v>209</v>
       </c>
       <c r="F204" t="s">
         <v>86</v>
       </c>
       <c r="G204" t="s">
-        <v>1577</v>
+        <v>319</v>
       </c>
       <c r="H204" t="s">
-        <v>1578</v>
+        <v>251</v>
       </c>
       <c r="I204" t="s">
-        <v>1511</v>
+        <v>1569</v>
       </c>
       <c r="J204" t="s">
-        <v>940</v>
+        <v>1570</v>
       </c>
       <c r="K204" t="s">
-        <v>148</v>
+        <v>254</v>
       </c>
       <c r="L204" t="s">
-        <v>1579</v>
+        <v>1571</v>
       </c>
       <c r="M204" t="s">
-        <v>785</v>
+        <v>208</v>
       </c>
       <c r="N204" t="s">
         <v>94</v>
@@ -55123,25 +55204,25 @@
         <v>88</v>
       </c>
       <c r="Y204" t="s">
-        <v>201</v>
+        <v>1572</v>
       </c>
       <c r="Z204" t="s">
-        <v>1580</v>
+        <v>1573</v>
       </c>
       <c r="AA204" t="s">
-        <v>1498</v>
+        <v>259</v>
       </c>
       <c r="AB204" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="AC204" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="AD204" t="s">
         <v>105</v>
       </c>
       <c r="AF204" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="AG204" t="s">
         <v>99</v>
@@ -55195,10 +55276,10 @@
         <v>129</v>
       </c>
       <c r="AX204" s="1">
-        <v>44620</v>
+        <v>44716</v>
       </c>
       <c r="AY204" s="1">
-        <v>44616</v>
+        <v>44594</v>
       </c>
       <c r="AZ204" t="s">
         <v>93</v>
@@ -55219,10 +55300,10 @@
         <v>155</v>
       </c>
       <c r="BF204" t="s">
-        <v>1581</v>
+        <v>1574</v>
       </c>
       <c r="BG204" s="1">
-        <v>31112</v>
+        <v>40761</v>
       </c>
       <c r="BH204" t="s">
         <v>88</v>
@@ -55234,19 +55315,19 @@
         <v>88</v>
       </c>
       <c r="BL204" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM204" t="s">
-        <v>1582</v>
+        <v>1575</v>
       </c>
       <c r="BN204" t="s">
-        <v>1012</v>
+        <v>378</v>
       </c>
       <c r="BO204" s="1">
-        <v>44620</v>
+        <v>44737</v>
       </c>
       <c r="BP204" t="s">
-        <v>1013</v>
+        <v>222</v>
       </c>
       <c r="BQ204" t="s">
         <v>88</v>
@@ -55258,13 +55339,13 @@
         <v>88</v>
       </c>
       <c r="BT204" t="s">
-        <v>223</v>
+        <v>465</v>
       </c>
       <c r="BU204" t="s">
         <v>116</v>
       </c>
       <c r="BV204" t="s">
-        <v>1014</v>
+        <v>224</v>
       </c>
       <c r="BW204" t="s">
         <v>96</v>
@@ -55291,7 +55372,7 @@
         <v>120</v>
       </c>
       <c r="CE204">
-        <v>39</v>
+        <v>138</v>
       </c>
     </row>
     <row r="205" spans="1:83" x14ac:dyDescent="0.15">
@@ -55299,40 +55380,40 @@
         <v>82</v>
       </c>
       <c r="B205" s="1">
-        <v>44618</v>
+        <v>44609</v>
       </c>
       <c r="C205" t="s">
-        <v>356</v>
+        <v>105</v>
       </c>
       <c r="D205" t="s">
         <v>84</v>
       </c>
       <c r="E205" t="s">
-        <v>209</v>
+        <v>122</v>
       </c>
       <c r="F205" t="s">
         <v>86</v>
       </c>
       <c r="G205" t="s">
-        <v>1340</v>
+        <v>1576</v>
       </c>
       <c r="H205" t="s">
         <v>88</v>
       </c>
       <c r="I205" t="s">
-        <v>1583</v>
+        <v>1577</v>
       </c>
       <c r="J205" t="s">
-        <v>1584</v>
+        <v>467</v>
       </c>
       <c r="K205" t="s">
         <v>91</v>
       </c>
       <c r="L205" t="s">
-        <v>1585</v>
+        <v>1578</v>
       </c>
       <c r="M205" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="N205" t="s">
         <v>94</v>
@@ -55344,7 +55425,7 @@
         <v>96</v>
       </c>
       <c r="Q205" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="R205" t="s">
         <v>95</v>
@@ -55353,13 +55434,13 @@
         <v>98</v>
       </c>
       <c r="T205" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="U205" t="s">
         <v>94</v>
       </c>
       <c r="V205" t="s">
-        <v>215</v>
+        <v>120</v>
       </c>
       <c r="W205" t="s">
         <v>88</v>
@@ -55368,10 +55449,10 @@
         <v>88</v>
       </c>
       <c r="Y205" t="s">
-        <v>1586</v>
+        <v>130</v>
       </c>
       <c r="Z205" t="s">
-        <v>1587</v>
+        <v>1579</v>
       </c>
       <c r="AA205" t="s">
         <v>132</v>
@@ -55401,7 +55482,7 @@
         <v>99</v>
       </c>
       <c r="AK205" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="AL205" t="s">
         <v>88</v>
@@ -55413,7 +55494,7 @@
         <v>99</v>
       </c>
       <c r="AO205" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="AP205" t="s">
         <v>99</v>
@@ -55437,13 +55518,13 @@
         <v>98</v>
       </c>
       <c r="AW205" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="AX205" s="1">
-        <v>44618</v>
+        <v>44607</v>
       </c>
       <c r="AY205" s="1">
-        <v>44617</v>
+        <v>44604</v>
       </c>
       <c r="AZ205" t="s">
         <v>93</v>
@@ -55464,10 +55545,10 @@
         <v>155</v>
       </c>
       <c r="BF205" t="s">
-        <v>1588</v>
+        <v>1580</v>
       </c>
       <c r="BG205" s="1">
-        <v>43616</v>
+        <v>43485</v>
       </c>
       <c r="BH205" t="s">
         <v>88</v>
@@ -55479,19 +55560,19 @@
         <v>88</v>
       </c>
       <c r="BL205" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM205" t="s">
-        <v>570</v>
+        <v>1581</v>
       </c>
       <c r="BN205" t="s">
-        <v>1589</v>
+        <v>389</v>
       </c>
       <c r="BO205" s="1">
-        <v>44620</v>
+        <v>44609</v>
       </c>
       <c r="BP205" t="s">
-        <v>222</v>
+        <v>140</v>
       </c>
       <c r="BQ205" t="s">
         <v>88</v>
@@ -55509,7 +55590,7 @@
         <v>116</v>
       </c>
       <c r="BV205" t="s">
-        <v>224</v>
+        <v>137</v>
       </c>
       <c r="BW205" t="s">
         <v>96</v>
@@ -55518,7 +55599,7 @@
         <v>118</v>
       </c>
       <c r="BY205" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BZ205" t="s">
         <v>96</v>
@@ -55527,7 +55608,7 @@
         <v>118</v>
       </c>
       <c r="CB205" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="CC205" t="s">
         <v>118</v>
@@ -55536,7 +55617,7 @@
         <v>120</v>
       </c>
       <c r="CE205">
-        <v>35</v>
+        <v>136</v>
       </c>
     </row>
     <row r="206" spans="1:83" x14ac:dyDescent="0.15">
@@ -55544,40 +55625,40 @@
         <v>82</v>
       </c>
       <c r="B206" s="1">
-        <v>44620</v>
+        <v>44608</v>
       </c>
       <c r="C206" t="s">
-        <v>356</v>
+        <v>108</v>
       </c>
       <c r="D206" t="s">
         <v>84</v>
       </c>
       <c r="E206" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="F206" t="s">
         <v>86</v>
       </c>
       <c r="G206" t="s">
-        <v>1442</v>
+        <v>1381</v>
       </c>
       <c r="H206" t="s">
-        <v>88</v>
+        <v>1582</v>
       </c>
       <c r="I206" t="s">
-        <v>212</v>
+        <v>601</v>
       </c>
       <c r="J206" t="s">
-        <v>1590</v>
+        <v>1583</v>
       </c>
       <c r="K206" t="s">
         <v>91</v>
       </c>
       <c r="L206" t="s">
-        <v>1591</v>
+        <v>1584</v>
       </c>
       <c r="M206" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="N206" t="s">
         <v>94</v>
@@ -55598,13 +55679,13 @@
         <v>98</v>
       </c>
       <c r="T206" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="U206" t="s">
         <v>94</v>
       </c>
       <c r="V206" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="W206" t="s">
         <v>88</v>
@@ -55613,13 +55694,13 @@
         <v>88</v>
       </c>
       <c r="Y206" t="s">
-        <v>1592</v>
+        <v>201</v>
       </c>
       <c r="Z206" t="s">
-        <v>1593</v>
+        <v>1585</v>
       </c>
       <c r="AA206" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="AB206" t="s">
         <v>133</v>
@@ -55631,7 +55712,7 @@
         <v>105</v>
       </c>
       <c r="AF206" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="AG206" t="s">
         <v>99</v>
@@ -55682,13 +55763,13 @@
         <v>98</v>
       </c>
       <c r="AW206" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="AX206" s="1">
-        <v>44620</v>
+        <v>44608</v>
       </c>
       <c r="AY206" s="1">
-        <v>44618</v>
+        <v>44605</v>
       </c>
       <c r="AZ206" t="s">
         <v>93</v>
@@ -55709,10 +55790,10 @@
         <v>155</v>
       </c>
       <c r="BF206" t="s">
-        <v>1594</v>
+        <v>1586</v>
       </c>
       <c r="BG206" s="1">
-        <v>43136</v>
+        <v>43504</v>
       </c>
       <c r="BH206" t="s">
         <v>88</v>
@@ -55724,19 +55805,19 @@
         <v>88</v>
       </c>
       <c r="BL206" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM206" t="s">
-        <v>274</v>
+        <v>805</v>
       </c>
       <c r="BN206" t="s">
-        <v>275</v>
+        <v>652</v>
       </c>
       <c r="BO206" s="1">
-        <v>44623</v>
+        <v>44610</v>
       </c>
       <c r="BP206" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="BQ206" t="s">
         <v>88</v>
@@ -55754,7 +55835,7 @@
         <v>116</v>
       </c>
       <c r="BV206" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="BW206" t="s">
         <v>96</v>
@@ -55763,7 +55844,7 @@
         <v>118</v>
       </c>
       <c r="BY206" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BZ206" t="s">
         <v>96</v>
@@ -55772,7 +55853,7 @@
         <v>118</v>
       </c>
       <c r="CB206" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="CC206" t="s">
         <v>118</v>
@@ -55781,7 +55862,7 @@
         <v>120</v>
       </c>
       <c r="CE206">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="207" spans="1:83" x14ac:dyDescent="0.15">
@@ -55789,10 +55870,10 @@
         <v>82</v>
       </c>
       <c r="B207" s="1">
-        <v>44620</v>
+        <v>44610</v>
       </c>
       <c r="C207" t="s">
-        <v>356</v>
+        <v>108</v>
       </c>
       <c r="D207" t="s">
         <v>84</v>
@@ -55804,25 +55885,25 @@
         <v>208</v>
       </c>
       <c r="G207" t="s">
-        <v>1595</v>
+        <v>1587</v>
       </c>
       <c r="H207" t="s">
-        <v>88</v>
+        <v>712</v>
       </c>
       <c r="I207" t="s">
-        <v>1596</v>
+        <v>1588</v>
       </c>
       <c r="J207" t="s">
-        <v>241</v>
+        <v>175</v>
       </c>
       <c r="K207" t="s">
         <v>254</v>
       </c>
       <c r="L207" t="s">
-        <v>1597</v>
+        <v>1589</v>
       </c>
       <c r="M207" t="s">
-        <v>108</v>
+        <v>1510</v>
       </c>
       <c r="N207" t="s">
         <v>94</v>
@@ -55834,7 +55915,7 @@
         <v>96</v>
       </c>
       <c r="Q207" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="R207" t="s">
         <v>95</v>
@@ -55861,7 +55942,7 @@
         <v>88</v>
       </c>
       <c r="Z207" t="s">
-        <v>1598</v>
+        <v>1590</v>
       </c>
       <c r="AA207" t="s">
         <v>259</v>
@@ -55870,13 +55951,13 @@
         <v>133</v>
       </c>
       <c r="AC207" t="s">
-        <v>134</v>
+        <v>742</v>
       </c>
       <c r="AD207" t="s">
         <v>105</v>
       </c>
       <c r="AF207" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="AG207" t="s">
         <v>99</v>
@@ -55891,7 +55972,7 @@
         <v>99</v>
       </c>
       <c r="AK207" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="AL207" t="s">
         <v>88</v>
@@ -55903,7 +55984,7 @@
         <v>99</v>
       </c>
       <c r="AO207" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="AP207" t="s">
         <v>99</v>
@@ -55930,10 +56011,10 @@
         <v>129</v>
       </c>
       <c r="AX207" s="1">
-        <v>44620</v>
+        <v>44610</v>
       </c>
       <c r="AY207" s="1">
-        <v>44617</v>
+        <v>44609</v>
       </c>
       <c r="AZ207" t="s">
         <v>93</v>
@@ -55954,10 +56035,10 @@
         <v>155</v>
       </c>
       <c r="BF207" t="s">
-        <v>1599</v>
+        <v>1591</v>
       </c>
       <c r="BG207" s="1">
-        <v>41709</v>
+        <v>40979</v>
       </c>
       <c r="BH207" t="s">
         <v>88</v>
@@ -55969,16 +56050,16 @@
         <v>88</v>
       </c>
       <c r="BL207" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM207" t="s">
-        <v>368</v>
+        <v>1592</v>
       </c>
       <c r="BN207" t="s">
         <v>113</v>
       </c>
       <c r="BO207" s="1">
-        <v>44622</v>
+        <v>44615</v>
       </c>
       <c r="BP207" t="s">
         <v>114</v>
@@ -55993,7 +56074,7 @@
         <v>88</v>
       </c>
       <c r="BT207" t="s">
-        <v>223</v>
+        <v>1165</v>
       </c>
       <c r="BU207" t="s">
         <v>116</v>
@@ -56026,7 +56107,7 @@
         <v>120</v>
       </c>
       <c r="CE207">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="208" spans="1:83" x14ac:dyDescent="0.15">
@@ -56034,40 +56115,40 @@
         <v>82</v>
       </c>
       <c r="B208" s="1">
-        <v>44615</v>
+        <v>44670</v>
       </c>
       <c r="C208" t="s">
-        <v>356</v>
+        <v>108</v>
       </c>
       <c r="D208" t="s">
         <v>84</v>
       </c>
       <c r="E208" t="s">
-        <v>122</v>
+        <v>250</v>
       </c>
       <c r="F208" t="s">
         <v>86</v>
       </c>
       <c r="G208" t="s">
-        <v>1381</v>
+        <v>1593</v>
       </c>
       <c r="H208" t="s">
-        <v>88</v>
+        <v>407</v>
       </c>
       <c r="I208" t="s">
-        <v>1600</v>
+        <v>1594</v>
       </c>
       <c r="J208" t="s">
-        <v>170</v>
+        <v>1595</v>
       </c>
       <c r="K208" t="s">
         <v>254</v>
       </c>
       <c r="L208" t="s">
-        <v>1601</v>
+        <v>1596</v>
       </c>
       <c r="M208" t="s">
-        <v>108</v>
+        <v>335</v>
       </c>
       <c r="N208" t="s">
         <v>94</v>
@@ -56079,49 +56160,49 @@
         <v>96</v>
       </c>
       <c r="Q208" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="R208" t="s">
         <v>95</v>
       </c>
       <c r="S208" t="s">
-        <v>98</v>
+        <v>454</v>
       </c>
       <c r="T208" t="s">
-        <v>129</v>
+        <v>1597</v>
       </c>
       <c r="U208" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="V208" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="W208" t="s">
-        <v>88</v>
+        <v>1598</v>
       </c>
       <c r="X208" t="s">
         <v>88</v>
       </c>
       <c r="Y208" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="Z208" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="AA208" t="s">
         <v>259</v>
       </c>
       <c r="AB208" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="AC208" t="s">
-        <v>134</v>
+        <v>260</v>
       </c>
       <c r="AD208" t="s">
         <v>105</v>
       </c>
       <c r="AF208" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="AG208" t="s">
         <v>99</v>
@@ -56136,7 +56217,7 @@
         <v>99</v>
       </c>
       <c r="AK208" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AL208" t="s">
         <v>88</v>
@@ -56148,7 +56229,7 @@
         <v>99</v>
       </c>
       <c r="AO208" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AP208" t="s">
         <v>99</v>
@@ -56169,16 +56250,16 @@
         <v>95</v>
       </c>
       <c r="AV208" t="s">
-        <v>98</v>
+        <v>454</v>
       </c>
       <c r="AW208" t="s">
-        <v>129</v>
+        <v>1597</v>
       </c>
       <c r="AX208" s="1">
-        <v>44613</v>
+        <v>44610</v>
       </c>
       <c r="AY208" s="1">
-        <v>44612</v>
+        <v>44606</v>
       </c>
       <c r="AZ208" t="s">
         <v>93</v>
@@ -56199,10 +56280,10 @@
         <v>155</v>
       </c>
       <c r="BF208" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="BG208" s="1">
-        <v>41724</v>
+        <v>38694</v>
       </c>
       <c r="BH208" t="s">
         <v>88</v>
@@ -56214,19 +56295,19 @@
         <v>88</v>
       </c>
       <c r="BL208" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM208" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="BN208" t="s">
-        <v>389</v>
+        <v>263</v>
       </c>
       <c r="BO208" s="1">
-        <v>44615</v>
+        <v>44670</v>
       </c>
       <c r="BP208" t="s">
-        <v>140</v>
+        <v>264</v>
       </c>
       <c r="BQ208" t="s">
         <v>88</v>
@@ -56238,31 +56319,31 @@
         <v>88</v>
       </c>
       <c r="BT208" t="s">
-        <v>223</v>
+        <v>141</v>
       </c>
       <c r="BU208" t="s">
         <v>116</v>
       </c>
       <c r="BV208" t="s">
-        <v>137</v>
+        <v>265</v>
       </c>
       <c r="BW208" t="s">
         <v>96</v>
       </c>
       <c r="BX208" t="s">
-        <v>118</v>
+        <v>1602</v>
       </c>
       <c r="BY208" t="s">
-        <v>120</v>
+        <v>1603</v>
       </c>
       <c r="BZ208" t="s">
         <v>96</v>
       </c>
       <c r="CA208" t="s">
-        <v>118</v>
+        <v>1602</v>
       </c>
       <c r="CB208" t="s">
-        <v>120</v>
+        <v>1603</v>
       </c>
       <c r="CC208" t="s">
         <v>118</v>
@@ -56271,7 +56352,7 @@
         <v>120</v>
       </c>
       <c r="CE208">
-        <v>29</v>
+        <v>74</v>
       </c>
     </row>
     <row r="209" spans="1:83" x14ac:dyDescent="0.15">
@@ -56279,7 +56360,7 @@
         <v>82</v>
       </c>
       <c r="B209" s="1">
-        <v>44618</v>
+        <v>44620</v>
       </c>
       <c r="C209" t="s">
         <v>356</v>
@@ -56288,31 +56369,31 @@
         <v>84</v>
       </c>
       <c r="E209" t="s">
-        <v>85</v>
+        <v>1002</v>
       </c>
       <c r="F209" t="s">
-        <v>208</v>
+        <v>86</v>
       </c>
       <c r="G209" t="s">
-        <v>426</v>
+        <v>1604</v>
       </c>
       <c r="H209" t="s">
-        <v>88</v>
+        <v>1605</v>
       </c>
       <c r="I209" t="s">
-        <v>753</v>
+        <v>1519</v>
       </c>
       <c r="J209" t="s">
-        <v>310</v>
+        <v>940</v>
       </c>
       <c r="K209" t="s">
-        <v>254</v>
+        <v>148</v>
       </c>
       <c r="L209" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="M209" t="s">
-        <v>108</v>
+        <v>785</v>
       </c>
       <c r="N209" t="s">
         <v>94</v>
@@ -56336,31 +56417,31 @@
         <v>129</v>
       </c>
       <c r="U209" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="V209" t="s">
-        <v>88</v>
+        <v>215</v>
       </c>
       <c r="W209" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="X209" t="s">
         <v>88</v>
       </c>
       <c r="Y209" t="s">
-        <v>88</v>
+        <v>201</v>
       </c>
       <c r="Z209" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="AA209" t="s">
-        <v>259</v>
+        <v>1498</v>
       </c>
       <c r="AB209" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="AC209" t="s">
-        <v>294</v>
+        <v>154</v>
       </c>
       <c r="AD209" t="s">
         <v>105</v>
@@ -56420,10 +56501,10 @@
         <v>129</v>
       </c>
       <c r="AX209" s="1">
-        <v>44618</v>
+        <v>44620</v>
       </c>
       <c r="AY209" s="1">
-        <v>44617</v>
+        <v>44616</v>
       </c>
       <c r="AZ209" t="s">
         <v>93</v>
@@ -56444,10 +56525,10 @@
         <v>155</v>
       </c>
       <c r="BF209" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="BG209" s="1">
-        <v>41755</v>
+        <v>31112</v>
       </c>
       <c r="BH209" t="s">
         <v>88</v>
@@ -56459,19 +56540,19 @@
         <v>88</v>
       </c>
       <c r="BL209" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM209" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="BN209" t="s">
-        <v>113</v>
+        <v>1012</v>
       </c>
       <c r="BO209" s="1">
-        <v>44621</v>
+        <v>44620</v>
       </c>
       <c r="BP209" t="s">
-        <v>114</v>
+        <v>1013</v>
       </c>
       <c r="BQ209" t="s">
         <v>88</v>
@@ -56489,7 +56570,7 @@
         <v>116</v>
       </c>
       <c r="BV209" t="s">
-        <v>111</v>
+        <v>1014</v>
       </c>
       <c r="BW209" t="s">
         <v>96</v>
@@ -56516,7 +56597,7 @@
         <v>120</v>
       </c>
       <c r="CE209">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="210" spans="1:83" x14ac:dyDescent="0.15">
@@ -56524,7 +56605,7 @@
         <v>82</v>
       </c>
       <c r="B210" s="1">
-        <v>44614</v>
+        <v>44618</v>
       </c>
       <c r="C210" t="s">
         <v>356</v>
@@ -56539,25 +56620,25 @@
         <v>86</v>
       </c>
       <c r="G210" t="s">
-        <v>874</v>
+        <v>1340</v>
       </c>
       <c r="H210" t="s">
         <v>88</v>
       </c>
       <c r="I210" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="J210" t="s">
-        <v>1518</v>
+        <v>1611</v>
       </c>
       <c r="K210" t="s">
-        <v>254</v>
+        <v>91</v>
       </c>
       <c r="L210" t="s">
-        <v>1610</v>
+        <v>1612</v>
       </c>
       <c r="M210" t="s">
-        <v>335</v>
+        <v>99</v>
       </c>
       <c r="N210" t="s">
         <v>94</v>
@@ -56578,7 +56659,7 @@
         <v>98</v>
       </c>
       <c r="T210" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="U210" t="s">
         <v>94</v>
@@ -56593,25 +56674,25 @@
         <v>88</v>
       </c>
       <c r="Y210" t="s">
-        <v>1611</v>
+        <v>1613</v>
       </c>
       <c r="Z210" t="s">
-        <v>1612</v>
+        <v>1614</v>
       </c>
       <c r="AA210" t="s">
-        <v>259</v>
+        <v>132</v>
       </c>
       <c r="AB210" t="s">
         <v>133</v>
       </c>
       <c r="AC210" t="s">
-        <v>190</v>
+        <v>134</v>
       </c>
       <c r="AD210" t="s">
         <v>105</v>
       </c>
       <c r="AF210" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="AG210" t="s">
         <v>99</v>
@@ -56662,13 +56743,13 @@
         <v>98</v>
       </c>
       <c r="AW210" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="AX210" s="1">
-        <v>44614</v>
+        <v>44618</v>
       </c>
       <c r="AY210" s="1">
-        <v>44612</v>
+        <v>44617</v>
       </c>
       <c r="AZ210" t="s">
         <v>93</v>
@@ -56689,10 +56770,10 @@
         <v>155</v>
       </c>
       <c r="BF210" t="s">
-        <v>1613</v>
+        <v>1615</v>
       </c>
       <c r="BG210" s="1">
-        <v>38646</v>
+        <v>43616</v>
       </c>
       <c r="BH210" t="s">
         <v>88</v>
@@ -56704,16 +56785,16 @@
         <v>88</v>
       </c>
       <c r="BL210" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM210" t="s">
-        <v>628</v>
+        <v>570</v>
       </c>
       <c r="BN210" t="s">
-        <v>629</v>
+        <v>1616</v>
       </c>
       <c r="BO210" s="1">
-        <v>44616</v>
+        <v>44620</v>
       </c>
       <c r="BP210" t="s">
         <v>222</v>
@@ -56728,7 +56809,7 @@
         <v>88</v>
       </c>
       <c r="BT210" t="s">
-        <v>1165</v>
+        <v>223</v>
       </c>
       <c r="BU210" t="s">
         <v>116</v>
@@ -56743,7 +56824,7 @@
         <v>118</v>
       </c>
       <c r="BY210" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BZ210" t="s">
         <v>96</v>
@@ -56752,7 +56833,7 @@
         <v>118</v>
       </c>
       <c r="CB210" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="CC210" t="s">
         <v>118</v>
@@ -56761,7 +56842,7 @@
         <v>120</v>
       </c>
       <c r="CE210">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="211" spans="1:83" x14ac:dyDescent="0.15">
@@ -56769,7 +56850,7 @@
         <v>82</v>
       </c>
       <c r="B211" s="1">
-        <v>44615</v>
+        <v>44620</v>
       </c>
       <c r="C211" t="s">
         <v>356</v>
@@ -56778,31 +56859,31 @@
         <v>84</v>
       </c>
       <c r="E211" t="s">
-        <v>85</v>
+        <v>209</v>
       </c>
       <c r="F211" t="s">
         <v>86</v>
       </c>
       <c r="G211" t="s">
-        <v>646</v>
+        <v>1442</v>
       </c>
       <c r="H211" t="s">
         <v>88</v>
       </c>
       <c r="I211" t="s">
-        <v>529</v>
+        <v>212</v>
       </c>
       <c r="J211" t="s">
-        <v>510</v>
+        <v>1617</v>
       </c>
       <c r="K211" t="s">
-        <v>254</v>
+        <v>91</v>
       </c>
       <c r="L211" t="s">
-        <v>1614</v>
+        <v>1618</v>
       </c>
       <c r="M211" t="s">
-        <v>270</v>
+        <v>93</v>
       </c>
       <c r="N211" t="s">
         <v>94</v>
@@ -56814,7 +56895,7 @@
         <v>96</v>
       </c>
       <c r="Q211" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="R211" t="s">
         <v>95</v>
@@ -56823,34 +56904,34 @@
         <v>98</v>
       </c>
       <c r="T211" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="U211" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="V211" t="s">
-        <v>88</v>
+        <v>215</v>
       </c>
       <c r="W211" t="s">
-        <v>497</v>
+        <v>88</v>
       </c>
       <c r="X211" t="s">
         <v>88</v>
       </c>
       <c r="Y211" t="s">
-        <v>88</v>
+        <v>1619</v>
       </c>
       <c r="Z211" t="s">
-        <v>1615</v>
+        <v>1620</v>
       </c>
       <c r="AA211" t="s">
-        <v>259</v>
+        <v>102</v>
       </c>
       <c r="AB211" t="s">
         <v>133</v>
       </c>
       <c r="AC211" t="s">
-        <v>294</v>
+        <v>190</v>
       </c>
       <c r="AD211" t="s">
         <v>105</v>
@@ -56871,7 +56952,7 @@
         <v>99</v>
       </c>
       <c r="AK211" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="AL211" t="s">
         <v>88</v>
@@ -56883,7 +56964,7 @@
         <v>99</v>
       </c>
       <c r="AO211" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="AP211" t="s">
         <v>99</v>
@@ -56907,13 +56988,13 @@
         <v>98</v>
       </c>
       <c r="AW211" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="AX211" s="1">
-        <v>44615</v>
+        <v>44620</v>
       </c>
       <c r="AY211" s="1">
-        <v>44614</v>
+        <v>44618</v>
       </c>
       <c r="AZ211" t="s">
         <v>93</v>
@@ -56934,10 +57015,10 @@
         <v>155</v>
       </c>
       <c r="BF211" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
       <c r="BG211" s="1">
-        <v>40237</v>
+        <v>43136</v>
       </c>
       <c r="BH211" t="s">
         <v>88</v>
@@ -56949,19 +57030,19 @@
         <v>88</v>
       </c>
       <c r="BL211" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM211" t="s">
-        <v>1617</v>
+        <v>274</v>
       </c>
       <c r="BN211" t="s">
-        <v>113</v>
+        <v>275</v>
       </c>
       <c r="BO211" s="1">
-        <v>44616</v>
+        <v>44623</v>
       </c>
       <c r="BP211" t="s">
-        <v>114</v>
+        <v>222</v>
       </c>
       <c r="BQ211" t="s">
         <v>88</v>
@@ -56973,13 +57054,13 @@
         <v>88</v>
       </c>
       <c r="BT211" t="s">
-        <v>1165</v>
+        <v>223</v>
       </c>
       <c r="BU211" t="s">
         <v>116</v>
       </c>
       <c r="BV211" t="s">
-        <v>117</v>
+        <v>224</v>
       </c>
       <c r="BW211" t="s">
         <v>96</v>
@@ -56988,7 +57069,7 @@
         <v>118</v>
       </c>
       <c r="BY211" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BZ211" t="s">
         <v>96</v>
@@ -56997,7 +57078,7 @@
         <v>118</v>
       </c>
       <c r="CB211" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="CC211" t="s">
         <v>118</v>
@@ -57006,7 +57087,7 @@
         <v>120</v>
       </c>
       <c r="CE211">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="212" spans="1:83" x14ac:dyDescent="0.15">
@@ -57014,40 +57095,40 @@
         <v>82</v>
       </c>
       <c r="B212" s="1">
-        <v>44623</v>
+        <v>44620</v>
       </c>
       <c r="C212" t="s">
-        <v>1562</v>
+        <v>356</v>
       </c>
       <c r="D212" t="s">
         <v>84</v>
       </c>
       <c r="E212" t="s">
-        <v>197</v>
+        <v>85</v>
       </c>
       <c r="F212" t="s">
-        <v>86</v>
+        <v>208</v>
       </c>
       <c r="G212" t="s">
-        <v>319</v>
+        <v>1622</v>
       </c>
       <c r="H212" t="s">
-        <v>251</v>
+        <v>88</v>
       </c>
       <c r="I212" t="s">
-        <v>288</v>
+        <v>1623</v>
       </c>
       <c r="J212" t="s">
-        <v>731</v>
+        <v>241</v>
       </c>
       <c r="K212" t="s">
-        <v>91</v>
+        <v>254</v>
       </c>
       <c r="L212" t="s">
-        <v>1618</v>
+        <v>1624</v>
       </c>
       <c r="M212" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N212" t="s">
         <v>94</v>
@@ -57071,37 +57152,37 @@
         <v>129</v>
       </c>
       <c r="U212" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="V212" t="s">
-        <v>186</v>
+        <v>88</v>
       </c>
       <c r="W212" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="X212" t="s">
         <v>88</v>
       </c>
       <c r="Y212" t="s">
-        <v>201</v>
+        <v>88</v>
       </c>
       <c r="Z212" t="s">
-        <v>1619</v>
+        <v>1625</v>
       </c>
       <c r="AA212" t="s">
-        <v>132</v>
+        <v>259</v>
       </c>
       <c r="AB212" t="s">
         <v>133</v>
       </c>
       <c r="AC212" t="s">
-        <v>1620</v>
+        <v>134</v>
       </c>
       <c r="AD212" t="s">
         <v>105</v>
       </c>
       <c r="AF212" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="AG212" t="s">
         <v>99</v>
@@ -57155,10 +57236,10 @@
         <v>129</v>
       </c>
       <c r="AX212" s="1">
-        <v>44623</v>
+        <v>44620</v>
       </c>
       <c r="AY212" s="1">
-        <v>44621</v>
+        <v>44617</v>
       </c>
       <c r="AZ212" t="s">
         <v>93</v>
@@ -57179,10 +57260,10 @@
         <v>155</v>
       </c>
       <c r="BF212" t="s">
-        <v>1621</v>
+        <v>1626</v>
       </c>
       <c r="BG212" s="1">
-        <v>43489</v>
+        <v>41709</v>
       </c>
       <c r="BH212" t="s">
         <v>88</v>
@@ -57194,19 +57275,19 @@
         <v>88</v>
       </c>
       <c r="BL212" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM212" t="s">
-        <v>1622</v>
+        <v>368</v>
       </c>
       <c r="BN212" t="s">
-        <v>652</v>
+        <v>113</v>
       </c>
       <c r="BO212" s="1">
-        <v>44624</v>
+        <v>44622</v>
       </c>
       <c r="BP212" t="s">
-        <v>206</v>
+        <v>114</v>
       </c>
       <c r="BQ212" t="s">
         <v>88</v>
@@ -57224,7 +57305,7 @@
         <v>116</v>
       </c>
       <c r="BV212" t="s">
-        <v>207</v>
+        <v>111</v>
       </c>
       <c r="BW212" t="s">
         <v>96</v>
@@ -57251,7 +57332,7 @@
         <v>120</v>
       </c>
       <c r="CE212">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="213" spans="1:83" x14ac:dyDescent="0.15">
@@ -57259,40 +57340,40 @@
         <v>82</v>
       </c>
       <c r="B213" s="1">
-        <v>44653</v>
+        <v>44615</v>
       </c>
       <c r="C213" t="s">
-        <v>1562</v>
+        <v>356</v>
       </c>
       <c r="D213" t="s">
         <v>84</v>
       </c>
       <c r="E213" t="s">
-        <v>225</v>
+        <v>122</v>
       </c>
       <c r="F213" t="s">
-        <v>226</v>
+        <v>86</v>
       </c>
       <c r="G213" t="s">
-        <v>308</v>
+        <v>1381</v>
       </c>
       <c r="H213" t="s">
         <v>88</v>
       </c>
       <c r="I213" t="s">
-        <v>1244</v>
+        <v>1627</v>
       </c>
       <c r="J213" t="s">
-        <v>1623</v>
+        <v>170</v>
       </c>
       <c r="K213" t="s">
-        <v>91</v>
+        <v>254</v>
       </c>
       <c r="L213" t="s">
-        <v>1624</v>
+        <v>1628</v>
       </c>
       <c r="M213" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="N213" t="s">
         <v>94</v>
@@ -57304,7 +57385,7 @@
         <v>96</v>
       </c>
       <c r="Q213" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="R213" t="s">
         <v>95</v>
@@ -57319,7 +57400,7 @@
         <v>94</v>
       </c>
       <c r="V213" t="s">
-        <v>186</v>
+        <v>120</v>
       </c>
       <c r="W213" t="s">
         <v>88</v>
@@ -57328,25 +57409,25 @@
         <v>88</v>
       </c>
       <c r="Y213" t="s">
-        <v>201</v>
+        <v>120</v>
       </c>
       <c r="Z213" t="s">
-        <v>1625</v>
+        <v>1629</v>
       </c>
       <c r="AA213" t="s">
-        <v>132</v>
+        <v>259</v>
       </c>
       <c r="AB213" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="AC213" t="s">
-        <v>1093</v>
+        <v>134</v>
       </c>
       <c r="AD213" t="s">
         <v>105</v>
       </c>
       <c r="AF213" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="AG213" t="s">
         <v>99</v>
@@ -57361,7 +57442,7 @@
         <v>99</v>
       </c>
       <c r="AK213" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="AL213" t="s">
         <v>88</v>
@@ -57373,7 +57454,7 @@
         <v>99</v>
       </c>
       <c r="AO213" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="AP213" t="s">
         <v>99</v>
@@ -57400,10 +57481,10 @@
         <v>129</v>
       </c>
       <c r="AX213" s="1">
-        <v>44652</v>
+        <v>44613</v>
       </c>
       <c r="AY213" s="1">
-        <v>44620</v>
+        <v>44612</v>
       </c>
       <c r="AZ213" t="s">
         <v>93</v>
@@ -57424,10 +57505,10 @@
         <v>155</v>
       </c>
       <c r="BF213" t="s">
-        <v>1626</v>
+        <v>1630</v>
       </c>
       <c r="BG213" s="1">
-        <v>42728</v>
+        <v>41724</v>
       </c>
       <c r="BH213" t="s">
         <v>88</v>
@@ -57439,19 +57520,19 @@
         <v>88</v>
       </c>
       <c r="BL213" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM213" t="s">
-        <v>1627</v>
+        <v>1631</v>
       </c>
       <c r="BN213" t="s">
-        <v>799</v>
+        <v>389</v>
       </c>
       <c r="BO213" s="1">
-        <v>44655</v>
+        <v>44615</v>
       </c>
       <c r="BP213" t="s">
-        <v>236</v>
+        <v>140</v>
       </c>
       <c r="BQ213" t="s">
         <v>88</v>
@@ -57463,13 +57544,13 @@
         <v>88</v>
       </c>
       <c r="BT213" t="s">
-        <v>141</v>
+        <v>223</v>
       </c>
       <c r="BU213" t="s">
         <v>116</v>
       </c>
       <c r="BV213" t="s">
-        <v>237</v>
+        <v>137</v>
       </c>
       <c r="BW213" t="s">
         <v>96</v>
@@ -57496,7 +57577,7 @@
         <v>120</v>
       </c>
       <c r="CE213">
-        <v>68</v>
+        <v>29</v>
       </c>
     </row>
     <row r="214" spans="1:83" x14ac:dyDescent="0.15">
@@ -57504,40 +57585,40 @@
         <v>82</v>
       </c>
       <c r="B214" s="1">
-        <v>44632</v>
+        <v>44618</v>
       </c>
       <c r="C214" t="s">
-        <v>1562</v>
+        <v>356</v>
       </c>
       <c r="D214" t="s">
         <v>84</v>
       </c>
       <c r="E214" t="s">
-        <v>179</v>
+        <v>85</v>
       </c>
       <c r="F214" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="G214" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H214" t="s">
-        <v>1628</v>
+        <v>88</v>
       </c>
       <c r="I214" t="s">
-        <v>653</v>
+        <v>753</v>
       </c>
       <c r="J214" t="s">
-        <v>1312</v>
+        <v>310</v>
       </c>
       <c r="K214" t="s">
-        <v>91</v>
+        <v>254</v>
       </c>
       <c r="L214" t="s">
-        <v>1629</v>
+        <v>1632</v>
       </c>
       <c r="M214" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="N214" t="s">
         <v>94</v>
@@ -57561,22 +57642,22 @@
         <v>129</v>
       </c>
       <c r="U214" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="V214" t="s">
-        <v>186</v>
+        <v>88</v>
       </c>
       <c r="W214" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="X214" t="s">
         <v>88</v>
       </c>
       <c r="Y214" t="s">
-        <v>1630</v>
+        <v>88</v>
       </c>
       <c r="Z214" t="s">
-        <v>1631</v>
+        <v>1633</v>
       </c>
       <c r="AA214" t="s">
         <v>259</v>
@@ -57585,7 +57666,7 @@
         <v>133</v>
       </c>
       <c r="AC214" t="s">
-        <v>190</v>
+        <v>294</v>
       </c>
       <c r="AD214" t="s">
         <v>105</v>
@@ -57645,10 +57726,10 @@
         <v>129</v>
       </c>
       <c r="AX214" s="1">
-        <v>44629</v>
+        <v>44618</v>
       </c>
       <c r="AY214" s="1">
-        <v>44624</v>
+        <v>44617</v>
       </c>
       <c r="AZ214" t="s">
         <v>93</v>
@@ -57669,10 +57750,10 @@
         <v>155</v>
       </c>
       <c r="BF214" t="s">
-        <v>1632</v>
+        <v>1634</v>
       </c>
       <c r="BG214" s="1">
-        <v>42615</v>
+        <v>41755</v>
       </c>
       <c r="BH214" t="s">
         <v>88</v>
@@ -57684,19 +57765,19 @@
         <v>88</v>
       </c>
       <c r="BL214" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM214" t="s">
-        <v>305</v>
+        <v>1635</v>
       </c>
       <c r="BN214" t="s">
-        <v>306</v>
+        <v>113</v>
       </c>
       <c r="BO214" s="1">
-        <v>44632</v>
+        <v>44621</v>
       </c>
       <c r="BP214" t="s">
-        <v>194</v>
+        <v>114</v>
       </c>
       <c r="BQ214" t="s">
         <v>88</v>
@@ -57708,13 +57789,13 @@
         <v>88</v>
       </c>
       <c r="BT214" t="s">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="BU214" t="s">
         <v>116</v>
       </c>
       <c r="BV214" t="s">
-        <v>196</v>
+        <v>111</v>
       </c>
       <c r="BW214" t="s">
         <v>96</v>
@@ -57741,7 +57822,7 @@
         <v>120</v>
       </c>
       <c r="CE214">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="215" spans="1:83" x14ac:dyDescent="0.15">
@@ -57749,10 +57830,10 @@
         <v>82</v>
       </c>
       <c r="B215" s="1">
-        <v>44622</v>
+        <v>44614</v>
       </c>
       <c r="C215" t="s">
-        <v>1562</v>
+        <v>356</v>
       </c>
       <c r="D215" t="s">
         <v>84</v>
@@ -57764,25 +57845,25 @@
         <v>86</v>
       </c>
       <c r="G215" t="s">
-        <v>1306</v>
+        <v>874</v>
       </c>
       <c r="H215" t="s">
         <v>88</v>
       </c>
       <c r="I215" t="s">
-        <v>170</v>
+        <v>1636</v>
       </c>
       <c r="J215" t="s">
-        <v>601</v>
+        <v>1526</v>
       </c>
       <c r="K215" t="s">
-        <v>91</v>
+        <v>254</v>
       </c>
       <c r="L215" t="s">
-        <v>1633</v>
+        <v>1637</v>
       </c>
       <c r="M215" t="s">
-        <v>106</v>
+        <v>335</v>
       </c>
       <c r="N215" t="s">
         <v>94</v>
@@ -57818,13 +57899,13 @@
         <v>88</v>
       </c>
       <c r="Y215" t="s">
-        <v>1634</v>
+        <v>1638</v>
       </c>
       <c r="Z215" t="s">
-        <v>1635</v>
+        <v>1639</v>
       </c>
       <c r="AA215" t="s">
-        <v>132</v>
+        <v>259</v>
       </c>
       <c r="AB215" t="s">
         <v>133</v>
@@ -57890,10 +57971,10 @@
         <v>129</v>
       </c>
       <c r="AX215" s="1">
-        <v>44622</v>
+        <v>44614</v>
       </c>
       <c r="AY215" s="1">
-        <v>44620</v>
+        <v>44612</v>
       </c>
       <c r="AZ215" t="s">
         <v>93</v>
@@ -57914,10 +57995,10 @@
         <v>155</v>
       </c>
       <c r="BF215" t="s">
-        <v>1636</v>
+        <v>1640</v>
       </c>
       <c r="BG215" s="1">
-        <v>43486</v>
+        <v>38646</v>
       </c>
       <c r="BH215" t="s">
         <v>88</v>
@@ -57929,16 +58010,16 @@
         <v>88</v>
       </c>
       <c r="BL215" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM215" t="s">
-        <v>274</v>
+        <v>628</v>
       </c>
       <c r="BN215" t="s">
-        <v>275</v>
+        <v>629</v>
       </c>
       <c r="BO215" s="1">
-        <v>44625</v>
+        <v>44616</v>
       </c>
       <c r="BP215" t="s">
         <v>222</v>
@@ -57953,7 +58034,7 @@
         <v>88</v>
       </c>
       <c r="BT215" t="s">
-        <v>223</v>
+        <v>1165</v>
       </c>
       <c r="BU215" t="s">
         <v>116</v>
@@ -57986,7 +58067,7 @@
         <v>120</v>
       </c>
       <c r="CE215">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="216" spans="1:83" x14ac:dyDescent="0.15">
@@ -57994,40 +58075,40 @@
         <v>82</v>
       </c>
       <c r="B216" s="1">
-        <v>44625</v>
+        <v>44615</v>
       </c>
       <c r="C216" t="s">
-        <v>1562</v>
+        <v>356</v>
       </c>
       <c r="D216" t="s">
         <v>84</v>
       </c>
       <c r="E216" t="s">
-        <v>197</v>
+        <v>85</v>
       </c>
       <c r="F216" t="s">
         <v>86</v>
       </c>
       <c r="G216" t="s">
-        <v>227</v>
+        <v>646</v>
       </c>
       <c r="H216" t="s">
         <v>88</v>
       </c>
       <c r="I216" t="s">
-        <v>700</v>
+        <v>529</v>
       </c>
       <c r="J216" t="s">
-        <v>1637</v>
+        <v>510</v>
       </c>
       <c r="K216" t="s">
-        <v>91</v>
+        <v>254</v>
       </c>
       <c r="L216" t="s">
-        <v>1638</v>
+        <v>1641</v>
       </c>
       <c r="M216" t="s">
-        <v>94</v>
+        <v>270</v>
       </c>
       <c r="N216" t="s">
         <v>94</v>
@@ -58039,7 +58120,7 @@
         <v>96</v>
       </c>
       <c r="Q216" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="R216" t="s">
         <v>95</v>
@@ -58048,40 +58129,40 @@
         <v>98</v>
       </c>
       <c r="T216" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="U216" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="V216" t="s">
-        <v>186</v>
+        <v>88</v>
       </c>
       <c r="W216" t="s">
-        <v>88</v>
+        <v>497</v>
       </c>
       <c r="X216" t="s">
         <v>88</v>
       </c>
       <c r="Y216" t="s">
-        <v>201</v>
+        <v>88</v>
       </c>
       <c r="Z216" t="s">
-        <v>1639</v>
+        <v>1642</v>
       </c>
       <c r="AA216" t="s">
-        <v>132</v>
+        <v>259</v>
       </c>
       <c r="AB216" t="s">
         <v>133</v>
       </c>
       <c r="AC216" t="s">
-        <v>134</v>
+        <v>294</v>
       </c>
       <c r="AD216" t="s">
         <v>105</v>
       </c>
       <c r="AF216" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="AG216" t="s">
         <v>99</v>
@@ -58096,7 +58177,7 @@
         <v>99</v>
       </c>
       <c r="AK216" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AL216" t="s">
         <v>88</v>
@@ -58108,7 +58189,7 @@
         <v>99</v>
       </c>
       <c r="AO216" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AP216" t="s">
         <v>99</v>
@@ -58123,7 +58204,7 @@
         <v>94</v>
       </c>
       <c r="AT216" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="AU216" t="s">
         <v>95</v>
@@ -58132,13 +58213,13 @@
         <v>98</v>
       </c>
       <c r="AW216" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="AX216" s="1">
-        <v>44625</v>
+        <v>44615</v>
       </c>
       <c r="AY216" s="1">
-        <v>44622</v>
+        <v>44614</v>
       </c>
       <c r="AZ216" t="s">
         <v>93</v>
@@ -58159,10 +58240,10 @@
         <v>155</v>
       </c>
       <c r="BF216" t="s">
-        <v>1640</v>
+        <v>1643</v>
       </c>
       <c r="BG216" s="1">
-        <v>44261</v>
+        <v>40237</v>
       </c>
       <c r="BH216" t="s">
         <v>88</v>
@@ -58174,19 +58255,19 @@
         <v>88</v>
       </c>
       <c r="BL216" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM216" t="s">
-        <v>1622</v>
+        <v>1644</v>
       </c>
       <c r="BN216" t="s">
-        <v>652</v>
+        <v>113</v>
       </c>
       <c r="BO216" s="1">
-        <v>44627</v>
+        <v>44616</v>
       </c>
       <c r="BP216" t="s">
-        <v>206</v>
+        <v>114</v>
       </c>
       <c r="BQ216" t="s">
         <v>88</v>
@@ -58198,13 +58279,13 @@
         <v>88</v>
       </c>
       <c r="BT216" t="s">
-        <v>223</v>
+        <v>1165</v>
       </c>
       <c r="BU216" t="s">
         <v>116</v>
       </c>
       <c r="BV216" t="s">
-        <v>207</v>
+        <v>117</v>
       </c>
       <c r="BW216" t="s">
         <v>96</v>
@@ -58213,7 +58294,7 @@
         <v>118</v>
       </c>
       <c r="BY216" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BZ216" t="s">
         <v>96</v>
@@ -58222,7 +58303,7 @@
         <v>118</v>
       </c>
       <c r="CB216" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="CC216" t="s">
         <v>118</v>
@@ -58231,7 +58312,7 @@
         <v>120</v>
       </c>
       <c r="CE216">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="217" spans="1:83" x14ac:dyDescent="0.15">
@@ -58239,43 +58320,43 @@
         <v>82</v>
       </c>
       <c r="B217" s="1">
-        <v>44628</v>
+        <v>44623</v>
       </c>
       <c r="C217" t="s">
-        <v>1562</v>
+        <v>1510</v>
       </c>
       <c r="D217" t="s">
         <v>84</v>
       </c>
       <c r="E217" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="F217" t="s">
         <v>86</v>
       </c>
       <c r="G217" t="s">
-        <v>1641</v>
+        <v>319</v>
       </c>
       <c r="H217" t="s">
-        <v>88</v>
+        <v>251</v>
       </c>
       <c r="I217" t="s">
-        <v>252</v>
+        <v>288</v>
       </c>
       <c r="J217" t="s">
-        <v>1142</v>
+        <v>731</v>
       </c>
       <c r="K217" t="s">
         <v>91</v>
       </c>
       <c r="L217" t="s">
-        <v>1642</v>
+        <v>1645</v>
       </c>
       <c r="M217" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="N217" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="O217" t="s">
         <v>95</v>
@@ -58284,7 +58365,7 @@
         <v>96</v>
       </c>
       <c r="Q217" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="R217" t="s">
         <v>95</v>
@@ -58299,7 +58380,7 @@
         <v>94</v>
       </c>
       <c r="V217" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="W217" t="s">
         <v>88</v>
@@ -58308,10 +58389,10 @@
         <v>88</v>
       </c>
       <c r="Y217" t="s">
-        <v>1643</v>
+        <v>201</v>
       </c>
       <c r="Z217" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="AA217" t="s">
         <v>132</v>
@@ -58320,13 +58401,13 @@
         <v>133</v>
       </c>
       <c r="AC217" t="s">
-        <v>190</v>
+        <v>1647</v>
       </c>
       <c r="AD217" t="s">
         <v>105</v>
       </c>
       <c r="AF217" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="AG217" t="s">
         <v>99</v>
@@ -58341,7 +58422,7 @@
         <v>99</v>
       </c>
       <c r="AK217" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AL217" t="s">
         <v>88</v>
@@ -58353,7 +58434,7 @@
         <v>99</v>
       </c>
       <c r="AO217" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AP217" t="s">
         <v>99</v>
@@ -58380,7 +58461,7 @@
         <v>129</v>
       </c>
       <c r="AX217" s="1">
-        <v>44628</v>
+        <v>44623</v>
       </c>
       <c r="AY217" s="1">
         <v>44621</v>
@@ -58404,10 +58485,10 @@
         <v>155</v>
       </c>
       <c r="BF217" t="s">
-        <v>1645</v>
+        <v>1648</v>
       </c>
       <c r="BG217" s="1">
-        <v>44392</v>
+        <v>43489</v>
       </c>
       <c r="BH217" t="s">
         <v>88</v>
@@ -58419,19 +58500,19 @@
         <v>88</v>
       </c>
       <c r="BL217" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM217" t="s">
-        <v>413</v>
+        <v>1649</v>
       </c>
       <c r="BN217" t="s">
-        <v>414</v>
+        <v>652</v>
       </c>
       <c r="BO217" s="1">
-        <v>44629</v>
+        <v>44624</v>
       </c>
       <c r="BP217" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="BQ217" t="s">
         <v>88</v>
@@ -58449,7 +58530,7 @@
         <v>116</v>
       </c>
       <c r="BV217" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="BW217" t="s">
         <v>96</v>
@@ -58476,7 +58557,7 @@
         <v>120</v>
       </c>
       <c r="CE217">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="218" spans="1:83" x14ac:dyDescent="0.15">
@@ -58484,40 +58565,40 @@
         <v>82</v>
       </c>
       <c r="B218" s="1">
-        <v>44622</v>
+        <v>44653</v>
       </c>
       <c r="C218" t="s">
-        <v>1562</v>
+        <v>1510</v>
       </c>
       <c r="D218" t="s">
         <v>84</v>
       </c>
       <c r="E218" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="F218" t="s">
         <v>226</v>
       </c>
       <c r="G218" t="s">
-        <v>251</v>
+        <v>308</v>
       </c>
       <c r="H218" t="s">
-        <v>1646</v>
+        <v>88</v>
       </c>
       <c r="I218" t="s">
-        <v>418</v>
+        <v>1244</v>
       </c>
       <c r="J218" t="s">
-        <v>510</v>
+        <v>1650</v>
       </c>
       <c r="K218" t="s">
         <v>91</v>
       </c>
       <c r="L218" t="s">
-        <v>1647</v>
+        <v>1651</v>
       </c>
       <c r="M218" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="N218" t="s">
         <v>94</v>
@@ -58529,7 +58610,7 @@
         <v>96</v>
       </c>
       <c r="Q218" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="R218" t="s">
         <v>95</v>
@@ -58541,22 +58622,22 @@
         <v>129</v>
       </c>
       <c r="U218" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="V218" t="s">
-        <v>88</v>
+        <v>186</v>
       </c>
       <c r="W218" t="s">
-        <v>1205</v>
+        <v>88</v>
       </c>
       <c r="X218" t="s">
         <v>88</v>
       </c>
       <c r="Y218" t="s">
-        <v>88</v>
+        <v>201</v>
       </c>
       <c r="Z218" t="s">
-        <v>1648</v>
+        <v>1652</v>
       </c>
       <c r="AA218" t="s">
         <v>132</v>
@@ -58565,13 +58646,13 @@
         <v>103</v>
       </c>
       <c r="AC218" t="s">
-        <v>260</v>
+        <v>1093</v>
       </c>
       <c r="AD218" t="s">
         <v>105</v>
       </c>
       <c r="AF218" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AG218" t="s">
         <v>99</v>
@@ -58586,7 +58667,7 @@
         <v>99</v>
       </c>
       <c r="AK218" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AL218" t="s">
         <v>88</v>
@@ -58598,7 +58679,7 @@
         <v>99</v>
       </c>
       <c r="AO218" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AP218" t="s">
         <v>99</v>
@@ -58625,10 +58706,10 @@
         <v>129</v>
       </c>
       <c r="AX218" s="1">
-        <v>44622</v>
+        <v>44652</v>
       </c>
       <c r="AY218" s="1">
-        <v>44619</v>
+        <v>44620</v>
       </c>
       <c r="AZ218" t="s">
         <v>93</v>
@@ -58649,10 +58730,10 @@
         <v>155</v>
       </c>
       <c r="BF218" t="s">
-        <v>1649</v>
+        <v>1653</v>
       </c>
       <c r="BG218" s="1">
-        <v>43029</v>
+        <v>42728</v>
       </c>
       <c r="BH218" t="s">
         <v>88</v>
@@ -58664,19 +58745,19 @@
         <v>88</v>
       </c>
       <c r="BL218" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM218" t="s">
-        <v>1650</v>
+        <v>1654</v>
       </c>
       <c r="BN218" t="s">
-        <v>263</v>
+        <v>799</v>
       </c>
       <c r="BO218" s="1">
-        <v>44691</v>
+        <v>44655</v>
       </c>
       <c r="BP218" t="s">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="BQ218" t="s">
         <v>88</v>
@@ -58688,13 +58769,13 @@
         <v>88</v>
       </c>
       <c r="BT218" t="s">
-        <v>465</v>
+        <v>141</v>
       </c>
       <c r="BU218" t="s">
         <v>116</v>
       </c>
       <c r="BV218" t="s">
-        <v>995</v>
+        <v>237</v>
       </c>
       <c r="BW218" t="s">
         <v>96</v>
@@ -58721,7 +58802,7 @@
         <v>120</v>
       </c>
       <c r="CE218">
-        <v>98</v>
+        <v>68</v>
       </c>
     </row>
     <row r="219" spans="1:83" x14ac:dyDescent="0.15">
@@ -58729,40 +58810,40 @@
         <v>82</v>
       </c>
       <c r="B219" s="1">
-        <v>44624</v>
+        <v>44632</v>
       </c>
       <c r="C219" t="s">
-        <v>1562</v>
+        <v>1510</v>
       </c>
       <c r="D219" t="s">
         <v>84</v>
       </c>
       <c r="E219" t="s">
-        <v>250</v>
+        <v>179</v>
       </c>
       <c r="F219" t="s">
-        <v>226</v>
+        <v>180</v>
       </c>
       <c r="G219" t="s">
-        <v>1651</v>
+        <v>425</v>
       </c>
       <c r="H219" t="s">
-        <v>308</v>
+        <v>1655</v>
       </c>
       <c r="I219" t="s">
-        <v>299</v>
+        <v>653</v>
       </c>
       <c r="J219" t="s">
-        <v>458</v>
+        <v>1312</v>
       </c>
       <c r="K219" t="s">
-        <v>254</v>
+        <v>91</v>
       </c>
       <c r="L219" t="s">
-        <v>1652</v>
+        <v>1656</v>
       </c>
       <c r="M219" t="s">
-        <v>208</v>
+        <v>121</v>
       </c>
       <c r="N219" t="s">
         <v>94</v>
@@ -58786,37 +58867,37 @@
         <v>129</v>
       </c>
       <c r="U219" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="V219" t="s">
-        <v>88</v>
+        <v>186</v>
       </c>
       <c r="W219" t="s">
-        <v>1653</v>
+        <v>88</v>
       </c>
       <c r="X219" t="s">
         <v>88</v>
       </c>
       <c r="Y219" t="s">
-        <v>88</v>
+        <v>1657</v>
       </c>
       <c r="Z219" t="s">
-        <v>1654</v>
+        <v>1658</v>
       </c>
       <c r="AA219" t="s">
-        <v>132</v>
+        <v>259</v>
       </c>
       <c r="AB219" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="AC219" t="s">
-        <v>284</v>
+        <v>190</v>
       </c>
       <c r="AD219" t="s">
         <v>105</v>
       </c>
       <c r="AF219" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="AG219" t="s">
         <v>99</v>
@@ -58870,7 +58951,7 @@
         <v>129</v>
       </c>
       <c r="AX219" s="1">
-        <v>44624</v>
+        <v>44629</v>
       </c>
       <c r="AY219" s="1">
         <v>44624</v>
@@ -58894,10 +58975,10 @@
         <v>155</v>
       </c>
       <c r="BF219" t="s">
-        <v>1655</v>
+        <v>1659</v>
       </c>
       <c r="BG219" s="1">
-        <v>40674</v>
+        <v>42615</v>
       </c>
       <c r="BH219" t="s">
         <v>88</v>
@@ -58909,19 +58990,19 @@
         <v>88</v>
       </c>
       <c r="BL219" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM219" t="s">
-        <v>1650</v>
+        <v>305</v>
       </c>
       <c r="BN219" t="s">
-        <v>263</v>
+        <v>306</v>
       </c>
       <c r="BO219" s="1">
-        <v>44691</v>
+        <v>44632</v>
       </c>
       <c r="BP219" t="s">
-        <v>264</v>
+        <v>194</v>
       </c>
       <c r="BQ219" t="s">
         <v>88</v>
@@ -58933,13 +59014,13 @@
         <v>88</v>
       </c>
       <c r="BT219" t="s">
-        <v>465</v>
+        <v>195</v>
       </c>
       <c r="BU219" t="s">
         <v>116</v>
       </c>
       <c r="BV219" t="s">
-        <v>995</v>
+        <v>196</v>
       </c>
       <c r="BW219" t="s">
         <v>96</v>
@@ -58966,7 +59047,7 @@
         <v>120</v>
       </c>
       <c r="CE219">
-        <v>99</v>
+        <v>42</v>
       </c>
     </row>
     <row r="220" spans="1:83" x14ac:dyDescent="0.15">
@@ -58974,40 +59055,40 @@
         <v>82</v>
       </c>
       <c r="B220" s="1">
-        <v>44626</v>
+        <v>44622</v>
       </c>
       <c r="C220" t="s">
-        <v>1562</v>
+        <v>1510</v>
       </c>
       <c r="D220" t="s">
         <v>84</v>
       </c>
       <c r="E220" t="s">
-        <v>250</v>
+        <v>209</v>
       </c>
       <c r="F220" t="s">
-        <v>520</v>
+        <v>86</v>
       </c>
       <c r="G220" t="s">
-        <v>168</v>
+        <v>1306</v>
       </c>
       <c r="H220" t="s">
-        <v>169</v>
+        <v>88</v>
       </c>
       <c r="I220" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="J220" t="s">
-        <v>267</v>
+        <v>601</v>
       </c>
       <c r="K220" t="s">
-        <v>254</v>
+        <v>91</v>
       </c>
       <c r="L220" t="s">
-        <v>1656</v>
+        <v>1660</v>
       </c>
       <c r="M220" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="N220" t="s">
         <v>94</v>
@@ -59019,7 +59100,7 @@
         <v>96</v>
       </c>
       <c r="Q220" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="R220" t="s">
         <v>95</v>
@@ -59031,37 +59112,37 @@
         <v>129</v>
       </c>
       <c r="U220" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="V220" t="s">
-        <v>88</v>
+        <v>215</v>
       </c>
       <c r="W220" t="s">
-        <v>1657</v>
+        <v>88</v>
       </c>
       <c r="X220" t="s">
         <v>88</v>
       </c>
       <c r="Y220" t="s">
-        <v>88</v>
+        <v>1661</v>
       </c>
       <c r="Z220" t="s">
-        <v>1657</v>
+        <v>1662</v>
       </c>
       <c r="AA220" t="s">
-        <v>259</v>
+        <v>132</v>
       </c>
       <c r="AB220" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="AC220" t="s">
-        <v>284</v>
+        <v>190</v>
       </c>
       <c r="AD220" t="s">
         <v>105</v>
       </c>
       <c r="AF220" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AG220" t="s">
         <v>99</v>
@@ -59076,7 +59157,7 @@
         <v>99</v>
       </c>
       <c r="AK220" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AL220" t="s">
         <v>88</v>
@@ -59088,7 +59169,7 @@
         <v>99</v>
       </c>
       <c r="AO220" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AP220" t="s">
         <v>99</v>
@@ -59115,10 +59196,10 @@
         <v>129</v>
       </c>
       <c r="AX220" s="1">
-        <v>44626</v>
+        <v>44622</v>
       </c>
       <c r="AY220" s="1">
-        <v>44624</v>
+        <v>44620</v>
       </c>
       <c r="AZ220" t="s">
         <v>93</v>
@@ -59139,10 +59220,10 @@
         <v>155</v>
       </c>
       <c r="BF220" t="s">
-        <v>1658</v>
+        <v>1663</v>
       </c>
       <c r="BG220" s="1">
-        <v>40244</v>
+        <v>43486</v>
       </c>
       <c r="BH220" t="s">
         <v>88</v>
@@ -59154,19 +59235,19 @@
         <v>88</v>
       </c>
       <c r="BL220" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM220" t="s">
-        <v>1659</v>
+        <v>274</v>
       </c>
       <c r="BN220" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="BO220" s="1">
-        <v>44628</v>
+        <v>44625</v>
       </c>
       <c r="BP220" t="s">
-        <v>885</v>
+        <v>222</v>
       </c>
       <c r="BQ220" t="s">
         <v>88</v>
@@ -59184,7 +59265,7 @@
         <v>116</v>
       </c>
       <c r="BV220" t="s">
-        <v>886</v>
+        <v>224</v>
       </c>
       <c r="BW220" t="s">
         <v>96</v>
@@ -59211,7 +59292,7 @@
         <v>120</v>
       </c>
       <c r="CE220">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="221" spans="1:83" x14ac:dyDescent="0.15">
@@ -59219,40 +59300,40 @@
         <v>82</v>
       </c>
       <c r="B221" s="1">
-        <v>44622</v>
+        <v>44625</v>
       </c>
       <c r="C221" t="s">
-        <v>1562</v>
+        <v>1510</v>
       </c>
       <c r="D221" t="s">
         <v>84</v>
       </c>
       <c r="E221" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="F221" t="s">
         <v>86</v>
       </c>
       <c r="G221" t="s">
-        <v>1660</v>
+        <v>227</v>
       </c>
       <c r="H221" t="s">
         <v>88</v>
       </c>
       <c r="I221" t="s">
-        <v>1661</v>
+        <v>700</v>
       </c>
       <c r="J221" t="s">
-        <v>241</v>
+        <v>1664</v>
       </c>
       <c r="K221" t="s">
-        <v>254</v>
+        <v>91</v>
       </c>
       <c r="L221" t="s">
-        <v>1662</v>
+        <v>1665</v>
       </c>
       <c r="M221" t="s">
-        <v>208</v>
+        <v>94</v>
       </c>
       <c r="N221" t="s">
         <v>94</v>
@@ -59273,13 +59354,13 @@
         <v>98</v>
       </c>
       <c r="T221" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="U221" t="s">
         <v>94</v>
       </c>
       <c r="V221" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="W221" t="s">
         <v>88</v>
@@ -59288,25 +59369,25 @@
         <v>88</v>
       </c>
       <c r="Y221" t="s">
-        <v>1663</v>
+        <v>201</v>
       </c>
       <c r="Z221" t="s">
-        <v>1664</v>
+        <v>1666</v>
       </c>
       <c r="AA221" t="s">
-        <v>259</v>
+        <v>132</v>
       </c>
       <c r="AB221" t="s">
         <v>133</v>
       </c>
       <c r="AC221" t="s">
-        <v>190</v>
+        <v>134</v>
       </c>
       <c r="AD221" t="s">
         <v>105</v>
       </c>
       <c r="AF221" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="AG221" t="s">
         <v>99</v>
@@ -59348,7 +59429,7 @@
         <v>94</v>
       </c>
       <c r="AT221" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AU221" t="s">
         <v>95</v>
@@ -59357,13 +59438,13 @@
         <v>98</v>
       </c>
       <c r="AW221" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="AX221" s="1">
+        <v>44625</v>
+      </c>
+      <c r="AY221" s="1">
         <v>44622</v>
-      </c>
-      <c r="AY221" s="1">
-        <v>44621</v>
       </c>
       <c r="AZ221" t="s">
         <v>93</v>
@@ -59384,10 +59465,10 @@
         <v>155</v>
       </c>
       <c r="BF221" t="s">
-        <v>1665</v>
+        <v>1667</v>
       </c>
       <c r="BG221" s="1">
-        <v>40724</v>
+        <v>44261</v>
       </c>
       <c r="BH221" t="s">
         <v>88</v>
@@ -59399,19 +59480,19 @@
         <v>88</v>
       </c>
       <c r="BL221" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM221" t="s">
-        <v>628</v>
+        <v>1649</v>
       </c>
       <c r="BN221" t="s">
-        <v>629</v>
+        <v>652</v>
       </c>
       <c r="BO221" s="1">
-        <v>44624</v>
+        <v>44627</v>
       </c>
       <c r="BP221" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="BQ221" t="s">
         <v>88</v>
@@ -59429,7 +59510,7 @@
         <v>116</v>
       </c>
       <c r="BV221" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="BW221" t="s">
         <v>96</v>
@@ -59438,7 +59519,7 @@
         <v>118</v>
       </c>
       <c r="BY221" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BZ221" t="s">
         <v>96</v>
@@ -59447,7 +59528,7 @@
         <v>118</v>
       </c>
       <c r="CB221" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="CC221" t="s">
         <v>118</v>
@@ -59456,7 +59537,7 @@
         <v>120</v>
       </c>
       <c r="CE221">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="222" spans="1:83" x14ac:dyDescent="0.15">
@@ -59464,10 +59545,10 @@
         <v>82</v>
       </c>
       <c r="B222" s="1">
-        <v>44627</v>
+        <v>44628</v>
       </c>
       <c r="C222" t="s">
-        <v>1562</v>
+        <v>1510</v>
       </c>
       <c r="D222" t="s">
         <v>84</v>
@@ -59479,28 +59560,28 @@
         <v>86</v>
       </c>
       <c r="G222" t="s">
-        <v>838</v>
+        <v>1668</v>
       </c>
       <c r="H222" t="s">
-        <v>380</v>
+        <v>88</v>
       </c>
       <c r="I222" t="s">
-        <v>888</v>
+        <v>252</v>
       </c>
       <c r="J222" t="s">
-        <v>170</v>
+        <v>1142</v>
       </c>
       <c r="K222" t="s">
-        <v>254</v>
+        <v>91</v>
       </c>
       <c r="L222" t="s">
-        <v>1666</v>
+        <v>1669</v>
       </c>
       <c r="M222" t="s">
-        <v>466</v>
+        <v>108</v>
       </c>
       <c r="N222" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="O222" t="s">
         <v>95</v>
@@ -59533,13 +59614,13 @@
         <v>88</v>
       </c>
       <c r="Y222" t="s">
-        <v>1667</v>
+        <v>1670</v>
       </c>
       <c r="Z222" t="s">
-        <v>1668</v>
+        <v>1671</v>
       </c>
       <c r="AA222" t="s">
-        <v>259</v>
+        <v>132</v>
       </c>
       <c r="AB222" t="s">
         <v>133</v>
@@ -59551,7 +59632,7 @@
         <v>105</v>
       </c>
       <c r="AF222" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="AG222" t="s">
         <v>99</v>
@@ -59605,10 +59686,10 @@
         <v>129</v>
       </c>
       <c r="AX222" s="1">
-        <v>44627</v>
+        <v>44628</v>
       </c>
       <c r="AY222" s="1">
-        <v>44624</v>
+        <v>44621</v>
       </c>
       <c r="AZ222" t="s">
         <v>93</v>
@@ -59629,10 +59710,10 @@
         <v>155</v>
       </c>
       <c r="BF222" t="s">
-        <v>1669</v>
+        <v>1672</v>
       </c>
       <c r="BG222" s="1">
-        <v>39656</v>
+        <v>44392</v>
       </c>
       <c r="BH222" t="s">
         <v>88</v>
@@ -59644,16 +59725,16 @@
         <v>88</v>
       </c>
       <c r="BL222" s="1">
-        <v>44837</v>
+        <v>44845</v>
       </c>
       <c r="BM222" t="s">
-        <v>628</v>
+        <v>413</v>
       </c>
       <c r="BN222" t="s">
-        <v>629</v>
+        <v>414</v>
       </c>
       <c r="BO222" s="1">
-        <v>44628</v>
+        <v>44629</v>
       </c>
       <c r="BP222" t="s">
         <v>222</v>
@@ -59701,6 +59782,1231 @@
         <v>120</v>
       </c>
       <c r="CE222">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="223" spans="1:83" x14ac:dyDescent="0.15">
+      <c r="A223" t="s">
+        <v>82</v>
+      </c>
+      <c r="B223" s="1">
+        <v>44622</v>
+      </c>
+      <c r="C223" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D223" t="s">
+        <v>84</v>
+      </c>
+      <c r="E223" t="s">
+        <v>250</v>
+      </c>
+      <c r="F223" t="s">
+        <v>226</v>
+      </c>
+      <c r="G223" t="s">
+        <v>251</v>
+      </c>
+      <c r="H223" t="s">
+        <v>1673</v>
+      </c>
+      <c r="I223" t="s">
+        <v>418</v>
+      </c>
+      <c r="J223" t="s">
+        <v>510</v>
+      </c>
+      <c r="K223" t="s">
+        <v>91</v>
+      </c>
+      <c r="L223" t="s">
+        <v>1674</v>
+      </c>
+      <c r="M223" t="s">
+        <v>93</v>
+      </c>
+      <c r="N223" t="s">
+        <v>94</v>
+      </c>
+      <c r="O223" t="s">
+        <v>95</v>
+      </c>
+      <c r="P223" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q223" t="s">
+        <v>128</v>
+      </c>
+      <c r="R223" t="s">
+        <v>95</v>
+      </c>
+      <c r="S223" t="s">
+        <v>98</v>
+      </c>
+      <c r="T223" t="s">
+        <v>129</v>
+      </c>
+      <c r="U223" t="s">
+        <v>99</v>
+      </c>
+      <c r="V223" t="s">
+        <v>88</v>
+      </c>
+      <c r="W223" t="s">
+        <v>1205</v>
+      </c>
+      <c r="X223" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y223" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z223" t="s">
+        <v>1675</v>
+      </c>
+      <c r="AA223" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB223" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC223" t="s">
+        <v>260</v>
+      </c>
+      <c r="AD223" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF223" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG223" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH223" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI223" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ223" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK223" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL223" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM223" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN223" t="s">
+        <v>99</v>
+      </c>
+      <c r="AO223" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP223" t="s">
+        <v>99</v>
+      </c>
+      <c r="AQ223" t="s">
+        <v>99</v>
+      </c>
+      <c r="AR223" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS223" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT223" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU223" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV223" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW223" t="s">
+        <v>129</v>
+      </c>
+      <c r="AX223" s="1">
+        <v>44622</v>
+      </c>
+      <c r="AY223" s="1">
+        <v>44619</v>
+      </c>
+      <c r="AZ223" t="s">
+        <v>93</v>
+      </c>
+      <c r="BA223" t="s">
+        <v>99</v>
+      </c>
+      <c r="BB223" t="s">
+        <v>107</v>
+      </c>
+      <c r="BC223" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD223" t="s">
+        <v>107</v>
+      </c>
+      <c r="BE223" t="s">
+        <v>155</v>
+      </c>
+      <c r="BF223" t="s">
+        <v>1676</v>
+      </c>
+      <c r="BG223" s="1">
+        <v>43029</v>
+      </c>
+      <c r="BH223" t="s">
+        <v>88</v>
+      </c>
+      <c r="BI223" t="s">
+        <v>88</v>
+      </c>
+      <c r="BJ223" t="s">
+        <v>88</v>
+      </c>
+      <c r="BL223" s="1">
+        <v>44845</v>
+      </c>
+      <c r="BM223" t="s">
+        <v>1677</v>
+      </c>
+      <c r="BN223" t="s">
+        <v>263</v>
+      </c>
+      <c r="BO223" s="1">
+        <v>44691</v>
+      </c>
+      <c r="BP223" t="s">
+        <v>264</v>
+      </c>
+      <c r="BQ223" t="s">
+        <v>88</v>
+      </c>
+      <c r="BR223" t="s">
+        <v>88</v>
+      </c>
+      <c r="BS223" t="s">
+        <v>88</v>
+      </c>
+      <c r="BT223" t="s">
+        <v>465</v>
+      </c>
+      <c r="BU223" t="s">
+        <v>116</v>
+      </c>
+      <c r="BV223" t="s">
+        <v>995</v>
+      </c>
+      <c r="BW223" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX223" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY223" t="s">
+        <v>120</v>
+      </c>
+      <c r="BZ223" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA223" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB223" t="s">
+        <v>120</v>
+      </c>
+      <c r="CC223" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD223" t="s">
+        <v>120</v>
+      </c>
+      <c r="CE223">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="224" spans="1:83" x14ac:dyDescent="0.15">
+      <c r="A224" t="s">
+        <v>82</v>
+      </c>
+      <c r="B224" s="1">
+        <v>44624</v>
+      </c>
+      <c r="C224" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D224" t="s">
+        <v>84</v>
+      </c>
+      <c r="E224" t="s">
+        <v>250</v>
+      </c>
+      <c r="F224" t="s">
+        <v>226</v>
+      </c>
+      <c r="G224" t="s">
+        <v>1678</v>
+      </c>
+      <c r="H224" t="s">
+        <v>308</v>
+      </c>
+      <c r="I224" t="s">
+        <v>299</v>
+      </c>
+      <c r="J224" t="s">
+        <v>458</v>
+      </c>
+      <c r="K224" t="s">
+        <v>254</v>
+      </c>
+      <c r="L224" t="s">
+        <v>1679</v>
+      </c>
+      <c r="M224" t="s">
+        <v>208</v>
+      </c>
+      <c r="N224" t="s">
+        <v>94</v>
+      </c>
+      <c r="O224" t="s">
+        <v>95</v>
+      </c>
+      <c r="P224" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q224" t="s">
+        <v>97</v>
+      </c>
+      <c r="R224" t="s">
+        <v>95</v>
+      </c>
+      <c r="S224" t="s">
+        <v>98</v>
+      </c>
+      <c r="T224" t="s">
+        <v>129</v>
+      </c>
+      <c r="U224" t="s">
+        <v>99</v>
+      </c>
+      <c r="V224" t="s">
+        <v>88</v>
+      </c>
+      <c r="W224" t="s">
+        <v>1680</v>
+      </c>
+      <c r="X224" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y224" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z224" t="s">
+        <v>1681</v>
+      </c>
+      <c r="AA224" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB224" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC224" t="s">
+        <v>284</v>
+      </c>
+      <c r="AD224" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF224" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG224" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH224" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI224" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ224" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK224" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL224" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM224" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN224" t="s">
+        <v>99</v>
+      </c>
+      <c r="AO224" t="s">
+        <v>99</v>
+      </c>
+      <c r="AP224" t="s">
+        <v>99</v>
+      </c>
+      <c r="AQ224" t="s">
+        <v>99</v>
+      </c>
+      <c r="AR224" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS224" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT224" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU224" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV224" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW224" t="s">
+        <v>129</v>
+      </c>
+      <c r="AX224" s="1">
+        <v>44624</v>
+      </c>
+      <c r="AY224" s="1">
+        <v>44624</v>
+      </c>
+      <c r="AZ224" t="s">
+        <v>93</v>
+      </c>
+      <c r="BA224" t="s">
+        <v>99</v>
+      </c>
+      <c r="BB224" t="s">
+        <v>107</v>
+      </c>
+      <c r="BC224" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD224" t="s">
+        <v>107</v>
+      </c>
+      <c r="BE224" t="s">
+        <v>155</v>
+      </c>
+      <c r="BF224" t="s">
+        <v>1682</v>
+      </c>
+      <c r="BG224" s="1">
+        <v>40674</v>
+      </c>
+      <c r="BH224" t="s">
+        <v>88</v>
+      </c>
+      <c r="BI224" t="s">
+        <v>88</v>
+      </c>
+      <c r="BJ224" t="s">
+        <v>88</v>
+      </c>
+      <c r="BL224" s="1">
+        <v>44845</v>
+      </c>
+      <c r="BM224" t="s">
+        <v>1677</v>
+      </c>
+      <c r="BN224" t="s">
+        <v>263</v>
+      </c>
+      <c r="BO224" s="1">
+        <v>44691</v>
+      </c>
+      <c r="BP224" t="s">
+        <v>264</v>
+      </c>
+      <c r="BQ224" t="s">
+        <v>88</v>
+      </c>
+      <c r="BR224" t="s">
+        <v>88</v>
+      </c>
+      <c r="BS224" t="s">
+        <v>88</v>
+      </c>
+      <c r="BT224" t="s">
+        <v>465</v>
+      </c>
+      <c r="BU224" t="s">
+        <v>116</v>
+      </c>
+      <c r="BV224" t="s">
+        <v>995</v>
+      </c>
+      <c r="BW224" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX224" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY224" t="s">
+        <v>120</v>
+      </c>
+      <c r="BZ224" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA224" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB224" t="s">
+        <v>120</v>
+      </c>
+      <c r="CC224" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD224" t="s">
+        <v>120</v>
+      </c>
+      <c r="CE224">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="225" spans="1:83" x14ac:dyDescent="0.15">
+      <c r="A225" t="s">
+        <v>82</v>
+      </c>
+      <c r="B225" s="1">
+        <v>44626</v>
+      </c>
+      <c r="C225" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D225" t="s">
+        <v>84</v>
+      </c>
+      <c r="E225" t="s">
+        <v>250</v>
+      </c>
+      <c r="F225" t="s">
+        <v>520</v>
+      </c>
+      <c r="G225" t="s">
+        <v>168</v>
+      </c>
+      <c r="H225" t="s">
+        <v>169</v>
+      </c>
+      <c r="I225" t="s">
+        <v>184</v>
+      </c>
+      <c r="J225" t="s">
+        <v>267</v>
+      </c>
+      <c r="K225" t="s">
+        <v>254</v>
+      </c>
+      <c r="L225" t="s">
+        <v>1683</v>
+      </c>
+      <c r="M225" t="s">
+        <v>83</v>
+      </c>
+      <c r="N225" t="s">
+        <v>94</v>
+      </c>
+      <c r="O225" t="s">
+        <v>95</v>
+      </c>
+      <c r="P225" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q225" t="s">
+        <v>128</v>
+      </c>
+      <c r="R225" t="s">
+        <v>95</v>
+      </c>
+      <c r="S225" t="s">
+        <v>98</v>
+      </c>
+      <c r="T225" t="s">
+        <v>129</v>
+      </c>
+      <c r="U225" t="s">
+        <v>99</v>
+      </c>
+      <c r="V225" t="s">
+        <v>88</v>
+      </c>
+      <c r="W225" t="s">
+        <v>1684</v>
+      </c>
+      <c r="X225" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y225" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z225" t="s">
+        <v>1684</v>
+      </c>
+      <c r="AA225" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB225" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC225" t="s">
+        <v>284</v>
+      </c>
+      <c r="AD225" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF225" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG225" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH225" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI225" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ225" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK225" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL225" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM225" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN225" t="s">
+        <v>99</v>
+      </c>
+      <c r="AO225" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP225" t="s">
+        <v>99</v>
+      </c>
+      <c r="AQ225" t="s">
+        <v>99</v>
+      </c>
+      <c r="AR225" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS225" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT225" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU225" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV225" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW225" t="s">
+        <v>129</v>
+      </c>
+      <c r="AX225" s="1">
+        <v>44626</v>
+      </c>
+      <c r="AY225" s="1">
+        <v>44624</v>
+      </c>
+      <c r="AZ225" t="s">
+        <v>93</v>
+      </c>
+      <c r="BA225" t="s">
+        <v>99</v>
+      </c>
+      <c r="BB225" t="s">
+        <v>107</v>
+      </c>
+      <c r="BC225" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD225" t="s">
+        <v>107</v>
+      </c>
+      <c r="BE225" t="s">
+        <v>155</v>
+      </c>
+      <c r="BF225" t="s">
+        <v>1685</v>
+      </c>
+      <c r="BG225" s="1">
+        <v>40244</v>
+      </c>
+      <c r="BH225" t="s">
+        <v>88</v>
+      </c>
+      <c r="BI225" t="s">
+        <v>88</v>
+      </c>
+      <c r="BJ225" t="s">
+        <v>88</v>
+      </c>
+      <c r="BL225" s="1">
+        <v>44845</v>
+      </c>
+      <c r="BM225" t="s">
+        <v>1686</v>
+      </c>
+      <c r="BN225" t="s">
+        <v>263</v>
+      </c>
+      <c r="BO225" s="1">
+        <v>44628</v>
+      </c>
+      <c r="BP225" t="s">
+        <v>885</v>
+      </c>
+      <c r="BQ225" t="s">
+        <v>88</v>
+      </c>
+      <c r="BR225" t="s">
+        <v>88</v>
+      </c>
+      <c r="BS225" t="s">
+        <v>88</v>
+      </c>
+      <c r="BT225" t="s">
+        <v>223</v>
+      </c>
+      <c r="BU225" t="s">
+        <v>116</v>
+      </c>
+      <c r="BV225" t="s">
+        <v>886</v>
+      </c>
+      <c r="BW225" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX225" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY225" t="s">
+        <v>120</v>
+      </c>
+      <c r="BZ225" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA225" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB225" t="s">
+        <v>120</v>
+      </c>
+      <c r="CC225" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD225" t="s">
+        <v>120</v>
+      </c>
+      <c r="CE225">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="226" spans="1:83" x14ac:dyDescent="0.15">
+      <c r="A226" t="s">
+        <v>82</v>
+      </c>
+      <c r="B226" s="1">
+        <v>44622</v>
+      </c>
+      <c r="C226" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D226" t="s">
+        <v>84</v>
+      </c>
+      <c r="E226" t="s">
+        <v>209</v>
+      </c>
+      <c r="F226" t="s">
+        <v>86</v>
+      </c>
+      <c r="G226" t="s">
+        <v>1687</v>
+      </c>
+      <c r="H226" t="s">
+        <v>88</v>
+      </c>
+      <c r="I226" t="s">
+        <v>1688</v>
+      </c>
+      <c r="J226" t="s">
+        <v>241</v>
+      </c>
+      <c r="K226" t="s">
+        <v>254</v>
+      </c>
+      <c r="L226" t="s">
+        <v>1689</v>
+      </c>
+      <c r="M226" t="s">
+        <v>208</v>
+      </c>
+      <c r="N226" t="s">
+        <v>94</v>
+      </c>
+      <c r="O226" t="s">
+        <v>95</v>
+      </c>
+      <c r="P226" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q226" t="s">
+        <v>128</v>
+      </c>
+      <c r="R226" t="s">
+        <v>95</v>
+      </c>
+      <c r="S226" t="s">
+        <v>98</v>
+      </c>
+      <c r="T226" t="s">
+        <v>129</v>
+      </c>
+      <c r="U226" t="s">
+        <v>94</v>
+      </c>
+      <c r="V226" t="s">
+        <v>215</v>
+      </c>
+      <c r="W226" t="s">
+        <v>88</v>
+      </c>
+      <c r="X226" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y226" t="s">
+        <v>1690</v>
+      </c>
+      <c r="Z226" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AA226" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB226" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC226" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD226" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF226" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG226" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH226" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI226" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ226" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK226" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL226" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM226" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN226" t="s">
+        <v>99</v>
+      </c>
+      <c r="AO226" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP226" t="s">
+        <v>99</v>
+      </c>
+      <c r="AQ226" t="s">
+        <v>99</v>
+      </c>
+      <c r="AR226" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS226" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT226" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU226" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV226" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW226" t="s">
+        <v>129</v>
+      </c>
+      <c r="AX226" s="1">
+        <v>44622</v>
+      </c>
+      <c r="AY226" s="1">
+        <v>44621</v>
+      </c>
+      <c r="AZ226" t="s">
+        <v>93</v>
+      </c>
+      <c r="BA226" t="s">
+        <v>99</v>
+      </c>
+      <c r="BB226" t="s">
+        <v>107</v>
+      </c>
+      <c r="BC226" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD226" t="s">
+        <v>107</v>
+      </c>
+      <c r="BE226" t="s">
+        <v>155</v>
+      </c>
+      <c r="BF226" t="s">
+        <v>1692</v>
+      </c>
+      <c r="BG226" s="1">
+        <v>40724</v>
+      </c>
+      <c r="BH226" t="s">
+        <v>88</v>
+      </c>
+      <c r="BI226" t="s">
+        <v>88</v>
+      </c>
+      <c r="BJ226" t="s">
+        <v>88</v>
+      </c>
+      <c r="BL226" s="1">
+        <v>44845</v>
+      </c>
+      <c r="BM226" t="s">
+        <v>628</v>
+      </c>
+      <c r="BN226" t="s">
+        <v>629</v>
+      </c>
+      <c r="BO226" s="1">
+        <v>44624</v>
+      </c>
+      <c r="BP226" t="s">
+        <v>222</v>
+      </c>
+      <c r="BQ226" t="s">
+        <v>88</v>
+      </c>
+      <c r="BR226" t="s">
+        <v>88</v>
+      </c>
+      <c r="BS226" t="s">
+        <v>88</v>
+      </c>
+      <c r="BT226" t="s">
+        <v>223</v>
+      </c>
+      <c r="BU226" t="s">
+        <v>116</v>
+      </c>
+      <c r="BV226" t="s">
+        <v>224</v>
+      </c>
+      <c r="BW226" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX226" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY226" t="s">
+        <v>120</v>
+      </c>
+      <c r="BZ226" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA226" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB226" t="s">
+        <v>120</v>
+      </c>
+      <c r="CC226" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD226" t="s">
+        <v>120</v>
+      </c>
+      <c r="CE226">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="227" spans="1:83" x14ac:dyDescent="0.15">
+      <c r="A227" t="s">
+        <v>82</v>
+      </c>
+      <c r="B227" s="1">
+        <v>44627</v>
+      </c>
+      <c r="C227" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D227" t="s">
+        <v>84</v>
+      </c>
+      <c r="E227" t="s">
+        <v>209</v>
+      </c>
+      <c r="F227" t="s">
+        <v>86</v>
+      </c>
+      <c r="G227" t="s">
+        <v>838</v>
+      </c>
+      <c r="H227" t="s">
+        <v>380</v>
+      </c>
+      <c r="I227" t="s">
+        <v>888</v>
+      </c>
+      <c r="J227" t="s">
+        <v>170</v>
+      </c>
+      <c r="K227" t="s">
+        <v>254</v>
+      </c>
+      <c r="L227" t="s">
+        <v>1693</v>
+      </c>
+      <c r="M227" t="s">
+        <v>466</v>
+      </c>
+      <c r="N227" t="s">
+        <v>94</v>
+      </c>
+      <c r="O227" t="s">
+        <v>95</v>
+      </c>
+      <c r="P227" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q227" t="s">
+        <v>128</v>
+      </c>
+      <c r="R227" t="s">
+        <v>95</v>
+      </c>
+      <c r="S227" t="s">
+        <v>98</v>
+      </c>
+      <c r="T227" t="s">
+        <v>129</v>
+      </c>
+      <c r="U227" t="s">
+        <v>94</v>
+      </c>
+      <c r="V227" t="s">
+        <v>215</v>
+      </c>
+      <c r="W227" t="s">
+        <v>88</v>
+      </c>
+      <c r="X227" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y227" t="s">
+        <v>1694</v>
+      </c>
+      <c r="Z227" t="s">
+        <v>1695</v>
+      </c>
+      <c r="AA227" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB227" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC227" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD227" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF227" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG227" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH227" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI227" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ227" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK227" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL227" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM227" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN227" t="s">
+        <v>99</v>
+      </c>
+      <c r="AO227" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP227" t="s">
+        <v>99</v>
+      </c>
+      <c r="AQ227" t="s">
+        <v>99</v>
+      </c>
+      <c r="AR227" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS227" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT227" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU227" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV227" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW227" t="s">
+        <v>129</v>
+      </c>
+      <c r="AX227" s="1">
+        <v>44627</v>
+      </c>
+      <c r="AY227" s="1">
+        <v>44624</v>
+      </c>
+      <c r="AZ227" t="s">
+        <v>93</v>
+      </c>
+      <c r="BA227" t="s">
+        <v>99</v>
+      </c>
+      <c r="BB227" t="s">
+        <v>107</v>
+      </c>
+      <c r="BC227" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD227" t="s">
+        <v>107</v>
+      </c>
+      <c r="BE227" t="s">
+        <v>155</v>
+      </c>
+      <c r="BF227" t="s">
+        <v>1696</v>
+      </c>
+      <c r="BG227" s="1">
+        <v>39656</v>
+      </c>
+      <c r="BH227" t="s">
+        <v>88</v>
+      </c>
+      <c r="BI227" t="s">
+        <v>88</v>
+      </c>
+      <c r="BJ227" t="s">
+        <v>88</v>
+      </c>
+      <c r="BL227" s="1">
+        <v>44845</v>
+      </c>
+      <c r="BM227" t="s">
+        <v>628</v>
+      </c>
+      <c r="BN227" t="s">
+        <v>629</v>
+      </c>
+      <c r="BO227" s="1">
+        <v>44628</v>
+      </c>
+      <c r="BP227" t="s">
+        <v>222</v>
+      </c>
+      <c r="BQ227" t="s">
+        <v>88</v>
+      </c>
+      <c r="BR227" t="s">
+        <v>88</v>
+      </c>
+      <c r="BS227" t="s">
+        <v>88</v>
+      </c>
+      <c r="BT227" t="s">
+        <v>223</v>
+      </c>
+      <c r="BU227" t="s">
+        <v>116</v>
+      </c>
+      <c r="BV227" t="s">
+        <v>224</v>
+      </c>
+      <c r="BW227" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX227" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY227" t="s">
+        <v>120</v>
+      </c>
+      <c r="BZ227" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA227" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB227" t="s">
+        <v>120</v>
+      </c>
+      <c r="CC227" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD227" t="s">
+        <v>120</v>
+      </c>
+      <c r="CE227">
         <v>45</v>
       </c>
     </row>

--- a/Boletin_ Epi_Pereira/Datos/evento 831 datos basicos.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/evento 831 datos basicos.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JorgeMario/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0550F3B0-8793-ED4E-BAF0-9A2C51AFC2E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{699A0A65-0703-EB46-B755-726B6747D378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380"/>
   </bookViews>
   <sheets>
     <sheet name="evento 831 datos basicos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterate="1" iterateCount="1000" calcOnSave="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17421" uniqueCount="1744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17495" uniqueCount="1750">
   <si>
     <t>cod_eve</t>
   </si>
@@ -4835,6 +4835,24 @@
   </si>
   <si>
     <t>JUAN FERNANDO GALVIS</t>
+  </si>
+  <si>
+    <t>BOLIVAR</t>
+  </si>
+  <si>
+    <t>1088334607</t>
+  </si>
+  <si>
+    <t>ALTAVISTA</t>
+  </si>
+  <si>
+    <t>CALLE 82 #27--03</t>
+  </si>
+  <si>
+    <t>3213090418</t>
+  </si>
+  <si>
+    <t>LUISA MARIA GARCIA</t>
   </si>
   <si>
     <t>4438717</t>
@@ -5669,7 +5687,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CE236"/>
+  <dimension ref="A1:CE237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -5688,7 +5706,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>1743</v>
+        <v>1749</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -6116,7 +6134,7 @@
         <v>111</v>
       </c>
       <c r="BL2" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM2" t="s">
         <v>112</v>
@@ -6364,7 +6382,7 @@
         <v>137</v>
       </c>
       <c r="BL3" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM3" t="s">
         <v>138</v>
@@ -6609,7 +6627,7 @@
         <v>88</v>
       </c>
       <c r="BL4" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM4" t="s">
         <v>157</v>
@@ -6854,7 +6872,7 @@
         <v>88</v>
       </c>
       <c r="BL5" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM5" t="s">
         <v>157</v>
@@ -7099,7 +7117,7 @@
         <v>88</v>
       </c>
       <c r="BL6" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM6" t="s">
         <v>157</v>
@@ -7344,7 +7362,7 @@
         <v>88</v>
       </c>
       <c r="BL7" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM7" t="s">
         <v>178</v>
@@ -7589,7 +7607,7 @@
         <v>88</v>
       </c>
       <c r="BL8" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM8" t="s">
         <v>192</v>
@@ -7834,7 +7852,7 @@
         <v>88</v>
       </c>
       <c r="BL9" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM9" t="s">
         <v>204</v>
@@ -8079,7 +8097,7 @@
         <v>88</v>
       </c>
       <c r="BL10" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM10" t="s">
         <v>220</v>
@@ -8324,7 +8342,7 @@
         <v>88</v>
       </c>
       <c r="BL11" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM11" t="s">
         <v>234</v>
@@ -8569,7 +8587,7 @@
         <v>88</v>
       </c>
       <c r="BL12" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM12" t="s">
         <v>246</v>
@@ -8814,7 +8832,7 @@
         <v>88</v>
       </c>
       <c r="BL13" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM13" t="s">
         <v>262</v>
@@ -9059,7 +9077,7 @@
         <v>88</v>
       </c>
       <c r="BL14" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM14" t="s">
         <v>274</v>
@@ -9304,7 +9322,7 @@
         <v>88</v>
       </c>
       <c r="BL15" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM15" t="s">
         <v>286</v>
@@ -9549,7 +9567,7 @@
         <v>88</v>
       </c>
       <c r="BL16" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM16" t="s">
         <v>296</v>
@@ -9794,7 +9812,7 @@
         <v>88</v>
       </c>
       <c r="BL17" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM17" t="s">
         <v>305</v>
@@ -10039,7 +10057,7 @@
         <v>88</v>
       </c>
       <c r="BL18" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM18" t="s">
         <v>315</v>
@@ -10284,7 +10302,7 @@
         <v>88</v>
       </c>
       <c r="BL19" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM19" t="s">
         <v>326</v>
@@ -10529,7 +10547,7 @@
         <v>88</v>
       </c>
       <c r="BL20" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM20" t="s">
         <v>339</v>
@@ -10774,7 +10792,7 @@
         <v>88</v>
       </c>
       <c r="BL21" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM21" t="s">
         <v>349</v>
@@ -11019,7 +11037,7 @@
         <v>88</v>
       </c>
       <c r="BL22" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM22" t="s">
         <v>359</v>
@@ -11264,7 +11282,7 @@
         <v>88</v>
       </c>
       <c r="BL23" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM23" t="s">
         <v>368</v>
@@ -11509,7 +11527,7 @@
         <v>88</v>
       </c>
       <c r="BL24" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM24" t="s">
         <v>377</v>
@@ -11754,7 +11772,7 @@
         <v>88</v>
       </c>
       <c r="BL25" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM25" t="s">
         <v>388</v>
@@ -11999,7 +12017,7 @@
         <v>88</v>
       </c>
       <c r="BL26" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM26" t="s">
         <v>398</v>
@@ -12232,7 +12250,7 @@
         <v>88</v>
       </c>
       <c r="BL27" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM27" t="s">
         <v>274</v>
@@ -12477,7 +12495,7 @@
         <v>88</v>
       </c>
       <c r="BL28" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM28" t="s">
         <v>413</v>
@@ -12722,7 +12740,7 @@
         <v>88</v>
       </c>
       <c r="BL29" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM29" t="s">
         <v>423</v>
@@ -12967,7 +12985,7 @@
         <v>88</v>
       </c>
       <c r="BL30" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM30" t="s">
         <v>430</v>
@@ -13212,7 +13230,7 @@
         <v>88</v>
       </c>
       <c r="BL31" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM31" t="s">
         <v>437</v>
@@ -13457,7 +13475,7 @@
         <v>88</v>
       </c>
       <c r="BL32" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM32" t="s">
         <v>443</v>
@@ -13702,7 +13720,7 @@
         <v>88</v>
       </c>
       <c r="BL33" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM33" t="s">
         <v>450</v>
@@ -13947,7 +13965,7 @@
         <v>88</v>
       </c>
       <c r="BL34" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM34" t="s">
         <v>457</v>
@@ -14192,7 +14210,7 @@
         <v>88</v>
       </c>
       <c r="BL35" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM35" t="s">
         <v>463</v>
@@ -14437,7 +14455,7 @@
         <v>88</v>
       </c>
       <c r="BL36" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM36" t="s">
         <v>423</v>
@@ -14682,7 +14700,7 @@
         <v>88</v>
       </c>
       <c r="BL37" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM37" t="s">
         <v>482</v>
@@ -14927,7 +14945,7 @@
         <v>88</v>
       </c>
       <c r="BL38" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM38" t="s">
         <v>490</v>
@@ -15172,7 +15190,7 @@
         <v>88</v>
       </c>
       <c r="BL39" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM39" t="s">
         <v>500</v>
@@ -15417,7 +15435,7 @@
         <v>88</v>
       </c>
       <c r="BL40" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM40" t="s">
         <v>505</v>
@@ -15662,7 +15680,7 @@
         <v>88</v>
       </c>
       <c r="BL41" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM41" t="s">
         <v>413</v>
@@ -15907,7 +15925,7 @@
         <v>88</v>
       </c>
       <c r="BL42" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM42" t="s">
         <v>525</v>
@@ -16152,7 +16170,7 @@
         <v>88</v>
       </c>
       <c r="BL43" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM43" t="s">
         <v>525</v>
@@ -16397,7 +16415,7 @@
         <v>88</v>
       </c>
       <c r="BL44" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM44" t="s">
         <v>544</v>
@@ -16642,7 +16660,7 @@
         <v>88</v>
       </c>
       <c r="BL45" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM45" t="s">
         <v>555</v>
@@ -16875,7 +16893,7 @@
         <v>88</v>
       </c>
       <c r="BL46" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM46" t="s">
         <v>563</v>
@@ -17120,7 +17138,7 @@
         <v>88</v>
       </c>
       <c r="BL47" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM47" t="s">
         <v>570</v>
@@ -17365,7 +17383,7 @@
         <v>88</v>
       </c>
       <c r="BL48" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM48" t="s">
         <v>578</v>
@@ -17610,7 +17628,7 @@
         <v>88</v>
       </c>
       <c r="BL49" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM49" t="s">
         <v>587</v>
@@ -17855,7 +17873,7 @@
         <v>88</v>
       </c>
       <c r="BL50" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM50" t="s">
         <v>593</v>
@@ -18100,7 +18118,7 @@
         <v>88</v>
       </c>
       <c r="BL51" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM51" t="s">
         <v>500</v>
@@ -18345,7 +18363,7 @@
         <v>88</v>
       </c>
       <c r="BL52" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM52" t="s">
         <v>607</v>
@@ -18590,7 +18608,7 @@
         <v>88</v>
       </c>
       <c r="BL53" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM53" t="s">
         <v>613</v>
@@ -18835,7 +18853,7 @@
         <v>88</v>
       </c>
       <c r="BL54" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM54" t="s">
         <v>234</v>
@@ -19080,7 +19098,7 @@
         <v>88</v>
       </c>
       <c r="BL55" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM55" t="s">
         <v>628</v>
@@ -19325,7 +19343,7 @@
         <v>88</v>
       </c>
       <c r="BL56" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM56" t="s">
         <v>636</v>
@@ -19570,7 +19588,7 @@
         <v>88</v>
       </c>
       <c r="BL57" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM57" t="s">
         <v>570</v>
@@ -19815,7 +19833,7 @@
         <v>88</v>
       </c>
       <c r="BL58" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM58" t="s">
         <v>651</v>
@@ -20060,7 +20078,7 @@
         <v>88</v>
       </c>
       <c r="BL59" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM59" t="s">
         <v>658</v>
@@ -20305,7 +20323,7 @@
         <v>88</v>
       </c>
       <c r="BL60" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM60" t="s">
         <v>665</v>
@@ -20550,7 +20568,7 @@
         <v>88</v>
       </c>
       <c r="BL61" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM61" t="s">
         <v>672</v>
@@ -20795,7 +20813,7 @@
         <v>88</v>
       </c>
       <c r="BL62" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM62" t="s">
         <v>678</v>
@@ -21040,7 +21058,7 @@
         <v>88</v>
       </c>
       <c r="BL63" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM63" t="s">
         <v>628</v>
@@ -21285,7 +21303,7 @@
         <v>88</v>
       </c>
       <c r="BL64" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM64" t="s">
         <v>688</v>
@@ -21530,7 +21548,7 @@
         <v>88</v>
       </c>
       <c r="BL65" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM65" t="s">
         <v>698</v>
@@ -21775,7 +21793,7 @@
         <v>88</v>
       </c>
       <c r="BL66" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM66" t="s">
         <v>706</v>
@@ -22020,7 +22038,7 @@
         <v>88</v>
       </c>
       <c r="BL67" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM67" t="s">
         <v>443</v>
@@ -22265,7 +22283,7 @@
         <v>88</v>
       </c>
       <c r="BL68" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM68" t="s">
         <v>718</v>
@@ -22498,7 +22516,7 @@
         <v>88</v>
       </c>
       <c r="BL69" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM69" t="s">
         <v>728</v>
@@ -22743,7 +22761,7 @@
         <v>88</v>
       </c>
       <c r="BL70" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM70" t="s">
         <v>737</v>
@@ -22988,7 +23006,7 @@
         <v>88</v>
       </c>
       <c r="BL71" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM71" t="s">
         <v>744</v>
@@ -23233,7 +23251,7 @@
         <v>88</v>
       </c>
       <c r="BL72" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM72" t="s">
         <v>157</v>
@@ -23478,7 +23496,7 @@
         <v>88</v>
       </c>
       <c r="BL73" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM73" t="s">
         <v>157</v>
@@ -23723,7 +23741,7 @@
         <v>88</v>
       </c>
       <c r="BL74" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM74" t="s">
         <v>628</v>
@@ -23968,7 +23986,7 @@
         <v>88</v>
       </c>
       <c r="BL75" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM75" t="s">
         <v>764</v>
@@ -24213,7 +24231,7 @@
         <v>88</v>
       </c>
       <c r="BL76" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM76" t="s">
         <v>774</v>
@@ -24458,7 +24476,7 @@
         <v>88</v>
       </c>
       <c r="BL77" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM77" t="s">
         <v>157</v>
@@ -24703,7 +24721,7 @@
         <v>88</v>
       </c>
       <c r="BL78" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM78" t="s">
         <v>157</v>
@@ -24948,7 +24966,7 @@
         <v>88</v>
       </c>
       <c r="BL79" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM79" t="s">
         <v>157</v>
@@ -25193,7 +25211,7 @@
         <v>88</v>
       </c>
       <c r="BL80" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM80" t="s">
         <v>505</v>
@@ -25438,7 +25456,7 @@
         <v>88</v>
       </c>
       <c r="BL81" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM81" t="s">
         <v>798</v>
@@ -25683,7 +25701,7 @@
         <v>88</v>
       </c>
       <c r="BL82" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM82" t="s">
         <v>805</v>
@@ -25928,7 +25946,7 @@
         <v>88</v>
       </c>
       <c r="BL83" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM83" t="s">
         <v>812</v>
@@ -26173,7 +26191,7 @@
         <v>88</v>
       </c>
       <c r="BL84" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM84" t="s">
         <v>819</v>
@@ -26418,7 +26436,7 @@
         <v>88</v>
       </c>
       <c r="BL85" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM85" t="s">
         <v>824</v>
@@ -26663,7 +26681,7 @@
         <v>88</v>
       </c>
       <c r="BL86" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM86" t="s">
         <v>829</v>
@@ -26908,7 +26926,7 @@
         <v>88</v>
       </c>
       <c r="BL87" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM87" t="s">
         <v>837</v>
@@ -27153,7 +27171,7 @@
         <v>88</v>
       </c>
       <c r="BL88" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM88" t="s">
         <v>844</v>
@@ -27398,7 +27416,7 @@
         <v>88</v>
       </c>
       <c r="BL89" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM89" t="s">
         <v>854</v>
@@ -27643,7 +27661,7 @@
         <v>88</v>
       </c>
       <c r="BL90" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM90" t="s">
         <v>857</v>
@@ -27888,7 +27906,7 @@
         <v>88</v>
       </c>
       <c r="BL91" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM91" t="s">
         <v>865</v>
@@ -28133,7 +28151,7 @@
         <v>88</v>
       </c>
       <c r="BL92" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM92" t="s">
         <v>628</v>
@@ -28378,7 +28396,7 @@
         <v>88</v>
       </c>
       <c r="BL93" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM93" t="s">
         <v>884</v>
@@ -28623,7 +28641,7 @@
         <v>88</v>
       </c>
       <c r="BL94" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM94" t="s">
         <v>892</v>
@@ -28868,7 +28886,7 @@
         <v>88</v>
       </c>
       <c r="BL95" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM95" t="s">
         <v>900</v>
@@ -29113,7 +29131,7 @@
         <v>88</v>
       </c>
       <c r="BL96" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM96" t="s">
         <v>339</v>
@@ -29358,7 +29376,7 @@
         <v>88</v>
       </c>
       <c r="BL97" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM97" t="s">
         <v>911</v>
@@ -29603,7 +29621,7 @@
         <v>88</v>
       </c>
       <c r="BL98" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM98" t="s">
         <v>570</v>
@@ -29848,7 +29866,7 @@
         <v>88</v>
       </c>
       <c r="BL99" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM99" t="s">
         <v>628</v>
@@ -30093,7 +30111,7 @@
         <v>88</v>
       </c>
       <c r="BL100" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM100" t="s">
         <v>555</v>
@@ -30326,7 +30344,7 @@
         <v>88</v>
       </c>
       <c r="BL101" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM101" t="s">
         <v>935</v>
@@ -30571,7 +30589,7 @@
         <v>88</v>
       </c>
       <c r="BL102" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM102" t="s">
         <v>943</v>
@@ -30816,7 +30834,7 @@
         <v>88</v>
       </c>
       <c r="BL103" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM103" t="s">
         <v>728</v>
@@ -31061,7 +31079,7 @@
         <v>88</v>
       </c>
       <c r="BL104" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM104" t="s">
         <v>368</v>
@@ -31306,7 +31324,7 @@
         <v>88</v>
       </c>
       <c r="BL105" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM105" t="s">
         <v>628</v>
@@ -31551,7 +31569,7 @@
         <v>88</v>
       </c>
       <c r="BL106" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM106" t="s">
         <v>960</v>
@@ -31796,7 +31814,7 @@
         <v>88</v>
       </c>
       <c r="BL107" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM107" t="s">
         <v>968</v>
@@ -32041,7 +32059,7 @@
         <v>88</v>
       </c>
       <c r="BL108" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM108" t="s">
         <v>563</v>
@@ -32286,7 +32304,7 @@
         <v>88</v>
       </c>
       <c r="BL109" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM109" t="s">
         <v>980</v>
@@ -32531,7 +32549,7 @@
         <v>88</v>
       </c>
       <c r="BL110" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM110" t="s">
         <v>505</v>
@@ -32776,7 +32794,7 @@
         <v>88</v>
       </c>
       <c r="BL111" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM111" t="s">
         <v>994</v>
@@ -33021,7 +33039,7 @@
         <v>88</v>
       </c>
       <c r="BL112" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM112" t="s">
         <v>1001</v>
@@ -33266,7 +33284,7 @@
         <v>88</v>
       </c>
       <c r="BL113" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM113" t="s">
         <v>1011</v>
@@ -33511,7 +33529,7 @@
         <v>88</v>
       </c>
       <c r="BL114" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM114" t="s">
         <v>1021</v>
@@ -33756,7 +33774,7 @@
         <v>88</v>
       </c>
       <c r="BL115" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM115" t="s">
         <v>1027</v>
@@ -34001,7 +34019,7 @@
         <v>88</v>
       </c>
       <c r="BL116" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM116" t="s">
         <v>463</v>
@@ -34246,7 +34264,7 @@
         <v>88</v>
       </c>
       <c r="BL117" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM117" t="s">
         <v>1041</v>
@@ -34491,7 +34509,7 @@
         <v>88</v>
       </c>
       <c r="BL118" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM118" t="s">
         <v>1047</v>
@@ -34736,7 +34754,7 @@
         <v>88</v>
       </c>
       <c r="BL119" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM119" t="s">
         <v>1054</v>
@@ -34981,7 +34999,7 @@
         <v>88</v>
       </c>
       <c r="BL120" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM120" t="s">
         <v>1060</v>
@@ -35226,7 +35244,7 @@
         <v>88</v>
       </c>
       <c r="BL121" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM121" t="s">
         <v>1066</v>
@@ -35471,7 +35489,7 @@
         <v>88</v>
       </c>
       <c r="BL122" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM122" t="s">
         <v>1072</v>
@@ -35716,7 +35734,7 @@
         <v>88</v>
       </c>
       <c r="BL123" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM123" t="s">
         <v>1066</v>
@@ -35961,7 +35979,7 @@
         <v>88</v>
       </c>
       <c r="BL124" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM124" t="s">
         <v>1088</v>
@@ -36206,7 +36224,7 @@
         <v>88</v>
       </c>
       <c r="BL125" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM125" t="s">
         <v>1095</v>
@@ -36451,7 +36469,7 @@
         <v>88</v>
       </c>
       <c r="BL126" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM126" t="s">
         <v>1101</v>
@@ -36696,7 +36714,7 @@
         <v>88</v>
       </c>
       <c r="BL127" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM127" t="s">
         <v>157</v>
@@ -36941,7 +36959,7 @@
         <v>88</v>
       </c>
       <c r="BL128" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM128" t="s">
         <v>1109</v>
@@ -37186,7 +37204,7 @@
         <v>88</v>
       </c>
       <c r="BL129" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM129" t="s">
         <v>1113</v>
@@ -37431,7 +37449,7 @@
         <v>88</v>
       </c>
       <c r="BL130" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM130" t="s">
         <v>1120</v>
@@ -37664,7 +37682,7 @@
         <v>88</v>
       </c>
       <c r="BL131" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM131" t="s">
         <v>1128</v>
@@ -37909,7 +37927,7 @@
         <v>88</v>
       </c>
       <c r="BL132" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM132" t="s">
         <v>1133</v>
@@ -38154,7 +38172,7 @@
         <v>88</v>
       </c>
       <c r="BL133" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM133" t="s">
         <v>658</v>
@@ -38399,7 +38417,7 @@
         <v>88</v>
       </c>
       <c r="BL134" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM134" t="s">
         <v>824</v>
@@ -38644,7 +38662,7 @@
         <v>88</v>
       </c>
       <c r="BL135" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM135" t="s">
         <v>1154</v>
@@ -38889,7 +38907,7 @@
         <v>88</v>
       </c>
       <c r="BL136" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM136" t="s">
         <v>157</v>
@@ -39134,7 +39152,7 @@
         <v>88</v>
       </c>
       <c r="BL137" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM137" t="s">
         <v>824</v>
@@ -39379,7 +39397,7 @@
         <v>88</v>
       </c>
       <c r="BL138" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM138" t="s">
         <v>1171</v>
@@ -39624,7 +39642,7 @@
         <v>88</v>
       </c>
       <c r="BL139" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM139" t="s">
         <v>274</v>
@@ -39869,7 +39887,7 @@
         <v>88</v>
       </c>
       <c r="BL140" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM140" t="s">
         <v>1185</v>
@@ -40114,7 +40132,7 @@
         <v>88</v>
       </c>
       <c r="BL141" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM141" t="s">
         <v>1192</v>
@@ -40359,7 +40377,7 @@
         <v>88</v>
       </c>
       <c r="BL142" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM142" t="s">
         <v>1199</v>
@@ -40604,7 +40622,7 @@
         <v>88</v>
       </c>
       <c r="BL143" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM143" t="s">
         <v>1208</v>
@@ -40849,7 +40867,7 @@
         <v>88</v>
       </c>
       <c r="BL144" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM144" t="s">
         <v>1214</v>
@@ -41094,7 +41112,7 @@
         <v>88</v>
       </c>
       <c r="BL145" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM145" t="s">
         <v>1222</v>
@@ -41339,7 +41357,7 @@
         <v>88</v>
       </c>
       <c r="BL146" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM146" t="s">
         <v>1231</v>
@@ -41584,7 +41602,7 @@
         <v>88</v>
       </c>
       <c r="BL147" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM147" t="s">
         <v>157</v>
@@ -41829,7 +41847,7 @@
         <v>88</v>
       </c>
       <c r="BL148" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM148" t="s">
         <v>1243</v>
@@ -42074,7 +42092,7 @@
         <v>88</v>
       </c>
       <c r="BL149" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM149" t="s">
         <v>1248</v>
@@ -42319,7 +42337,7 @@
         <v>88</v>
       </c>
       <c r="BL150" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM150" t="s">
         <v>1066</v>
@@ -42564,7 +42582,7 @@
         <v>88</v>
       </c>
       <c r="BL151" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM151" t="s">
         <v>1259</v>
@@ -42797,7 +42815,7 @@
         <v>88</v>
       </c>
       <c r="BL152" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM152" t="s">
         <v>1267</v>
@@ -43042,7 +43060,7 @@
         <v>88</v>
       </c>
       <c r="BL153" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM153" t="s">
         <v>628</v>
@@ -43287,7 +43305,7 @@
         <v>88</v>
       </c>
       <c r="BL154" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM154" t="s">
         <v>1276</v>
@@ -43532,7 +43550,7 @@
         <v>88</v>
       </c>
       <c r="BL155" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM155" t="s">
         <v>1283</v>
@@ -43777,7 +43795,7 @@
         <v>88</v>
       </c>
       <c r="BL156" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM156" t="s">
         <v>1288</v>
@@ -44022,7 +44040,7 @@
         <v>88</v>
       </c>
       <c r="BL157" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM157" t="s">
         <v>1296</v>
@@ -44267,7 +44285,7 @@
         <v>88</v>
       </c>
       <c r="BL158" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM158" t="s">
         <v>1303</v>
@@ -44512,7 +44530,7 @@
         <v>88</v>
       </c>
       <c r="BL159" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM159" t="s">
         <v>1310</v>
@@ -44745,7 +44763,7 @@
         <v>88</v>
       </c>
       <c r="BL160" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM160" t="s">
         <v>1316</v>
@@ -44990,7 +45008,7 @@
         <v>88</v>
       </c>
       <c r="BL161" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM161" t="s">
         <v>1322</v>
@@ -45235,7 +45253,7 @@
         <v>88</v>
       </c>
       <c r="BL162" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM162" t="s">
         <v>563</v>
@@ -45480,7 +45498,7 @@
         <v>88</v>
       </c>
       <c r="BL163" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM163" t="s">
         <v>1333</v>
@@ -45725,7 +45743,7 @@
         <v>88</v>
       </c>
       <c r="BL164" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM164" t="s">
         <v>1339</v>
@@ -45970,7 +45988,7 @@
         <v>88</v>
       </c>
       <c r="BL165" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM165" t="s">
         <v>628</v>
@@ -46215,7 +46233,7 @@
         <v>88</v>
       </c>
       <c r="BL166" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM166" t="s">
         <v>1354</v>
@@ -46460,7 +46478,7 @@
         <v>88</v>
       </c>
       <c r="BL167" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM167" t="s">
         <v>1357</v>
@@ -46705,7 +46723,7 @@
         <v>88</v>
       </c>
       <c r="BL168" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM168" t="s">
         <v>1310</v>
@@ -46938,7 +46956,7 @@
         <v>88</v>
       </c>
       <c r="BL169" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM169" t="s">
         <v>1047</v>
@@ -47183,7 +47201,7 @@
         <v>88</v>
       </c>
       <c r="BL170" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM170" t="s">
         <v>1047</v>
@@ -47428,7 +47446,7 @@
         <v>88</v>
       </c>
       <c r="BL171" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM171" t="s">
         <v>1368</v>
@@ -47673,7 +47691,7 @@
         <v>88</v>
       </c>
       <c r="BL172" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM172" t="s">
         <v>1378</v>
@@ -47918,7 +47936,7 @@
         <v>88</v>
       </c>
       <c r="BL173" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM173" t="s">
         <v>563</v>
@@ -48163,7 +48181,7 @@
         <v>88</v>
       </c>
       <c r="BL174" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM174" t="s">
         <v>1391</v>
@@ -48408,7 +48426,7 @@
         <v>88</v>
       </c>
       <c r="BL175" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM175" t="s">
         <v>1396</v>
@@ -48653,7 +48671,7 @@
         <v>88</v>
       </c>
       <c r="BL176" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM176" t="s">
         <v>1404</v>
@@ -48898,7 +48916,7 @@
         <v>88</v>
       </c>
       <c r="BL177" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM177" t="s">
         <v>1413</v>
@@ -49143,7 +49161,7 @@
         <v>88</v>
       </c>
       <c r="BL178" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM178" t="s">
         <v>1420</v>
@@ -49388,7 +49406,7 @@
         <v>88</v>
       </c>
       <c r="BL179" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM179" t="s">
         <v>1429</v>
@@ -49633,7 +49651,7 @@
         <v>88</v>
       </c>
       <c r="BL180" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM180" t="s">
         <v>1436</v>
@@ -49878,7 +49896,7 @@
         <v>88</v>
       </c>
       <c r="BL181" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM181" t="s">
         <v>1441</v>
@@ -50111,7 +50129,7 @@
         <v>88</v>
       </c>
       <c r="BL182" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM182" t="s">
         <v>1448</v>
@@ -50344,7 +50362,7 @@
         <v>88</v>
       </c>
       <c r="BL183" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM183" t="s">
         <v>1455</v>
@@ -50577,7 +50595,7 @@
         <v>88</v>
       </c>
       <c r="BL184" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM184" t="s">
         <v>628</v>
@@ -50822,7 +50840,7 @@
         <v>88</v>
       </c>
       <c r="BL185" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM185" t="s">
         <v>1465</v>
@@ -51067,7 +51085,7 @@
         <v>88</v>
       </c>
       <c r="BL186" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM186" t="s">
         <v>1472</v>
@@ -51312,7 +51330,7 @@
         <v>88</v>
       </c>
       <c r="BL187" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM187" t="s">
         <v>1478</v>
@@ -51557,7 +51575,7 @@
         <v>88</v>
       </c>
       <c r="BL188" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM188" t="s">
         <v>1489</v>
@@ -51790,7 +51808,7 @@
         <v>88</v>
       </c>
       <c r="BL189" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM189" t="s">
         <v>1489</v>
@@ -52023,7 +52041,7 @@
         <v>88</v>
       </c>
       <c r="BL190" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM190" t="s">
         <v>1192</v>
@@ -52268,7 +52286,7 @@
         <v>88</v>
       </c>
       <c r="BL191" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM191" t="s">
         <v>1507</v>
@@ -52513,7 +52531,7 @@
         <v>88</v>
       </c>
       <c r="BL192" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM192" t="s">
         <v>1512</v>
@@ -52758,7 +52776,7 @@
         <v>88</v>
       </c>
       <c r="BL193" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM193" t="s">
         <v>1518</v>
@@ -53003,7 +53021,7 @@
         <v>88</v>
       </c>
       <c r="BL194" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM194" t="s">
         <v>900</v>
@@ -53248,7 +53266,7 @@
         <v>88</v>
       </c>
       <c r="BL195" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM195" t="s">
         <v>1532</v>
@@ -53493,7 +53511,7 @@
         <v>88</v>
       </c>
       <c r="BL196" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM196" t="s">
         <v>157</v>
@@ -53738,7 +53756,7 @@
         <v>88</v>
       </c>
       <c r="BL197" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM197" t="s">
         <v>1316</v>
@@ -53983,7 +54001,7 @@
         <v>88</v>
       </c>
       <c r="BL198" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM198" t="s">
         <v>1544</v>
@@ -54228,7 +54246,7 @@
         <v>88</v>
       </c>
       <c r="BL199" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM199" t="s">
         <v>1550</v>
@@ -54473,7 +54491,7 @@
         <v>88</v>
       </c>
       <c r="BL200" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM200" t="s">
         <v>1556</v>
@@ -54718,7 +54736,7 @@
         <v>88</v>
       </c>
       <c r="BL201" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM201" t="s">
         <v>1563</v>
@@ -54963,7 +54981,7 @@
         <v>88</v>
       </c>
       <c r="BL202" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM202" t="s">
         <v>1568</v>
@@ -55208,7 +55226,7 @@
         <v>88</v>
       </c>
       <c r="BL203" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM203" t="s">
         <v>628</v>
@@ -55453,7 +55471,7 @@
         <v>88</v>
       </c>
       <c r="BL204" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM204" t="s">
         <v>1577</v>
@@ -55698,7 +55716,7 @@
         <v>88</v>
       </c>
       <c r="BL205" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM205" t="s">
         <v>1582</v>
@@ -55943,7 +55961,7 @@
         <v>88</v>
       </c>
       <c r="BL206" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM206" t="s">
         <v>1586</v>
@@ -56188,7 +56206,7 @@
         <v>88</v>
       </c>
       <c r="BL207" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM207" t="s">
         <v>1590</v>
@@ -56433,7 +56451,7 @@
         <v>88</v>
       </c>
       <c r="BL208" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM208" t="s">
         <v>1185</v>
@@ -56678,7 +56696,7 @@
         <v>88</v>
       </c>
       <c r="BL209" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM209" t="s">
         <v>1599</v>
@@ -56923,7 +56941,7 @@
         <v>88</v>
       </c>
       <c r="BL210" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM210" t="s">
         <v>1604</v>
@@ -56988,40 +57006,40 @@
         <v>82</v>
       </c>
       <c r="B211" s="1">
-        <v>44594</v>
+        <v>44863</v>
       </c>
       <c r="C211" t="s">
-        <v>121</v>
+        <v>177</v>
       </c>
       <c r="D211" t="s">
         <v>84</v>
       </c>
       <c r="E211" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="F211" t="s">
-        <v>572</v>
+        <v>86</v>
       </c>
       <c r="G211" t="s">
-        <v>780</v>
+        <v>1340</v>
       </c>
       <c r="H211" t="s">
-        <v>982</v>
+        <v>88</v>
       </c>
       <c r="I211" t="s">
-        <v>906</v>
+        <v>170</v>
       </c>
       <c r="J211" t="s">
-        <v>940</v>
+        <v>1605</v>
       </c>
       <c r="K211" t="s">
         <v>148</v>
       </c>
       <c r="L211" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="M211" t="s">
-        <v>167</v>
+        <v>582</v>
       </c>
       <c r="N211" t="s">
         <v>94</v>
@@ -57033,7 +57051,7 @@
         <v>96</v>
       </c>
       <c r="Q211" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="R211" t="s">
         <v>95</v>
@@ -57042,40 +57060,40 @@
         <v>98</v>
       </c>
       <c r="T211" t="s">
-        <v>1606</v>
+        <v>129</v>
       </c>
       <c r="U211" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="V211" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="W211" t="s">
         <v>88</v>
       </c>
       <c r="X211" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y211" t="s">
         <v>1607</v>
-      </c>
-      <c r="Y211" t="s">
-        <v>88</v>
       </c>
       <c r="Z211" t="s">
         <v>1608</v>
       </c>
       <c r="AA211" t="s">
-        <v>810</v>
+        <v>132</v>
       </c>
       <c r="AB211" t="s">
         <v>133</v>
       </c>
       <c r="AC211" t="s">
-        <v>294</v>
+        <v>134</v>
       </c>
       <c r="AD211" t="s">
         <v>105</v>
       </c>
       <c r="AF211" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="AG211" t="s">
         <v>99</v>
@@ -57090,7 +57108,7 @@
         <v>99</v>
       </c>
       <c r="AK211" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AL211" t="s">
         <v>88</v>
@@ -57102,7 +57120,7 @@
         <v>99</v>
       </c>
       <c r="AO211" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AP211" t="s">
         <v>99</v>
@@ -57126,13 +57144,13 @@
         <v>98</v>
       </c>
       <c r="AW211" t="s">
-        <v>1373</v>
+        <v>129</v>
       </c>
       <c r="AX211" s="1">
-        <v>44594</v>
+        <v>44860</v>
       </c>
       <c r="AY211" s="1">
-        <v>44591</v>
+        <v>44851</v>
       </c>
       <c r="AZ211" t="s">
         <v>93</v>
@@ -57156,7 +57174,7 @@
         <v>1609</v>
       </c>
       <c r="BG211" s="1">
-        <v>30833</v>
+        <v>35144</v>
       </c>
       <c r="BH211" t="s">
         <v>88</v>
@@ -57168,19 +57186,19 @@
         <v>88</v>
       </c>
       <c r="BL211" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM211" t="s">
         <v>1610</v>
       </c>
       <c r="BN211" t="s">
-        <v>113</v>
+        <v>1334</v>
       </c>
       <c r="BO211" s="1">
-        <v>44598</v>
+        <v>44863</v>
       </c>
       <c r="BP211" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="BQ211" t="s">
         <v>88</v>
@@ -57192,13 +57210,13 @@
         <v>88</v>
       </c>
       <c r="BT211" t="s">
-        <v>223</v>
+        <v>1421</v>
       </c>
       <c r="BU211" t="s">
         <v>116</v>
       </c>
       <c r="BV211" t="s">
-        <v>579</v>
+        <v>137</v>
       </c>
       <c r="BW211" t="s">
         <v>96</v>
@@ -57207,7 +57225,7 @@
         <v>118</v>
       </c>
       <c r="BY211" t="s">
-        <v>1611</v>
+        <v>120</v>
       </c>
       <c r="BZ211" t="s">
         <v>96</v>
@@ -57216,7 +57234,7 @@
         <v>118</v>
       </c>
       <c r="CB211" t="s">
-        <v>1380</v>
+        <v>120</v>
       </c>
       <c r="CC211" t="s">
         <v>118</v>
@@ -57225,7 +57243,7 @@
         <v>120</v>
       </c>
       <c r="CE211">
-        <v>26</v>
+        <v>238</v>
       </c>
     </row>
     <row r="212" spans="1:83" x14ac:dyDescent="0.15">
@@ -57233,7 +57251,7 @@
         <v>82</v>
       </c>
       <c r="B212" s="1">
-        <v>44592</v>
+        <v>44594</v>
       </c>
       <c r="C212" t="s">
         <v>121</v>
@@ -57245,28 +57263,28 @@
         <v>85</v>
       </c>
       <c r="F212" t="s">
-        <v>208</v>
+        <v>572</v>
       </c>
       <c r="G212" t="s">
-        <v>330</v>
+        <v>780</v>
       </c>
       <c r="H212" t="s">
-        <v>227</v>
+        <v>982</v>
       </c>
       <c r="I212" t="s">
-        <v>431</v>
+        <v>906</v>
       </c>
       <c r="J212" t="s">
-        <v>310</v>
+        <v>940</v>
       </c>
       <c r="K212" t="s">
-        <v>254</v>
+        <v>148</v>
       </c>
       <c r="L212" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="M212" t="s">
-        <v>256</v>
+        <v>167</v>
       </c>
       <c r="N212" t="s">
         <v>94</v>
@@ -57287,28 +57305,28 @@
         <v>98</v>
       </c>
       <c r="T212" t="s">
-        <v>129</v>
+        <v>1612</v>
       </c>
       <c r="U212" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="V212" t="s">
         <v>88</v>
       </c>
       <c r="W212" t="s">
-        <v>833</v>
+        <v>88</v>
       </c>
       <c r="X212" t="s">
-        <v>88</v>
+        <v>1613</v>
       </c>
       <c r="Y212" t="s">
         <v>88</v>
       </c>
       <c r="Z212" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="AA212" t="s">
-        <v>259</v>
+        <v>810</v>
       </c>
       <c r="AB212" t="s">
         <v>133</v>
@@ -57320,7 +57338,7 @@
         <v>105</v>
       </c>
       <c r="AF212" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="AG212" t="s">
         <v>99</v>
@@ -57371,10 +57389,10 @@
         <v>98</v>
       </c>
       <c r="AW212" t="s">
-        <v>129</v>
+        <v>1373</v>
       </c>
       <c r="AX212" s="1">
-        <v>44592</v>
+        <v>44594</v>
       </c>
       <c r="AY212" s="1">
         <v>44591</v>
@@ -57398,10 +57416,10 @@
         <v>155</v>
       </c>
       <c r="BF212" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="BG212" s="1">
-        <v>39050</v>
+        <v>30833</v>
       </c>
       <c r="BH212" t="s">
         <v>88</v>
@@ -57413,10 +57431,10 @@
         <v>88</v>
       </c>
       <c r="BL212" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM212" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="BN212" t="s">
         <v>113</v>
@@ -57443,7 +57461,7 @@
         <v>116</v>
       </c>
       <c r="BV212" t="s">
-        <v>111</v>
+        <v>579</v>
       </c>
       <c r="BW212" t="s">
         <v>96</v>
@@ -57452,7 +57470,7 @@
         <v>118</v>
       </c>
       <c r="BY212" t="s">
-        <v>120</v>
+        <v>1617</v>
       </c>
       <c r="BZ212" t="s">
         <v>96</v>
@@ -57461,7 +57479,7 @@
         <v>118</v>
       </c>
       <c r="CB212" t="s">
-        <v>120</v>
+        <v>1380</v>
       </c>
       <c r="CC212" t="s">
         <v>118</v>
@@ -57470,7 +57488,7 @@
         <v>120</v>
       </c>
       <c r="CE212">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="213" spans="1:83" x14ac:dyDescent="0.15">
@@ -57478,7 +57496,7 @@
         <v>82</v>
       </c>
       <c r="B213" s="1">
-        <v>44717</v>
+        <v>44592</v>
       </c>
       <c r="C213" t="s">
         <v>121</v>
@@ -57487,22 +57505,22 @@
         <v>84</v>
       </c>
       <c r="E213" t="s">
-        <v>209</v>
+        <v>85</v>
       </c>
       <c r="F213" t="s">
-        <v>86</v>
+        <v>208</v>
       </c>
       <c r="G213" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="H213" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="I213" t="s">
-        <v>1616</v>
+        <v>431</v>
       </c>
       <c r="J213" t="s">
-        <v>1617</v>
+        <v>310</v>
       </c>
       <c r="K213" t="s">
         <v>254</v>
@@ -57511,7 +57529,7 @@
         <v>1618</v>
       </c>
       <c r="M213" t="s">
-        <v>208</v>
+        <v>256</v>
       </c>
       <c r="N213" t="s">
         <v>94</v>
@@ -57523,7 +57541,7 @@
         <v>96</v>
       </c>
       <c r="Q213" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="R213" t="s">
         <v>95</v>
@@ -57535,22 +57553,22 @@
         <v>129</v>
       </c>
       <c r="U213" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="V213" t="s">
-        <v>215</v>
+        <v>88</v>
       </c>
       <c r="W213" t="s">
-        <v>88</v>
+        <v>833</v>
       </c>
       <c r="X213" t="s">
         <v>88</v>
       </c>
       <c r="Y213" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z213" t="s">
         <v>1619</v>
-      </c>
-      <c r="Z213" t="s">
-        <v>1620</v>
       </c>
       <c r="AA213" t="s">
         <v>259</v>
@@ -57559,13 +57577,13 @@
         <v>133</v>
       </c>
       <c r="AC213" t="s">
-        <v>190</v>
+        <v>294</v>
       </c>
       <c r="AD213" t="s">
         <v>105</v>
       </c>
       <c r="AF213" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="AG213" t="s">
         <v>99</v>
@@ -57580,7 +57598,7 @@
         <v>99</v>
       </c>
       <c r="AK213" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="AL213" t="s">
         <v>88</v>
@@ -57592,7 +57610,7 @@
         <v>99</v>
       </c>
       <c r="AO213" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="AP213" t="s">
         <v>99</v>
@@ -57619,10 +57637,10 @@
         <v>129</v>
       </c>
       <c r="AX213" s="1">
-        <v>44716</v>
+        <v>44592</v>
       </c>
       <c r="AY213" s="1">
-        <v>44594</v>
+        <v>44591</v>
       </c>
       <c r="AZ213" t="s">
         <v>93</v>
@@ -57643,34 +57661,34 @@
         <v>155</v>
       </c>
       <c r="BF213" t="s">
+        <v>1620</v>
+      </c>
+      <c r="BG213" s="1">
+        <v>39050</v>
+      </c>
+      <c r="BH213" t="s">
+        <v>88</v>
+      </c>
+      <c r="BI213" t="s">
+        <v>88</v>
+      </c>
+      <c r="BJ213" t="s">
+        <v>88</v>
+      </c>
+      <c r="BL213" s="1">
+        <v>44866</v>
+      </c>
+      <c r="BM213" t="s">
         <v>1621</v>
       </c>
-      <c r="BG213" s="1">
-        <v>40761</v>
-      </c>
-      <c r="BH213" t="s">
-        <v>88</v>
-      </c>
-      <c r="BI213" t="s">
-        <v>88</v>
-      </c>
-      <c r="BJ213" t="s">
-        <v>88</v>
-      </c>
-      <c r="BL213" s="1">
-        <v>44859</v>
-      </c>
-      <c r="BM213" t="s">
-        <v>1622</v>
-      </c>
       <c r="BN213" t="s">
-        <v>378</v>
+        <v>113</v>
       </c>
       <c r="BO213" s="1">
-        <v>44737</v>
+        <v>44598</v>
       </c>
       <c r="BP213" t="s">
-        <v>222</v>
+        <v>114</v>
       </c>
       <c r="BQ213" t="s">
         <v>88</v>
@@ -57682,13 +57700,13 @@
         <v>88</v>
       </c>
       <c r="BT213" t="s">
-        <v>465</v>
+        <v>223</v>
       </c>
       <c r="BU213" t="s">
         <v>116</v>
       </c>
       <c r="BV213" t="s">
-        <v>224</v>
+        <v>111</v>
       </c>
       <c r="BW213" t="s">
         <v>96</v>
@@ -57715,7 +57733,7 @@
         <v>120</v>
       </c>
       <c r="CE213">
-        <v>138</v>
+        <v>27</v>
       </c>
     </row>
     <row r="214" spans="1:83" x14ac:dyDescent="0.15">
@@ -57723,40 +57741,40 @@
         <v>82</v>
       </c>
       <c r="B214" s="1">
-        <v>44609</v>
+        <v>44717</v>
       </c>
       <c r="C214" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="D214" t="s">
         <v>84</v>
       </c>
       <c r="E214" t="s">
-        <v>122</v>
+        <v>209</v>
       </c>
       <c r="F214" t="s">
         <v>86</v>
       </c>
       <c r="G214" t="s">
+        <v>319</v>
+      </c>
+      <c r="H214" t="s">
+        <v>251</v>
+      </c>
+      <c r="I214" t="s">
+        <v>1622</v>
+      </c>
+      <c r="J214" t="s">
         <v>1623</v>
       </c>
-      <c r="H214" t="s">
-        <v>88</v>
-      </c>
-      <c r="I214" t="s">
+      <c r="K214" t="s">
+        <v>254</v>
+      </c>
+      <c r="L214" t="s">
         <v>1624</v>
       </c>
-      <c r="J214" t="s">
-        <v>467</v>
-      </c>
-      <c r="K214" t="s">
-        <v>91</v>
-      </c>
-      <c r="L214" t="s">
-        <v>1625</v>
-      </c>
       <c r="M214" t="s">
-        <v>106</v>
+        <v>208</v>
       </c>
       <c r="N214" t="s">
         <v>94</v>
@@ -57768,7 +57786,7 @@
         <v>96</v>
       </c>
       <c r="Q214" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="R214" t="s">
         <v>95</v>
@@ -57783,7 +57801,7 @@
         <v>94</v>
       </c>
       <c r="V214" t="s">
-        <v>120</v>
+        <v>215</v>
       </c>
       <c r="W214" t="s">
         <v>88</v>
@@ -57792,25 +57810,25 @@
         <v>88</v>
       </c>
       <c r="Y214" t="s">
-        <v>130</v>
+        <v>1625</v>
       </c>
       <c r="Z214" t="s">
         <v>1626</v>
       </c>
       <c r="AA214" t="s">
-        <v>132</v>
+        <v>259</v>
       </c>
       <c r="AB214" t="s">
         <v>133</v>
       </c>
       <c r="AC214" t="s">
-        <v>134</v>
+        <v>190</v>
       </c>
       <c r="AD214" t="s">
         <v>105</v>
       </c>
       <c r="AF214" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="AG214" t="s">
         <v>99</v>
@@ -57825,7 +57843,7 @@
         <v>99</v>
       </c>
       <c r="AK214" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AL214" t="s">
         <v>88</v>
@@ -57837,7 +57855,7 @@
         <v>99</v>
       </c>
       <c r="AO214" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AP214" t="s">
         <v>99</v>
@@ -57864,10 +57882,10 @@
         <v>129</v>
       </c>
       <c r="AX214" s="1">
-        <v>44607</v>
+        <v>44716</v>
       </c>
       <c r="AY214" s="1">
-        <v>44604</v>
+        <v>44594</v>
       </c>
       <c r="AZ214" t="s">
         <v>93</v>
@@ -57891,7 +57909,7 @@
         <v>1627</v>
       </c>
       <c r="BG214" s="1">
-        <v>43485</v>
+        <v>40761</v>
       </c>
       <c r="BH214" t="s">
         <v>88</v>
@@ -57903,19 +57921,19 @@
         <v>88</v>
       </c>
       <c r="BL214" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM214" t="s">
         <v>1628</v>
       </c>
       <c r="BN214" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="BO214" s="1">
-        <v>44609</v>
+        <v>44737</v>
       </c>
       <c r="BP214" t="s">
-        <v>140</v>
+        <v>222</v>
       </c>
       <c r="BQ214" t="s">
         <v>88</v>
@@ -57927,13 +57945,13 @@
         <v>88</v>
       </c>
       <c r="BT214" t="s">
-        <v>223</v>
+        <v>465</v>
       </c>
       <c r="BU214" t="s">
         <v>116</v>
       </c>
       <c r="BV214" t="s">
-        <v>137</v>
+        <v>224</v>
       </c>
       <c r="BW214" t="s">
         <v>96</v>
@@ -57960,7 +57978,7 @@
         <v>120</v>
       </c>
       <c r="CE214">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="215" spans="1:83" x14ac:dyDescent="0.15">
@@ -57968,31 +57986,31 @@
         <v>82</v>
       </c>
       <c r="B215" s="1">
-        <v>44608</v>
+        <v>44609</v>
       </c>
       <c r="C215" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D215" t="s">
         <v>84</v>
       </c>
       <c r="E215" t="s">
-        <v>197</v>
+        <v>122</v>
       </c>
       <c r="F215" t="s">
         <v>86</v>
       </c>
       <c r="G215" t="s">
-        <v>1381</v>
+        <v>1629</v>
       </c>
       <c r="H215" t="s">
-        <v>1629</v>
+        <v>88</v>
       </c>
       <c r="I215" t="s">
-        <v>601</v>
+        <v>1630</v>
       </c>
       <c r="J215" t="s">
-        <v>1630</v>
+        <v>467</v>
       </c>
       <c r="K215" t="s">
         <v>91</v>
@@ -58028,7 +58046,7 @@
         <v>94</v>
       </c>
       <c r="V215" t="s">
-        <v>186</v>
+        <v>120</v>
       </c>
       <c r="W215" t="s">
         <v>88</v>
@@ -58037,7 +58055,7 @@
         <v>88</v>
       </c>
       <c r="Y215" t="s">
-        <v>201</v>
+        <v>130</v>
       </c>
       <c r="Z215" t="s">
         <v>1632</v>
@@ -58049,7 +58067,7 @@
         <v>133</v>
       </c>
       <c r="AC215" t="s">
-        <v>190</v>
+        <v>134</v>
       </c>
       <c r="AD215" t="s">
         <v>105</v>
@@ -58109,10 +58127,10 @@
         <v>129</v>
       </c>
       <c r="AX215" s="1">
-        <v>44608</v>
+        <v>44607</v>
       </c>
       <c r="AY215" s="1">
-        <v>44605</v>
+        <v>44604</v>
       </c>
       <c r="AZ215" t="s">
         <v>93</v>
@@ -58136,7 +58154,7 @@
         <v>1633</v>
       </c>
       <c r="BG215" s="1">
-        <v>43504</v>
+        <v>43485</v>
       </c>
       <c r="BH215" t="s">
         <v>88</v>
@@ -58148,19 +58166,19 @@
         <v>88</v>
       </c>
       <c r="BL215" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM215" t="s">
-        <v>805</v>
+        <v>1634</v>
       </c>
       <c r="BN215" t="s">
-        <v>652</v>
+        <v>389</v>
       </c>
       <c r="BO215" s="1">
-        <v>44610</v>
+        <v>44609</v>
       </c>
       <c r="BP215" t="s">
-        <v>206</v>
+        <v>140</v>
       </c>
       <c r="BQ215" t="s">
         <v>88</v>
@@ -58178,7 +58196,7 @@
         <v>116</v>
       </c>
       <c r="BV215" t="s">
-        <v>207</v>
+        <v>137</v>
       </c>
       <c r="BW215" t="s">
         <v>96</v>
@@ -58205,7 +58223,7 @@
         <v>120</v>
       </c>
       <c r="CE215">
-        <v>28</v>
+        <v>136</v>
       </c>
     </row>
     <row r="216" spans="1:83" x14ac:dyDescent="0.15">
@@ -58213,7 +58231,7 @@
         <v>82</v>
       </c>
       <c r="B216" s="1">
-        <v>44610</v>
+        <v>44608</v>
       </c>
       <c r="C216" t="s">
         <v>108</v>
@@ -58222,31 +58240,31 @@
         <v>84</v>
       </c>
       <c r="E216" t="s">
-        <v>85</v>
+        <v>197</v>
       </c>
       <c r="F216" t="s">
-        <v>208</v>
+        <v>86</v>
       </c>
       <c r="G216" t="s">
-        <v>1634</v>
+        <v>1381</v>
       </c>
       <c r="H216" t="s">
-        <v>712</v>
+        <v>1635</v>
       </c>
       <c r="I216" t="s">
-        <v>1635</v>
+        <v>601</v>
       </c>
       <c r="J216" t="s">
-        <v>175</v>
+        <v>1636</v>
       </c>
       <c r="K216" t="s">
-        <v>254</v>
+        <v>91</v>
       </c>
       <c r="L216" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="M216" t="s">
-        <v>1524</v>
+        <v>106</v>
       </c>
       <c r="N216" t="s">
         <v>94</v>
@@ -58270,31 +58288,31 @@
         <v>129</v>
       </c>
       <c r="U216" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="V216" t="s">
-        <v>88</v>
+        <v>186</v>
       </c>
       <c r="W216" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="X216" t="s">
         <v>88</v>
       </c>
       <c r="Y216" t="s">
-        <v>88</v>
+        <v>201</v>
       </c>
       <c r="Z216" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="AA216" t="s">
-        <v>259</v>
+        <v>132</v>
       </c>
       <c r="AB216" t="s">
         <v>133</v>
       </c>
       <c r="AC216" t="s">
-        <v>742</v>
+        <v>190</v>
       </c>
       <c r="AD216" t="s">
         <v>105</v>
@@ -58354,10 +58372,10 @@
         <v>129</v>
       </c>
       <c r="AX216" s="1">
-        <v>44610</v>
+        <v>44608</v>
       </c>
       <c r="AY216" s="1">
-        <v>44609</v>
+        <v>44605</v>
       </c>
       <c r="AZ216" t="s">
         <v>93</v>
@@ -58378,10 +58396,10 @@
         <v>155</v>
       </c>
       <c r="BF216" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="BG216" s="1">
-        <v>40979</v>
+        <v>43504</v>
       </c>
       <c r="BH216" t="s">
         <v>88</v>
@@ -58393,19 +58411,19 @@
         <v>88</v>
       </c>
       <c r="BL216" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM216" t="s">
-        <v>1639</v>
+        <v>805</v>
       </c>
       <c r="BN216" t="s">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="BO216" s="1">
-        <v>44615</v>
+        <v>44610</v>
       </c>
       <c r="BP216" t="s">
-        <v>114</v>
+        <v>206</v>
       </c>
       <c r="BQ216" t="s">
         <v>88</v>
@@ -58417,13 +58435,13 @@
         <v>88</v>
       </c>
       <c r="BT216" t="s">
-        <v>1165</v>
+        <v>223</v>
       </c>
       <c r="BU216" t="s">
         <v>116</v>
       </c>
       <c r="BV216" t="s">
-        <v>111</v>
+        <v>207</v>
       </c>
       <c r="BW216" t="s">
         <v>96</v>
@@ -58450,7 +58468,7 @@
         <v>120</v>
       </c>
       <c r="CE216">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="217" spans="1:83" x14ac:dyDescent="0.15">
@@ -58458,7 +58476,7 @@
         <v>82</v>
       </c>
       <c r="B217" s="1">
-        <v>44670</v>
+        <v>44610</v>
       </c>
       <c r="C217" t="s">
         <v>108</v>
@@ -58467,85 +58485,85 @@
         <v>84</v>
       </c>
       <c r="E217" t="s">
-        <v>250</v>
+        <v>85</v>
       </c>
       <c r="F217" t="s">
-        <v>86</v>
+        <v>208</v>
       </c>
       <c r="G217" t="s">
         <v>1640</v>
       </c>
       <c r="H217" t="s">
-        <v>407</v>
+        <v>712</v>
       </c>
       <c r="I217" t="s">
         <v>1641</v>
       </c>
       <c r="J217" t="s">
-        <v>1642</v>
+        <v>175</v>
       </c>
       <c r="K217" t="s">
         <v>254</v>
       </c>
       <c r="L217" t="s">
+        <v>1642</v>
+      </c>
+      <c r="M217" t="s">
+        <v>1524</v>
+      </c>
+      <c r="N217" t="s">
+        <v>94</v>
+      </c>
+      <c r="O217" t="s">
+        <v>95</v>
+      </c>
+      <c r="P217" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q217" t="s">
+        <v>128</v>
+      </c>
+      <c r="R217" t="s">
+        <v>95</v>
+      </c>
+      <c r="S217" t="s">
+        <v>98</v>
+      </c>
+      <c r="T217" t="s">
+        <v>129</v>
+      </c>
+      <c r="U217" t="s">
+        <v>99</v>
+      </c>
+      <c r="V217" t="s">
+        <v>88</v>
+      </c>
+      <c r="W217" t="s">
+        <v>130</v>
+      </c>
+      <c r="X217" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y217" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z217" t="s">
         <v>1643</v>
-      </c>
-      <c r="M217" t="s">
-        <v>335</v>
-      </c>
-      <c r="N217" t="s">
-        <v>94</v>
-      </c>
-      <c r="O217" t="s">
-        <v>95</v>
-      </c>
-      <c r="P217" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q217" t="s">
-        <v>97</v>
-      </c>
-      <c r="R217" t="s">
-        <v>95</v>
-      </c>
-      <c r="S217" t="s">
-        <v>454</v>
-      </c>
-      <c r="T217" t="s">
-        <v>1644</v>
-      </c>
-      <c r="U217" t="s">
-        <v>99</v>
-      </c>
-      <c r="V217" t="s">
-        <v>88</v>
-      </c>
-      <c r="W217" t="s">
-        <v>1645</v>
-      </c>
-      <c r="X217" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y217" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z217" t="s">
-        <v>1646</v>
       </c>
       <c r="AA217" t="s">
         <v>259</v>
       </c>
       <c r="AB217" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="AC217" t="s">
-        <v>260</v>
+        <v>742</v>
       </c>
       <c r="AD217" t="s">
         <v>105</v>
       </c>
       <c r="AF217" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="AG217" t="s">
         <v>99</v>
@@ -58560,7 +58578,7 @@
         <v>99</v>
       </c>
       <c r="AK217" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="AL217" t="s">
         <v>88</v>
@@ -58572,7 +58590,7 @@
         <v>99</v>
       </c>
       <c r="AO217" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="AP217" t="s">
         <v>99</v>
@@ -58593,16 +58611,16 @@
         <v>95</v>
       </c>
       <c r="AV217" t="s">
-        <v>454</v>
+        <v>98</v>
       </c>
       <c r="AW217" t="s">
-        <v>1644</v>
+        <v>129</v>
       </c>
       <c r="AX217" s="1">
         <v>44610</v>
       </c>
       <c r="AY217" s="1">
-        <v>44606</v>
+        <v>44609</v>
       </c>
       <c r="AZ217" t="s">
         <v>93</v>
@@ -58623,10 +58641,10 @@
         <v>155</v>
       </c>
       <c r="BF217" t="s">
-        <v>1647</v>
+        <v>1644</v>
       </c>
       <c r="BG217" s="1">
-        <v>38694</v>
+        <v>40979</v>
       </c>
       <c r="BH217" t="s">
         <v>88</v>
@@ -58638,19 +58656,19 @@
         <v>88</v>
       </c>
       <c r="BL217" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM217" t="s">
-        <v>1648</v>
+        <v>1645</v>
       </c>
       <c r="BN217" t="s">
-        <v>263</v>
+        <v>113</v>
       </c>
       <c r="BO217" s="1">
-        <v>44670</v>
+        <v>44615</v>
       </c>
       <c r="BP217" t="s">
-        <v>264</v>
+        <v>114</v>
       </c>
       <c r="BQ217" t="s">
         <v>88</v>
@@ -58662,31 +58680,31 @@
         <v>88</v>
       </c>
       <c r="BT217" t="s">
-        <v>141</v>
+        <v>1165</v>
       </c>
       <c r="BU217" t="s">
         <v>116</v>
       </c>
       <c r="BV217" t="s">
-        <v>265</v>
+        <v>111</v>
       </c>
       <c r="BW217" t="s">
         <v>96</v>
       </c>
       <c r="BX217" t="s">
-        <v>1649</v>
+        <v>118</v>
       </c>
       <c r="BY217" t="s">
-        <v>1650</v>
+        <v>120</v>
       </c>
       <c r="BZ217" t="s">
         <v>96</v>
       </c>
       <c r="CA217" t="s">
-        <v>1649</v>
+        <v>118</v>
       </c>
       <c r="CB217" t="s">
-        <v>1650</v>
+        <v>120</v>
       </c>
       <c r="CC217" t="s">
         <v>118</v>
@@ -58695,7 +58713,7 @@
         <v>120</v>
       </c>
       <c r="CE217">
-        <v>74</v>
+        <v>30</v>
       </c>
     </row>
     <row r="218" spans="1:83" x14ac:dyDescent="0.15">
@@ -58703,40 +58721,40 @@
         <v>82</v>
       </c>
       <c r="B218" s="1">
-        <v>44620</v>
+        <v>44670</v>
       </c>
       <c r="C218" t="s">
-        <v>356</v>
+        <v>108</v>
       </c>
       <c r="D218" t="s">
         <v>84</v>
       </c>
       <c r="E218" t="s">
-        <v>1002</v>
+        <v>250</v>
       </c>
       <c r="F218" t="s">
         <v>86</v>
       </c>
       <c r="G218" t="s">
-        <v>1651</v>
+        <v>1646</v>
       </c>
       <c r="H218" t="s">
-        <v>1652</v>
+        <v>407</v>
       </c>
       <c r="I218" t="s">
-        <v>1533</v>
+        <v>1647</v>
       </c>
       <c r="J218" t="s">
-        <v>940</v>
+        <v>1648</v>
       </c>
       <c r="K218" t="s">
-        <v>148</v>
+        <v>254</v>
       </c>
       <c r="L218" t="s">
-        <v>1653</v>
+        <v>1649</v>
       </c>
       <c r="M218" t="s">
-        <v>785</v>
+        <v>335</v>
       </c>
       <c r="N218" t="s">
         <v>94</v>
@@ -58754,43 +58772,43 @@
         <v>95</v>
       </c>
       <c r="S218" t="s">
-        <v>98</v>
+        <v>454</v>
       </c>
       <c r="T218" t="s">
-        <v>129</v>
+        <v>1650</v>
       </c>
       <c r="U218" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="V218" t="s">
-        <v>215</v>
+        <v>88</v>
       </c>
       <c r="W218" t="s">
-        <v>88</v>
+        <v>1651</v>
       </c>
       <c r="X218" t="s">
         <v>88</v>
       </c>
       <c r="Y218" t="s">
-        <v>201</v>
+        <v>88</v>
       </c>
       <c r="Z218" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="AA218" t="s">
-        <v>1505</v>
+        <v>259</v>
       </c>
       <c r="AB218" t="s">
-        <v>153</v>
+        <v>103</v>
       </c>
       <c r="AC218" t="s">
-        <v>154</v>
+        <v>260</v>
       </c>
       <c r="AD218" t="s">
         <v>105</v>
       </c>
       <c r="AF218" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="AG218" t="s">
         <v>99</v>
@@ -58838,16 +58856,16 @@
         <v>95</v>
       </c>
       <c r="AV218" t="s">
-        <v>98</v>
+        <v>454</v>
       </c>
       <c r="AW218" t="s">
-        <v>129</v>
+        <v>1650</v>
       </c>
       <c r="AX218" s="1">
-        <v>44620</v>
+        <v>44610</v>
       </c>
       <c r="AY218" s="1">
-        <v>44616</v>
+        <v>44606</v>
       </c>
       <c r="AZ218" t="s">
         <v>93</v>
@@ -58868,10 +58886,10 @@
         <v>155</v>
       </c>
       <c r="BF218" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="BG218" s="1">
-        <v>31112</v>
+        <v>38694</v>
       </c>
       <c r="BH218" t="s">
         <v>88</v>
@@ -58883,19 +58901,19 @@
         <v>88</v>
       </c>
       <c r="BL218" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM218" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="BN218" t="s">
-        <v>1012</v>
+        <v>263</v>
       </c>
       <c r="BO218" s="1">
-        <v>44620</v>
+        <v>44670</v>
       </c>
       <c r="BP218" t="s">
-        <v>1013</v>
+        <v>264</v>
       </c>
       <c r="BQ218" t="s">
         <v>88</v>
@@ -58907,31 +58925,31 @@
         <v>88</v>
       </c>
       <c r="BT218" t="s">
-        <v>223</v>
+        <v>141</v>
       </c>
       <c r="BU218" t="s">
         <v>116</v>
       </c>
       <c r="BV218" t="s">
-        <v>1014</v>
+        <v>265</v>
       </c>
       <c r="BW218" t="s">
         <v>96</v>
       </c>
       <c r="BX218" t="s">
-        <v>118</v>
+        <v>1655</v>
       </c>
       <c r="BY218" t="s">
-        <v>120</v>
+        <v>1656</v>
       </c>
       <c r="BZ218" t="s">
         <v>96</v>
       </c>
       <c r="CA218" t="s">
-        <v>118</v>
+        <v>1655</v>
       </c>
       <c r="CB218" t="s">
-        <v>120</v>
+        <v>1656</v>
       </c>
       <c r="CC218" t="s">
         <v>118</v>
@@ -58940,7 +58958,7 @@
         <v>120</v>
       </c>
       <c r="CE218">
-        <v>39</v>
+        <v>74</v>
       </c>
     </row>
     <row r="219" spans="1:83" x14ac:dyDescent="0.15">
@@ -58948,7 +58966,7 @@
         <v>82</v>
       </c>
       <c r="B219" s="1">
-        <v>44618</v>
+        <v>44620</v>
       </c>
       <c r="C219" t="s">
         <v>356</v>
@@ -58957,31 +58975,31 @@
         <v>84</v>
       </c>
       <c r="E219" t="s">
-        <v>209</v>
+        <v>1002</v>
       </c>
       <c r="F219" t="s">
         <v>86</v>
       </c>
       <c r="G219" t="s">
-        <v>1340</v>
+        <v>1657</v>
       </c>
       <c r="H219" t="s">
-        <v>88</v>
+        <v>1658</v>
       </c>
       <c r="I219" t="s">
-        <v>1657</v>
+        <v>1533</v>
       </c>
       <c r="J219" t="s">
-        <v>1658</v>
+        <v>940</v>
       </c>
       <c r="K219" t="s">
-        <v>91</v>
+        <v>148</v>
       </c>
       <c r="L219" t="s">
         <v>1659</v>
       </c>
       <c r="M219" t="s">
-        <v>99</v>
+        <v>785</v>
       </c>
       <c r="N219" t="s">
         <v>94</v>
@@ -59002,7 +59020,7 @@
         <v>98</v>
       </c>
       <c r="T219" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="U219" t="s">
         <v>94</v>
@@ -59017,19 +59035,19 @@
         <v>88</v>
       </c>
       <c r="Y219" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z219" t="s">
         <v>1660</v>
       </c>
-      <c r="Z219" t="s">
-        <v>1661</v>
-      </c>
       <c r="AA219" t="s">
-        <v>132</v>
+        <v>1505</v>
       </c>
       <c r="AB219" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="AC219" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="AD219" t="s">
         <v>105</v>
@@ -59086,13 +59104,13 @@
         <v>98</v>
       </c>
       <c r="AW219" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="AX219" s="1">
-        <v>44618</v>
+        <v>44620</v>
       </c>
       <c r="AY219" s="1">
-        <v>44617</v>
+        <v>44616</v>
       </c>
       <c r="AZ219" t="s">
         <v>93</v>
@@ -59113,34 +59131,34 @@
         <v>155</v>
       </c>
       <c r="BF219" t="s">
+        <v>1661</v>
+      </c>
+      <c r="BG219" s="1">
+        <v>31112</v>
+      </c>
+      <c r="BH219" t="s">
+        <v>88</v>
+      </c>
+      <c r="BI219" t="s">
+        <v>88</v>
+      </c>
+      <c r="BJ219" t="s">
+        <v>88</v>
+      </c>
+      <c r="BL219" s="1">
+        <v>44866</v>
+      </c>
+      <c r="BM219" t="s">
         <v>1662</v>
       </c>
-      <c r="BG219" s="1">
-        <v>43616</v>
-      </c>
-      <c r="BH219" t="s">
-        <v>88</v>
-      </c>
-      <c r="BI219" t="s">
-        <v>88</v>
-      </c>
-      <c r="BJ219" t="s">
-        <v>88</v>
-      </c>
-      <c r="BL219" s="1">
-        <v>44859</v>
-      </c>
-      <c r="BM219" t="s">
-        <v>570</v>
-      </c>
       <c r="BN219" t="s">
-        <v>1663</v>
+        <v>1012</v>
       </c>
       <c r="BO219" s="1">
         <v>44620</v>
       </c>
       <c r="BP219" t="s">
-        <v>222</v>
+        <v>1013</v>
       </c>
       <c r="BQ219" t="s">
         <v>88</v>
@@ -59158,7 +59176,7 @@
         <v>116</v>
       </c>
       <c r="BV219" t="s">
-        <v>224</v>
+        <v>1014</v>
       </c>
       <c r="BW219" t="s">
         <v>96</v>
@@ -59167,7 +59185,7 @@
         <v>118</v>
       </c>
       <c r="BY219" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BZ219" t="s">
         <v>96</v>
@@ -59176,7 +59194,7 @@
         <v>118</v>
       </c>
       <c r="CB219" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="CC219" t="s">
         <v>118</v>
@@ -59185,7 +59203,7 @@
         <v>120</v>
       </c>
       <c r="CE219">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="220" spans="1:83" x14ac:dyDescent="0.15">
@@ -59193,7 +59211,7 @@
         <v>82</v>
       </c>
       <c r="B220" s="1">
-        <v>44620</v>
+        <v>44618</v>
       </c>
       <c r="C220" t="s">
         <v>356</v>
@@ -59208,13 +59226,13 @@
         <v>86</v>
       </c>
       <c r="G220" t="s">
-        <v>1449</v>
+        <v>1340</v>
       </c>
       <c r="H220" t="s">
         <v>88</v>
       </c>
       <c r="I220" t="s">
-        <v>212</v>
+        <v>1663</v>
       </c>
       <c r="J220" t="s">
         <v>1664</v>
@@ -59226,7 +59244,7 @@
         <v>1665</v>
       </c>
       <c r="M220" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="N220" t="s">
         <v>94</v>
@@ -59238,7 +59256,7 @@
         <v>96</v>
       </c>
       <c r="Q220" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="R220" t="s">
         <v>95</v>
@@ -59268,19 +59286,19 @@
         <v>1667</v>
       </c>
       <c r="AA220" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="AB220" t="s">
         <v>133</v>
       </c>
       <c r="AC220" t="s">
-        <v>190</v>
+        <v>134</v>
       </c>
       <c r="AD220" t="s">
         <v>105</v>
       </c>
       <c r="AF220" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="AG220" t="s">
         <v>99</v>
@@ -59295,7 +59313,7 @@
         <v>99</v>
       </c>
       <c r="AK220" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AL220" t="s">
         <v>88</v>
@@ -59307,7 +59325,7 @@
         <v>99</v>
       </c>
       <c r="AO220" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AP220" t="s">
         <v>99</v>
@@ -59334,10 +59352,10 @@
         <v>95</v>
       </c>
       <c r="AX220" s="1">
-        <v>44620</v>
+        <v>44618</v>
       </c>
       <c r="AY220" s="1">
-        <v>44618</v>
+        <v>44617</v>
       </c>
       <c r="AZ220" t="s">
         <v>93</v>
@@ -59361,7 +59379,7 @@
         <v>1668</v>
       </c>
       <c r="BG220" s="1">
-        <v>43136</v>
+        <v>43616</v>
       </c>
       <c r="BH220" t="s">
         <v>88</v>
@@ -59373,16 +59391,16 @@
         <v>88</v>
       </c>
       <c r="BL220" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM220" t="s">
-        <v>274</v>
+        <v>570</v>
       </c>
       <c r="BN220" t="s">
-        <v>275</v>
+        <v>1669</v>
       </c>
       <c r="BO220" s="1">
-        <v>44623</v>
+        <v>44620</v>
       </c>
       <c r="BP220" t="s">
         <v>222</v>
@@ -59430,7 +59448,7 @@
         <v>120</v>
       </c>
       <c r="CE220">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="221" spans="1:83" x14ac:dyDescent="0.15">
@@ -59447,31 +59465,31 @@
         <v>84</v>
       </c>
       <c r="E221" t="s">
-        <v>85</v>
+        <v>209</v>
       </c>
       <c r="F221" t="s">
-        <v>208</v>
+        <v>86</v>
       </c>
       <c r="G221" t="s">
-        <v>1669</v>
+        <v>1449</v>
       </c>
       <c r="H221" t="s">
         <v>88</v>
       </c>
       <c r="I221" t="s">
+        <v>212</v>
+      </c>
+      <c r="J221" t="s">
         <v>1670</v>
       </c>
-      <c r="J221" t="s">
-        <v>241</v>
-      </c>
       <c r="K221" t="s">
-        <v>254</v>
+        <v>91</v>
       </c>
       <c r="L221" t="s">
         <v>1671</v>
       </c>
       <c r="M221" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="N221" t="s">
         <v>94</v>
@@ -59483,7 +59501,7 @@
         <v>96</v>
       </c>
       <c r="Q221" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="R221" t="s">
         <v>95</v>
@@ -59492,34 +59510,34 @@
         <v>98</v>
       </c>
       <c r="T221" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="U221" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="V221" t="s">
-        <v>88</v>
+        <v>215</v>
       </c>
       <c r="W221" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="X221" t="s">
         <v>88</v>
       </c>
       <c r="Y221" t="s">
-        <v>88</v>
+        <v>1672</v>
       </c>
       <c r="Z221" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="AA221" t="s">
-        <v>259</v>
+        <v>102</v>
       </c>
       <c r="AB221" t="s">
         <v>133</v>
       </c>
       <c r="AC221" t="s">
-        <v>134</v>
+        <v>190</v>
       </c>
       <c r="AD221" t="s">
         <v>105</v>
@@ -59540,7 +59558,7 @@
         <v>99</v>
       </c>
       <c r="AK221" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="AL221" t="s">
         <v>88</v>
@@ -59552,7 +59570,7 @@
         <v>99</v>
       </c>
       <c r="AO221" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="AP221" t="s">
         <v>99</v>
@@ -59576,13 +59594,13 @@
         <v>98</v>
       </c>
       <c r="AW221" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="AX221" s="1">
         <v>44620</v>
       </c>
       <c r="AY221" s="1">
-        <v>44617</v>
+        <v>44618</v>
       </c>
       <c r="AZ221" t="s">
         <v>93</v>
@@ -59603,10 +59621,10 @@
         <v>155</v>
       </c>
       <c r="BF221" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="BG221" s="1">
-        <v>41709</v>
+        <v>43136</v>
       </c>
       <c r="BH221" t="s">
         <v>88</v>
@@ -59618,19 +59636,19 @@
         <v>88</v>
       </c>
       <c r="BL221" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM221" t="s">
-        <v>368</v>
+        <v>274</v>
       </c>
       <c r="BN221" t="s">
-        <v>113</v>
+        <v>275</v>
       </c>
       <c r="BO221" s="1">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="BP221" t="s">
-        <v>114</v>
+        <v>222</v>
       </c>
       <c r="BQ221" t="s">
         <v>88</v>
@@ -59648,7 +59666,7 @@
         <v>116</v>
       </c>
       <c r="BV221" t="s">
-        <v>111</v>
+        <v>224</v>
       </c>
       <c r="BW221" t="s">
         <v>96</v>
@@ -59657,7 +59675,7 @@
         <v>118</v>
       </c>
       <c r="BY221" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BZ221" t="s">
         <v>96</v>
@@ -59666,7 +59684,7 @@
         <v>118</v>
       </c>
       <c r="CB221" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="CC221" t="s">
         <v>118</v>
@@ -59675,7 +59693,7 @@
         <v>120</v>
       </c>
       <c r="CE221">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="222" spans="1:83" x14ac:dyDescent="0.15">
@@ -59683,7 +59701,7 @@
         <v>82</v>
       </c>
       <c r="B222" s="1">
-        <v>44615</v>
+        <v>44620</v>
       </c>
       <c r="C222" t="s">
         <v>356</v>
@@ -59692,28 +59710,28 @@
         <v>84</v>
       </c>
       <c r="E222" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="F222" t="s">
-        <v>86</v>
+        <v>208</v>
       </c>
       <c r="G222" t="s">
-        <v>1381</v>
+        <v>1675</v>
       </c>
       <c r="H222" t="s">
         <v>88</v>
       </c>
       <c r="I222" t="s">
-        <v>1674</v>
+        <v>1676</v>
       </c>
       <c r="J222" t="s">
-        <v>170</v>
+        <v>241</v>
       </c>
       <c r="K222" t="s">
         <v>254</v>
       </c>
       <c r="L222" t="s">
-        <v>1675</v>
+        <v>1677</v>
       </c>
       <c r="M222" t="s">
         <v>108</v>
@@ -59728,7 +59746,7 @@
         <v>96</v>
       </c>
       <c r="Q222" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="R222" t="s">
         <v>95</v>
@@ -59740,22 +59758,22 @@
         <v>129</v>
       </c>
       <c r="U222" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="V222" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="W222" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="X222" t="s">
         <v>88</v>
       </c>
       <c r="Y222" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="Z222" t="s">
-        <v>1676</v>
+        <v>1678</v>
       </c>
       <c r="AA222" t="s">
         <v>259</v>
@@ -59770,7 +59788,7 @@
         <v>105</v>
       </c>
       <c r="AF222" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="AG222" t="s">
         <v>99</v>
@@ -59785,7 +59803,7 @@
         <v>99</v>
       </c>
       <c r="AK222" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AL222" t="s">
         <v>88</v>
@@ -59797,7 +59815,7 @@
         <v>99</v>
       </c>
       <c r="AO222" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AP222" t="s">
         <v>99</v>
@@ -59824,10 +59842,10 @@
         <v>129</v>
       </c>
       <c r="AX222" s="1">
-        <v>44613</v>
+        <v>44620</v>
       </c>
       <c r="AY222" s="1">
-        <v>44612</v>
+        <v>44617</v>
       </c>
       <c r="AZ222" t="s">
         <v>93</v>
@@ -59848,10 +59866,10 @@
         <v>155</v>
       </c>
       <c r="BF222" t="s">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="BG222" s="1">
-        <v>41724</v>
+        <v>41709</v>
       </c>
       <c r="BH222" t="s">
         <v>88</v>
@@ -59863,19 +59881,19 @@
         <v>88</v>
       </c>
       <c r="BL222" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM222" t="s">
-        <v>1678</v>
+        <v>368</v>
       </c>
       <c r="BN222" t="s">
-        <v>389</v>
+        <v>113</v>
       </c>
       <c r="BO222" s="1">
-        <v>44615</v>
+        <v>44622</v>
       </c>
       <c r="BP222" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="BQ222" t="s">
         <v>88</v>
@@ -59893,7 +59911,7 @@
         <v>116</v>
       </c>
       <c r="BV222" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="BW222" t="s">
         <v>96</v>
@@ -59920,7 +59938,7 @@
         <v>120</v>
       </c>
       <c r="CE222">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="223" spans="1:83" x14ac:dyDescent="0.15">
@@ -59928,7 +59946,7 @@
         <v>82</v>
       </c>
       <c r="B223" s="1">
-        <v>44618</v>
+        <v>44615</v>
       </c>
       <c r="C223" t="s">
         <v>356</v>
@@ -59937,28 +59955,28 @@
         <v>84</v>
       </c>
       <c r="E223" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="F223" t="s">
-        <v>208</v>
+        <v>86</v>
       </c>
       <c r="G223" t="s">
-        <v>426</v>
+        <v>1381</v>
       </c>
       <c r="H223" t="s">
         <v>88</v>
       </c>
       <c r="I223" t="s">
-        <v>753</v>
+        <v>1680</v>
       </c>
       <c r="J223" t="s">
-        <v>310</v>
+        <v>170</v>
       </c>
       <c r="K223" t="s">
         <v>254</v>
       </c>
       <c r="L223" t="s">
-        <v>1679</v>
+        <v>1681</v>
       </c>
       <c r="M223" t="s">
         <v>108</v>
@@ -59973,7 +59991,7 @@
         <v>96</v>
       </c>
       <c r="Q223" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="R223" t="s">
         <v>95</v>
@@ -59985,22 +60003,22 @@
         <v>129</v>
       </c>
       <c r="U223" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="V223" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="W223" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="X223" t="s">
         <v>88</v>
       </c>
       <c r="Y223" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="Z223" t="s">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="AA223" t="s">
         <v>259</v>
@@ -60009,7 +60027,7 @@
         <v>133</v>
       </c>
       <c r="AC223" t="s">
-        <v>294</v>
+        <v>134</v>
       </c>
       <c r="AD223" t="s">
         <v>105</v>
@@ -60030,7 +60048,7 @@
         <v>99</v>
       </c>
       <c r="AK223" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="AL223" t="s">
         <v>88</v>
@@ -60042,7 +60060,7 @@
         <v>99</v>
       </c>
       <c r="AO223" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="AP223" t="s">
         <v>99</v>
@@ -60069,10 +60087,10 @@
         <v>129</v>
       </c>
       <c r="AX223" s="1">
-        <v>44618</v>
+        <v>44613</v>
       </c>
       <c r="AY223" s="1">
-        <v>44617</v>
+        <v>44612</v>
       </c>
       <c r="AZ223" t="s">
         <v>93</v>
@@ -60093,10 +60111,10 @@
         <v>155</v>
       </c>
       <c r="BF223" t="s">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="BG223" s="1">
-        <v>41755</v>
+        <v>41724</v>
       </c>
       <c r="BH223" t="s">
         <v>88</v>
@@ -60108,19 +60126,19 @@
         <v>88</v>
       </c>
       <c r="BL223" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM223" t="s">
-        <v>1682</v>
+        <v>1684</v>
       </c>
       <c r="BN223" t="s">
-        <v>113</v>
+        <v>389</v>
       </c>
       <c r="BO223" s="1">
-        <v>44621</v>
+        <v>44615</v>
       </c>
       <c r="BP223" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="BQ223" t="s">
         <v>88</v>
@@ -60138,7 +60156,7 @@
         <v>116</v>
       </c>
       <c r="BV223" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="BW223" t="s">
         <v>96</v>
@@ -60165,7 +60183,7 @@
         <v>120</v>
       </c>
       <c r="CE223">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="224" spans="1:83" x14ac:dyDescent="0.15">
@@ -60173,7 +60191,7 @@
         <v>82</v>
       </c>
       <c r="B224" s="1">
-        <v>44614</v>
+        <v>44618</v>
       </c>
       <c r="C224" t="s">
         <v>356</v>
@@ -60182,31 +60200,31 @@
         <v>84</v>
       </c>
       <c r="E224" t="s">
-        <v>209</v>
+        <v>85</v>
       </c>
       <c r="F224" t="s">
-        <v>86</v>
+        <v>208</v>
       </c>
       <c r="G224" t="s">
-        <v>874</v>
+        <v>426</v>
       </c>
       <c r="H224" t="s">
         <v>88</v>
       </c>
       <c r="I224" t="s">
-        <v>1683</v>
+        <v>753</v>
       </c>
       <c r="J224" t="s">
-        <v>1540</v>
+        <v>310</v>
       </c>
       <c r="K224" t="s">
         <v>254</v>
       </c>
       <c r="L224" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="M224" t="s">
-        <v>335</v>
+        <v>108</v>
       </c>
       <c r="N224" t="s">
         <v>94</v>
@@ -60230,19 +60248,19 @@
         <v>129</v>
       </c>
       <c r="U224" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="V224" t="s">
-        <v>215</v>
+        <v>88</v>
       </c>
       <c r="W224" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="X224" t="s">
         <v>88</v>
       </c>
       <c r="Y224" t="s">
-        <v>1685</v>
+        <v>88</v>
       </c>
       <c r="Z224" t="s">
         <v>1686</v>
@@ -60254,13 +60272,13 @@
         <v>133</v>
       </c>
       <c r="AC224" t="s">
-        <v>190</v>
+        <v>294</v>
       </c>
       <c r="AD224" t="s">
         <v>105</v>
       </c>
       <c r="AF224" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="AG224" t="s">
         <v>99</v>
@@ -60314,10 +60332,10 @@
         <v>129</v>
       </c>
       <c r="AX224" s="1">
-        <v>44614</v>
+        <v>44618</v>
       </c>
       <c r="AY224" s="1">
-        <v>44612</v>
+        <v>44617</v>
       </c>
       <c r="AZ224" t="s">
         <v>93</v>
@@ -60341,7 +60359,7 @@
         <v>1687</v>
       </c>
       <c r="BG224" s="1">
-        <v>38646</v>
+        <v>41755</v>
       </c>
       <c r="BH224" t="s">
         <v>88</v>
@@ -60353,19 +60371,19 @@
         <v>88</v>
       </c>
       <c r="BL224" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM224" t="s">
-        <v>628</v>
+        <v>1688</v>
       </c>
       <c r="BN224" t="s">
-        <v>629</v>
+        <v>113</v>
       </c>
       <c r="BO224" s="1">
-        <v>44616</v>
+        <v>44621</v>
       </c>
       <c r="BP224" t="s">
-        <v>222</v>
+        <v>114</v>
       </c>
       <c r="BQ224" t="s">
         <v>88</v>
@@ -60377,13 +60395,13 @@
         <v>88</v>
       </c>
       <c r="BT224" t="s">
-        <v>1165</v>
+        <v>223</v>
       </c>
       <c r="BU224" t="s">
         <v>116</v>
       </c>
       <c r="BV224" t="s">
-        <v>224</v>
+        <v>111</v>
       </c>
       <c r="BW224" t="s">
         <v>96</v>
@@ -60410,7 +60428,7 @@
         <v>120</v>
       </c>
       <c r="CE224">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="225" spans="1:83" x14ac:dyDescent="0.15">
@@ -60418,7 +60436,7 @@
         <v>82</v>
       </c>
       <c r="B225" s="1">
-        <v>44615</v>
+        <v>44614</v>
       </c>
       <c r="C225" t="s">
         <v>356</v>
@@ -60427,31 +60445,31 @@
         <v>84</v>
       </c>
       <c r="E225" t="s">
-        <v>85</v>
+        <v>209</v>
       </c>
       <c r="F225" t="s">
         <v>86</v>
       </c>
       <c r="G225" t="s">
-        <v>646</v>
+        <v>874</v>
       </c>
       <c r="H225" t="s">
         <v>88</v>
       </c>
       <c r="I225" t="s">
-        <v>529</v>
+        <v>1689</v>
       </c>
       <c r="J225" t="s">
-        <v>510</v>
+        <v>1540</v>
       </c>
       <c r="K225" t="s">
         <v>254</v>
       </c>
       <c r="L225" t="s">
-        <v>1688</v>
+        <v>1690</v>
       </c>
       <c r="M225" t="s">
-        <v>270</v>
+        <v>335</v>
       </c>
       <c r="N225" t="s">
         <v>94</v>
@@ -60475,22 +60493,22 @@
         <v>129</v>
       </c>
       <c r="U225" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="V225" t="s">
-        <v>88</v>
+        <v>215</v>
       </c>
       <c r="W225" t="s">
-        <v>497</v>
+        <v>88</v>
       </c>
       <c r="X225" t="s">
         <v>88</v>
       </c>
       <c r="Y225" t="s">
-        <v>88</v>
+        <v>1691</v>
       </c>
       <c r="Z225" t="s">
-        <v>1689</v>
+        <v>1692</v>
       </c>
       <c r="AA225" t="s">
         <v>259</v>
@@ -60499,7 +60517,7 @@
         <v>133</v>
       </c>
       <c r="AC225" t="s">
-        <v>294</v>
+        <v>190</v>
       </c>
       <c r="AD225" t="s">
         <v>105</v>
@@ -60559,10 +60577,10 @@
         <v>129</v>
       </c>
       <c r="AX225" s="1">
-        <v>44615</v>
+        <v>44614</v>
       </c>
       <c r="AY225" s="1">
-        <v>44614</v>
+        <v>44612</v>
       </c>
       <c r="AZ225" t="s">
         <v>93</v>
@@ -60583,10 +60601,10 @@
         <v>155</v>
       </c>
       <c r="BF225" t="s">
-        <v>1690</v>
+        <v>1693</v>
       </c>
       <c r="BG225" s="1">
-        <v>40237</v>
+        <v>38646</v>
       </c>
       <c r="BH225" t="s">
         <v>88</v>
@@ -60598,19 +60616,19 @@
         <v>88</v>
       </c>
       <c r="BL225" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM225" t="s">
-        <v>1691</v>
+        <v>628</v>
       </c>
       <c r="BN225" t="s">
-        <v>113</v>
+        <v>629</v>
       </c>
       <c r="BO225" s="1">
         <v>44616</v>
       </c>
       <c r="BP225" t="s">
-        <v>114</v>
+        <v>222</v>
       </c>
       <c r="BQ225" t="s">
         <v>88</v>
@@ -60628,7 +60646,7 @@
         <v>116</v>
       </c>
       <c r="BV225" t="s">
-        <v>117</v>
+        <v>224</v>
       </c>
       <c r="BW225" t="s">
         <v>96</v>
@@ -60655,7 +60673,7 @@
         <v>120</v>
       </c>
       <c r="CE225">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="226" spans="1:83" x14ac:dyDescent="0.15">
@@ -60663,40 +60681,40 @@
         <v>82</v>
       </c>
       <c r="B226" s="1">
-        <v>44623</v>
+        <v>44615</v>
       </c>
       <c r="C226" t="s">
-        <v>1524</v>
+        <v>356</v>
       </c>
       <c r="D226" t="s">
         <v>84</v>
       </c>
       <c r="E226" t="s">
-        <v>197</v>
+        <v>85</v>
       </c>
       <c r="F226" t="s">
         <v>86</v>
       </c>
       <c r="G226" t="s">
-        <v>319</v>
+        <v>646</v>
       </c>
       <c r="H226" t="s">
-        <v>251</v>
+        <v>88</v>
       </c>
       <c r="I226" t="s">
-        <v>288</v>
+        <v>529</v>
       </c>
       <c r="J226" t="s">
-        <v>731</v>
+        <v>510</v>
       </c>
       <c r="K226" t="s">
-        <v>91</v>
+        <v>254</v>
       </c>
       <c r="L226" t="s">
-        <v>1692</v>
+        <v>1694</v>
       </c>
       <c r="M226" t="s">
-        <v>106</v>
+        <v>270</v>
       </c>
       <c r="N226" t="s">
         <v>94</v>
@@ -60720,37 +60738,37 @@
         <v>129</v>
       </c>
       <c r="U226" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="V226" t="s">
-        <v>186</v>
+        <v>88</v>
       </c>
       <c r="W226" t="s">
-        <v>88</v>
+        <v>497</v>
       </c>
       <c r="X226" t="s">
         <v>88</v>
       </c>
       <c r="Y226" t="s">
-        <v>201</v>
+        <v>88</v>
       </c>
       <c r="Z226" t="s">
-        <v>1693</v>
+        <v>1695</v>
       </c>
       <c r="AA226" t="s">
-        <v>132</v>
+        <v>259</v>
       </c>
       <c r="AB226" t="s">
         <v>133</v>
       </c>
       <c r="AC226" t="s">
-        <v>1694</v>
+        <v>294</v>
       </c>
       <c r="AD226" t="s">
         <v>105</v>
       </c>
       <c r="AF226" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="AG226" t="s">
         <v>99</v>
@@ -60804,10 +60822,10 @@
         <v>129</v>
       </c>
       <c r="AX226" s="1">
-        <v>44623</v>
+        <v>44615</v>
       </c>
       <c r="AY226" s="1">
-        <v>44621</v>
+        <v>44614</v>
       </c>
       <c r="AZ226" t="s">
         <v>93</v>
@@ -60828,10 +60846,10 @@
         <v>155</v>
       </c>
       <c r="BF226" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="BG226" s="1">
-        <v>43489</v>
+        <v>40237</v>
       </c>
       <c r="BH226" t="s">
         <v>88</v>
@@ -60843,19 +60861,19 @@
         <v>88</v>
       </c>
       <c r="BL226" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM226" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="BN226" t="s">
-        <v>652</v>
+        <v>113</v>
       </c>
       <c r="BO226" s="1">
-        <v>44624</v>
+        <v>44616</v>
       </c>
       <c r="BP226" t="s">
-        <v>206</v>
+        <v>114</v>
       </c>
       <c r="BQ226" t="s">
         <v>88</v>
@@ -60867,13 +60885,13 @@
         <v>88</v>
       </c>
       <c r="BT226" t="s">
-        <v>223</v>
+        <v>1165</v>
       </c>
       <c r="BU226" t="s">
         <v>116</v>
       </c>
       <c r="BV226" t="s">
-        <v>207</v>
+        <v>117</v>
       </c>
       <c r="BW226" t="s">
         <v>96</v>
@@ -60900,7 +60918,7 @@
         <v>120</v>
       </c>
       <c r="CE226">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="227" spans="1:83" x14ac:dyDescent="0.15">
@@ -60908,7 +60926,7 @@
         <v>82</v>
       </c>
       <c r="B227" s="1">
-        <v>44653</v>
+        <v>44623</v>
       </c>
       <c r="C227" t="s">
         <v>1524</v>
@@ -60917,22 +60935,22 @@
         <v>84</v>
       </c>
       <c r="E227" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="F227" t="s">
-        <v>226</v>
+        <v>86</v>
       </c>
       <c r="G227" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="H227" t="s">
-        <v>88</v>
+        <v>251</v>
       </c>
       <c r="I227" t="s">
-        <v>1244</v>
+        <v>288</v>
       </c>
       <c r="J227" t="s">
-        <v>1697</v>
+        <v>731</v>
       </c>
       <c r="K227" t="s">
         <v>91</v>
@@ -60941,7 +60959,7 @@
         <v>1698</v>
       </c>
       <c r="M227" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="N227" t="s">
         <v>94</v>
@@ -60986,16 +61004,16 @@
         <v>132</v>
       </c>
       <c r="AB227" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="AC227" t="s">
-        <v>1093</v>
+        <v>1700</v>
       </c>
       <c r="AD227" t="s">
         <v>105</v>
       </c>
       <c r="AF227" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="AG227" t="s">
         <v>99</v>
@@ -61049,10 +61067,10 @@
         <v>129</v>
       </c>
       <c r="AX227" s="1">
-        <v>44652</v>
+        <v>44623</v>
       </c>
       <c r="AY227" s="1">
-        <v>44620</v>
+        <v>44621</v>
       </c>
       <c r="AZ227" t="s">
         <v>93</v>
@@ -61073,10 +61091,10 @@
         <v>155</v>
       </c>
       <c r="BF227" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="BG227" s="1">
-        <v>42728</v>
+        <v>43489</v>
       </c>
       <c r="BH227" t="s">
         <v>88</v>
@@ -61088,19 +61106,19 @@
         <v>88</v>
       </c>
       <c r="BL227" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM227" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="BN227" t="s">
-        <v>799</v>
+        <v>652</v>
       </c>
       <c r="BO227" s="1">
-        <v>44655</v>
+        <v>44624</v>
       </c>
       <c r="BP227" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="BQ227" t="s">
         <v>88</v>
@@ -61112,13 +61130,13 @@
         <v>88</v>
       </c>
       <c r="BT227" t="s">
-        <v>141</v>
+        <v>223</v>
       </c>
       <c r="BU227" t="s">
         <v>116</v>
       </c>
       <c r="BV227" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="BW227" t="s">
         <v>96</v>
@@ -61145,7 +61163,7 @@
         <v>120</v>
       </c>
       <c r="CE227">
-        <v>68</v>
+        <v>40</v>
       </c>
     </row>
     <row r="228" spans="1:83" x14ac:dyDescent="0.15">
@@ -61153,7 +61171,7 @@
         <v>82</v>
       </c>
       <c r="B228" s="1">
-        <v>44632</v>
+        <v>44653</v>
       </c>
       <c r="C228" t="s">
         <v>1524</v>
@@ -61162,28 +61180,28 @@
         <v>84</v>
       </c>
       <c r="E228" t="s">
-        <v>179</v>
+        <v>225</v>
       </c>
       <c r="F228" t="s">
-        <v>180</v>
+        <v>226</v>
       </c>
       <c r="G228" t="s">
-        <v>425</v>
+        <v>308</v>
       </c>
       <c r="H228" t="s">
-        <v>1702</v>
+        <v>88</v>
       </c>
       <c r="I228" t="s">
-        <v>653</v>
+        <v>1244</v>
       </c>
       <c r="J228" t="s">
-        <v>1312</v>
+        <v>1703</v>
       </c>
       <c r="K228" t="s">
         <v>91</v>
       </c>
       <c r="L228" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="M228" t="s">
         <v>121</v>
@@ -61222,25 +61240,25 @@
         <v>88</v>
       </c>
       <c r="Y228" t="s">
-        <v>1704</v>
+        <v>201</v>
       </c>
       <c r="Z228" t="s">
         <v>1705</v>
       </c>
       <c r="AA228" t="s">
-        <v>259</v>
+        <v>132</v>
       </c>
       <c r="AB228" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="AC228" t="s">
-        <v>190</v>
+        <v>1093</v>
       </c>
       <c r="AD228" t="s">
         <v>105</v>
       </c>
       <c r="AF228" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="AG228" t="s">
         <v>99</v>
@@ -61294,10 +61312,10 @@
         <v>129</v>
       </c>
       <c r="AX228" s="1">
-        <v>44629</v>
+        <v>44652</v>
       </c>
       <c r="AY228" s="1">
-        <v>44624</v>
+        <v>44620</v>
       </c>
       <c r="AZ228" t="s">
         <v>93</v>
@@ -61321,7 +61339,7 @@
         <v>1706</v>
       </c>
       <c r="BG228" s="1">
-        <v>42615</v>
+        <v>42728</v>
       </c>
       <c r="BH228" t="s">
         <v>88</v>
@@ -61333,19 +61351,19 @@
         <v>88</v>
       </c>
       <c r="BL228" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM228" t="s">
-        <v>305</v>
+        <v>1707</v>
       </c>
       <c r="BN228" t="s">
-        <v>306</v>
+        <v>799</v>
       </c>
       <c r="BO228" s="1">
-        <v>44632</v>
+        <v>44655</v>
       </c>
       <c r="BP228" t="s">
-        <v>194</v>
+        <v>236</v>
       </c>
       <c r="BQ228" t="s">
         <v>88</v>
@@ -61357,13 +61375,13 @@
         <v>88</v>
       </c>
       <c r="BT228" t="s">
-        <v>195</v>
+        <v>141</v>
       </c>
       <c r="BU228" t="s">
         <v>116</v>
       </c>
       <c r="BV228" t="s">
-        <v>196</v>
+        <v>237</v>
       </c>
       <c r="BW228" t="s">
         <v>96</v>
@@ -61390,7 +61408,7 @@
         <v>120</v>
       </c>
       <c r="CE228">
-        <v>42</v>
+        <v>68</v>
       </c>
     </row>
     <row r="229" spans="1:83" x14ac:dyDescent="0.15">
@@ -61398,7 +61416,7 @@
         <v>82</v>
       </c>
       <c r="B229" s="1">
-        <v>44622</v>
+        <v>44632</v>
       </c>
       <c r="C229" t="s">
         <v>1524</v>
@@ -61407,31 +61425,31 @@
         <v>84</v>
       </c>
       <c r="E229" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="F229" t="s">
-        <v>86</v>
+        <v>180</v>
       </c>
       <c r="G229" t="s">
-        <v>1306</v>
+        <v>425</v>
       </c>
       <c r="H229" t="s">
-        <v>88</v>
+        <v>1708</v>
       </c>
       <c r="I229" t="s">
-        <v>170</v>
+        <v>653</v>
       </c>
       <c r="J229" t="s">
-        <v>601</v>
+        <v>1312</v>
       </c>
       <c r="K229" t="s">
         <v>91</v>
       </c>
       <c r="L229" t="s">
-        <v>1707</v>
+        <v>1709</v>
       </c>
       <c r="M229" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="N229" t="s">
         <v>94</v>
@@ -61458,7 +61476,7 @@
         <v>94</v>
       </c>
       <c r="V229" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="W229" t="s">
         <v>88</v>
@@ -61467,13 +61485,13 @@
         <v>88</v>
       </c>
       <c r="Y229" t="s">
-        <v>1708</v>
+        <v>1710</v>
       </c>
       <c r="Z229" t="s">
-        <v>1709</v>
+        <v>1711</v>
       </c>
       <c r="AA229" t="s">
-        <v>132</v>
+        <v>259</v>
       </c>
       <c r="AB229" t="s">
         <v>133</v>
@@ -61485,7 +61503,7 @@
         <v>105</v>
       </c>
       <c r="AF229" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="AG229" t="s">
         <v>99</v>
@@ -61539,10 +61557,10 @@
         <v>129</v>
       </c>
       <c r="AX229" s="1">
-        <v>44622</v>
+        <v>44629</v>
       </c>
       <c r="AY229" s="1">
-        <v>44620</v>
+        <v>44624</v>
       </c>
       <c r="AZ229" t="s">
         <v>93</v>
@@ -61563,10 +61581,10 @@
         <v>155</v>
       </c>
       <c r="BF229" t="s">
-        <v>1710</v>
+        <v>1712</v>
       </c>
       <c r="BG229" s="1">
-        <v>43486</v>
+        <v>42615</v>
       </c>
       <c r="BH229" t="s">
         <v>88</v>
@@ -61578,19 +61596,19 @@
         <v>88</v>
       </c>
       <c r="BL229" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM229" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="BN229" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="BO229" s="1">
-        <v>44625</v>
+        <v>44632</v>
       </c>
       <c r="BP229" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="BQ229" t="s">
         <v>88</v>
@@ -61602,13 +61620,13 @@
         <v>88</v>
       </c>
       <c r="BT229" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="BU229" t="s">
         <v>116</v>
       </c>
       <c r="BV229" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="BW229" t="s">
         <v>96</v>
@@ -61635,7 +61653,7 @@
         <v>120</v>
       </c>
       <c r="CE229">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="230" spans="1:83" x14ac:dyDescent="0.15">
@@ -61643,7 +61661,7 @@
         <v>82</v>
       </c>
       <c r="B230" s="1">
-        <v>44625</v>
+        <v>44622</v>
       </c>
       <c r="C230" t="s">
         <v>1524</v>
@@ -61652,31 +61670,31 @@
         <v>84</v>
       </c>
       <c r="E230" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="F230" t="s">
         <v>86</v>
       </c>
       <c r="G230" t="s">
-        <v>227</v>
+        <v>1306</v>
       </c>
       <c r="H230" t="s">
         <v>88</v>
       </c>
       <c r="I230" t="s">
-        <v>700</v>
+        <v>170</v>
       </c>
       <c r="J230" t="s">
-        <v>1711</v>
+        <v>601</v>
       </c>
       <c r="K230" t="s">
         <v>91</v>
       </c>
       <c r="L230" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="M230" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="N230" t="s">
         <v>94</v>
@@ -61688,7 +61706,7 @@
         <v>96</v>
       </c>
       <c r="Q230" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="R230" t="s">
         <v>95</v>
@@ -61697,13 +61715,13 @@
         <v>98</v>
       </c>
       <c r="T230" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="U230" t="s">
         <v>94</v>
       </c>
       <c r="V230" t="s">
-        <v>186</v>
+        <v>215</v>
       </c>
       <c r="W230" t="s">
         <v>88</v>
@@ -61712,10 +61730,10 @@
         <v>88</v>
       </c>
       <c r="Y230" t="s">
-        <v>201</v>
+        <v>1714</v>
       </c>
       <c r="Z230" t="s">
-        <v>1713</v>
+        <v>1715</v>
       </c>
       <c r="AA230" t="s">
         <v>132</v>
@@ -61724,13 +61742,13 @@
         <v>133</v>
       </c>
       <c r="AC230" t="s">
-        <v>134</v>
+        <v>190</v>
       </c>
       <c r="AD230" t="s">
         <v>105</v>
       </c>
       <c r="AF230" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="AG230" t="s">
         <v>99</v>
@@ -61745,7 +61763,7 @@
         <v>99</v>
       </c>
       <c r="AK230" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AL230" t="s">
         <v>88</v>
@@ -61757,7 +61775,7 @@
         <v>99</v>
       </c>
       <c r="AO230" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AP230" t="s">
         <v>99</v>
@@ -61772,7 +61790,7 @@
         <v>94</v>
       </c>
       <c r="AT230" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="AU230" t="s">
         <v>95</v>
@@ -61781,13 +61799,13 @@
         <v>98</v>
       </c>
       <c r="AW230" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="AX230" s="1">
-        <v>44625</v>
+        <v>44622</v>
       </c>
       <c r="AY230" s="1">
-        <v>44622</v>
+        <v>44620</v>
       </c>
       <c r="AZ230" t="s">
         <v>93</v>
@@ -61808,10 +61826,10 @@
         <v>155</v>
       </c>
       <c r="BF230" t="s">
-        <v>1714</v>
+        <v>1716</v>
       </c>
       <c r="BG230" s="1">
-        <v>44261</v>
+        <v>43486</v>
       </c>
       <c r="BH230" t="s">
         <v>88</v>
@@ -61823,19 +61841,19 @@
         <v>88</v>
       </c>
       <c r="BL230" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM230" t="s">
-        <v>1696</v>
+        <v>274</v>
       </c>
       <c r="BN230" t="s">
-        <v>652</v>
+        <v>275</v>
       </c>
       <c r="BO230" s="1">
-        <v>44627</v>
+        <v>44625</v>
       </c>
       <c r="BP230" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="BQ230" t="s">
         <v>88</v>
@@ -61853,7 +61871,7 @@
         <v>116</v>
       </c>
       <c r="BV230" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="BW230" t="s">
         <v>96</v>
@@ -61862,7 +61880,7 @@
         <v>118</v>
       </c>
       <c r="BY230" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BZ230" t="s">
         <v>96</v>
@@ -61871,7 +61889,7 @@
         <v>118</v>
       </c>
       <c r="CB230" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="CC230" t="s">
         <v>118</v>
@@ -61880,7 +61898,7 @@
         <v>120</v>
       </c>
       <c r="CE230">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="231" spans="1:83" x14ac:dyDescent="0.15">
@@ -61888,7 +61906,7 @@
         <v>82</v>
       </c>
       <c r="B231" s="1">
-        <v>44628</v>
+        <v>44625</v>
       </c>
       <c r="C231" t="s">
         <v>1524</v>
@@ -61897,34 +61915,34 @@
         <v>84</v>
       </c>
       <c r="E231" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="F231" t="s">
         <v>86</v>
       </c>
       <c r="G231" t="s">
-        <v>1715</v>
+        <v>227</v>
       </c>
       <c r="H231" t="s">
         <v>88</v>
       </c>
       <c r="I231" t="s">
-        <v>252</v>
+        <v>700</v>
       </c>
       <c r="J231" t="s">
-        <v>1142</v>
+        <v>1717</v>
       </c>
       <c r="K231" t="s">
         <v>91</v>
       </c>
       <c r="L231" t="s">
-        <v>1716</v>
+        <v>1718</v>
       </c>
       <c r="M231" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="N231" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="O231" t="s">
         <v>95</v>
@@ -61942,13 +61960,13 @@
         <v>98</v>
       </c>
       <c r="T231" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="U231" t="s">
         <v>94</v>
       </c>
       <c r="V231" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="W231" t="s">
         <v>88</v>
@@ -61957,10 +61975,10 @@
         <v>88</v>
       </c>
       <c r="Y231" t="s">
-        <v>1717</v>
+        <v>201</v>
       </c>
       <c r="Z231" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="AA231" t="s">
         <v>132</v>
@@ -61969,7 +61987,7 @@
         <v>133</v>
       </c>
       <c r="AC231" t="s">
-        <v>190</v>
+        <v>134</v>
       </c>
       <c r="AD231" t="s">
         <v>105</v>
@@ -62017,7 +62035,7 @@
         <v>94</v>
       </c>
       <c r="AT231" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AU231" t="s">
         <v>95</v>
@@ -62026,13 +62044,13 @@
         <v>98</v>
       </c>
       <c r="AW231" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="AX231" s="1">
-        <v>44628</v>
+        <v>44625</v>
       </c>
       <c r="AY231" s="1">
-        <v>44621</v>
+        <v>44622</v>
       </c>
       <c r="AZ231" t="s">
         <v>93</v>
@@ -62053,10 +62071,10 @@
         <v>155</v>
       </c>
       <c r="BF231" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="BG231" s="1">
-        <v>44392</v>
+        <v>44261</v>
       </c>
       <c r="BH231" t="s">
         <v>88</v>
@@ -62068,19 +62086,19 @@
         <v>88</v>
       </c>
       <c r="BL231" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM231" t="s">
-        <v>413</v>
+        <v>1702</v>
       </c>
       <c r="BN231" t="s">
-        <v>414</v>
+        <v>652</v>
       </c>
       <c r="BO231" s="1">
-        <v>44629</v>
+        <v>44627</v>
       </c>
       <c r="BP231" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="BQ231" t="s">
         <v>88</v>
@@ -62098,7 +62116,7 @@
         <v>116</v>
       </c>
       <c r="BV231" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="BW231" t="s">
         <v>96</v>
@@ -62107,7 +62125,7 @@
         <v>118</v>
       </c>
       <c r="BY231" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BZ231" t="s">
         <v>96</v>
@@ -62116,7 +62134,7 @@
         <v>118</v>
       </c>
       <c r="CB231" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="CC231" t="s">
         <v>118</v>
@@ -62125,7 +62143,7 @@
         <v>120</v>
       </c>
       <c r="CE231">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="232" spans="1:83" x14ac:dyDescent="0.15">
@@ -62133,7 +62151,7 @@
         <v>82</v>
       </c>
       <c r="B232" s="1">
-        <v>44622</v>
+        <v>44628</v>
       </c>
       <c r="C232" t="s">
         <v>1524</v>
@@ -62142,34 +62160,34 @@
         <v>84</v>
       </c>
       <c r="E232" t="s">
-        <v>250</v>
+        <v>209</v>
       </c>
       <c r="F232" t="s">
-        <v>226</v>
+        <v>86</v>
       </c>
       <c r="G232" t="s">
-        <v>251</v>
+        <v>1721</v>
       </c>
       <c r="H232" t="s">
-        <v>1720</v>
+        <v>88</v>
       </c>
       <c r="I232" t="s">
-        <v>418</v>
+        <v>252</v>
       </c>
       <c r="J232" t="s">
-        <v>510</v>
+        <v>1142</v>
       </c>
       <c r="K232" t="s">
         <v>91</v>
       </c>
       <c r="L232" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="M232" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="N232" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="O232" t="s">
         <v>95</v>
@@ -62190,37 +62208,37 @@
         <v>129</v>
       </c>
       <c r="U232" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="V232" t="s">
-        <v>88</v>
+        <v>215</v>
       </c>
       <c r="W232" t="s">
-        <v>1205</v>
+        <v>88</v>
       </c>
       <c r="X232" t="s">
         <v>88</v>
       </c>
       <c r="Y232" t="s">
-        <v>88</v>
+        <v>1723</v>
       </c>
       <c r="Z232" t="s">
-        <v>1722</v>
+        <v>1724</v>
       </c>
       <c r="AA232" t="s">
         <v>132</v>
       </c>
       <c r="AB232" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="AC232" t="s">
-        <v>260</v>
+        <v>190</v>
       </c>
       <c r="AD232" t="s">
         <v>105</v>
       </c>
       <c r="AF232" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="AG232" t="s">
         <v>99</v>
@@ -62274,10 +62292,10 @@
         <v>129</v>
       </c>
       <c r="AX232" s="1">
-        <v>44622</v>
+        <v>44628</v>
       </c>
       <c r="AY232" s="1">
-        <v>44619</v>
+        <v>44621</v>
       </c>
       <c r="AZ232" t="s">
         <v>93</v>
@@ -62298,10 +62316,10 @@
         <v>155</v>
       </c>
       <c r="BF232" t="s">
-        <v>1723</v>
+        <v>1725</v>
       </c>
       <c r="BG232" s="1">
-        <v>43029</v>
+        <v>44392</v>
       </c>
       <c r="BH232" t="s">
         <v>88</v>
@@ -62313,19 +62331,19 @@
         <v>88</v>
       </c>
       <c r="BL232" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM232" t="s">
-        <v>1724</v>
+        <v>413</v>
       </c>
       <c r="BN232" t="s">
-        <v>263</v>
+        <v>414</v>
       </c>
       <c r="BO232" s="1">
-        <v>44691</v>
+        <v>44629</v>
       </c>
       <c r="BP232" t="s">
-        <v>264</v>
+        <v>222</v>
       </c>
       <c r="BQ232" t="s">
         <v>88</v>
@@ -62337,13 +62355,13 @@
         <v>88</v>
       </c>
       <c r="BT232" t="s">
-        <v>465</v>
+        <v>223</v>
       </c>
       <c r="BU232" t="s">
         <v>116</v>
       </c>
       <c r="BV232" t="s">
-        <v>995</v>
+        <v>224</v>
       </c>
       <c r="BW232" t="s">
         <v>96</v>
@@ -62370,7 +62388,7 @@
         <v>120</v>
       </c>
       <c r="CE232">
-        <v>98</v>
+        <v>46</v>
       </c>
     </row>
     <row r="233" spans="1:83" x14ac:dyDescent="0.15">
@@ -62378,7 +62396,7 @@
         <v>82</v>
       </c>
       <c r="B233" s="1">
-        <v>44624</v>
+        <v>44622</v>
       </c>
       <c r="C233" t="s">
         <v>1524</v>
@@ -62393,25 +62411,25 @@
         <v>226</v>
       </c>
       <c r="G233" t="s">
-        <v>1725</v>
+        <v>251</v>
       </c>
       <c r="H233" t="s">
-        <v>308</v>
+        <v>1726</v>
       </c>
       <c r="I233" t="s">
-        <v>299</v>
+        <v>418</v>
       </c>
       <c r="J233" t="s">
-        <v>458</v>
+        <v>510</v>
       </c>
       <c r="K233" t="s">
-        <v>254</v>
+        <v>91</v>
       </c>
       <c r="L233" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="M233" t="s">
-        <v>208</v>
+        <v>93</v>
       </c>
       <c r="N233" t="s">
         <v>94</v>
@@ -62423,7 +62441,7 @@
         <v>96</v>
       </c>
       <c r="Q233" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="R233" t="s">
         <v>95</v>
@@ -62441,7 +62459,7 @@
         <v>88</v>
       </c>
       <c r="W233" t="s">
-        <v>1727</v>
+        <v>1205</v>
       </c>
       <c r="X233" t="s">
         <v>88</v>
@@ -62459,7 +62477,7 @@
         <v>103</v>
       </c>
       <c r="AC233" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="AD233" t="s">
         <v>105</v>
@@ -62480,7 +62498,7 @@
         <v>99</v>
       </c>
       <c r="AK233" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="AL233" t="s">
         <v>88</v>
@@ -62492,7 +62510,7 @@
         <v>99</v>
       </c>
       <c r="AO233" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="AP233" t="s">
         <v>99</v>
@@ -62519,10 +62537,10 @@
         <v>129</v>
       </c>
       <c r="AX233" s="1">
-        <v>44624</v>
+        <v>44622</v>
       </c>
       <c r="AY233" s="1">
-        <v>44624</v>
+        <v>44619</v>
       </c>
       <c r="AZ233" t="s">
         <v>93</v>
@@ -62546,7 +62564,7 @@
         <v>1729</v>
       </c>
       <c r="BG233" s="1">
-        <v>40674</v>
+        <v>43029</v>
       </c>
       <c r="BH233" t="s">
         <v>88</v>
@@ -62558,10 +62576,10 @@
         <v>88</v>
       </c>
       <c r="BL233" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM233" t="s">
-        <v>1724</v>
+        <v>1730</v>
       </c>
       <c r="BN233" t="s">
         <v>263</v>
@@ -62615,7 +62633,7 @@
         <v>120</v>
       </c>
       <c r="CE233">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="234" spans="1:83" x14ac:dyDescent="0.15">
@@ -62623,7 +62641,7 @@
         <v>82</v>
       </c>
       <c r="B234" s="1">
-        <v>44626</v>
+        <v>44624</v>
       </c>
       <c r="C234" t="s">
         <v>1524</v>
@@ -62635,28 +62653,28 @@
         <v>250</v>
       </c>
       <c r="F234" t="s">
-        <v>520</v>
+        <v>226</v>
       </c>
       <c r="G234" t="s">
-        <v>168</v>
+        <v>1731</v>
       </c>
       <c r="H234" t="s">
-        <v>169</v>
+        <v>308</v>
       </c>
       <c r="I234" t="s">
-        <v>184</v>
+        <v>299</v>
       </c>
       <c r="J234" t="s">
-        <v>267</v>
+        <v>458</v>
       </c>
       <c r="K234" t="s">
         <v>254</v>
       </c>
       <c r="L234" t="s">
-        <v>1730</v>
+        <v>1732</v>
       </c>
       <c r="M234" t="s">
-        <v>83</v>
+        <v>208</v>
       </c>
       <c r="N234" t="s">
         <v>94</v>
@@ -62668,7 +62686,7 @@
         <v>96</v>
       </c>
       <c r="Q234" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="R234" t="s">
         <v>95</v>
@@ -62686,7 +62704,7 @@
         <v>88</v>
       </c>
       <c r="W234" t="s">
-        <v>1731</v>
+        <v>1733</v>
       </c>
       <c r="X234" t="s">
         <v>88</v>
@@ -62695,10 +62713,10 @@
         <v>88</v>
       </c>
       <c r="Z234" t="s">
-        <v>1731</v>
+        <v>1734</v>
       </c>
       <c r="AA234" t="s">
-        <v>259</v>
+        <v>132</v>
       </c>
       <c r="AB234" t="s">
         <v>103</v>
@@ -62725,7 +62743,7 @@
         <v>99</v>
       </c>
       <c r="AK234" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AL234" t="s">
         <v>88</v>
@@ -62737,7 +62755,7 @@
         <v>99</v>
       </c>
       <c r="AO234" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AP234" t="s">
         <v>99</v>
@@ -62764,7 +62782,7 @@
         <v>129</v>
       </c>
       <c r="AX234" s="1">
-        <v>44626</v>
+        <v>44624</v>
       </c>
       <c r="AY234" s="1">
         <v>44624</v>
@@ -62788,10 +62806,10 @@
         <v>155</v>
       </c>
       <c r="BF234" t="s">
-        <v>1732</v>
+        <v>1735</v>
       </c>
       <c r="BG234" s="1">
-        <v>40244</v>
+        <v>40674</v>
       </c>
       <c r="BH234" t="s">
         <v>88</v>
@@ -62803,19 +62821,19 @@
         <v>88</v>
       </c>
       <c r="BL234" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM234" t="s">
-        <v>1733</v>
+        <v>1730</v>
       </c>
       <c r="BN234" t="s">
         <v>263</v>
       </c>
       <c r="BO234" s="1">
-        <v>44628</v>
+        <v>44691</v>
       </c>
       <c r="BP234" t="s">
-        <v>885</v>
+        <v>264</v>
       </c>
       <c r="BQ234" t="s">
         <v>88</v>
@@ -62827,13 +62845,13 @@
         <v>88</v>
       </c>
       <c r="BT234" t="s">
-        <v>223</v>
+        <v>465</v>
       </c>
       <c r="BU234" t="s">
         <v>116</v>
       </c>
       <c r="BV234" t="s">
-        <v>886</v>
+        <v>995</v>
       </c>
       <c r="BW234" t="s">
         <v>96</v>
@@ -62860,7 +62878,7 @@
         <v>120</v>
       </c>
       <c r="CE234">
-        <v>44</v>
+        <v>99</v>
       </c>
     </row>
     <row r="235" spans="1:83" x14ac:dyDescent="0.15">
@@ -62868,7 +62886,7 @@
         <v>82</v>
       </c>
       <c r="B235" s="1">
-        <v>44622</v>
+        <v>44626</v>
       </c>
       <c r="C235" t="s">
         <v>1524</v>
@@ -62877,31 +62895,31 @@
         <v>84</v>
       </c>
       <c r="E235" t="s">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="F235" t="s">
-        <v>86</v>
+        <v>520</v>
       </c>
       <c r="G235" t="s">
-        <v>1573</v>
+        <v>168</v>
       </c>
       <c r="H235" t="s">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="I235" t="s">
-        <v>1734</v>
+        <v>184</v>
       </c>
       <c r="J235" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="K235" t="s">
         <v>254</v>
       </c>
       <c r="L235" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="M235" t="s">
-        <v>208</v>
+        <v>83</v>
       </c>
       <c r="N235" t="s">
         <v>94</v>
@@ -62925,19 +62943,19 @@
         <v>129</v>
       </c>
       <c r="U235" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="V235" t="s">
-        <v>215</v>
+        <v>88</v>
       </c>
       <c r="W235" t="s">
-        <v>88</v>
+        <v>1737</v>
       </c>
       <c r="X235" t="s">
         <v>88</v>
       </c>
       <c r="Y235" t="s">
-        <v>1736</v>
+        <v>88</v>
       </c>
       <c r="Z235" t="s">
         <v>1737</v>
@@ -62946,16 +62964,16 @@
         <v>259</v>
       </c>
       <c r="AB235" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="AC235" t="s">
-        <v>190</v>
+        <v>284</v>
       </c>
       <c r="AD235" t="s">
         <v>105</v>
       </c>
       <c r="AF235" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="AG235" t="s">
         <v>99</v>
@@ -63009,10 +63027,10 @@
         <v>129</v>
       </c>
       <c r="AX235" s="1">
-        <v>44622</v>
+        <v>44626</v>
       </c>
       <c r="AY235" s="1">
-        <v>44621</v>
+        <v>44624</v>
       </c>
       <c r="AZ235" t="s">
         <v>93</v>
@@ -63036,7 +63054,7 @@
         <v>1738</v>
       </c>
       <c r="BG235" s="1">
-        <v>40724</v>
+        <v>40244</v>
       </c>
       <c r="BH235" t="s">
         <v>88</v>
@@ -63048,19 +63066,19 @@
         <v>88</v>
       </c>
       <c r="BL235" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM235" t="s">
-        <v>628</v>
+        <v>1739</v>
       </c>
       <c r="BN235" t="s">
-        <v>629</v>
+        <v>263</v>
       </c>
       <c r="BO235" s="1">
-        <v>44624</v>
+        <v>44628</v>
       </c>
       <c r="BP235" t="s">
-        <v>222</v>
+        <v>885</v>
       </c>
       <c r="BQ235" t="s">
         <v>88</v>
@@ -63078,7 +63096,7 @@
         <v>116</v>
       </c>
       <c r="BV235" t="s">
-        <v>224</v>
+        <v>886</v>
       </c>
       <c r="BW235" t="s">
         <v>96</v>
@@ -63105,7 +63123,7 @@
         <v>120</v>
       </c>
       <c r="CE235">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="236" spans="1:83" x14ac:dyDescent="0.15">
@@ -63113,7 +63131,7 @@
         <v>82</v>
       </c>
       <c r="B236" s="1">
-        <v>44627</v>
+        <v>44622</v>
       </c>
       <c r="C236" t="s">
         <v>1524</v>
@@ -63128,25 +63146,25 @@
         <v>86</v>
       </c>
       <c r="G236" t="s">
-        <v>838</v>
+        <v>1573</v>
       </c>
       <c r="H236" t="s">
-        <v>380</v>
+        <v>88</v>
       </c>
       <c r="I236" t="s">
-        <v>888</v>
+        <v>1740</v>
       </c>
       <c r="J236" t="s">
-        <v>170</v>
+        <v>241</v>
       </c>
       <c r="K236" t="s">
         <v>254</v>
       </c>
       <c r="L236" t="s">
-        <v>1739</v>
+        <v>1741</v>
       </c>
       <c r="M236" t="s">
-        <v>466</v>
+        <v>208</v>
       </c>
       <c r="N236" t="s">
         <v>94</v>
@@ -63182,10 +63200,10 @@
         <v>88</v>
       </c>
       <c r="Y236" t="s">
-        <v>1740</v>
+        <v>1742</v>
       </c>
       <c r="Z236" t="s">
-        <v>1741</v>
+        <v>1743</v>
       </c>
       <c r="AA236" t="s">
         <v>259</v>
@@ -63254,10 +63272,10 @@
         <v>129</v>
       </c>
       <c r="AX236" s="1">
-        <v>44627</v>
+        <v>44622</v>
       </c>
       <c r="AY236" s="1">
-        <v>44624</v>
+        <v>44621</v>
       </c>
       <c r="AZ236" t="s">
         <v>93</v>
@@ -63278,10 +63296,10 @@
         <v>155</v>
       </c>
       <c r="BF236" t="s">
-        <v>1742</v>
+        <v>1744</v>
       </c>
       <c r="BG236" s="1">
-        <v>39656</v>
+        <v>40724</v>
       </c>
       <c r="BH236" t="s">
         <v>88</v>
@@ -63293,7 +63311,7 @@
         <v>88</v>
       </c>
       <c r="BL236" s="1">
-        <v>44859</v>
+        <v>44866</v>
       </c>
       <c r="BM236" t="s">
         <v>628</v>
@@ -63302,7 +63320,7 @@
         <v>629</v>
       </c>
       <c r="BO236" s="1">
-        <v>44628</v>
+        <v>44624</v>
       </c>
       <c r="BP236" t="s">
         <v>222</v>
@@ -63350,6 +63368,251 @@
         <v>120</v>
       </c>
       <c r="CE236">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="237" spans="1:83" x14ac:dyDescent="0.15">
+      <c r="A237" t="s">
+        <v>82</v>
+      </c>
+      <c r="B237" s="1">
+        <v>44627</v>
+      </c>
+      <c r="C237" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D237" t="s">
+        <v>84</v>
+      </c>
+      <c r="E237" t="s">
+        <v>209</v>
+      </c>
+      <c r="F237" t="s">
+        <v>86</v>
+      </c>
+      <c r="G237" t="s">
+        <v>838</v>
+      </c>
+      <c r="H237" t="s">
+        <v>380</v>
+      </c>
+      <c r="I237" t="s">
+        <v>888</v>
+      </c>
+      <c r="J237" t="s">
+        <v>170</v>
+      </c>
+      <c r="K237" t="s">
+        <v>254</v>
+      </c>
+      <c r="L237" t="s">
+        <v>1745</v>
+      </c>
+      <c r="M237" t="s">
+        <v>466</v>
+      </c>
+      <c r="N237" t="s">
+        <v>94</v>
+      </c>
+      <c r="O237" t="s">
+        <v>95</v>
+      </c>
+      <c r="P237" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q237" t="s">
+        <v>128</v>
+      </c>
+      <c r="R237" t="s">
+        <v>95</v>
+      </c>
+      <c r="S237" t="s">
+        <v>98</v>
+      </c>
+      <c r="T237" t="s">
+        <v>129</v>
+      </c>
+      <c r="U237" t="s">
+        <v>94</v>
+      </c>
+      <c r="V237" t="s">
+        <v>215</v>
+      </c>
+      <c r="W237" t="s">
+        <v>88</v>
+      </c>
+      <c r="X237" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y237" t="s">
+        <v>1746</v>
+      </c>
+      <c r="Z237" t="s">
+        <v>1747</v>
+      </c>
+      <c r="AA237" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB237" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC237" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD237" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF237" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG237" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH237" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI237" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ237" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK237" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL237" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM237" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN237" t="s">
+        <v>99</v>
+      </c>
+      <c r="AO237" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP237" t="s">
+        <v>99</v>
+      </c>
+      <c r="AQ237" t="s">
+        <v>99</v>
+      </c>
+      <c r="AR237" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS237" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT237" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU237" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV237" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW237" t="s">
+        <v>129</v>
+      </c>
+      <c r="AX237" s="1">
+        <v>44627</v>
+      </c>
+      <c r="AY237" s="1">
+        <v>44624</v>
+      </c>
+      <c r="AZ237" t="s">
+        <v>93</v>
+      </c>
+      <c r="BA237" t="s">
+        <v>99</v>
+      </c>
+      <c r="BB237" t="s">
+        <v>107</v>
+      </c>
+      <c r="BC237" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD237" t="s">
+        <v>107</v>
+      </c>
+      <c r="BE237" t="s">
+        <v>155</v>
+      </c>
+      <c r="BF237" t="s">
+        <v>1748</v>
+      </c>
+      <c r="BG237" s="1">
+        <v>39656</v>
+      </c>
+      <c r="BH237" t="s">
+        <v>88</v>
+      </c>
+      <c r="BI237" t="s">
+        <v>88</v>
+      </c>
+      <c r="BJ237" t="s">
+        <v>88</v>
+      </c>
+      <c r="BL237" s="1">
+        <v>44866</v>
+      </c>
+      <c r="BM237" t="s">
+        <v>628</v>
+      </c>
+      <c r="BN237" t="s">
+        <v>629</v>
+      </c>
+      <c r="BO237" s="1">
+        <v>44628</v>
+      </c>
+      <c r="BP237" t="s">
+        <v>222</v>
+      </c>
+      <c r="BQ237" t="s">
+        <v>88</v>
+      </c>
+      <c r="BR237" t="s">
+        <v>88</v>
+      </c>
+      <c r="BS237" t="s">
+        <v>88</v>
+      </c>
+      <c r="BT237" t="s">
+        <v>223</v>
+      </c>
+      <c r="BU237" t="s">
+        <v>116</v>
+      </c>
+      <c r="BV237" t="s">
+        <v>224</v>
+      </c>
+      <c r="BW237" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX237" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY237" t="s">
+        <v>120</v>
+      </c>
+      <c r="BZ237" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA237" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB237" t="s">
+        <v>120</v>
+      </c>
+      <c r="CC237" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD237" t="s">
+        <v>120</v>
+      </c>
+      <c r="CE237">
         <v>45</v>
       </c>
     </row>

--- a/Boletin_ Epi_Pereira/Datos/evento 831 datos basicos.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/evento 831 datos basicos.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JorgeMario/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A69714EB-8027-4F42-B81C-1B7419D5D5FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="7485" windowHeight="4140"/>
   </bookViews>
   <sheets>
     <sheet name="evento 831 datos basicos" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="277">
   <si>
     <t>cod_eve</t>
   </si>
@@ -31,6 +30,9 @@
     <t>semana</t>
   </si>
   <si>
+    <t>año</t>
+  </si>
+  <si>
     <t>cod_pre</t>
   </si>
   <si>
@@ -397,7 +399,7 @@
     <t>33</t>
   </si>
   <si>
-    <t>SALAZAR LONDO—O</t>
+    <t>SALAZAR LONDOÑO</t>
   </si>
   <si>
     <t>CRA 20 CALLE 20</t>
@@ -520,7 +522,7 @@
     <t>ALTAGRACIA</t>
   </si>
   <si>
-    <t>VIA CONDINA VEREDA CONGOLO FINCA LA CABA—A</t>
+    <t>VIA CONDINA VEREDA CONGOLO FINCA LA CABAÑA</t>
   </si>
   <si>
     <t>51690</t>
@@ -622,6 +624,42 @@
     <t>3353754</t>
   </si>
   <si>
+    <t>HERNAN</t>
+  </si>
+  <si>
+    <t>DARIO</t>
+  </si>
+  <si>
+    <t>POSADA</t>
+  </si>
+  <si>
+    <t>MORENO</t>
+  </si>
+  <si>
+    <t>1004737004</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>9999999 SIN INFORMACION</t>
+  </si>
+  <si>
+    <t>PORTAL DE BIRMANIA MZ 11 CS 11A</t>
+  </si>
+  <si>
+    <t>3125750485</t>
+  </si>
+  <si>
+    <t>NATALY PEREZ</t>
+  </si>
+  <si>
+    <t>3357454</t>
+  </si>
+  <si>
+    <t>SIVIGILA - 2018 - 18.6.2</t>
+  </si>
+  <si>
     <t>6600100217</t>
   </si>
   <si>
@@ -664,9 +702,6 @@
     <t>8914800001</t>
   </si>
   <si>
-    <t>SIVIGILA - 2018 - 18.6.2</t>
-  </si>
-  <si>
     <t>CLINICA COMFAMILIAR</t>
   </si>
   <si>
@@ -754,22 +789,77 @@
     <t>UNIDAD INTERMEDIA DE KENNEDY</t>
   </si>
   <si>
-    <t>ano</t>
+    <t>JUAN</t>
+  </si>
+  <si>
+    <t>CARDENAS</t>
+  </si>
+  <si>
+    <t>SUAREZ</t>
+  </si>
+  <si>
+    <t>1128906198</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>BOMBAY</t>
+  </si>
+  <si>
+    <t>MANZANA 52 CASA 6 BOMBAY II</t>
+  </si>
+  <si>
+    <t>3153410849</t>
+  </si>
+  <si>
+    <t>PAOLA ANDREA VALENCIA AGUDELO</t>
+  </si>
+  <si>
+    <t>3135600</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>PINO</t>
+  </si>
+  <si>
+    <t>1089381471</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>CUBA</t>
+  </si>
+  <si>
+    <t>CALLE 74 N 26 B -19 SECTOR EL OSO B CUBA</t>
+  </si>
+  <si>
+    <t>EPSS05</t>
+  </si>
+  <si>
+    <t>3052574922</t>
+  </si>
+  <si>
+    <t>ANGGIE CRISTINA REALES GUERRA</t>
+  </si>
+  <si>
+    <t>3515252</t>
+  </si>
+  <si>
+    <t>UNIDAD INTERMEDIA DE CUBA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -792,10 +882,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -898,7 +987,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -910,7 +999,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -927,9 +1016,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -957,31 +1046,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1009,23 +1081,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1178,15 +1233,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CE11"/>
+  <dimension ref="A1:CE14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:83" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1196,391 +1249,391 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>244</v>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AG1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AH1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AI1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AJ1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AK1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AL1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AM1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AN1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AO1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AP1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AQ1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AR1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AS1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AT1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AU1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AV1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AW1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AX1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AY1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AZ1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="BA1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BB1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="BC1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="BD1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="BE1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BF1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BG1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BH1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BI1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BJ1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BK1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BL1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BM1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BN1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="BO1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BP1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BQ1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="BR1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="BS1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="BT1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="BU1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="BV1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BW1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="BX1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BY1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BZ1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="CA1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="CB1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="CC1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="CD1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="CE1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:83" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B2" s="1">
         <v>44929</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P2" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>97</v>
+      </c>
+      <c r="R2" t="s">
         <v>95</v>
       </c>
-      <c r="Q2" t="s">
-        <v>96</v>
-      </c>
-      <c r="R2" t="s">
-        <v>94</v>
-      </c>
       <c r="S2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="T2" t="s">
+        <v>99</v>
+      </c>
+      <c r="U2" t="s">
+        <v>84</v>
+      </c>
+      <c r="V2" t="s">
+        <v>100</v>
+      </c>
+      <c r="W2" t="s">
+        <v>101</v>
+      </c>
+      <c r="X2" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV2" t="s">
         <v>98</v>
       </c>
-      <c r="U2" t="s">
-        <v>83</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="AW2" t="s">
         <v>99</v>
-      </c>
-      <c r="W2" t="s">
-        <v>100</v>
-      </c>
-      <c r="X2" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>100</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>100</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>100</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>98</v>
       </c>
       <c r="AX2" s="1">
         <v>44929</v>
@@ -1589,243 +1642,243 @@
         <v>44927</v>
       </c>
       <c r="AZ2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BA2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="BB2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="BC2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="BD2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="BE2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="BF2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="BG2" s="1">
         <v>37376</v>
       </c>
       <c r="BH2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BI2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BJ2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BL2" s="1">
-        <v>44957</v>
+        <v>44964</v>
       </c>
       <c r="BM2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="BN2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="BO2" s="1">
         <v>44930</v>
       </c>
       <c r="BP2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="BQ2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BR2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BS2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BT2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="BU2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="BV2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="BW2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="BX2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="BY2" t="s">
+        <v>120</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA2" t="s">
         <v>119</v>
       </c>
-      <c r="BZ2" t="s">
-        <v>95</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>118</v>
-      </c>
       <c r="CB2" t="s">
+        <v>120</v>
+      </c>
+      <c r="CC2" t="s">
         <v>119</v>
       </c>
-      <c r="CC2" t="s">
-        <v>118</v>
-      </c>
       <c r="CD2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="CE2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:83" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3" s="1">
         <v>44929</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P3" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>97</v>
+      </c>
+      <c r="R3" t="s">
         <v>95</v>
       </c>
-      <c r="Q3" t="s">
-        <v>96</v>
-      </c>
-      <c r="R3" t="s">
-        <v>94</v>
-      </c>
       <c r="S3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="T3" t="s">
+        <v>99</v>
+      </c>
+      <c r="U3" t="s">
+        <v>84</v>
+      </c>
+      <c r="V3" t="s">
+        <v>100</v>
+      </c>
+      <c r="W3" t="s">
+        <v>101</v>
+      </c>
+      <c r="X3" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV3" t="s">
         <v>98</v>
       </c>
-      <c r="U3" t="s">
-        <v>83</v>
-      </c>
-      <c r="V3" t="s">
+      <c r="AW3" t="s">
         <v>99</v>
-      </c>
-      <c r="W3" t="s">
-        <v>100</v>
-      </c>
-      <c r="X3" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>125</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>126</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>106</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>98</v>
       </c>
       <c r="AX3" s="1">
         <v>44929</v>
@@ -1834,243 +1887,243 @@
         <v>44929</v>
       </c>
       <c r="AZ3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BA3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="BB3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="BC3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="BD3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="BE3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="BF3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="BG3" s="1">
         <v>32760</v>
       </c>
       <c r="BH3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BI3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BJ3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BL3" s="1">
-        <v>44957</v>
+        <v>44964</v>
       </c>
       <c r="BM3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="BN3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BO3" s="1">
         <v>44933</v>
       </c>
       <c r="BP3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="BQ3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BR3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BS3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BT3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="BU3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="BV3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="BW3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="BX3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="BY3" t="s">
+        <v>120</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA3" t="s">
         <v>119</v>
       </c>
-      <c r="BZ3" t="s">
-        <v>95</v>
-      </c>
-      <c r="CA3" t="s">
-        <v>118</v>
-      </c>
       <c r="CB3" t="s">
+        <v>120</v>
+      </c>
+      <c r="CC3" t="s">
         <v>119</v>
       </c>
-      <c r="CC3" t="s">
-        <v>118</v>
-      </c>
       <c r="CD3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="CE3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:83" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B4" s="1">
         <v>44929</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P4" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>97</v>
+      </c>
+      <c r="R4" t="s">
         <v>95</v>
       </c>
-      <c r="Q4" t="s">
-        <v>96</v>
-      </c>
-      <c r="R4" t="s">
-        <v>94</v>
-      </c>
       <c r="S4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="T4" t="s">
+        <v>99</v>
+      </c>
+      <c r="U4" t="s">
+        <v>84</v>
+      </c>
+      <c r="V4" t="s">
+        <v>100</v>
+      </c>
+      <c r="W4" t="s">
+        <v>101</v>
+      </c>
+      <c r="X4" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV4" t="s">
         <v>98</v>
       </c>
-      <c r="U4" t="s">
-        <v>83</v>
-      </c>
-      <c r="V4" t="s">
+      <c r="AW4" t="s">
         <v>99</v>
-      </c>
-      <c r="W4" t="s">
-        <v>100</v>
-      </c>
-      <c r="X4" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>125</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>107</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>107</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>107</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>107</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>107</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>107</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>107</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>107</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>98</v>
       </c>
       <c r="AX4" s="1">
         <v>44929</v>
@@ -2079,243 +2132,243 @@
         <v>44928</v>
       </c>
       <c r="AZ4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BA4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="BB4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="BC4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="BD4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="BE4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="BF4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="BG4" s="1">
         <v>32760</v>
       </c>
       <c r="BH4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BI4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BJ4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BL4" s="1">
-        <v>44957</v>
+        <v>44964</v>
       </c>
       <c r="BM4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BN4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BO4" s="1">
         <v>44944</v>
       </c>
       <c r="BP4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="BQ4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BR4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BS4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BT4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BU4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="BV4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="BW4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="BX4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="BY4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA4" t="s">
         <v>119</v>
       </c>
-      <c r="BZ4" t="s">
-        <v>95</v>
-      </c>
-      <c r="CA4" t="s">
-        <v>118</v>
-      </c>
       <c r="CB4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CC4" t="s">
         <v>119</v>
       </c>
-      <c r="CC4" t="s">
-        <v>118</v>
-      </c>
       <c r="CD4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="CE4">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:83" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B5" s="1">
         <v>44932</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P5" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>143</v>
+      </c>
+      <c r="R5" t="s">
         <v>95</v>
       </c>
-      <c r="Q5" t="s">
-        <v>142</v>
-      </c>
-      <c r="R5" t="s">
-        <v>94</v>
-      </c>
       <c r="S5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="T5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="U5" t="s">
+        <v>145</v>
+      </c>
+      <c r="V5" t="s">
+        <v>101</v>
+      </c>
+      <c r="W5" t="s">
+        <v>101</v>
+      </c>
+      <c r="X5" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>152</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW5" t="s">
         <v>144</v>
-      </c>
-      <c r="V5" t="s">
-        <v>100</v>
-      </c>
-      <c r="W5" t="s">
-        <v>100</v>
-      </c>
-      <c r="X5" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>146</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>148</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>149</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>150</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>107</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>107</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>151</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>107</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>107</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>107</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>107</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>107</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>107</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>107</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>83</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>143</v>
       </c>
       <c r="AX5" s="1">
         <v>44932</v>
@@ -2324,243 +2377,243 @@
         <v>44929</v>
       </c>
       <c r="AZ5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BA5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="BB5" s="1">
         <v>44932</v>
       </c>
       <c r="BC5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="BD5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="BE5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="BF5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="BG5" s="1">
         <v>33142</v>
       </c>
       <c r="BH5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BI5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BJ5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BL5" s="1">
-        <v>44957</v>
+        <v>44964</v>
       </c>
       <c r="BM5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="BN5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="BO5" s="1">
         <v>44936</v>
       </c>
       <c r="BP5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="BQ5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BR5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BS5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BT5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="BU5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="BV5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="BW5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="BX5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="BY5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="BZ5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="CA5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="CB5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="CC5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="CD5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="CE5">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:83" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B6" s="1">
         <v>44930</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P6" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>97</v>
+      </c>
+      <c r="R6" t="s">
         <v>95</v>
       </c>
-      <c r="Q6" t="s">
-        <v>96</v>
-      </c>
-      <c r="R6" t="s">
-        <v>94</v>
-      </c>
       <c r="S6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="T6" t="s">
+        <v>99</v>
+      </c>
+      <c r="U6" t="s">
+        <v>145</v>
+      </c>
+      <c r="V6" t="s">
+        <v>101</v>
+      </c>
+      <c r="W6" t="s">
+        <v>101</v>
+      </c>
+      <c r="X6" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>169</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV6" t="s">
         <v>98</v>
       </c>
-      <c r="U6" t="s">
-        <v>144</v>
-      </c>
-      <c r="V6" t="s">
-        <v>100</v>
-      </c>
-      <c r="W6" t="s">
-        <v>100</v>
-      </c>
-      <c r="X6" t="s">
-        <v>165</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>167</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>168</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>106</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>107</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>107</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>100</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>100</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>107</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>107</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>100</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>107</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>107</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>107</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>83</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>83</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV6" t="s">
-        <v>97</v>
-      </c>
       <c r="AW6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AX6" s="1">
         <v>44930</v>
@@ -2569,243 +2622,243 @@
         <v>44928</v>
       </c>
       <c r="AZ6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BA6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="BB6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="BC6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="BD6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="BE6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="BF6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="BG6" s="1">
         <v>33989</v>
       </c>
       <c r="BH6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BI6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BJ6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BL6" s="1">
-        <v>44957</v>
+        <v>44964</v>
       </c>
       <c r="BM6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="BN6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="BO6" s="1">
         <v>44931</v>
       </c>
       <c r="BP6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="BQ6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BR6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BS6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BT6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="BU6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="BV6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="BW6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="BX6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="BY6" t="s">
+        <v>120</v>
+      </c>
+      <c r="BZ6" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA6" t="s">
         <v>119</v>
       </c>
-      <c r="BZ6" t="s">
-        <v>95</v>
-      </c>
-      <c r="CA6" t="s">
-        <v>118</v>
-      </c>
       <c r="CB6" t="s">
+        <v>120</v>
+      </c>
+      <c r="CC6" t="s">
         <v>119</v>
       </c>
-      <c r="CC6" t="s">
-        <v>118</v>
-      </c>
       <c r="CD6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="CE6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:83" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B7" s="1">
         <v>44937</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>143</v>
+      </c>
+      <c r="R7" t="s">
         <v>95</v>
       </c>
-      <c r="Q7" t="s">
-        <v>142</v>
-      </c>
-      <c r="R7" t="s">
-        <v>94</v>
-      </c>
       <c r="S7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="T7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="U7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="V7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="W7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="X7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Y7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Z7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AA7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AB7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AC7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AD7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AF7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AH7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AI7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AJ7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AK7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AL7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AM7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AN7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AO7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AP7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AQ7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AR7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AS7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AT7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AU7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AV7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AW7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AX7" s="1">
         <v>44937</v>
@@ -2814,243 +2867,243 @@
         <v>44929</v>
       </c>
       <c r="AZ7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BA7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="BB7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="BC7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="BD7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="BE7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="BF7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BG7" s="1">
         <v>30937</v>
       </c>
       <c r="BH7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BI7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BJ7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BL7" s="1">
-        <v>44957</v>
+        <v>44964</v>
       </c>
       <c r="BM7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="BN7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="BO7" s="1">
         <v>44937</v>
       </c>
       <c r="BP7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="BQ7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BR7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BS7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BT7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="BU7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="BV7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="BW7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="BX7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="BY7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="BZ7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="CA7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="CB7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CC7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="CD7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="CE7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:83" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B8" s="1">
         <v>44933</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="S8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="T8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="U8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="V8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="W8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="X8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Y8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Z8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AA8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AC8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AD8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AF8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AH8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AI8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AJ8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AK8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AM8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AN8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AO8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AP8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AQ8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AR8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AS8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AT8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AU8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AV8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AW8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AX8" s="1">
         <v>44933</v>
@@ -3059,832 +3112,1567 @@
         <v>44930</v>
       </c>
       <c r="AZ8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BA8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="BB8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="BC8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="BD8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="BE8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="BF8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="BG8" s="1">
         <v>34866</v>
       </c>
       <c r="BH8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BI8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BJ8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BL8" s="1">
-        <v>44957</v>
+        <v>44964</v>
       </c>
       <c r="BM8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="BN8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="BO8" s="1">
         <v>44933</v>
       </c>
       <c r="BP8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="BQ8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BR8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BS8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BT8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="BU8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="BV8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="BW8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="BX8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="BY8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="BZ8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="CA8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="CB8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CC8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="CD8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="CE8">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:83" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B9" s="1">
         <v>44948</v>
       </c>
       <c r="C9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E9" t="s">
-        <v>200</v>
+        <v>86</v>
       </c>
       <c r="F9" t="s">
-        <v>151</v>
+        <v>87</v>
       </c>
       <c r="G9" t="s">
         <v>201</v>
       </c>
       <c r="H9" t="s">
-        <v>100</v>
+        <v>202</v>
       </c>
       <c r="I9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P9" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>97</v>
+      </c>
+      <c r="R9" t="s">
         <v>95</v>
       </c>
-      <c r="Q9" t="s">
-        <v>142</v>
-      </c>
-      <c r="R9" t="s">
-        <v>94</v>
-      </c>
       <c r="S9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="T9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U9" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="V9" t="s">
         <v>100</v>
       </c>
       <c r="W9" t="s">
+        <v>101</v>
+      </c>
+      <c r="X9" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>208</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>169</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW9" t="s">
         <v>99</v>
-      </c>
-      <c r="X9" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>206</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>207</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>208</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>106</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>107</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>107</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>107</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>100</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>107</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>107</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>107</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>107</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>107</v>
-      </c>
-      <c r="AR9" t="s">
-        <v>107</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>83</v>
-      </c>
-      <c r="AT9" t="s">
-        <v>83</v>
-      </c>
-      <c r="AU9" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV9" t="s">
-        <v>209</v>
-      </c>
-      <c r="AW9" t="s">
-        <v>98</v>
       </c>
       <c r="AX9" s="1">
         <v>44948</v>
       </c>
       <c r="AY9" s="1">
+        <v>44945</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>109</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>108</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>110</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>110</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>111</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>209</v>
+      </c>
+      <c r="BG9" s="1">
+        <v>36520</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>101</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>101</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>101</v>
+      </c>
+      <c r="BL9" s="1">
+        <v>44964</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>210</v>
+      </c>
+      <c r="BN9" t="s">
+        <v>211</v>
+      </c>
+      <c r="BO9" s="1">
+        <v>44959</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>115</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>101</v>
+      </c>
+      <c r="BR9" t="s">
+        <v>101</v>
+      </c>
+      <c r="BS9" t="s">
+        <v>101</v>
+      </c>
+      <c r="BT9" t="s">
+        <v>212</v>
+      </c>
+      <c r="BU9" t="s">
+        <v>117</v>
+      </c>
+      <c r="BV9" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW9" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX9" t="s">
+        <v>119</v>
+      </c>
+      <c r="BY9" t="s">
+        <v>120</v>
+      </c>
+      <c r="BZ9" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA9" t="s">
+        <v>119</v>
+      </c>
+      <c r="CB9" t="s">
+        <v>120</v>
+      </c>
+      <c r="CC9" t="s">
+        <v>119</v>
+      </c>
+      <c r="CD9" t="s">
+        <v>120</v>
+      </c>
+      <c r="CE9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="1">
+        <v>44948</v>
+      </c>
+      <c r="C10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" t="s">
+        <v>213</v>
+      </c>
+      <c r="F10" t="s">
+        <v>152</v>
+      </c>
+      <c r="G10" t="s">
+        <v>214</v>
+      </c>
+      <c r="H10" t="s">
+        <v>101</v>
+      </c>
+      <c r="I10" t="s">
+        <v>215</v>
+      </c>
+      <c r="J10" t="s">
+        <v>216</v>
+      </c>
+      <c r="K10" t="s">
+        <v>92</v>
+      </c>
+      <c r="L10" t="s">
+        <v>217</v>
+      </c>
+      <c r="M10" t="s">
+        <v>218</v>
+      </c>
+      <c r="N10" t="s">
+        <v>84</v>
+      </c>
+      <c r="O10" t="s">
+        <v>95</v>
+      </c>
+      <c r="P10" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>143</v>
+      </c>
+      <c r="R10" t="s">
+        <v>95</v>
+      </c>
+      <c r="S10" t="s">
+        <v>98</v>
+      </c>
+      <c r="T10" t="s">
+        <v>99</v>
+      </c>
+      <c r="U10" t="s">
+        <v>108</v>
+      </c>
+      <c r="V10" t="s">
+        <v>101</v>
+      </c>
+      <c r="W10" t="s">
+        <v>100</v>
+      </c>
+      <c r="X10" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>220</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>222</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX10" s="1">
+        <v>44948</v>
+      </c>
+      <c r="AY10" s="1">
         <v>44943</v>
       </c>
-      <c r="AZ9" t="s">
-        <v>108</v>
-      </c>
-      <c r="BA9" t="s">
-        <v>107</v>
-      </c>
-      <c r="BB9" t="s">
+      <c r="AZ10" t="s">
         <v>109</v>
       </c>
-      <c r="BC9" t="s">
+      <c r="BA10" t="s">
+        <v>108</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>110</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>110</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>223</v>
+      </c>
+      <c r="BG10" s="1">
+        <v>33834</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>101</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>101</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>101</v>
+      </c>
+      <c r="BL10" s="1">
+        <v>44964</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>224</v>
+      </c>
+      <c r="BN10" t="s">
+        <v>225</v>
+      </c>
+      <c r="BO10" s="1">
+        <v>44950</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>226</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>101</v>
+      </c>
+      <c r="BR10" t="s">
+        <v>101</v>
+      </c>
+      <c r="BS10" t="s">
+        <v>101</v>
+      </c>
+      <c r="BT10" t="s">
+        <v>212</v>
+      </c>
+      <c r="BU10" t="s">
+        <v>117</v>
+      </c>
+      <c r="BV10" t="s">
+        <v>227</v>
+      </c>
+      <c r="BW10" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX10" t="s">
+        <v>119</v>
+      </c>
+      <c r="BY10" t="s">
+        <v>120</v>
+      </c>
+      <c r="BZ10" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA10" t="s">
+        <v>228</v>
+      </c>
+      <c r="CB10" t="s">
+        <v>228</v>
+      </c>
+      <c r="CC10" t="s">
+        <v>119</v>
+      </c>
+      <c r="CD10" t="s">
+        <v>120</v>
+      </c>
+      <c r="CE10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>83</v>
-      </c>
-      <c r="BD9" t="s">
-        <v>109</v>
-      </c>
-      <c r="BE9" t="s">
-        <v>110</v>
-      </c>
-      <c r="BF9" t="s">
-        <v>210</v>
-      </c>
-      <c r="BG9" s="1">
-        <v>33834</v>
-      </c>
-      <c r="BH9" t="s">
-        <v>100</v>
-      </c>
-      <c r="BI9" t="s">
-        <v>100</v>
-      </c>
-      <c r="BJ9" t="s">
-        <v>100</v>
-      </c>
-      <c r="BL9" s="1">
-        <v>44957</v>
-      </c>
-      <c r="BM9" t="s">
-        <v>211</v>
-      </c>
-      <c r="BN9" t="s">
-        <v>212</v>
-      </c>
-      <c r="BO9" s="1">
-        <v>44950</v>
-      </c>
-      <c r="BP9" t="s">
-        <v>213</v>
-      </c>
-      <c r="BQ9" t="s">
-        <v>100</v>
-      </c>
-      <c r="BR9" t="s">
-        <v>100</v>
-      </c>
-      <c r="BS9" t="s">
-        <v>100</v>
-      </c>
-      <c r="BT9" t="s">
-        <v>214</v>
-      </c>
-      <c r="BU9" t="s">
-        <v>116</v>
-      </c>
-      <c r="BV9" t="s">
-        <v>215</v>
-      </c>
-      <c r="BW9" t="s">
-        <v>95</v>
-      </c>
-      <c r="BX9" t="s">
-        <v>118</v>
-      </c>
-      <c r="BY9" t="s">
-        <v>119</v>
-      </c>
-      <c r="BZ9" t="s">
-        <v>95</v>
-      </c>
-      <c r="CA9" t="s">
-        <v>216</v>
-      </c>
-      <c r="CB9" t="s">
-        <v>216</v>
-      </c>
-      <c r="CC9" t="s">
-        <v>118</v>
-      </c>
-      <c r="CD9" t="s">
-        <v>119</v>
-      </c>
-      <c r="CE9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:83" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="1">
-        <v>44949</v>
-      </c>
-      <c r="C10" t="s">
-        <v>144</v>
-      </c>
-      <c r="D10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E10" t="s">
-        <v>200</v>
-      </c>
-      <c r="F10" t="s">
-        <v>151</v>
-      </c>
-      <c r="G10" t="s">
-        <v>217</v>
-      </c>
-      <c r="H10" t="s">
-        <v>218</v>
-      </c>
-      <c r="I10" t="s">
-        <v>219</v>
-      </c>
-      <c r="J10" t="s">
-        <v>220</v>
-      </c>
-      <c r="K10" t="s">
-        <v>221</v>
-      </c>
-      <c r="L10" t="s">
-        <v>222</v>
-      </c>
-      <c r="M10" t="s">
-        <v>83</v>
-      </c>
-      <c r="N10" t="s">
-        <v>83</v>
-      </c>
-      <c r="O10" t="s">
-        <v>94</v>
-      </c>
-      <c r="P10" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>96</v>
-      </c>
-      <c r="R10" t="s">
-        <v>94</v>
-      </c>
-      <c r="S10" t="s">
-        <v>97</v>
-      </c>
-      <c r="T10" t="s">
-        <v>98</v>
-      </c>
-      <c r="U10" t="s">
-        <v>107</v>
-      </c>
-      <c r="V10" t="s">
-        <v>100</v>
-      </c>
-      <c r="W10" t="s">
-        <v>223</v>
-      </c>
-      <c r="X10" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>224</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>225</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>106</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>108</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>107</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>107</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>100</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>100</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>107</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>107</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>100</v>
-      </c>
-      <c r="AP10" t="s">
-        <v>107</v>
-      </c>
-      <c r="AQ10" t="s">
-        <v>107</v>
-      </c>
-      <c r="AR10" t="s">
-        <v>107</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>83</v>
-      </c>
-      <c r="AT10" t="s">
-        <v>107</v>
-      </c>
-      <c r="AU10" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV10" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW10" t="s">
-        <v>98</v>
-      </c>
-      <c r="AX10" s="1">
-        <v>44949</v>
-      </c>
-      <c r="AY10" s="1">
-        <v>44946</v>
-      </c>
-      <c r="AZ10" t="s">
-        <v>108</v>
-      </c>
-      <c r="BA10" t="s">
-        <v>107</v>
-      </c>
-      <c r="BB10" t="s">
-        <v>109</v>
-      </c>
-      <c r="BC10" t="s">
-        <v>83</v>
-      </c>
-      <c r="BD10" t="s">
-        <v>109</v>
-      </c>
-      <c r="BE10" t="s">
-        <v>110</v>
-      </c>
-      <c r="BF10" t="s">
-        <v>226</v>
-      </c>
-      <c r="BG10" s="1">
-        <v>44322</v>
-      </c>
-      <c r="BH10" t="s">
-        <v>100</v>
-      </c>
-      <c r="BI10" t="s">
-        <v>100</v>
-      </c>
-      <c r="BJ10" t="s">
-        <v>100</v>
-      </c>
-      <c r="BL10" s="1">
-        <v>44957</v>
-      </c>
-      <c r="BM10" t="s">
-        <v>227</v>
-      </c>
-      <c r="BN10" t="s">
-        <v>228</v>
-      </c>
-      <c r="BO10" s="1">
-        <v>44956</v>
-      </c>
-      <c r="BP10" t="s">
-        <v>213</v>
-      </c>
-      <c r="BQ10" t="s">
-        <v>100</v>
-      </c>
-      <c r="BR10" t="s">
-        <v>100</v>
-      </c>
-      <c r="BS10" t="s">
-        <v>100</v>
-      </c>
-      <c r="BT10" t="s">
-        <v>214</v>
-      </c>
-      <c r="BU10" t="s">
-        <v>116</v>
-      </c>
-      <c r="BV10" t="s">
-        <v>215</v>
-      </c>
-      <c r="BW10" t="s">
-        <v>95</v>
-      </c>
-      <c r="BX10" t="s">
-        <v>118</v>
-      </c>
-      <c r="BY10" t="s">
-        <v>119</v>
-      </c>
-      <c r="BZ10" t="s">
-        <v>95</v>
-      </c>
-      <c r="CA10" t="s">
-        <v>118</v>
-      </c>
-      <c r="CB10" t="s">
-        <v>119</v>
-      </c>
-      <c r="CC10" t="s">
-        <v>118</v>
-      </c>
-      <c r="CD10" t="s">
-        <v>119</v>
-      </c>
-      <c r="CE10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:83" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>82</v>
       </c>
       <c r="B11" s="1">
         <v>44949</v>
       </c>
       <c r="C11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E11" t="s">
+        <v>213</v>
+      </c>
+      <c r="F11" t="s">
+        <v>152</v>
+      </c>
+      <c r="G11" t="s">
         <v>229</v>
       </c>
-      <c r="F11" t="s">
-        <v>86</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>230</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>231</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>232</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>233</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>234</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
+        <v>84</v>
+      </c>
+      <c r="N11" t="s">
+        <v>84</v>
+      </c>
+      <c r="O11" t="s">
+        <v>95</v>
+      </c>
+      <c r="P11" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>97</v>
+      </c>
+      <c r="R11" t="s">
+        <v>95</v>
+      </c>
+      <c r="S11" t="s">
+        <v>98</v>
+      </c>
+      <c r="T11" t="s">
+        <v>99</v>
+      </c>
+      <c r="U11" t="s">
+        <v>108</v>
+      </c>
+      <c r="V11" t="s">
+        <v>101</v>
+      </c>
+      <c r="W11" t="s">
         <v>235</v>
       </c>
-      <c r="M11" t="s">
+      <c r="X11" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z11" t="s">
         <v>236</v>
       </c>
-      <c r="N11" t="s">
-        <v>83</v>
-      </c>
-      <c r="O11" t="s">
-        <v>94</v>
-      </c>
-      <c r="P11" t="s">
+      <c r="AA11" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>237</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AU11" t="s">
         <v>95</v>
       </c>
-      <c r="Q11" t="s">
-        <v>96</v>
-      </c>
-      <c r="R11" t="s">
-        <v>94</v>
-      </c>
-      <c r="S11" t="s">
-        <v>97</v>
-      </c>
-      <c r="T11" t="s">
+      <c r="AV11" t="s">
         <v>98</v>
       </c>
-      <c r="U11" t="s">
-        <v>107</v>
-      </c>
-      <c r="V11" t="s">
-        <v>100</v>
-      </c>
-      <c r="W11" t="s">
-        <v>237</v>
-      </c>
-      <c r="X11" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>238</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>148</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>149</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>106</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>107</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>107</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>107</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>107</v>
-      </c>
-      <c r="AO11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AP11" t="s">
-        <v>107</v>
-      </c>
-      <c r="AQ11" t="s">
-        <v>107</v>
-      </c>
-      <c r="AR11" t="s">
-        <v>107</v>
-      </c>
-      <c r="AS11" t="s">
-        <v>83</v>
-      </c>
-      <c r="AT11" t="s">
-        <v>83</v>
-      </c>
-      <c r="AU11" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV11" t="s">
-        <v>97</v>
-      </c>
       <c r="AW11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AX11" s="1">
         <v>44949</v>
       </c>
       <c r="AY11" s="1">
+        <v>44946</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>109</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>108</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>110</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>110</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>111</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>238</v>
+      </c>
+      <c r="BG11" s="1">
+        <v>44322</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>101</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>101</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>101</v>
+      </c>
+      <c r="BL11" s="1">
+        <v>44964</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>239</v>
+      </c>
+      <c r="BN11" t="s">
+        <v>240</v>
+      </c>
+      <c r="BO11" s="1">
+        <v>44956</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>226</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>101</v>
+      </c>
+      <c r="BR11" t="s">
+        <v>101</v>
+      </c>
+      <c r="BS11" t="s">
+        <v>101</v>
+      </c>
+      <c r="BT11" t="s">
+        <v>212</v>
+      </c>
+      <c r="BU11" t="s">
+        <v>117</v>
+      </c>
+      <c r="BV11" t="s">
+        <v>227</v>
+      </c>
+      <c r="BW11" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX11" t="s">
+        <v>119</v>
+      </c>
+      <c r="BY11" t="s">
+        <v>120</v>
+      </c>
+      <c r="BZ11" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA11" t="s">
+        <v>119</v>
+      </c>
+      <c r="CB11" t="s">
+        <v>120</v>
+      </c>
+      <c r="CC11" t="s">
+        <v>119</v>
+      </c>
+      <c r="CD11" t="s">
+        <v>120</v>
+      </c>
+      <c r="CE11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="1">
+        <v>44949</v>
+      </c>
+      <c r="C12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" t="s">
+        <v>241</v>
+      </c>
+      <c r="F12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" t="s">
+        <v>242</v>
+      </c>
+      <c r="H12" t="s">
+        <v>243</v>
+      </c>
+      <c r="I12" t="s">
+        <v>244</v>
+      </c>
+      <c r="J12" t="s">
+        <v>245</v>
+      </c>
+      <c r="K12" t="s">
+        <v>246</v>
+      </c>
+      <c r="L12" t="s">
+        <v>247</v>
+      </c>
+      <c r="M12" t="s">
+        <v>248</v>
+      </c>
+      <c r="N12" t="s">
+        <v>84</v>
+      </c>
+      <c r="O12" t="s">
+        <v>95</v>
+      </c>
+      <c r="P12" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>97</v>
+      </c>
+      <c r="R12" t="s">
+        <v>95</v>
+      </c>
+      <c r="S12" t="s">
+        <v>98</v>
+      </c>
+      <c r="T12" t="s">
+        <v>99</v>
+      </c>
+      <c r="U12" t="s">
+        <v>108</v>
+      </c>
+      <c r="V12" t="s">
+        <v>101</v>
+      </c>
+      <c r="W12" t="s">
+        <v>249</v>
+      </c>
+      <c r="X12" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>250</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>108</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>108</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>108</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX12" s="1">
+        <v>44949</v>
+      </c>
+      <c r="AY12" s="1">
         <v>44947</v>
       </c>
-      <c r="AZ11" t="s">
-        <v>108</v>
-      </c>
-      <c r="BA11" t="s">
+      <c r="AZ12" t="s">
+        <v>109</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>108</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>110</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>110</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>111</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>251</v>
+      </c>
+      <c r="BG12" s="1">
+        <v>41819</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>101</v>
+      </c>
+      <c r="BI12" t="s">
+        <v>101</v>
+      </c>
+      <c r="BJ12" t="s">
+        <v>101</v>
+      </c>
+      <c r="BL12" s="1">
+        <v>44964</v>
+      </c>
+      <c r="BM12" t="s">
+        <v>252</v>
+      </c>
+      <c r="BN12" t="s">
+        <v>253</v>
+      </c>
+      <c r="BO12" s="1">
+        <v>44950</v>
+      </c>
+      <c r="BP12" t="s">
+        <v>254</v>
+      </c>
+      <c r="BQ12" t="s">
+        <v>101</v>
+      </c>
+      <c r="BR12" t="s">
+        <v>101</v>
+      </c>
+      <c r="BS12" t="s">
+        <v>101</v>
+      </c>
+      <c r="BT12" t="s">
+        <v>136</v>
+      </c>
+      <c r="BU12" t="s">
+        <v>117</v>
+      </c>
+      <c r="BV12" t="s">
+        <v>255</v>
+      </c>
+      <c r="BW12" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX12" t="s">
+        <v>119</v>
+      </c>
+      <c r="BY12" t="s">
+        <v>120</v>
+      </c>
+      <c r="BZ12" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA12" t="s">
+        <v>119</v>
+      </c>
+      <c r="CB12" t="s">
+        <v>120</v>
+      </c>
+      <c r="CC12" t="s">
+        <v>119</v>
+      </c>
+      <c r="CD12" t="s">
+        <v>120</v>
+      </c>
+      <c r="CE12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="1">
+        <v>44955</v>
+      </c>
+      <c r="C13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" t="s">
+        <v>213</v>
+      </c>
+      <c r="F13" t="s">
+        <v>152</v>
+      </c>
+      <c r="G13" t="s">
+        <v>256</v>
+      </c>
+      <c r="H13" t="s">
+        <v>188</v>
+      </c>
+      <c r="I13" t="s">
+        <v>257</v>
+      </c>
+      <c r="J13" t="s">
+        <v>258</v>
+      </c>
+      <c r="K13" t="s">
+        <v>246</v>
+      </c>
+      <c r="L13" t="s">
+        <v>259</v>
+      </c>
+      <c r="M13" t="s">
+        <v>260</v>
+      </c>
+      <c r="N13" t="s">
+        <v>84</v>
+      </c>
+      <c r="O13" t="s">
+        <v>95</v>
+      </c>
+      <c r="P13" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>97</v>
+      </c>
+      <c r="R13" t="s">
+        <v>95</v>
+      </c>
+      <c r="S13" t="s">
+        <v>98</v>
+      </c>
+      <c r="T13" t="s">
+        <v>95</v>
+      </c>
+      <c r="U13" t="s">
+        <v>108</v>
+      </c>
+      <c r="V13" t="s">
+        <v>101</v>
+      </c>
+      <c r="W13" t="s">
+        <v>261</v>
+      </c>
+      <c r="X13" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>262</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD13" t="s">
         <v>107</v>
       </c>
-      <c r="BB11" t="s">
+      <c r="AF13" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>95</v>
+      </c>
+      <c r="AX13" s="1">
+        <v>44955</v>
+      </c>
+      <c r="AY13" s="1">
+        <v>44953</v>
+      </c>
+      <c r="AZ13" t="s">
         <v>109</v>
       </c>
-      <c r="BC11" t="s">
+      <c r="BA13" t="s">
+        <v>108</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>110</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>110</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>111</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>263</v>
+      </c>
+      <c r="BG13" s="1">
+        <v>40075</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>101</v>
+      </c>
+      <c r="BI13" t="s">
+        <v>101</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>101</v>
+      </c>
+      <c r="BL13" s="1">
+        <v>44964</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>264</v>
+      </c>
+      <c r="BN13" t="s">
+        <v>265</v>
+      </c>
+      <c r="BO13" s="1">
+        <v>44957</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>226</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>101</v>
+      </c>
+      <c r="BR13" t="s">
+        <v>101</v>
+      </c>
+      <c r="BS13" t="s">
+        <v>101</v>
+      </c>
+      <c r="BT13" t="s">
+        <v>136</v>
+      </c>
+      <c r="BU13" t="s">
+        <v>117</v>
+      </c>
+      <c r="BV13" t="s">
+        <v>227</v>
+      </c>
+      <c r="BW13" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX13" t="s">
+        <v>119</v>
+      </c>
+      <c r="BY13" t="s">
+        <v>186</v>
+      </c>
+      <c r="BZ13" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA13" t="s">
+        <v>119</v>
+      </c>
+      <c r="CB13" t="s">
+        <v>186</v>
+      </c>
+      <c r="CC13" t="s">
+        <v>119</v>
+      </c>
+      <c r="CD13" t="s">
+        <v>120</v>
+      </c>
+      <c r="CE13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>83</v>
       </c>
-      <c r="BD11" t="s">
+      <c r="B14" s="1">
+        <v>44959</v>
+      </c>
+      <c r="C14" t="s">
+        <v>151</v>
+      </c>
+      <c r="D14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" t="s">
+        <v>241</v>
+      </c>
+      <c r="F14" t="s">
+        <v>160</v>
+      </c>
+      <c r="G14" t="s">
+        <v>175</v>
+      </c>
+      <c r="H14" t="s">
+        <v>188</v>
+      </c>
+      <c r="I14" t="s">
+        <v>266</v>
+      </c>
+      <c r="J14" t="s">
+        <v>267</v>
+      </c>
+      <c r="K14" t="s">
+        <v>246</v>
+      </c>
+      <c r="L14" t="s">
+        <v>268</v>
+      </c>
+      <c r="M14" t="s">
+        <v>269</v>
+      </c>
+      <c r="N14" t="s">
+        <v>84</v>
+      </c>
+      <c r="O14" t="s">
+        <v>95</v>
+      </c>
+      <c r="P14" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>143</v>
+      </c>
+      <c r="R14" t="s">
+        <v>95</v>
+      </c>
+      <c r="S14" t="s">
+        <v>98</v>
+      </c>
+      <c r="T14" t="s">
+        <v>99</v>
+      </c>
+      <c r="U14" t="s">
+        <v>84</v>
+      </c>
+      <c r="V14" t="s">
+        <v>270</v>
+      </c>
+      <c r="W14" t="s">
+        <v>101</v>
+      </c>
+      <c r="X14" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>271</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>272</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>108</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>108</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>108</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>108</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX14" s="1">
+        <v>44959</v>
+      </c>
+      <c r="AY14" s="1">
+        <v>44958</v>
+      </c>
+      <c r="AZ14" t="s">
         <v>109</v>
       </c>
-      <c r="BE11" t="s">
+      <c r="BA14" t="s">
+        <v>108</v>
+      </c>
+      <c r="BB14" t="s">
         <v>110</v>
       </c>
-      <c r="BF11" t="s">
-        <v>239</v>
-      </c>
-      <c r="BG11" s="1">
-        <v>41819</v>
-      </c>
-      <c r="BH11" t="s">
-        <v>100</v>
-      </c>
-      <c r="BI11" t="s">
-        <v>100</v>
-      </c>
-      <c r="BJ11" t="s">
-        <v>100</v>
-      </c>
-      <c r="BL11" s="1">
-        <v>44957</v>
-      </c>
-      <c r="BM11" t="s">
-        <v>240</v>
-      </c>
-      <c r="BN11" t="s">
-        <v>241</v>
-      </c>
-      <c r="BO11" s="1">
-        <v>44950</v>
-      </c>
-      <c r="BP11" t="s">
-        <v>242</v>
-      </c>
-      <c r="BQ11" t="s">
-        <v>100</v>
-      </c>
-      <c r="BR11" t="s">
-        <v>100</v>
-      </c>
-      <c r="BS11" t="s">
-        <v>100</v>
-      </c>
-      <c r="BT11" t="s">
-        <v>135</v>
-      </c>
-      <c r="BU11" t="s">
-        <v>116</v>
-      </c>
-      <c r="BV11" t="s">
-        <v>243</v>
-      </c>
-      <c r="BW11" t="s">
-        <v>95</v>
-      </c>
-      <c r="BX11" t="s">
-        <v>118</v>
-      </c>
-      <c r="BY11" t="s">
+      <c r="BC14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>110</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>111</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>273</v>
+      </c>
+      <c r="BG14" s="1">
+        <v>38736</v>
+      </c>
+      <c r="BH14" t="s">
+        <v>101</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>101</v>
+      </c>
+      <c r="BJ14" t="s">
+        <v>101</v>
+      </c>
+      <c r="BL14" s="1">
+        <v>44964</v>
+      </c>
+      <c r="BM14" t="s">
+        <v>274</v>
+      </c>
+      <c r="BN14" t="s">
+        <v>275</v>
+      </c>
+      <c r="BO14" s="1">
+        <v>44963</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>254</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>101</v>
+      </c>
+      <c r="BR14" t="s">
+        <v>101</v>
+      </c>
+      <c r="BS14" t="s">
+        <v>101</v>
+      </c>
+      <c r="BT14" t="s">
+        <v>136</v>
+      </c>
+      <c r="BU14" t="s">
+        <v>117</v>
+      </c>
+      <c r="BV14" t="s">
+        <v>276</v>
+      </c>
+      <c r="BW14" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX14" t="s">
         <v>119</v>
       </c>
-      <c r="BZ11" t="s">
-        <v>95</v>
-      </c>
-      <c r="CA11" t="s">
-        <v>118</v>
-      </c>
-      <c r="CB11" t="s">
+      <c r="BY14" t="s">
+        <v>120</v>
+      </c>
+      <c r="BZ14" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA14" t="s">
         <v>119</v>
       </c>
-      <c r="CC11" t="s">
-        <v>118</v>
-      </c>
-      <c r="CD11" t="s">
+      <c r="CB14" t="s">
+        <v>120</v>
+      </c>
+      <c r="CC14" t="s">
         <v>119</v>
       </c>
-      <c r="CE11">
-        <v>8</v>
+      <c r="CD14" t="s">
+        <v>120</v>
+      </c>
+      <c r="CE14">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Boletin_ Epi_Pereira/Datos/evento 831 datos basicos.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/evento 831 datos basicos.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cont_vtrujillov\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0B9DC2C-A5EE-4A46-BF63-E5A973248872}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="30" windowWidth="7485" windowHeight="4140"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="7485" windowHeight="4140"/>
   </bookViews>
   <sheets>
     <sheet name="evento 831 datos basicos" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2219" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2438" uniqueCount="477">
   <si>
     <t>cod_eve</t>
   </si>
@@ -274,18 +273,117 @@
     <t>831</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>6600100332</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>JOSE</t>
+  </si>
+  <si>
+    <t>DANIEL</t>
+  </si>
+  <si>
+    <t>CORDOBA</t>
+  </si>
+  <si>
+    <t>TI</t>
+  </si>
+  <si>
+    <t>1078006866</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>2023</t>
+    <t>170</t>
+  </si>
+  <si>
+    <t>COLOMBIA</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>LA FLORDIA</t>
+  </si>
+  <si>
+    <t>FINCA CATALUÑA  SEDE MARIA JULIA LA FLORIDA</t>
+  </si>
+  <si>
+    <t>99999.07</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>EPSS02</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -   -</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>3215901171</t>
+  </si>
+  <si>
+    <t>660010033201</t>
+  </si>
+  <si>
+    <t>UNIDAD INTERMEDIA DE KENNEDY</t>
+  </si>
+  <si>
+    <t>JORGE ROJAS</t>
+  </si>
+  <si>
+    <t>3153459691</t>
+  </si>
+  <si>
+    <t>8160050035</t>
+  </si>
+  <si>
+    <t>SIVIGILA - 2018 -18.6.2$0$2.0</t>
+  </si>
+  <si>
+    <t>VARICELA INDIVIDUAL</t>
+  </si>
+  <si>
+    <t>RISARALDA</t>
+  </si>
+  <si>
+    <t>PEREIRA</t>
   </si>
   <si>
     <t>6600100361</t>
   </si>
   <si>
-    <t>01</t>
-  </si>
-  <si>
     <t>DAVID</t>
   </si>
   <si>
@@ -307,27 +405,12 @@
     <t>20</t>
   </si>
   <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>COLOMBIA</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>001</t>
-  </si>
-  <si>
     <t>CENTRO</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>ALFONSO LOPEZ</t>
   </si>
   <si>
@@ -343,18 +426,6 @@
     <t>EPS002</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -   -</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -373,18 +444,9 @@
     <t>SIVIGILA - 2018 -18.6.2$0$0.0</t>
   </si>
   <si>
-    <t>VARICELA INDIVIDUAL</t>
-  </si>
-  <si>
     <t>CLINICA LOS ROSALES</t>
   </si>
   <si>
-    <t>RISARALDA</t>
-  </si>
-  <si>
-    <t>PEREIRA</t>
-  </si>
-  <si>
     <t>ANDRES</t>
   </si>
   <si>
@@ -451,9 +513,6 @@
     <t>32</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
     <t>075</t>
   </si>
   <si>
@@ -466,12 +525,6 @@
     <t>FINCA LA GAVIOTA BALBOA</t>
   </si>
   <si>
-    <t>99999.07</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
     <t>ESS062</t>
   </si>
   <si>
@@ -586,9 +639,6 @@
     <t>RICHARD</t>
   </si>
   <si>
-    <t>JOSE</t>
-  </si>
-  <si>
     <t>ELLES</t>
   </si>
   <si>
@@ -625,6 +675,51 @@
     <t>3353754</t>
   </si>
   <si>
+    <t>6600102601</t>
+  </si>
+  <si>
+    <t>WILLIANNYS</t>
+  </si>
+  <si>
+    <t>SOFIA</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>IRRAZABAL</t>
+  </si>
+  <si>
+    <t>1235240165</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>CENTRO NO SABE DIRECCION</t>
+  </si>
+  <si>
+    <t>94120</t>
+  </si>
+  <si>
+    <t>3148221917</t>
+  </si>
+  <si>
+    <t>JESSICA VALDERRAMA MORA</t>
+  </si>
+  <si>
+    <t>3166660</t>
+  </si>
+  <si>
+    <t>8000037651</t>
+  </si>
+  <si>
+    <t>VIRREY SOLIS SA PINARES</t>
+  </si>
+  <si>
     <t>HERNAN</t>
   </si>
   <si>
@@ -745,9 +840,6 @@
     <t>3146726257</t>
   </si>
   <si>
-    <t>6600100332</t>
-  </si>
-  <si>
     <t>JOHIVER</t>
   </si>
   <si>
@@ -760,9 +852,6 @@
     <t>ARROYAVE</t>
   </si>
   <si>
-    <t>TI</t>
-  </si>
-  <si>
     <t>1088883861</t>
   </si>
   <si>
@@ -784,12 +873,6 @@
     <t>3013860447</t>
   </si>
   <si>
-    <t>8160050035</t>
-  </si>
-  <si>
-    <t>UNIDAD INTERMEDIA DE KENNEDY</t>
-  </si>
-  <si>
     <t>JUAN</t>
   </si>
   <si>
@@ -829,9 +912,6 @@
     <t>JAIRO</t>
   </si>
   <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
     <t>SILVA</t>
   </si>
   <si>
@@ -976,9 +1056,6 @@
     <t>1071988269</t>
   </si>
   <si>
-    <t>25</t>
-  </si>
-  <si>
     <t>MANZANA 46 CASA 6 PISO 3 COMUNIDAD EL BOSQUE 2500</t>
   </si>
   <si>
@@ -1051,39 +1128,6 @@
     <t>CENTRO MEDICO N° 1</t>
   </si>
   <si>
-    <t>DANIEL</t>
-  </si>
-  <si>
-    <t>CORDOBA</t>
-  </si>
-  <si>
-    <t>1078006866</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>LA FLORDIA</t>
-  </si>
-  <si>
-    <t>FINCA CATALUÑA  SEDE MARIA JULIA LA FLORIDA</t>
-  </si>
-  <si>
-    <t>EPSS02</t>
-  </si>
-  <si>
-    <t>3215901171</t>
-  </si>
-  <si>
-    <t>JORGE ROJAS</t>
-  </si>
-  <si>
-    <t>3153459691</t>
-  </si>
-  <si>
-    <t>6600102601</t>
-  </si>
-  <si>
     <t>ARCELA</t>
   </si>
   <si>
@@ -1093,12 +1137,6 @@
     <t>1089627590</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>REMANZO</t>
   </si>
   <si>
@@ -1114,12 +1152,6 @@
     <t>3204498164</t>
   </si>
   <si>
-    <t>8000037651</t>
-  </si>
-  <si>
-    <t>VIRREY SOLIS SA PINARES</t>
-  </si>
-  <si>
     <t>1787700827</t>
   </si>
   <si>
@@ -1339,6 +1371,30 @@
     <t>3005778308</t>
   </si>
   <si>
+    <t>0500104259</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>GEDMA</t>
+  </si>
+  <si>
+    <t>24760553</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>CR 11 BIS 6B 18</t>
+  </si>
+  <si>
+    <t>KATHERIN ANDREA PATERNINA JIMENEZ</t>
+  </si>
+  <si>
+    <t>3108881</t>
+  </si>
+  <si>
     <t>MILAGNYS</t>
   </si>
   <si>
@@ -1367,12 +1423,39 @@
   </si>
   <si>
     <t>3146408557</t>
+  </si>
+  <si>
+    <t>MIGUEL</t>
+  </si>
+  <si>
+    <t>PALACIOS</t>
+  </si>
+  <si>
+    <t>GRISALES</t>
+  </si>
+  <si>
+    <t>1112048072</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>MOLIVENTO</t>
+  </si>
+  <si>
+    <t>CRA 35 BIS TRANSVERSAL 25 MOLIVENTO 1 MZ 3 CASA 19</t>
+  </si>
+  <si>
+    <t>3162590452</t>
+  </si>
+  <si>
+    <t>LAURA MORENO HINCAPIE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1504,7 +1587,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -1516,7 +1599,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -1533,9 +1616,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1563,31 +1646,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1615,23 +1681,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1784,7 +1833,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CE30"/>
+  <dimension ref="A1:CE33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2046,7 +2095,7 @@
         <v>83</v>
       </c>
       <c r="B2" s="1">
-        <v>44929</v>
+        <v>44965</v>
       </c>
       <c r="C2" t="s">
         <v>84</v>
@@ -2070,19 +2119,19 @@
         <v>90</v>
       </c>
       <c r="J2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K2" t="s">
         <v>91</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>92</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>93</v>
       </c>
-      <c r="M2" t="s">
-        <v>94</v>
-      </c>
       <c r="N2" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="O2" t="s">
         <v>95</v>
@@ -2103,19 +2152,19 @@
         <v>99</v>
       </c>
       <c r="U2" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="V2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="W2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="X2" t="s">
         <v>101</v>
       </c>
       <c r="Y2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Z2" t="s">
         <v>103</v>
@@ -2130,52 +2179,52 @@
         <v>106</v>
       </c>
       <c r="AD2" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="AF2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AG2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AH2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AI2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AJ2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AK2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AL2" t="s">
         <v>101</v>
       </c>
       <c r="AM2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AN2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="AO2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AP2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AQ2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AR2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AS2" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="AT2" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="AU2" t="s">
         <v>95</v>
@@ -2187,46 +2236,49 @@
         <v>99</v>
       </c>
       <c r="AX2" s="1">
-        <v>44929</v>
+        <v>44965</v>
       </c>
       <c r="AY2" s="1">
-        <v>44927</v>
+        <v>44964</v>
       </c>
       <c r="AZ2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>108</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>108</v>
+      </c>
+      <c r="BE2" t="s">
         <v>109</v>
       </c>
-      <c r="BA2" t="s">
-        <v>108</v>
-      </c>
-      <c r="BB2" t="s">
+      <c r="BF2" t="s">
         <v>110</v>
       </c>
-      <c r="BC2" t="s">
-        <v>84</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>110</v>
-      </c>
-      <c r="BE2" t="s">
+      <c r="BG2" s="1">
+        <v>40539</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>101</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>101</v>
+      </c>
+      <c r="BJ2" t="s">
         <v>111</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BK2" t="s">
         <v>112</v>
       </c>
-      <c r="BG2" s="1">
-        <v>37376</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>101</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>101</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>101</v>
-      </c>
       <c r="BL2" s="1">
-        <v>44992</v>
+        <v>44998</v>
       </c>
       <c r="BM2" t="s">
         <v>113</v>
@@ -2235,7 +2287,7 @@
         <v>114</v>
       </c>
       <c r="BO2" s="1">
-        <v>44930</v>
+        <v>44993</v>
       </c>
       <c r="BP2" t="s">
         <v>115</v>
@@ -2256,34 +2308,34 @@
         <v>117</v>
       </c>
       <c r="BV2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="BW2" t="s">
         <v>96</v>
       </c>
       <c r="BX2" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY2" t="s">
         <v>119</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>120</v>
       </c>
       <c r="BZ2" t="s">
         <v>96</v>
       </c>
       <c r="CA2" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB2" t="s">
         <v>119</v>
       </c>
-      <c r="CB2" t="s">
-        <v>120</v>
-      </c>
       <c r="CC2" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD2" t="s">
         <v>119</v>
       </c>
-      <c r="CD2" t="s">
-        <v>120</v>
-      </c>
       <c r="CE2">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:83" x14ac:dyDescent="0.2">
@@ -2294,13 +2346,13 @@
         <v>44929</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
         <v>85</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="F3" t="s">
         <v>87</v>
@@ -2309,25 +2361,25 @@
         <v>121</v>
       </c>
       <c r="H3" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="I3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K3" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="L3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N3" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="O3" t="s">
         <v>95</v>
@@ -2336,7 +2388,7 @@
         <v>96</v>
       </c>
       <c r="Q3" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="R3" t="s">
         <v>95</v>
@@ -2348,49 +2400,49 @@
         <v>99</v>
       </c>
       <c r="U3" t="s">
+        <v>94</v>
+      </c>
+      <c r="V3" t="s">
+        <v>129</v>
+      </c>
+      <c r="W3" t="s">
+        <v>101</v>
+      </c>
+      <c r="X3" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD3" t="s">
         <v>84</v>
       </c>
-      <c r="V3" t="s">
-        <v>100</v>
-      </c>
-      <c r="W3" t="s">
-        <v>101</v>
-      </c>
-      <c r="X3" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>107</v>
-      </c>
       <c r="AF3" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AG3" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AH3" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AI3" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AJ3" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AK3" t="s">
         <v>101</v>
@@ -2399,28 +2451,28 @@
         <v>101</v>
       </c>
       <c r="AM3" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AN3" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AO3" t="s">
         <v>101</v>
       </c>
       <c r="AP3" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AQ3" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AR3" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AS3" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="AT3" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="AU3" t="s">
         <v>95</v>
@@ -2435,31 +2487,31 @@
         <v>44929</v>
       </c>
       <c r="AY3" s="1">
-        <v>44929</v>
+        <v>44927</v>
       </c>
       <c r="AZ3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="BA3" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB3" t="s">
         <v>108</v>
       </c>
-      <c r="BB3" t="s">
-        <v>110</v>
-      </c>
       <c r="BC3" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="BD3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="BE3" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="BF3" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="BG3" s="1">
-        <v>32760</v>
+        <v>37376</v>
       </c>
       <c r="BH3" t="s">
         <v>101</v>
@@ -2471,19 +2523,19 @@
         <v>101</v>
       </c>
       <c r="BL3" s="1">
-        <v>44992</v>
+        <v>44998</v>
       </c>
       <c r="BM3" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="BN3" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="BO3" s="1">
-        <v>44933</v>
+        <v>44930</v>
       </c>
       <c r="BP3" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="BQ3" t="s">
         <v>101</v>
@@ -2495,40 +2547,40 @@
         <v>101</v>
       </c>
       <c r="BT3" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="BU3" t="s">
         <v>117</v>
       </c>
       <c r="BV3" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="BW3" t="s">
         <v>96</v>
       </c>
       <c r="BX3" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY3" t="s">
         <v>119</v>
-      </c>
-      <c r="BY3" t="s">
-        <v>120</v>
       </c>
       <c r="BZ3" t="s">
         <v>96</v>
       </c>
       <c r="CA3" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB3" t="s">
         <v>119</v>
       </c>
-      <c r="CB3" t="s">
-        <v>120</v>
-      </c>
       <c r="CC3" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD3" t="s">
         <v>119</v>
       </c>
-      <c r="CD3" t="s">
-        <v>120</v>
-      </c>
       <c r="CE3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:83" x14ac:dyDescent="0.2">
@@ -2539,40 +2591,40 @@
         <v>44929</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D4" t="s">
         <v>85</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="F4" t="s">
         <v>87</v>
       </c>
       <c r="G4" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="H4" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="I4" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="J4" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="K4" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="L4" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="M4" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="N4" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="O4" t="s">
         <v>95</v>
@@ -2581,7 +2633,7 @@
         <v>96</v>
       </c>
       <c r="Q4" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="R4" t="s">
         <v>95</v>
@@ -2593,49 +2645,49 @@
         <v>99</v>
       </c>
       <c r="U4" t="s">
+        <v>94</v>
+      </c>
+      <c r="V4" t="s">
+        <v>129</v>
+      </c>
+      <c r="W4" t="s">
+        <v>101</v>
+      </c>
+      <c r="X4" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD4" t="s">
         <v>84</v>
       </c>
-      <c r="V4" t="s">
-        <v>100</v>
-      </c>
-      <c r="W4" t="s">
-        <v>101</v>
-      </c>
-      <c r="X4" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>133</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>134</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>107</v>
-      </c>
       <c r="AF4" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AG4" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AH4" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AI4" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AJ4" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AK4" t="s">
         <v>101</v>
@@ -2644,28 +2696,28 @@
         <v>101</v>
       </c>
       <c r="AM4" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AN4" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AO4" t="s">
         <v>101</v>
       </c>
       <c r="AP4" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AQ4" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AR4" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AS4" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="AT4" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="AU4" t="s">
         <v>95</v>
@@ -2680,28 +2732,28 @@
         <v>44929</v>
       </c>
       <c r="AY4" s="1">
-        <v>44928</v>
+        <v>44929</v>
       </c>
       <c r="AZ4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="BA4" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB4" t="s">
         <v>108</v>
       </c>
-      <c r="BB4" t="s">
-        <v>110</v>
-      </c>
       <c r="BC4" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="BD4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="BE4" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="BF4" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="BG4" s="1">
         <v>32760</v>
@@ -2716,19 +2768,19 @@
         <v>101</v>
       </c>
       <c r="BL4" s="1">
-        <v>44992</v>
+        <v>44998</v>
       </c>
       <c r="BM4" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="BN4" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="BO4" s="1">
-        <v>44944</v>
+        <v>44933</v>
       </c>
       <c r="BP4" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="BQ4" t="s">
         <v>101</v>
@@ -2740,40 +2792,40 @@
         <v>101</v>
       </c>
       <c r="BT4" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="BU4" t="s">
         <v>117</v>
       </c>
       <c r="BV4" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="BW4" t="s">
         <v>96</v>
       </c>
       <c r="BX4" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY4" t="s">
         <v>119</v>
-      </c>
-      <c r="BY4" t="s">
-        <v>120</v>
       </c>
       <c r="BZ4" t="s">
         <v>96</v>
       </c>
       <c r="CA4" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB4" t="s">
         <v>119</v>
       </c>
-      <c r="CB4" t="s">
-        <v>120</v>
-      </c>
       <c r="CC4" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD4" t="s">
         <v>119</v>
       </c>
-      <c r="CD4" t="s">
-        <v>120</v>
-      </c>
       <c r="CE4">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:83" x14ac:dyDescent="0.2">
@@ -2781,43 +2833,43 @@
         <v>83</v>
       </c>
       <c r="B5" s="1">
-        <v>44932</v>
+        <v>44929</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
         <v>85</v>
       </c>
       <c r="E5" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="F5" t="s">
         <v>87</v>
       </c>
       <c r="G5" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H5" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="I5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="J5" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="K5" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="L5" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="M5" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="N5" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="O5" t="s">
         <v>95</v>
@@ -2826,7 +2878,7 @@
         <v>96</v>
       </c>
       <c r="Q5" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="R5" t="s">
         <v>95</v>
@@ -2835,82 +2887,82 @@
         <v>98</v>
       </c>
       <c r="T5" t="s">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="U5" t="s">
-        <v>145</v>
+        <v>94</v>
       </c>
       <c r="V5" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="W5" t="s">
         <v>101</v>
       </c>
       <c r="X5" t="s">
-        <v>146</v>
+        <v>101</v>
       </c>
       <c r="Y5" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="Z5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="AA5" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="AB5" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="AC5" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="AD5" t="s">
-        <v>151</v>
+        <v>84</v>
       </c>
       <c r="AF5" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="AG5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AH5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AI5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AJ5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AK5" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="AL5" t="s">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="AM5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AN5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AO5" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="AP5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AQ5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AR5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AS5" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="AT5" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="AU5" t="s">
         <v>95</v>
@@ -2919,37 +2971,37 @@
         <v>98</v>
       </c>
       <c r="AW5" t="s">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="AX5" s="1">
-        <v>44932</v>
+        <v>44929</v>
       </c>
       <c r="AY5" s="1">
-        <v>44929</v>
+        <v>44928</v>
       </c>
       <c r="AZ5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="BA5" t="s">
-        <v>84</v>
-      </c>
-      <c r="BB5" s="1">
-        <v>44932</v>
+        <v>100</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>108</v>
       </c>
       <c r="BC5" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="BD5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="BE5" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="BF5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="BG5" s="1">
-        <v>33142</v>
+        <v>32760</v>
       </c>
       <c r="BH5" t="s">
         <v>101</v>
@@ -2961,19 +3013,19 @@
         <v>101</v>
       </c>
       <c r="BL5" s="1">
-        <v>44992</v>
+        <v>44998</v>
       </c>
       <c r="BM5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="BN5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="BO5" s="1">
-        <v>44936</v>
+        <v>44944</v>
       </c>
       <c r="BP5" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="BQ5" t="s">
         <v>101</v>
@@ -2985,40 +3037,40 @@
         <v>101</v>
       </c>
       <c r="BT5" t="s">
-        <v>116</v>
+        <v>157</v>
       </c>
       <c r="BU5" t="s">
         <v>117</v>
       </c>
       <c r="BV5" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="BW5" t="s">
         <v>96</v>
       </c>
       <c r="BX5" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY5" t="s">
         <v>119</v>
-      </c>
-      <c r="BY5" t="s">
-        <v>158</v>
       </c>
       <c r="BZ5" t="s">
         <v>96</v>
       </c>
       <c r="CA5" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB5" t="s">
         <v>119</v>
       </c>
-      <c r="CB5" t="s">
-        <v>158</v>
-      </c>
       <c r="CC5" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD5" t="s">
         <v>119</v>
       </c>
-      <c r="CD5" t="s">
-        <v>120</v>
-      </c>
       <c r="CE5">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:83" x14ac:dyDescent="0.2">
@@ -3026,43 +3078,43 @@
         <v>83</v>
       </c>
       <c r="B6" s="1">
-        <v>44930</v>
+        <v>44932</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D6" t="s">
         <v>85</v>
       </c>
       <c r="E6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" t="s">
         <v>159</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>160</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>161</v>
       </c>
-      <c r="H6" t="s">
-        <v>121</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
+        <v>161</v>
+      </c>
+      <c r="K6" t="s">
+        <v>125</v>
+      </c>
+      <c r="L6" t="s">
         <v>162</v>
       </c>
-      <c r="J6" t="s">
+      <c r="M6" t="s">
         <v>163</v>
       </c>
-      <c r="K6" t="s">
-        <v>92</v>
-      </c>
-      <c r="L6" t="s">
-        <v>164</v>
-      </c>
-      <c r="M6" t="s">
-        <v>165</v>
-      </c>
       <c r="N6" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="O6" t="s">
         <v>95</v>
@@ -3080,10 +3132,10 @@
         <v>98</v>
       </c>
       <c r="T6" t="s">
-        <v>99</v>
+        <v>164</v>
       </c>
       <c r="U6" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="V6" t="s">
         <v>101</v>
@@ -3101,61 +3153,61 @@
         <v>167</v>
       </c>
       <c r="AA6" t="s">
-        <v>168</v>
+        <v>104</v>
       </c>
       <c r="AB6" t="s">
         <v>105</v>
       </c>
       <c r="AC6" t="s">
+        <v>168</v>
+      </c>
+      <c r="AD6" t="s">
         <v>169</v>
       </c>
-      <c r="AD6" t="s">
-        <v>107</v>
-      </c>
       <c r="AF6" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="AG6" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AH6" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AI6" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AJ6" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AK6" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="AL6" t="s">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c r="AM6" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AN6" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AO6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AP6" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AQ6" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AR6" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AS6" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="AT6" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="AU6" t="s">
         <v>95</v>
@@ -3164,37 +3216,37 @@
         <v>98</v>
       </c>
       <c r="AW6" t="s">
-        <v>99</v>
+        <v>164</v>
       </c>
       <c r="AX6" s="1">
-        <v>44930</v>
+        <v>44932</v>
       </c>
       <c r="AY6" s="1">
-        <v>44928</v>
+        <v>44929</v>
       </c>
       <c r="AZ6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="BA6" t="s">
+        <v>94</v>
+      </c>
+      <c r="BB6" s="1">
+        <v>44932</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD6" t="s">
         <v>108</v>
       </c>
-      <c r="BB6" t="s">
-        <v>110</v>
-      </c>
-      <c r="BC6" t="s">
-        <v>84</v>
-      </c>
-      <c r="BD6" t="s">
-        <v>110</v>
-      </c>
       <c r="BE6" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="BF6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="BG6" s="1">
-        <v>33989</v>
+        <v>33142</v>
       </c>
       <c r="BH6" t="s">
         <v>101</v>
@@ -3206,19 +3258,19 @@
         <v>101</v>
       </c>
       <c r="BL6" s="1">
-        <v>44992</v>
+        <v>44998</v>
       </c>
       <c r="BM6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="BN6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="BO6" s="1">
-        <v>44931</v>
+        <v>44936</v>
       </c>
       <c r="BP6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="BQ6" t="s">
         <v>101</v>
@@ -3230,40 +3282,40 @@
         <v>101</v>
       </c>
       <c r="BT6" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="BU6" t="s">
         <v>117</v>
       </c>
       <c r="BV6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="BW6" t="s">
         <v>96</v>
       </c>
       <c r="BX6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="BY6" t="s">
-        <v>120</v>
+        <v>176</v>
       </c>
       <c r="BZ6" t="s">
         <v>96</v>
       </c>
       <c r="CA6" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB6" t="s">
+        <v>176</v>
+      </c>
+      <c r="CC6" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD6" t="s">
         <v>119</v>
       </c>
-      <c r="CB6" t="s">
-        <v>120</v>
-      </c>
-      <c r="CC6" t="s">
-        <v>119</v>
-      </c>
-      <c r="CD6" t="s">
-        <v>120</v>
-      </c>
       <c r="CE6">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:83" x14ac:dyDescent="0.2">
@@ -3271,43 +3323,43 @@
         <v>83</v>
       </c>
       <c r="B7" s="1">
-        <v>44937</v>
+        <v>44930</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D7" t="s">
         <v>85</v>
       </c>
       <c r="E7" t="s">
-        <v>86</v>
+        <v>177</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>178</v>
       </c>
       <c r="G7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H7" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="I7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="J7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K7" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="L7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="N7" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="O7" t="s">
         <v>95</v>
@@ -3316,7 +3368,7 @@
         <v>96</v>
       </c>
       <c r="Q7" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="R7" t="s">
         <v>95</v>
@@ -3325,82 +3377,82 @@
         <v>98</v>
       </c>
       <c r="T7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="U7" t="s">
+        <v>165</v>
+      </c>
+      <c r="V7" t="s">
+        <v>101</v>
+      </c>
+      <c r="W7" t="s">
+        <v>101</v>
+      </c>
+      <c r="X7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD7" t="s">
         <v>84</v>
       </c>
-      <c r="V7" t="s">
-        <v>100</v>
-      </c>
-      <c r="W7" t="s">
-        <v>101</v>
-      </c>
-      <c r="X7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>182</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>183</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>107</v>
-      </c>
       <c r="AF7" t="s">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="AG7" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AH7" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AI7" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AJ7" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AK7" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="AL7" t="s">
         <v>101</v>
       </c>
       <c r="AM7" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AN7" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AO7" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="AP7" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AQ7" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AR7" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AS7" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="AT7" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="AU7" t="s">
         <v>95</v>
@@ -3409,37 +3461,37 @@
         <v>98</v>
       </c>
       <c r="AW7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="AX7" s="1">
-        <v>44937</v>
+        <v>44930</v>
       </c>
       <c r="AY7" s="1">
-        <v>44929</v>
+        <v>44928</v>
       </c>
       <c r="AZ7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="BA7" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB7" t="s">
         <v>108</v>
       </c>
-      <c r="BB7" t="s">
-        <v>110</v>
-      </c>
       <c r="BC7" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="BD7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="BE7" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="BF7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="BG7" s="1">
-        <v>30937</v>
+        <v>33989</v>
       </c>
       <c r="BH7" t="s">
         <v>101</v>
@@ -3451,19 +3503,19 @@
         <v>101</v>
       </c>
       <c r="BL7" s="1">
-        <v>44992</v>
+        <v>44998</v>
       </c>
       <c r="BM7" t="s">
-        <v>113</v>
+        <v>189</v>
       </c>
       <c r="BN7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="BO7" s="1">
-        <v>44937</v>
+        <v>44931</v>
       </c>
       <c r="BP7" t="s">
-        <v>115</v>
+        <v>191</v>
       </c>
       <c r="BQ7" t="s">
         <v>101</v>
@@ -3475,40 +3527,40 @@
         <v>101</v>
       </c>
       <c r="BT7" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="BU7" t="s">
         <v>117</v>
       </c>
       <c r="BV7" t="s">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="BW7" t="s">
         <v>96</v>
       </c>
       <c r="BX7" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY7" t="s">
         <v>119</v>
-      </c>
-      <c r="BY7" t="s">
-        <v>186</v>
       </c>
       <c r="BZ7" t="s">
         <v>96</v>
       </c>
       <c r="CA7" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB7" t="s">
         <v>119</v>
       </c>
-      <c r="CB7" t="s">
-        <v>186</v>
-      </c>
       <c r="CC7" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD7" t="s">
         <v>119</v>
       </c>
-      <c r="CD7" t="s">
-        <v>120</v>
-      </c>
       <c r="CE7">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:83" x14ac:dyDescent="0.2">
@@ -3516,49 +3568,49 @@
         <v>83</v>
       </c>
       <c r="B8" s="1">
-        <v>44933</v>
+        <v>44937</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D8" t="s">
         <v>85</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="F8" t="s">
         <v>87</v>
       </c>
       <c r="G8" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="H8" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I8" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="J8" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="K8" t="s">
-        <v>191</v>
+        <v>125</v>
       </c>
       <c r="L8" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="M8" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="N8" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="O8" t="s">
-        <v>194</v>
+        <v>95</v>
       </c>
       <c r="P8" t="s">
-        <v>195</v>
+        <v>96</v>
       </c>
       <c r="Q8" t="s">
         <v>97</v>
@@ -3573,79 +3625,79 @@
         <v>95</v>
       </c>
       <c r="U8" t="s">
+        <v>94</v>
+      </c>
+      <c r="V8" t="s">
+        <v>129</v>
+      </c>
+      <c r="W8" t="s">
+        <v>101</v>
+      </c>
+      <c r="X8" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD8" t="s">
         <v>84</v>
       </c>
-      <c r="V8" t="s">
-        <v>100</v>
-      </c>
-      <c r="W8" t="s">
-        <v>101</v>
-      </c>
-      <c r="X8" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>196</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>148</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>107</v>
-      </c>
       <c r="AF8" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="AG8" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AH8" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AI8" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AJ8" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AK8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AL8" t="s">
         <v>101</v>
       </c>
       <c r="AM8" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AN8" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AO8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AP8" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AQ8" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AR8" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AS8" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="AT8" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="AU8" t="s">
         <v>95</v>
@@ -3657,34 +3709,34 @@
         <v>95</v>
       </c>
       <c r="AX8" s="1">
-        <v>44933</v>
+        <v>44937</v>
       </c>
       <c r="AY8" s="1">
-        <v>44930</v>
+        <v>44929</v>
       </c>
       <c r="AZ8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="BA8" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB8" t="s">
         <v>108</v>
       </c>
-      <c r="BB8" t="s">
-        <v>110</v>
-      </c>
       <c r="BC8" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="BD8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="BE8" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="BF8" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="BG8" s="1">
-        <v>34866</v>
+        <v>30937</v>
       </c>
       <c r="BH8" t="s">
         <v>101</v>
@@ -3696,19 +3748,19 @@
         <v>101</v>
       </c>
       <c r="BL8" s="1">
-        <v>44992</v>
+        <v>44998</v>
       </c>
       <c r="BM8" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="BN8" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="BO8" s="1">
-        <v>44933</v>
+        <v>44937</v>
       </c>
       <c r="BP8" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="BQ8" t="s">
         <v>101</v>
@@ -3720,40 +3772,40 @@
         <v>101</v>
       </c>
       <c r="BT8" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="BU8" t="s">
         <v>117</v>
       </c>
       <c r="BV8" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="BW8" t="s">
         <v>96</v>
       </c>
       <c r="BX8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="BY8" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="BZ8" t="s">
         <v>96</v>
       </c>
       <c r="CA8" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB8" t="s">
+        <v>204</v>
+      </c>
+      <c r="CC8" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD8" t="s">
         <v>119</v>
       </c>
-      <c r="CB8" t="s">
-        <v>186</v>
-      </c>
-      <c r="CC8" t="s">
-        <v>119</v>
-      </c>
-      <c r="CD8" t="s">
-        <v>120</v>
-      </c>
       <c r="CE8">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:83" x14ac:dyDescent="0.2">
@@ -3761,52 +3813,52 @@
         <v>83</v>
       </c>
       <c r="B9" s="1">
-        <v>44948</v>
+        <v>44933</v>
       </c>
       <c r="C9" t="s">
-        <v>145</v>
+        <v>94</v>
       </c>
       <c r="D9" t="s">
         <v>85</v>
       </c>
       <c r="E9" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="F9" t="s">
         <v>87</v>
       </c>
       <c r="G9" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H9" t="s">
-        <v>202</v>
+        <v>88</v>
       </c>
       <c r="I9" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="J9" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K9" t="s">
-        <v>92</v>
+        <v>208</v>
       </c>
       <c r="L9" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="M9" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="N9" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="O9" t="s">
-        <v>95</v>
+        <v>211</v>
       </c>
       <c r="P9" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="Q9" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="R9" t="s">
         <v>95</v>
@@ -3815,52 +3867,52 @@
         <v>98</v>
       </c>
       <c r="T9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="U9" t="s">
+        <v>94</v>
+      </c>
+      <c r="V9" t="s">
+        <v>129</v>
+      </c>
+      <c r="W9" t="s">
+        <v>101</v>
+      </c>
+      <c r="X9" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD9" t="s">
         <v>84</v>
       </c>
-      <c r="V9" t="s">
-        <v>100</v>
-      </c>
-      <c r="W9" t="s">
-        <v>101</v>
-      </c>
-      <c r="X9" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>207</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>208</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>148</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>169</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>107</v>
-      </c>
       <c r="AF9" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="AG9" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AH9" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AI9" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AJ9" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AK9" t="s">
         <v>101</v>
@@ -3869,28 +3921,28 @@
         <v>101</v>
       </c>
       <c r="AM9" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AN9" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AO9" t="s">
         <v>101</v>
       </c>
       <c r="AP9" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AQ9" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AR9" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AS9" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="AT9" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="AU9" t="s">
         <v>95</v>
@@ -3899,37 +3951,37 @@
         <v>98</v>
       </c>
       <c r="AW9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="AX9" s="1">
-        <v>44948</v>
+        <v>44933</v>
       </c>
       <c r="AY9" s="1">
-        <v>44945</v>
+        <v>44930</v>
       </c>
       <c r="AZ9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="BA9" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB9" t="s">
         <v>108</v>
       </c>
-      <c r="BB9" t="s">
-        <v>110</v>
-      </c>
       <c r="BC9" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="BD9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="BE9" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="BF9" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="BG9" s="1">
-        <v>36520</v>
+        <v>34866</v>
       </c>
       <c r="BH9" t="s">
         <v>101</v>
@@ -3941,19 +3993,19 @@
         <v>101</v>
       </c>
       <c r="BL9" s="1">
-        <v>44992</v>
+        <v>44998</v>
       </c>
       <c r="BM9" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="BN9" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="BO9" s="1">
-        <v>44959</v>
+        <v>44933</v>
       </c>
       <c r="BP9" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="BQ9" t="s">
         <v>101</v>
@@ -3965,40 +4017,40 @@
         <v>101</v>
       </c>
       <c r="BT9" t="s">
-        <v>212</v>
+        <v>140</v>
       </c>
       <c r="BU9" t="s">
         <v>117</v>
       </c>
       <c r="BV9" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="BW9" t="s">
         <v>96</v>
       </c>
       <c r="BX9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="BY9" t="s">
-        <v>120</v>
+        <v>204</v>
       </c>
       <c r="BZ9" t="s">
         <v>96</v>
       </c>
       <c r="CA9" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB9" t="s">
+        <v>204</v>
+      </c>
+      <c r="CC9" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD9" t="s">
         <v>119</v>
       </c>
-      <c r="CB9" t="s">
-        <v>120</v>
-      </c>
-      <c r="CC9" t="s">
-        <v>119</v>
-      </c>
-      <c r="CD9" t="s">
-        <v>120</v>
-      </c>
       <c r="CE9">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:83" x14ac:dyDescent="0.2">
@@ -4006,43 +4058,43 @@
         <v>83</v>
       </c>
       <c r="B10" s="1">
-        <v>44948</v>
+        <v>44994</v>
       </c>
       <c r="C10" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="D10" t="s">
         <v>85</v>
       </c>
       <c r="E10" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F10" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="G10" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="H10" t="s">
-        <v>101</v>
+        <v>220</v>
       </c>
       <c r="I10" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="J10" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="K10" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="L10" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="M10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="N10" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="O10" t="s">
         <v>95</v>
@@ -4051,7 +4103,7 @@
         <v>96</v>
       </c>
       <c r="Q10" t="s">
-        <v>143</v>
+        <v>97</v>
       </c>
       <c r="R10" t="s">
         <v>95</v>
@@ -4063,118 +4115,118 @@
         <v>99</v>
       </c>
       <c r="U10" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="V10" t="s">
-        <v>101</v>
+        <v>225</v>
       </c>
       <c r="W10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="X10" t="s">
         <v>101</v>
       </c>
       <c r="Y10" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="Z10" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="AA10" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="AB10" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="AC10" t="s">
-        <v>221</v>
+        <v>134</v>
       </c>
       <c r="AD10" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="AF10" t="s">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="AG10" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AH10" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AI10" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AJ10" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AK10" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AL10" t="s">
         <v>101</v>
       </c>
       <c r="AM10" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AN10" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AO10" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AP10" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AQ10" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AR10" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AS10" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="AT10" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="AU10" t="s">
         <v>95</v>
       </c>
       <c r="AV10" t="s">
-        <v>222</v>
+        <v>98</v>
       </c>
       <c r="AW10" t="s">
         <v>99</v>
       </c>
       <c r="AX10" s="1">
-        <v>44948</v>
+        <v>44994</v>
       </c>
       <c r="AY10" s="1">
-        <v>44943</v>
+        <v>44991</v>
       </c>
       <c r="AZ10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="BA10" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB10" t="s">
         <v>108</v>
       </c>
-      <c r="BB10" t="s">
-        <v>110</v>
-      </c>
       <c r="BC10" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="BD10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="BE10" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="BF10" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="BG10" s="1">
-        <v>33834</v>
+        <v>35727</v>
       </c>
       <c r="BH10" t="s">
         <v>101</v>
@@ -4186,19 +4238,19 @@
         <v>101</v>
       </c>
       <c r="BL10" s="1">
-        <v>44992</v>
+        <v>44998</v>
       </c>
       <c r="BM10" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="BN10" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="BO10" s="1">
-        <v>44950</v>
+        <v>44998</v>
       </c>
       <c r="BP10" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="BQ10" t="s">
         <v>101</v>
@@ -4210,40 +4262,40 @@
         <v>101</v>
       </c>
       <c r="BT10" t="s">
-        <v>212</v>
+        <v>116</v>
       </c>
       <c r="BU10" t="s">
         <v>117</v>
       </c>
       <c r="BV10" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="BW10" t="s">
         <v>96</v>
       </c>
       <c r="BX10" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY10" t="s">
         <v>119</v>
-      </c>
-      <c r="BY10" t="s">
-        <v>120</v>
       </c>
       <c r="BZ10" t="s">
         <v>96</v>
       </c>
       <c r="CA10" t="s">
-        <v>228</v>
+        <v>118</v>
       </c>
       <c r="CB10" t="s">
-        <v>228</v>
+        <v>119</v>
       </c>
       <c r="CC10" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD10" t="s">
         <v>119</v>
       </c>
-      <c r="CD10" t="s">
-        <v>120</v>
-      </c>
       <c r="CE10">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:83" x14ac:dyDescent="0.2">
@@ -4251,43 +4303,43 @@
         <v>83</v>
       </c>
       <c r="B11" s="1">
-        <v>44949</v>
+        <v>44948</v>
       </c>
       <c r="C11" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="D11" t="s">
         <v>85</v>
       </c>
       <c r="E11" t="s">
-        <v>213</v>
+        <v>120</v>
       </c>
       <c r="F11" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="G11" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="H11" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="I11" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="J11" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="K11" t="s">
-        <v>233</v>
+        <v>125</v>
       </c>
       <c r="L11" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="M11" t="s">
-        <v>84</v>
+        <v>238</v>
       </c>
       <c r="N11" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="O11" t="s">
         <v>95</v>
@@ -4296,7 +4348,7 @@
         <v>96</v>
       </c>
       <c r="Q11" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="R11" t="s">
         <v>95</v>
@@ -4308,49 +4360,49 @@
         <v>99</v>
       </c>
       <c r="U11" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="V11" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="W11" t="s">
-        <v>235</v>
+        <v>101</v>
       </c>
       <c r="X11" t="s">
         <v>101</v>
       </c>
       <c r="Y11" t="s">
-        <v>101</v>
+        <v>239</v>
       </c>
       <c r="Z11" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="AA11" t="s">
-        <v>148</v>
+        <v>104</v>
       </c>
       <c r="AB11" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="AC11" t="s">
-        <v>237</v>
+        <v>187</v>
       </c>
       <c r="AD11" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="AF11" t="s">
-        <v>109</v>
+        <v>165</v>
       </c>
       <c r="AG11" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AH11" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AI11" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AJ11" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AK11" t="s">
         <v>101</v>
@@ -4359,28 +4411,28 @@
         <v>101</v>
       </c>
       <c r="AM11" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AN11" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AO11" t="s">
         <v>101</v>
       </c>
       <c r="AP11" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AQ11" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AR11" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AS11" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="AT11" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AU11" t="s">
         <v>95</v>
@@ -4392,34 +4444,34 @@
         <v>99</v>
       </c>
       <c r="AX11" s="1">
-        <v>44949</v>
+        <v>44948</v>
       </c>
       <c r="AY11" s="1">
-        <v>44946</v>
+        <v>44945</v>
       </c>
       <c r="AZ11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="BA11" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB11" t="s">
         <v>108</v>
       </c>
-      <c r="BB11" t="s">
-        <v>110</v>
-      </c>
       <c r="BC11" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="BD11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="BE11" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="BF11" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="BG11" s="1">
-        <v>44322</v>
+        <v>36520</v>
       </c>
       <c r="BH11" t="s">
         <v>101</v>
@@ -4431,19 +4483,19 @@
         <v>101</v>
       </c>
       <c r="BL11" s="1">
-        <v>44992</v>
+        <v>44998</v>
       </c>
       <c r="BM11" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="BN11" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="BO11" s="1">
-        <v>44956</v>
+        <v>44959</v>
       </c>
       <c r="BP11" t="s">
-        <v>226</v>
+        <v>139</v>
       </c>
       <c r="BQ11" t="s">
         <v>101</v>
@@ -4455,40 +4507,40 @@
         <v>101</v>
       </c>
       <c r="BT11" t="s">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="BU11" t="s">
         <v>117</v>
       </c>
       <c r="BV11" t="s">
-        <v>227</v>
+        <v>141</v>
       </c>
       <c r="BW11" t="s">
         <v>96</v>
       </c>
       <c r="BX11" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY11" t="s">
         <v>119</v>
-      </c>
-      <c r="BY11" t="s">
-        <v>120</v>
       </c>
       <c r="BZ11" t="s">
         <v>96</v>
       </c>
       <c r="CA11" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB11" t="s">
         <v>119</v>
       </c>
-      <c r="CB11" t="s">
-        <v>120</v>
-      </c>
       <c r="CC11" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD11" t="s">
         <v>119</v>
       </c>
-      <c r="CD11" t="s">
-        <v>120</v>
-      </c>
       <c r="CE11">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:83" x14ac:dyDescent="0.2">
@@ -4496,43 +4548,43 @@
         <v>83</v>
       </c>
       <c r="B12" s="1">
-        <v>44949</v>
+        <v>44948</v>
       </c>
       <c r="C12" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="D12" t="s">
         <v>85</v>
       </c>
       <c r="E12" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F12" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="G12" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="H12" t="s">
-        <v>243</v>
+        <v>101</v>
       </c>
       <c r="I12" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="J12" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="K12" t="s">
-        <v>246</v>
+        <v>125</v>
       </c>
       <c r="L12" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M12" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="N12" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="O12" t="s">
         <v>95</v>
@@ -4553,13 +4605,13 @@
         <v>99</v>
       </c>
       <c r="U12" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="V12" t="s">
         <v>101</v>
       </c>
       <c r="W12" t="s">
-        <v>249</v>
+        <v>129</v>
       </c>
       <c r="X12" t="s">
         <v>101</v>
@@ -4568,103 +4620,103 @@
         <v>101</v>
       </c>
       <c r="Z12" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AA12" t="s">
-        <v>148</v>
+        <v>252</v>
       </c>
       <c r="AB12" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="AC12" t="s">
-        <v>150</v>
+        <v>253</v>
       </c>
       <c r="AD12" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="AF12" t="s">
-        <v>84</v>
+        <v>165</v>
       </c>
       <c r="AG12" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AH12" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AI12" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AJ12" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AK12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AL12" t="s">
         <v>101</v>
       </c>
       <c r="AM12" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AN12" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AO12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AP12" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AQ12" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AR12" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AS12" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="AT12" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="AU12" t="s">
         <v>95</v>
       </c>
       <c r="AV12" t="s">
-        <v>98</v>
+        <v>254</v>
       </c>
       <c r="AW12" t="s">
         <v>99</v>
       </c>
       <c r="AX12" s="1">
-        <v>44949</v>
+        <v>44948</v>
       </c>
       <c r="AY12" s="1">
-        <v>44947</v>
+        <v>44943</v>
       </c>
       <c r="AZ12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="BA12" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB12" t="s">
         <v>108</v>
       </c>
-      <c r="BB12" t="s">
-        <v>110</v>
-      </c>
       <c r="BC12" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="BD12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="BE12" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="BF12" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="BG12" s="1">
-        <v>41819</v>
+        <v>33834</v>
       </c>
       <c r="BH12" t="s">
         <v>101</v>
@@ -4676,19 +4728,19 @@
         <v>101</v>
       </c>
       <c r="BL12" s="1">
-        <v>44992</v>
+        <v>44998</v>
       </c>
       <c r="BM12" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="BN12" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="BO12" s="1">
         <v>44950</v>
       </c>
       <c r="BP12" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="BQ12" t="s">
         <v>101</v>
@@ -4700,40 +4752,40 @@
         <v>101</v>
       </c>
       <c r="BT12" t="s">
-        <v>136</v>
+        <v>244</v>
       </c>
       <c r="BU12" t="s">
         <v>117</v>
       </c>
       <c r="BV12" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="BW12" t="s">
         <v>96</v>
       </c>
       <c r="BX12" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY12" t="s">
         <v>119</v>
-      </c>
-      <c r="BY12" t="s">
-        <v>120</v>
       </c>
       <c r="BZ12" t="s">
         <v>96</v>
       </c>
       <c r="CA12" t="s">
+        <v>260</v>
+      </c>
+      <c r="CB12" t="s">
+        <v>260</v>
+      </c>
+      <c r="CC12" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD12" t="s">
         <v>119</v>
       </c>
-      <c r="CB12" t="s">
-        <v>120</v>
-      </c>
-      <c r="CC12" t="s">
-        <v>119</v>
-      </c>
-      <c r="CD12" t="s">
-        <v>120</v>
-      </c>
       <c r="CE12">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:83" x14ac:dyDescent="0.2">
@@ -4741,43 +4793,43 @@
         <v>83</v>
       </c>
       <c r="B13" s="1">
-        <v>44955</v>
+        <v>44949</v>
       </c>
       <c r="C13" t="s">
-        <v>109</v>
+        <v>165</v>
       </c>
       <c r="D13" t="s">
         <v>85</v>
       </c>
       <c r="E13" t="s">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="F13" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="G13" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="H13" t="s">
-        <v>188</v>
+        <v>262</v>
       </c>
       <c r="I13" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="J13" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="K13" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="L13" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="M13" t="s">
-        <v>260</v>
+        <v>94</v>
       </c>
       <c r="N13" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="O13" t="s">
         <v>95</v>
@@ -4786,7 +4838,7 @@
         <v>96</v>
       </c>
       <c r="Q13" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="R13" t="s">
         <v>95</v>
@@ -4795,16 +4847,16 @@
         <v>98</v>
       </c>
       <c r="T13" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="U13" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="V13" t="s">
         <v>101</v>
       </c>
       <c r="W13" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="X13" t="s">
         <v>101</v>
@@ -4813,34 +4865,34 @@
         <v>101</v>
       </c>
       <c r="Z13" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="AA13" t="s">
-        <v>148</v>
+        <v>104</v>
       </c>
       <c r="AB13" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="AC13" t="s">
-        <v>106</v>
+        <v>269</v>
       </c>
       <c r="AD13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF13" t="s">
         <v>107</v>
       </c>
-      <c r="AF13" t="s">
-        <v>145</v>
-      </c>
       <c r="AG13" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AH13" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AI13" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AJ13" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AK13" t="s">
         <v>101</v>
@@ -4849,28 +4901,28 @@
         <v>101</v>
       </c>
       <c r="AM13" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AN13" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AO13" t="s">
         <v>101</v>
       </c>
       <c r="AP13" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AQ13" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AR13" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AS13" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="AT13" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="AU13" t="s">
         <v>95</v>
@@ -4879,37 +4931,37 @@
         <v>98</v>
       </c>
       <c r="AW13" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="AX13" s="1">
-        <v>44955</v>
+        <v>44949</v>
       </c>
       <c r="AY13" s="1">
-        <v>44953</v>
+        <v>44946</v>
       </c>
       <c r="AZ13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="BA13" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB13" t="s">
         <v>108</v>
       </c>
-      <c r="BB13" t="s">
-        <v>110</v>
-      </c>
       <c r="BC13" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="BD13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="BE13" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="BF13" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="BG13" s="1">
-        <v>40075</v>
+        <v>44322</v>
       </c>
       <c r="BH13" t="s">
         <v>101</v>
@@ -4921,19 +4973,19 @@
         <v>101</v>
       </c>
       <c r="BL13" s="1">
-        <v>44992</v>
+        <v>44998</v>
       </c>
       <c r="BM13" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="BN13" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="BO13" s="1">
-        <v>44957</v>
+        <v>44956</v>
       </c>
       <c r="BP13" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="BQ13" t="s">
         <v>101</v>
@@ -4945,40 +4997,40 @@
         <v>101</v>
       </c>
       <c r="BT13" t="s">
-        <v>136</v>
+        <v>244</v>
       </c>
       <c r="BU13" t="s">
         <v>117</v>
       </c>
       <c r="BV13" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="BW13" t="s">
         <v>96</v>
       </c>
       <c r="BX13" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY13" t="s">
         <v>119</v>
-      </c>
-      <c r="BY13" t="s">
-        <v>186</v>
       </c>
       <c r="BZ13" t="s">
         <v>96</v>
       </c>
       <c r="CA13" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB13" t="s">
         <v>119</v>
       </c>
-      <c r="CB13" t="s">
-        <v>186</v>
-      </c>
       <c r="CC13" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD13" t="s">
         <v>119</v>
       </c>
-      <c r="CD13" t="s">
-        <v>120</v>
-      </c>
       <c r="CE13">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:83" x14ac:dyDescent="0.2">
@@ -4986,43 +5038,43 @@
         <v>83</v>
       </c>
       <c r="B14" s="1">
-        <v>44966</v>
+        <v>44949</v>
       </c>
       <c r="C14" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="D14" t="s">
         <v>85</v>
       </c>
       <c r="E14" t="s">
-        <v>266</v>
+        <v>86</v>
       </c>
       <c r="F14" t="s">
         <v>87</v>
       </c>
       <c r="G14" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="H14" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="I14" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="J14" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="K14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L14" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="M14" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="N14" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="O14" t="s">
         <v>95</v>
@@ -5031,7 +5083,7 @@
         <v>96</v>
       </c>
       <c r="Q14" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="R14" t="s">
         <v>95</v>
@@ -5043,49 +5095,49 @@
         <v>99</v>
       </c>
       <c r="U14" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="V14" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="W14" t="s">
-        <v>101</v>
+        <v>279</v>
       </c>
       <c r="X14" t="s">
         <v>101</v>
       </c>
       <c r="Y14" t="s">
-        <v>273</v>
+        <v>101</v>
       </c>
       <c r="Z14" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="AA14" t="s">
-        <v>275</v>
+        <v>104</v>
       </c>
       <c r="AB14" t="s">
         <v>105</v>
       </c>
       <c r="AC14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AD14" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="AF14" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="AG14" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AH14" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AI14" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AJ14" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AK14" t="s">
         <v>101</v>
@@ -5094,28 +5146,28 @@
         <v>101</v>
       </c>
       <c r="AM14" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AN14" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AO14" t="s">
         <v>101</v>
       </c>
       <c r="AP14" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AQ14" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AR14" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AS14" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="AT14" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="AU14" t="s">
         <v>95</v>
@@ -5127,34 +5179,34 @@
         <v>99</v>
       </c>
       <c r="AX14" s="1">
-        <v>44963</v>
+        <v>44949</v>
       </c>
       <c r="AY14" s="1">
-        <v>44961</v>
+        <v>44947</v>
       </c>
       <c r="AZ14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="BA14" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB14" t="s">
         <v>108</v>
       </c>
-      <c r="BB14" t="s">
-        <v>110</v>
-      </c>
       <c r="BC14" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="BD14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="BE14" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="BF14" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="BG14" s="1">
-        <v>29409</v>
+        <v>41819</v>
       </c>
       <c r="BH14" t="s">
         <v>101</v>
@@ -5166,19 +5218,19 @@
         <v>101</v>
       </c>
       <c r="BL14" s="1">
-        <v>44992</v>
+        <v>44998</v>
       </c>
       <c r="BM14" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="BN14" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="BO14" s="1">
-        <v>44966</v>
+        <v>44950</v>
       </c>
       <c r="BP14" t="s">
-        <v>279</v>
+        <v>115</v>
       </c>
       <c r="BQ14" t="s">
         <v>101</v>
@@ -5190,40 +5242,40 @@
         <v>101</v>
       </c>
       <c r="BT14" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="BU14" t="s">
         <v>117</v>
       </c>
       <c r="BV14" t="s">
-        <v>280</v>
+        <v>112</v>
       </c>
       <c r="BW14" t="s">
         <v>96</v>
       </c>
       <c r="BX14" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY14" t="s">
         <v>119</v>
-      </c>
-      <c r="BY14" t="s">
-        <v>120</v>
       </c>
       <c r="BZ14" t="s">
         <v>96</v>
       </c>
       <c r="CA14" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB14" t="s">
         <v>119</v>
       </c>
-      <c r="CB14" t="s">
-        <v>120</v>
-      </c>
       <c r="CC14" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD14" t="s">
         <v>119</v>
       </c>
-      <c r="CD14" t="s">
-        <v>120</v>
-      </c>
       <c r="CE14">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:83" x14ac:dyDescent="0.2">
@@ -5231,43 +5283,43 @@
         <v>83</v>
       </c>
       <c r="B15" s="1">
-        <v>44956</v>
+        <v>44955</v>
       </c>
       <c r="C15" t="s">
-        <v>151</v>
+        <v>107</v>
       </c>
       <c r="D15" t="s">
         <v>85</v>
       </c>
       <c r="E15" t="s">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="F15" t="s">
-        <v>281</v>
+        <v>170</v>
       </c>
       <c r="G15" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H15" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="I15" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="J15" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="K15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L15" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M15" t="s">
-        <v>193</v>
+        <v>288</v>
       </c>
       <c r="N15" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="O15" t="s">
         <v>95</v>
@@ -5276,7 +5328,7 @@
         <v>96</v>
       </c>
       <c r="Q15" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="R15" t="s">
         <v>95</v>
@@ -5288,13 +5340,13 @@
         <v>95</v>
       </c>
       <c r="U15" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="V15" t="s">
         <v>101</v>
       </c>
       <c r="W15" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="X15" t="s">
         <v>101</v>
@@ -5303,64 +5355,64 @@
         <v>101</v>
       </c>
       <c r="Z15" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="AA15" t="s">
-        <v>148</v>
+        <v>104</v>
       </c>
       <c r="AB15" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="AC15" t="s">
-        <v>288</v>
+        <v>134</v>
       </c>
       <c r="AD15" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="AF15" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="AG15" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AH15" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AI15" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AJ15" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AK15" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="AL15" t="s">
         <v>101</v>
       </c>
       <c r="AM15" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AN15" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AO15" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="AP15" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AQ15" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AR15" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AS15" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="AT15" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="AU15" t="s">
         <v>95</v>
@@ -5372,34 +5424,34 @@
         <v>95</v>
       </c>
       <c r="AX15" s="1">
-        <v>44956</v>
+        <v>44955</v>
       </c>
       <c r="AY15" s="1">
-        <v>44956</v>
+        <v>44953</v>
       </c>
       <c r="AZ15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="BA15" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB15" t="s">
         <v>108</v>
       </c>
-      <c r="BB15" t="s">
-        <v>110</v>
-      </c>
       <c r="BC15" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="BD15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="BE15" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="BF15" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="BG15" s="1">
-        <v>34837</v>
+        <v>40075</v>
       </c>
       <c r="BH15" t="s">
         <v>101</v>
@@ -5411,19 +5463,19 @@
         <v>101</v>
       </c>
       <c r="BL15" s="1">
-        <v>44992</v>
+        <v>44998</v>
       </c>
       <c r="BM15" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="BN15" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="BO15" s="1">
-        <v>44967</v>
+        <v>44957</v>
       </c>
       <c r="BP15" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="BQ15" t="s">
         <v>101</v>
@@ -5435,40 +5487,40 @@
         <v>101</v>
       </c>
       <c r="BT15" t="s">
-        <v>291</v>
+        <v>157</v>
       </c>
       <c r="BU15" t="s">
         <v>117</v>
       </c>
       <c r="BV15" t="s">
-        <v>292</v>
+        <v>259</v>
       </c>
       <c r="BW15" t="s">
         <v>96</v>
       </c>
       <c r="BX15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="BY15" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="BZ15" t="s">
         <v>96</v>
       </c>
       <c r="CA15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB15" t="s">
+        <v>204</v>
+      </c>
+      <c r="CC15" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD15" t="s">
         <v>119</v>
       </c>
-      <c r="CB15" t="s">
-        <v>186</v>
-      </c>
-      <c r="CC15" t="s">
-        <v>119</v>
-      </c>
-      <c r="CD15" t="s">
-        <v>120</v>
-      </c>
       <c r="CE15">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:83" x14ac:dyDescent="0.2">
@@ -5476,43 +5528,43 @@
         <v>83</v>
       </c>
       <c r="B16" s="1">
-        <v>44957</v>
+        <v>44966</v>
       </c>
       <c r="C16" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="D16" t="s">
         <v>85</v>
       </c>
       <c r="E16" t="s">
-        <v>213</v>
+        <v>294</v>
       </c>
       <c r="F16" t="s">
-        <v>281</v>
+        <v>87</v>
       </c>
       <c r="G16" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="H16" t="s">
-        <v>175</v>
+        <v>296</v>
       </c>
       <c r="I16" t="s">
-        <v>294</v>
+        <v>221</v>
       </c>
       <c r="J16" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K16" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="L16" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="M16" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="N16" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="O16" t="s">
         <v>95</v>
@@ -5521,7 +5573,7 @@
         <v>96</v>
       </c>
       <c r="Q16" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="R16" t="s">
         <v>95</v>
@@ -5533,79 +5585,79 @@
         <v>99</v>
       </c>
       <c r="U16" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="V16" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="W16" t="s">
-        <v>298</v>
+        <v>101</v>
       </c>
       <c r="X16" t="s">
         <v>101</v>
       </c>
       <c r="Y16" t="s">
-        <v>101</v>
+        <v>300</v>
       </c>
       <c r="Z16" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AA16" t="s">
-        <v>148</v>
+        <v>302</v>
       </c>
       <c r="AB16" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="AC16" t="s">
-        <v>288</v>
+        <v>187</v>
       </c>
       <c r="AD16" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="AF16" t="s">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="AG16" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AH16" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AI16" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AJ16" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AK16" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="AL16" t="s">
         <v>101</v>
       </c>
       <c r="AM16" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AN16" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AO16" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="AP16" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AQ16" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AR16" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AS16" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="AT16" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="AU16" t="s">
         <v>95</v>
@@ -5617,34 +5669,34 @@
         <v>99</v>
       </c>
       <c r="AX16" s="1">
-        <v>44957</v>
+        <v>44963</v>
       </c>
       <c r="AY16" s="1">
-        <v>44955</v>
+        <v>44961</v>
       </c>
       <c r="AZ16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="BA16" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB16" t="s">
         <v>108</v>
       </c>
-      <c r="BB16" t="s">
-        <v>110</v>
-      </c>
       <c r="BC16" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="BD16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="BE16" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="BF16" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="BG16" s="1">
-        <v>33287</v>
+        <v>29409</v>
       </c>
       <c r="BH16" t="s">
         <v>101</v>
@@ -5656,19 +5708,19 @@
         <v>101</v>
       </c>
       <c r="BL16" s="1">
-        <v>44992</v>
+        <v>44998</v>
       </c>
       <c r="BM16" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="BN16" t="s">
-        <v>265</v>
+        <v>305</v>
       </c>
       <c r="BO16" s="1">
-        <v>44967</v>
+        <v>44966</v>
       </c>
       <c r="BP16" t="s">
-        <v>226</v>
+        <v>306</v>
       </c>
       <c r="BQ16" t="s">
         <v>101</v>
@@ -5680,40 +5732,40 @@
         <v>101</v>
       </c>
       <c r="BT16" t="s">
-        <v>291</v>
+        <v>157</v>
       </c>
       <c r="BU16" t="s">
         <v>117</v>
       </c>
       <c r="BV16" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="BW16" t="s">
         <v>96</v>
       </c>
       <c r="BX16" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY16" t="s">
         <v>119</v>
-      </c>
-      <c r="BY16" t="s">
-        <v>120</v>
       </c>
       <c r="BZ16" t="s">
         <v>96</v>
       </c>
       <c r="CA16" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB16" t="s">
         <v>119</v>
       </c>
-      <c r="CB16" t="s">
-        <v>120</v>
-      </c>
       <c r="CC16" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD16" t="s">
         <v>119</v>
       </c>
-      <c r="CD16" t="s">
-        <v>120</v>
-      </c>
       <c r="CE16">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:83" x14ac:dyDescent="0.2">
@@ -5721,43 +5773,43 @@
         <v>83</v>
       </c>
       <c r="B17" s="1">
-        <v>44959</v>
+        <v>44956</v>
       </c>
       <c r="C17" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="D17" t="s">
         <v>85</v>
       </c>
       <c r="E17" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F17" t="s">
-        <v>160</v>
+        <v>308</v>
       </c>
       <c r="G17" t="s">
-        <v>175</v>
+        <v>309</v>
       </c>
       <c r="H17" t="s">
-        <v>188</v>
+        <v>101</v>
       </c>
       <c r="I17" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="J17" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="K17" t="s">
-        <v>246</v>
+        <v>125</v>
       </c>
       <c r="L17" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="M17" t="s">
-        <v>305</v>
+        <v>210</v>
       </c>
       <c r="N17" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="O17" t="s">
         <v>95</v>
@@ -5766,7 +5818,7 @@
         <v>96</v>
       </c>
       <c r="Q17" t="s">
-        <v>143</v>
+        <v>97</v>
       </c>
       <c r="R17" t="s">
         <v>95</v>
@@ -5775,82 +5827,82 @@
         <v>98</v>
       </c>
       <c r="T17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="U17" t="s">
+        <v>100</v>
+      </c>
+      <c r="V17" t="s">
+        <v>101</v>
+      </c>
+      <c r="W17" t="s">
+        <v>313</v>
+      </c>
+      <c r="X17" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>314</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>315</v>
+      </c>
+      <c r="AD17" t="s">
         <v>84</v>
       </c>
-      <c r="V17" t="s">
-        <v>306</v>
-      </c>
-      <c r="W17" t="s">
-        <v>101</v>
-      </c>
-      <c r="X17" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>207</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>307</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>148</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>149</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>308</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>107</v>
-      </c>
       <c r="AF17" t="s">
-        <v>84</v>
+        <v>165</v>
       </c>
       <c r="AG17" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AH17" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AI17" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AJ17" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AK17" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AL17" t="s">
         <v>101</v>
       </c>
       <c r="AM17" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AN17" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AO17" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AP17" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AQ17" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AR17" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AS17" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="AT17" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="AU17" t="s">
         <v>95</v>
@@ -5859,37 +5911,37 @@
         <v>98</v>
       </c>
       <c r="AW17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="AX17" s="1">
-        <v>44959</v>
+        <v>44956</v>
       </c>
       <c r="AY17" s="1">
-        <v>44958</v>
+        <v>44956</v>
       </c>
       <c r="AZ17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="BA17" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB17" t="s">
         <v>108</v>
       </c>
-      <c r="BB17" t="s">
-        <v>110</v>
-      </c>
       <c r="BC17" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="BD17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="BE17" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="BF17" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="BG17" s="1">
-        <v>38736</v>
+        <v>34837</v>
       </c>
       <c r="BH17" t="s">
         <v>101</v>
@@ -5901,19 +5953,19 @@
         <v>101</v>
       </c>
       <c r="BL17" s="1">
-        <v>44992</v>
+        <v>44998</v>
       </c>
       <c r="BM17" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="BN17" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="BO17" s="1">
-        <v>44963</v>
+        <v>44967</v>
       </c>
       <c r="BP17" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="BQ17" t="s">
         <v>101</v>
@@ -5925,40 +5977,40 @@
         <v>101</v>
       </c>
       <c r="BT17" t="s">
-        <v>136</v>
+        <v>318</v>
       </c>
       <c r="BU17" t="s">
         <v>117</v>
       </c>
       <c r="BV17" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="BW17" t="s">
         <v>96</v>
       </c>
       <c r="BX17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="BY17" t="s">
-        <v>120</v>
+        <v>204</v>
       </c>
       <c r="BZ17" t="s">
         <v>96</v>
       </c>
       <c r="CA17" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB17" t="s">
+        <v>204</v>
+      </c>
+      <c r="CC17" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD17" t="s">
         <v>119</v>
       </c>
-      <c r="CB17" t="s">
-        <v>120</v>
-      </c>
-      <c r="CC17" t="s">
-        <v>119</v>
-      </c>
-      <c r="CD17" t="s">
-        <v>120</v>
-      </c>
       <c r="CE17">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:83" x14ac:dyDescent="0.2">
@@ -5966,43 +6018,43 @@
         <v>83</v>
       </c>
       <c r="B18" s="1">
-        <v>44968</v>
+        <v>44957</v>
       </c>
       <c r="C18" t="s">
-        <v>107</v>
+        <v>169</v>
       </c>
       <c r="D18" t="s">
         <v>85</v>
       </c>
       <c r="E18" t="s">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="F18" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="G18" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="H18" t="s">
-        <v>314</v>
+        <v>193</v>
       </c>
       <c r="I18" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="J18" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="K18" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="L18" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="M18" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="N18" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="O18" t="s">
         <v>95</v>
@@ -6011,7 +6063,7 @@
         <v>96</v>
       </c>
       <c r="Q18" t="s">
-        <v>143</v>
+        <v>97</v>
       </c>
       <c r="R18" t="s">
         <v>95</v>
@@ -6023,13 +6075,13 @@
         <v>99</v>
       </c>
       <c r="U18" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="V18" t="s">
         <v>101</v>
       </c>
       <c r="W18" t="s">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="X18" t="s">
         <v>101</v>
@@ -6038,64 +6090,64 @@
         <v>101</v>
       </c>
       <c r="Z18" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="AA18" t="s">
-        <v>320</v>
+        <v>104</v>
       </c>
       <c r="AB18" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="AC18" t="s">
-        <v>221</v>
+        <v>315</v>
       </c>
       <c r="AD18" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="AF18" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="AG18" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AH18" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AI18" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AJ18" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AK18" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AL18" t="s">
         <v>101</v>
       </c>
       <c r="AM18" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AN18" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AO18" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AP18" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AQ18" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AR18" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AS18" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="AT18" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="AU18" t="s">
         <v>95</v>
@@ -6107,34 +6159,34 @@
         <v>99</v>
       </c>
       <c r="AX18" s="1">
-        <v>44968</v>
+        <v>44957</v>
       </c>
       <c r="AY18" s="1">
-        <v>44966</v>
+        <v>44955</v>
       </c>
       <c r="AZ18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="BA18" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB18" t="s">
         <v>108</v>
       </c>
-      <c r="BB18" t="s">
-        <v>110</v>
-      </c>
       <c r="BC18" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="BD18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="BE18" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="BF18" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="BG18" s="1">
-        <v>35799</v>
+        <v>33287</v>
       </c>
       <c r="BH18" t="s">
         <v>101</v>
@@ -6146,19 +6198,19 @@
         <v>101</v>
       </c>
       <c r="BL18" s="1">
-        <v>44992</v>
+        <v>44998</v>
       </c>
       <c r="BM18" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="BN18" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="BO18" s="1">
-        <v>44971</v>
+        <v>44967</v>
       </c>
       <c r="BP18" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="BQ18" t="s">
         <v>101</v>
@@ -6170,40 +6222,40 @@
         <v>101</v>
       </c>
       <c r="BT18" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="BU18" t="s">
         <v>117</v>
       </c>
       <c r="BV18" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="BW18" t="s">
         <v>96</v>
       </c>
       <c r="BX18" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY18" t="s">
         <v>119</v>
-      </c>
-      <c r="BY18" t="s">
-        <v>120</v>
       </c>
       <c r="BZ18" t="s">
         <v>96</v>
       </c>
       <c r="CA18" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB18" t="s">
         <v>119</v>
       </c>
-      <c r="CB18" t="s">
-        <v>120</v>
-      </c>
       <c r="CC18" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD18" t="s">
         <v>119</v>
       </c>
-      <c r="CD18" t="s">
-        <v>120</v>
-      </c>
       <c r="CE18">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:83" x14ac:dyDescent="0.2">
@@ -6211,43 +6263,43 @@
         <v>83</v>
       </c>
       <c r="B19" s="1">
-        <v>44975</v>
+        <v>44959</v>
       </c>
       <c r="C19" t="s">
-        <v>107</v>
+        <v>169</v>
       </c>
       <c r="D19" t="s">
         <v>85</v>
       </c>
       <c r="E19" t="s">
-        <v>137</v>
+        <v>86</v>
       </c>
       <c r="F19" t="s">
-        <v>87</v>
+        <v>178</v>
       </c>
       <c r="G19" t="s">
-        <v>323</v>
+        <v>193</v>
       </c>
       <c r="H19" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="I19" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="J19" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="K19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L19" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="M19" t="s">
-        <v>125</v>
+        <v>332</v>
       </c>
       <c r="N19" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="O19" t="s">
         <v>95</v>
@@ -6256,7 +6308,7 @@
         <v>96</v>
       </c>
       <c r="Q19" t="s">
-        <v>143</v>
+        <v>97</v>
       </c>
       <c r="R19" t="s">
         <v>95</v>
@@ -6265,82 +6317,82 @@
         <v>98</v>
       </c>
       <c r="T19" t="s">
-        <v>326</v>
+        <v>99</v>
       </c>
       <c r="U19" t="s">
-        <v>145</v>
+        <v>94</v>
       </c>
       <c r="V19" t="s">
-        <v>101</v>
+        <v>333</v>
       </c>
       <c r="W19" t="s">
         <v>101</v>
       </c>
       <c r="X19" t="s">
-        <v>327</v>
+        <v>101</v>
       </c>
       <c r="Y19" t="s">
-        <v>101</v>
+        <v>239</v>
       </c>
       <c r="Z19" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="AA19" t="s">
-        <v>148</v>
+        <v>104</v>
       </c>
       <c r="AB19" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
       <c r="AC19" t="s">
-        <v>150</v>
+        <v>335</v>
       </c>
       <c r="AD19" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="AF19" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="AG19" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AH19" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AI19" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AJ19" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AK19" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AL19" t="s">
         <v>101</v>
       </c>
       <c r="AM19" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AN19" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AO19" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AP19" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AQ19" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AR19" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AS19" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="AT19" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="AU19" t="s">
         <v>95</v>
@@ -6349,37 +6401,37 @@
         <v>98</v>
       </c>
       <c r="AW19" t="s">
-        <v>326</v>
+        <v>99</v>
       </c>
       <c r="AX19" s="1">
-        <v>44973</v>
+        <v>44959</v>
       </c>
       <c r="AY19" s="1">
-        <v>44966</v>
+        <v>44958</v>
       </c>
       <c r="AZ19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="BA19" t="s">
-        <v>84</v>
-      </c>
-      <c r="BB19" s="1">
-        <v>44973</v>
+        <v>100</v>
+      </c>
+      <c r="BB19" t="s">
+        <v>108</v>
       </c>
       <c r="BC19" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="BD19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="BE19" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="BF19" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="BG19" s="1">
-        <v>32631</v>
+        <v>38736</v>
       </c>
       <c r="BH19" t="s">
         <v>101</v>
@@ -6391,19 +6443,19 @@
         <v>101</v>
       </c>
       <c r="BL19" s="1">
-        <v>44992</v>
+        <v>44998</v>
       </c>
       <c r="BM19" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="BN19" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="BO19" s="1">
-        <v>44977</v>
+        <v>44963</v>
       </c>
       <c r="BP19" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="BQ19" t="s">
         <v>101</v>
@@ -6415,40 +6467,40 @@
         <v>101</v>
       </c>
       <c r="BT19" t="s">
-        <v>291</v>
+        <v>157</v>
       </c>
       <c r="BU19" t="s">
         <v>117</v>
       </c>
       <c r="BV19" t="s">
-        <v>157</v>
+        <v>339</v>
       </c>
       <c r="BW19" t="s">
         <v>96</v>
       </c>
       <c r="BX19" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY19" t="s">
         <v>119</v>
-      </c>
-      <c r="BY19" t="s">
-        <v>332</v>
       </c>
       <c r="BZ19" t="s">
         <v>96</v>
       </c>
       <c r="CA19" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB19" t="s">
         <v>119</v>
       </c>
-      <c r="CB19" t="s">
-        <v>332</v>
-      </c>
       <c r="CC19" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD19" t="s">
         <v>119</v>
       </c>
-      <c r="CD19" t="s">
-        <v>120</v>
-      </c>
       <c r="CE19">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:83" x14ac:dyDescent="0.2">
@@ -6456,43 +6508,43 @@
         <v>83</v>
       </c>
       <c r="B20" s="1">
-        <v>44970</v>
+        <v>44968</v>
       </c>
       <c r="C20" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="D20" t="s">
         <v>85</v>
       </c>
       <c r="E20" t="s">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="F20" t="s">
-        <v>87</v>
+        <v>308</v>
       </c>
       <c r="G20" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="H20" t="s">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="I20" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="J20" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="K20" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="L20" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="M20" t="s">
-        <v>336</v>
+        <v>224</v>
       </c>
       <c r="N20" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="O20" t="s">
         <v>95</v>
@@ -6501,7 +6553,7 @@
         <v>96</v>
       </c>
       <c r="Q20" t="s">
-        <v>143</v>
+        <v>97</v>
       </c>
       <c r="R20" t="s">
         <v>95</v>
@@ -6513,13 +6565,13 @@
         <v>99</v>
       </c>
       <c r="U20" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="V20" t="s">
         <v>101</v>
       </c>
       <c r="W20" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="X20" t="s">
         <v>101</v>
@@ -6528,64 +6580,64 @@
         <v>101</v>
       </c>
       <c r="Z20" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="AA20" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="AB20" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="AC20" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="AD20" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="AF20" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="AG20" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AH20" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AI20" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AJ20" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AK20" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AL20" t="s">
         <v>101</v>
       </c>
       <c r="AM20" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AN20" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AO20" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AP20" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AQ20" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AR20" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AS20" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="AT20" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="AU20" t="s">
         <v>95</v>
@@ -6597,34 +6649,34 @@
         <v>99</v>
       </c>
       <c r="AX20" s="1">
-        <v>44970</v>
+        <v>44968</v>
       </c>
       <c r="AY20" s="1">
-        <v>44968</v>
+        <v>44966</v>
       </c>
       <c r="AZ20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="BA20" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB20" t="s">
         <v>108</v>
       </c>
-      <c r="BB20" t="s">
-        <v>110</v>
-      </c>
       <c r="BC20" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="BD20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="BE20" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="BF20" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="BG20" s="1">
-        <v>30623</v>
+        <v>35799</v>
       </c>
       <c r="BH20" t="s">
         <v>101</v>
@@ -6636,19 +6688,19 @@
         <v>101</v>
       </c>
       <c r="BL20" s="1">
-        <v>44992</v>
+        <v>44998</v>
       </c>
       <c r="BM20" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="BN20" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="BO20" s="1">
         <v>44971</v>
       </c>
       <c r="BP20" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="BQ20" t="s">
         <v>101</v>
@@ -6660,40 +6712,40 @@
         <v>101</v>
       </c>
       <c r="BT20" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="BU20" t="s">
         <v>117</v>
       </c>
       <c r="BV20" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
       <c r="BW20" t="s">
         <v>96</v>
       </c>
       <c r="BX20" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY20" t="s">
         <v>119</v>
-      </c>
-      <c r="BY20" t="s">
-        <v>120</v>
       </c>
       <c r="BZ20" t="s">
         <v>96</v>
       </c>
       <c r="CA20" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB20" t="s">
         <v>119</v>
       </c>
-      <c r="CB20" t="s">
-        <v>120</v>
-      </c>
       <c r="CC20" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD20" t="s">
         <v>119</v>
       </c>
-      <c r="CD20" t="s">
-        <v>120</v>
-      </c>
       <c r="CE20">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:83" x14ac:dyDescent="0.2">
@@ -6701,43 +6753,43 @@
         <v>83</v>
       </c>
       <c r="B21" s="1">
-        <v>44965</v>
+        <v>44975</v>
       </c>
       <c r="C21" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="D21" t="s">
         <v>85</v>
       </c>
       <c r="E21" t="s">
-        <v>241</v>
+        <v>158</v>
       </c>
       <c r="F21" t="s">
         <v>87</v>
       </c>
       <c r="G21" t="s">
-        <v>188</v>
+        <v>349</v>
       </c>
       <c r="H21" t="s">
-        <v>343</v>
+        <v>101</v>
       </c>
       <c r="I21" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J21" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="K21" t="s">
-        <v>246</v>
+        <v>125</v>
       </c>
       <c r="L21" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="M21" t="s">
-        <v>346</v>
+        <v>146</v>
       </c>
       <c r="N21" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="O21" t="s">
         <v>95</v>
@@ -6746,7 +6798,7 @@
         <v>96</v>
       </c>
       <c r="Q21" t="s">
-        <v>143</v>
+        <v>97</v>
       </c>
       <c r="R21" t="s">
         <v>95</v>
@@ -6755,82 +6807,82 @@
         <v>98</v>
       </c>
       <c r="T21" t="s">
-        <v>99</v>
+        <v>352</v>
       </c>
       <c r="U21" t="s">
-        <v>108</v>
+        <v>165</v>
       </c>
       <c r="V21" t="s">
         <v>101</v>
       </c>
       <c r="W21" t="s">
-        <v>347</v>
+        <v>101</v>
       </c>
       <c r="X21" t="s">
-        <v>101</v>
+        <v>353</v>
       </c>
       <c r="Y21" t="s">
         <v>101</v>
       </c>
       <c r="Z21" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="AA21" t="s">
-        <v>148</v>
+        <v>104</v>
       </c>
       <c r="AB21" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
       <c r="AC21" t="s">
-        <v>349</v>
+        <v>168</v>
       </c>
       <c r="AD21" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="AF21" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AG21" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AH21" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AI21" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AJ21" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AK21" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AL21" t="s">
         <v>101</v>
       </c>
       <c r="AM21" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AN21" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AO21" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AP21" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AQ21" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AR21" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AS21" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="AT21" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="AU21" t="s">
         <v>95</v>
@@ -6839,37 +6891,37 @@
         <v>98</v>
       </c>
       <c r="AW21" t="s">
-        <v>99</v>
+        <v>352</v>
       </c>
       <c r="AX21" s="1">
-        <v>44965</v>
+        <v>44973</v>
       </c>
       <c r="AY21" s="1">
-        <v>44964</v>
+        <v>44966</v>
       </c>
       <c r="AZ21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="BA21" t="s">
+        <v>94</v>
+      </c>
+      <c r="BB21" s="1">
+        <v>44973</v>
+      </c>
+      <c r="BC21" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD21" t="s">
         <v>108</v>
       </c>
-      <c r="BB21" t="s">
-        <v>110</v>
-      </c>
-      <c r="BC21" t="s">
-        <v>84</v>
-      </c>
-      <c r="BD21" t="s">
-        <v>110</v>
-      </c>
       <c r="BE21" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="BF21" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="BG21" s="1">
-        <v>40539</v>
+        <v>32631</v>
       </c>
       <c r="BH21" t="s">
         <v>101</v>
@@ -6881,19 +6933,19 @@
         <v>101</v>
       </c>
       <c r="BL21" s="1">
-        <v>44992</v>
+        <v>44998</v>
       </c>
       <c r="BM21" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="BN21" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="BO21" s="1">
-        <v>44966</v>
+        <v>44977</v>
       </c>
       <c r="BP21" t="s">
-        <v>254</v>
+        <v>174</v>
       </c>
       <c r="BQ21" t="s">
         <v>101</v>
@@ -6905,40 +6957,40 @@
         <v>101</v>
       </c>
       <c r="BT21" t="s">
-        <v>136</v>
+        <v>318</v>
       </c>
       <c r="BU21" t="s">
         <v>117</v>
       </c>
       <c r="BV21" t="s">
-        <v>255</v>
+        <v>175</v>
       </c>
       <c r="BW21" t="s">
         <v>96</v>
       </c>
       <c r="BX21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="BY21" t="s">
-        <v>120</v>
+        <v>358</v>
       </c>
       <c r="BZ21" t="s">
         <v>96</v>
       </c>
       <c r="CA21" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB21" t="s">
+        <v>358</v>
+      </c>
+      <c r="CC21" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD21" t="s">
         <v>119</v>
       </c>
-      <c r="CB21" t="s">
-        <v>120</v>
-      </c>
-      <c r="CC21" t="s">
-        <v>119</v>
-      </c>
-      <c r="CD21" t="s">
-        <v>120</v>
-      </c>
       <c r="CE21">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:83" x14ac:dyDescent="0.2">
@@ -6946,43 +6998,43 @@
         <v>83</v>
       </c>
       <c r="B22" s="1">
-        <v>44971</v>
+        <v>44970</v>
       </c>
       <c r="C22" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="D22" t="s">
         <v>85</v>
       </c>
       <c r="E22" t="s">
-        <v>353</v>
+        <v>245</v>
       </c>
       <c r="F22" t="s">
         <v>87</v>
       </c>
       <c r="G22" t="s">
-        <v>256</v>
+        <v>320</v>
       </c>
       <c r="H22" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="I22" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="J22" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="K22" t="s">
-        <v>246</v>
+        <v>125</v>
       </c>
       <c r="L22" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="M22" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="N22" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="O22" t="s">
         <v>95</v>
@@ -7003,79 +7055,79 @@
         <v>99</v>
       </c>
       <c r="U22" t="s">
+        <v>100</v>
+      </c>
+      <c r="V22" t="s">
+        <v>101</v>
+      </c>
+      <c r="W22" t="s">
+        <v>363</v>
+      </c>
+      <c r="X22" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>364</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>365</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>315</v>
+      </c>
+      <c r="AD22" t="s">
         <v>84</v>
       </c>
-      <c r="V22" t="s">
-        <v>358</v>
-      </c>
-      <c r="W22" t="s">
-        <v>101</v>
-      </c>
-      <c r="X22" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>359</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>360</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>148</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>107</v>
-      </c>
       <c r="AF22" t="s">
-        <v>84</v>
+        <v>165</v>
       </c>
       <c r="AG22" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AH22" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AI22" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AJ22" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AK22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AL22" t="s">
         <v>101</v>
       </c>
       <c r="AM22" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AN22" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AO22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AP22" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AQ22" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AR22" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AS22" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="AT22" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="AU22" t="s">
         <v>95</v>
@@ -7087,58 +7139,58 @@
         <v>99</v>
       </c>
       <c r="AX22" s="1">
+        <v>44970</v>
+      </c>
+      <c r="AY22" s="1">
+        <v>44968</v>
+      </c>
+      <c r="AZ22" t="s">
+        <v>107</v>
+      </c>
+      <c r="BA22" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB22" t="s">
+        <v>108</v>
+      </c>
+      <c r="BC22" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD22" t="s">
+        <v>108</v>
+      </c>
+      <c r="BE22" t="s">
+        <v>135</v>
+      </c>
+      <c r="BF22" t="s">
+        <v>366</v>
+      </c>
+      <c r="BG22" s="1">
+        <v>30623</v>
+      </c>
+      <c r="BH22" t="s">
+        <v>101</v>
+      </c>
+      <c r="BI22" t="s">
+        <v>101</v>
+      </c>
+      <c r="BJ22" t="s">
+        <v>101</v>
+      </c>
+      <c r="BL22" s="1">
+        <v>44998</v>
+      </c>
+      <c r="BM22" t="s">
+        <v>367</v>
+      </c>
+      <c r="BN22" t="s">
+        <v>293</v>
+      </c>
+      <c r="BO22" s="1">
         <v>44971</v>
       </c>
-      <c r="AY22" s="1">
-        <v>44967</v>
-      </c>
-      <c r="AZ22" t="s">
-        <v>109</v>
-      </c>
-      <c r="BA22" t="s">
-        <v>108</v>
-      </c>
-      <c r="BB22" t="s">
-        <v>110</v>
-      </c>
-      <c r="BC22" t="s">
-        <v>84</v>
-      </c>
-      <c r="BD22" t="s">
-        <v>110</v>
-      </c>
-      <c r="BE22" t="s">
-        <v>111</v>
-      </c>
-      <c r="BF22" t="s">
-        <v>361</v>
-      </c>
-      <c r="BG22" s="1">
-        <v>42341</v>
-      </c>
-      <c r="BH22" t="s">
-        <v>101</v>
-      </c>
-      <c r="BI22" t="s">
-        <v>101</v>
-      </c>
-      <c r="BJ22" t="s">
-        <v>101</v>
-      </c>
-      <c r="BL22" s="1">
-        <v>44992</v>
-      </c>
-      <c r="BM22" t="s">
-        <v>362</v>
-      </c>
-      <c r="BN22" t="s">
-        <v>363</v>
-      </c>
-      <c r="BO22" s="1">
-        <v>44977</v>
-      </c>
       <c r="BP22" t="s">
-        <v>364</v>
+        <v>258</v>
       </c>
       <c r="BQ22" t="s">
         <v>101</v>
@@ -7150,40 +7202,40 @@
         <v>101</v>
       </c>
       <c r="BT22" t="s">
-        <v>116</v>
+        <v>318</v>
       </c>
       <c r="BU22" t="s">
         <v>117</v>
       </c>
       <c r="BV22" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="BW22" t="s">
         <v>96</v>
       </c>
       <c r="BX22" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY22" t="s">
         <v>119</v>
-      </c>
-      <c r="BY22" t="s">
-        <v>120</v>
       </c>
       <c r="BZ22" t="s">
         <v>96</v>
       </c>
       <c r="CA22" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB22" t="s">
         <v>119</v>
       </c>
-      <c r="CB22" t="s">
-        <v>120</v>
-      </c>
       <c r="CC22" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD22" t="s">
         <v>119</v>
       </c>
-      <c r="CD22" t="s">
-        <v>120</v>
-      </c>
       <c r="CE22">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:83" x14ac:dyDescent="0.2">
@@ -7191,25 +7243,25 @@
         <v>83</v>
       </c>
       <c r="B23" s="1">
-        <v>44975</v>
+        <v>44971</v>
       </c>
       <c r="C23" t="s">
-        <v>357</v>
+        <v>84</v>
       </c>
       <c r="D23" t="s">
         <v>85</v>
       </c>
       <c r="E23" t="s">
-        <v>366</v>
+        <v>218</v>
       </c>
       <c r="F23" t="s">
         <v>87</v>
       </c>
       <c r="G23" t="s">
-        <v>367</v>
+        <v>284</v>
       </c>
       <c r="H23" t="s">
-        <v>368</v>
+        <v>88</v>
       </c>
       <c r="I23" t="s">
         <v>369</v>
@@ -7218,16 +7270,16 @@
         <v>370</v>
       </c>
       <c r="K23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L23" t="s">
         <v>371</v>
       </c>
       <c r="M23" t="s">
-        <v>372</v>
+        <v>109</v>
       </c>
       <c r="N23" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="O23" t="s">
         <v>95</v>
@@ -7236,61 +7288,61 @@
         <v>96</v>
       </c>
       <c r="Q23" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="R23" t="s">
         <v>95</v>
       </c>
       <c r="S23" t="s">
-        <v>305</v>
+        <v>98</v>
       </c>
       <c r="T23" t="s">
+        <v>99</v>
+      </c>
+      <c r="U23" t="s">
+        <v>94</v>
+      </c>
+      <c r="V23" t="s">
+        <v>225</v>
+      </c>
+      <c r="W23" t="s">
+        <v>101</v>
+      </c>
+      <c r="X23" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>372</v>
+      </c>
+      <c r="Z23" t="s">
         <v>373</v>
       </c>
-      <c r="U23" t="s">
+      <c r="AA23" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD23" t="s">
         <v>84</v>
       </c>
-      <c r="V23" t="s">
-        <v>374</v>
-      </c>
-      <c r="W23" t="s">
-        <v>101</v>
-      </c>
-      <c r="X23" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>207</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>375</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>376</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>377</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>107</v>
-      </c>
       <c r="AF23" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="AG23" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AH23" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AI23" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AJ23" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AK23" t="s">
         <v>101</v>
@@ -7299,28 +7351,28 @@
         <v>101</v>
       </c>
       <c r="AM23" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AN23" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AO23" t="s">
         <v>101</v>
       </c>
       <c r="AP23" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AQ23" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AR23" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AS23" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="AT23" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="AU23" t="s">
         <v>95</v>
@@ -7332,34 +7384,34 @@
         <v>99</v>
       </c>
       <c r="AX23" s="1">
-        <v>44975</v>
+        <v>44971</v>
       </c>
       <c r="AY23" s="1">
-        <v>44975</v>
+        <v>44967</v>
       </c>
       <c r="AZ23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="BA23" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB23" t="s">
         <v>108</v>
       </c>
-      <c r="BB23" t="s">
-        <v>110</v>
-      </c>
       <c r="BC23" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="BD23" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="BE23" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="BF23" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="BG23" s="1">
-        <v>35484</v>
+        <v>42341</v>
       </c>
       <c r="BH23" t="s">
         <v>101</v>
@@ -7371,16 +7423,19 @@
         <v>101</v>
       </c>
       <c r="BL23" s="1">
-        <v>44992</v>
+        <v>44998</v>
       </c>
       <c r="BM23" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="BN23" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="BO23" s="1">
-        <v>44984</v>
+        <v>44977</v>
+      </c>
+      <c r="BP23" t="s">
+        <v>231</v>
       </c>
       <c r="BQ23" t="s">
         <v>101</v>
@@ -7392,31 +7447,40 @@
         <v>101</v>
       </c>
       <c r="BT23" t="s">
-        <v>291</v>
+        <v>140</v>
       </c>
       <c r="BU23" t="s">
         <v>117</v>
       </c>
+      <c r="BV23" t="s">
+        <v>232</v>
+      </c>
       <c r="BW23" t="s">
         <v>96</v>
       </c>
       <c r="BX23" t="s">
-        <v>381</v>
+        <v>118</v>
       </c>
       <c r="BY23" t="s">
-        <v>382</v>
+        <v>119</v>
       </c>
       <c r="BZ23" t="s">
         <v>96</v>
       </c>
       <c r="CA23" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB23" t="s">
         <v>119</v>
       </c>
-      <c r="CB23" t="s">
-        <v>120</v>
+      <c r="CC23" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD23" t="s">
+        <v>119</v>
       </c>
       <c r="CE23">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:83" x14ac:dyDescent="0.2">
@@ -7424,43 +7488,43 @@
         <v>83</v>
       </c>
       <c r="B24" s="1">
-        <v>44977</v>
+        <v>44975</v>
       </c>
       <c r="C24" t="s">
-        <v>357</v>
+        <v>109</v>
       </c>
       <c r="D24" t="s">
         <v>85</v>
       </c>
       <c r="E24" t="s">
-        <v>86</v>
+        <v>377</v>
       </c>
       <c r="F24" t="s">
         <v>87</v>
       </c>
       <c r="G24" t="s">
-        <v>256</v>
+        <v>378</v>
       </c>
       <c r="H24" t="s">
-        <v>188</v>
+        <v>379</v>
       </c>
       <c r="I24" t="s">
+        <v>380</v>
+      </c>
+      <c r="J24" t="s">
+        <v>381</v>
+      </c>
+      <c r="K24" t="s">
+        <v>125</v>
+      </c>
+      <c r="L24" t="s">
+        <v>382</v>
+      </c>
+      <c r="M24" t="s">
         <v>383</v>
       </c>
-      <c r="J24" t="s">
-        <v>384</v>
-      </c>
-      <c r="K24" t="s">
-        <v>92</v>
-      </c>
-      <c r="L24" t="s">
-        <v>385</v>
-      </c>
-      <c r="M24" t="s">
-        <v>206</v>
-      </c>
       <c r="N24" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="O24" t="s">
         <v>95</v>
@@ -7469,22 +7533,22 @@
         <v>96</v>
       </c>
       <c r="Q24" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="R24" t="s">
         <v>95</v>
       </c>
       <c r="S24" t="s">
-        <v>98</v>
+        <v>332</v>
       </c>
       <c r="T24" t="s">
-        <v>99</v>
+        <v>384</v>
       </c>
       <c r="U24" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="V24" t="s">
-        <v>100</v>
+        <v>385</v>
       </c>
       <c r="W24" t="s">
         <v>101</v>
@@ -7493,7 +7557,7 @@
         <v>101</v>
       </c>
       <c r="Y24" t="s">
-        <v>100</v>
+        <v>239</v>
       </c>
       <c r="Z24" t="s">
         <v>386</v>
@@ -7502,28 +7566,28 @@
         <v>387</v>
       </c>
       <c r="AB24" t="s">
-        <v>105</v>
+        <v>388</v>
       </c>
       <c r="AC24" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="AD24" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="AF24" t="s">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="AG24" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AH24" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AI24" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AJ24" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AK24" t="s">
         <v>101</v>
@@ -7532,28 +7596,28 @@
         <v>101</v>
       </c>
       <c r="AM24" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AN24" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AO24" t="s">
         <v>101</v>
       </c>
       <c r="AP24" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AQ24" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AR24" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AS24" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="AT24" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="AU24" t="s">
         <v>95</v>
@@ -7565,34 +7629,34 @@
         <v>99</v>
       </c>
       <c r="AX24" s="1">
-        <v>44977</v>
+        <v>44975</v>
       </c>
       <c r="AY24" s="1">
         <v>44975</v>
       </c>
       <c r="AZ24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="BA24" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB24" t="s">
         <v>108</v>
       </c>
-      <c r="BB24" t="s">
-        <v>110</v>
-      </c>
       <c r="BC24" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="BD24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="BE24" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="BF24" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="BG24" s="1">
-        <v>36543</v>
+        <v>35484</v>
       </c>
       <c r="BH24" t="s">
         <v>101</v>
@@ -7604,19 +7668,16 @@
         <v>101</v>
       </c>
       <c r="BL24" s="1">
-        <v>44992</v>
+        <v>44998</v>
       </c>
       <c r="BM24" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="BN24" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="BO24" s="1">
-        <v>44978</v>
-      </c>
-      <c r="BP24" t="s">
-        <v>115</v>
+        <v>44984</v>
       </c>
       <c r="BQ24" t="s">
         <v>101</v>
@@ -7628,40 +7689,31 @@
         <v>101</v>
       </c>
       <c r="BT24" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="BU24" t="s">
         <v>117</v>
       </c>
-      <c r="BV24" t="s">
-        <v>118</v>
-      </c>
       <c r="BW24" t="s">
         <v>96</v>
       </c>
       <c r="BX24" t="s">
-        <v>119</v>
+        <v>392</v>
       </c>
       <c r="BY24" t="s">
-        <v>120</v>
+        <v>393</v>
       </c>
       <c r="BZ24" t="s">
         <v>96</v>
       </c>
       <c r="CA24" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB24" t="s">
         <v>119</v>
       </c>
-      <c r="CB24" t="s">
-        <v>120</v>
-      </c>
-      <c r="CC24" t="s">
-        <v>119</v>
-      </c>
-      <c r="CD24" t="s">
-        <v>120</v>
-      </c>
       <c r="CE24">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:83" x14ac:dyDescent="0.2">
@@ -7669,43 +7721,43 @@
         <v>83</v>
       </c>
       <c r="B25" s="1">
-        <v>44974</v>
+        <v>44977</v>
       </c>
       <c r="C25" t="s">
-        <v>357</v>
+        <v>109</v>
       </c>
       <c r="D25" t="s">
         <v>85</v>
       </c>
       <c r="E25" t="s">
-        <v>391</v>
+        <v>120</v>
       </c>
       <c r="F25" t="s">
         <v>87</v>
       </c>
       <c r="G25" t="s">
-        <v>392</v>
+        <v>284</v>
       </c>
       <c r="H25" t="s">
-        <v>393</v>
+        <v>88</v>
       </c>
       <c r="I25" t="s">
-        <v>334</v>
+        <v>394</v>
       </c>
       <c r="J25" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="K25" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="L25" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M25" t="s">
-        <v>396</v>
+        <v>238</v>
       </c>
       <c r="N25" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="O25" t="s">
         <v>95</v>
@@ -7714,7 +7766,7 @@
         <v>96</v>
       </c>
       <c r="Q25" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="R25" t="s">
         <v>95</v>
@@ -7726,10 +7778,10 @@
         <v>99</v>
       </c>
       <c r="U25" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="V25" t="s">
-        <v>358</v>
+        <v>129</v>
       </c>
       <c r="W25" t="s">
         <v>101</v>
@@ -7738,37 +7790,37 @@
         <v>101</v>
       </c>
       <c r="Y25" t="s">
-        <v>207</v>
+        <v>129</v>
       </c>
       <c r="Z25" t="s">
         <v>397</v>
       </c>
       <c r="AA25" t="s">
-        <v>148</v>
+        <v>398</v>
       </c>
       <c r="AB25" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="AC25" t="s">
-        <v>398</v>
+        <v>134</v>
       </c>
       <c r="AD25" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="AF25" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="AG25" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AH25" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AI25" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AJ25" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AK25" t="s">
         <v>101</v>
@@ -7777,28 +7829,28 @@
         <v>101</v>
       </c>
       <c r="AM25" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AN25" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AO25" t="s">
         <v>101</v>
       </c>
       <c r="AP25" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AQ25" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AR25" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AS25" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="AT25" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="AU25" t="s">
         <v>95</v>
@@ -7807,37 +7859,37 @@
         <v>98</v>
       </c>
       <c r="AW25" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="AX25" s="1">
-        <v>44974</v>
+        <v>44977</v>
       </c>
       <c r="AY25" s="1">
-        <v>44970</v>
+        <v>44975</v>
       </c>
       <c r="AZ25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="BA25" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB25" t="s">
         <v>108</v>
       </c>
-      <c r="BB25" t="s">
-        <v>110</v>
-      </c>
       <c r="BC25" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="BD25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="BE25" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="BF25" t="s">
         <v>399</v>
       </c>
       <c r="BG25" s="1">
-        <v>15675</v>
+        <v>36543</v>
       </c>
       <c r="BH25" t="s">
         <v>101</v>
@@ -7849,7 +7901,7 @@
         <v>101</v>
       </c>
       <c r="BL25" s="1">
-        <v>44992</v>
+        <v>44998</v>
       </c>
       <c r="BM25" t="s">
         <v>400</v>
@@ -7858,10 +7910,10 @@
         <v>401</v>
       </c>
       <c r="BO25" s="1">
-        <v>44977</v>
+        <v>44978</v>
       </c>
       <c r="BP25" t="s">
-        <v>402</v>
+        <v>139</v>
       </c>
       <c r="BQ25" t="s">
         <v>101</v>
@@ -7873,40 +7925,40 @@
         <v>101</v>
       </c>
       <c r="BT25" t="s">
-        <v>116</v>
+        <v>318</v>
       </c>
       <c r="BU25" t="s">
         <v>117</v>
       </c>
       <c r="BV25" t="s">
-        <v>403</v>
+        <v>141</v>
       </c>
       <c r="BW25" t="s">
         <v>96</v>
       </c>
       <c r="BX25" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY25" t="s">
         <v>119</v>
-      </c>
-      <c r="BY25" t="s">
-        <v>120</v>
       </c>
       <c r="BZ25" t="s">
         <v>96</v>
       </c>
       <c r="CA25" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB25" t="s">
         <v>119</v>
       </c>
-      <c r="CB25" t="s">
-        <v>186</v>
-      </c>
       <c r="CC25" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD25" t="s">
         <v>119</v>
       </c>
-      <c r="CD25" t="s">
-        <v>120</v>
-      </c>
       <c r="CE25">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:83" x14ac:dyDescent="0.2">
@@ -7914,43 +7966,43 @@
         <v>83</v>
       </c>
       <c r="B26" s="1">
-        <v>44982</v>
+        <v>44974</v>
       </c>
       <c r="C26" t="s">
-        <v>248</v>
+        <v>109</v>
       </c>
       <c r="D26" t="s">
         <v>85</v>
       </c>
       <c r="E26" t="s">
-        <v>213</v>
+        <v>402</v>
       </c>
       <c r="F26" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="G26" t="s">
+        <v>403</v>
+      </c>
+      <c r="H26" t="s">
         <v>404</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
+        <v>360</v>
+      </c>
+      <c r="J26" t="s">
         <v>405</v>
       </c>
-      <c r="I26" t="s">
+      <c r="K26" t="s">
+        <v>125</v>
+      </c>
+      <c r="L26" t="s">
         <v>406</v>
       </c>
-      <c r="J26" t="s">
+      <c r="M26" t="s">
         <v>407</v>
       </c>
-      <c r="K26" t="s">
-        <v>92</v>
-      </c>
-      <c r="L26" t="s">
-        <v>408</v>
-      </c>
-      <c r="M26" t="s">
-        <v>409</v>
-      </c>
       <c r="N26" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="O26" t="s">
         <v>95</v>
@@ -7959,7 +8011,7 @@
         <v>96</v>
       </c>
       <c r="Q26" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="R26" t="s">
         <v>95</v>
@@ -7971,49 +8023,49 @@
         <v>99</v>
       </c>
       <c r="U26" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="V26" t="s">
-        <v>101</v>
+        <v>225</v>
       </c>
       <c r="W26" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="X26" t="s">
         <v>101</v>
       </c>
       <c r="Y26" t="s">
-        <v>101</v>
+        <v>239</v>
       </c>
       <c r="Z26" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="AA26" t="s">
-        <v>148</v>
+        <v>104</v>
       </c>
       <c r="AB26" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="AC26" t="s">
-        <v>288</v>
+        <v>409</v>
       </c>
       <c r="AD26" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="AF26" t="s">
-        <v>109</v>
+        <v>165</v>
       </c>
       <c r="AG26" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AH26" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AI26" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AJ26" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AK26" t="s">
         <v>101</v>
@@ -8022,28 +8074,28 @@
         <v>101</v>
       </c>
       <c r="AM26" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AN26" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AO26" t="s">
         <v>101</v>
       </c>
       <c r="AP26" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AQ26" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AR26" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AS26" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="AT26" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="AU26" t="s">
         <v>95</v>
@@ -8052,61 +8104,61 @@
         <v>98</v>
       </c>
       <c r="AW26" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="AX26" s="1">
-        <v>44982</v>
+        <v>44974</v>
       </c>
       <c r="AY26" s="1">
-        <v>44982</v>
+        <v>44970</v>
       </c>
       <c r="AZ26" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="BA26" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB26" t="s">
         <v>108</v>
       </c>
-      <c r="BB26" t="s">
-        <v>110</v>
-      </c>
       <c r="BC26" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="BD26" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="BE26" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="BF26" t="s">
+        <v>410</v>
+      </c>
+      <c r="BG26" s="1">
+        <v>15675</v>
+      </c>
+      <c r="BH26" t="s">
+        <v>101</v>
+      </c>
+      <c r="BI26" t="s">
+        <v>101</v>
+      </c>
+      <c r="BJ26" t="s">
+        <v>101</v>
+      </c>
+      <c r="BL26" s="1">
+        <v>44998</v>
+      </c>
+      <c r="BM26" t="s">
         <v>411</v>
       </c>
-      <c r="BG26" s="1">
-        <v>31601</v>
-      </c>
-      <c r="BH26" t="s">
-        <v>101</v>
-      </c>
-      <c r="BI26" t="s">
-        <v>101</v>
-      </c>
-      <c r="BJ26" t="s">
-        <v>101</v>
-      </c>
-      <c r="BL26" s="1">
-        <v>44992</v>
-      </c>
-      <c r="BM26" t="s">
+      <c r="BN26" t="s">
         <v>412</v>
       </c>
-      <c r="BN26" t="s">
-        <v>265</v>
-      </c>
       <c r="BO26" s="1">
-        <v>44987</v>
+        <v>44977</v>
       </c>
       <c r="BP26" t="s">
-        <v>226</v>
+        <v>413</v>
       </c>
       <c r="BQ26" t="s">
         <v>101</v>
@@ -8118,40 +8170,40 @@
         <v>101</v>
       </c>
       <c r="BT26" t="s">
-        <v>212</v>
+        <v>140</v>
       </c>
       <c r="BU26" t="s">
         <v>117</v>
       </c>
       <c r="BV26" t="s">
-        <v>227</v>
+        <v>414</v>
       </c>
       <c r="BW26" t="s">
         <v>96</v>
       </c>
       <c r="BX26" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY26" t="s">
         <v>119</v>
-      </c>
-      <c r="BY26" t="s">
-        <v>120</v>
       </c>
       <c r="BZ26" t="s">
         <v>96</v>
       </c>
       <c r="CA26" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB26" t="s">
+        <v>204</v>
+      </c>
+      <c r="CC26" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD26" t="s">
         <v>119</v>
       </c>
-      <c r="CB26" t="s">
-        <v>120</v>
-      </c>
-      <c r="CC26" t="s">
-        <v>119</v>
-      </c>
-      <c r="CD26" t="s">
-        <v>120</v>
-      </c>
       <c r="CE26">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:83" x14ac:dyDescent="0.2">
@@ -8159,52 +8211,52 @@
         <v>83</v>
       </c>
       <c r="B27" s="1">
-        <v>44984</v>
+        <v>44982</v>
       </c>
       <c r="C27" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="D27" t="s">
         <v>85</v>
       </c>
       <c r="E27" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F27" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="G27" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="H27" t="s">
-        <v>243</v>
+        <v>416</v>
       </c>
       <c r="I27" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="J27" t="s">
-        <v>204</v>
+        <v>418</v>
       </c>
       <c r="K27" t="s">
-        <v>191</v>
+        <v>125</v>
       </c>
       <c r="L27" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="M27" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="N27" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="O27" t="s">
-        <v>194</v>
+        <v>95</v>
       </c>
       <c r="P27" t="s">
-        <v>195</v>
+        <v>96</v>
       </c>
       <c r="Q27" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="R27" t="s">
         <v>95</v>
@@ -8216,13 +8268,13 @@
         <v>99</v>
       </c>
       <c r="U27" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="V27" t="s">
         <v>101</v>
       </c>
       <c r="W27" t="s">
-        <v>337</v>
+        <v>129</v>
       </c>
       <c r="X27" t="s">
         <v>101</v>
@@ -8231,34 +8283,34 @@
         <v>101</v>
       </c>
       <c r="Z27" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="AA27" t="s">
-        <v>148</v>
+        <v>104</v>
       </c>
       <c r="AB27" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="AC27" t="s">
-        <v>150</v>
+        <v>315</v>
       </c>
       <c r="AD27" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF27" t="s">
         <v>107</v>
       </c>
-      <c r="AF27" t="s">
-        <v>145</v>
-      </c>
       <c r="AG27" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AH27" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AI27" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AJ27" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AK27" t="s">
         <v>101</v>
@@ -8267,28 +8319,28 @@
         <v>101</v>
       </c>
       <c r="AM27" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AN27" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AO27" t="s">
         <v>101</v>
       </c>
       <c r="AP27" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AQ27" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AR27" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AS27" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="AT27" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="AU27" t="s">
         <v>95</v>
@@ -8300,34 +8352,34 @@
         <v>99</v>
       </c>
       <c r="AX27" s="1">
-        <v>44984</v>
+        <v>44982</v>
       </c>
       <c r="AY27" s="1">
-        <v>44981</v>
+        <v>44982</v>
       </c>
       <c r="AZ27" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="BA27" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB27" t="s">
         <v>108</v>
       </c>
-      <c r="BB27" t="s">
-        <v>110</v>
-      </c>
       <c r="BC27" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="BD27" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="BE27" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="BF27" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="BG27" s="1">
-        <v>41687</v>
+        <v>31601</v>
       </c>
       <c r="BH27" t="s">
         <v>101</v>
@@ -8339,19 +8391,19 @@
         <v>101</v>
       </c>
       <c r="BL27" s="1">
-        <v>44992</v>
+        <v>44998</v>
       </c>
       <c r="BM27" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="BN27" t="s">
-        <v>352</v>
+        <v>293</v>
       </c>
       <c r="BO27" s="1">
-        <v>44985</v>
+        <v>44987</v>
       </c>
       <c r="BP27" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="BQ27" t="s">
         <v>101</v>
@@ -8363,40 +8415,40 @@
         <v>101</v>
       </c>
       <c r="BT27" t="s">
-        <v>291</v>
+        <v>244</v>
       </c>
       <c r="BU27" t="s">
         <v>117</v>
       </c>
       <c r="BV27" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="BW27" t="s">
         <v>96</v>
       </c>
       <c r="BX27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY27" t="s">
         <v>119</v>
-      </c>
-      <c r="BY27" t="s">
-        <v>120</v>
       </c>
       <c r="BZ27" t="s">
         <v>96</v>
       </c>
       <c r="CA27" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB27" t="s">
         <v>119</v>
       </c>
-      <c r="CB27" t="s">
-        <v>120</v>
-      </c>
       <c r="CC27" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD27" t="s">
         <v>119</v>
       </c>
-      <c r="CD27" t="s">
-        <v>120</v>
-      </c>
       <c r="CE27">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:83" x14ac:dyDescent="0.2">
@@ -8407,49 +8459,49 @@
         <v>44984</v>
       </c>
       <c r="C28" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="D28" t="s">
         <v>85</v>
       </c>
       <c r="E28" t="s">
-        <v>241</v>
+        <v>86</v>
       </c>
       <c r="F28" t="s">
         <v>87</v>
       </c>
       <c r="G28" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H28" t="s">
-        <v>421</v>
+        <v>274</v>
       </c>
       <c r="I28" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="J28" t="s">
-        <v>315</v>
+        <v>236</v>
       </c>
       <c r="K28" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="L28" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="M28" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="N28" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="O28" t="s">
-        <v>95</v>
+        <v>211</v>
       </c>
       <c r="P28" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="Q28" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="R28" t="s">
         <v>95</v>
@@ -8461,13 +8513,13 @@
         <v>99</v>
       </c>
       <c r="U28" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="V28" t="s">
         <v>101</v>
       </c>
       <c r="W28" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="X28" t="s">
         <v>101</v>
@@ -8476,34 +8528,34 @@
         <v>101</v>
       </c>
       <c r="Z28" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="AA28" t="s">
-        <v>148</v>
+        <v>104</v>
       </c>
       <c r="AB28" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
       <c r="AC28" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="AD28" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="AF28" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="AG28" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AH28" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AI28" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AJ28" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AK28" t="s">
         <v>101</v>
@@ -8512,28 +8564,28 @@
         <v>101</v>
       </c>
       <c r="AM28" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AN28" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AO28" t="s">
         <v>101</v>
       </c>
       <c r="AP28" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AQ28" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AR28" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AS28" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="AT28" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="AU28" t="s">
         <v>95</v>
@@ -8548,31 +8600,31 @@
         <v>44984</v>
       </c>
       <c r="AY28" s="1">
-        <v>44979</v>
+        <v>44981</v>
       </c>
       <c r="AZ28" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="BA28" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB28" t="s">
         <v>108</v>
       </c>
-      <c r="BB28" t="s">
-        <v>110</v>
-      </c>
       <c r="BC28" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="BD28" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="BE28" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="BF28" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="BG28" s="1">
-        <v>39209</v>
+        <v>41687</v>
       </c>
       <c r="BH28" t="s">
         <v>101</v>
@@ -8584,19 +8636,19 @@
         <v>101</v>
       </c>
       <c r="BL28" s="1">
-        <v>44992</v>
+        <v>44998</v>
       </c>
       <c r="BM28" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="BN28" t="s">
-        <v>352</v>
+        <v>114</v>
       </c>
       <c r="BO28" s="1">
         <v>44985</v>
       </c>
       <c r="BP28" t="s">
-        <v>254</v>
+        <v>115</v>
       </c>
       <c r="BQ28" t="s">
         <v>101</v>
@@ -8608,40 +8660,40 @@
         <v>101</v>
       </c>
       <c r="BT28" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="BU28" t="s">
         <v>117</v>
       </c>
       <c r="BV28" t="s">
-        <v>255</v>
+        <v>112</v>
       </c>
       <c r="BW28" t="s">
         <v>96</v>
       </c>
       <c r="BX28" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY28" t="s">
         <v>119</v>
-      </c>
-      <c r="BY28" t="s">
-        <v>120</v>
       </c>
       <c r="BZ28" t="s">
         <v>96</v>
       </c>
       <c r="CA28" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB28" t="s">
         <v>119</v>
       </c>
-      <c r="CB28" t="s">
-        <v>120</v>
-      </c>
       <c r="CC28" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD28" t="s">
         <v>119</v>
       </c>
-      <c r="CD28" t="s">
-        <v>120</v>
-      </c>
       <c r="CE28">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:83" x14ac:dyDescent="0.2">
@@ -8649,43 +8701,43 @@
         <v>83</v>
       </c>
       <c r="B29" s="1">
-        <v>44981</v>
+        <v>44984</v>
       </c>
       <c r="C29" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="D29" t="s">
         <v>85</v>
       </c>
       <c r="E29" t="s">
-        <v>428</v>
+        <v>86</v>
       </c>
       <c r="F29" t="s">
-        <v>396</v>
+        <v>87</v>
       </c>
       <c r="G29" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="H29" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="I29" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="J29" t="s">
-        <v>294</v>
+        <v>342</v>
       </c>
       <c r="K29" t="s">
-        <v>246</v>
+        <v>91</v>
       </c>
       <c r="L29" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="M29" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="N29" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="O29" t="s">
         <v>95</v>
@@ -8694,7 +8746,7 @@
         <v>96</v>
       </c>
       <c r="Q29" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="R29" t="s">
         <v>95</v>
@@ -8706,49 +8758,49 @@
         <v>99</v>
       </c>
       <c r="U29" t="s">
+        <v>100</v>
+      </c>
+      <c r="V29" t="s">
+        <v>101</v>
+      </c>
+      <c r="W29" t="s">
+        <v>102</v>
+      </c>
+      <c r="X29" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>436</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>168</v>
+      </c>
+      <c r="AD29" t="s">
         <v>84</v>
       </c>
-      <c r="V29" t="s">
-        <v>358</v>
-      </c>
-      <c r="W29" t="s">
-        <v>101</v>
-      </c>
-      <c r="X29" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>432</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>433</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>148</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>434</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>435</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>107</v>
-      </c>
       <c r="AF29" t="s">
-        <v>108</v>
+        <v>165</v>
       </c>
       <c r="AG29" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AH29" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AI29" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AJ29" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AK29" t="s">
         <v>101</v>
@@ -8757,28 +8809,28 @@
         <v>101</v>
       </c>
       <c r="AM29" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AN29" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AO29" t="s">
         <v>101</v>
       </c>
       <c r="AP29" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AQ29" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AR29" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AS29" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="AT29" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="AU29" t="s">
         <v>95</v>
@@ -8790,34 +8842,34 @@
         <v>99</v>
       </c>
       <c r="AX29" s="1">
+        <v>44984</v>
+      </c>
+      <c r="AY29" s="1">
         <v>44979</v>
       </c>
-      <c r="AY29" s="1">
-        <v>44977</v>
-      </c>
       <c r="AZ29" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="BA29" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB29" t="s">
         <v>108</v>
       </c>
-      <c r="BB29" t="s">
-        <v>110</v>
-      </c>
       <c r="BC29" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="BD29" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="BE29" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="BF29" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="BG29" s="1">
-        <v>39245</v>
+        <v>39209</v>
       </c>
       <c r="BH29" t="s">
         <v>101</v>
@@ -8829,16 +8881,19 @@
         <v>101</v>
       </c>
       <c r="BL29" s="1">
-        <v>44992</v>
+        <v>44998</v>
       </c>
       <c r="BM29" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="BN29" t="s">
-        <v>438</v>
+        <v>114</v>
       </c>
       <c r="BO29" s="1">
-        <v>44981</v>
+        <v>44985</v>
+      </c>
+      <c r="BP29" t="s">
+        <v>115</v>
       </c>
       <c r="BQ29" t="s">
         <v>101</v>
@@ -8850,31 +8905,40 @@
         <v>101</v>
       </c>
       <c r="BT29" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="BU29" t="s">
         <v>117</v>
       </c>
+      <c r="BV29" t="s">
+        <v>112</v>
+      </c>
       <c r="BW29" t="s">
         <v>96</v>
       </c>
       <c r="BX29" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY29" t="s">
         <v>119</v>
-      </c>
-      <c r="BY29" t="s">
-        <v>120</v>
       </c>
       <c r="BZ29" t="s">
         <v>96</v>
       </c>
       <c r="CA29" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB29" t="s">
         <v>119</v>
       </c>
-      <c r="CB29" t="s">
-        <v>120</v>
+      <c r="CC29" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD29" t="s">
+        <v>119</v>
       </c>
       <c r="CE29">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:83" x14ac:dyDescent="0.2">
@@ -8882,52 +8946,52 @@
         <v>83</v>
       </c>
       <c r="B30" s="1">
-        <v>44987</v>
+        <v>44981</v>
       </c>
       <c r="C30" t="s">
-        <v>416</v>
+        <v>278</v>
       </c>
       <c r="D30" t="s">
         <v>85</v>
       </c>
       <c r="E30" t="s">
-        <v>86</v>
+        <v>439</v>
       </c>
       <c r="F30" t="s">
-        <v>87</v>
+        <v>407</v>
       </c>
       <c r="G30" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H30" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="I30" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="J30" t="s">
+        <v>321</v>
+      </c>
+      <c r="K30" t="s">
+        <v>91</v>
+      </c>
+      <c r="L30" t="s">
         <v>442</v>
       </c>
-      <c r="K30" t="s">
-        <v>191</v>
-      </c>
-      <c r="L30" t="s">
-        <v>443</v>
-      </c>
       <c r="M30" t="s">
-        <v>318</v>
+        <v>435</v>
       </c>
       <c r="N30" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="O30" t="s">
-        <v>194</v>
+        <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>195</v>
+        <v>96</v>
       </c>
       <c r="Q30" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="R30" t="s">
         <v>95</v>
@@ -8939,10 +9003,10 @@
         <v>99</v>
       </c>
       <c r="U30" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="V30" t="s">
-        <v>100</v>
+        <v>225</v>
       </c>
       <c r="W30" t="s">
         <v>101</v>
@@ -8951,67 +9015,67 @@
         <v>101</v>
       </c>
       <c r="Y30" t="s">
-        <v>306</v>
+        <v>443</v>
       </c>
       <c r="Z30" t="s">
         <v>444</v>
       </c>
       <c r="AA30" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB30" t="s">
         <v>445</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>105</v>
       </c>
       <c r="AC30" t="s">
         <v>446</v>
       </c>
       <c r="AD30" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="AF30" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AG30" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AH30" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AI30" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AJ30" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AK30" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="AL30" t="s">
         <v>101</v>
       </c>
       <c r="AM30" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AN30" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AO30" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="AP30" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AQ30" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AR30" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AS30" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="AT30" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="AU30" t="s">
         <v>95</v>
@@ -9023,34 +9087,34 @@
         <v>99</v>
       </c>
       <c r="AX30" s="1">
-        <v>44987</v>
+        <v>44979</v>
       </c>
       <c r="AY30" s="1">
-        <v>44985</v>
+        <v>44977</v>
       </c>
       <c r="AZ30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="BA30" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB30" t="s">
         <v>108</v>
       </c>
-      <c r="BB30" t="s">
-        <v>110</v>
-      </c>
       <c r="BC30" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="BD30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="BE30" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="BF30" t="s">
         <v>447</v>
       </c>
       <c r="BG30" s="1">
-        <v>35626</v>
+        <v>39245</v>
       </c>
       <c r="BH30" t="s">
         <v>101</v>
@@ -9062,19 +9126,16 @@
         <v>101</v>
       </c>
       <c r="BL30" s="1">
-        <v>44992</v>
+        <v>44998</v>
       </c>
       <c r="BM30" t="s">
-        <v>389</v>
+        <v>448</v>
       </c>
       <c r="BN30" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="BO30" s="1">
-        <v>44988</v>
-      </c>
-      <c r="BP30" t="s">
-        <v>115</v>
+        <v>44981</v>
       </c>
       <c r="BQ30" t="s">
         <v>101</v>
@@ -9086,40 +9147,754 @@
         <v>101</v>
       </c>
       <c r="BT30" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="BU30" t="s">
         <v>117</v>
       </c>
-      <c r="BV30" t="s">
-        <v>118</v>
-      </c>
       <c r="BW30" t="s">
         <v>96</v>
       </c>
       <c r="BX30" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY30" t="s">
         <v>119</v>
-      </c>
-      <c r="BY30" t="s">
-        <v>120</v>
       </c>
       <c r="BZ30" t="s">
         <v>96</v>
       </c>
       <c r="CA30" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB30" t="s">
         <v>119</v>
       </c>
-      <c r="CB30" t="s">
+      <c r="CE30">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="1">
+        <v>44989</v>
+      </c>
+      <c r="C31" t="s">
+        <v>427</v>
+      </c>
+      <c r="D31" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" t="s">
+        <v>450</v>
+      </c>
+      <c r="F31" t="s">
+        <v>451</v>
+      </c>
+      <c r="G31" t="s">
+        <v>193</v>
+      </c>
+      <c r="H31" t="s">
+        <v>452</v>
+      </c>
+      <c r="I31" t="s">
+        <v>359</v>
+      </c>
+      <c r="J31" t="s">
+        <v>360</v>
+      </c>
+      <c r="K31" t="s">
+        <v>125</v>
+      </c>
+      <c r="L31" t="s">
+        <v>453</v>
+      </c>
+      <c r="M31" t="s">
+        <v>454</v>
+      </c>
+      <c r="N31" t="s">
+        <v>94</v>
+      </c>
+      <c r="O31" t="s">
+        <v>95</v>
+      </c>
+      <c r="P31" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>97</v>
+      </c>
+      <c r="R31" t="s">
+        <v>95</v>
+      </c>
+      <c r="S31" t="s">
+        <v>98</v>
+      </c>
+      <c r="T31" t="s">
+        <v>99</v>
+      </c>
+      <c r="U31" t="s">
+        <v>94</v>
+      </c>
+      <c r="V31" t="s">
+        <v>385</v>
+      </c>
+      <c r="W31" t="s">
+        <v>101</v>
+      </c>
+      <c r="X31" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>363</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>455</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>165</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP31" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR31" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS31" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT31" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU31" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV31" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW31" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX31" s="1">
+        <v>44988</v>
+      </c>
+      <c r="AY31" s="1">
+        <v>44987</v>
+      </c>
+      <c r="AZ31" t="s">
+        <v>107</v>
+      </c>
+      <c r="BA31" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB31" t="s">
+        <v>108</v>
+      </c>
+      <c r="BC31" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD31" t="s">
+        <v>108</v>
+      </c>
+      <c r="BE31" t="s">
+        <v>135</v>
+      </c>
+      <c r="BF31" t="s">
+        <v>366</v>
+      </c>
+      <c r="BG31" s="1">
+        <v>14150</v>
+      </c>
+      <c r="BH31" t="s">
+        <v>101</v>
+      </c>
+      <c r="BI31" t="s">
+        <v>101</v>
+      </c>
+      <c r="BJ31" t="s">
+        <v>101</v>
+      </c>
+      <c r="BL31" s="1">
+        <v>44998</v>
+      </c>
+      <c r="BM31" t="s">
+        <v>456</v>
+      </c>
+      <c r="BN31" t="s">
+        <v>457</v>
+      </c>
+      <c r="BO31" s="1">
+        <v>44989</v>
+      </c>
+      <c r="BQ31" t="s">
+        <v>101</v>
+      </c>
+      <c r="BR31" t="s">
+        <v>101</v>
+      </c>
+      <c r="BS31" t="s">
+        <v>101</v>
+      </c>
+      <c r="BT31" t="s">
+        <v>318</v>
+      </c>
+      <c r="BU31" t="s">
+        <v>117</v>
+      </c>
+      <c r="BW31" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX31" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY31" t="s">
+        <v>119</v>
+      </c>
+      <c r="BZ31" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA31" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB31" t="s">
+        <v>119</v>
+      </c>
+      <c r="CE31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="1">
+        <v>44987</v>
+      </c>
+      <c r="C32" t="s">
+        <v>427</v>
+      </c>
+      <c r="D32" t="s">
+        <v>85</v>
+      </c>
+      <c r="E32" t="s">
         <v>120</v>
       </c>
-      <c r="CC30" t="s">
+      <c r="F32" t="s">
+        <v>87</v>
+      </c>
+      <c r="G32" t="s">
+        <v>458</v>
+      </c>
+      <c r="H32" t="s">
+        <v>459</v>
+      </c>
+      <c r="I32" t="s">
+        <v>460</v>
+      </c>
+      <c r="J32" t="s">
+        <v>461</v>
+      </c>
+      <c r="K32" t="s">
+        <v>208</v>
+      </c>
+      <c r="L32" t="s">
+        <v>462</v>
+      </c>
+      <c r="M32" t="s">
+        <v>224</v>
+      </c>
+      <c r="N32" t="s">
+        <v>94</v>
+      </c>
+      <c r="O32" t="s">
+        <v>211</v>
+      </c>
+      <c r="P32" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>97</v>
+      </c>
+      <c r="R32" t="s">
+        <v>95</v>
+      </c>
+      <c r="S32" t="s">
+        <v>98</v>
+      </c>
+      <c r="T32" t="s">
+        <v>99</v>
+      </c>
+      <c r="U32" t="s">
+        <v>94</v>
+      </c>
+      <c r="V32" t="s">
+        <v>129</v>
+      </c>
+      <c r="W32" t="s">
+        <v>101</v>
+      </c>
+      <c r="X32" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>333</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>463</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>464</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>465</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW32" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX32" s="1">
+        <v>44987</v>
+      </c>
+      <c r="AY32" s="1">
+        <v>44985</v>
+      </c>
+      <c r="AZ32" t="s">
+        <v>107</v>
+      </c>
+      <c r="BA32" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB32" t="s">
+        <v>108</v>
+      </c>
+      <c r="BC32" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD32" t="s">
+        <v>108</v>
+      </c>
+      <c r="BE32" t="s">
+        <v>135</v>
+      </c>
+      <c r="BF32" t="s">
+        <v>466</v>
+      </c>
+      <c r="BG32" s="1">
+        <v>35626</v>
+      </c>
+      <c r="BH32" t="s">
+        <v>101</v>
+      </c>
+      <c r="BI32" t="s">
+        <v>101</v>
+      </c>
+      <c r="BJ32" t="s">
+        <v>101</v>
+      </c>
+      <c r="BL32" s="1">
+        <v>44998</v>
+      </c>
+      <c r="BM32" t="s">
+        <v>400</v>
+      </c>
+      <c r="BN32" t="s">
+        <v>467</v>
+      </c>
+      <c r="BO32" s="1">
+        <v>44988</v>
+      </c>
+      <c r="BP32" t="s">
+        <v>139</v>
+      </c>
+      <c r="BQ32" t="s">
+        <v>101</v>
+      </c>
+      <c r="BR32" t="s">
+        <v>101</v>
+      </c>
+      <c r="BS32" t="s">
+        <v>101</v>
+      </c>
+      <c r="BT32" t="s">
+        <v>318</v>
+      </c>
+      <c r="BU32" t="s">
+        <v>117</v>
+      </c>
+      <c r="BV32" t="s">
+        <v>141</v>
+      </c>
+      <c r="BW32" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX32" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY32" t="s">
         <v>119</v>
       </c>
-      <c r="CD30" t="s">
-        <v>120</v>
-      </c>
-      <c r="CE30">
+      <c r="BZ32" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA32" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB32" t="s">
+        <v>119</v>
+      </c>
+      <c r="CC32" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD32" t="s">
+        <v>119</v>
+      </c>
+      <c r="CE32">
         <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" s="1">
+        <v>44990</v>
+      </c>
+      <c r="C33" t="s">
+        <v>427</v>
+      </c>
+      <c r="D33" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" t="s">
+        <v>245</v>
+      </c>
+      <c r="F33" t="s">
+        <v>170</v>
+      </c>
+      <c r="G33" t="s">
+        <v>88</v>
+      </c>
+      <c r="H33" t="s">
+        <v>468</v>
+      </c>
+      <c r="I33" t="s">
+        <v>469</v>
+      </c>
+      <c r="J33" t="s">
+        <v>470</v>
+      </c>
+      <c r="K33" t="s">
+        <v>91</v>
+      </c>
+      <c r="L33" t="s">
+        <v>471</v>
+      </c>
+      <c r="M33" t="s">
+        <v>472</v>
+      </c>
+      <c r="N33" t="s">
+        <v>94</v>
+      </c>
+      <c r="O33" t="s">
+        <v>95</v>
+      </c>
+      <c r="P33" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>128</v>
+      </c>
+      <c r="R33" t="s">
+        <v>95</v>
+      </c>
+      <c r="S33" t="s">
+        <v>98</v>
+      </c>
+      <c r="T33" t="s">
+        <v>95</v>
+      </c>
+      <c r="U33" t="s">
+        <v>100</v>
+      </c>
+      <c r="V33" t="s">
+        <v>101</v>
+      </c>
+      <c r="W33" t="s">
+        <v>473</v>
+      </c>
+      <c r="X33" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>474</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>165</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS33" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU33" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV33" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW33" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX33" s="1">
+        <v>44990</v>
+      </c>
+      <c r="AY33" s="1">
+        <v>44988</v>
+      </c>
+      <c r="AZ33" t="s">
+        <v>107</v>
+      </c>
+      <c r="BA33" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB33" t="s">
+        <v>108</v>
+      </c>
+      <c r="BC33" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD33" t="s">
+        <v>108</v>
+      </c>
+      <c r="BE33" t="s">
+        <v>135</v>
+      </c>
+      <c r="BF33" t="s">
+        <v>475</v>
+      </c>
+      <c r="BG33" s="1">
+        <v>39591</v>
+      </c>
+      <c r="BH33" t="s">
+        <v>101</v>
+      </c>
+      <c r="BI33" t="s">
+        <v>101</v>
+      </c>
+      <c r="BJ33" t="s">
+        <v>101</v>
+      </c>
+      <c r="BL33" s="1">
+        <v>44998</v>
+      </c>
+      <c r="BM33" t="s">
+        <v>476</v>
+      </c>
+      <c r="BN33" t="s">
+        <v>293</v>
+      </c>
+      <c r="BO33" s="1">
+        <v>44991</v>
+      </c>
+      <c r="BP33" t="s">
+        <v>258</v>
+      </c>
+      <c r="BQ33" t="s">
+        <v>101</v>
+      </c>
+      <c r="BR33" t="s">
+        <v>101</v>
+      </c>
+      <c r="BS33" t="s">
+        <v>101</v>
+      </c>
+      <c r="BT33" t="s">
+        <v>244</v>
+      </c>
+      <c r="BU33" t="s">
+        <v>117</v>
+      </c>
+      <c r="BV33" t="s">
+        <v>259</v>
+      </c>
+      <c r="BW33" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX33" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY33" t="s">
+        <v>204</v>
+      </c>
+      <c r="BZ33" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA33" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB33" t="s">
+        <v>119</v>
+      </c>
+      <c r="CC33" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD33" t="s">
+        <v>119</v>
+      </c>
+      <c r="CE33">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Boletin_ Epi_Pereira/Datos/evento 831 datos basicos.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/evento 831 datos basicos.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cont_vtrujillov\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C31CC6B-A434-436F-8C7B-19049E5DBD14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="7485" windowHeight="4140"/>
+    <workbookView xWindow="32760" yWindow="30" windowWidth="7485" windowHeight="4140"/>
   </bookViews>
   <sheets>
     <sheet name="evento 831 datos basicos" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2438" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2808" uniqueCount="527">
   <si>
     <t>cod_eve</t>
   </si>
@@ -720,6 +721,51 @@
     <t>VIRREY SOLIS SA PINARES</t>
   </si>
   <si>
+    <t>ABRAHAM</t>
+  </si>
+  <si>
+    <t>ENOC</t>
+  </si>
+  <si>
+    <t>MICETT</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>VEN6041969</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>AV DEL RIO</t>
+  </si>
+  <si>
+    <t>AVENIDA DEL RIO CRA 26 MZ F CASA  154</t>
+  </si>
+  <si>
+    <t>ESS024</t>
+  </si>
+  <si>
+    <t>3217234212</t>
+  </si>
+  <si>
+    <t>CATALINA LLANOS CORREA</t>
+  </si>
+  <si>
+    <t>3515252</t>
+  </si>
+  <si>
+    <t>816005003</t>
+  </si>
+  <si>
+    <t>SIVIGILA - 2018 - 18.6.0</t>
+  </si>
+  <si>
+    <t>HOSPITAL DEL CENTRO</t>
+  </si>
+  <si>
     <t>HERNAN</t>
   </si>
   <si>
@@ -783,9 +829,6 @@
     <t>EPS017</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>3153558525</t>
   </si>
   <si>
@@ -984,9 +1027,6 @@
     <t>ANGELICA</t>
   </si>
   <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
     <t>CASTAÑO</t>
   </si>
   <si>
@@ -1035,9 +1075,6 @@
     <t>ANGGIE CRISTINA REALES GUERRA</t>
   </si>
   <si>
-    <t>3515252</t>
-  </si>
-  <si>
     <t>UNIDAD INTERMEDIA DE CUBA</t>
   </si>
   <si>
@@ -1314,6 +1351,45 @@
     <t>HUMBERTO ROJAS</t>
   </si>
   <si>
+    <t>6600103078</t>
+  </si>
+  <si>
+    <t>VALENTINO</t>
+  </si>
+  <si>
+    <t>RUBIO</t>
+  </si>
+  <si>
+    <t>CALLE</t>
+  </si>
+  <si>
+    <t>1035013494</t>
+  </si>
+  <si>
+    <t>VEREDA EL CONGOLO</t>
+  </si>
+  <si>
+    <t>CALLE 95 # 40-75 CONJUNTO KAOBA MZ 2 CS 3</t>
+  </si>
+  <si>
+    <t>3212062224</t>
+  </si>
+  <si>
+    <t>PAOLA OSPINA CASTRO</t>
+  </si>
+  <si>
+    <t>3174040501</t>
+  </si>
+  <si>
+    <t>901417124</t>
+  </si>
+  <si>
+    <t>SIVIGILA - 2018 -18.6.2$0$0.1</t>
+  </si>
+  <si>
+    <t>COOMEVA EMERGENCIA MEDICA SERVICIO DE AMBULANCIA P</t>
+  </si>
+  <si>
     <t>DEIBYTH</t>
   </si>
   <si>
@@ -1425,6 +1501,63 @@
     <t>3146408557</t>
   </si>
   <si>
+    <t>CARRILLO</t>
+  </si>
+  <si>
+    <t>PEREA</t>
+  </si>
+  <si>
+    <t>1089102533</t>
+  </si>
+  <si>
+    <t>MANZANA 8 CASA 13</t>
+  </si>
+  <si>
+    <t>3233431644</t>
+  </si>
+  <si>
+    <t>MARTIN BURBANO</t>
+  </si>
+  <si>
+    <t>3152161737</t>
+  </si>
+  <si>
+    <t>6600101587</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>YOSTIN</t>
+  </si>
+  <si>
+    <t>SANTA</t>
+  </si>
+  <si>
+    <t>BETANCUR</t>
+  </si>
+  <si>
+    <t>1089619686</t>
+  </si>
+  <si>
+    <t>MANZANA E CASA 12 ALAMEDA</t>
+  </si>
+  <si>
+    <t>3246331067</t>
+  </si>
+  <si>
+    <t>LICETT RUIZ</t>
+  </si>
+  <si>
+    <t>3115411</t>
+  </si>
+  <si>
+    <t>900342064</t>
+  </si>
+  <si>
+    <t>SOCIEDAD COMERCIALIZADORA DE INSUMOS Y SERVICIOS M</t>
+  </si>
+  <si>
     <t>MIGUEL</t>
   </si>
   <si>
@@ -1450,12 +1583,30 @@
   </si>
   <si>
     <t>LAURA MORENO HINCAPIE</t>
+  </si>
+  <si>
+    <t>SAYUMI</t>
+  </si>
+  <si>
+    <t>TORRES</t>
+  </si>
+  <si>
+    <t>BARCO</t>
+  </si>
+  <si>
+    <t>1142521140</t>
+  </si>
+  <si>
+    <t>LENIGRADO 2 MANZANA 16 CASA 201 CUBA</t>
+  </si>
+  <si>
+    <t>3178605660</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1587,7 +1738,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -1599,7 +1750,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -1616,9 +1767,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1646,14 +1797,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1681,6 +1849,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1833,7 +2018,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CE33"/>
+  <dimension ref="A1:CE38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2278,7 +2463,7 @@
         <v>112</v>
       </c>
       <c r="BL2" s="1">
-        <v>44998</v>
+        <v>45006</v>
       </c>
       <c r="BM2" t="s">
         <v>113</v>
@@ -2523,7 +2708,7 @@
         <v>101</v>
       </c>
       <c r="BL3" s="1">
-        <v>44998</v>
+        <v>45006</v>
       </c>
       <c r="BM3" t="s">
         <v>137</v>
@@ -2768,7 +2953,7 @@
         <v>101</v>
       </c>
       <c r="BL4" s="1">
-        <v>44998</v>
+        <v>45006</v>
       </c>
       <c r="BM4" t="s">
         <v>151</v>
@@ -3013,7 +3198,7 @@
         <v>101</v>
       </c>
       <c r="BL5" s="1">
-        <v>44998</v>
+        <v>45006</v>
       </c>
       <c r="BM5" t="s">
         <v>156</v>
@@ -3258,7 +3443,7 @@
         <v>101</v>
       </c>
       <c r="BL6" s="1">
-        <v>44998</v>
+        <v>45006</v>
       </c>
       <c r="BM6" t="s">
         <v>172</v>
@@ -3503,7 +3688,7 @@
         <v>101</v>
       </c>
       <c r="BL7" s="1">
-        <v>44998</v>
+        <v>45006</v>
       </c>
       <c r="BM7" t="s">
         <v>189</v>
@@ -3748,7 +3933,7 @@
         <v>101</v>
       </c>
       <c r="BL8" s="1">
-        <v>44998</v>
+        <v>45006</v>
       </c>
       <c r="BM8" t="s">
         <v>137</v>
@@ -3993,7 +4178,7 @@
         <v>101</v>
       </c>
       <c r="BL9" s="1">
-        <v>44998</v>
+        <v>45006</v>
       </c>
       <c r="BM9" t="s">
         <v>216</v>
@@ -4238,7 +4423,7 @@
         <v>101</v>
       </c>
       <c r="BL10" s="1">
-        <v>44998</v>
+        <v>45006</v>
       </c>
       <c r="BM10" t="s">
         <v>229</v>
@@ -4303,19 +4488,19 @@
         <v>83</v>
       </c>
       <c r="B11" s="1">
-        <v>44948</v>
+        <v>44995</v>
       </c>
       <c r="C11" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D11" t="s">
         <v>85</v>
       </c>
       <c r="E11" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="F11" t="s">
-        <v>87</v>
+        <v>224</v>
       </c>
       <c r="G11" t="s">
         <v>233</v>
@@ -4330,7 +4515,7 @@
         <v>236</v>
       </c>
       <c r="K11" t="s">
-        <v>125</v>
+        <v>208</v>
       </c>
       <c r="L11" t="s">
         <v>237</v>
@@ -4342,10 +4527,10 @@
         <v>94</v>
       </c>
       <c r="O11" t="s">
-        <v>95</v>
+        <v>211</v>
       </c>
       <c r="P11" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="Q11" t="s">
         <v>128</v>
@@ -4360,19 +4545,19 @@
         <v>99</v>
       </c>
       <c r="U11" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="V11" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="W11" t="s">
-        <v>101</v>
+        <v>239</v>
       </c>
       <c r="X11" t="s">
         <v>101</v>
       </c>
       <c r="Y11" t="s">
-        <v>239</v>
+        <v>101</v>
       </c>
       <c r="Z11" t="s">
         <v>240</v>
@@ -4381,16 +4566,16 @@
         <v>104</v>
       </c>
       <c r="AB11" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="AC11" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="AD11" t="s">
         <v>84</v>
       </c>
       <c r="AF11" t="s">
-        <v>165</v>
+        <v>94</v>
       </c>
       <c r="AG11" t="s">
         <v>100</v>
@@ -4399,7 +4584,7 @@
         <v>100</v>
       </c>
       <c r="AI11" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AJ11" t="s">
         <v>100</v>
@@ -4429,10 +4614,10 @@
         <v>100</v>
       </c>
       <c r="AS11" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AT11" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AU11" t="s">
         <v>95</v>
@@ -4444,10 +4629,10 @@
         <v>99</v>
       </c>
       <c r="AX11" s="1">
-        <v>44948</v>
+        <v>44995</v>
       </c>
       <c r="AY11" s="1">
-        <v>44945</v>
+        <v>44992</v>
       </c>
       <c r="AZ11" t="s">
         <v>107</v>
@@ -4468,10 +4653,10 @@
         <v>135</v>
       </c>
       <c r="BF11" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="BG11" s="1">
-        <v>36520</v>
+        <v>40873</v>
       </c>
       <c r="BH11" t="s">
         <v>101</v>
@@ -4483,19 +4668,19 @@
         <v>101</v>
       </c>
       <c r="BL11" s="1">
+        <v>45006</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>243</v>
+      </c>
+      <c r="BN11" t="s">
+        <v>244</v>
+      </c>
+      <c r="BO11" s="1">
         <v>44998</v>
       </c>
-      <c r="BM11" t="s">
-        <v>242</v>
-      </c>
-      <c r="BN11" t="s">
-        <v>243</v>
-      </c>
-      <c r="BO11" s="1">
-        <v>44959</v>
-      </c>
       <c r="BP11" t="s">
-        <v>139</v>
+        <v>245</v>
       </c>
       <c r="BQ11" t="s">
         <v>101</v>
@@ -4507,13 +4692,13 @@
         <v>101</v>
       </c>
       <c r="BT11" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="BU11" t="s">
         <v>117</v>
       </c>
       <c r="BV11" t="s">
-        <v>141</v>
+        <v>247</v>
       </c>
       <c r="BW11" t="s">
         <v>96</v>
@@ -4540,7 +4725,7 @@
         <v>119</v>
       </c>
       <c r="CE11">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:83" x14ac:dyDescent="0.2">
@@ -4557,31 +4742,31 @@
         <v>85</v>
       </c>
       <c r="E12" t="s">
-        <v>245</v>
+        <v>120</v>
       </c>
       <c r="F12" t="s">
-        <v>170</v>
+        <v>87</v>
       </c>
       <c r="G12" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H12" t="s">
-        <v>101</v>
+        <v>249</v>
       </c>
       <c r="I12" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="J12" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K12" t="s">
         <v>125</v>
       </c>
       <c r="L12" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="M12" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="N12" t="s">
         <v>94</v>
@@ -4593,7 +4778,7 @@
         <v>96</v>
       </c>
       <c r="Q12" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="R12" t="s">
         <v>95</v>
@@ -4605,31 +4790,31 @@
         <v>99</v>
       </c>
       <c r="U12" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="V12" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="W12" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="X12" t="s">
         <v>101</v>
       </c>
       <c r="Y12" t="s">
-        <v>101</v>
+        <v>254</v>
       </c>
       <c r="Z12" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="AA12" t="s">
-        <v>252</v>
+        <v>104</v>
       </c>
       <c r="AB12" t="s">
         <v>133</v>
       </c>
       <c r="AC12" t="s">
-        <v>253</v>
+        <v>187</v>
       </c>
       <c r="AD12" t="s">
         <v>84</v>
@@ -4650,7 +4835,7 @@
         <v>100</v>
       </c>
       <c r="AK12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL12" t="s">
         <v>101</v>
@@ -4662,7 +4847,7 @@
         <v>100</v>
       </c>
       <c r="AO12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AP12" t="s">
         <v>100</v>
@@ -4677,13 +4862,13 @@
         <v>94</v>
       </c>
       <c r="AT12" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AU12" t="s">
         <v>95</v>
       </c>
       <c r="AV12" t="s">
-        <v>254</v>
+        <v>98</v>
       </c>
       <c r="AW12" t="s">
         <v>99</v>
@@ -4692,7 +4877,7 @@
         <v>44948</v>
       </c>
       <c r="AY12" s="1">
-        <v>44943</v>
+        <v>44945</v>
       </c>
       <c r="AZ12" t="s">
         <v>107</v>
@@ -4713,10 +4898,10 @@
         <v>135</v>
       </c>
       <c r="BF12" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="BG12" s="1">
-        <v>33834</v>
+        <v>36520</v>
       </c>
       <c r="BH12" t="s">
         <v>101</v>
@@ -4728,19 +4913,19 @@
         <v>101</v>
       </c>
       <c r="BL12" s="1">
-        <v>44998</v>
+        <v>45006</v>
       </c>
       <c r="BM12" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="BN12" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="BO12" s="1">
-        <v>44950</v>
+        <v>44959</v>
       </c>
       <c r="BP12" t="s">
-        <v>258</v>
+        <v>139</v>
       </c>
       <c r="BQ12" t="s">
         <v>101</v>
@@ -4752,13 +4937,13 @@
         <v>101</v>
       </c>
       <c r="BT12" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="BU12" t="s">
         <v>117</v>
       </c>
       <c r="BV12" t="s">
-        <v>259</v>
+        <v>141</v>
       </c>
       <c r="BW12" t="s">
         <v>96</v>
@@ -4773,10 +4958,10 @@
         <v>96</v>
       </c>
       <c r="CA12" t="s">
-        <v>260</v>
+        <v>118</v>
       </c>
       <c r="CB12" t="s">
-        <v>260</v>
+        <v>119</v>
       </c>
       <c r="CC12" t="s">
         <v>118</v>
@@ -4785,7 +4970,7 @@
         <v>119</v>
       </c>
       <c r="CE12">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:83" x14ac:dyDescent="0.2">
@@ -4793,7 +4978,7 @@
         <v>83</v>
       </c>
       <c r="B13" s="1">
-        <v>44949</v>
+        <v>44948</v>
       </c>
       <c r="C13" t="s">
         <v>165</v>
@@ -4802,7 +4987,7 @@
         <v>85</v>
       </c>
       <c r="E13" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="F13" t="s">
         <v>170</v>
@@ -4811,22 +4996,22 @@
         <v>261</v>
       </c>
       <c r="H13" t="s">
+        <v>101</v>
+      </c>
+      <c r="I13" t="s">
         <v>262</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>263</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
+        <v>125</v>
+      </c>
+      <c r="L13" t="s">
         <v>264</v>
       </c>
-      <c r="K13" t="s">
+      <c r="M13" t="s">
         <v>265</v>
-      </c>
-      <c r="L13" t="s">
-        <v>266</v>
-      </c>
-      <c r="M13" t="s">
-        <v>94</v>
       </c>
       <c r="N13" t="s">
         <v>94</v>
@@ -4838,7 +5023,7 @@
         <v>96</v>
       </c>
       <c r="Q13" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="R13" t="s">
         <v>95</v>
@@ -4856,31 +5041,31 @@
         <v>101</v>
       </c>
       <c r="W13" t="s">
+        <v>129</v>
+      </c>
+      <c r="X13" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>266</v>
+      </c>
+      <c r="AA13" t="s">
         <v>267</v>
-      </c>
-      <c r="X13" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>268</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>104</v>
       </c>
       <c r="AB13" t="s">
         <v>133</v>
       </c>
       <c r="AC13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AD13" t="s">
         <v>84</v>
       </c>
       <c r="AF13" t="s">
-        <v>107</v>
+        <v>165</v>
       </c>
       <c r="AG13" t="s">
         <v>100</v>
@@ -4895,7 +5080,7 @@
         <v>100</v>
       </c>
       <c r="AK13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AL13" t="s">
         <v>101</v>
@@ -4907,7 +5092,7 @@
         <v>100</v>
       </c>
       <c r="AO13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AP13" t="s">
         <v>100</v>
@@ -4922,22 +5107,22 @@
         <v>94</v>
       </c>
       <c r="AT13" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AU13" t="s">
         <v>95</v>
       </c>
       <c r="AV13" t="s">
-        <v>98</v>
+        <v>238</v>
       </c>
       <c r="AW13" t="s">
         <v>99</v>
       </c>
       <c r="AX13" s="1">
-        <v>44949</v>
+        <v>44948</v>
       </c>
       <c r="AY13" s="1">
-        <v>44946</v>
+        <v>44943</v>
       </c>
       <c r="AZ13" t="s">
         <v>107</v>
@@ -4958,35 +5143,35 @@
         <v>135</v>
       </c>
       <c r="BF13" t="s">
+        <v>269</v>
+      </c>
+      <c r="BG13" s="1">
+        <v>33834</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>101</v>
+      </c>
+      <c r="BI13" t="s">
+        <v>101</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>101</v>
+      </c>
+      <c r="BL13" s="1">
+        <v>45006</v>
+      </c>
+      <c r="BM13" t="s">
         <v>270</v>
       </c>
-      <c r="BG13" s="1">
-        <v>44322</v>
-      </c>
-      <c r="BH13" t="s">
-        <v>101</v>
-      </c>
-      <c r="BI13" t="s">
-        <v>101</v>
-      </c>
-      <c r="BJ13" t="s">
-        <v>101</v>
-      </c>
-      <c r="BL13" s="1">
-        <v>44998</v>
-      </c>
-      <c r="BM13" t="s">
+      <c r="BN13" t="s">
         <v>271</v>
       </c>
-      <c r="BN13" t="s">
+      <c r="BO13" s="1">
+        <v>44950</v>
+      </c>
+      <c r="BP13" t="s">
         <v>272</v>
       </c>
-      <c r="BO13" s="1">
-        <v>44956</v>
-      </c>
-      <c r="BP13" t="s">
-        <v>258</v>
-      </c>
       <c r="BQ13" t="s">
         <v>101</v>
       </c>
@@ -4997,13 +5182,13 @@
         <v>101</v>
       </c>
       <c r="BT13" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="BU13" t="s">
         <v>117</v>
       </c>
       <c r="BV13" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="BW13" t="s">
         <v>96</v>
@@ -5018,10 +5203,10 @@
         <v>96</v>
       </c>
       <c r="CA13" t="s">
-        <v>118</v>
+        <v>274</v>
       </c>
       <c r="CB13" t="s">
-        <v>119</v>
+        <v>274</v>
       </c>
       <c r="CC13" t="s">
         <v>118</v>
@@ -5030,7 +5215,7 @@
         <v>119</v>
       </c>
       <c r="CE13">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:83" x14ac:dyDescent="0.2">
@@ -5047,31 +5232,31 @@
         <v>85</v>
       </c>
       <c r="E14" t="s">
-        <v>86</v>
+        <v>260</v>
       </c>
       <c r="F14" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="G14" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H14" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="I14" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="J14" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K14" t="s">
-        <v>91</v>
+        <v>279</v>
       </c>
       <c r="L14" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="M14" t="s">
-        <v>278</v>
+        <v>94</v>
       </c>
       <c r="N14" t="s">
         <v>94</v>
@@ -5101,7 +5286,7 @@
         <v>101</v>
       </c>
       <c r="W14" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="X14" t="s">
         <v>101</v>
@@ -5110,22 +5295,22 @@
         <v>101</v>
       </c>
       <c r="Z14" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AA14" t="s">
         <v>104</v>
       </c>
       <c r="AB14" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="AC14" t="s">
-        <v>168</v>
+        <v>283</v>
       </c>
       <c r="AD14" t="s">
         <v>84</v>
       </c>
       <c r="AF14" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="AG14" t="s">
         <v>100</v>
@@ -5167,7 +5352,7 @@
         <v>94</v>
       </c>
       <c r="AT14" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AU14" t="s">
         <v>95</v>
@@ -5182,7 +5367,7 @@
         <v>44949</v>
       </c>
       <c r="AY14" s="1">
-        <v>44947</v>
+        <v>44946</v>
       </c>
       <c r="AZ14" t="s">
         <v>107</v>
@@ -5203,10 +5388,10 @@
         <v>135</v>
       </c>
       <c r="BF14" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="BG14" s="1">
-        <v>41819</v>
+        <v>44322</v>
       </c>
       <c r="BH14" t="s">
         <v>101</v>
@@ -5218,19 +5403,19 @@
         <v>101</v>
       </c>
       <c r="BL14" s="1">
-        <v>44998</v>
+        <v>45006</v>
       </c>
       <c r="BM14" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="BN14" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="BO14" s="1">
-        <v>44950</v>
+        <v>44956</v>
       </c>
       <c r="BP14" t="s">
-        <v>115</v>
+        <v>272</v>
       </c>
       <c r="BQ14" t="s">
         <v>101</v>
@@ -5242,13 +5427,13 @@
         <v>101</v>
       </c>
       <c r="BT14" t="s">
-        <v>157</v>
+        <v>259</v>
       </c>
       <c r="BU14" t="s">
         <v>117</v>
       </c>
       <c r="BV14" t="s">
-        <v>112</v>
+        <v>273</v>
       </c>
       <c r="BW14" t="s">
         <v>96</v>
@@ -5275,7 +5460,7 @@
         <v>119</v>
       </c>
       <c r="CE14">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:83" x14ac:dyDescent="0.2">
@@ -5283,40 +5468,40 @@
         <v>83</v>
       </c>
       <c r="B15" s="1">
-        <v>44955</v>
+        <v>44949</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>165</v>
       </c>
       <c r="D15" t="s">
         <v>85</v>
       </c>
       <c r="E15" t="s">
-        <v>245</v>
+        <v>86</v>
       </c>
       <c r="F15" t="s">
-        <v>170</v>
+        <v>87</v>
       </c>
       <c r="G15" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="H15" t="s">
-        <v>88</v>
+        <v>288</v>
       </c>
       <c r="I15" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="J15" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="K15" t="s">
         <v>91</v>
       </c>
       <c r="L15" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="M15" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="N15" t="s">
         <v>94</v>
@@ -5337,7 +5522,7 @@
         <v>98</v>
       </c>
       <c r="T15" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="U15" t="s">
         <v>100</v>
@@ -5346,7 +5531,7 @@
         <v>101</v>
       </c>
       <c r="W15" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="X15" t="s">
         <v>101</v>
@@ -5355,22 +5540,22 @@
         <v>101</v>
       </c>
       <c r="Z15" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="AA15" t="s">
         <v>104</v>
       </c>
       <c r="AB15" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="AC15" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="AD15" t="s">
         <v>84</v>
       </c>
       <c r="AF15" t="s">
-        <v>165</v>
+        <v>94</v>
       </c>
       <c r="AG15" t="s">
         <v>100</v>
@@ -5421,13 +5606,13 @@
         <v>98</v>
       </c>
       <c r="AW15" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="AX15" s="1">
-        <v>44955</v>
+        <v>44949</v>
       </c>
       <c r="AY15" s="1">
-        <v>44953</v>
+        <v>44947</v>
       </c>
       <c r="AZ15" t="s">
         <v>107</v>
@@ -5448,10 +5633,10 @@
         <v>135</v>
       </c>
       <c r="BF15" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="BG15" s="1">
-        <v>40075</v>
+        <v>41819</v>
       </c>
       <c r="BH15" t="s">
         <v>101</v>
@@ -5463,19 +5648,19 @@
         <v>101</v>
       </c>
       <c r="BL15" s="1">
-        <v>44998</v>
+        <v>45006</v>
       </c>
       <c r="BM15" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="BN15" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="BO15" s="1">
-        <v>44957</v>
+        <v>44950</v>
       </c>
       <c r="BP15" t="s">
-        <v>258</v>
+        <v>115</v>
       </c>
       <c r="BQ15" t="s">
         <v>101</v>
@@ -5493,7 +5678,7 @@
         <v>117</v>
       </c>
       <c r="BV15" t="s">
-        <v>259</v>
+        <v>112</v>
       </c>
       <c r="BW15" t="s">
         <v>96</v>
@@ -5502,7 +5687,7 @@
         <v>118</v>
       </c>
       <c r="BY15" t="s">
-        <v>204</v>
+        <v>119</v>
       </c>
       <c r="BZ15" t="s">
         <v>96</v>
@@ -5511,7 +5696,7 @@
         <v>118</v>
       </c>
       <c r="CB15" t="s">
-        <v>204</v>
+        <v>119</v>
       </c>
       <c r="CC15" t="s">
         <v>118</v>
@@ -5520,7 +5705,7 @@
         <v>119</v>
       </c>
       <c r="CE15">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:83" x14ac:dyDescent="0.2">
@@ -5528,40 +5713,40 @@
         <v>83</v>
       </c>
       <c r="B16" s="1">
-        <v>44966</v>
+        <v>44955</v>
       </c>
       <c r="C16" t="s">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="D16" t="s">
         <v>85</v>
       </c>
       <c r="E16" t="s">
-        <v>294</v>
+        <v>260</v>
       </c>
       <c r="F16" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="G16" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="H16" t="s">
-        <v>296</v>
+        <v>88</v>
       </c>
       <c r="I16" t="s">
-        <v>221</v>
+        <v>299</v>
       </c>
       <c r="J16" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="K16" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="L16" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="M16" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="N16" t="s">
         <v>94</v>
@@ -5582,40 +5767,40 @@
         <v>98</v>
       </c>
       <c r="T16" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="U16" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="V16" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="W16" t="s">
-        <v>101</v>
+        <v>303</v>
       </c>
       <c r="X16" t="s">
         <v>101</v>
       </c>
       <c r="Y16" t="s">
-        <v>300</v>
+        <v>101</v>
       </c>
       <c r="Z16" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="AA16" t="s">
-        <v>302</v>
+        <v>104</v>
       </c>
       <c r="AB16" t="s">
         <v>133</v>
       </c>
       <c r="AC16" t="s">
-        <v>187</v>
+        <v>134</v>
       </c>
       <c r="AD16" t="s">
         <v>84</v>
       </c>
       <c r="AF16" t="s">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="AG16" t="s">
         <v>100</v>
@@ -5666,13 +5851,13 @@
         <v>98</v>
       </c>
       <c r="AW16" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="AX16" s="1">
-        <v>44963</v>
+        <v>44955</v>
       </c>
       <c r="AY16" s="1">
-        <v>44961</v>
+        <v>44953</v>
       </c>
       <c r="AZ16" t="s">
         <v>107</v>
@@ -5693,10 +5878,10 @@
         <v>135</v>
       </c>
       <c r="BF16" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="BG16" s="1">
-        <v>29409</v>
+        <v>40075</v>
       </c>
       <c r="BH16" t="s">
         <v>101</v>
@@ -5708,19 +5893,19 @@
         <v>101</v>
       </c>
       <c r="BL16" s="1">
-        <v>44998</v>
+        <v>45006</v>
       </c>
       <c r="BM16" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="BN16" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="BO16" s="1">
-        <v>44966</v>
+        <v>44957</v>
       </c>
       <c r="BP16" t="s">
-        <v>306</v>
+        <v>272</v>
       </c>
       <c r="BQ16" t="s">
         <v>101</v>
@@ -5738,7 +5923,7 @@
         <v>117</v>
       </c>
       <c r="BV16" t="s">
-        <v>307</v>
+        <v>273</v>
       </c>
       <c r="BW16" t="s">
         <v>96</v>
@@ -5747,7 +5932,7 @@
         <v>118</v>
       </c>
       <c r="BY16" t="s">
-        <v>119</v>
+        <v>204</v>
       </c>
       <c r="BZ16" t="s">
         <v>96</v>
@@ -5756,7 +5941,7 @@
         <v>118</v>
       </c>
       <c r="CB16" t="s">
-        <v>119</v>
+        <v>204</v>
       </c>
       <c r="CC16" t="s">
         <v>118</v>
@@ -5765,7 +5950,7 @@
         <v>119</v>
       </c>
       <c r="CE16">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:83" x14ac:dyDescent="0.2">
@@ -5773,7 +5958,7 @@
         <v>83</v>
       </c>
       <c r="B17" s="1">
-        <v>44956</v>
+        <v>44966</v>
       </c>
       <c r="C17" t="s">
         <v>169</v>
@@ -5782,19 +5967,19 @@
         <v>85</v>
       </c>
       <c r="E17" t="s">
-        <v>245</v>
+        <v>308</v>
       </c>
       <c r="F17" t="s">
-        <v>308</v>
+        <v>87</v>
       </c>
       <c r="G17" t="s">
         <v>309</v>
       </c>
       <c r="H17" t="s">
-        <v>101</v>
+        <v>310</v>
       </c>
       <c r="I17" t="s">
-        <v>310</v>
+        <v>221</v>
       </c>
       <c r="J17" t="s">
         <v>311</v>
@@ -5806,7 +5991,7 @@
         <v>312</v>
       </c>
       <c r="M17" t="s">
-        <v>210</v>
+        <v>313</v>
       </c>
       <c r="N17" t="s">
         <v>94</v>
@@ -5818,7 +6003,7 @@
         <v>96</v>
       </c>
       <c r="Q17" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="R17" t="s">
         <v>95</v>
@@ -5827,40 +6012,40 @@
         <v>98</v>
       </c>
       <c r="T17" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="U17" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="V17" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="W17" t="s">
-        <v>313</v>
+        <v>101</v>
       </c>
       <c r="X17" t="s">
         <v>101</v>
       </c>
       <c r="Y17" t="s">
-        <v>101</v>
+        <v>314</v>
       </c>
       <c r="Z17" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AA17" t="s">
-        <v>104</v>
+        <v>316</v>
       </c>
       <c r="AB17" t="s">
         <v>133</v>
       </c>
       <c r="AC17" t="s">
-        <v>315</v>
+        <v>187</v>
       </c>
       <c r="AD17" t="s">
         <v>84</v>
       </c>
       <c r="AF17" t="s">
-        <v>165</v>
+        <v>100</v>
       </c>
       <c r="AG17" t="s">
         <v>100</v>
@@ -5875,7 +6060,7 @@
         <v>100</v>
       </c>
       <c r="AK17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL17" t="s">
         <v>101</v>
@@ -5887,7 +6072,7 @@
         <v>100</v>
       </c>
       <c r="AO17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AP17" t="s">
         <v>100</v>
@@ -5902,7 +6087,7 @@
         <v>94</v>
       </c>
       <c r="AT17" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AU17" t="s">
         <v>95</v>
@@ -5911,13 +6096,13 @@
         <v>98</v>
       </c>
       <c r="AW17" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="AX17" s="1">
-        <v>44956</v>
+        <v>44963</v>
       </c>
       <c r="AY17" s="1">
-        <v>44956</v>
+        <v>44961</v>
       </c>
       <c r="AZ17" t="s">
         <v>107</v>
@@ -5938,10 +6123,10 @@
         <v>135</v>
       </c>
       <c r="BF17" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BG17" s="1">
-        <v>34837</v>
+        <v>29409</v>
       </c>
       <c r="BH17" t="s">
         <v>101</v>
@@ -5953,19 +6138,19 @@
         <v>101</v>
       </c>
       <c r="BL17" s="1">
-        <v>44998</v>
+        <v>45006</v>
       </c>
       <c r="BM17" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="BN17" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="BO17" s="1">
-        <v>44967</v>
+        <v>44966</v>
       </c>
       <c r="BP17" t="s">
-        <v>258</v>
+        <v>320</v>
       </c>
       <c r="BQ17" t="s">
         <v>101</v>
@@ -5977,13 +6162,13 @@
         <v>101</v>
       </c>
       <c r="BT17" t="s">
-        <v>318</v>
+        <v>157</v>
       </c>
       <c r="BU17" t="s">
         <v>117</v>
       </c>
       <c r="BV17" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="BW17" t="s">
         <v>96</v>
@@ -5992,7 +6177,7 @@
         <v>118</v>
       </c>
       <c r="BY17" t="s">
-        <v>204</v>
+        <v>119</v>
       </c>
       <c r="BZ17" t="s">
         <v>96</v>
@@ -6001,7 +6186,7 @@
         <v>118</v>
       </c>
       <c r="CB17" t="s">
-        <v>204</v>
+        <v>119</v>
       </c>
       <c r="CC17" t="s">
         <v>118</v>
@@ -6010,7 +6195,7 @@
         <v>119</v>
       </c>
       <c r="CE17">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:83" x14ac:dyDescent="0.2">
@@ -6018,7 +6203,7 @@
         <v>83</v>
       </c>
       <c r="B18" s="1">
-        <v>44957</v>
+        <v>44956</v>
       </c>
       <c r="C18" t="s">
         <v>169</v>
@@ -6027,31 +6212,31 @@
         <v>85</v>
       </c>
       <c r="E18" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="F18" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="G18" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="H18" t="s">
-        <v>193</v>
+        <v>101</v>
       </c>
       <c r="I18" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="J18" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="K18" t="s">
         <v>125</v>
       </c>
       <c r="L18" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="M18" t="s">
-        <v>324</v>
+        <v>210</v>
       </c>
       <c r="N18" t="s">
         <v>94</v>
@@ -6072,7 +6257,7 @@
         <v>98</v>
       </c>
       <c r="T18" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="U18" t="s">
         <v>100</v>
@@ -6081,7 +6266,7 @@
         <v>101</v>
       </c>
       <c r="W18" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="X18" t="s">
         <v>101</v>
@@ -6090,7 +6275,7 @@
         <v>101</v>
       </c>
       <c r="Z18" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AA18" t="s">
         <v>104</v>
@@ -6099,7 +6284,7 @@
         <v>133</v>
       </c>
       <c r="AC18" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="AD18" t="s">
         <v>84</v>
@@ -6156,13 +6341,13 @@
         <v>98</v>
       </c>
       <c r="AW18" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="AX18" s="1">
-        <v>44957</v>
+        <v>44956</v>
       </c>
       <c r="AY18" s="1">
-        <v>44955</v>
+        <v>44956</v>
       </c>
       <c r="AZ18" t="s">
         <v>107</v>
@@ -6183,10 +6368,10 @@
         <v>135</v>
       </c>
       <c r="BF18" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="BG18" s="1">
-        <v>33287</v>
+        <v>34837</v>
       </c>
       <c r="BH18" t="s">
         <v>101</v>
@@ -6198,19 +6383,19 @@
         <v>101</v>
       </c>
       <c r="BL18" s="1">
-        <v>44998</v>
+        <v>45006</v>
       </c>
       <c r="BM18" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="BN18" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="BO18" s="1">
         <v>44967</v>
       </c>
       <c r="BP18" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="BQ18" t="s">
         <v>101</v>
@@ -6222,13 +6407,13 @@
         <v>101</v>
       </c>
       <c r="BT18" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="BU18" t="s">
         <v>117</v>
       </c>
       <c r="BV18" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="BW18" t="s">
         <v>96</v>
@@ -6237,7 +6422,7 @@
         <v>118</v>
       </c>
       <c r="BY18" t="s">
-        <v>119</v>
+        <v>204</v>
       </c>
       <c r="BZ18" t="s">
         <v>96</v>
@@ -6246,7 +6431,7 @@
         <v>118</v>
       </c>
       <c r="CB18" t="s">
-        <v>119</v>
+        <v>204</v>
       </c>
       <c r="CC18" t="s">
         <v>118</v>
@@ -6255,7 +6440,7 @@
         <v>119</v>
       </c>
       <c r="CE18">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:83" x14ac:dyDescent="0.2">
@@ -6263,7 +6448,7 @@
         <v>83</v>
       </c>
       <c r="B19" s="1">
-        <v>44959</v>
+        <v>44957</v>
       </c>
       <c r="C19" t="s">
         <v>169</v>
@@ -6272,31 +6457,31 @@
         <v>85</v>
       </c>
       <c r="E19" t="s">
-        <v>86</v>
+        <v>260</v>
       </c>
       <c r="F19" t="s">
-        <v>178</v>
+        <v>322</v>
       </c>
       <c r="G19" t="s">
+        <v>334</v>
+      </c>
+      <c r="H19" t="s">
         <v>193</v>
       </c>
-      <c r="H19" t="s">
-        <v>88</v>
-      </c>
       <c r="I19" t="s">
-        <v>329</v>
+        <v>236</v>
       </c>
       <c r="J19" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K19" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="L19" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="M19" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="N19" t="s">
         <v>94</v>
@@ -6320,37 +6505,37 @@
         <v>99</v>
       </c>
       <c r="U19" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="V19" t="s">
-        <v>333</v>
+        <v>101</v>
       </c>
       <c r="W19" t="s">
-        <v>101</v>
+        <v>338</v>
       </c>
       <c r="X19" t="s">
         <v>101</v>
       </c>
       <c r="Y19" t="s">
-        <v>239</v>
+        <v>101</v>
       </c>
       <c r="Z19" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="AA19" t="s">
         <v>104</v>
       </c>
       <c r="AB19" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="AC19" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="AD19" t="s">
         <v>84</v>
       </c>
       <c r="AF19" t="s">
-        <v>94</v>
+        <v>165</v>
       </c>
       <c r="AG19" t="s">
         <v>100</v>
@@ -6392,7 +6577,7 @@
         <v>94</v>
       </c>
       <c r="AT19" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AU19" t="s">
         <v>95</v>
@@ -6404,10 +6589,10 @@
         <v>99</v>
       </c>
       <c r="AX19" s="1">
-        <v>44959</v>
+        <v>44957</v>
       </c>
       <c r="AY19" s="1">
-        <v>44958</v>
+        <v>44955</v>
       </c>
       <c r="AZ19" t="s">
         <v>107</v>
@@ -6428,10 +6613,10 @@
         <v>135</v>
       </c>
       <c r="BF19" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="BG19" s="1">
-        <v>38736</v>
+        <v>33287</v>
       </c>
       <c r="BH19" t="s">
         <v>101</v>
@@ -6443,19 +6628,19 @@
         <v>101</v>
       </c>
       <c r="BL19" s="1">
-        <v>44998</v>
+        <v>45006</v>
       </c>
       <c r="BM19" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="BN19" t="s">
-        <v>338</v>
+        <v>307</v>
       </c>
       <c r="BO19" s="1">
-        <v>44963</v>
+        <v>44967</v>
       </c>
       <c r="BP19" t="s">
-        <v>115</v>
+        <v>272</v>
       </c>
       <c r="BQ19" t="s">
         <v>101</v>
@@ -6467,13 +6652,13 @@
         <v>101</v>
       </c>
       <c r="BT19" t="s">
-        <v>157</v>
+        <v>332</v>
       </c>
       <c r="BU19" t="s">
         <v>117</v>
       </c>
       <c r="BV19" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="BW19" t="s">
         <v>96</v>
@@ -6500,7 +6685,7 @@
         <v>119</v>
       </c>
       <c r="CE19">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:83" x14ac:dyDescent="0.2">
@@ -6508,25 +6693,25 @@
         <v>83</v>
       </c>
       <c r="B20" s="1">
-        <v>44968</v>
+        <v>44959</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>169</v>
       </c>
       <c r="D20" t="s">
         <v>85</v>
       </c>
       <c r="E20" t="s">
-        <v>245</v>
+        <v>86</v>
       </c>
       <c r="F20" t="s">
-        <v>308</v>
+        <v>178</v>
       </c>
       <c r="G20" t="s">
-        <v>340</v>
+        <v>193</v>
       </c>
       <c r="H20" t="s">
-        <v>341</v>
+        <v>88</v>
       </c>
       <c r="I20" t="s">
         <v>342</v>
@@ -6535,13 +6720,13 @@
         <v>343</v>
       </c>
       <c r="K20" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="L20" t="s">
         <v>344</v>
       </c>
       <c r="M20" t="s">
-        <v>224</v>
+        <v>345</v>
       </c>
       <c r="N20" t="s">
         <v>94</v>
@@ -6565,37 +6750,37 @@
         <v>99</v>
       </c>
       <c r="U20" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="V20" t="s">
-        <v>101</v>
+        <v>346</v>
       </c>
       <c r="W20" t="s">
-        <v>333</v>
+        <v>101</v>
       </c>
       <c r="X20" t="s">
         <v>101</v>
       </c>
       <c r="Y20" t="s">
-        <v>101</v>
+        <v>254</v>
       </c>
       <c r="Z20" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="AA20" t="s">
-        <v>346</v>
+        <v>104</v>
       </c>
       <c r="AB20" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="AC20" t="s">
-        <v>253</v>
+        <v>348</v>
       </c>
       <c r="AD20" t="s">
         <v>84</v>
       </c>
       <c r="AF20" t="s">
-        <v>165</v>
+        <v>94</v>
       </c>
       <c r="AG20" t="s">
         <v>100</v>
@@ -6649,10 +6834,10 @@
         <v>99</v>
       </c>
       <c r="AX20" s="1">
-        <v>44968</v>
+        <v>44959</v>
       </c>
       <c r="AY20" s="1">
-        <v>44966</v>
+        <v>44958</v>
       </c>
       <c r="AZ20" t="s">
         <v>107</v>
@@ -6673,10 +6858,10 @@
         <v>135</v>
       </c>
       <c r="BF20" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="BG20" s="1">
-        <v>35799</v>
+        <v>38736</v>
       </c>
       <c r="BH20" t="s">
         <v>101</v>
@@ -6688,19 +6873,19 @@
         <v>101</v>
       </c>
       <c r="BL20" s="1">
-        <v>44998</v>
+        <v>45006</v>
       </c>
       <c r="BM20" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="BN20" t="s">
-        <v>293</v>
+        <v>244</v>
       </c>
       <c r="BO20" s="1">
-        <v>44971</v>
+        <v>44963</v>
       </c>
       <c r="BP20" t="s">
-        <v>258</v>
+        <v>115</v>
       </c>
       <c r="BQ20" t="s">
         <v>101</v>
@@ -6712,13 +6897,13 @@
         <v>101</v>
       </c>
       <c r="BT20" t="s">
-        <v>318</v>
+        <v>157</v>
       </c>
       <c r="BU20" t="s">
         <v>117</v>
       </c>
       <c r="BV20" t="s">
-        <v>319</v>
+        <v>351</v>
       </c>
       <c r="BW20" t="s">
         <v>96</v>
@@ -6745,7 +6930,7 @@
         <v>119</v>
       </c>
       <c r="CE20">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:83" x14ac:dyDescent="0.2">
@@ -6753,7 +6938,7 @@
         <v>83</v>
       </c>
       <c r="B21" s="1">
-        <v>44975</v>
+        <v>44968</v>
       </c>
       <c r="C21" t="s">
         <v>84</v>
@@ -6762,31 +6947,31 @@
         <v>85</v>
       </c>
       <c r="E21" t="s">
-        <v>158</v>
+        <v>260</v>
       </c>
       <c r="F21" t="s">
-        <v>87</v>
+        <v>322</v>
       </c>
       <c r="G21" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="H21" t="s">
-        <v>101</v>
+        <v>353</v>
       </c>
       <c r="I21" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="J21" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="K21" t="s">
         <v>125</v>
       </c>
       <c r="L21" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="M21" t="s">
-        <v>146</v>
+        <v>224</v>
       </c>
       <c r="N21" t="s">
         <v>94</v>
@@ -6807,40 +6992,40 @@
         <v>98</v>
       </c>
       <c r="T21" t="s">
-        <v>352</v>
+        <v>99</v>
       </c>
       <c r="U21" t="s">
-        <v>165</v>
+        <v>100</v>
       </c>
       <c r="V21" t="s">
         <v>101</v>
       </c>
       <c r="W21" t="s">
-        <v>101</v>
+        <v>346</v>
       </c>
       <c r="X21" t="s">
-        <v>353</v>
+        <v>101</v>
       </c>
       <c r="Y21" t="s">
         <v>101</v>
       </c>
       <c r="Z21" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="AA21" t="s">
-        <v>104</v>
+        <v>358</v>
       </c>
       <c r="AB21" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="AC21" t="s">
-        <v>168</v>
+        <v>268</v>
       </c>
       <c r="AD21" t="s">
         <v>84</v>
       </c>
       <c r="AF21" t="s">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="AG21" t="s">
         <v>100</v>
@@ -6891,10 +7076,10 @@
         <v>98</v>
       </c>
       <c r="AW21" t="s">
-        <v>352</v>
+        <v>99</v>
       </c>
       <c r="AX21" s="1">
-        <v>44973</v>
+        <v>44968</v>
       </c>
       <c r="AY21" s="1">
         <v>44966</v>
@@ -6903,10 +7088,10 @@
         <v>107</v>
       </c>
       <c r="BA21" t="s">
-        <v>94</v>
-      </c>
-      <c r="BB21" s="1">
-        <v>44973</v>
+        <v>100</v>
+      </c>
+      <c r="BB21" t="s">
+        <v>108</v>
       </c>
       <c r="BC21" t="s">
         <v>94</v>
@@ -6918,10 +7103,10 @@
         <v>135</v>
       </c>
       <c r="BF21" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="BG21" s="1">
-        <v>32631</v>
+        <v>35799</v>
       </c>
       <c r="BH21" t="s">
         <v>101</v>
@@ -6933,19 +7118,19 @@
         <v>101</v>
       </c>
       <c r="BL21" s="1">
-        <v>44998</v>
+        <v>45006</v>
       </c>
       <c r="BM21" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="BN21" t="s">
-        <v>357</v>
+        <v>307</v>
       </c>
       <c r="BO21" s="1">
-        <v>44977</v>
+        <v>44971</v>
       </c>
       <c r="BP21" t="s">
-        <v>174</v>
+        <v>272</v>
       </c>
       <c r="BQ21" t="s">
         <v>101</v>
@@ -6957,13 +7142,13 @@
         <v>101</v>
       </c>
       <c r="BT21" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="BU21" t="s">
         <v>117</v>
       </c>
       <c r="BV21" t="s">
-        <v>175</v>
+        <v>333</v>
       </c>
       <c r="BW21" t="s">
         <v>96</v>
@@ -6972,7 +7157,7 @@
         <v>118</v>
       </c>
       <c r="BY21" t="s">
-        <v>358</v>
+        <v>119</v>
       </c>
       <c r="BZ21" t="s">
         <v>96</v>
@@ -6981,7 +7166,7 @@
         <v>118</v>
       </c>
       <c r="CB21" t="s">
-        <v>358</v>
+        <v>119</v>
       </c>
       <c r="CC21" t="s">
         <v>118</v>
@@ -6990,7 +7175,7 @@
         <v>119</v>
       </c>
       <c r="CE21">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:83" x14ac:dyDescent="0.2">
@@ -6998,7 +7183,7 @@
         <v>83</v>
       </c>
       <c r="B22" s="1">
-        <v>44970</v>
+        <v>44975</v>
       </c>
       <c r="C22" t="s">
         <v>84</v>
@@ -7007,31 +7192,31 @@
         <v>85</v>
       </c>
       <c r="E22" t="s">
-        <v>245</v>
+        <v>158</v>
       </c>
       <c r="F22" t="s">
         <v>87</v>
       </c>
       <c r="G22" t="s">
-        <v>320</v>
+        <v>361</v>
       </c>
       <c r="H22" t="s">
-        <v>193</v>
+        <v>101</v>
       </c>
       <c r="I22" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="J22" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="K22" t="s">
         <v>125</v>
       </c>
       <c r="L22" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="M22" t="s">
-        <v>362</v>
+        <v>146</v>
       </c>
       <c r="N22" t="s">
         <v>94</v>
@@ -7052,40 +7237,40 @@
         <v>98</v>
       </c>
       <c r="T22" t="s">
-        <v>99</v>
+        <v>364</v>
       </c>
       <c r="U22" t="s">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="V22" t="s">
         <v>101</v>
       </c>
       <c r="W22" t="s">
-        <v>363</v>
+        <v>101</v>
       </c>
       <c r="X22" t="s">
-        <v>101</v>
+        <v>365</v>
       </c>
       <c r="Y22" t="s">
         <v>101</v>
       </c>
       <c r="Z22" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AA22" t="s">
-        <v>365</v>
+        <v>104</v>
       </c>
       <c r="AB22" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="AC22" t="s">
-        <v>315</v>
+        <v>168</v>
       </c>
       <c r="AD22" t="s">
         <v>84</v>
       </c>
       <c r="AF22" t="s">
-        <v>165</v>
+        <v>100</v>
       </c>
       <c r="AG22" t="s">
         <v>100</v>
@@ -7136,22 +7321,22 @@
         <v>98</v>
       </c>
       <c r="AW22" t="s">
-        <v>99</v>
+        <v>364</v>
       </c>
       <c r="AX22" s="1">
-        <v>44970</v>
+        <v>44973</v>
       </c>
       <c r="AY22" s="1">
-        <v>44968</v>
+        <v>44966</v>
       </c>
       <c r="AZ22" t="s">
         <v>107</v>
       </c>
       <c r="BA22" t="s">
-        <v>100</v>
-      </c>
-      <c r="BB22" t="s">
-        <v>108</v>
+        <v>94</v>
+      </c>
+      <c r="BB22" s="1">
+        <v>44973</v>
       </c>
       <c r="BC22" t="s">
         <v>94</v>
@@ -7163,10 +7348,10 @@
         <v>135</v>
       </c>
       <c r="BF22" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="BG22" s="1">
-        <v>30623</v>
+        <v>32631</v>
       </c>
       <c r="BH22" t="s">
         <v>101</v>
@@ -7178,19 +7363,19 @@
         <v>101</v>
       </c>
       <c r="BL22" s="1">
-        <v>44998</v>
+        <v>45006</v>
       </c>
       <c r="BM22" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="BN22" t="s">
-        <v>293</v>
+        <v>369</v>
       </c>
       <c r="BO22" s="1">
-        <v>44971</v>
+        <v>44977</v>
       </c>
       <c r="BP22" t="s">
-        <v>258</v>
+        <v>174</v>
       </c>
       <c r="BQ22" t="s">
         <v>101</v>
@@ -7202,13 +7387,13 @@
         <v>101</v>
       </c>
       <c r="BT22" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="BU22" t="s">
         <v>117</v>
       </c>
       <c r="BV22" t="s">
-        <v>368</v>
+        <v>175</v>
       </c>
       <c r="BW22" t="s">
         <v>96</v>
@@ -7217,7 +7402,7 @@
         <v>118</v>
       </c>
       <c r="BY22" t="s">
-        <v>119</v>
+        <v>370</v>
       </c>
       <c r="BZ22" t="s">
         <v>96</v>
@@ -7226,7 +7411,7 @@
         <v>118</v>
       </c>
       <c r="CB22" t="s">
-        <v>119</v>
+        <v>370</v>
       </c>
       <c r="CC22" t="s">
         <v>118</v>
@@ -7235,7 +7420,7 @@
         <v>119</v>
       </c>
       <c r="CE22">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:83" x14ac:dyDescent="0.2">
@@ -7243,7 +7428,7 @@
         <v>83</v>
       </c>
       <c r="B23" s="1">
-        <v>44971</v>
+        <v>44970</v>
       </c>
       <c r="C23" t="s">
         <v>84</v>
@@ -7252,31 +7437,31 @@
         <v>85</v>
       </c>
       <c r="E23" t="s">
-        <v>218</v>
+        <v>260</v>
       </c>
       <c r="F23" t="s">
         <v>87</v>
       </c>
       <c r="G23" t="s">
-        <v>284</v>
+        <v>334</v>
       </c>
       <c r="H23" t="s">
-        <v>88</v>
+        <v>193</v>
       </c>
       <c r="I23" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="J23" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="K23" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="L23" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="M23" t="s">
-        <v>109</v>
+        <v>374</v>
       </c>
       <c r="N23" t="s">
         <v>94</v>
@@ -7288,7 +7473,7 @@
         <v>96</v>
       </c>
       <c r="Q23" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="R23" t="s">
         <v>95</v>
@@ -7300,37 +7485,37 @@
         <v>99</v>
       </c>
       <c r="U23" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="V23" t="s">
-        <v>225</v>
+        <v>101</v>
       </c>
       <c r="W23" t="s">
-        <v>101</v>
+        <v>375</v>
       </c>
       <c r="X23" t="s">
         <v>101</v>
       </c>
       <c r="Y23" t="s">
-        <v>372</v>
+        <v>101</v>
       </c>
       <c r="Z23" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="AA23" t="s">
-        <v>104</v>
+        <v>377</v>
       </c>
       <c r="AB23" t="s">
         <v>133</v>
       </c>
       <c r="AC23" t="s">
-        <v>134</v>
+        <v>329</v>
       </c>
       <c r="AD23" t="s">
         <v>84</v>
       </c>
       <c r="AF23" t="s">
-        <v>94</v>
+        <v>165</v>
       </c>
       <c r="AG23" t="s">
         <v>100</v>
@@ -7345,7 +7530,7 @@
         <v>100</v>
       </c>
       <c r="AK23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AL23" t="s">
         <v>101</v>
@@ -7357,7 +7542,7 @@
         <v>100</v>
       </c>
       <c r="AO23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AP23" t="s">
         <v>100</v>
@@ -7384,10 +7569,10 @@
         <v>99</v>
       </c>
       <c r="AX23" s="1">
-        <v>44971</v>
+        <v>44970</v>
       </c>
       <c r="AY23" s="1">
-        <v>44967</v>
+        <v>44968</v>
       </c>
       <c r="AZ23" t="s">
         <v>107</v>
@@ -7408,10 +7593,10 @@
         <v>135</v>
       </c>
       <c r="BF23" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="BG23" s="1">
-        <v>42341</v>
+        <v>30623</v>
       </c>
       <c r="BH23" t="s">
         <v>101</v>
@@ -7423,19 +7608,19 @@
         <v>101</v>
       </c>
       <c r="BL23" s="1">
-        <v>44998</v>
+        <v>45006</v>
       </c>
       <c r="BM23" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="BN23" t="s">
-        <v>376</v>
+        <v>307</v>
       </c>
       <c r="BO23" s="1">
-        <v>44977</v>
+        <v>44971</v>
       </c>
       <c r="BP23" t="s">
-        <v>231</v>
+        <v>272</v>
       </c>
       <c r="BQ23" t="s">
         <v>101</v>
@@ -7447,13 +7632,13 @@
         <v>101</v>
       </c>
       <c r="BT23" t="s">
-        <v>140</v>
+        <v>332</v>
       </c>
       <c r="BU23" t="s">
         <v>117</v>
       </c>
       <c r="BV23" t="s">
-        <v>232</v>
+        <v>380</v>
       </c>
       <c r="BW23" t="s">
         <v>96</v>
@@ -7480,7 +7665,7 @@
         <v>119</v>
       </c>
       <c r="CE23">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:83" x14ac:dyDescent="0.2">
@@ -7488,40 +7673,40 @@
         <v>83</v>
       </c>
       <c r="B24" s="1">
-        <v>44975</v>
+        <v>44971</v>
       </c>
       <c r="C24" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="D24" t="s">
         <v>85</v>
       </c>
       <c r="E24" t="s">
-        <v>377</v>
+        <v>218</v>
       </c>
       <c r="F24" t="s">
         <v>87</v>
       </c>
       <c r="G24" t="s">
-        <v>378</v>
+        <v>298</v>
       </c>
       <c r="H24" t="s">
-        <v>379</v>
+        <v>88</v>
       </c>
       <c r="I24" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="J24" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K24" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="L24" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M24" t="s">
-        <v>383</v>
+        <v>109</v>
       </c>
       <c r="N24" t="s">
         <v>94</v>
@@ -7539,43 +7724,43 @@
         <v>95</v>
       </c>
       <c r="S24" t="s">
-        <v>332</v>
+        <v>98</v>
       </c>
       <c r="T24" t="s">
+        <v>99</v>
+      </c>
+      <c r="U24" t="s">
+        <v>94</v>
+      </c>
+      <c r="V24" t="s">
+        <v>225</v>
+      </c>
+      <c r="W24" t="s">
+        <v>101</v>
+      </c>
+      <c r="X24" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y24" t="s">
         <v>384</v>
       </c>
-      <c r="U24" t="s">
-        <v>94</v>
-      </c>
-      <c r="V24" t="s">
+      <c r="Z24" t="s">
         <v>385</v>
       </c>
-      <c r="W24" t="s">
-        <v>101</v>
-      </c>
-      <c r="X24" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>239</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>386</v>
-      </c>
       <c r="AA24" t="s">
-        <v>387</v>
+        <v>104</v>
       </c>
       <c r="AB24" t="s">
-        <v>388</v>
+        <v>133</v>
       </c>
       <c r="AC24" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="AD24" t="s">
         <v>84</v>
       </c>
       <c r="AF24" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AG24" t="s">
         <v>100</v>
@@ -7629,10 +7814,10 @@
         <v>99</v>
       </c>
       <c r="AX24" s="1">
-        <v>44975</v>
+        <v>44971</v>
       </c>
       <c r="AY24" s="1">
-        <v>44975</v>
+        <v>44967</v>
       </c>
       <c r="AZ24" t="s">
         <v>107</v>
@@ -7653,10 +7838,10 @@
         <v>135</v>
       </c>
       <c r="BF24" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="BG24" s="1">
-        <v>35484</v>
+        <v>42341</v>
       </c>
       <c r="BH24" t="s">
         <v>101</v>
@@ -7668,16 +7853,19 @@
         <v>101</v>
       </c>
       <c r="BL24" s="1">
-        <v>44998</v>
+        <v>45006</v>
       </c>
       <c r="BM24" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="BN24" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="BO24" s="1">
-        <v>44984</v>
+        <v>44977</v>
+      </c>
+      <c r="BP24" t="s">
+        <v>231</v>
       </c>
       <c r="BQ24" t="s">
         <v>101</v>
@@ -7689,19 +7877,22 @@
         <v>101</v>
       </c>
       <c r="BT24" t="s">
-        <v>318</v>
+        <v>140</v>
       </c>
       <c r="BU24" t="s">
         <v>117</v>
       </c>
+      <c r="BV24" t="s">
+        <v>232</v>
+      </c>
       <c r="BW24" t="s">
         <v>96</v>
       </c>
       <c r="BX24" t="s">
-        <v>392</v>
+        <v>118</v>
       </c>
       <c r="BY24" t="s">
-        <v>393</v>
+        <v>119</v>
       </c>
       <c r="BZ24" t="s">
         <v>96</v>
@@ -7712,8 +7903,14 @@
       <c r="CB24" t="s">
         <v>119</v>
       </c>
+      <c r="CC24" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD24" t="s">
+        <v>119</v>
+      </c>
       <c r="CE24">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:83" x14ac:dyDescent="0.2">
@@ -7721,7 +7918,7 @@
         <v>83</v>
       </c>
       <c r="B25" s="1">
-        <v>44977</v>
+        <v>44975</v>
       </c>
       <c r="C25" t="s">
         <v>109</v>
@@ -7730,31 +7927,31 @@
         <v>85</v>
       </c>
       <c r="E25" t="s">
-        <v>120</v>
+        <v>389</v>
       </c>
       <c r="F25" t="s">
         <v>87</v>
       </c>
       <c r="G25" t="s">
-        <v>284</v>
+        <v>390</v>
       </c>
       <c r="H25" t="s">
-        <v>88</v>
+        <v>391</v>
       </c>
       <c r="I25" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="J25" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K25" t="s">
         <v>125</v>
       </c>
       <c r="L25" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="M25" t="s">
-        <v>238</v>
+        <v>395</v>
       </c>
       <c r="N25" t="s">
         <v>94</v>
@@ -7772,16 +7969,16 @@
         <v>95</v>
       </c>
       <c r="S25" t="s">
-        <v>98</v>
+        <v>345</v>
       </c>
       <c r="T25" t="s">
-        <v>99</v>
+        <v>396</v>
       </c>
       <c r="U25" t="s">
         <v>94</v>
       </c>
       <c r="V25" t="s">
-        <v>129</v>
+        <v>397</v>
       </c>
       <c r="W25" t="s">
         <v>101</v>
@@ -7790,25 +7987,25 @@
         <v>101</v>
       </c>
       <c r="Y25" t="s">
-        <v>129</v>
+        <v>254</v>
       </c>
       <c r="Z25" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AA25" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AB25" t="s">
-        <v>133</v>
+        <v>400</v>
       </c>
       <c r="AC25" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="AD25" t="s">
         <v>84</v>
       </c>
       <c r="AF25" t="s">
-        <v>165</v>
+        <v>100</v>
       </c>
       <c r="AG25" t="s">
         <v>100</v>
@@ -7862,7 +8059,7 @@
         <v>99</v>
       </c>
       <c r="AX25" s="1">
-        <v>44977</v>
+        <v>44975</v>
       </c>
       <c r="AY25" s="1">
         <v>44975</v>
@@ -7886,10 +8083,10 @@
         <v>135</v>
       </c>
       <c r="BF25" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="BG25" s="1">
-        <v>36543</v>
+        <v>35484</v>
       </c>
       <c r="BH25" t="s">
         <v>101</v>
@@ -7901,19 +8098,16 @@
         <v>101</v>
       </c>
       <c r="BL25" s="1">
-        <v>44998</v>
+        <v>45006</v>
       </c>
       <c r="BM25" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="BN25" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="BO25" s="1">
-        <v>44978</v>
-      </c>
-      <c r="BP25" t="s">
-        <v>139</v>
+        <v>44984</v>
       </c>
       <c r="BQ25" t="s">
         <v>101</v>
@@ -7925,22 +8119,19 @@
         <v>101</v>
       </c>
       <c r="BT25" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="BU25" t="s">
         <v>117</v>
       </c>
-      <c r="BV25" t="s">
-        <v>141</v>
-      </c>
       <c r="BW25" t="s">
         <v>96</v>
       </c>
       <c r="BX25" t="s">
-        <v>118</v>
+        <v>404</v>
       </c>
       <c r="BY25" t="s">
-        <v>119</v>
+        <v>405</v>
       </c>
       <c r="BZ25" t="s">
         <v>96</v>
@@ -7951,14 +8142,8 @@
       <c r="CB25" t="s">
         <v>119</v>
       </c>
-      <c r="CC25" t="s">
-        <v>118</v>
-      </c>
-      <c r="CD25" t="s">
-        <v>119</v>
-      </c>
       <c r="CE25">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:83" x14ac:dyDescent="0.2">
@@ -7966,7 +8151,7 @@
         <v>83</v>
       </c>
       <c r="B26" s="1">
-        <v>44974</v>
+        <v>44977</v>
       </c>
       <c r="C26" t="s">
         <v>109</v>
@@ -7975,31 +8160,31 @@
         <v>85</v>
       </c>
       <c r="E26" t="s">
-        <v>402</v>
+        <v>120</v>
       </c>
       <c r="F26" t="s">
         <v>87</v>
       </c>
       <c r="G26" t="s">
-        <v>403</v>
+        <v>298</v>
       </c>
       <c r="H26" t="s">
-        <v>404</v>
+        <v>88</v>
       </c>
       <c r="I26" t="s">
-        <v>360</v>
+        <v>406</v>
       </c>
       <c r="J26" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K26" t="s">
         <v>125</v>
       </c>
       <c r="L26" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="M26" t="s">
-        <v>407</v>
+        <v>253</v>
       </c>
       <c r="N26" t="s">
         <v>94</v>
@@ -8026,7 +8211,7 @@
         <v>94</v>
       </c>
       <c r="V26" t="s">
-        <v>225</v>
+        <v>129</v>
       </c>
       <c r="W26" t="s">
         <v>101</v>
@@ -8035,19 +8220,19 @@
         <v>101</v>
       </c>
       <c r="Y26" t="s">
-        <v>239</v>
+        <v>129</v>
       </c>
       <c r="Z26" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AA26" t="s">
-        <v>104</v>
+        <v>410</v>
       </c>
       <c r="AB26" t="s">
         <v>133</v>
       </c>
       <c r="AC26" t="s">
-        <v>409</v>
+        <v>134</v>
       </c>
       <c r="AD26" t="s">
         <v>84</v>
@@ -8104,13 +8289,13 @@
         <v>98</v>
       </c>
       <c r="AW26" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="AX26" s="1">
-        <v>44974</v>
+        <v>44977</v>
       </c>
       <c r="AY26" s="1">
-        <v>44970</v>
+        <v>44975</v>
       </c>
       <c r="AZ26" t="s">
         <v>107</v>
@@ -8131,10 +8316,10 @@
         <v>135</v>
       </c>
       <c r="BF26" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="BG26" s="1">
-        <v>15675</v>
+        <v>36543</v>
       </c>
       <c r="BH26" t="s">
         <v>101</v>
@@ -8146,19 +8331,19 @@
         <v>101</v>
       </c>
       <c r="BL26" s="1">
-        <v>44998</v>
+        <v>45006</v>
       </c>
       <c r="BM26" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="BN26" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BO26" s="1">
-        <v>44977</v>
+        <v>44978</v>
       </c>
       <c r="BP26" t="s">
-        <v>413</v>
+        <v>139</v>
       </c>
       <c r="BQ26" t="s">
         <v>101</v>
@@ -8170,13 +8355,13 @@
         <v>101</v>
       </c>
       <c r="BT26" t="s">
-        <v>140</v>
+        <v>332</v>
       </c>
       <c r="BU26" t="s">
         <v>117</v>
       </c>
       <c r="BV26" t="s">
-        <v>414</v>
+        <v>141</v>
       </c>
       <c r="BW26" t="s">
         <v>96</v>
@@ -8194,7 +8379,7 @@
         <v>118</v>
       </c>
       <c r="CB26" t="s">
-        <v>204</v>
+        <v>119</v>
       </c>
       <c r="CC26" t="s">
         <v>118</v>
@@ -8203,7 +8388,7 @@
         <v>119</v>
       </c>
       <c r="CE26">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:83" x14ac:dyDescent="0.2">
@@ -8211,19 +8396,19 @@
         <v>83</v>
       </c>
       <c r="B27" s="1">
-        <v>44982</v>
+        <v>44974</v>
       </c>
       <c r="C27" t="s">
-        <v>278</v>
+        <v>109</v>
       </c>
       <c r="D27" t="s">
         <v>85</v>
       </c>
       <c r="E27" t="s">
-        <v>245</v>
+        <v>414</v>
       </c>
       <c r="F27" t="s">
-        <v>170</v>
+        <v>87</v>
       </c>
       <c r="G27" t="s">
         <v>415</v>
@@ -8232,19 +8417,19 @@
         <v>416</v>
       </c>
       <c r="I27" t="s">
+        <v>372</v>
+      </c>
+      <c r="J27" t="s">
         <v>417</v>
-      </c>
-      <c r="J27" t="s">
-        <v>418</v>
       </c>
       <c r="K27" t="s">
         <v>125</v>
       </c>
       <c r="L27" t="s">
+        <v>418</v>
+      </c>
+      <c r="M27" t="s">
         <v>419</v>
-      </c>
-      <c r="M27" t="s">
-        <v>420</v>
       </c>
       <c r="N27" t="s">
         <v>94</v>
@@ -8268,22 +8453,22 @@
         <v>99</v>
       </c>
       <c r="U27" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="V27" t="s">
-        <v>101</v>
+        <v>225</v>
       </c>
       <c r="W27" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="X27" t="s">
         <v>101</v>
       </c>
       <c r="Y27" t="s">
-        <v>101</v>
+        <v>254</v>
       </c>
       <c r="Z27" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AA27" t="s">
         <v>104</v>
@@ -8292,13 +8477,13 @@
         <v>133</v>
       </c>
       <c r="AC27" t="s">
-        <v>315</v>
+        <v>421</v>
       </c>
       <c r="AD27" t="s">
         <v>84</v>
       </c>
       <c r="AF27" t="s">
-        <v>107</v>
+        <v>165</v>
       </c>
       <c r="AG27" t="s">
         <v>100</v>
@@ -8340,7 +8525,7 @@
         <v>94</v>
       </c>
       <c r="AT27" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AU27" t="s">
         <v>95</v>
@@ -8349,13 +8534,13 @@
         <v>98</v>
       </c>
       <c r="AW27" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="AX27" s="1">
-        <v>44982</v>
+        <v>44974</v>
       </c>
       <c r="AY27" s="1">
-        <v>44982</v>
+        <v>44970</v>
       </c>
       <c r="AZ27" t="s">
         <v>107</v>
@@ -8379,7 +8564,7 @@
         <v>422</v>
       </c>
       <c r="BG27" s="1">
-        <v>31601</v>
+        <v>15675</v>
       </c>
       <c r="BH27" t="s">
         <v>101</v>
@@ -8391,19 +8576,19 @@
         <v>101</v>
       </c>
       <c r="BL27" s="1">
-        <v>44998</v>
+        <v>45006</v>
       </c>
       <c r="BM27" t="s">
         <v>423</v>
       </c>
       <c r="BN27" t="s">
-        <v>293</v>
+        <v>424</v>
       </c>
       <c r="BO27" s="1">
-        <v>44987</v>
+        <v>44977</v>
       </c>
       <c r="BP27" t="s">
-        <v>258</v>
+        <v>425</v>
       </c>
       <c r="BQ27" t="s">
         <v>101</v>
@@ -8415,13 +8600,13 @@
         <v>101</v>
       </c>
       <c r="BT27" t="s">
-        <v>244</v>
+        <v>140</v>
       </c>
       <c r="BU27" t="s">
         <v>117</v>
       </c>
       <c r="BV27" t="s">
-        <v>259</v>
+        <v>426</v>
       </c>
       <c r="BW27" t="s">
         <v>96</v>
@@ -8439,7 +8624,7 @@
         <v>118</v>
       </c>
       <c r="CB27" t="s">
-        <v>119</v>
+        <v>204</v>
       </c>
       <c r="CC27" t="s">
         <v>118</v>
@@ -8448,7 +8633,7 @@
         <v>119</v>
       </c>
       <c r="CE27">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:83" x14ac:dyDescent="0.2">
@@ -8456,49 +8641,49 @@
         <v>83</v>
       </c>
       <c r="B28" s="1">
-        <v>44984</v>
+        <v>44982</v>
       </c>
       <c r="C28" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="D28" t="s">
         <v>85</v>
       </c>
       <c r="E28" t="s">
-        <v>86</v>
+        <v>260</v>
       </c>
       <c r="F28" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="G28" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="H28" t="s">
-        <v>274</v>
+        <v>428</v>
       </c>
       <c r="I28" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="J28" t="s">
-        <v>236</v>
+        <v>430</v>
       </c>
       <c r="K28" t="s">
-        <v>208</v>
+        <v>125</v>
       </c>
       <c r="L28" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="M28" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="N28" t="s">
         <v>94</v>
       </c>
       <c r="O28" t="s">
-        <v>211</v>
+        <v>95</v>
       </c>
       <c r="P28" t="s">
-        <v>212</v>
+        <v>96</v>
       </c>
       <c r="Q28" t="s">
         <v>128</v>
@@ -8519,7 +8704,7 @@
         <v>101</v>
       </c>
       <c r="W28" t="s">
-        <v>363</v>
+        <v>129</v>
       </c>
       <c r="X28" t="s">
         <v>101</v>
@@ -8528,22 +8713,22 @@
         <v>101</v>
       </c>
       <c r="Z28" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="AA28" t="s">
         <v>104</v>
       </c>
       <c r="AB28" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="AC28" t="s">
-        <v>168</v>
+        <v>329</v>
       </c>
       <c r="AD28" t="s">
         <v>84</v>
       </c>
       <c r="AF28" t="s">
-        <v>165</v>
+        <v>107</v>
       </c>
       <c r="AG28" t="s">
         <v>100</v>
@@ -8585,7 +8770,7 @@
         <v>94</v>
       </c>
       <c r="AT28" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AU28" t="s">
         <v>95</v>
@@ -8597,10 +8782,10 @@
         <v>99</v>
       </c>
       <c r="AX28" s="1">
-        <v>44984</v>
+        <v>44982</v>
       </c>
       <c r="AY28" s="1">
-        <v>44981</v>
+        <v>44982</v>
       </c>
       <c r="AZ28" t="s">
         <v>107</v>
@@ -8621,10 +8806,10 @@
         <v>135</v>
       </c>
       <c r="BF28" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="BG28" s="1">
-        <v>41687</v>
+        <v>31601</v>
       </c>
       <c r="BH28" t="s">
         <v>101</v>
@@ -8636,19 +8821,19 @@
         <v>101</v>
       </c>
       <c r="BL28" s="1">
-        <v>44998</v>
+        <v>45006</v>
       </c>
       <c r="BM28" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="BN28" t="s">
-        <v>114</v>
+        <v>307</v>
       </c>
       <c r="BO28" s="1">
-        <v>44985</v>
+        <v>44987</v>
       </c>
       <c r="BP28" t="s">
-        <v>115</v>
+        <v>272</v>
       </c>
       <c r="BQ28" t="s">
         <v>101</v>
@@ -8660,13 +8845,13 @@
         <v>101</v>
       </c>
       <c r="BT28" t="s">
-        <v>318</v>
+        <v>259</v>
       </c>
       <c r="BU28" t="s">
         <v>117</v>
       </c>
       <c r="BV28" t="s">
-        <v>112</v>
+        <v>273</v>
       </c>
       <c r="BW28" t="s">
         <v>96</v>
@@ -8693,7 +8878,7 @@
         <v>119</v>
       </c>
       <c r="CE28">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:83" x14ac:dyDescent="0.2">
@@ -8704,7 +8889,7 @@
         <v>44984</v>
       </c>
       <c r="C29" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="D29" t="s">
         <v>85</v>
@@ -8716,34 +8901,34 @@
         <v>87</v>
       </c>
       <c r="G29" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="H29" t="s">
-        <v>432</v>
+        <v>288</v>
       </c>
       <c r="I29" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="J29" t="s">
-        <v>342</v>
+        <v>251</v>
       </c>
       <c r="K29" t="s">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="L29" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="M29" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="N29" t="s">
         <v>94</v>
       </c>
       <c r="O29" t="s">
-        <v>95</v>
+        <v>211</v>
       </c>
       <c r="P29" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="Q29" t="s">
         <v>128</v>
@@ -8764,7 +8949,7 @@
         <v>101</v>
       </c>
       <c r="W29" t="s">
-        <v>102</v>
+        <v>375</v>
       </c>
       <c r="X29" t="s">
         <v>101</v>
@@ -8773,7 +8958,7 @@
         <v>101</v>
       </c>
       <c r="Z29" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="AA29" t="s">
         <v>104</v>
@@ -8845,7 +9030,7 @@
         <v>44984</v>
       </c>
       <c r="AY29" s="1">
-        <v>44979</v>
+        <v>44981</v>
       </c>
       <c r="AZ29" t="s">
         <v>107</v>
@@ -8866,10 +9051,10 @@
         <v>135</v>
       </c>
       <c r="BF29" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="BG29" s="1">
-        <v>39209</v>
+        <v>41687</v>
       </c>
       <c r="BH29" t="s">
         <v>101</v>
@@ -8881,10 +9066,10 @@
         <v>101</v>
       </c>
       <c r="BL29" s="1">
-        <v>44998</v>
+        <v>45006</v>
       </c>
       <c r="BM29" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="BN29" t="s">
         <v>114</v>
@@ -8905,7 +9090,7 @@
         <v>101</v>
       </c>
       <c r="BT29" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="BU29" t="s">
         <v>117</v>
@@ -8938,7 +9123,7 @@
         <v>119</v>
       </c>
       <c r="CE29">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:83" x14ac:dyDescent="0.2">
@@ -8946,40 +9131,40 @@
         <v>83</v>
       </c>
       <c r="B30" s="1">
-        <v>44981</v>
+        <v>44979</v>
       </c>
       <c r="C30" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="D30" t="s">
         <v>85</v>
       </c>
       <c r="E30" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="F30" t="s">
-        <v>407</v>
+        <v>87</v>
       </c>
       <c r="G30" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="H30" t="s">
-        <v>441</v>
+        <v>101</v>
       </c>
       <c r="I30" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="J30" t="s">
-        <v>321</v>
+        <v>446</v>
       </c>
       <c r="K30" t="s">
-        <v>91</v>
+        <v>279</v>
       </c>
       <c r="L30" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="M30" t="s">
-        <v>435</v>
+        <v>107</v>
       </c>
       <c r="N30" t="s">
         <v>94</v>
@@ -9006,7 +9191,7 @@
         <v>94</v>
       </c>
       <c r="V30" t="s">
-        <v>225</v>
+        <v>448</v>
       </c>
       <c r="W30" t="s">
         <v>101</v>
@@ -9015,25 +9200,25 @@
         <v>101</v>
       </c>
       <c r="Y30" t="s">
-        <v>443</v>
+        <v>254</v>
       </c>
       <c r="Z30" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="AA30" t="s">
         <v>104</v>
       </c>
       <c r="AB30" t="s">
-        <v>445</v>
+        <v>133</v>
       </c>
       <c r="AC30" t="s">
-        <v>446</v>
+        <v>187</v>
       </c>
       <c r="AD30" t="s">
         <v>84</v>
       </c>
       <c r="AF30" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="AG30" t="s">
         <v>100</v>
@@ -9090,7 +9275,7 @@
         <v>44979</v>
       </c>
       <c r="AY30" s="1">
-        <v>44977</v>
+        <v>44978</v>
       </c>
       <c r="AZ30" t="s">
         <v>107</v>
@@ -9111,10 +9296,10 @@
         <v>135</v>
       </c>
       <c r="BF30" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="BG30" s="1">
-        <v>39245</v>
+        <v>43412</v>
       </c>
       <c r="BH30" t="s">
         <v>101</v>
@@ -9126,16 +9311,19 @@
         <v>101</v>
       </c>
       <c r="BL30" s="1">
-        <v>44998</v>
+        <v>45006</v>
       </c>
       <c r="BM30" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="BN30" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="BO30" s="1">
-        <v>44981</v>
+        <v>44979</v>
+      </c>
+      <c r="BP30" t="s">
+        <v>453</v>
       </c>
       <c r="BQ30" t="s">
         <v>101</v>
@@ -9147,11 +9335,14 @@
         <v>101</v>
       </c>
       <c r="BT30" t="s">
-        <v>318</v>
+        <v>454</v>
       </c>
       <c r="BU30" t="s">
         <v>117</v>
       </c>
+      <c r="BV30" t="s">
+        <v>455</v>
+      </c>
       <c r="BW30" t="s">
         <v>96</v>
       </c>
@@ -9170,8 +9361,14 @@
       <c r="CB30" t="s">
         <v>119</v>
       </c>
+      <c r="CC30" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD30" t="s">
+        <v>119</v>
+      </c>
       <c r="CE30">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:83" x14ac:dyDescent="0.2">
@@ -9179,40 +9376,40 @@
         <v>83</v>
       </c>
       <c r="B31" s="1">
-        <v>44989</v>
+        <v>44984</v>
       </c>
       <c r="C31" t="s">
-        <v>427</v>
+        <v>292</v>
       </c>
       <c r="D31" t="s">
         <v>85</v>
       </c>
       <c r="E31" t="s">
-        <v>450</v>
+        <v>86</v>
       </c>
       <c r="F31" t="s">
-        <v>451</v>
+        <v>87</v>
       </c>
       <c r="G31" t="s">
-        <v>193</v>
+        <v>456</v>
       </c>
       <c r="H31" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="I31" t="s">
-        <v>359</v>
+        <v>458</v>
       </c>
       <c r="J31" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="K31" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="L31" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="M31" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="N31" t="s">
         <v>94</v>
@@ -9224,7 +9421,7 @@
         <v>96</v>
       </c>
       <c r="Q31" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="R31" t="s">
         <v>95</v>
@@ -9236,31 +9433,31 @@
         <v>99</v>
       </c>
       <c r="U31" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="V31" t="s">
-        <v>385</v>
+        <v>101</v>
       </c>
       <c r="W31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="X31" t="s">
         <v>101</v>
       </c>
       <c r="Y31" t="s">
-        <v>363</v>
+        <v>101</v>
       </c>
       <c r="Z31" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="AA31" t="s">
         <v>104</v>
       </c>
       <c r="AB31" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="AC31" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="AD31" t="s">
         <v>84</v>
@@ -9281,7 +9478,7 @@
         <v>100</v>
       </c>
       <c r="AK31" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL31" t="s">
         <v>101</v>
@@ -9293,7 +9490,7 @@
         <v>100</v>
       </c>
       <c r="AO31" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AP31" t="s">
         <v>100</v>
@@ -9320,10 +9517,10 @@
         <v>99</v>
       </c>
       <c r="AX31" s="1">
-        <v>44988</v>
+        <v>44984</v>
       </c>
       <c r="AY31" s="1">
-        <v>44987</v>
+        <v>44979</v>
       </c>
       <c r="AZ31" t="s">
         <v>107</v>
@@ -9344,10 +9541,10 @@
         <v>135</v>
       </c>
       <c r="BF31" t="s">
-        <v>366</v>
+        <v>462</v>
       </c>
       <c r="BG31" s="1">
-        <v>14150</v>
+        <v>39209</v>
       </c>
       <c r="BH31" t="s">
         <v>101</v>
@@ -9359,16 +9556,19 @@
         <v>101</v>
       </c>
       <c r="BL31" s="1">
-        <v>44998</v>
+        <v>45006</v>
       </c>
       <c r="BM31" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="BN31" t="s">
-        <v>457</v>
+        <v>114</v>
       </c>
       <c r="BO31" s="1">
-        <v>44989</v>
+        <v>44985</v>
+      </c>
+      <c r="BP31" t="s">
+        <v>115</v>
       </c>
       <c r="BQ31" t="s">
         <v>101</v>
@@ -9380,11 +9580,14 @@
         <v>101</v>
       </c>
       <c r="BT31" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="BU31" t="s">
         <v>117</v>
       </c>
+      <c r="BV31" t="s">
+        <v>112</v>
+      </c>
       <c r="BW31" t="s">
         <v>96</v>
       </c>
@@ -9403,8 +9606,14 @@
       <c r="CB31" t="s">
         <v>119</v>
       </c>
+      <c r="CC31" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD31" t="s">
+        <v>119</v>
+      </c>
       <c r="CE31">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:83" x14ac:dyDescent="0.2">
@@ -9412,52 +9621,52 @@
         <v>83</v>
       </c>
       <c r="B32" s="1">
-        <v>44987</v>
+        <v>44981</v>
       </c>
       <c r="C32" t="s">
-        <v>427</v>
+        <v>292</v>
       </c>
       <c r="D32" t="s">
         <v>85</v>
       </c>
       <c r="E32" t="s">
-        <v>120</v>
+        <v>464</v>
       </c>
       <c r="F32" t="s">
-        <v>87</v>
+        <v>419</v>
       </c>
       <c r="G32" t="s">
+        <v>465</v>
+      </c>
+      <c r="H32" t="s">
+        <v>466</v>
+      </c>
+      <c r="I32" t="s">
         <v>458</v>
       </c>
-      <c r="H32" t="s">
-        <v>459</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
+        <v>236</v>
+      </c>
+      <c r="K32" t="s">
+        <v>91</v>
+      </c>
+      <c r="L32" t="s">
+        <v>467</v>
+      </c>
+      <c r="M32" t="s">
         <v>460</v>
       </c>
-      <c r="J32" t="s">
-        <v>461</v>
-      </c>
-      <c r="K32" t="s">
-        <v>208</v>
-      </c>
-      <c r="L32" t="s">
-        <v>462</v>
-      </c>
-      <c r="M32" t="s">
-        <v>224</v>
-      </c>
       <c r="N32" t="s">
         <v>94</v>
       </c>
       <c r="O32" t="s">
-        <v>211</v>
+        <v>95</v>
       </c>
       <c r="P32" t="s">
-        <v>212</v>
+        <v>96</v>
       </c>
       <c r="Q32" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="R32" t="s">
         <v>95</v>
@@ -9472,7 +9681,7 @@
         <v>94</v>
       </c>
       <c r="V32" t="s">
-        <v>129</v>
+        <v>225</v>
       </c>
       <c r="W32" t="s">
         <v>101</v>
@@ -9481,19 +9690,19 @@
         <v>101</v>
       </c>
       <c r="Y32" t="s">
-        <v>333</v>
+        <v>468</v>
       </c>
       <c r="Z32" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="AA32" t="s">
-        <v>464</v>
+        <v>104</v>
       </c>
       <c r="AB32" t="s">
-        <v>133</v>
+        <v>470</v>
       </c>
       <c r="AC32" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="AD32" t="s">
         <v>84</v>
@@ -9514,7 +9723,7 @@
         <v>100</v>
       </c>
       <c r="AK32" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL32" t="s">
         <v>101</v>
@@ -9526,7 +9735,7 @@
         <v>100</v>
       </c>
       <c r="AO32" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AP32" t="s">
         <v>100</v>
@@ -9553,10 +9762,10 @@
         <v>99</v>
       </c>
       <c r="AX32" s="1">
-        <v>44987</v>
+        <v>44979</v>
       </c>
       <c r="AY32" s="1">
-        <v>44985</v>
+        <v>44977</v>
       </c>
       <c r="AZ32" t="s">
         <v>107</v>
@@ -9577,10 +9786,10 @@
         <v>135</v>
       </c>
       <c r="BF32" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="BG32" s="1">
-        <v>35626</v>
+        <v>39245</v>
       </c>
       <c r="BH32" t="s">
         <v>101</v>
@@ -9592,19 +9801,16 @@
         <v>101</v>
       </c>
       <c r="BL32" s="1">
-        <v>44998</v>
+        <v>45006</v>
       </c>
       <c r="BM32" t="s">
-        <v>400</v>
+        <v>473</v>
       </c>
       <c r="BN32" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="BO32" s="1">
-        <v>44988</v>
-      </c>
-      <c r="BP32" t="s">
-        <v>139</v>
+        <v>44981</v>
       </c>
       <c r="BQ32" t="s">
         <v>101</v>
@@ -9616,14 +9822,11 @@
         <v>101</v>
       </c>
       <c r="BT32" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="BU32" t="s">
         <v>117</v>
       </c>
-      <c r="BV32" t="s">
-        <v>141</v>
-      </c>
       <c r="BW32" t="s">
         <v>96</v>
       </c>
@@ -9642,14 +9845,8 @@
       <c r="CB32" t="s">
         <v>119</v>
       </c>
-      <c r="CC32" t="s">
-        <v>118</v>
-      </c>
-      <c r="CD32" t="s">
-        <v>119</v>
-      </c>
       <c r="CE32">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:83" x14ac:dyDescent="0.2">
@@ -9657,40 +9854,40 @@
         <v>83</v>
       </c>
       <c r="B33" s="1">
-        <v>44990</v>
+        <v>44989</v>
       </c>
       <c r="C33" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="D33" t="s">
         <v>85</v>
       </c>
       <c r="E33" t="s">
-        <v>245</v>
+        <v>475</v>
       </c>
       <c r="F33" t="s">
-        <v>170</v>
+        <v>476</v>
       </c>
       <c r="G33" t="s">
-        <v>88</v>
+        <v>193</v>
       </c>
       <c r="H33" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="I33" t="s">
-        <v>469</v>
+        <v>371</v>
       </c>
       <c r="J33" t="s">
-        <v>470</v>
+        <v>372</v>
       </c>
       <c r="K33" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="L33" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="M33" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="N33" t="s">
         <v>94</v>
@@ -9702,7 +9899,7 @@
         <v>96</v>
       </c>
       <c r="Q33" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="R33" t="s">
         <v>95</v>
@@ -9711,25 +9908,25 @@
         <v>98</v>
       </c>
       <c r="T33" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="U33" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="V33" t="s">
-        <v>101</v>
+        <v>397</v>
       </c>
       <c r="W33" t="s">
-        <v>473</v>
+        <v>101</v>
       </c>
       <c r="X33" t="s">
         <v>101</v>
       </c>
       <c r="Y33" t="s">
-        <v>101</v>
+        <v>375</v>
       </c>
       <c r="Z33" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="AA33" t="s">
         <v>104</v>
@@ -9759,7 +9956,7 @@
         <v>100</v>
       </c>
       <c r="AK33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AL33" t="s">
         <v>101</v>
@@ -9771,7 +9968,7 @@
         <v>100</v>
       </c>
       <c r="AO33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AP33" t="s">
         <v>100</v>
@@ -9798,10 +9995,10 @@
         <v>99</v>
       </c>
       <c r="AX33" s="1">
-        <v>44990</v>
+        <v>44988</v>
       </c>
       <c r="AY33" s="1">
-        <v>44988</v>
+        <v>44987</v>
       </c>
       <c r="AZ33" t="s">
         <v>107</v>
@@ -9822,10 +10019,10 @@
         <v>135</v>
       </c>
       <c r="BF33" t="s">
-        <v>475</v>
+        <v>378</v>
       </c>
       <c r="BG33" s="1">
-        <v>39591</v>
+        <v>14150</v>
       </c>
       <c r="BH33" t="s">
         <v>101</v>
@@ -9837,19 +10034,16 @@
         <v>101</v>
       </c>
       <c r="BL33" s="1">
-        <v>44998</v>
+        <v>45006</v>
       </c>
       <c r="BM33" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="BN33" t="s">
-        <v>293</v>
+        <v>482</v>
       </c>
       <c r="BO33" s="1">
-        <v>44991</v>
-      </c>
-      <c r="BP33" t="s">
-        <v>258</v>
+        <v>44989</v>
       </c>
       <c r="BQ33" t="s">
         <v>101</v>
@@ -9861,14 +10055,11 @@
         <v>101</v>
       </c>
       <c r="BT33" t="s">
-        <v>244</v>
+        <v>332</v>
       </c>
       <c r="BU33" t="s">
         <v>117</v>
       </c>
-      <c r="BV33" t="s">
-        <v>259</v>
-      </c>
       <c r="BW33" t="s">
         <v>96</v>
       </c>
@@ -9876,7 +10067,7 @@
         <v>118</v>
       </c>
       <c r="BY33" t="s">
-        <v>204</v>
+        <v>119</v>
       </c>
       <c r="BZ33" t="s">
         <v>96</v>
@@ -9887,14 +10078,1233 @@
       <c r="CB33" t="s">
         <v>119</v>
       </c>
-      <c r="CC33" t="s">
+      <c r="CE33">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="1">
+        <v>44987</v>
+      </c>
+      <c r="C34" t="s">
+        <v>439</v>
+      </c>
+      <c r="D34" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" t="s">
+        <v>120</v>
+      </c>
+      <c r="F34" t="s">
+        <v>87</v>
+      </c>
+      <c r="G34" t="s">
+        <v>483</v>
+      </c>
+      <c r="H34" t="s">
+        <v>484</v>
+      </c>
+      <c r="I34" t="s">
+        <v>485</v>
+      </c>
+      <c r="J34" t="s">
+        <v>486</v>
+      </c>
+      <c r="K34" t="s">
+        <v>208</v>
+      </c>
+      <c r="L34" t="s">
+        <v>487</v>
+      </c>
+      <c r="M34" t="s">
+        <v>224</v>
+      </c>
+      <c r="N34" t="s">
+        <v>94</v>
+      </c>
+      <c r="O34" t="s">
+        <v>211</v>
+      </c>
+      <c r="P34" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>97</v>
+      </c>
+      <c r="R34" t="s">
+        <v>95</v>
+      </c>
+      <c r="S34" t="s">
+        <v>98</v>
+      </c>
+      <c r="T34" t="s">
+        <v>99</v>
+      </c>
+      <c r="U34" t="s">
+        <v>94</v>
+      </c>
+      <c r="V34" t="s">
+        <v>129</v>
+      </c>
+      <c r="W34" t="s">
+        <v>101</v>
+      </c>
+      <c r="X34" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>346</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>488</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>489</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>490</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR34" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS34" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT34" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU34" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV34" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW34" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX34" s="1">
+        <v>44987</v>
+      </c>
+      <c r="AY34" s="1">
+        <v>44985</v>
+      </c>
+      <c r="AZ34" t="s">
+        <v>107</v>
+      </c>
+      <c r="BA34" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB34" t="s">
+        <v>108</v>
+      </c>
+      <c r="BC34" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD34" t="s">
+        <v>108</v>
+      </c>
+      <c r="BE34" t="s">
+        <v>135</v>
+      </c>
+      <c r="BF34" t="s">
+        <v>491</v>
+      </c>
+      <c r="BG34" s="1">
+        <v>35626</v>
+      </c>
+      <c r="BH34" t="s">
+        <v>101</v>
+      </c>
+      <c r="BI34" t="s">
+        <v>101</v>
+      </c>
+      <c r="BJ34" t="s">
+        <v>101</v>
+      </c>
+      <c r="BL34" s="1">
+        <v>45006</v>
+      </c>
+      <c r="BM34" t="s">
+        <v>412</v>
+      </c>
+      <c r="BN34" t="s">
+        <v>492</v>
+      </c>
+      <c r="BO34" s="1">
+        <v>44988</v>
+      </c>
+      <c r="BP34" t="s">
+        <v>139</v>
+      </c>
+      <c r="BQ34" t="s">
+        <v>101</v>
+      </c>
+      <c r="BR34" t="s">
+        <v>101</v>
+      </c>
+      <c r="BS34" t="s">
+        <v>101</v>
+      </c>
+      <c r="BT34" t="s">
+        <v>332</v>
+      </c>
+      <c r="BU34" t="s">
+        <v>117</v>
+      </c>
+      <c r="BV34" t="s">
+        <v>141</v>
+      </c>
+      <c r="BW34" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX34" t="s">
         <v>118</v>
       </c>
-      <c r="CD33" t="s">
+      <c r="BY34" t="s">
         <v>119</v>
       </c>
-      <c r="CE33">
+      <c r="BZ34" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA34" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB34" t="s">
+        <v>119</v>
+      </c>
+      <c r="CC34" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD34" t="s">
+        <v>119</v>
+      </c>
+      <c r="CE34">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" s="1">
+        <v>44991</v>
+      </c>
+      <c r="C35" t="s">
+        <v>439</v>
+      </c>
+      <c r="D35" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35" t="s">
+        <v>120</v>
+      </c>
+      <c r="F35" t="s">
+        <v>87</v>
+      </c>
+      <c r="G35" t="s">
+        <v>220</v>
+      </c>
+      <c r="H35" t="s">
+        <v>101</v>
+      </c>
+      <c r="I35" t="s">
+        <v>493</v>
+      </c>
+      <c r="J35" t="s">
+        <v>494</v>
+      </c>
+      <c r="K35" t="s">
+        <v>91</v>
+      </c>
+      <c r="L35" t="s">
+        <v>495</v>
+      </c>
+      <c r="M35" t="s">
+        <v>292</v>
+      </c>
+      <c r="N35" t="s">
+        <v>94</v>
+      </c>
+      <c r="O35" t="s">
+        <v>95</v>
+      </c>
+      <c r="P35" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>97</v>
+      </c>
+      <c r="R35" t="s">
+        <v>95</v>
+      </c>
+      <c r="S35" t="s">
+        <v>98</v>
+      </c>
+      <c r="T35" t="s">
+        <v>99</v>
+      </c>
+      <c r="U35" t="s">
+        <v>94</v>
+      </c>
+      <c r="V35" t="s">
+        <v>129</v>
+      </c>
+      <c r="W35" t="s">
+        <v>101</v>
+      </c>
+      <c r="X35" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>346</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>496</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK35" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO35" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP35" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ35" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR35" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS35" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT35" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU35" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV35" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW35" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX35" s="1">
+        <v>44991</v>
+      </c>
+      <c r="AY35" s="1">
+        <v>44987</v>
+      </c>
+      <c r="AZ35" t="s">
+        <v>107</v>
+      </c>
+      <c r="BA35" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB35" t="s">
+        <v>108</v>
+      </c>
+      <c r="BC35" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD35" t="s">
+        <v>108</v>
+      </c>
+      <c r="BE35" t="s">
+        <v>135</v>
+      </c>
+      <c r="BF35" t="s">
+        <v>497</v>
+      </c>
+      <c r="BG35" s="1">
+        <v>41744</v>
+      </c>
+      <c r="BH35" t="s">
+        <v>101</v>
+      </c>
+      <c r="BI35" t="s">
+        <v>101</v>
+      </c>
+      <c r="BJ35" t="s">
+        <v>101</v>
+      </c>
+      <c r="BL35" s="1">
+        <v>45006</v>
+      </c>
+      <c r="BM35" t="s">
+        <v>498</v>
+      </c>
+      <c r="BN35" t="s">
+        <v>499</v>
+      </c>
+      <c r="BO35" s="1">
+        <v>44999</v>
+      </c>
+      <c r="BP35" t="s">
+        <v>139</v>
+      </c>
+      <c r="BQ35" t="s">
+        <v>101</v>
+      </c>
+      <c r="BR35" t="s">
+        <v>101</v>
+      </c>
+      <c r="BS35" t="s">
+        <v>101</v>
+      </c>
+      <c r="BT35" t="s">
+        <v>116</v>
+      </c>
+      <c r="BU35" t="s">
+        <v>117</v>
+      </c>
+      <c r="BV35" t="s">
+        <v>141</v>
+      </c>
+      <c r="BW35" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX35" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY35" t="s">
+        <v>119</v>
+      </c>
+      <c r="BZ35" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA35" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB35" t="s">
+        <v>119</v>
+      </c>
+      <c r="CC35" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD35" t="s">
+        <v>119</v>
+      </c>
+      <c r="CE35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="1">
+        <v>44998</v>
+      </c>
+      <c r="C36" t="s">
+        <v>439</v>
+      </c>
+      <c r="D36" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" t="s">
+        <v>500</v>
+      </c>
+      <c r="F36" t="s">
+        <v>501</v>
+      </c>
+      <c r="G36" t="s">
+        <v>502</v>
+      </c>
+      <c r="H36" t="s">
+        <v>101</v>
+      </c>
+      <c r="I36" t="s">
+        <v>503</v>
+      </c>
+      <c r="J36" t="s">
+        <v>504</v>
+      </c>
+      <c r="K36" t="s">
+        <v>91</v>
+      </c>
+      <c r="L36" t="s">
+        <v>505</v>
+      </c>
+      <c r="M36" t="s">
+        <v>439</v>
+      </c>
+      <c r="N36" t="s">
+        <v>94</v>
+      </c>
+      <c r="O36" t="s">
+        <v>95</v>
+      </c>
+      <c r="P36" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>128</v>
+      </c>
+      <c r="R36" t="s">
+        <v>95</v>
+      </c>
+      <c r="S36" t="s">
+        <v>98</v>
+      </c>
+      <c r="T36" t="s">
+        <v>99</v>
+      </c>
+      <c r="U36" t="s">
+        <v>94</v>
+      </c>
+      <c r="V36" t="s">
+        <v>225</v>
+      </c>
+      <c r="W36" t="s">
+        <v>101</v>
+      </c>
+      <c r="X36" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>506</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>421</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN36" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO36" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP36" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ36" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR36" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS36" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT36" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU36" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV36" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW36" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX36" s="1">
+        <v>44987</v>
+      </c>
+      <c r="AY36" s="1">
+        <v>44987</v>
+      </c>
+      <c r="AZ36" t="s">
+        <v>169</v>
+      </c>
+      <c r="BA36" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB36" t="s">
+        <v>108</v>
+      </c>
+      <c r="BC36" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD36" t="s">
+        <v>108</v>
+      </c>
+      <c r="BE36" t="s">
+        <v>135</v>
+      </c>
+      <c r="BF36" t="s">
+        <v>507</v>
+      </c>
+      <c r="BG36" s="1">
+        <v>41506</v>
+      </c>
+      <c r="BH36" t="s">
+        <v>101</v>
+      </c>
+      <c r="BI36" t="s">
+        <v>101</v>
+      </c>
+      <c r="BJ36" t="s">
+        <v>101</v>
+      </c>
+      <c r="BL36" s="1">
+        <v>45006</v>
+      </c>
+      <c r="BM36" t="s">
+        <v>508</v>
+      </c>
+      <c r="BN36" t="s">
+        <v>509</v>
+      </c>
+      <c r="BO36" s="1">
+        <v>44998</v>
+      </c>
+      <c r="BP36" t="s">
+        <v>510</v>
+      </c>
+      <c r="BQ36" t="s">
+        <v>101</v>
+      </c>
+      <c r="BR36" t="s">
+        <v>101</v>
+      </c>
+      <c r="BS36" t="s">
+        <v>101</v>
+      </c>
+      <c r="BT36" t="s">
+        <v>116</v>
+      </c>
+      <c r="BU36" t="s">
+        <v>117</v>
+      </c>
+      <c r="BV36" t="s">
+        <v>511</v>
+      </c>
+      <c r="BW36" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX36" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY36" t="s">
+        <v>119</v>
+      </c>
+      <c r="BZ36" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA36" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB36" t="s">
+        <v>119</v>
+      </c>
+      <c r="CC36" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD36" t="s">
+        <v>119</v>
+      </c>
+      <c r="CE36">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="1">
+        <v>44990</v>
+      </c>
+      <c r="C37" t="s">
+        <v>439</v>
+      </c>
+      <c r="D37" t="s">
+        <v>85</v>
+      </c>
+      <c r="E37" t="s">
+        <v>260</v>
+      </c>
+      <c r="F37" t="s">
+        <v>170</v>
+      </c>
+      <c r="G37" t="s">
+        <v>88</v>
+      </c>
+      <c r="H37" t="s">
+        <v>512</v>
+      </c>
+      <c r="I37" t="s">
+        <v>513</v>
+      </c>
+      <c r="J37" t="s">
+        <v>514</v>
+      </c>
+      <c r="K37" t="s">
+        <v>91</v>
+      </c>
+      <c r="L37" t="s">
+        <v>515</v>
+      </c>
+      <c r="M37" t="s">
+        <v>516</v>
+      </c>
+      <c r="N37" t="s">
+        <v>94</v>
+      </c>
+      <c r="O37" t="s">
+        <v>95</v>
+      </c>
+      <c r="P37" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>128</v>
+      </c>
+      <c r="R37" t="s">
+        <v>95</v>
+      </c>
+      <c r="S37" t="s">
+        <v>98</v>
+      </c>
+      <c r="T37" t="s">
+        <v>95</v>
+      </c>
+      <c r="U37" t="s">
+        <v>100</v>
+      </c>
+      <c r="V37" t="s">
+        <v>101</v>
+      </c>
+      <c r="W37" t="s">
+        <v>517</v>
+      </c>
+      <c r="X37" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>518</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>165</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO37" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP37" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ37" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR37" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS37" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT37" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU37" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV37" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW37" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX37" s="1">
+        <v>44990</v>
+      </c>
+      <c r="AY37" s="1">
+        <v>44988</v>
+      </c>
+      <c r="AZ37" t="s">
+        <v>107</v>
+      </c>
+      <c r="BA37" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB37" t="s">
+        <v>108</v>
+      </c>
+      <c r="BC37" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD37" t="s">
+        <v>108</v>
+      </c>
+      <c r="BE37" t="s">
+        <v>135</v>
+      </c>
+      <c r="BF37" t="s">
+        <v>519</v>
+      </c>
+      <c r="BG37" s="1">
+        <v>39591</v>
+      </c>
+      <c r="BH37" t="s">
+        <v>101</v>
+      </c>
+      <c r="BI37" t="s">
+        <v>101</v>
+      </c>
+      <c r="BJ37" t="s">
+        <v>101</v>
+      </c>
+      <c r="BL37" s="1">
+        <v>45006</v>
+      </c>
+      <c r="BM37" t="s">
+        <v>520</v>
+      </c>
+      <c r="BN37" t="s">
+        <v>307</v>
+      </c>
+      <c r="BO37" s="1">
+        <v>44991</v>
+      </c>
+      <c r="BP37" t="s">
+        <v>272</v>
+      </c>
+      <c r="BQ37" t="s">
+        <v>101</v>
+      </c>
+      <c r="BR37" t="s">
+        <v>101</v>
+      </c>
+      <c r="BS37" t="s">
+        <v>101</v>
+      </c>
+      <c r="BT37" t="s">
+        <v>259</v>
+      </c>
+      <c r="BU37" t="s">
+        <v>117</v>
+      </c>
+      <c r="BV37" t="s">
+        <v>273</v>
+      </c>
+      <c r="BW37" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX37" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY37" t="s">
+        <v>204</v>
+      </c>
+      <c r="BZ37" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA37" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB37" t="s">
+        <v>119</v>
+      </c>
+      <c r="CC37" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD37" t="s">
+        <v>119</v>
+      </c>
+      <c r="CE37">
         <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" s="1">
+        <v>44998</v>
+      </c>
+      <c r="C38" t="s">
+        <v>439</v>
+      </c>
+      <c r="D38" t="s">
+        <v>85</v>
+      </c>
+      <c r="E38" t="s">
+        <v>500</v>
+      </c>
+      <c r="F38" t="s">
+        <v>501</v>
+      </c>
+      <c r="G38" t="s">
+        <v>521</v>
+      </c>
+      <c r="H38" t="s">
+        <v>101</v>
+      </c>
+      <c r="I38" t="s">
+        <v>522</v>
+      </c>
+      <c r="J38" t="s">
+        <v>523</v>
+      </c>
+      <c r="K38" t="s">
+        <v>91</v>
+      </c>
+      <c r="L38" t="s">
+        <v>524</v>
+      </c>
+      <c r="M38" t="s">
+        <v>292</v>
+      </c>
+      <c r="N38" t="s">
+        <v>94</v>
+      </c>
+      <c r="O38" t="s">
+        <v>95</v>
+      </c>
+      <c r="P38" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>97</v>
+      </c>
+      <c r="R38" t="s">
+        <v>95</v>
+      </c>
+      <c r="S38" t="s">
+        <v>98</v>
+      </c>
+      <c r="T38" t="s">
+        <v>99</v>
+      </c>
+      <c r="U38" t="s">
+        <v>94</v>
+      </c>
+      <c r="V38" t="s">
+        <v>225</v>
+      </c>
+      <c r="W38" t="s">
+        <v>101</v>
+      </c>
+      <c r="X38" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>525</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>421</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ38" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK38" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM38" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN38" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO38" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP38" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ38" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR38" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS38" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT38" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU38" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV38" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW38" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX38" s="1">
+        <v>44989</v>
+      </c>
+      <c r="AY38" s="1">
+        <v>44989</v>
+      </c>
+      <c r="AZ38" t="s">
+        <v>169</v>
+      </c>
+      <c r="BA38" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB38" t="s">
+        <v>108</v>
+      </c>
+      <c r="BC38" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD38" t="s">
+        <v>108</v>
+      </c>
+      <c r="BE38" t="s">
+        <v>135</v>
+      </c>
+      <c r="BF38" t="s">
+        <v>526</v>
+      </c>
+      <c r="BG38" s="1">
+        <v>41818</v>
+      </c>
+      <c r="BH38" t="s">
+        <v>101</v>
+      </c>
+      <c r="BI38" t="s">
+        <v>101</v>
+      </c>
+      <c r="BJ38" t="s">
+        <v>101</v>
+      </c>
+      <c r="BL38" s="1">
+        <v>45006</v>
+      </c>
+      <c r="BM38" t="s">
+        <v>508</v>
+      </c>
+      <c r="BN38" t="s">
+        <v>509</v>
+      </c>
+      <c r="BO38" s="1">
+        <v>44998</v>
+      </c>
+      <c r="BP38" t="s">
+        <v>510</v>
+      </c>
+      <c r="BQ38" t="s">
+        <v>101</v>
+      </c>
+      <c r="BR38" t="s">
+        <v>101</v>
+      </c>
+      <c r="BS38" t="s">
+        <v>101</v>
+      </c>
+      <c r="BT38" t="s">
+        <v>116</v>
+      </c>
+      <c r="BU38" t="s">
+        <v>117</v>
+      </c>
+      <c r="BV38" t="s">
+        <v>511</v>
+      </c>
+      <c r="BW38" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX38" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY38" t="s">
+        <v>119</v>
+      </c>
+      <c r="BZ38" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA38" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB38" t="s">
+        <v>119</v>
+      </c>
+      <c r="CC38" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD38" t="s">
+        <v>119</v>
+      </c>
+      <c r="CE38">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Boletin_ Epi_Pereira/Datos/evento 831 datos basicos.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/evento 831 datos basicos.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cont_vtrujillov\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C31CC6B-A434-436F-8C7B-19049E5DBD14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="30" windowWidth="7485" windowHeight="4140"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="7485" windowHeight="4140"/>
   </bookViews>
   <sheets>
     <sheet name="evento 831 datos basicos" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2808" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2882" uniqueCount="533">
   <si>
     <t>cod_eve</t>
   </si>
@@ -766,6 +765,48 @@
     <t>HOSPITAL DEL CENTRO</t>
   </si>
   <si>
+    <t>6600100217</t>
+  </si>
+  <si>
+    <t>MIGUEL</t>
+  </si>
+  <si>
+    <t>ANGEL</t>
+  </si>
+  <si>
+    <t>MADRID</t>
+  </si>
+  <si>
+    <t>VILLA</t>
+  </si>
+  <si>
+    <t>1150943282</t>
+  </si>
+  <si>
+    <t>CUBA</t>
+  </si>
+  <si>
+    <t>MANZANA 2 CASA 12 ALAMEDA CUBA</t>
+  </si>
+  <si>
+    <t>EPS018</t>
+  </si>
+  <si>
+    <t>310545457</t>
+  </si>
+  <si>
+    <t>CINDY MILENA RODRIGUEZ CASTILLA</t>
+  </si>
+  <si>
+    <t>3135600</t>
+  </si>
+  <si>
+    <t>8914800001</t>
+  </si>
+  <si>
+    <t>CLINICA COMFAMILIAR</t>
+  </si>
+  <si>
     <t>HERNAN</t>
   </si>
   <si>
@@ -802,9 +843,6 @@
     <t>SIVIGILA - 2018 - 18.6.2</t>
   </si>
   <si>
-    <t>6600100217</t>
-  </si>
-  <si>
     <t>KATHERINE</t>
   </si>
   <si>
@@ -838,12 +876,6 @@
     <t>3136033769</t>
   </si>
   <si>
-    <t>8914800001</t>
-  </si>
-  <si>
-    <t>CLINICA COMFAMILIAR</t>
-  </si>
-  <si>
     <t>BOGOTA</t>
   </si>
   <si>
@@ -943,9 +975,6 @@
     <t>PAOLA ANDREA VALENCIA AGUDELO</t>
   </si>
   <si>
-    <t>3135600</t>
-  </si>
-  <si>
     <t>6600102446</t>
   </si>
   <si>
@@ -1009,9 +1038,6 @@
     <t>CARRERA 10 # 54 - 44 EL JAPON</t>
   </si>
   <si>
-    <t>EPS018</t>
-  </si>
-  <si>
     <t>3024413520</t>
   </si>
   <si>
@@ -1060,9 +1086,6 @@
     <t>17</t>
   </si>
   <si>
-    <t>CUBA</t>
-  </si>
-  <si>
     <t>CALLE 74 N 26 B -19 SECTOR EL OSO B CUBA</t>
   </si>
   <si>
@@ -1417,9 +1440,6 @@
     <t>7300185175</t>
   </si>
   <si>
-    <t>ANGEL</t>
-  </si>
-  <si>
     <t>GABRIEL</t>
   </si>
   <si>
@@ -1556,9 +1576,6 @@
   </si>
   <si>
     <t>SOCIEDAD COMERCIALIZADORA DE INSUMOS Y SERVICIOS M</t>
-  </si>
-  <si>
-    <t>MIGUEL</t>
   </si>
   <si>
     <t>PALACIOS</t>
@@ -1606,7 +1623,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1738,7 +1755,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -1750,7 +1767,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -1767,9 +1784,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1797,31 +1814,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1849,23 +1849,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2018,7 +2001,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CE38"/>
+  <dimension ref="A1:CE39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2463,7 +2446,7 @@
         <v>112</v>
       </c>
       <c r="BL2" s="1">
-        <v>45006</v>
+        <v>45012</v>
       </c>
       <c r="BM2" t="s">
         <v>113</v>
@@ -2708,7 +2691,7 @@
         <v>101</v>
       </c>
       <c r="BL3" s="1">
-        <v>45006</v>
+        <v>45012</v>
       </c>
       <c r="BM3" t="s">
         <v>137</v>
@@ -2953,7 +2936,7 @@
         <v>101</v>
       </c>
       <c r="BL4" s="1">
-        <v>45006</v>
+        <v>45012</v>
       </c>
       <c r="BM4" t="s">
         <v>151</v>
@@ -3198,7 +3181,7 @@
         <v>101</v>
       </c>
       <c r="BL5" s="1">
-        <v>45006</v>
+        <v>45012</v>
       </c>
       <c r="BM5" t="s">
         <v>156</v>
@@ -3443,7 +3426,7 @@
         <v>101</v>
       </c>
       <c r="BL6" s="1">
-        <v>45006</v>
+        <v>45012</v>
       </c>
       <c r="BM6" t="s">
         <v>172</v>
@@ -3688,7 +3671,7 @@
         <v>101</v>
       </c>
       <c r="BL7" s="1">
-        <v>45006</v>
+        <v>45012</v>
       </c>
       <c r="BM7" t="s">
         <v>189</v>
@@ -3933,7 +3916,7 @@
         <v>101</v>
       </c>
       <c r="BL8" s="1">
-        <v>45006</v>
+        <v>45012</v>
       </c>
       <c r="BM8" t="s">
         <v>137</v>
@@ -4178,7 +4161,7 @@
         <v>101</v>
       </c>
       <c r="BL9" s="1">
-        <v>45006</v>
+        <v>45012</v>
       </c>
       <c r="BM9" t="s">
         <v>216</v>
@@ -4423,7 +4406,7 @@
         <v>101</v>
       </c>
       <c r="BL10" s="1">
-        <v>45006</v>
+        <v>45012</v>
       </c>
       <c r="BM10" t="s">
         <v>229</v>
@@ -4668,7 +4651,7 @@
         <v>101</v>
       </c>
       <c r="BL11" s="1">
-        <v>45006</v>
+        <v>45012</v>
       </c>
       <c r="BM11" t="s">
         <v>243</v>
@@ -4733,40 +4716,40 @@
         <v>83</v>
       </c>
       <c r="B12" s="1">
-        <v>44948</v>
+        <v>45005</v>
       </c>
       <c r="C12" t="s">
-        <v>165</v>
+        <v>93</v>
       </c>
       <c r="D12" t="s">
         <v>85</v>
       </c>
       <c r="E12" t="s">
-        <v>120</v>
+        <v>248</v>
       </c>
       <c r="F12" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="G12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H12" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I12" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J12" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K12" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="L12" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M12" t="s">
-        <v>253</v>
+        <v>170</v>
       </c>
       <c r="N12" t="s">
         <v>94</v>
@@ -4790,19 +4773,19 @@
         <v>99</v>
       </c>
       <c r="U12" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="V12" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="W12" t="s">
-        <v>101</v>
+        <v>254</v>
       </c>
       <c r="X12" t="s">
         <v>101</v>
       </c>
       <c r="Y12" t="s">
-        <v>254</v>
+        <v>101</v>
       </c>
       <c r="Z12" t="s">
         <v>255</v>
@@ -4814,7 +4797,7 @@
         <v>133</v>
       </c>
       <c r="AC12" t="s">
-        <v>187</v>
+        <v>256</v>
       </c>
       <c r="AD12" t="s">
         <v>84</v>
@@ -4862,7 +4845,7 @@
         <v>94</v>
       </c>
       <c r="AT12" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AU12" t="s">
         <v>95</v>
@@ -4874,10 +4857,10 @@
         <v>99</v>
       </c>
       <c r="AX12" s="1">
-        <v>44948</v>
+        <v>45005</v>
       </c>
       <c r="AY12" s="1">
-        <v>44945</v>
+        <v>45004</v>
       </c>
       <c r="AZ12" t="s">
         <v>107</v>
@@ -4898,10 +4881,10 @@
         <v>135</v>
       </c>
       <c r="BF12" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="BG12" s="1">
-        <v>36520</v>
+        <v>41120</v>
       </c>
       <c r="BH12" t="s">
         <v>101</v>
@@ -4913,19 +4896,19 @@
         <v>101</v>
       </c>
       <c r="BL12" s="1">
-        <v>45006</v>
+        <v>45012</v>
       </c>
       <c r="BM12" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="BN12" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="BO12" s="1">
-        <v>44959</v>
+        <v>45008</v>
       </c>
       <c r="BP12" t="s">
-        <v>139</v>
+        <v>260</v>
       </c>
       <c r="BQ12" t="s">
         <v>101</v>
@@ -4937,13 +4920,13 @@
         <v>101</v>
       </c>
       <c r="BT12" t="s">
-        <v>259</v>
+        <v>116</v>
       </c>
       <c r="BU12" t="s">
         <v>117</v>
       </c>
       <c r="BV12" t="s">
-        <v>141</v>
+        <v>261</v>
       </c>
       <c r="BW12" t="s">
         <v>96</v>
@@ -4970,7 +4953,7 @@
         <v>119</v>
       </c>
       <c r="CE12">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:83" x14ac:dyDescent="0.2">
@@ -4987,31 +4970,31 @@
         <v>85</v>
       </c>
       <c r="E13" t="s">
-        <v>260</v>
+        <v>120</v>
       </c>
       <c r="F13" t="s">
-        <v>170</v>
+        <v>87</v>
       </c>
       <c r="G13" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H13" t="s">
-        <v>101</v>
+        <v>263</v>
       </c>
       <c r="I13" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="J13" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="K13" t="s">
         <v>125</v>
       </c>
       <c r="L13" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M13" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="N13" t="s">
         <v>94</v>
@@ -5023,7 +5006,7 @@
         <v>96</v>
       </c>
       <c r="Q13" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="R13" t="s">
         <v>95</v>
@@ -5035,31 +5018,31 @@
         <v>99</v>
       </c>
       <c r="U13" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="V13" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="W13" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="X13" t="s">
         <v>101</v>
       </c>
       <c r="Y13" t="s">
-        <v>101</v>
+        <v>268</v>
       </c>
       <c r="Z13" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="AA13" t="s">
-        <v>267</v>
+        <v>104</v>
       </c>
       <c r="AB13" t="s">
         <v>133</v>
       </c>
       <c r="AC13" t="s">
-        <v>268</v>
+        <v>187</v>
       </c>
       <c r="AD13" t="s">
         <v>84</v>
@@ -5080,7 +5063,7 @@
         <v>100</v>
       </c>
       <c r="AK13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL13" t="s">
         <v>101</v>
@@ -5092,7 +5075,7 @@
         <v>100</v>
       </c>
       <c r="AO13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AP13" t="s">
         <v>100</v>
@@ -5107,13 +5090,13 @@
         <v>94</v>
       </c>
       <c r="AT13" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AU13" t="s">
         <v>95</v>
       </c>
       <c r="AV13" t="s">
-        <v>238</v>
+        <v>98</v>
       </c>
       <c r="AW13" t="s">
         <v>99</v>
@@ -5122,7 +5105,7 @@
         <v>44948</v>
       </c>
       <c r="AY13" s="1">
-        <v>44943</v>
+        <v>44945</v>
       </c>
       <c r="AZ13" t="s">
         <v>107</v>
@@ -5143,10 +5126,10 @@
         <v>135</v>
       </c>
       <c r="BF13" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="BG13" s="1">
-        <v>33834</v>
+        <v>36520</v>
       </c>
       <c r="BH13" t="s">
         <v>101</v>
@@ -5158,19 +5141,19 @@
         <v>101</v>
       </c>
       <c r="BL13" s="1">
-        <v>45006</v>
+        <v>45012</v>
       </c>
       <c r="BM13" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="BN13" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="BO13" s="1">
-        <v>44950</v>
+        <v>44959</v>
       </c>
       <c r="BP13" t="s">
-        <v>272</v>
+        <v>139</v>
       </c>
       <c r="BQ13" t="s">
         <v>101</v>
@@ -5182,13 +5165,13 @@
         <v>101</v>
       </c>
       <c r="BT13" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="BU13" t="s">
         <v>117</v>
       </c>
       <c r="BV13" t="s">
-        <v>273</v>
+        <v>141</v>
       </c>
       <c r="BW13" t="s">
         <v>96</v>
@@ -5203,10 +5186,10 @@
         <v>96</v>
       </c>
       <c r="CA13" t="s">
-        <v>274</v>
+        <v>118</v>
       </c>
       <c r="CB13" t="s">
-        <v>274</v>
+        <v>119</v>
       </c>
       <c r="CC13" t="s">
         <v>118</v>
@@ -5215,7 +5198,7 @@
         <v>119</v>
       </c>
       <c r="CE13">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:83" x14ac:dyDescent="0.2">
@@ -5223,7 +5206,7 @@
         <v>83</v>
       </c>
       <c r="B14" s="1">
-        <v>44949</v>
+        <v>44948</v>
       </c>
       <c r="C14" t="s">
         <v>165</v>
@@ -5232,31 +5215,31 @@
         <v>85</v>
       </c>
       <c r="E14" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="F14" t="s">
         <v>170</v>
       </c>
       <c r="G14" t="s">
+        <v>274</v>
+      </c>
+      <c r="H14" t="s">
+        <v>101</v>
+      </c>
+      <c r="I14" t="s">
         <v>275</v>
       </c>
-      <c r="H14" t="s">
+      <c r="J14" t="s">
         <v>276</v>
       </c>
-      <c r="I14" t="s">
+      <c r="K14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L14" t="s">
         <v>277</v>
       </c>
-      <c r="J14" t="s">
+      <c r="M14" t="s">
         <v>278</v>
-      </c>
-      <c r="K14" t="s">
-        <v>279</v>
-      </c>
-      <c r="L14" t="s">
-        <v>280</v>
-      </c>
-      <c r="M14" t="s">
-        <v>94</v>
       </c>
       <c r="N14" t="s">
         <v>94</v>
@@ -5268,7 +5251,7 @@
         <v>96</v>
       </c>
       <c r="Q14" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="R14" t="s">
         <v>95</v>
@@ -5286,7 +5269,7 @@
         <v>101</v>
       </c>
       <c r="W14" t="s">
-        <v>281</v>
+        <v>129</v>
       </c>
       <c r="X14" t="s">
         <v>101</v>
@@ -5295,22 +5278,22 @@
         <v>101</v>
       </c>
       <c r="Z14" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="AA14" t="s">
-        <v>104</v>
+        <v>280</v>
       </c>
       <c r="AB14" t="s">
         <v>133</v>
       </c>
       <c r="AC14" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AD14" t="s">
         <v>84</v>
       </c>
       <c r="AF14" t="s">
-        <v>107</v>
+        <v>165</v>
       </c>
       <c r="AG14" t="s">
         <v>100</v>
@@ -5325,7 +5308,7 @@
         <v>100</v>
       </c>
       <c r="AK14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AL14" t="s">
         <v>101</v>
@@ -5337,7 +5320,7 @@
         <v>100</v>
       </c>
       <c r="AO14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AP14" t="s">
         <v>100</v>
@@ -5352,22 +5335,22 @@
         <v>94</v>
       </c>
       <c r="AT14" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AU14" t="s">
         <v>95</v>
       </c>
       <c r="AV14" t="s">
-        <v>98</v>
+        <v>238</v>
       </c>
       <c r="AW14" t="s">
         <v>99</v>
       </c>
       <c r="AX14" s="1">
-        <v>44949</v>
+        <v>44948</v>
       </c>
       <c r="AY14" s="1">
-        <v>44946</v>
+        <v>44943</v>
       </c>
       <c r="AZ14" t="s">
         <v>107</v>
@@ -5388,34 +5371,34 @@
         <v>135</v>
       </c>
       <c r="BF14" t="s">
+        <v>282</v>
+      </c>
+      <c r="BG14" s="1">
+        <v>33834</v>
+      </c>
+      <c r="BH14" t="s">
+        <v>101</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>101</v>
+      </c>
+      <c r="BJ14" t="s">
+        <v>101</v>
+      </c>
+      <c r="BL14" s="1">
+        <v>45012</v>
+      </c>
+      <c r="BM14" t="s">
+        <v>283</v>
+      </c>
+      <c r="BN14" t="s">
         <v>284</v>
       </c>
-      <c r="BG14" s="1">
-        <v>44322</v>
-      </c>
-      <c r="BH14" t="s">
-        <v>101</v>
-      </c>
-      <c r="BI14" t="s">
-        <v>101</v>
-      </c>
-      <c r="BJ14" t="s">
-        <v>101</v>
-      </c>
-      <c r="BL14" s="1">
-        <v>45006</v>
-      </c>
-      <c r="BM14" t="s">
-        <v>285</v>
-      </c>
-      <c r="BN14" t="s">
-        <v>286</v>
-      </c>
       <c r="BO14" s="1">
-        <v>44956</v>
+        <v>44950</v>
       </c>
       <c r="BP14" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="BQ14" t="s">
         <v>101</v>
@@ -5427,13 +5410,13 @@
         <v>101</v>
       </c>
       <c r="BT14" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="BU14" t="s">
         <v>117</v>
       </c>
       <c r="BV14" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="BW14" t="s">
         <v>96</v>
@@ -5448,10 +5431,10 @@
         <v>96</v>
       </c>
       <c r="CA14" t="s">
-        <v>118</v>
+        <v>285</v>
       </c>
       <c r="CB14" t="s">
-        <v>119</v>
+        <v>285</v>
       </c>
       <c r="CC14" t="s">
         <v>118</v>
@@ -5460,7 +5443,7 @@
         <v>119</v>
       </c>
       <c r="CE14">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:83" x14ac:dyDescent="0.2">
@@ -5477,31 +5460,31 @@
         <v>85</v>
       </c>
       <c r="E15" t="s">
-        <v>86</v>
+        <v>248</v>
       </c>
       <c r="F15" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="G15" t="s">
+        <v>286</v>
+      </c>
+      <c r="H15" t="s">
         <v>287</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>288</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>289</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>290</v>
-      </c>
-      <c r="K15" t="s">
-        <v>91</v>
       </c>
       <c r="L15" t="s">
         <v>291</v>
       </c>
       <c r="M15" t="s">
-        <v>292</v>
+        <v>94</v>
       </c>
       <c r="N15" t="s">
         <v>94</v>
@@ -5531,31 +5514,31 @@
         <v>101</v>
       </c>
       <c r="W15" t="s">
+        <v>292</v>
+      </c>
+      <c r="X15" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z15" t="s">
         <v>293</v>
-      </c>
-      <c r="X15" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>294</v>
       </c>
       <c r="AA15" t="s">
         <v>104</v>
       </c>
       <c r="AB15" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="AC15" t="s">
-        <v>168</v>
+        <v>294</v>
       </c>
       <c r="AD15" t="s">
         <v>84</v>
       </c>
       <c r="AF15" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="AG15" t="s">
         <v>100</v>
@@ -5597,7 +5580,7 @@
         <v>94</v>
       </c>
       <c r="AT15" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AU15" t="s">
         <v>95</v>
@@ -5612,7 +5595,7 @@
         <v>44949</v>
       </c>
       <c r="AY15" s="1">
-        <v>44947</v>
+        <v>44946</v>
       </c>
       <c r="AZ15" t="s">
         <v>107</v>
@@ -5636,7 +5619,7 @@
         <v>295</v>
       </c>
       <c r="BG15" s="1">
-        <v>41819</v>
+        <v>44322</v>
       </c>
       <c r="BH15" t="s">
         <v>101</v>
@@ -5648,7 +5631,7 @@
         <v>101</v>
       </c>
       <c r="BL15" s="1">
-        <v>45006</v>
+        <v>45012</v>
       </c>
       <c r="BM15" t="s">
         <v>296</v>
@@ -5657,10 +5640,10 @@
         <v>297</v>
       </c>
       <c r="BO15" s="1">
-        <v>44950</v>
+        <v>44956</v>
       </c>
       <c r="BP15" t="s">
-        <v>115</v>
+        <v>260</v>
       </c>
       <c r="BQ15" t="s">
         <v>101</v>
@@ -5672,13 +5655,13 @@
         <v>101</v>
       </c>
       <c r="BT15" t="s">
-        <v>157</v>
+        <v>273</v>
       </c>
       <c r="BU15" t="s">
         <v>117</v>
       </c>
       <c r="BV15" t="s">
-        <v>112</v>
+        <v>261</v>
       </c>
       <c r="BW15" t="s">
         <v>96</v>
@@ -5705,7 +5688,7 @@
         <v>119</v>
       </c>
       <c r="CE15">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:83" x14ac:dyDescent="0.2">
@@ -5713,40 +5696,40 @@
         <v>83</v>
       </c>
       <c r="B16" s="1">
-        <v>44955</v>
+        <v>44949</v>
       </c>
       <c r="C16" t="s">
-        <v>107</v>
+        <v>165</v>
       </c>
       <c r="D16" t="s">
         <v>85</v>
       </c>
       <c r="E16" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="F16" t="s">
-        <v>170</v>
+        <v>87</v>
       </c>
       <c r="G16" t="s">
         <v>298</v>
       </c>
       <c r="H16" t="s">
-        <v>88</v>
+        <v>299</v>
       </c>
       <c r="I16" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="J16" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K16" t="s">
         <v>91</v>
       </c>
       <c r="L16" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N16" t="s">
         <v>94</v>
@@ -5767,7 +5750,7 @@
         <v>98</v>
       </c>
       <c r="T16" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="U16" t="s">
         <v>100</v>
@@ -5776,7 +5759,7 @@
         <v>101</v>
       </c>
       <c r="W16" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="X16" t="s">
         <v>101</v>
@@ -5785,22 +5768,22 @@
         <v>101</v>
       </c>
       <c r="Z16" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AA16" t="s">
         <v>104</v>
       </c>
       <c r="AB16" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="AC16" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="AD16" t="s">
         <v>84</v>
       </c>
       <c r="AF16" t="s">
-        <v>165</v>
+        <v>94</v>
       </c>
       <c r="AG16" t="s">
         <v>100</v>
@@ -5851,13 +5834,13 @@
         <v>98</v>
       </c>
       <c r="AW16" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="AX16" s="1">
-        <v>44955</v>
+        <v>44949</v>
       </c>
       <c r="AY16" s="1">
-        <v>44953</v>
+        <v>44947</v>
       </c>
       <c r="AZ16" t="s">
         <v>107</v>
@@ -5878,10 +5861,10 @@
         <v>135</v>
       </c>
       <c r="BF16" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="BG16" s="1">
-        <v>40075</v>
+        <v>41819</v>
       </c>
       <c r="BH16" t="s">
         <v>101</v>
@@ -5893,19 +5876,19 @@
         <v>101</v>
       </c>
       <c r="BL16" s="1">
-        <v>45006</v>
+        <v>45012</v>
       </c>
       <c r="BM16" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="BN16" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="BO16" s="1">
-        <v>44957</v>
+        <v>44950</v>
       </c>
       <c r="BP16" t="s">
-        <v>272</v>
+        <v>115</v>
       </c>
       <c r="BQ16" t="s">
         <v>101</v>
@@ -5923,7 +5906,7 @@
         <v>117</v>
       </c>
       <c r="BV16" t="s">
-        <v>273</v>
+        <v>112</v>
       </c>
       <c r="BW16" t="s">
         <v>96</v>
@@ -5932,7 +5915,7 @@
         <v>118</v>
       </c>
       <c r="BY16" t="s">
-        <v>204</v>
+        <v>119</v>
       </c>
       <c r="BZ16" t="s">
         <v>96</v>
@@ -5941,7 +5924,7 @@
         <v>118</v>
       </c>
       <c r="CB16" t="s">
-        <v>204</v>
+        <v>119</v>
       </c>
       <c r="CC16" t="s">
         <v>118</v>
@@ -5950,7 +5933,7 @@
         <v>119</v>
       </c>
       <c r="CE16">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:83" x14ac:dyDescent="0.2">
@@ -5958,34 +5941,34 @@
         <v>83</v>
       </c>
       <c r="B17" s="1">
-        <v>44966</v>
+        <v>44955</v>
       </c>
       <c r="C17" t="s">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="D17" t="s">
         <v>85</v>
       </c>
       <c r="E17" t="s">
-        <v>308</v>
+        <v>248</v>
       </c>
       <c r="F17" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="G17" t="s">
         <v>309</v>
       </c>
       <c r="H17" t="s">
+        <v>88</v>
+      </c>
+      <c r="I17" t="s">
         <v>310</v>
-      </c>
-      <c r="I17" t="s">
-        <v>221</v>
       </c>
       <c r="J17" t="s">
         <v>311</v>
       </c>
       <c r="K17" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="L17" t="s">
         <v>312</v>
@@ -6012,40 +5995,40 @@
         <v>98</v>
       </c>
       <c r="T17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="U17" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="V17" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="W17" t="s">
-        <v>101</v>
+        <v>314</v>
       </c>
       <c r="X17" t="s">
         <v>101</v>
       </c>
       <c r="Y17" t="s">
-        <v>314</v>
+        <v>101</v>
       </c>
       <c r="Z17" t="s">
         <v>315</v>
       </c>
       <c r="AA17" t="s">
-        <v>316</v>
+        <v>104</v>
       </c>
       <c r="AB17" t="s">
         <v>133</v>
       </c>
       <c r="AC17" t="s">
-        <v>187</v>
+        <v>134</v>
       </c>
       <c r="AD17" t="s">
         <v>84</v>
       </c>
       <c r="AF17" t="s">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="AG17" t="s">
         <v>100</v>
@@ -6096,13 +6079,13 @@
         <v>98</v>
       </c>
       <c r="AW17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="AX17" s="1">
-        <v>44963</v>
+        <v>44955</v>
       </c>
       <c r="AY17" s="1">
-        <v>44961</v>
+        <v>44953</v>
       </c>
       <c r="AZ17" t="s">
         <v>107</v>
@@ -6123,34 +6106,34 @@
         <v>135</v>
       </c>
       <c r="BF17" t="s">
+        <v>316</v>
+      </c>
+      <c r="BG17" s="1">
+        <v>40075</v>
+      </c>
+      <c r="BH17" t="s">
+        <v>101</v>
+      </c>
+      <c r="BI17" t="s">
+        <v>101</v>
+      </c>
+      <c r="BJ17" t="s">
+        <v>101</v>
+      </c>
+      <c r="BL17" s="1">
+        <v>45012</v>
+      </c>
+      <c r="BM17" t="s">
         <v>317</v>
       </c>
-      <c r="BG17" s="1">
-        <v>29409</v>
-      </c>
-      <c r="BH17" t="s">
-        <v>101</v>
-      </c>
-      <c r="BI17" t="s">
-        <v>101</v>
-      </c>
-      <c r="BJ17" t="s">
-        <v>101</v>
-      </c>
-      <c r="BL17" s="1">
-        <v>45006</v>
-      </c>
-      <c r="BM17" t="s">
-        <v>318</v>
-      </c>
       <c r="BN17" t="s">
-        <v>319</v>
+        <v>259</v>
       </c>
       <c r="BO17" s="1">
-        <v>44966</v>
+        <v>44957</v>
       </c>
       <c r="BP17" t="s">
-        <v>320</v>
+        <v>260</v>
       </c>
       <c r="BQ17" t="s">
         <v>101</v>
@@ -6168,7 +6151,7 @@
         <v>117</v>
       </c>
       <c r="BV17" t="s">
-        <v>321</v>
+        <v>261</v>
       </c>
       <c r="BW17" t="s">
         <v>96</v>
@@ -6177,7 +6160,7 @@
         <v>118</v>
       </c>
       <c r="BY17" t="s">
-        <v>119</v>
+        <v>204</v>
       </c>
       <c r="BZ17" t="s">
         <v>96</v>
@@ -6186,7 +6169,7 @@
         <v>118</v>
       </c>
       <c r="CB17" t="s">
-        <v>119</v>
+        <v>204</v>
       </c>
       <c r="CC17" t="s">
         <v>118</v>
@@ -6195,7 +6178,7 @@
         <v>119</v>
       </c>
       <c r="CE17">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:83" x14ac:dyDescent="0.2">
@@ -6203,7 +6186,7 @@
         <v>83</v>
       </c>
       <c r="B18" s="1">
-        <v>44956</v>
+        <v>44966</v>
       </c>
       <c r="C18" t="s">
         <v>169</v>
@@ -6212,31 +6195,31 @@
         <v>85</v>
       </c>
       <c r="E18" t="s">
-        <v>260</v>
+        <v>318</v>
       </c>
       <c r="F18" t="s">
-        <v>322</v>
+        <v>87</v>
       </c>
       <c r="G18" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="H18" t="s">
-        <v>101</v>
+        <v>320</v>
       </c>
       <c r="I18" t="s">
-        <v>324</v>
+        <v>221</v>
       </c>
       <c r="J18" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="K18" t="s">
         <v>125</v>
       </c>
       <c r="L18" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="M18" t="s">
-        <v>210</v>
+        <v>323</v>
       </c>
       <c r="N18" t="s">
         <v>94</v>
@@ -6248,7 +6231,7 @@
         <v>96</v>
       </c>
       <c r="Q18" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="R18" t="s">
         <v>95</v>
@@ -6257,40 +6240,40 @@
         <v>98</v>
       </c>
       <c r="T18" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="U18" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="V18" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="W18" t="s">
-        <v>327</v>
+        <v>101</v>
       </c>
       <c r="X18" t="s">
         <v>101</v>
       </c>
       <c r="Y18" t="s">
-        <v>101</v>
+        <v>324</v>
       </c>
       <c r="Z18" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="AA18" t="s">
-        <v>104</v>
+        <v>326</v>
       </c>
       <c r="AB18" t="s">
         <v>133</v>
       </c>
       <c r="AC18" t="s">
-        <v>329</v>
+        <v>187</v>
       </c>
       <c r="AD18" t="s">
         <v>84</v>
       </c>
       <c r="AF18" t="s">
-        <v>165</v>
+        <v>100</v>
       </c>
       <c r="AG18" t="s">
         <v>100</v>
@@ -6305,7 +6288,7 @@
         <v>100</v>
       </c>
       <c r="AK18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL18" t="s">
         <v>101</v>
@@ -6317,7 +6300,7 @@
         <v>100</v>
       </c>
       <c r="AO18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AP18" t="s">
         <v>100</v>
@@ -6332,7 +6315,7 @@
         <v>94</v>
       </c>
       <c r="AT18" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AU18" t="s">
         <v>95</v>
@@ -6341,13 +6324,13 @@
         <v>98</v>
       </c>
       <c r="AW18" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="AX18" s="1">
-        <v>44956</v>
+        <v>44963</v>
       </c>
       <c r="AY18" s="1">
-        <v>44956</v>
+        <v>44961</v>
       </c>
       <c r="AZ18" t="s">
         <v>107</v>
@@ -6368,35 +6351,35 @@
         <v>135</v>
       </c>
       <c r="BF18" t="s">
+        <v>327</v>
+      </c>
+      <c r="BG18" s="1">
+        <v>29409</v>
+      </c>
+      <c r="BH18" t="s">
+        <v>101</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>101</v>
+      </c>
+      <c r="BJ18" t="s">
+        <v>101</v>
+      </c>
+      <c r="BL18" s="1">
+        <v>45012</v>
+      </c>
+      <c r="BM18" t="s">
+        <v>328</v>
+      </c>
+      <c r="BN18" t="s">
+        <v>329</v>
+      </c>
+      <c r="BO18" s="1">
+        <v>44966</v>
+      </c>
+      <c r="BP18" t="s">
         <v>330</v>
       </c>
-      <c r="BG18" s="1">
-        <v>34837</v>
-      </c>
-      <c r="BH18" t="s">
-        <v>101</v>
-      </c>
-      <c r="BI18" t="s">
-        <v>101</v>
-      </c>
-      <c r="BJ18" t="s">
-        <v>101</v>
-      </c>
-      <c r="BL18" s="1">
-        <v>45006</v>
-      </c>
-      <c r="BM18" t="s">
-        <v>331</v>
-      </c>
-      <c r="BN18" t="s">
-        <v>307</v>
-      </c>
-      <c r="BO18" s="1">
-        <v>44967</v>
-      </c>
-      <c r="BP18" t="s">
-        <v>272</v>
-      </c>
       <c r="BQ18" t="s">
         <v>101</v>
       </c>
@@ -6407,13 +6390,13 @@
         <v>101</v>
       </c>
       <c r="BT18" t="s">
-        <v>332</v>
+        <v>157</v>
       </c>
       <c r="BU18" t="s">
         <v>117</v>
       </c>
       <c r="BV18" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BW18" t="s">
         <v>96</v>
@@ -6422,7 +6405,7 @@
         <v>118</v>
       </c>
       <c r="BY18" t="s">
-        <v>204</v>
+        <v>119</v>
       </c>
       <c r="BZ18" t="s">
         <v>96</v>
@@ -6431,7 +6414,7 @@
         <v>118</v>
       </c>
       <c r="CB18" t="s">
-        <v>204</v>
+        <v>119</v>
       </c>
       <c r="CC18" t="s">
         <v>118</v>
@@ -6440,7 +6423,7 @@
         <v>119</v>
       </c>
       <c r="CE18">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:83" x14ac:dyDescent="0.2">
@@ -6448,7 +6431,7 @@
         <v>83</v>
       </c>
       <c r="B19" s="1">
-        <v>44957</v>
+        <v>44956</v>
       </c>
       <c r="C19" t="s">
         <v>169</v>
@@ -6457,19 +6440,19 @@
         <v>85</v>
       </c>
       <c r="E19" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="F19" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="G19" t="s">
+        <v>333</v>
+      </c>
+      <c r="H19" t="s">
+        <v>101</v>
+      </c>
+      <c r="I19" t="s">
         <v>334</v>
-      </c>
-      <c r="H19" t="s">
-        <v>193</v>
-      </c>
-      <c r="I19" t="s">
-        <v>236</v>
       </c>
       <c r="J19" t="s">
         <v>335</v>
@@ -6481,7 +6464,7 @@
         <v>336</v>
       </c>
       <c r="M19" t="s">
-        <v>337</v>
+        <v>210</v>
       </c>
       <c r="N19" t="s">
         <v>94</v>
@@ -6502,7 +6485,7 @@
         <v>98</v>
       </c>
       <c r="T19" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="U19" t="s">
         <v>100</v>
@@ -6511,16 +6494,16 @@
         <v>101</v>
       </c>
       <c r="W19" t="s">
+        <v>337</v>
+      </c>
+      <c r="X19" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z19" t="s">
         <v>338</v>
-      </c>
-      <c r="X19" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>339</v>
       </c>
       <c r="AA19" t="s">
         <v>104</v>
@@ -6529,7 +6512,7 @@
         <v>133</v>
       </c>
       <c r="AC19" t="s">
-        <v>329</v>
+        <v>256</v>
       </c>
       <c r="AD19" t="s">
         <v>84</v>
@@ -6586,13 +6569,13 @@
         <v>98</v>
       </c>
       <c r="AW19" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="AX19" s="1">
-        <v>44957</v>
+        <v>44956</v>
       </c>
       <c r="AY19" s="1">
-        <v>44955</v>
+        <v>44956</v>
       </c>
       <c r="AZ19" t="s">
         <v>107</v>
@@ -6613,34 +6596,34 @@
         <v>135</v>
       </c>
       <c r="BF19" t="s">
+        <v>339</v>
+      </c>
+      <c r="BG19" s="1">
+        <v>34837</v>
+      </c>
+      <c r="BH19" t="s">
+        <v>101</v>
+      </c>
+      <c r="BI19" t="s">
+        <v>101</v>
+      </c>
+      <c r="BJ19" t="s">
+        <v>101</v>
+      </c>
+      <c r="BL19" s="1">
+        <v>45012</v>
+      </c>
+      <c r="BM19" t="s">
         <v>340</v>
       </c>
-      <c r="BG19" s="1">
-        <v>33287</v>
-      </c>
-      <c r="BH19" t="s">
-        <v>101</v>
-      </c>
-      <c r="BI19" t="s">
-        <v>101</v>
-      </c>
-      <c r="BJ19" t="s">
-        <v>101</v>
-      </c>
-      <c r="BL19" s="1">
-        <v>45006</v>
-      </c>
-      <c r="BM19" t="s">
-        <v>341</v>
-      </c>
       <c r="BN19" t="s">
-        <v>307</v>
+        <v>259</v>
       </c>
       <c r="BO19" s="1">
         <v>44967</v>
       </c>
       <c r="BP19" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="BQ19" t="s">
         <v>101</v>
@@ -6652,13 +6635,13 @@
         <v>101</v>
       </c>
       <c r="BT19" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="BU19" t="s">
         <v>117</v>
       </c>
       <c r="BV19" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="BW19" t="s">
         <v>96</v>
@@ -6667,7 +6650,7 @@
         <v>118</v>
       </c>
       <c r="BY19" t="s">
-        <v>119</v>
+        <v>204</v>
       </c>
       <c r="BZ19" t="s">
         <v>96</v>
@@ -6676,7 +6659,7 @@
         <v>118</v>
       </c>
       <c r="CB19" t="s">
-        <v>119</v>
+        <v>204</v>
       </c>
       <c r="CC19" t="s">
         <v>118</v>
@@ -6685,7 +6668,7 @@
         <v>119</v>
       </c>
       <c r="CE19">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:83" x14ac:dyDescent="0.2">
@@ -6693,7 +6676,7 @@
         <v>83</v>
       </c>
       <c r="B20" s="1">
-        <v>44959</v>
+        <v>44957</v>
       </c>
       <c r="C20" t="s">
         <v>169</v>
@@ -6702,31 +6685,31 @@
         <v>85</v>
       </c>
       <c r="E20" t="s">
-        <v>86</v>
+        <v>248</v>
       </c>
       <c r="F20" t="s">
-        <v>178</v>
+        <v>332</v>
       </c>
       <c r="G20" t="s">
+        <v>343</v>
+      </c>
+      <c r="H20" t="s">
         <v>193</v>
       </c>
-      <c r="H20" t="s">
-        <v>88</v>
-      </c>
       <c r="I20" t="s">
-        <v>342</v>
+        <v>236</v>
       </c>
       <c r="J20" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K20" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="L20" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M20" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N20" t="s">
         <v>94</v>
@@ -6750,37 +6733,37 @@
         <v>99</v>
       </c>
       <c r="U20" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="V20" t="s">
-        <v>346</v>
+        <v>101</v>
       </c>
       <c r="W20" t="s">
-        <v>101</v>
+        <v>347</v>
       </c>
       <c r="X20" t="s">
         <v>101</v>
       </c>
       <c r="Y20" t="s">
-        <v>254</v>
+        <v>101</v>
       </c>
       <c r="Z20" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AA20" t="s">
         <v>104</v>
       </c>
       <c r="AB20" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="AC20" t="s">
-        <v>348</v>
+        <v>256</v>
       </c>
       <c r="AD20" t="s">
         <v>84</v>
       </c>
       <c r="AF20" t="s">
-        <v>94</v>
+        <v>165</v>
       </c>
       <c r="AG20" t="s">
         <v>100</v>
@@ -6822,7 +6805,7 @@
         <v>94</v>
       </c>
       <c r="AT20" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AU20" t="s">
         <v>95</v>
@@ -6834,10 +6817,10 @@
         <v>99</v>
       </c>
       <c r="AX20" s="1">
-        <v>44959</v>
+        <v>44957</v>
       </c>
       <c r="AY20" s="1">
-        <v>44958</v>
+        <v>44955</v>
       </c>
       <c r="AZ20" t="s">
         <v>107</v>
@@ -6861,7 +6844,7 @@
         <v>349</v>
       </c>
       <c r="BG20" s="1">
-        <v>38736</v>
+        <v>33287</v>
       </c>
       <c r="BH20" t="s">
         <v>101</v>
@@ -6873,19 +6856,19 @@
         <v>101</v>
       </c>
       <c r="BL20" s="1">
-        <v>45006</v>
+        <v>45012</v>
       </c>
       <c r="BM20" t="s">
         <v>350</v>
       </c>
       <c r="BN20" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="BO20" s="1">
-        <v>44963</v>
+        <v>44967</v>
       </c>
       <c r="BP20" t="s">
-        <v>115</v>
+        <v>260</v>
       </c>
       <c r="BQ20" t="s">
         <v>101</v>
@@ -6897,13 +6880,13 @@
         <v>101</v>
       </c>
       <c r="BT20" t="s">
-        <v>157</v>
+        <v>341</v>
       </c>
       <c r="BU20" t="s">
         <v>117</v>
       </c>
       <c r="BV20" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="BW20" t="s">
         <v>96</v>
@@ -6930,7 +6913,7 @@
         <v>119</v>
       </c>
       <c r="CE20">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:83" x14ac:dyDescent="0.2">
@@ -6938,40 +6921,40 @@
         <v>83</v>
       </c>
       <c r="B21" s="1">
-        <v>44968</v>
+        <v>44959</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>169</v>
       </c>
       <c r="D21" t="s">
         <v>85</v>
       </c>
       <c r="E21" t="s">
-        <v>260</v>
+        <v>86</v>
       </c>
       <c r="F21" t="s">
-        <v>322</v>
+        <v>178</v>
       </c>
       <c r="G21" t="s">
+        <v>193</v>
+      </c>
+      <c r="H21" t="s">
+        <v>88</v>
+      </c>
+      <c r="I21" t="s">
+        <v>351</v>
+      </c>
+      <c r="J21" t="s">
         <v>352</v>
       </c>
-      <c r="H21" t="s">
+      <c r="K21" t="s">
+        <v>91</v>
+      </c>
+      <c r="L21" t="s">
         <v>353</v>
       </c>
-      <c r="I21" t="s">
+      <c r="M21" t="s">
         <v>354</v>
-      </c>
-      <c r="J21" t="s">
-        <v>355</v>
-      </c>
-      <c r="K21" t="s">
-        <v>125</v>
-      </c>
-      <c r="L21" t="s">
-        <v>356</v>
-      </c>
-      <c r="M21" t="s">
-        <v>224</v>
       </c>
       <c r="N21" t="s">
         <v>94</v>
@@ -6995,37 +6978,37 @@
         <v>99</v>
       </c>
       <c r="U21" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="V21" t="s">
-        <v>101</v>
+        <v>254</v>
       </c>
       <c r="W21" t="s">
-        <v>346</v>
+        <v>101</v>
       </c>
       <c r="X21" t="s">
         <v>101</v>
       </c>
       <c r="Y21" t="s">
-        <v>101</v>
+        <v>268</v>
       </c>
       <c r="Z21" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AA21" t="s">
-        <v>358</v>
+        <v>104</v>
       </c>
       <c r="AB21" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="AC21" t="s">
-        <v>268</v>
+        <v>356</v>
       </c>
       <c r="AD21" t="s">
         <v>84</v>
       </c>
       <c r="AF21" t="s">
-        <v>165</v>
+        <v>94</v>
       </c>
       <c r="AG21" t="s">
         <v>100</v>
@@ -7079,10 +7062,10 @@
         <v>99</v>
       </c>
       <c r="AX21" s="1">
-        <v>44968</v>
+        <v>44959</v>
       </c>
       <c r="AY21" s="1">
-        <v>44966</v>
+        <v>44958</v>
       </c>
       <c r="AZ21" t="s">
         <v>107</v>
@@ -7103,10 +7086,10 @@
         <v>135</v>
       </c>
       <c r="BF21" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="BG21" s="1">
-        <v>35799</v>
+        <v>38736</v>
       </c>
       <c r="BH21" t="s">
         <v>101</v>
@@ -7118,19 +7101,19 @@
         <v>101</v>
       </c>
       <c r="BL21" s="1">
-        <v>45006</v>
+        <v>45012</v>
       </c>
       <c r="BM21" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="BN21" t="s">
-        <v>307</v>
+        <v>244</v>
       </c>
       <c r="BO21" s="1">
-        <v>44971</v>
+        <v>44963</v>
       </c>
       <c r="BP21" t="s">
-        <v>272</v>
+        <v>115</v>
       </c>
       <c r="BQ21" t="s">
         <v>101</v>
@@ -7142,13 +7125,13 @@
         <v>101</v>
       </c>
       <c r="BT21" t="s">
-        <v>332</v>
+        <v>157</v>
       </c>
       <c r="BU21" t="s">
         <v>117</v>
       </c>
       <c r="BV21" t="s">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="BW21" t="s">
         <v>96</v>
@@ -7175,7 +7158,7 @@
         <v>119</v>
       </c>
       <c r="CE21">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:83" x14ac:dyDescent="0.2">
@@ -7183,7 +7166,7 @@
         <v>83</v>
       </c>
       <c r="B22" s="1">
-        <v>44975</v>
+        <v>44968</v>
       </c>
       <c r="C22" t="s">
         <v>84</v>
@@ -7192,31 +7175,31 @@
         <v>85</v>
       </c>
       <c r="E22" t="s">
-        <v>158</v>
+        <v>248</v>
       </c>
       <c r="F22" t="s">
-        <v>87</v>
+        <v>332</v>
       </c>
       <c r="G22" t="s">
+        <v>360</v>
+      </c>
+      <c r="H22" t="s">
         <v>361</v>
       </c>
-      <c r="H22" t="s">
-        <v>101</v>
-      </c>
       <c r="I22" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="J22" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K22" t="s">
         <v>125</v>
       </c>
       <c r="L22" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M22" t="s">
-        <v>146</v>
+        <v>224</v>
       </c>
       <c r="N22" t="s">
         <v>94</v>
@@ -7237,40 +7220,40 @@
         <v>98</v>
       </c>
       <c r="T22" t="s">
-        <v>364</v>
+        <v>99</v>
       </c>
       <c r="U22" t="s">
-        <v>165</v>
+        <v>100</v>
       </c>
       <c r="V22" t="s">
         <v>101</v>
       </c>
       <c r="W22" t="s">
-        <v>101</v>
+        <v>254</v>
       </c>
       <c r="X22" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z22" t="s">
         <v>365</v>
       </c>
-      <c r="Y22" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z22" t="s">
+      <c r="AA22" t="s">
         <v>366</v>
       </c>
-      <c r="AA22" t="s">
-        <v>104</v>
-      </c>
       <c r="AB22" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="AC22" t="s">
-        <v>168</v>
+        <v>281</v>
       </c>
       <c r="AD22" t="s">
         <v>84</v>
       </c>
       <c r="AF22" t="s">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="AG22" t="s">
         <v>100</v>
@@ -7321,10 +7304,10 @@
         <v>98</v>
       </c>
       <c r="AW22" t="s">
-        <v>364</v>
+        <v>99</v>
       </c>
       <c r="AX22" s="1">
-        <v>44973</v>
+        <v>44968</v>
       </c>
       <c r="AY22" s="1">
         <v>44966</v>
@@ -7333,10 +7316,10 @@
         <v>107</v>
       </c>
       <c r="BA22" t="s">
-        <v>94</v>
-      </c>
-      <c r="BB22" s="1">
-        <v>44973</v>
+        <v>100</v>
+      </c>
+      <c r="BB22" t="s">
+        <v>108</v>
       </c>
       <c r="BC22" t="s">
         <v>94</v>
@@ -7351,7 +7334,7 @@
         <v>367</v>
       </c>
       <c r="BG22" s="1">
-        <v>32631</v>
+        <v>35799</v>
       </c>
       <c r="BH22" t="s">
         <v>101</v>
@@ -7363,19 +7346,19 @@
         <v>101</v>
       </c>
       <c r="BL22" s="1">
-        <v>45006</v>
+        <v>45012</v>
       </c>
       <c r="BM22" t="s">
         <v>368</v>
       </c>
       <c r="BN22" t="s">
-        <v>369</v>
+        <v>259</v>
       </c>
       <c r="BO22" s="1">
-        <v>44977</v>
+        <v>44971</v>
       </c>
       <c r="BP22" t="s">
-        <v>174</v>
+        <v>260</v>
       </c>
       <c r="BQ22" t="s">
         <v>101</v>
@@ -7387,13 +7370,13 @@
         <v>101</v>
       </c>
       <c r="BT22" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="BU22" t="s">
         <v>117</v>
       </c>
       <c r="BV22" t="s">
-        <v>175</v>
+        <v>342</v>
       </c>
       <c r="BW22" t="s">
         <v>96</v>
@@ -7402,7 +7385,7 @@
         <v>118</v>
       </c>
       <c r="BY22" t="s">
-        <v>370</v>
+        <v>119</v>
       </c>
       <c r="BZ22" t="s">
         <v>96</v>
@@ -7411,7 +7394,7 @@
         <v>118</v>
       </c>
       <c r="CB22" t="s">
-        <v>370</v>
+        <v>119</v>
       </c>
       <c r="CC22" t="s">
         <v>118</v>
@@ -7420,7 +7403,7 @@
         <v>119</v>
       </c>
       <c r="CE22">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:83" x14ac:dyDescent="0.2">
@@ -7428,7 +7411,7 @@
         <v>83</v>
       </c>
       <c r="B23" s="1">
-        <v>44970</v>
+        <v>44975</v>
       </c>
       <c r="C23" t="s">
         <v>84</v>
@@ -7437,31 +7420,31 @@
         <v>85</v>
       </c>
       <c r="E23" t="s">
-        <v>260</v>
+        <v>158</v>
       </c>
       <c r="F23" t="s">
         <v>87</v>
       </c>
       <c r="G23" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="H23" t="s">
-        <v>193</v>
+        <v>101</v>
       </c>
       <c r="I23" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="J23" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K23" t="s">
         <v>125</v>
       </c>
       <c r="L23" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="M23" t="s">
-        <v>374</v>
+        <v>146</v>
       </c>
       <c r="N23" t="s">
         <v>94</v>
@@ -7482,40 +7465,40 @@
         <v>98</v>
       </c>
       <c r="T23" t="s">
-        <v>99</v>
+        <v>372</v>
       </c>
       <c r="U23" t="s">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="V23" t="s">
         <v>101</v>
       </c>
       <c r="W23" t="s">
-        <v>375</v>
+        <v>101</v>
       </c>
       <c r="X23" t="s">
-        <v>101</v>
+        <v>373</v>
       </c>
       <c r="Y23" t="s">
         <v>101</v>
       </c>
       <c r="Z23" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AA23" t="s">
-        <v>377</v>
+        <v>104</v>
       </c>
       <c r="AB23" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="AC23" t="s">
-        <v>329</v>
+        <v>168</v>
       </c>
       <c r="AD23" t="s">
         <v>84</v>
       </c>
       <c r="AF23" t="s">
-        <v>165</v>
+        <v>100</v>
       </c>
       <c r="AG23" t="s">
         <v>100</v>
@@ -7566,22 +7549,22 @@
         <v>98</v>
       </c>
       <c r="AW23" t="s">
-        <v>99</v>
+        <v>372</v>
       </c>
       <c r="AX23" s="1">
-        <v>44970</v>
+        <v>44973</v>
       </c>
       <c r="AY23" s="1">
-        <v>44968</v>
+        <v>44966</v>
       </c>
       <c r="AZ23" t="s">
         <v>107</v>
       </c>
       <c r="BA23" t="s">
-        <v>100</v>
-      </c>
-      <c r="BB23" t="s">
-        <v>108</v>
+        <v>94</v>
+      </c>
+      <c r="BB23" s="1">
+        <v>44973</v>
       </c>
       <c r="BC23" t="s">
         <v>94</v>
@@ -7593,10 +7576,10 @@
         <v>135</v>
       </c>
       <c r="BF23" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="BG23" s="1">
-        <v>30623</v>
+        <v>32631</v>
       </c>
       <c r="BH23" t="s">
         <v>101</v>
@@ -7608,19 +7591,19 @@
         <v>101</v>
       </c>
       <c r="BL23" s="1">
-        <v>45006</v>
+        <v>45012</v>
       </c>
       <c r="BM23" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="BN23" t="s">
-        <v>307</v>
+        <v>377</v>
       </c>
       <c r="BO23" s="1">
-        <v>44971</v>
+        <v>44977</v>
       </c>
       <c r="BP23" t="s">
-        <v>272</v>
+        <v>174</v>
       </c>
       <c r="BQ23" t="s">
         <v>101</v>
@@ -7632,13 +7615,13 @@
         <v>101</v>
       </c>
       <c r="BT23" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="BU23" t="s">
         <v>117</v>
       </c>
       <c r="BV23" t="s">
-        <v>380</v>
+        <v>175</v>
       </c>
       <c r="BW23" t="s">
         <v>96</v>
@@ -7647,7 +7630,7 @@
         <v>118</v>
       </c>
       <c r="BY23" t="s">
-        <v>119</v>
+        <v>378</v>
       </c>
       <c r="BZ23" t="s">
         <v>96</v>
@@ -7656,7 +7639,7 @@
         <v>118</v>
       </c>
       <c r="CB23" t="s">
-        <v>119</v>
+        <v>378</v>
       </c>
       <c r="CC23" t="s">
         <v>118</v>
@@ -7665,7 +7648,7 @@
         <v>119</v>
       </c>
       <c r="CE23">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:83" x14ac:dyDescent="0.2">
@@ -7673,7 +7656,7 @@
         <v>83</v>
       </c>
       <c r="B24" s="1">
-        <v>44971</v>
+        <v>44970</v>
       </c>
       <c r="C24" t="s">
         <v>84</v>
@@ -7682,31 +7665,31 @@
         <v>85</v>
       </c>
       <c r="E24" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="F24" t="s">
         <v>87</v>
       </c>
       <c r="G24" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
       <c r="H24" t="s">
-        <v>88</v>
+        <v>193</v>
       </c>
       <c r="I24" t="s">
+        <v>379</v>
+      </c>
+      <c r="J24" t="s">
+        <v>380</v>
+      </c>
+      <c r="K24" t="s">
+        <v>125</v>
+      </c>
+      <c r="L24" t="s">
         <v>381</v>
       </c>
-      <c r="J24" t="s">
+      <c r="M24" t="s">
         <v>382</v>
-      </c>
-      <c r="K24" t="s">
-        <v>91</v>
-      </c>
-      <c r="L24" t="s">
-        <v>383</v>
-      </c>
-      <c r="M24" t="s">
-        <v>109</v>
       </c>
       <c r="N24" t="s">
         <v>94</v>
@@ -7718,7 +7701,7 @@
         <v>96</v>
       </c>
       <c r="Q24" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="R24" t="s">
         <v>95</v>
@@ -7730,37 +7713,37 @@
         <v>99</v>
       </c>
       <c r="U24" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="V24" t="s">
-        <v>225</v>
+        <v>101</v>
       </c>
       <c r="W24" t="s">
-        <v>101</v>
+        <v>383</v>
       </c>
       <c r="X24" t="s">
         <v>101</v>
       </c>
       <c r="Y24" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z24" t="s">
         <v>384</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="AA24" t="s">
         <v>385</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>104</v>
       </c>
       <c r="AB24" t="s">
         <v>133</v>
       </c>
       <c r="AC24" t="s">
-        <v>134</v>
+        <v>256</v>
       </c>
       <c r="AD24" t="s">
         <v>84</v>
       </c>
       <c r="AF24" t="s">
-        <v>94</v>
+        <v>165</v>
       </c>
       <c r="AG24" t="s">
         <v>100</v>
@@ -7775,7 +7758,7 @@
         <v>100</v>
       </c>
       <c r="AK24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AL24" t="s">
         <v>101</v>
@@ -7787,7 +7770,7 @@
         <v>100</v>
       </c>
       <c r="AO24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AP24" t="s">
         <v>100</v>
@@ -7814,10 +7797,10 @@
         <v>99</v>
       </c>
       <c r="AX24" s="1">
-        <v>44971</v>
+        <v>44970</v>
       </c>
       <c r="AY24" s="1">
-        <v>44967</v>
+        <v>44968</v>
       </c>
       <c r="AZ24" t="s">
         <v>107</v>
@@ -7841,7 +7824,7 @@
         <v>386</v>
       </c>
       <c r="BG24" s="1">
-        <v>42341</v>
+        <v>30623</v>
       </c>
       <c r="BH24" t="s">
         <v>101</v>
@@ -7853,19 +7836,19 @@
         <v>101</v>
       </c>
       <c r="BL24" s="1">
-        <v>45006</v>
+        <v>45012</v>
       </c>
       <c r="BM24" t="s">
         <v>387</v>
       </c>
       <c r="BN24" t="s">
-        <v>388</v>
+        <v>259</v>
       </c>
       <c r="BO24" s="1">
-        <v>44977</v>
+        <v>44971</v>
       </c>
       <c r="BP24" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="BQ24" t="s">
         <v>101</v>
@@ -7877,13 +7860,13 @@
         <v>101</v>
       </c>
       <c r="BT24" t="s">
-        <v>140</v>
+        <v>341</v>
       </c>
       <c r="BU24" t="s">
         <v>117</v>
       </c>
       <c r="BV24" t="s">
-        <v>232</v>
+        <v>388</v>
       </c>
       <c r="BW24" t="s">
         <v>96</v>
@@ -7910,7 +7893,7 @@
         <v>119</v>
       </c>
       <c r="CE24">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:83" x14ac:dyDescent="0.2">
@@ -7918,40 +7901,40 @@
         <v>83</v>
       </c>
       <c r="B25" s="1">
-        <v>44975</v>
+        <v>44971</v>
       </c>
       <c r="C25" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="D25" t="s">
         <v>85</v>
       </c>
       <c r="E25" t="s">
-        <v>389</v>
+        <v>218</v>
       </c>
       <c r="F25" t="s">
         <v>87</v>
       </c>
       <c r="G25" t="s">
+        <v>309</v>
+      </c>
+      <c r="H25" t="s">
+        <v>88</v>
+      </c>
+      <c r="I25" t="s">
+        <v>389</v>
+      </c>
+      <c r="J25" t="s">
         <v>390</v>
       </c>
-      <c r="H25" t="s">
+      <c r="K25" t="s">
+        <v>91</v>
+      </c>
+      <c r="L25" t="s">
         <v>391</v>
       </c>
-      <c r="I25" t="s">
-        <v>392</v>
-      </c>
-      <c r="J25" t="s">
-        <v>393</v>
-      </c>
-      <c r="K25" t="s">
-        <v>125</v>
-      </c>
-      <c r="L25" t="s">
-        <v>394</v>
-      </c>
       <c r="M25" t="s">
-        <v>395</v>
+        <v>109</v>
       </c>
       <c r="N25" t="s">
         <v>94</v>
@@ -7969,16 +7952,16 @@
         <v>95</v>
       </c>
       <c r="S25" t="s">
-        <v>345</v>
+        <v>98</v>
       </c>
       <c r="T25" t="s">
-        <v>396</v>
+        <v>99</v>
       </c>
       <c r="U25" t="s">
         <v>94</v>
       </c>
       <c r="V25" t="s">
-        <v>397</v>
+        <v>225</v>
       </c>
       <c r="W25" t="s">
         <v>101</v>
@@ -7987,25 +7970,25 @@
         <v>101</v>
       </c>
       <c r="Y25" t="s">
-        <v>254</v>
+        <v>392</v>
       </c>
       <c r="Z25" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="AA25" t="s">
-        <v>399</v>
+        <v>104</v>
       </c>
       <c r="AB25" t="s">
-        <v>400</v>
+        <v>133</v>
       </c>
       <c r="AC25" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="AD25" t="s">
         <v>84</v>
       </c>
       <c r="AF25" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AG25" t="s">
         <v>100</v>
@@ -8059,10 +8042,10 @@
         <v>99</v>
       </c>
       <c r="AX25" s="1">
-        <v>44975</v>
+        <v>44971</v>
       </c>
       <c r="AY25" s="1">
-        <v>44975</v>
+        <v>44967</v>
       </c>
       <c r="AZ25" t="s">
         <v>107</v>
@@ -8083,10 +8066,10 @@
         <v>135</v>
       </c>
       <c r="BF25" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="BG25" s="1">
-        <v>35484</v>
+        <v>42341</v>
       </c>
       <c r="BH25" t="s">
         <v>101</v>
@@ -8098,16 +8081,19 @@
         <v>101</v>
       </c>
       <c r="BL25" s="1">
-        <v>45006</v>
+        <v>45012</v>
       </c>
       <c r="BM25" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="BN25" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="BO25" s="1">
-        <v>44984</v>
+        <v>44977</v>
+      </c>
+      <c r="BP25" t="s">
+        <v>231</v>
       </c>
       <c r="BQ25" t="s">
         <v>101</v>
@@ -8119,19 +8105,22 @@
         <v>101</v>
       </c>
       <c r="BT25" t="s">
-        <v>332</v>
+        <v>140</v>
       </c>
       <c r="BU25" t="s">
         <v>117</v>
       </c>
+      <c r="BV25" t="s">
+        <v>232</v>
+      </c>
       <c r="BW25" t="s">
         <v>96</v>
       </c>
       <c r="BX25" t="s">
-        <v>404</v>
+        <v>118</v>
       </c>
       <c r="BY25" t="s">
-        <v>405</v>
+        <v>119</v>
       </c>
       <c r="BZ25" t="s">
         <v>96</v>
@@ -8142,8 +8131,14 @@
       <c r="CB25" t="s">
         <v>119</v>
       </c>
+      <c r="CC25" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD25" t="s">
+        <v>119</v>
+      </c>
       <c r="CE25">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:83" x14ac:dyDescent="0.2">
@@ -8151,7 +8146,7 @@
         <v>83</v>
       </c>
       <c r="B26" s="1">
-        <v>44977</v>
+        <v>44975</v>
       </c>
       <c r="C26" t="s">
         <v>109</v>
@@ -8160,31 +8155,31 @@
         <v>85</v>
       </c>
       <c r="E26" t="s">
-        <v>120</v>
+        <v>397</v>
       </c>
       <c r="F26" t="s">
         <v>87</v>
       </c>
       <c r="G26" t="s">
-        <v>298</v>
+        <v>398</v>
       </c>
       <c r="H26" t="s">
-        <v>88</v>
+        <v>399</v>
       </c>
       <c r="I26" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="J26" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="K26" t="s">
         <v>125</v>
       </c>
       <c r="L26" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="M26" t="s">
-        <v>253</v>
+        <v>403</v>
       </c>
       <c r="N26" t="s">
         <v>94</v>
@@ -8202,16 +8197,16 @@
         <v>95</v>
       </c>
       <c r="S26" t="s">
-        <v>98</v>
+        <v>354</v>
       </c>
       <c r="T26" t="s">
-        <v>99</v>
+        <v>404</v>
       </c>
       <c r="U26" t="s">
         <v>94</v>
       </c>
       <c r="V26" t="s">
-        <v>129</v>
+        <v>405</v>
       </c>
       <c r="W26" t="s">
         <v>101</v>
@@ -8220,25 +8215,25 @@
         <v>101</v>
       </c>
       <c r="Y26" t="s">
-        <v>129</v>
+        <v>268</v>
       </c>
       <c r="Z26" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="AA26" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="AB26" t="s">
-        <v>133</v>
+        <v>408</v>
       </c>
       <c r="AC26" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="AD26" t="s">
         <v>84</v>
       </c>
       <c r="AF26" t="s">
-        <v>165</v>
+        <v>100</v>
       </c>
       <c r="AG26" t="s">
         <v>100</v>
@@ -8292,7 +8287,7 @@
         <v>99</v>
       </c>
       <c r="AX26" s="1">
-        <v>44977</v>
+        <v>44975</v>
       </c>
       <c r="AY26" s="1">
         <v>44975</v>
@@ -8316,34 +8311,31 @@
         <v>135</v>
       </c>
       <c r="BF26" t="s">
+        <v>409</v>
+      </c>
+      <c r="BG26" s="1">
+        <v>35484</v>
+      </c>
+      <c r="BH26" t="s">
+        <v>101</v>
+      </c>
+      <c r="BI26" t="s">
+        <v>101</v>
+      </c>
+      <c r="BJ26" t="s">
+        <v>101</v>
+      </c>
+      <c r="BL26" s="1">
+        <v>45012</v>
+      </c>
+      <c r="BM26" t="s">
+        <v>410</v>
+      </c>
+      <c r="BN26" t="s">
         <v>411</v>
       </c>
-      <c r="BG26" s="1">
-        <v>36543</v>
-      </c>
-      <c r="BH26" t="s">
-        <v>101</v>
-      </c>
-      <c r="BI26" t="s">
-        <v>101</v>
-      </c>
-      <c r="BJ26" t="s">
-        <v>101</v>
-      </c>
-      <c r="BL26" s="1">
-        <v>45006</v>
-      </c>
-      <c r="BM26" t="s">
-        <v>412</v>
-      </c>
-      <c r="BN26" t="s">
-        <v>413</v>
-      </c>
       <c r="BO26" s="1">
-        <v>44978</v>
-      </c>
-      <c r="BP26" t="s">
-        <v>139</v>
+        <v>44984</v>
       </c>
       <c r="BQ26" t="s">
         <v>101</v>
@@ -8355,22 +8347,19 @@
         <v>101</v>
       </c>
       <c r="BT26" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="BU26" t="s">
         <v>117</v>
       </c>
-      <c r="BV26" t="s">
-        <v>141</v>
-      </c>
       <c r="BW26" t="s">
         <v>96</v>
       </c>
       <c r="BX26" t="s">
-        <v>118</v>
+        <v>412</v>
       </c>
       <c r="BY26" t="s">
-        <v>119</v>
+        <v>413</v>
       </c>
       <c r="BZ26" t="s">
         <v>96</v>
@@ -8381,14 +8370,8 @@
       <c r="CB26" t="s">
         <v>119</v>
       </c>
-      <c r="CC26" t="s">
-        <v>118</v>
-      </c>
-      <c r="CD26" t="s">
-        <v>119</v>
-      </c>
       <c r="CE26">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:83" x14ac:dyDescent="0.2">
@@ -8396,7 +8379,7 @@
         <v>83</v>
       </c>
       <c r="B27" s="1">
-        <v>44974</v>
+        <v>44977</v>
       </c>
       <c r="C27" t="s">
         <v>109</v>
@@ -8405,31 +8388,31 @@
         <v>85</v>
       </c>
       <c r="E27" t="s">
-        <v>414</v>
+        <v>120</v>
       </c>
       <c r="F27" t="s">
         <v>87</v>
       </c>
       <c r="G27" t="s">
+        <v>309</v>
+      </c>
+      <c r="H27" t="s">
+        <v>88</v>
+      </c>
+      <c r="I27" t="s">
+        <v>414</v>
+      </c>
+      <c r="J27" t="s">
         <v>415</v>
-      </c>
-      <c r="H27" t="s">
-        <v>416</v>
-      </c>
-      <c r="I27" t="s">
-        <v>372</v>
-      </c>
-      <c r="J27" t="s">
-        <v>417</v>
       </c>
       <c r="K27" t="s">
         <v>125</v>
       </c>
       <c r="L27" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="M27" t="s">
-        <v>419</v>
+        <v>267</v>
       </c>
       <c r="N27" t="s">
         <v>94</v>
@@ -8456,7 +8439,7 @@
         <v>94</v>
       </c>
       <c r="V27" t="s">
-        <v>225</v>
+        <v>129</v>
       </c>
       <c r="W27" t="s">
         <v>101</v>
@@ -8465,19 +8448,19 @@
         <v>101</v>
       </c>
       <c r="Y27" t="s">
-        <v>254</v>
+        <v>129</v>
       </c>
       <c r="Z27" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="AA27" t="s">
-        <v>104</v>
+        <v>418</v>
       </c>
       <c r="AB27" t="s">
         <v>133</v>
       </c>
       <c r="AC27" t="s">
-        <v>421</v>
+        <v>134</v>
       </c>
       <c r="AD27" t="s">
         <v>84</v>
@@ -8534,13 +8517,13 @@
         <v>98</v>
       </c>
       <c r="AW27" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="AX27" s="1">
-        <v>44974</v>
+        <v>44977</v>
       </c>
       <c r="AY27" s="1">
-        <v>44970</v>
+        <v>44975</v>
       </c>
       <c r="AZ27" t="s">
         <v>107</v>
@@ -8561,10 +8544,10 @@
         <v>135</v>
       </c>
       <c r="BF27" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="BG27" s="1">
-        <v>15675</v>
+        <v>36543</v>
       </c>
       <c r="BH27" t="s">
         <v>101</v>
@@ -8576,19 +8559,19 @@
         <v>101</v>
       </c>
       <c r="BL27" s="1">
-        <v>45006</v>
+        <v>45012</v>
       </c>
       <c r="BM27" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="BN27" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="BO27" s="1">
-        <v>44977</v>
+        <v>44978</v>
       </c>
       <c r="BP27" t="s">
-        <v>425</v>
+        <v>139</v>
       </c>
       <c r="BQ27" t="s">
         <v>101</v>
@@ -8600,13 +8583,13 @@
         <v>101</v>
       </c>
       <c r="BT27" t="s">
-        <v>140</v>
+        <v>341</v>
       </c>
       <c r="BU27" t="s">
         <v>117</v>
       </c>
       <c r="BV27" t="s">
-        <v>426</v>
+        <v>141</v>
       </c>
       <c r="BW27" t="s">
         <v>96</v>
@@ -8624,7 +8607,7 @@
         <v>118</v>
       </c>
       <c r="CB27" t="s">
-        <v>204</v>
+        <v>119</v>
       </c>
       <c r="CC27" t="s">
         <v>118</v>
@@ -8633,7 +8616,7 @@
         <v>119</v>
       </c>
       <c r="CE27">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:83" x14ac:dyDescent="0.2">
@@ -8641,40 +8624,40 @@
         <v>83</v>
       </c>
       <c r="B28" s="1">
-        <v>44982</v>
+        <v>44974</v>
       </c>
       <c r="C28" t="s">
-        <v>292</v>
+        <v>109</v>
       </c>
       <c r="D28" t="s">
         <v>85</v>
       </c>
       <c r="E28" t="s">
-        <v>260</v>
+        <v>422</v>
       </c>
       <c r="F28" t="s">
-        <v>170</v>
+        <v>87</v>
       </c>
       <c r="G28" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="H28" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="I28" t="s">
-        <v>429</v>
+        <v>380</v>
       </c>
       <c r="J28" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="K28" t="s">
         <v>125</v>
       </c>
       <c r="L28" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="M28" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="N28" t="s">
         <v>94</v>
@@ -8698,22 +8681,22 @@
         <v>99</v>
       </c>
       <c r="U28" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="V28" t="s">
-        <v>101</v>
+        <v>225</v>
       </c>
       <c r="W28" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="X28" t="s">
         <v>101</v>
       </c>
       <c r="Y28" t="s">
-        <v>101</v>
+        <v>268</v>
       </c>
       <c r="Z28" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="AA28" t="s">
         <v>104</v>
@@ -8722,13 +8705,13 @@
         <v>133</v>
       </c>
       <c r="AC28" t="s">
-        <v>329</v>
+        <v>429</v>
       </c>
       <c r="AD28" t="s">
         <v>84</v>
       </c>
       <c r="AF28" t="s">
-        <v>107</v>
+        <v>165</v>
       </c>
       <c r="AG28" t="s">
         <v>100</v>
@@ -8770,7 +8753,7 @@
         <v>94</v>
       </c>
       <c r="AT28" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AU28" t="s">
         <v>95</v>
@@ -8779,13 +8762,13 @@
         <v>98</v>
       </c>
       <c r="AW28" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="AX28" s="1">
-        <v>44982</v>
+        <v>44974</v>
       </c>
       <c r="AY28" s="1">
-        <v>44982</v>
+        <v>44970</v>
       </c>
       <c r="AZ28" t="s">
         <v>107</v>
@@ -8806,10 +8789,10 @@
         <v>135</v>
       </c>
       <c r="BF28" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="BG28" s="1">
-        <v>31601</v>
+        <v>15675</v>
       </c>
       <c r="BH28" t="s">
         <v>101</v>
@@ -8821,19 +8804,19 @@
         <v>101</v>
       </c>
       <c r="BL28" s="1">
-        <v>45006</v>
+        <v>45012</v>
       </c>
       <c r="BM28" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="BN28" t="s">
-        <v>307</v>
+        <v>432</v>
       </c>
       <c r="BO28" s="1">
-        <v>44987</v>
+        <v>44977</v>
       </c>
       <c r="BP28" t="s">
-        <v>272</v>
+        <v>433</v>
       </c>
       <c r="BQ28" t="s">
         <v>101</v>
@@ -8845,13 +8828,13 @@
         <v>101</v>
       </c>
       <c r="BT28" t="s">
-        <v>259</v>
+        <v>140</v>
       </c>
       <c r="BU28" t="s">
         <v>117</v>
       </c>
       <c r="BV28" t="s">
-        <v>273</v>
+        <v>434</v>
       </c>
       <c r="BW28" t="s">
         <v>96</v>
@@ -8869,7 +8852,7 @@
         <v>118</v>
       </c>
       <c r="CB28" t="s">
-        <v>119</v>
+        <v>204</v>
       </c>
       <c r="CC28" t="s">
         <v>118</v>
@@ -8878,7 +8861,7 @@
         <v>119</v>
       </c>
       <c r="CE28">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:83" x14ac:dyDescent="0.2">
@@ -8886,49 +8869,49 @@
         <v>83</v>
       </c>
       <c r="B29" s="1">
-        <v>44984</v>
+        <v>44982</v>
       </c>
       <c r="C29" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="D29" t="s">
         <v>85</v>
       </c>
       <c r="E29" t="s">
-        <v>86</v>
+        <v>248</v>
       </c>
       <c r="F29" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="G29" t="s">
+        <v>435</v>
+      </c>
+      <c r="H29" t="s">
         <v>436</v>
-      </c>
-      <c r="H29" t="s">
-        <v>288</v>
       </c>
       <c r="I29" t="s">
         <v>437</v>
       </c>
       <c r="J29" t="s">
-        <v>251</v>
+        <v>438</v>
       </c>
       <c r="K29" t="s">
-        <v>208</v>
+        <v>125</v>
       </c>
       <c r="L29" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M29" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N29" t="s">
         <v>94</v>
       </c>
       <c r="O29" t="s">
-        <v>211</v>
+        <v>95</v>
       </c>
       <c r="P29" t="s">
-        <v>212</v>
+        <v>96</v>
       </c>
       <c r="Q29" t="s">
         <v>128</v>
@@ -8949,7 +8932,7 @@
         <v>101</v>
       </c>
       <c r="W29" t="s">
-        <v>375</v>
+        <v>129</v>
       </c>
       <c r="X29" t="s">
         <v>101</v>
@@ -8958,22 +8941,22 @@
         <v>101</v>
       </c>
       <c r="Z29" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AA29" t="s">
         <v>104</v>
       </c>
       <c r="AB29" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="AC29" t="s">
-        <v>168</v>
+        <v>256</v>
       </c>
       <c r="AD29" t="s">
         <v>84</v>
       </c>
       <c r="AF29" t="s">
-        <v>165</v>
+        <v>107</v>
       </c>
       <c r="AG29" t="s">
         <v>100</v>
@@ -9015,7 +8998,7 @@
         <v>94</v>
       </c>
       <c r="AT29" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AU29" t="s">
         <v>95</v>
@@ -9027,10 +9010,10 @@
         <v>99</v>
       </c>
       <c r="AX29" s="1">
-        <v>44984</v>
+        <v>44982</v>
       </c>
       <c r="AY29" s="1">
-        <v>44981</v>
+        <v>44982</v>
       </c>
       <c r="AZ29" t="s">
         <v>107</v>
@@ -9051,10 +9034,10 @@
         <v>135</v>
       </c>
       <c r="BF29" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="BG29" s="1">
-        <v>41687</v>
+        <v>31601</v>
       </c>
       <c r="BH29" t="s">
         <v>101</v>
@@ -9066,19 +9049,19 @@
         <v>101</v>
       </c>
       <c r="BL29" s="1">
-        <v>45006</v>
+        <v>45012</v>
       </c>
       <c r="BM29" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="BN29" t="s">
-        <v>114</v>
+        <v>259</v>
       </c>
       <c r="BO29" s="1">
-        <v>44985</v>
+        <v>44987</v>
       </c>
       <c r="BP29" t="s">
-        <v>115</v>
+        <v>260</v>
       </c>
       <c r="BQ29" t="s">
         <v>101</v>
@@ -9090,13 +9073,13 @@
         <v>101</v>
       </c>
       <c r="BT29" t="s">
-        <v>332</v>
+        <v>273</v>
       </c>
       <c r="BU29" t="s">
         <v>117</v>
       </c>
       <c r="BV29" t="s">
-        <v>112</v>
+        <v>261</v>
       </c>
       <c r="BW29" t="s">
         <v>96</v>
@@ -9123,7 +9106,7 @@
         <v>119</v>
       </c>
       <c r="CE29">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:83" x14ac:dyDescent="0.2">
@@ -9131,16 +9114,16 @@
         <v>83</v>
       </c>
       <c r="B30" s="1">
-        <v>44979</v>
+        <v>44984</v>
       </c>
       <c r="C30" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="D30" t="s">
         <v>85</v>
       </c>
       <c r="E30" t="s">
-        <v>443</v>
+        <v>86</v>
       </c>
       <c r="F30" t="s">
         <v>87</v>
@@ -9149,31 +9132,31 @@
         <v>444</v>
       </c>
       <c r="H30" t="s">
-        <v>101</v>
+        <v>299</v>
       </c>
       <c r="I30" t="s">
         <v>445</v>
       </c>
       <c r="J30" t="s">
+        <v>265</v>
+      </c>
+      <c r="K30" t="s">
+        <v>208</v>
+      </c>
+      <c r="L30" t="s">
         <v>446</v>
       </c>
-      <c r="K30" t="s">
-        <v>279</v>
-      </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>447</v>
       </c>
-      <c r="M30" t="s">
-        <v>107</v>
-      </c>
       <c r="N30" t="s">
         <v>94</v>
       </c>
       <c r="O30" t="s">
-        <v>95</v>
+        <v>211</v>
       </c>
       <c r="P30" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="Q30" t="s">
         <v>128</v>
@@ -9188,37 +9171,37 @@
         <v>99</v>
       </c>
       <c r="U30" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="V30" t="s">
+        <v>101</v>
+      </c>
+      <c r="W30" t="s">
+        <v>383</v>
+      </c>
+      <c r="X30" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z30" t="s">
         <v>448</v>
-      </c>
-      <c r="W30" t="s">
-        <v>101</v>
-      </c>
-      <c r="X30" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>254</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>449</v>
       </c>
       <c r="AA30" t="s">
         <v>104</v>
       </c>
       <c r="AB30" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="AC30" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="AD30" t="s">
         <v>84</v>
       </c>
       <c r="AF30" t="s">
-        <v>107</v>
+        <v>165</v>
       </c>
       <c r="AG30" t="s">
         <v>100</v>
@@ -9272,10 +9255,10 @@
         <v>99</v>
       </c>
       <c r="AX30" s="1">
-        <v>44979</v>
+        <v>44984</v>
       </c>
       <c r="AY30" s="1">
-        <v>44978</v>
+        <v>44981</v>
       </c>
       <c r="AZ30" t="s">
         <v>107</v>
@@ -9296,34 +9279,34 @@
         <v>135</v>
       </c>
       <c r="BF30" t="s">
+        <v>449</v>
+      </c>
+      <c r="BG30" s="1">
+        <v>41687</v>
+      </c>
+      <c r="BH30" t="s">
+        <v>101</v>
+      </c>
+      <c r="BI30" t="s">
+        <v>101</v>
+      </c>
+      <c r="BJ30" t="s">
+        <v>101</v>
+      </c>
+      <c r="BL30" s="1">
+        <v>45012</v>
+      </c>
+      <c r="BM30" t="s">
         <v>450</v>
       </c>
-      <c r="BG30" s="1">
-        <v>43412</v>
-      </c>
-      <c r="BH30" t="s">
-        <v>101</v>
-      </c>
-      <c r="BI30" t="s">
-        <v>101</v>
-      </c>
-      <c r="BJ30" t="s">
-        <v>101</v>
-      </c>
-      <c r="BL30" s="1">
-        <v>45006</v>
-      </c>
-      <c r="BM30" t="s">
-        <v>451</v>
-      </c>
       <c r="BN30" t="s">
-        <v>452</v>
+        <v>114</v>
       </c>
       <c r="BO30" s="1">
-        <v>44979</v>
+        <v>44985</v>
       </c>
       <c r="BP30" t="s">
-        <v>453</v>
+        <v>115</v>
       </c>
       <c r="BQ30" t="s">
         <v>101</v>
@@ -9335,13 +9318,13 @@
         <v>101</v>
       </c>
       <c r="BT30" t="s">
-        <v>454</v>
+        <v>341</v>
       </c>
       <c r="BU30" t="s">
         <v>117</v>
       </c>
       <c r="BV30" t="s">
-        <v>455</v>
+        <v>112</v>
       </c>
       <c r="BW30" t="s">
         <v>96</v>
@@ -9368,7 +9351,7 @@
         <v>119</v>
       </c>
       <c r="CE30">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:83" x14ac:dyDescent="0.2">
@@ -9376,40 +9359,40 @@
         <v>83</v>
       </c>
       <c r="B31" s="1">
-        <v>44984</v>
+        <v>44979</v>
       </c>
       <c r="C31" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="D31" t="s">
         <v>85</v>
       </c>
       <c r="E31" t="s">
-        <v>86</v>
+        <v>451</v>
       </c>
       <c r="F31" t="s">
         <v>87</v>
       </c>
       <c r="G31" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="H31" t="s">
-        <v>457</v>
+        <v>101</v>
       </c>
       <c r="I31" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="J31" t="s">
-        <v>354</v>
+        <v>454</v>
       </c>
       <c r="K31" t="s">
-        <v>91</v>
+        <v>290</v>
       </c>
       <c r="L31" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="M31" t="s">
-        <v>460</v>
+        <v>107</v>
       </c>
       <c r="N31" t="s">
         <v>94</v>
@@ -9433,37 +9416,37 @@
         <v>99</v>
       </c>
       <c r="U31" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="V31" t="s">
-        <v>101</v>
+        <v>456</v>
       </c>
       <c r="W31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="X31" t="s">
         <v>101</v>
       </c>
       <c r="Y31" t="s">
-        <v>101</v>
+        <v>268</v>
       </c>
       <c r="Z31" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AA31" t="s">
         <v>104</v>
       </c>
       <c r="AB31" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="AC31" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="AD31" t="s">
         <v>84</v>
       </c>
       <c r="AF31" t="s">
-        <v>165</v>
+        <v>107</v>
       </c>
       <c r="AG31" t="s">
         <v>100</v>
@@ -9517,10 +9500,10 @@
         <v>99</v>
       </c>
       <c r="AX31" s="1">
-        <v>44984</v>
+        <v>44979</v>
       </c>
       <c r="AY31" s="1">
-        <v>44979</v>
+        <v>44978</v>
       </c>
       <c r="AZ31" t="s">
         <v>107</v>
@@ -9541,52 +9524,52 @@
         <v>135</v>
       </c>
       <c r="BF31" t="s">
+        <v>458</v>
+      </c>
+      <c r="BG31" s="1">
+        <v>43412</v>
+      </c>
+      <c r="BH31" t="s">
+        <v>101</v>
+      </c>
+      <c r="BI31" t="s">
+        <v>101</v>
+      </c>
+      <c r="BJ31" t="s">
+        <v>101</v>
+      </c>
+      <c r="BL31" s="1">
+        <v>45012</v>
+      </c>
+      <c r="BM31" t="s">
+        <v>459</v>
+      </c>
+      <c r="BN31" t="s">
+        <v>460</v>
+      </c>
+      <c r="BO31" s="1">
+        <v>44979</v>
+      </c>
+      <c r="BP31" t="s">
+        <v>461</v>
+      </c>
+      <c r="BQ31" t="s">
+        <v>101</v>
+      </c>
+      <c r="BR31" t="s">
+        <v>101</v>
+      </c>
+      <c r="BS31" t="s">
+        <v>101</v>
+      </c>
+      <c r="BT31" t="s">
         <v>462</v>
-      </c>
-      <c r="BG31" s="1">
-        <v>39209</v>
-      </c>
-      <c r="BH31" t="s">
-        <v>101</v>
-      </c>
-      <c r="BI31" t="s">
-        <v>101</v>
-      </c>
-      <c r="BJ31" t="s">
-        <v>101</v>
-      </c>
-      <c r="BL31" s="1">
-        <v>45006</v>
-      </c>
-      <c r="BM31" t="s">
-        <v>463</v>
-      </c>
-      <c r="BN31" t="s">
-        <v>114</v>
-      </c>
-      <c r="BO31" s="1">
-        <v>44985</v>
-      </c>
-      <c r="BP31" t="s">
-        <v>115</v>
-      </c>
-      <c r="BQ31" t="s">
-        <v>101</v>
-      </c>
-      <c r="BR31" t="s">
-        <v>101</v>
-      </c>
-      <c r="BS31" t="s">
-        <v>101</v>
-      </c>
-      <c r="BT31" t="s">
-        <v>332</v>
       </c>
       <c r="BU31" t="s">
         <v>117</v>
       </c>
       <c r="BV31" t="s">
-        <v>112</v>
+        <v>463</v>
       </c>
       <c r="BW31" t="s">
         <v>96</v>
@@ -9613,7 +9596,7 @@
         <v>119</v>
       </c>
       <c r="CE31">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:83" x14ac:dyDescent="0.2">
@@ -9621,31 +9604,31 @@
         <v>83</v>
       </c>
       <c r="B32" s="1">
-        <v>44981</v>
+        <v>44984</v>
       </c>
       <c r="C32" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="D32" t="s">
         <v>85</v>
       </c>
       <c r="E32" t="s">
+        <v>86</v>
+      </c>
+      <c r="F32" t="s">
+        <v>87</v>
+      </c>
+      <c r="G32" t="s">
         <v>464</v>
       </c>
-      <c r="F32" t="s">
-        <v>419</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>465</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>466</v>
       </c>
-      <c r="I32" t="s">
-        <v>458</v>
-      </c>
       <c r="J32" t="s">
-        <v>236</v>
+        <v>362</v>
       </c>
       <c r="K32" t="s">
         <v>91</v>
@@ -9654,7 +9637,7 @@
         <v>467</v>
       </c>
       <c r="M32" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="N32" t="s">
         <v>94</v>
@@ -9678,19 +9661,19 @@
         <v>99</v>
       </c>
       <c r="U32" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="V32" t="s">
-        <v>225</v>
+        <v>101</v>
       </c>
       <c r="W32" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="X32" t="s">
         <v>101</v>
       </c>
       <c r="Y32" t="s">
-        <v>468</v>
+        <v>101</v>
       </c>
       <c r="Z32" t="s">
         <v>469</v>
@@ -9699,16 +9682,16 @@
         <v>104</v>
       </c>
       <c r="AB32" t="s">
-        <v>470</v>
+        <v>105</v>
       </c>
       <c r="AC32" t="s">
-        <v>471</v>
+        <v>168</v>
       </c>
       <c r="AD32" t="s">
         <v>84</v>
       </c>
       <c r="AF32" t="s">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="AG32" t="s">
         <v>100</v>
@@ -9762,10 +9745,10 @@
         <v>99</v>
       </c>
       <c r="AX32" s="1">
+        <v>44984</v>
+      </c>
+      <c r="AY32" s="1">
         <v>44979</v>
-      </c>
-      <c r="AY32" s="1">
-        <v>44977</v>
       </c>
       <c r="AZ32" t="s">
         <v>107</v>
@@ -9786,10 +9769,10 @@
         <v>135</v>
       </c>
       <c r="BF32" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="BG32" s="1">
-        <v>39245</v>
+        <v>39209</v>
       </c>
       <c r="BH32" t="s">
         <v>101</v>
@@ -9801,16 +9784,19 @@
         <v>101</v>
       </c>
       <c r="BL32" s="1">
-        <v>45006</v>
+        <v>45012</v>
       </c>
       <c r="BM32" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="BN32" t="s">
-        <v>474</v>
+        <v>114</v>
       </c>
       <c r="BO32" s="1">
-        <v>44981</v>
+        <v>44985</v>
+      </c>
+      <c r="BP32" t="s">
+        <v>115</v>
       </c>
       <c r="BQ32" t="s">
         <v>101</v>
@@ -9822,11 +9808,14 @@
         <v>101</v>
       </c>
       <c r="BT32" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="BU32" t="s">
         <v>117</v>
       </c>
+      <c r="BV32" t="s">
+        <v>112</v>
+      </c>
       <c r="BW32" t="s">
         <v>96</v>
       </c>
@@ -9845,8 +9834,14 @@
       <c r="CB32" t="s">
         <v>119</v>
       </c>
+      <c r="CC32" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD32" t="s">
+        <v>119</v>
+      </c>
       <c r="CE32">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:83" x14ac:dyDescent="0.2">
@@ -9854,40 +9849,40 @@
         <v>83</v>
       </c>
       <c r="B33" s="1">
-        <v>44989</v>
+        <v>44981</v>
       </c>
       <c r="C33" t="s">
-        <v>439</v>
+        <v>303</v>
       </c>
       <c r="D33" t="s">
         <v>85</v>
       </c>
       <c r="E33" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F33" t="s">
-        <v>476</v>
+        <v>427</v>
       </c>
       <c r="G33" t="s">
-        <v>193</v>
+        <v>250</v>
       </c>
       <c r="H33" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="I33" t="s">
-        <v>371</v>
+        <v>466</v>
       </c>
       <c r="J33" t="s">
-        <v>372</v>
+        <v>236</v>
       </c>
       <c r="K33" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="L33" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="M33" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="N33" t="s">
         <v>94</v>
@@ -9899,7 +9894,7 @@
         <v>96</v>
       </c>
       <c r="Q33" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="R33" t="s">
         <v>95</v>
@@ -9914,7 +9909,7 @@
         <v>94</v>
       </c>
       <c r="V33" t="s">
-        <v>397</v>
+        <v>225</v>
       </c>
       <c r="W33" t="s">
         <v>101</v>
@@ -9923,25 +9918,25 @@
         <v>101</v>
       </c>
       <c r="Y33" t="s">
-        <v>375</v>
+        <v>475</v>
       </c>
       <c r="Z33" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="AA33" t="s">
         <v>104</v>
       </c>
       <c r="AB33" t="s">
-        <v>133</v>
+        <v>477</v>
       </c>
       <c r="AC33" t="s">
-        <v>187</v>
+        <v>478</v>
       </c>
       <c r="AD33" t="s">
         <v>84</v>
       </c>
       <c r="AF33" t="s">
-        <v>165</v>
+        <v>100</v>
       </c>
       <c r="AG33" t="s">
         <v>100</v>
@@ -9956,7 +9951,7 @@
         <v>100</v>
       </c>
       <c r="AK33" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL33" t="s">
         <v>101</v>
@@ -9968,7 +9963,7 @@
         <v>100</v>
       </c>
       <c r="AO33" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AP33" t="s">
         <v>100</v>
@@ -9995,10 +9990,10 @@
         <v>99</v>
       </c>
       <c r="AX33" s="1">
-        <v>44988</v>
+        <v>44979</v>
       </c>
       <c r="AY33" s="1">
-        <v>44987</v>
+        <v>44977</v>
       </c>
       <c r="AZ33" t="s">
         <v>107</v>
@@ -10019,10 +10014,10 @@
         <v>135</v>
       </c>
       <c r="BF33" t="s">
-        <v>378</v>
+        <v>479</v>
       </c>
       <c r="BG33" s="1">
-        <v>14150</v>
+        <v>39245</v>
       </c>
       <c r="BH33" t="s">
         <v>101</v>
@@ -10034,16 +10029,16 @@
         <v>101</v>
       </c>
       <c r="BL33" s="1">
-        <v>45006</v>
+        <v>45012</v>
       </c>
       <c r="BM33" t="s">
+        <v>480</v>
+      </c>
+      <c r="BN33" t="s">
         <v>481</v>
       </c>
-      <c r="BN33" t="s">
-        <v>482</v>
-      </c>
       <c r="BO33" s="1">
-        <v>44989</v>
+        <v>44981</v>
       </c>
       <c r="BQ33" t="s">
         <v>101</v>
@@ -10055,7 +10050,7 @@
         <v>101</v>
       </c>
       <c r="BT33" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="BU33" t="s">
         <v>117</v>
@@ -10079,7 +10074,7 @@
         <v>119</v>
       </c>
       <c r="CE33">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:83" x14ac:dyDescent="0.2">
@@ -10087,49 +10082,49 @@
         <v>83</v>
       </c>
       <c r="B34" s="1">
-        <v>44987</v>
+        <v>44989</v>
       </c>
       <c r="C34" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="D34" t="s">
         <v>85</v>
       </c>
       <c r="E34" t="s">
-        <v>120</v>
+        <v>482</v>
       </c>
       <c r="F34" t="s">
-        <v>87</v>
+        <v>483</v>
       </c>
       <c r="G34" t="s">
-        <v>483</v>
+        <v>193</v>
       </c>
       <c r="H34" t="s">
         <v>484</v>
       </c>
       <c r="I34" t="s">
+        <v>379</v>
+      </c>
+      <c r="J34" t="s">
+        <v>380</v>
+      </c>
+      <c r="K34" t="s">
+        <v>125</v>
+      </c>
+      <c r="L34" t="s">
         <v>485</v>
       </c>
-      <c r="J34" t="s">
+      <c r="M34" t="s">
         <v>486</v>
       </c>
-      <c r="K34" t="s">
-        <v>208</v>
-      </c>
-      <c r="L34" t="s">
-        <v>487</v>
-      </c>
-      <c r="M34" t="s">
-        <v>224</v>
-      </c>
       <c r="N34" t="s">
         <v>94</v>
       </c>
       <c r="O34" t="s">
-        <v>211</v>
+        <v>95</v>
       </c>
       <c r="P34" t="s">
-        <v>212</v>
+        <v>96</v>
       </c>
       <c r="Q34" t="s">
         <v>97</v>
@@ -10147,7 +10142,7 @@
         <v>94</v>
       </c>
       <c r="V34" t="s">
-        <v>129</v>
+        <v>405</v>
       </c>
       <c r="W34" t="s">
         <v>101</v>
@@ -10156,25 +10151,25 @@
         <v>101</v>
       </c>
       <c r="Y34" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="Z34" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AA34" t="s">
-        <v>489</v>
+        <v>104</v>
       </c>
       <c r="AB34" t="s">
         <v>133</v>
       </c>
       <c r="AC34" t="s">
-        <v>490</v>
+        <v>187</v>
       </c>
       <c r="AD34" t="s">
         <v>84</v>
       </c>
       <c r="AF34" t="s">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="AG34" t="s">
         <v>100</v>
@@ -10228,10 +10223,10 @@
         <v>99</v>
       </c>
       <c r="AX34" s="1">
+        <v>44988</v>
+      </c>
+      <c r="AY34" s="1">
         <v>44987</v>
-      </c>
-      <c r="AY34" s="1">
-        <v>44985</v>
       </c>
       <c r="AZ34" t="s">
         <v>107</v>
@@ -10252,10 +10247,10 @@
         <v>135</v>
       </c>
       <c r="BF34" t="s">
-        <v>491</v>
+        <v>386</v>
       </c>
       <c r="BG34" s="1">
-        <v>35626</v>
+        <v>14150</v>
       </c>
       <c r="BH34" t="s">
         <v>101</v>
@@ -10267,19 +10262,16 @@
         <v>101</v>
       </c>
       <c r="BL34" s="1">
-        <v>45006</v>
+        <v>45012</v>
       </c>
       <c r="BM34" t="s">
-        <v>412</v>
+        <v>488</v>
       </c>
       <c r="BN34" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="BO34" s="1">
-        <v>44988</v>
-      </c>
-      <c r="BP34" t="s">
-        <v>139</v>
+        <v>44989</v>
       </c>
       <c r="BQ34" t="s">
         <v>101</v>
@@ -10291,14 +10283,11 @@
         <v>101</v>
       </c>
       <c r="BT34" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="BU34" t="s">
         <v>117</v>
       </c>
-      <c r="BV34" t="s">
-        <v>141</v>
-      </c>
       <c r="BW34" t="s">
         <v>96</v>
       </c>
@@ -10317,14 +10306,8 @@
       <c r="CB34" t="s">
         <v>119</v>
       </c>
-      <c r="CC34" t="s">
-        <v>118</v>
-      </c>
-      <c r="CD34" t="s">
-        <v>119</v>
-      </c>
       <c r="CE34">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:83" x14ac:dyDescent="0.2">
@@ -10332,10 +10315,10 @@
         <v>83</v>
       </c>
       <c r="B35" s="1">
-        <v>44991</v>
+        <v>44987</v>
       </c>
       <c r="C35" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="D35" t="s">
         <v>85</v>
@@ -10347,34 +10330,34 @@
         <v>87</v>
       </c>
       <c r="G35" t="s">
-        <v>220</v>
+        <v>490</v>
       </c>
       <c r="H35" t="s">
-        <v>101</v>
+        <v>491</v>
       </c>
       <c r="I35" t="s">
+        <v>492</v>
+      </c>
+      <c r="J35" t="s">
         <v>493</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
+        <v>208</v>
+      </c>
+      <c r="L35" t="s">
         <v>494</v>
       </c>
-      <c r="K35" t="s">
-        <v>91</v>
-      </c>
-      <c r="L35" t="s">
-        <v>495</v>
-      </c>
       <c r="M35" t="s">
-        <v>292</v>
+        <v>224</v>
       </c>
       <c r="N35" t="s">
         <v>94</v>
       </c>
       <c r="O35" t="s">
-        <v>95</v>
+        <v>211</v>
       </c>
       <c r="P35" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="Q35" t="s">
         <v>97</v>
@@ -10401,19 +10384,19 @@
         <v>101</v>
       </c>
       <c r="Y35" t="s">
-        <v>346</v>
+        <v>254</v>
       </c>
       <c r="Z35" t="s">
+        <v>495</v>
+      </c>
+      <c r="AA35" t="s">
         <v>496</v>
-      </c>
-      <c r="AA35" t="s">
-        <v>104</v>
       </c>
       <c r="AB35" t="s">
         <v>133</v>
       </c>
       <c r="AC35" t="s">
-        <v>134</v>
+        <v>497</v>
       </c>
       <c r="AD35" t="s">
         <v>84</v>
@@ -10473,10 +10456,10 @@
         <v>99</v>
       </c>
       <c r="AX35" s="1">
-        <v>44991</v>
+        <v>44987</v>
       </c>
       <c r="AY35" s="1">
-        <v>44987</v>
+        <v>44985</v>
       </c>
       <c r="AZ35" t="s">
         <v>107</v>
@@ -10497,10 +10480,10 @@
         <v>135</v>
       </c>
       <c r="BF35" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="BG35" s="1">
-        <v>41744</v>
+        <v>35626</v>
       </c>
       <c r="BH35" t="s">
         <v>101</v>
@@ -10512,16 +10495,16 @@
         <v>101</v>
       </c>
       <c r="BL35" s="1">
-        <v>45006</v>
+        <v>45012</v>
       </c>
       <c r="BM35" t="s">
-        <v>498</v>
+        <v>420</v>
       </c>
       <c r="BN35" t="s">
         <v>499</v>
       </c>
       <c r="BO35" s="1">
-        <v>44999</v>
+        <v>44988</v>
       </c>
       <c r="BP35" t="s">
         <v>139</v>
@@ -10536,7 +10519,7 @@
         <v>101</v>
       </c>
       <c r="BT35" t="s">
-        <v>116</v>
+        <v>341</v>
       </c>
       <c r="BU35" t="s">
         <v>117</v>
@@ -10569,7 +10552,7 @@
         <v>119</v>
       </c>
       <c r="CE35">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:83" x14ac:dyDescent="0.2">
@@ -10577,40 +10560,40 @@
         <v>83</v>
       </c>
       <c r="B36" s="1">
-        <v>44998</v>
+        <v>44991</v>
       </c>
       <c r="C36" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="D36" t="s">
         <v>85</v>
       </c>
       <c r="E36" t="s">
+        <v>120</v>
+      </c>
+      <c r="F36" t="s">
+        <v>87</v>
+      </c>
+      <c r="G36" t="s">
+        <v>220</v>
+      </c>
+      <c r="H36" t="s">
+        <v>101</v>
+      </c>
+      <c r="I36" t="s">
         <v>500</v>
       </c>
-      <c r="F36" t="s">
+      <c r="J36" t="s">
         <v>501</v>
-      </c>
-      <c r="G36" t="s">
-        <v>502</v>
-      </c>
-      <c r="H36" t="s">
-        <v>101</v>
-      </c>
-      <c r="I36" t="s">
-        <v>503</v>
-      </c>
-      <c r="J36" t="s">
-        <v>504</v>
       </c>
       <c r="K36" t="s">
         <v>91</v>
       </c>
       <c r="L36" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="M36" t="s">
-        <v>439</v>
+        <v>303</v>
       </c>
       <c r="N36" t="s">
         <v>94</v>
@@ -10622,7 +10605,7 @@
         <v>96</v>
       </c>
       <c r="Q36" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="R36" t="s">
         <v>95</v>
@@ -10637,7 +10620,7 @@
         <v>94</v>
       </c>
       <c r="V36" t="s">
-        <v>225</v>
+        <v>129</v>
       </c>
       <c r="W36" t="s">
         <v>101</v>
@@ -10649,7 +10632,7 @@
         <v>254</v>
       </c>
       <c r="Z36" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AA36" t="s">
         <v>104</v>
@@ -10658,7 +10641,7 @@
         <v>133</v>
       </c>
       <c r="AC36" t="s">
-        <v>421</v>
+        <v>134</v>
       </c>
       <c r="AD36" t="s">
         <v>84</v>
@@ -10679,7 +10662,7 @@
         <v>100</v>
       </c>
       <c r="AK36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AL36" t="s">
         <v>101</v>
@@ -10691,7 +10674,7 @@
         <v>100</v>
       </c>
       <c r="AO36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AP36" t="s">
         <v>100</v>
@@ -10706,7 +10689,7 @@
         <v>94</v>
       </c>
       <c r="AT36" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AU36" t="s">
         <v>95</v>
@@ -10718,13 +10701,13 @@
         <v>99</v>
       </c>
       <c r="AX36" s="1">
-        <v>44987</v>
+        <v>44991</v>
       </c>
       <c r="AY36" s="1">
         <v>44987</v>
       </c>
       <c r="AZ36" t="s">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="BA36" t="s">
         <v>100</v>
@@ -10742,10 +10725,10 @@
         <v>135</v>
       </c>
       <c r="BF36" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="BG36" s="1">
-        <v>41506</v>
+        <v>41744</v>
       </c>
       <c r="BH36" t="s">
         <v>101</v>
@@ -10757,19 +10740,19 @@
         <v>101</v>
       </c>
       <c r="BL36" s="1">
-        <v>45006</v>
+        <v>45012</v>
       </c>
       <c r="BM36" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="BN36" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="BO36" s="1">
-        <v>44998</v>
+        <v>44999</v>
       </c>
       <c r="BP36" t="s">
-        <v>510</v>
+        <v>139</v>
       </c>
       <c r="BQ36" t="s">
         <v>101</v>
@@ -10787,7 +10770,7 @@
         <v>117</v>
       </c>
       <c r="BV36" t="s">
-        <v>511</v>
+        <v>141</v>
       </c>
       <c r="BW36" t="s">
         <v>96</v>
@@ -10814,7 +10797,7 @@
         <v>119</v>
       </c>
       <c r="CE36">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:83" x14ac:dyDescent="0.2">
@@ -10822,40 +10805,40 @@
         <v>83</v>
       </c>
       <c r="B37" s="1">
-        <v>44990</v>
+        <v>44998</v>
       </c>
       <c r="C37" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="D37" t="s">
         <v>85</v>
       </c>
       <c r="E37" t="s">
-        <v>260</v>
+        <v>507</v>
       </c>
       <c r="F37" t="s">
-        <v>170</v>
+        <v>508</v>
       </c>
       <c r="G37" t="s">
-        <v>88</v>
+        <v>509</v>
       </c>
       <c r="H37" t="s">
-        <v>512</v>
+        <v>101</v>
       </c>
       <c r="I37" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="J37" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="K37" t="s">
         <v>91</v>
       </c>
       <c r="L37" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="M37" t="s">
-        <v>516</v>
+        <v>447</v>
       </c>
       <c r="N37" t="s">
         <v>94</v>
@@ -10876,25 +10859,25 @@
         <v>98</v>
       </c>
       <c r="T37" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="U37" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="V37" t="s">
-        <v>101</v>
+        <v>225</v>
       </c>
       <c r="W37" t="s">
-        <v>517</v>
+        <v>101</v>
       </c>
       <c r="X37" t="s">
         <v>101</v>
       </c>
       <c r="Y37" t="s">
-        <v>101</v>
+        <v>268</v>
       </c>
       <c r="Z37" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="AA37" t="s">
         <v>104</v>
@@ -10903,13 +10886,13 @@
         <v>133</v>
       </c>
       <c r="AC37" t="s">
-        <v>187</v>
+        <v>429</v>
       </c>
       <c r="AD37" t="s">
         <v>84</v>
       </c>
       <c r="AF37" t="s">
-        <v>165</v>
+        <v>100</v>
       </c>
       <c r="AG37" t="s">
         <v>100</v>
@@ -10951,7 +10934,7 @@
         <v>94</v>
       </c>
       <c r="AT37" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AU37" t="s">
         <v>95</v>
@@ -10963,13 +10946,13 @@
         <v>99</v>
       </c>
       <c r="AX37" s="1">
-        <v>44990</v>
+        <v>44987</v>
       </c>
       <c r="AY37" s="1">
-        <v>44988</v>
+        <v>44987</v>
       </c>
       <c r="AZ37" t="s">
-        <v>107</v>
+        <v>169</v>
       </c>
       <c r="BA37" t="s">
         <v>100</v>
@@ -10987,10 +10970,10 @@
         <v>135</v>
       </c>
       <c r="BF37" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="BG37" s="1">
-        <v>39591</v>
+        <v>41506</v>
       </c>
       <c r="BH37" t="s">
         <v>101</v>
@@ -11002,19 +10985,19 @@
         <v>101</v>
       </c>
       <c r="BL37" s="1">
-        <v>45006</v>
+        <v>45012</v>
       </c>
       <c r="BM37" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="BN37" t="s">
-        <v>307</v>
+        <v>516</v>
       </c>
       <c r="BO37" s="1">
-        <v>44991</v>
+        <v>44998</v>
       </c>
       <c r="BP37" t="s">
-        <v>272</v>
+        <v>517</v>
       </c>
       <c r="BQ37" t="s">
         <v>101</v>
@@ -11026,13 +11009,13 @@
         <v>101</v>
       </c>
       <c r="BT37" t="s">
-        <v>259</v>
+        <v>116</v>
       </c>
       <c r="BU37" t="s">
         <v>117</v>
       </c>
       <c r="BV37" t="s">
-        <v>273</v>
+        <v>518</v>
       </c>
       <c r="BW37" t="s">
         <v>96</v>
@@ -11041,7 +11024,7 @@
         <v>118</v>
       </c>
       <c r="BY37" t="s">
-        <v>204</v>
+        <v>119</v>
       </c>
       <c r="BZ37" t="s">
         <v>96</v>
@@ -11059,7 +11042,7 @@
         <v>119</v>
       </c>
       <c r="CE37">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:83" x14ac:dyDescent="0.2">
@@ -11067,40 +11050,40 @@
         <v>83</v>
       </c>
       <c r="B38" s="1">
-        <v>44998</v>
+        <v>44990</v>
       </c>
       <c r="C38" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="D38" t="s">
         <v>85</v>
       </c>
       <c r="E38" t="s">
-        <v>500</v>
+        <v>248</v>
       </c>
       <c r="F38" t="s">
-        <v>501</v>
+        <v>170</v>
       </c>
       <c r="G38" t="s">
-        <v>521</v>
+        <v>88</v>
       </c>
       <c r="H38" t="s">
-        <v>101</v>
+        <v>249</v>
       </c>
       <c r="I38" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="J38" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="K38" t="s">
         <v>91</v>
       </c>
       <c r="L38" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="M38" t="s">
-        <v>292</v>
+        <v>522</v>
       </c>
       <c r="N38" t="s">
         <v>94</v>
@@ -11112,7 +11095,7 @@
         <v>96</v>
       </c>
       <c r="Q38" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="R38" t="s">
         <v>95</v>
@@ -11121,25 +11104,25 @@
         <v>98</v>
       </c>
       <c r="T38" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="U38" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="V38" t="s">
-        <v>225</v>
+        <v>101</v>
       </c>
       <c r="W38" t="s">
-        <v>101</v>
+        <v>523</v>
       </c>
       <c r="X38" t="s">
         <v>101</v>
       </c>
       <c r="Y38" t="s">
-        <v>254</v>
+        <v>101</v>
       </c>
       <c r="Z38" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AA38" t="s">
         <v>104</v>
@@ -11148,13 +11131,13 @@
         <v>133</v>
       </c>
       <c r="AC38" t="s">
-        <v>421</v>
+        <v>187</v>
       </c>
       <c r="AD38" t="s">
         <v>84</v>
       </c>
       <c r="AF38" t="s">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="AG38" t="s">
         <v>100</v>
@@ -11169,7 +11152,7 @@
         <v>100</v>
       </c>
       <c r="AK38" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL38" t="s">
         <v>101</v>
@@ -11181,7 +11164,7 @@
         <v>100</v>
       </c>
       <c r="AO38" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AP38" t="s">
         <v>100</v>
@@ -11196,7 +11179,7 @@
         <v>94</v>
       </c>
       <c r="AT38" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AU38" t="s">
         <v>95</v>
@@ -11208,13 +11191,13 @@
         <v>99</v>
       </c>
       <c r="AX38" s="1">
-        <v>44989</v>
+        <v>44990</v>
       </c>
       <c r="AY38" s="1">
-        <v>44989</v>
+        <v>44988</v>
       </c>
       <c r="AZ38" t="s">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="BA38" t="s">
         <v>100</v>
@@ -11232,34 +11215,34 @@
         <v>135</v>
       </c>
       <c r="BF38" t="s">
+        <v>525</v>
+      </c>
+      <c r="BG38" s="1">
+        <v>39591</v>
+      </c>
+      <c r="BH38" t="s">
+        <v>101</v>
+      </c>
+      <c r="BI38" t="s">
+        <v>101</v>
+      </c>
+      <c r="BJ38" t="s">
+        <v>101</v>
+      </c>
+      <c r="BL38" s="1">
+        <v>45012</v>
+      </c>
+      <c r="BM38" t="s">
         <v>526</v>
       </c>
-      <c r="BG38" s="1">
-        <v>41818</v>
-      </c>
-      <c r="BH38" t="s">
-        <v>101</v>
-      </c>
-      <c r="BI38" t="s">
-        <v>101</v>
-      </c>
-      <c r="BJ38" t="s">
-        <v>101</v>
-      </c>
-      <c r="BL38" s="1">
-        <v>45006</v>
-      </c>
-      <c r="BM38" t="s">
-        <v>508</v>
-      </c>
       <c r="BN38" t="s">
-        <v>509</v>
+        <v>259</v>
       </c>
       <c r="BO38" s="1">
-        <v>44998</v>
+        <v>44991</v>
       </c>
       <c r="BP38" t="s">
-        <v>510</v>
+        <v>260</v>
       </c>
       <c r="BQ38" t="s">
         <v>101</v>
@@ -11271,13 +11254,13 @@
         <v>101</v>
       </c>
       <c r="BT38" t="s">
-        <v>116</v>
+        <v>273</v>
       </c>
       <c r="BU38" t="s">
         <v>117</v>
       </c>
       <c r="BV38" t="s">
-        <v>511</v>
+        <v>261</v>
       </c>
       <c r="BW38" t="s">
         <v>96</v>
@@ -11286,7 +11269,7 @@
         <v>118</v>
       </c>
       <c r="BY38" t="s">
-        <v>119</v>
+        <v>204</v>
       </c>
       <c r="BZ38" t="s">
         <v>96</v>
@@ -11304,6 +11287,251 @@
         <v>119</v>
       </c>
       <c r="CE38">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="1">
+        <v>44998</v>
+      </c>
+      <c r="C39" t="s">
+        <v>447</v>
+      </c>
+      <c r="D39" t="s">
+        <v>85</v>
+      </c>
+      <c r="E39" t="s">
+        <v>507</v>
+      </c>
+      <c r="F39" t="s">
+        <v>508</v>
+      </c>
+      <c r="G39" t="s">
+        <v>527</v>
+      </c>
+      <c r="H39" t="s">
+        <v>101</v>
+      </c>
+      <c r="I39" t="s">
+        <v>528</v>
+      </c>
+      <c r="J39" t="s">
+        <v>529</v>
+      </c>
+      <c r="K39" t="s">
+        <v>91</v>
+      </c>
+      <c r="L39" t="s">
+        <v>530</v>
+      </c>
+      <c r="M39" t="s">
+        <v>303</v>
+      </c>
+      <c r="N39" t="s">
+        <v>94</v>
+      </c>
+      <c r="O39" t="s">
+        <v>95</v>
+      </c>
+      <c r="P39" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>97</v>
+      </c>
+      <c r="R39" t="s">
+        <v>95</v>
+      </c>
+      <c r="S39" t="s">
+        <v>98</v>
+      </c>
+      <c r="T39" t="s">
+        <v>99</v>
+      </c>
+      <c r="U39" t="s">
+        <v>94</v>
+      </c>
+      <c r="V39" t="s">
+        <v>225</v>
+      </c>
+      <c r="W39" t="s">
+        <v>101</v>
+      </c>
+      <c r="X39" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>531</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>429</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK39" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN39" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO39" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP39" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ39" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR39" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS39" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT39" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU39" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV39" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW39" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX39" s="1">
+        <v>44989</v>
+      </c>
+      <c r="AY39" s="1">
+        <v>44989</v>
+      </c>
+      <c r="AZ39" t="s">
+        <v>169</v>
+      </c>
+      <c r="BA39" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB39" t="s">
+        <v>108</v>
+      </c>
+      <c r="BC39" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD39" t="s">
+        <v>108</v>
+      </c>
+      <c r="BE39" t="s">
+        <v>135</v>
+      </c>
+      <c r="BF39" t="s">
+        <v>532</v>
+      </c>
+      <c r="BG39" s="1">
+        <v>41818</v>
+      </c>
+      <c r="BH39" t="s">
+        <v>101</v>
+      </c>
+      <c r="BI39" t="s">
+        <v>101</v>
+      </c>
+      <c r="BJ39" t="s">
+        <v>101</v>
+      </c>
+      <c r="BL39" s="1">
+        <v>45012</v>
+      </c>
+      <c r="BM39" t="s">
+        <v>515</v>
+      </c>
+      <c r="BN39" t="s">
+        <v>516</v>
+      </c>
+      <c r="BO39" s="1">
+        <v>44998</v>
+      </c>
+      <c r="BP39" t="s">
+        <v>517</v>
+      </c>
+      <c r="BQ39" t="s">
+        <v>101</v>
+      </c>
+      <c r="BR39" t="s">
+        <v>101</v>
+      </c>
+      <c r="BS39" t="s">
+        <v>101</v>
+      </c>
+      <c r="BT39" t="s">
+        <v>116</v>
+      </c>
+      <c r="BU39" t="s">
+        <v>117</v>
+      </c>
+      <c r="BV39" t="s">
+        <v>518</v>
+      </c>
+      <c r="BW39" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX39" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY39" t="s">
+        <v>119</v>
+      </c>
+      <c r="BZ39" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA39" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB39" t="s">
+        <v>119</v>
+      </c>
+      <c r="CC39" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD39" t="s">
+        <v>119</v>
+      </c>
+      <c r="CE39">
         <v>37</v>
       </c>
     </row>

--- a/Boletin_ Epi_Pereira/Datos/evento 831 datos basicos.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/evento 831 datos basicos.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3549" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4066" uniqueCount="668">
   <si>
     <t>cod_eve</t>
   </si>
@@ -957,6 +957,66 @@
     <t>CLINICA COMFAMILIAR</t>
   </si>
   <si>
+    <t>MIGUEL</t>
+  </si>
+  <si>
+    <t>ANGEL</t>
+  </si>
+  <si>
+    <t>JIMENEZ</t>
+  </si>
+  <si>
+    <t>1029997696</t>
+  </si>
+  <si>
+    <t>CALLE 22 B # 02 - 06 SAN JUAN</t>
+  </si>
+  <si>
+    <t>3126457603</t>
+  </si>
+  <si>
+    <t>ALEJANDRA MARIA MORALES</t>
+  </si>
+  <si>
+    <t>3105345165</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>DANNA</t>
+  </si>
+  <si>
+    <t>GOMEZ</t>
+  </si>
+  <si>
+    <t>CARDONA</t>
+  </si>
+  <si>
+    <t>1060010714</t>
+  </si>
+  <si>
+    <t>9999999 SIN INFORMACION</t>
+  </si>
+  <si>
+    <t>CRA 65 # 78</t>
+  </si>
+  <si>
+    <t>3147801220</t>
+  </si>
+  <si>
+    <t>LUZ CASTRO</t>
+  </si>
+  <si>
+    <t>3497300</t>
+  </si>
+  <si>
+    <t>8000003765</t>
+  </si>
+  <si>
+    <t>VIRREY SOLIS IPS SA</t>
+  </si>
+  <si>
     <t>03</t>
   </si>
   <si>
@@ -993,12 +1053,6 @@
     <t>VIRREY SOLIS IPS LAGO</t>
   </si>
   <si>
-    <t>MIGUEL</t>
-  </si>
-  <si>
-    <t>ANGEL</t>
-  </si>
-  <si>
     <t>MADRID</t>
   </si>
   <si>
@@ -1023,6 +1077,36 @@
     <t>13</t>
   </si>
   <si>
+    <t>MICHELL</t>
+  </si>
+  <si>
+    <t>YINEI</t>
+  </si>
+  <si>
+    <t>GUAPACHA</t>
+  </si>
+  <si>
+    <t>TREJOS</t>
+  </si>
+  <si>
+    <t>1002853595</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>LA IDALIA MANZANA B CASA 3</t>
+  </si>
+  <si>
+    <t>3054210475</t>
+  </si>
+  <si>
+    <t>MARTIN BURBANO</t>
+  </si>
+  <si>
+    <t>3152161737</t>
+  </si>
+  <si>
     <t>FERNANDO</t>
   </si>
   <si>
@@ -1056,6 +1140,27 @@
     <t>JOSE HUMBERTO ROJAS</t>
   </si>
   <si>
+    <t>MUÑOZ</t>
+  </si>
+  <si>
+    <t>CALLE</t>
+  </si>
+  <si>
+    <t>1054917445</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>SAMARIA 1</t>
+  </si>
+  <si>
+    <t>MANZANA 40 CASA 10 PISO 4°</t>
+  </si>
+  <si>
+    <t>3106405094</t>
+  </si>
+  <si>
     <t>6600102446</t>
   </si>
   <si>
@@ -1074,9 +1179,6 @@
     <t>1142515652</t>
   </si>
   <si>
-    <t>9999999 SIN INFORMACION</t>
-  </si>
-  <si>
     <t>MANZANA 5 CASA 1 CUBA</t>
   </si>
   <si>
@@ -1098,6 +1200,105 @@
     <t>CAJA COLOMBIANA DE SUBSIDIO FAMILIAR COLSUBSIDIO</t>
   </si>
   <si>
+    <t>ANA</t>
+  </si>
+  <si>
+    <t>SIRLEY</t>
+  </si>
+  <si>
+    <t>CARVAJAL</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>1088275332</t>
+  </si>
+  <si>
+    <t>MZ 8 CASA 2 B PANORAMA CUBA</t>
+  </si>
+  <si>
+    <t>33230</t>
+  </si>
+  <si>
+    <t>3117745188</t>
+  </si>
+  <si>
+    <t>ANGIE CRISTINA RUALES GUERRA</t>
+  </si>
+  <si>
+    <t>6063515252</t>
+  </si>
+  <si>
+    <t>UNIDAD INTERMEDIA DE CUBA</t>
+  </si>
+  <si>
+    <t>6600101587</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>DOLLY</t>
+  </si>
+  <si>
+    <t>AGUIRRE</t>
+  </si>
+  <si>
+    <t>ARELLANO</t>
+  </si>
+  <si>
+    <t>24919588</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>FRAILES  CARRERA 8 # 2 E -39</t>
+  </si>
+  <si>
+    <t>3104285953</t>
+  </si>
+  <si>
+    <t>LICETT RUIZ</t>
+  </si>
+  <si>
+    <t>3115411</t>
+  </si>
+  <si>
+    <t>900342064</t>
+  </si>
+  <si>
+    <t>SOCIEDAD COMERCIALIZADORA DE INSUMOS Y SERVICIOS M</t>
+  </si>
+  <si>
+    <t>VICTORIA</t>
+  </si>
+  <si>
+    <t>ISABELLA</t>
+  </si>
+  <si>
+    <t>AGUILAR</t>
+  </si>
+  <si>
+    <t>1088360502</t>
+  </si>
+  <si>
+    <t>PARQUE INDUSTRIAL</t>
+  </si>
+  <si>
+    <t>PARQUE INDUSTRIAL SECTOR D MB C7 PISO 2</t>
+  </si>
+  <si>
+    <t>3228394764</t>
+  </si>
+  <si>
+    <t>JORGE EDUARDO GIRALDO SALAZAR</t>
+  </si>
+  <si>
+    <t>6063151880</t>
+  </si>
+  <si>
     <t>HERNAN</t>
   </si>
   <si>
@@ -1338,9 +1539,6 @@
     <t>1089381471</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
     <t>CALLE 74 N 26 B -19 SECTOR EL OSO B CUBA</t>
   </si>
   <si>
@@ -1353,9 +1551,6 @@
     <t>ANGGIE CRISTINA REALES GUERRA</t>
   </si>
   <si>
-    <t>UNIDAD INTERMEDIA DE CUBA</t>
-  </si>
-  <si>
     <t>NATALIA</t>
   </si>
   <si>
@@ -1635,9 +1830,6 @@
     <t>RUBIO</t>
   </si>
   <si>
-    <t>CALLE</t>
-  </si>
-  <si>
     <t>1035013494</t>
   </si>
   <si>
@@ -1764,12 +1956,6 @@
     <t>3233431644</t>
   </si>
   <si>
-    <t>MARTIN BURBANO</t>
-  </si>
-  <si>
-    <t>3152161737</t>
-  </si>
-  <si>
     <t>EMMANUEL</t>
   </si>
   <si>
@@ -1785,12 +1971,6 @@
     <t>3446018</t>
   </si>
   <si>
-    <t>6600101587</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
     <t>YOSTIN</t>
   </si>
   <si>
@@ -1804,18 +1984,6 @@
   </si>
   <si>
     <t>3246331067</t>
-  </si>
-  <si>
-    <t>LICETT RUIZ</t>
-  </si>
-  <si>
-    <t>3115411</t>
-  </si>
-  <si>
-    <t>900342064</t>
-  </si>
-  <si>
-    <t>SOCIEDAD COMERCIALIZADORA DE INSUMOS Y SERVICIOS M</t>
   </si>
   <si>
     <t>PALACIOS</t>
@@ -2238,7 +2406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CE48"/>
+  <dimension ref="A1:CE55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2683,7 +2851,7 @@
         <v>112</v>
       </c>
       <c r="BL2" s="1">
-        <v>45019</v>
+        <v>45026</v>
       </c>
       <c r="BM2" t="s">
         <v>113</v>
@@ -2931,7 +3099,7 @@
         <v>112</v>
       </c>
       <c r="BL3" s="1">
-        <v>45019</v>
+        <v>45026</v>
       </c>
       <c r="BM3" t="s">
         <v>132</v>
@@ -3176,7 +3344,7 @@
         <v>101</v>
       </c>
       <c r="BL4" s="1">
-        <v>45019</v>
+        <v>45026</v>
       </c>
       <c r="BM4" t="s">
         <v>149</v>
@@ -3421,7 +3589,7 @@
         <v>101</v>
       </c>
       <c r="BL5" s="1">
-        <v>45019</v>
+        <v>45026</v>
       </c>
       <c r="BM5" t="s">
         <v>163</v>
@@ -3666,7 +3834,7 @@
         <v>101</v>
       </c>
       <c r="BL6" s="1">
-        <v>45019</v>
+        <v>45026</v>
       </c>
       <c r="BM6" t="s">
         <v>168</v>
@@ -3911,7 +4079,7 @@
         <v>101</v>
       </c>
       <c r="BL7" s="1">
-        <v>45019</v>
+        <v>45026</v>
       </c>
       <c r="BM7" t="s">
         <v>182</v>
@@ -4156,7 +4324,7 @@
         <v>101</v>
       </c>
       <c r="BL8" s="1">
-        <v>45019</v>
+        <v>45026</v>
       </c>
       <c r="BM8" t="s">
         <v>199</v>
@@ -4401,7 +4569,7 @@
         <v>101</v>
       </c>
       <c r="BL9" s="1">
-        <v>45019</v>
+        <v>45026</v>
       </c>
       <c r="BM9" t="s">
         <v>149</v>
@@ -4646,7 +4814,7 @@
         <v>101</v>
       </c>
       <c r="BL10" s="1">
-        <v>45019</v>
+        <v>45026</v>
       </c>
       <c r="BM10" t="s">
         <v>226</v>
@@ -4891,7 +5059,7 @@
         <v>101</v>
       </c>
       <c r="BL11" s="1">
-        <v>45019</v>
+        <v>45026</v>
       </c>
       <c r="BM11" t="s">
         <v>239</v>
@@ -5136,7 +5304,7 @@
         <v>101</v>
       </c>
       <c r="BL12" s="1">
-        <v>45019</v>
+        <v>45026</v>
       </c>
       <c r="BM12" t="s">
         <v>253</v>
@@ -5381,7 +5549,7 @@
         <v>101</v>
       </c>
       <c r="BL13" s="1">
-        <v>45019</v>
+        <v>45026</v>
       </c>
       <c r="BM13" t="s">
         <v>269</v>
@@ -5626,7 +5794,7 @@
         <v>101</v>
       </c>
       <c r="BL14" s="1">
-        <v>45019</v>
+        <v>45026</v>
       </c>
       <c r="BM14" t="s">
         <v>284</v>
@@ -5871,7 +6039,7 @@
         <v>101</v>
       </c>
       <c r="BL15" s="1">
-        <v>45019</v>
+        <v>45026</v>
       </c>
       <c r="BM15" t="s">
         <v>299</v>
@@ -6116,7 +6284,7 @@
         <v>101</v>
       </c>
       <c r="BL16" s="1">
-        <v>45019</v>
+        <v>45026</v>
       </c>
       <c r="BM16" t="s">
         <v>309</v>
@@ -6181,7 +6349,7 @@
         <v>83</v>
       </c>
       <c r="B17" s="1">
-        <v>45007</v>
+        <v>45021</v>
       </c>
       <c r="C17" t="s">
         <v>93</v>
@@ -6190,31 +6358,31 @@
         <v>85</v>
       </c>
       <c r="E17" t="s">
-        <v>228</v>
+        <v>273</v>
       </c>
       <c r="F17" t="s">
+        <v>180</v>
+      </c>
+      <c r="G17" t="s">
         <v>312</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>313</v>
       </c>
-      <c r="H17" t="s">
-        <v>134</v>
-      </c>
       <c r="I17" t="s">
+        <v>303</v>
+      </c>
+      <c r="J17" t="s">
         <v>314</v>
-      </c>
-      <c r="J17" t="s">
-        <v>315</v>
       </c>
       <c r="K17" t="s">
         <v>91</v>
       </c>
       <c r="L17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M17" t="s">
-        <v>317</v>
+        <v>180</v>
       </c>
       <c r="N17" t="s">
         <v>94</v>
@@ -6238,22 +6406,22 @@
         <v>99</v>
       </c>
       <c r="U17" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="V17" t="s">
-        <v>235</v>
+        <v>101</v>
       </c>
       <c r="W17" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="X17" t="s">
         <v>101</v>
       </c>
       <c r="Y17" t="s">
-        <v>318</v>
+        <v>101</v>
       </c>
       <c r="Z17" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="AA17" t="s">
         <v>104</v>
@@ -6262,13 +6430,13 @@
         <v>145</v>
       </c>
       <c r="AC17" t="s">
-        <v>146</v>
+        <v>282</v>
       </c>
       <c r="AD17" t="s">
         <v>84</v>
       </c>
       <c r="AF17" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="AG17" t="s">
         <v>100</v>
@@ -6310,7 +6478,7 @@
         <v>94</v>
       </c>
       <c r="AT17" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="AU17" t="s">
         <v>95</v>
@@ -6325,7 +6493,7 @@
         <v>45007</v>
       </c>
       <c r="AY17" s="1">
-        <v>45005</v>
+        <v>45004</v>
       </c>
       <c r="AZ17" t="s">
         <v>107</v>
@@ -6346,10 +6514,10 @@
         <v>147</v>
       </c>
       <c r="BF17" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="BG17" s="1">
-        <v>39794</v>
+        <v>41244</v>
       </c>
       <c r="BH17" t="s">
         <v>101</v>
@@ -6361,19 +6529,19 @@
         <v>101</v>
       </c>
       <c r="BL17" s="1">
-        <v>45019</v>
+        <v>45026</v>
       </c>
       <c r="BM17" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="BN17" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="BO17" s="1">
-        <v>45019</v>
+        <v>45021</v>
       </c>
       <c r="BP17" t="s">
-        <v>241</v>
+        <v>286</v>
       </c>
       <c r="BQ17" t="s">
         <v>101</v>
@@ -6385,13 +6553,13 @@
         <v>101</v>
       </c>
       <c r="BT17" t="s">
-        <v>116</v>
+        <v>287</v>
       </c>
       <c r="BU17" t="s">
         <v>117</v>
       </c>
       <c r="BV17" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="BW17" t="s">
         <v>96</v>
@@ -6418,7 +6586,7 @@
         <v>119</v>
       </c>
       <c r="CE17">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:83" x14ac:dyDescent="0.2">
@@ -6426,7 +6594,7 @@
         <v>83</v>
       </c>
       <c r="B18" s="1">
-        <v>45005</v>
+        <v>45024</v>
       </c>
       <c r="C18" t="s">
         <v>93</v>
@@ -6435,31 +6603,31 @@
         <v>85</v>
       </c>
       <c r="E18" t="s">
-        <v>273</v>
+        <v>228</v>
       </c>
       <c r="F18" t="s">
-        <v>180</v>
+        <v>320</v>
       </c>
       <c r="G18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H18" t="s">
-        <v>325</v>
+        <v>230</v>
       </c>
       <c r="I18" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="J18" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="K18" t="s">
         <v>91</v>
       </c>
       <c r="L18" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="M18" t="s">
-        <v>180</v>
+        <v>93</v>
       </c>
       <c r="N18" t="s">
         <v>94</v>
@@ -6471,7 +6639,7 @@
         <v>96</v>
       </c>
       <c r="Q18" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="R18" t="s">
         <v>95</v>
@@ -6483,22 +6651,22 @@
         <v>99</v>
       </c>
       <c r="U18" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="V18" t="s">
-        <v>101</v>
+        <v>235</v>
       </c>
       <c r="W18" t="s">
-        <v>329</v>
+        <v>101</v>
       </c>
       <c r="X18" t="s">
         <v>101</v>
       </c>
       <c r="Y18" t="s">
-        <v>101</v>
+        <v>325</v>
       </c>
       <c r="Z18" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="AA18" t="s">
         <v>104</v>
@@ -6507,7 +6675,7 @@
         <v>145</v>
       </c>
       <c r="AC18" t="s">
-        <v>282</v>
+        <v>146</v>
       </c>
       <c r="AD18" t="s">
         <v>84</v>
@@ -6528,7 +6696,7 @@
         <v>100</v>
       </c>
       <c r="AK18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AL18" t="s">
         <v>101</v>
@@ -6540,7 +6708,7 @@
         <v>100</v>
       </c>
       <c r="AO18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AP18" t="s">
         <v>100</v>
@@ -6567,10 +6735,10 @@
         <v>99</v>
       </c>
       <c r="AX18" s="1">
-        <v>45005</v>
+        <v>45015</v>
       </c>
       <c r="AY18" s="1">
-        <v>45004</v>
+        <v>45008</v>
       </c>
       <c r="AZ18" t="s">
         <v>107</v>
@@ -6591,10 +6759,10 @@
         <v>147</v>
       </c>
       <c r="BF18" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="BG18" s="1">
-        <v>41120</v>
+        <v>40506</v>
       </c>
       <c r="BH18" t="s">
         <v>101</v>
@@ -6606,19 +6774,19 @@
         <v>101</v>
       </c>
       <c r="BL18" s="1">
-        <v>45019</v>
+        <v>45026</v>
       </c>
       <c r="BM18" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="BN18" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="BO18" s="1">
-        <v>45008</v>
+        <v>45026</v>
       </c>
       <c r="BP18" t="s">
-        <v>286</v>
+        <v>330</v>
       </c>
       <c r="BQ18" t="s">
         <v>101</v>
@@ -6636,7 +6804,7 @@
         <v>117</v>
       </c>
       <c r="BV18" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="BW18" t="s">
         <v>96</v>
@@ -6663,7 +6831,7 @@
         <v>119</v>
       </c>
       <c r="CE18">
-        <v>39</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:83" x14ac:dyDescent="0.2">
@@ -6671,40 +6839,40 @@
         <v>83</v>
       </c>
       <c r="B19" s="1">
-        <v>45013</v>
+        <v>45007</v>
       </c>
       <c r="C19" t="s">
-        <v>333</v>
+        <v>93</v>
       </c>
       <c r="D19" t="s">
         <v>85</v>
       </c>
       <c r="E19" t="s">
-        <v>86</v>
+        <v>228</v>
       </c>
       <c r="F19" t="s">
-        <v>87</v>
+        <v>332</v>
       </c>
       <c r="G19" t="s">
+        <v>333</v>
+      </c>
+      <c r="H19" t="s">
+        <v>134</v>
+      </c>
+      <c r="I19" t="s">
         <v>334</v>
       </c>
-      <c r="H19" t="s">
-        <v>101</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>335</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
+        <v>91</v>
+      </c>
+      <c r="L19" t="s">
         <v>336</v>
       </c>
-      <c r="K19" t="s">
-        <v>138</v>
-      </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>337</v>
-      </c>
-      <c r="M19" t="s">
-        <v>338</v>
       </c>
       <c r="N19" t="s">
         <v>94</v>
@@ -6728,37 +6896,37 @@
         <v>99</v>
       </c>
       <c r="U19" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="V19" t="s">
-        <v>101</v>
+        <v>235</v>
       </c>
       <c r="W19" t="s">
+        <v>101</v>
+      </c>
+      <c r="X19" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>338</v>
+      </c>
+      <c r="Z19" t="s">
         <v>339</v>
       </c>
-      <c r="X19" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>340</v>
-      </c>
       <c r="AA19" t="s">
-        <v>341</v>
+        <v>104</v>
       </c>
       <c r="AB19" t="s">
         <v>145</v>
       </c>
       <c r="AC19" t="s">
-        <v>342</v>
+        <v>146</v>
       </c>
       <c r="AD19" t="s">
         <v>84</v>
       </c>
       <c r="AF19" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="AG19" t="s">
         <v>100</v>
@@ -6812,10 +6980,10 @@
         <v>99</v>
       </c>
       <c r="AX19" s="1">
-        <v>45013</v>
+        <v>45007</v>
       </c>
       <c r="AY19" s="1">
-        <v>45012</v>
+        <v>45005</v>
       </c>
       <c r="AZ19" t="s">
         <v>107</v>
@@ -6836,10 +7004,10 @@
         <v>147</v>
       </c>
       <c r="BF19" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="BG19" s="1">
-        <v>29719</v>
+        <v>39794</v>
       </c>
       <c r="BH19" t="s">
         <v>101</v>
@@ -6851,19 +7019,19 @@
         <v>101</v>
       </c>
       <c r="BL19" s="1">
+        <v>45026</v>
+      </c>
+      <c r="BM19" t="s">
+        <v>341</v>
+      </c>
+      <c r="BN19" t="s">
+        <v>342</v>
+      </c>
+      <c r="BO19" s="1">
         <v>45019</v>
       </c>
-      <c r="BM19" t="s">
-        <v>344</v>
-      </c>
-      <c r="BN19" t="s">
-        <v>114</v>
-      </c>
-      <c r="BO19" s="1">
-        <v>45014</v>
-      </c>
       <c r="BP19" t="s">
-        <v>115</v>
+        <v>241</v>
       </c>
       <c r="BQ19" t="s">
         <v>101</v>
@@ -6881,7 +7049,7 @@
         <v>117</v>
       </c>
       <c r="BV19" t="s">
-        <v>112</v>
+        <v>343</v>
       </c>
       <c r="BW19" t="s">
         <v>96</v>
@@ -6908,7 +7076,7 @@
         <v>119</v>
       </c>
       <c r="CE19">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:83" x14ac:dyDescent="0.2">
@@ -6916,40 +7084,40 @@
         <v>83</v>
       </c>
       <c r="B20" s="1">
-        <v>45017</v>
+        <v>45005</v>
       </c>
       <c r="C20" t="s">
-        <v>333</v>
+        <v>93</v>
       </c>
       <c r="D20" t="s">
         <v>85</v>
       </c>
       <c r="E20" t="s">
+        <v>273</v>
+      </c>
+      <c r="F20" t="s">
+        <v>180</v>
+      </c>
+      <c r="G20" t="s">
+        <v>312</v>
+      </c>
+      <c r="H20" t="s">
+        <v>313</v>
+      </c>
+      <c r="I20" t="s">
+        <v>344</v>
+      </c>
+      <c r="J20" t="s">
         <v>345</v>
-      </c>
-      <c r="F20" t="s">
-        <v>87</v>
-      </c>
-      <c r="G20" t="s">
-        <v>346</v>
-      </c>
-      <c r="H20" t="s">
-        <v>347</v>
-      </c>
-      <c r="I20" t="s">
-        <v>348</v>
-      </c>
-      <c r="J20" t="s">
-        <v>349</v>
       </c>
       <c r="K20" t="s">
         <v>91</v>
       </c>
       <c r="L20" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="M20" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="N20" t="s">
         <v>94</v>
@@ -6973,37 +7141,37 @@
         <v>99</v>
       </c>
       <c r="U20" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="V20" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="W20" t="s">
-        <v>101</v>
+        <v>347</v>
       </c>
       <c r="X20" t="s">
         <v>101</v>
       </c>
       <c r="Y20" t="s">
-        <v>351</v>
+        <v>101</v>
       </c>
       <c r="Z20" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="AA20" t="s">
         <v>104</v>
       </c>
       <c r="AB20" t="s">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="AC20" t="s">
-        <v>353</v>
+        <v>282</v>
       </c>
       <c r="AD20" t="s">
         <v>84</v>
       </c>
       <c r="AF20" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="AG20" t="s">
         <v>100</v>
@@ -7057,10 +7225,10 @@
         <v>99</v>
       </c>
       <c r="AX20" s="1">
-        <v>45016</v>
+        <v>45005</v>
       </c>
       <c r="AY20" s="1">
-        <v>45013</v>
+        <v>45004</v>
       </c>
       <c r="AZ20" t="s">
         <v>107</v>
@@ -7081,10 +7249,10 @@
         <v>147</v>
       </c>
       <c r="BF20" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="BG20" s="1">
-        <v>39537</v>
+        <v>41120</v>
       </c>
       <c r="BH20" t="s">
         <v>101</v>
@@ -7096,19 +7264,19 @@
         <v>101</v>
       </c>
       <c r="BL20" s="1">
-        <v>45019</v>
+        <v>45026</v>
       </c>
       <c r="BM20" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="BN20" t="s">
-        <v>356</v>
+        <v>310</v>
       </c>
       <c r="BO20" s="1">
-        <v>45017</v>
+        <v>45008</v>
       </c>
       <c r="BP20" t="s">
-        <v>357</v>
+        <v>286</v>
       </c>
       <c r="BQ20" t="s">
         <v>101</v>
@@ -7126,7 +7294,7 @@
         <v>117</v>
       </c>
       <c r="BV20" t="s">
-        <v>358</v>
+        <v>311</v>
       </c>
       <c r="BW20" t="s">
         <v>96</v>
@@ -7153,7 +7321,7 @@
         <v>119</v>
       </c>
       <c r="CE20">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:83" x14ac:dyDescent="0.2">
@@ -7161,10 +7329,10 @@
         <v>83</v>
       </c>
       <c r="B21" s="1">
-        <v>44948</v>
+        <v>45017</v>
       </c>
       <c r="C21" t="s">
-        <v>130</v>
+        <v>351</v>
       </c>
       <c r="D21" t="s">
         <v>85</v>
@@ -7176,25 +7344,25 @@
         <v>87</v>
       </c>
       <c r="G21" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="H21" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="I21" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="J21" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="K21" t="s">
         <v>138</v>
       </c>
       <c r="L21" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="M21" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="N21" t="s">
         <v>94</v>
@@ -7206,7 +7374,7 @@
         <v>96</v>
       </c>
       <c r="Q21" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="R21" t="s">
         <v>95</v>
@@ -7230,10 +7398,10 @@
         <v>101</v>
       </c>
       <c r="Y21" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="Z21" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="AA21" t="s">
         <v>104</v>
@@ -7242,13 +7410,13 @@
         <v>145</v>
       </c>
       <c r="AC21" t="s">
-        <v>197</v>
+        <v>146</v>
       </c>
       <c r="AD21" t="s">
         <v>84</v>
       </c>
       <c r="AF21" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="AG21" t="s">
         <v>100</v>
@@ -7263,7 +7431,7 @@
         <v>100</v>
       </c>
       <c r="AK21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AL21" t="s">
         <v>101</v>
@@ -7275,7 +7443,7 @@
         <v>100</v>
       </c>
       <c r="AO21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AP21" t="s">
         <v>100</v>
@@ -7290,7 +7458,7 @@
         <v>94</v>
       </c>
       <c r="AT21" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AU21" t="s">
         <v>95</v>
@@ -7302,10 +7470,10 @@
         <v>99</v>
       </c>
       <c r="AX21" s="1">
-        <v>44948</v>
+        <v>45017</v>
       </c>
       <c r="AY21" s="1">
-        <v>44945</v>
+        <v>45014</v>
       </c>
       <c r="AZ21" t="s">
         <v>107</v>
@@ -7326,10 +7494,10 @@
         <v>147</v>
       </c>
       <c r="BF21" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="BG21" s="1">
-        <v>36520</v>
+        <v>37253</v>
       </c>
       <c r="BH21" t="s">
         <v>101</v>
@@ -7341,16 +7509,16 @@
         <v>101</v>
       </c>
       <c r="BL21" s="1">
+        <v>45026</v>
+      </c>
+      <c r="BM21" t="s">
+        <v>360</v>
+      </c>
+      <c r="BN21" t="s">
+        <v>361</v>
+      </c>
+      <c r="BO21" s="1">
         <v>45019</v>
-      </c>
-      <c r="BM21" t="s">
-        <v>367</v>
-      </c>
-      <c r="BN21" t="s">
-        <v>368</v>
-      </c>
-      <c r="BO21" s="1">
-        <v>44959</v>
       </c>
       <c r="BP21" t="s">
         <v>151</v>
@@ -7365,7 +7533,7 @@
         <v>101</v>
       </c>
       <c r="BT21" t="s">
-        <v>287</v>
+        <v>116</v>
       </c>
       <c r="BU21" t="s">
         <v>117</v>
@@ -7398,7 +7566,7 @@
         <v>119</v>
       </c>
       <c r="CE21">
-        <v>13</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:83" x14ac:dyDescent="0.2">
@@ -7406,40 +7574,40 @@
         <v>83</v>
       </c>
       <c r="B22" s="1">
-        <v>44948</v>
+        <v>45013</v>
       </c>
       <c r="C22" t="s">
-        <v>130</v>
+        <v>351</v>
       </c>
       <c r="D22" t="s">
         <v>85</v>
       </c>
       <c r="E22" t="s">
-        <v>273</v>
+        <v>86</v>
       </c>
       <c r="F22" t="s">
-        <v>180</v>
+        <v>87</v>
       </c>
       <c r="G22" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="H22" t="s">
         <v>101</v>
       </c>
       <c r="I22" t="s">
-        <v>335</v>
+        <v>363</v>
       </c>
       <c r="J22" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="K22" t="s">
         <v>138</v>
       </c>
       <c r="L22" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="M22" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="N22" t="s">
         <v>94</v>
@@ -7451,7 +7619,7 @@
         <v>96</v>
       </c>
       <c r="Q22" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="R22" t="s">
         <v>95</v>
@@ -7469,7 +7637,7 @@
         <v>101</v>
       </c>
       <c r="W22" t="s">
-        <v>141</v>
+        <v>367</v>
       </c>
       <c r="X22" t="s">
         <v>101</v>
@@ -7478,16 +7646,16 @@
         <v>101</v>
       </c>
       <c r="Z22" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="AA22" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="AB22" t="s">
         <v>145</v>
       </c>
       <c r="AC22" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="AD22" t="s">
         <v>84</v>
@@ -7508,7 +7676,7 @@
         <v>100</v>
       </c>
       <c r="AK22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL22" t="s">
         <v>101</v>
@@ -7520,7 +7688,7 @@
         <v>100</v>
       </c>
       <c r="AO22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AP22" t="s">
         <v>100</v>
@@ -7541,16 +7709,16 @@
         <v>95</v>
       </c>
       <c r="AV22" t="s">
-        <v>248</v>
+        <v>98</v>
       </c>
       <c r="AW22" t="s">
         <v>99</v>
       </c>
       <c r="AX22" s="1">
-        <v>44948</v>
+        <v>45013</v>
       </c>
       <c r="AY22" s="1">
-        <v>44943</v>
+        <v>45012</v>
       </c>
       <c r="AZ22" t="s">
         <v>107</v>
@@ -7571,10 +7739,10 @@
         <v>147</v>
       </c>
       <c r="BF22" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="BG22" s="1">
-        <v>33834</v>
+        <v>29719</v>
       </c>
       <c r="BH22" t="s">
         <v>101</v>
@@ -7586,19 +7754,19 @@
         <v>101</v>
       </c>
       <c r="BL22" s="1">
-        <v>45019</v>
+        <v>45026</v>
       </c>
       <c r="BM22" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="BN22" t="s">
-        <v>378</v>
+        <v>114</v>
       </c>
       <c r="BO22" s="1">
-        <v>44950</v>
+        <v>45014</v>
       </c>
       <c r="BP22" t="s">
-        <v>286</v>
+        <v>115</v>
       </c>
       <c r="BQ22" t="s">
         <v>101</v>
@@ -7610,13 +7778,13 @@
         <v>101</v>
       </c>
       <c r="BT22" t="s">
-        <v>287</v>
+        <v>116</v>
       </c>
       <c r="BU22" t="s">
         <v>117</v>
       </c>
       <c r="BV22" t="s">
-        <v>311</v>
+        <v>112</v>
       </c>
       <c r="BW22" t="s">
         <v>96</v>
@@ -7631,10 +7799,10 @@
         <v>96</v>
       </c>
       <c r="CA22" t="s">
-        <v>379</v>
+        <v>118</v>
       </c>
       <c r="CB22" t="s">
-        <v>379</v>
+        <v>119</v>
       </c>
       <c r="CC22" t="s">
         <v>118</v>
@@ -7643,7 +7811,7 @@
         <v>119</v>
       </c>
       <c r="CE22">
-        <v>9</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:83" x14ac:dyDescent="0.2">
@@ -7651,40 +7819,40 @@
         <v>83</v>
       </c>
       <c r="B23" s="1">
-        <v>44949</v>
+        <v>45014</v>
       </c>
       <c r="C23" t="s">
-        <v>130</v>
+        <v>351</v>
       </c>
       <c r="D23" t="s">
         <v>85</v>
       </c>
       <c r="E23" t="s">
-        <v>273</v>
+        <v>133</v>
       </c>
       <c r="F23" t="s">
-        <v>180</v>
+        <v>87</v>
       </c>
       <c r="G23" t="s">
-        <v>380</v>
+        <v>203</v>
       </c>
       <c r="H23" t="s">
-        <v>301</v>
+        <v>88</v>
       </c>
       <c r="I23" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="J23" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="K23" t="s">
-        <v>304</v>
+        <v>91</v>
       </c>
       <c r="L23" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="M23" t="s">
-        <v>94</v>
+        <v>376</v>
       </c>
       <c r="N23" t="s">
         <v>94</v>
@@ -7696,7 +7864,7 @@
         <v>96</v>
       </c>
       <c r="Q23" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="R23" t="s">
         <v>95</v>
@@ -7708,37 +7876,37 @@
         <v>99</v>
       </c>
       <c r="U23" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="V23" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="W23" t="s">
-        <v>383</v>
+        <v>101</v>
       </c>
       <c r="X23" t="s">
         <v>101</v>
       </c>
       <c r="Y23" t="s">
-        <v>101</v>
+        <v>377</v>
       </c>
       <c r="Z23" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="AA23" t="s">
         <v>104</v>
       </c>
       <c r="AB23" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="AC23" t="s">
-        <v>385</v>
+        <v>106</v>
       </c>
       <c r="AD23" t="s">
         <v>84</v>
       </c>
       <c r="AF23" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="AG23" t="s">
         <v>100</v>
@@ -7753,7 +7921,7 @@
         <v>100</v>
       </c>
       <c r="AK23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AL23" t="s">
         <v>101</v>
@@ -7765,7 +7933,7 @@
         <v>100</v>
       </c>
       <c r="AO23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AP23" t="s">
         <v>100</v>
@@ -7780,7 +7948,7 @@
         <v>94</v>
       </c>
       <c r="AT23" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AU23" t="s">
         <v>95</v>
@@ -7792,10 +7960,10 @@
         <v>99</v>
       </c>
       <c r="AX23" s="1">
-        <v>44949</v>
+        <v>45014</v>
       </c>
       <c r="AY23" s="1">
-        <v>44946</v>
+        <v>45013</v>
       </c>
       <c r="AZ23" t="s">
         <v>107</v>
@@ -7816,10 +7984,10 @@
         <v>147</v>
       </c>
       <c r="BF23" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="BG23" s="1">
-        <v>44322</v>
+        <v>38525</v>
       </c>
       <c r="BH23" t="s">
         <v>101</v>
@@ -7831,19 +7999,19 @@
         <v>101</v>
       </c>
       <c r="BL23" s="1">
+        <v>45026</v>
+      </c>
+      <c r="BM23" t="s">
+        <v>168</v>
+      </c>
+      <c r="BN23" t="s">
+        <v>164</v>
+      </c>
+      <c r="BO23" s="1">
         <v>45019</v>
       </c>
-      <c r="BM23" t="s">
-        <v>387</v>
-      </c>
-      <c r="BN23" t="s">
-        <v>388</v>
-      </c>
-      <c r="BO23" s="1">
-        <v>44956</v>
-      </c>
       <c r="BP23" t="s">
-        <v>286</v>
+        <v>151</v>
       </c>
       <c r="BQ23" t="s">
         <v>101</v>
@@ -7855,13 +8023,13 @@
         <v>101</v>
       </c>
       <c r="BT23" t="s">
-        <v>287</v>
+        <v>116</v>
       </c>
       <c r="BU23" t="s">
         <v>117</v>
       </c>
       <c r="BV23" t="s">
-        <v>311</v>
+        <v>153</v>
       </c>
       <c r="BW23" t="s">
         <v>96</v>
@@ -7888,7 +8056,7 @@
         <v>119</v>
       </c>
       <c r="CE23">
-        <v>10</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:83" x14ac:dyDescent="0.2">
@@ -7896,40 +8064,40 @@
         <v>83</v>
       </c>
       <c r="B24" s="1">
-        <v>44949</v>
+        <v>45017</v>
       </c>
       <c r="C24" t="s">
-        <v>130</v>
+        <v>351</v>
       </c>
       <c r="D24" t="s">
         <v>85</v>
       </c>
       <c r="E24" t="s">
-        <v>86</v>
+        <v>380</v>
       </c>
       <c r="F24" t="s">
         <v>87</v>
       </c>
       <c r="G24" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="H24" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="I24" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="J24" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="K24" t="s">
         <v>91</v>
       </c>
       <c r="L24" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="M24" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="N24" t="s">
         <v>94</v>
@@ -7953,22 +8121,22 @@
         <v>99</v>
       </c>
       <c r="U24" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="V24" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="W24" t="s">
-        <v>394</v>
+        <v>101</v>
       </c>
       <c r="X24" t="s">
         <v>101</v>
       </c>
       <c r="Y24" t="s">
-        <v>101</v>
+        <v>325</v>
       </c>
       <c r="Z24" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="AA24" t="s">
         <v>104</v>
@@ -7977,13 +8145,13 @@
         <v>105</v>
       </c>
       <c r="AC24" t="s">
-        <v>129</v>
+        <v>387</v>
       </c>
       <c r="AD24" t="s">
         <v>84</v>
       </c>
       <c r="AF24" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AG24" t="s">
         <v>100</v>
@@ -8037,10 +8205,10 @@
         <v>99</v>
       </c>
       <c r="AX24" s="1">
-        <v>44949</v>
+        <v>45016</v>
       </c>
       <c r="AY24" s="1">
-        <v>44947</v>
+        <v>45013</v>
       </c>
       <c r="AZ24" t="s">
         <v>107</v>
@@ -8061,10 +8229,10 @@
         <v>147</v>
       </c>
       <c r="BF24" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="BG24" s="1">
-        <v>41819</v>
+        <v>39537</v>
       </c>
       <c r="BH24" t="s">
         <v>101</v>
@@ -8076,19 +8244,19 @@
         <v>101</v>
       </c>
       <c r="BL24" s="1">
-        <v>45019</v>
+        <v>45026</v>
       </c>
       <c r="BM24" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="BN24" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="BO24" s="1">
-        <v>44950</v>
+        <v>45017</v>
       </c>
       <c r="BP24" t="s">
-        <v>115</v>
+        <v>391</v>
       </c>
       <c r="BQ24" t="s">
         <v>101</v>
@@ -8100,13 +8268,13 @@
         <v>101</v>
       </c>
       <c r="BT24" t="s">
-        <v>169</v>
+        <v>116</v>
       </c>
       <c r="BU24" t="s">
         <v>117</v>
       </c>
       <c r="BV24" t="s">
-        <v>112</v>
+        <v>392</v>
       </c>
       <c r="BW24" t="s">
         <v>96</v>
@@ -8133,7 +8301,7 @@
         <v>119</v>
       </c>
       <c r="CE24">
-        <v>8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:83" x14ac:dyDescent="0.2">
@@ -8141,40 +8309,40 @@
         <v>83</v>
       </c>
       <c r="B25" s="1">
-        <v>44955</v>
+        <v>45022</v>
       </c>
       <c r="C25" t="s">
-        <v>107</v>
+        <v>337</v>
       </c>
       <c r="D25" t="s">
         <v>85</v>
       </c>
       <c r="E25" t="s">
-        <v>273</v>
+        <v>86</v>
       </c>
       <c r="F25" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="G25" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="H25" t="s">
-        <v>88</v>
+        <v>394</v>
       </c>
       <c r="I25" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="J25" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="K25" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="L25" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="M25" t="s">
-        <v>333</v>
+        <v>158</v>
       </c>
       <c r="N25" t="s">
         <v>94</v>
@@ -8186,7 +8354,7 @@
         <v>96</v>
       </c>
       <c r="Q25" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="R25" t="s">
         <v>95</v>
@@ -8195,40 +8363,40 @@
         <v>98</v>
       </c>
       <c r="T25" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="U25" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="V25" t="s">
-        <v>101</v>
+        <v>347</v>
       </c>
       <c r="W25" t="s">
-        <v>403</v>
+        <v>101</v>
       </c>
       <c r="X25" t="s">
         <v>101</v>
       </c>
       <c r="Y25" t="s">
-        <v>101</v>
+        <v>325</v>
       </c>
       <c r="Z25" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="AA25" t="s">
-        <v>104</v>
+        <v>399</v>
       </c>
       <c r="AB25" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="AC25" t="s">
-        <v>146</v>
+        <v>251</v>
       </c>
       <c r="AD25" t="s">
-        <v>84</v>
+        <v>179</v>
       </c>
       <c r="AF25" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="AG25" t="s">
         <v>100</v>
@@ -8243,7 +8411,7 @@
         <v>100</v>
       </c>
       <c r="AK25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AL25" t="s">
         <v>101</v>
@@ -8255,7 +8423,7 @@
         <v>100</v>
       </c>
       <c r="AO25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AP25" t="s">
         <v>100</v>
@@ -8279,13 +8447,13 @@
         <v>98</v>
       </c>
       <c r="AW25" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="AX25" s="1">
-        <v>44955</v>
+        <v>45022</v>
       </c>
       <c r="AY25" s="1">
-        <v>44953</v>
+        <v>45020</v>
       </c>
       <c r="AZ25" t="s">
         <v>107</v>
@@ -8306,10 +8474,10 @@
         <v>147</v>
       </c>
       <c r="BF25" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="BG25" s="1">
-        <v>40075</v>
+        <v>32861</v>
       </c>
       <c r="BH25" t="s">
         <v>101</v>
@@ -8321,19 +8489,19 @@
         <v>101</v>
       </c>
       <c r="BL25" s="1">
-        <v>45019</v>
+        <v>45026</v>
       </c>
       <c r="BM25" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="BN25" t="s">
-        <v>310</v>
+        <v>402</v>
       </c>
       <c r="BO25" s="1">
-        <v>44957</v>
+        <v>45026</v>
       </c>
       <c r="BP25" t="s">
-        <v>286</v>
+        <v>115</v>
       </c>
       <c r="BQ25" t="s">
         <v>101</v>
@@ -8345,13 +8513,13 @@
         <v>101</v>
       </c>
       <c r="BT25" t="s">
-        <v>169</v>
+        <v>116</v>
       </c>
       <c r="BU25" t="s">
         <v>117</v>
       </c>
       <c r="BV25" t="s">
-        <v>311</v>
+        <v>403</v>
       </c>
       <c r="BW25" t="s">
         <v>96</v>
@@ -8360,7 +8528,7 @@
         <v>118</v>
       </c>
       <c r="BY25" t="s">
-        <v>214</v>
+        <v>119</v>
       </c>
       <c r="BZ25" t="s">
         <v>96</v>
@@ -8369,7 +8537,7 @@
         <v>118</v>
       </c>
       <c r="CB25" t="s">
-        <v>214</v>
+        <v>119</v>
       </c>
       <c r="CC25" t="s">
         <v>118</v>
@@ -8378,7 +8546,7 @@
         <v>119</v>
       </c>
       <c r="CE25">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:83" x14ac:dyDescent="0.2">
@@ -8386,40 +8554,40 @@
         <v>83</v>
       </c>
       <c r="B26" s="1">
-        <v>44966</v>
+        <v>45019</v>
       </c>
       <c r="C26" t="s">
-        <v>179</v>
+        <v>337</v>
       </c>
       <c r="D26" t="s">
         <v>85</v>
       </c>
       <c r="E26" t="s">
-        <v>345</v>
+        <v>404</v>
       </c>
       <c r="F26" t="s">
-        <v>87</v>
+        <v>405</v>
       </c>
       <c r="G26" t="s">
+        <v>393</v>
+      </c>
+      <c r="H26" t="s">
+        <v>406</v>
+      </c>
+      <c r="I26" t="s">
         <v>407</v>
       </c>
-      <c r="H26" t="s">
+      <c r="J26" t="s">
         <v>408</v>
-      </c>
-      <c r="I26" t="s">
-        <v>231</v>
-      </c>
-      <c r="J26" t="s">
-        <v>409</v>
       </c>
       <c r="K26" t="s">
         <v>138</v>
       </c>
       <c r="L26" t="s">
+        <v>409</v>
+      </c>
+      <c r="M26" t="s">
         <v>410</v>
-      </c>
-      <c r="M26" t="s">
-        <v>411</v>
       </c>
       <c r="N26" t="s">
         <v>94</v>
@@ -8431,7 +8599,7 @@
         <v>96</v>
       </c>
       <c r="Q26" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="R26" t="s">
         <v>95</v>
@@ -8440,13 +8608,13 @@
         <v>98</v>
       </c>
       <c r="T26" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="U26" t="s">
         <v>94</v>
       </c>
       <c r="V26" t="s">
-        <v>119</v>
+        <v>235</v>
       </c>
       <c r="W26" t="s">
         <v>101</v>
@@ -8455,19 +8623,19 @@
         <v>101</v>
       </c>
       <c r="Y26" t="s">
-        <v>412</v>
+        <v>325</v>
       </c>
       <c r="Z26" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AA26" t="s">
-        <v>414</v>
+        <v>104</v>
       </c>
       <c r="AB26" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="AC26" t="s">
-        <v>197</v>
+        <v>129</v>
       </c>
       <c r="AD26" t="s">
         <v>84</v>
@@ -8488,7 +8656,7 @@
         <v>100</v>
       </c>
       <c r="AK26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AL26" t="s">
         <v>101</v>
@@ -8500,7 +8668,7 @@
         <v>100</v>
       </c>
       <c r="AO26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AP26" t="s">
         <v>100</v>
@@ -8524,22 +8692,22 @@
         <v>98</v>
       </c>
       <c r="AW26" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="AX26" s="1">
-        <v>44963</v>
+        <v>45019</v>
       </c>
       <c r="AY26" s="1">
-        <v>44961</v>
+        <v>45019</v>
       </c>
       <c r="AZ26" t="s">
         <v>107</v>
       </c>
       <c r="BA26" t="s">
-        <v>100</v>
-      </c>
-      <c r="BB26" t="s">
-        <v>108</v>
+        <v>94</v>
+      </c>
+      <c r="BB26" s="1">
+        <v>45019</v>
       </c>
       <c r="BC26" t="s">
         <v>94</v>
@@ -8551,35 +8719,35 @@
         <v>147</v>
       </c>
       <c r="BF26" t="s">
+        <v>412</v>
+      </c>
+      <c r="BG26" s="1">
+        <v>14748</v>
+      </c>
+      <c r="BH26" t="s">
+        <v>101</v>
+      </c>
+      <c r="BI26" t="s">
+        <v>101</v>
+      </c>
+      <c r="BJ26" t="s">
+        <v>101</v>
+      </c>
+      <c r="BL26" s="1">
+        <v>45026</v>
+      </c>
+      <c r="BM26" t="s">
+        <v>413</v>
+      </c>
+      <c r="BN26" t="s">
+        <v>414</v>
+      </c>
+      <c r="BO26" s="1">
+        <v>45020</v>
+      </c>
+      <c r="BP26" t="s">
         <v>415</v>
       </c>
-      <c r="BG26" s="1">
-        <v>29409</v>
-      </c>
-      <c r="BH26" t="s">
-        <v>101</v>
-      </c>
-      <c r="BI26" t="s">
-        <v>101</v>
-      </c>
-      <c r="BJ26" t="s">
-        <v>101</v>
-      </c>
-      <c r="BL26" s="1">
-        <v>45019</v>
-      </c>
-      <c r="BM26" t="s">
-        <v>416</v>
-      </c>
-      <c r="BN26" t="s">
-        <v>356</v>
-      </c>
-      <c r="BO26" s="1">
-        <v>44966</v>
-      </c>
-      <c r="BP26" t="s">
-        <v>357</v>
-      </c>
       <c r="BQ26" t="s">
         <v>101</v>
       </c>
@@ -8590,13 +8758,13 @@
         <v>101</v>
       </c>
       <c r="BT26" t="s">
-        <v>169</v>
+        <v>116</v>
       </c>
       <c r="BU26" t="s">
         <v>117</v>
       </c>
       <c r="BV26" t="s">
-        <v>358</v>
+        <v>416</v>
       </c>
       <c r="BW26" t="s">
         <v>96</v>
@@ -8605,7 +8773,7 @@
         <v>118</v>
       </c>
       <c r="BY26" t="s">
-        <v>119</v>
+        <v>214</v>
       </c>
       <c r="BZ26" t="s">
         <v>96</v>
@@ -8614,7 +8782,7 @@
         <v>118</v>
       </c>
       <c r="CB26" t="s">
-        <v>119</v>
+        <v>214</v>
       </c>
       <c r="CC26" t="s">
         <v>118</v>
@@ -8623,7 +8791,7 @@
         <v>119</v>
       </c>
       <c r="CE26">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:83" x14ac:dyDescent="0.2">
@@ -8631,40 +8799,40 @@
         <v>83</v>
       </c>
       <c r="B27" s="1">
-        <v>44956</v>
+        <v>45020</v>
       </c>
       <c r="C27" t="s">
-        <v>179</v>
+        <v>337</v>
       </c>
       <c r="D27" t="s">
         <v>85</v>
       </c>
       <c r="E27" t="s">
-        <v>273</v>
+        <v>170</v>
       </c>
       <c r="F27" t="s">
+        <v>87</v>
+      </c>
+      <c r="G27" t="s">
         <v>417</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>418</v>
-      </c>
-      <c r="H27" t="s">
-        <v>101</v>
       </c>
       <c r="I27" t="s">
         <v>419</v>
       </c>
       <c r="J27" t="s">
+        <v>101</v>
+      </c>
+      <c r="K27" t="s">
+        <v>304</v>
+      </c>
+      <c r="L27" t="s">
         <v>420</v>
       </c>
-      <c r="K27" t="s">
-        <v>138</v>
-      </c>
-      <c r="L27" t="s">
-        <v>421</v>
-      </c>
       <c r="M27" t="s">
-        <v>220</v>
+        <v>130</v>
       </c>
       <c r="N27" t="s">
         <v>94</v>
@@ -8685,40 +8853,40 @@
         <v>98</v>
       </c>
       <c r="T27" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="U27" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="V27" t="s">
-        <v>101</v>
+        <v>421</v>
       </c>
       <c r="W27" t="s">
+        <v>101</v>
+      </c>
+      <c r="X27" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z27" t="s">
         <v>422</v>
-      </c>
-      <c r="X27" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>423</v>
       </c>
       <c r="AA27" t="s">
         <v>104</v>
       </c>
       <c r="AB27" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="AC27" t="s">
-        <v>282</v>
+        <v>106</v>
       </c>
       <c r="AD27" t="s">
         <v>84</v>
       </c>
       <c r="AF27" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="AG27" t="s">
         <v>100</v>
@@ -8760,7 +8928,7 @@
         <v>94</v>
       </c>
       <c r="AT27" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AU27" t="s">
         <v>95</v>
@@ -8769,13 +8937,13 @@
         <v>98</v>
       </c>
       <c r="AW27" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="AX27" s="1">
-        <v>44956</v>
+        <v>45020</v>
       </c>
       <c r="AY27" s="1">
-        <v>44956</v>
+        <v>45019</v>
       </c>
       <c r="AZ27" t="s">
         <v>107</v>
@@ -8796,34 +8964,34 @@
         <v>147</v>
       </c>
       <c r="BF27" t="s">
+        <v>423</v>
+      </c>
+      <c r="BG27" s="1">
+        <v>43581</v>
+      </c>
+      <c r="BH27" t="s">
+        <v>101</v>
+      </c>
+      <c r="BI27" t="s">
+        <v>101</v>
+      </c>
+      <c r="BJ27" t="s">
+        <v>101</v>
+      </c>
+      <c r="BL27" s="1">
+        <v>45026</v>
+      </c>
+      <c r="BM27" t="s">
         <v>424</v>
       </c>
-      <c r="BG27" s="1">
-        <v>34837</v>
-      </c>
-      <c r="BH27" t="s">
-        <v>101</v>
-      </c>
-      <c r="BI27" t="s">
-        <v>101</v>
-      </c>
-      <c r="BJ27" t="s">
-        <v>101</v>
-      </c>
-      <c r="BL27" s="1">
-        <v>45019</v>
-      </c>
-      <c r="BM27" t="s">
+      <c r="BN27" t="s">
         <v>425</v>
       </c>
-      <c r="BN27" t="s">
-        <v>310</v>
-      </c>
       <c r="BO27" s="1">
-        <v>44967</v>
+        <v>45020</v>
       </c>
       <c r="BP27" t="s">
-        <v>286</v>
+        <v>184</v>
       </c>
       <c r="BQ27" t="s">
         <v>101</v>
@@ -8835,13 +9003,13 @@
         <v>101</v>
       </c>
       <c r="BT27" t="s">
-        <v>426</v>
+        <v>116</v>
       </c>
       <c r="BU27" t="s">
         <v>117</v>
       </c>
       <c r="BV27" t="s">
-        <v>427</v>
+        <v>185</v>
       </c>
       <c r="BW27" t="s">
         <v>96</v>
@@ -8850,7 +9018,7 @@
         <v>118</v>
       </c>
       <c r="BY27" t="s">
-        <v>214</v>
+        <v>119</v>
       </c>
       <c r="BZ27" t="s">
         <v>96</v>
@@ -8859,7 +9027,7 @@
         <v>118</v>
       </c>
       <c r="CB27" t="s">
-        <v>214</v>
+        <v>119</v>
       </c>
       <c r="CC27" t="s">
         <v>118</v>
@@ -8868,7 +9036,7 @@
         <v>119</v>
       </c>
       <c r="CE27">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:83" x14ac:dyDescent="0.2">
@@ -8876,28 +9044,28 @@
         <v>83</v>
       </c>
       <c r="B28" s="1">
-        <v>44957</v>
+        <v>44948</v>
       </c>
       <c r="C28" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
       <c r="D28" t="s">
         <v>85</v>
       </c>
       <c r="E28" t="s">
-        <v>273</v>
+        <v>133</v>
       </c>
       <c r="F28" t="s">
-        <v>417</v>
+        <v>87</v>
       </c>
       <c r="G28" t="s">
+        <v>426</v>
+      </c>
+      <c r="H28" t="s">
+        <v>427</v>
+      </c>
+      <c r="I28" t="s">
         <v>428</v>
-      </c>
-      <c r="H28" t="s">
-        <v>203</v>
-      </c>
-      <c r="I28" t="s">
-        <v>246</v>
       </c>
       <c r="J28" t="s">
         <v>429</v>
@@ -8921,7 +9089,7 @@
         <v>96</v>
       </c>
       <c r="Q28" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="R28" t="s">
         <v>95</v>
@@ -8933,22 +9101,22 @@
         <v>99</v>
       </c>
       <c r="U28" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="V28" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="W28" t="s">
+        <v>101</v>
+      </c>
+      <c r="X28" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z28" t="s">
         <v>432</v>
-      </c>
-      <c r="X28" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>433</v>
       </c>
       <c r="AA28" t="s">
         <v>104</v>
@@ -8957,7 +9125,7 @@
         <v>145</v>
       </c>
       <c r="AC28" t="s">
-        <v>282</v>
+        <v>197</v>
       </c>
       <c r="AD28" t="s">
         <v>84</v>
@@ -8978,7 +9146,7 @@
         <v>100</v>
       </c>
       <c r="AK28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL28" t="s">
         <v>101</v>
@@ -8990,7 +9158,7 @@
         <v>100</v>
       </c>
       <c r="AO28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AP28" t="s">
         <v>100</v>
@@ -9017,10 +9185,10 @@
         <v>99</v>
       </c>
       <c r="AX28" s="1">
-        <v>44957</v>
+        <v>44948</v>
       </c>
       <c r="AY28" s="1">
-        <v>44955</v>
+        <v>44945</v>
       </c>
       <c r="AZ28" t="s">
         <v>107</v>
@@ -9041,34 +9209,34 @@
         <v>147</v>
       </c>
       <c r="BF28" t="s">
+        <v>433</v>
+      </c>
+      <c r="BG28" s="1">
+        <v>36520</v>
+      </c>
+      <c r="BH28" t="s">
+        <v>101</v>
+      </c>
+      <c r="BI28" t="s">
+        <v>101</v>
+      </c>
+      <c r="BJ28" t="s">
+        <v>101</v>
+      </c>
+      <c r="BL28" s="1">
+        <v>45026</v>
+      </c>
+      <c r="BM28" t="s">
         <v>434</v>
       </c>
-      <c r="BG28" s="1">
-        <v>33287</v>
-      </c>
-      <c r="BH28" t="s">
-        <v>101</v>
-      </c>
-      <c r="BI28" t="s">
-        <v>101</v>
-      </c>
-      <c r="BJ28" t="s">
-        <v>101</v>
-      </c>
-      <c r="BL28" s="1">
-        <v>45019</v>
-      </c>
-      <c r="BM28" t="s">
+      <c r="BN28" t="s">
         <v>435</v>
       </c>
-      <c r="BN28" t="s">
-        <v>310</v>
-      </c>
       <c r="BO28" s="1">
-        <v>44967</v>
+        <v>44959</v>
       </c>
       <c r="BP28" t="s">
-        <v>286</v>
+        <v>151</v>
       </c>
       <c r="BQ28" t="s">
         <v>101</v>
@@ -9080,13 +9248,13 @@
         <v>101</v>
       </c>
       <c r="BT28" t="s">
-        <v>426</v>
+        <v>287</v>
       </c>
       <c r="BU28" t="s">
         <v>117</v>
       </c>
       <c r="BV28" t="s">
-        <v>427</v>
+        <v>153</v>
       </c>
       <c r="BW28" t="s">
         <v>96</v>
@@ -9113,7 +9281,7 @@
         <v>119</v>
       </c>
       <c r="CE28">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:83" x14ac:dyDescent="0.2">
@@ -9121,34 +9289,34 @@
         <v>83</v>
       </c>
       <c r="B29" s="1">
-        <v>44959</v>
+        <v>44948</v>
       </c>
       <c r="C29" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
       <c r="D29" t="s">
         <v>85</v>
       </c>
       <c r="E29" t="s">
-        <v>86</v>
+        <v>273</v>
       </c>
       <c r="F29" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G29" t="s">
-        <v>203</v>
+        <v>436</v>
       </c>
       <c r="H29" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="I29" t="s">
-        <v>436</v>
+        <v>363</v>
       </c>
       <c r="J29" t="s">
         <v>437</v>
       </c>
       <c r="K29" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="L29" t="s">
         <v>438</v>
@@ -9178,37 +9346,37 @@
         <v>99</v>
       </c>
       <c r="U29" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="V29" t="s">
-        <v>329</v>
+        <v>101</v>
       </c>
       <c r="W29" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="X29" t="s">
         <v>101</v>
       </c>
       <c r="Y29" t="s">
-        <v>351</v>
+        <v>101</v>
       </c>
       <c r="Z29" t="s">
         <v>440</v>
       </c>
       <c r="AA29" t="s">
-        <v>104</v>
+        <v>441</v>
       </c>
       <c r="AB29" t="s">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="AC29" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AD29" t="s">
         <v>84</v>
       </c>
       <c r="AF29" t="s">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="AG29" t="s">
         <v>100</v>
@@ -9256,16 +9424,16 @@
         <v>95</v>
       </c>
       <c r="AV29" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="AW29" t="s">
         <v>99</v>
       </c>
       <c r="AX29" s="1">
-        <v>44959</v>
+        <v>44948</v>
       </c>
       <c r="AY29" s="1">
-        <v>44958</v>
+        <v>44943</v>
       </c>
       <c r="AZ29" t="s">
         <v>107</v>
@@ -9286,10 +9454,10 @@
         <v>147</v>
       </c>
       <c r="BF29" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="BG29" s="1">
-        <v>38736</v>
+        <v>33834</v>
       </c>
       <c r="BH29" t="s">
         <v>101</v>
@@ -9301,19 +9469,19 @@
         <v>101</v>
       </c>
       <c r="BL29" s="1">
-        <v>45019</v>
+        <v>45026</v>
       </c>
       <c r="BM29" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BN29" t="s">
-        <v>254</v>
+        <v>445</v>
       </c>
       <c r="BO29" s="1">
-        <v>44963</v>
+        <v>44950</v>
       </c>
       <c r="BP29" t="s">
-        <v>115</v>
+        <v>286</v>
       </c>
       <c r="BQ29" t="s">
         <v>101</v>
@@ -9325,13 +9493,13 @@
         <v>101</v>
       </c>
       <c r="BT29" t="s">
-        <v>169</v>
+        <v>287</v>
       </c>
       <c r="BU29" t="s">
         <v>117</v>
       </c>
       <c r="BV29" t="s">
-        <v>444</v>
+        <v>311</v>
       </c>
       <c r="BW29" t="s">
         <v>96</v>
@@ -9346,10 +9514,10 @@
         <v>96</v>
       </c>
       <c r="CA29" t="s">
-        <v>118</v>
+        <v>446</v>
       </c>
       <c r="CB29" t="s">
-        <v>119</v>
+        <v>446</v>
       </c>
       <c r="CC29" t="s">
         <v>118</v>
@@ -9358,7 +9526,7 @@
         <v>119</v>
       </c>
       <c r="CE29">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:83" x14ac:dyDescent="0.2">
@@ -9366,10 +9534,10 @@
         <v>83</v>
       </c>
       <c r="B30" s="1">
-        <v>44968</v>
+        <v>44949</v>
       </c>
       <c r="C30" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="D30" t="s">
         <v>85</v>
@@ -9378,28 +9546,28 @@
         <v>273</v>
       </c>
       <c r="F30" t="s">
-        <v>417</v>
+        <v>180</v>
       </c>
       <c r="G30" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="H30" t="s">
-        <v>446</v>
+        <v>301</v>
       </c>
       <c r="I30" t="s">
-        <v>124</v>
+        <v>364</v>
       </c>
       <c r="J30" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K30" t="s">
-        <v>138</v>
+        <v>304</v>
       </c>
       <c r="L30" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M30" t="s">
-        <v>234</v>
+        <v>94</v>
       </c>
       <c r="N30" t="s">
         <v>94</v>
@@ -9411,7 +9579,7 @@
         <v>96</v>
       </c>
       <c r="Q30" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="R30" t="s">
         <v>95</v>
@@ -9429,7 +9597,7 @@
         <v>101</v>
       </c>
       <c r="W30" t="s">
-        <v>329</v>
+        <v>450</v>
       </c>
       <c r="X30" t="s">
         <v>101</v>
@@ -9438,22 +9606,22 @@
         <v>101</v>
       </c>
       <c r="Z30" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AA30" t="s">
-        <v>450</v>
+        <v>104</v>
       </c>
       <c r="AB30" t="s">
         <v>145</v>
       </c>
       <c r="AC30" t="s">
-        <v>375</v>
+        <v>452</v>
       </c>
       <c r="AD30" t="s">
         <v>84</v>
       </c>
       <c r="AF30" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="AG30" t="s">
         <v>100</v>
@@ -9468,7 +9636,7 @@
         <v>100</v>
       </c>
       <c r="AK30" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL30" t="s">
         <v>101</v>
@@ -9480,7 +9648,7 @@
         <v>100</v>
       </c>
       <c r="AO30" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AP30" t="s">
         <v>100</v>
@@ -9495,7 +9663,7 @@
         <v>94</v>
       </c>
       <c r="AT30" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AU30" t="s">
         <v>95</v>
@@ -9507,10 +9675,10 @@
         <v>99</v>
       </c>
       <c r="AX30" s="1">
-        <v>44968</v>
+        <v>44949</v>
       </c>
       <c r="AY30" s="1">
-        <v>44966</v>
+        <v>44946</v>
       </c>
       <c r="AZ30" t="s">
         <v>107</v>
@@ -9531,10 +9699,10 @@
         <v>147</v>
       </c>
       <c r="BF30" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="BG30" s="1">
-        <v>35799</v>
+        <v>44322</v>
       </c>
       <c r="BH30" t="s">
         <v>101</v>
@@ -9546,16 +9714,16 @@
         <v>101</v>
       </c>
       <c r="BL30" s="1">
-        <v>45019</v>
+        <v>45026</v>
       </c>
       <c r="BM30" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="BN30" t="s">
-        <v>310</v>
+        <v>455</v>
       </c>
       <c r="BO30" s="1">
-        <v>44971</v>
+        <v>44956</v>
       </c>
       <c r="BP30" t="s">
         <v>286</v>
@@ -9570,13 +9738,13 @@
         <v>101</v>
       </c>
       <c r="BT30" t="s">
-        <v>426</v>
+        <v>287</v>
       </c>
       <c r="BU30" t="s">
         <v>117</v>
       </c>
       <c r="BV30" t="s">
-        <v>427</v>
+        <v>311</v>
       </c>
       <c r="BW30" t="s">
         <v>96</v>
@@ -9603,7 +9771,7 @@
         <v>119</v>
       </c>
       <c r="CE30">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:83" x14ac:dyDescent="0.2">
@@ -9611,40 +9779,40 @@
         <v>83</v>
       </c>
       <c r="B31" s="1">
-        <v>44975</v>
+        <v>44949</v>
       </c>
       <c r="C31" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="D31" t="s">
         <v>85</v>
       </c>
       <c r="E31" t="s">
-        <v>170</v>
+        <v>86</v>
       </c>
       <c r="F31" t="s">
         <v>87</v>
       </c>
       <c r="G31" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="H31" t="s">
-        <v>101</v>
+        <v>457</v>
       </c>
       <c r="I31" t="s">
-        <v>124</v>
+        <v>458</v>
       </c>
       <c r="J31" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="K31" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="L31" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="M31" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="N31" t="s">
         <v>94</v>
@@ -9656,7 +9824,7 @@
         <v>96</v>
       </c>
       <c r="Q31" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="R31" t="s">
         <v>95</v>
@@ -9665,25 +9833,25 @@
         <v>98</v>
       </c>
       <c r="T31" t="s">
-        <v>456</v>
+        <v>99</v>
       </c>
       <c r="U31" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="V31" t="s">
         <v>101</v>
       </c>
       <c r="W31" t="s">
-        <v>101</v>
+        <v>461</v>
       </c>
       <c r="X31" t="s">
-        <v>457</v>
+        <v>101</v>
       </c>
       <c r="Y31" t="s">
         <v>101</v>
       </c>
       <c r="Z31" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="AA31" t="s">
         <v>104</v>
@@ -9698,7 +9866,7 @@
         <v>84</v>
       </c>
       <c r="AF31" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AG31" t="s">
         <v>100</v>
@@ -9713,7 +9881,7 @@
         <v>100</v>
       </c>
       <c r="AK31" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL31" t="s">
         <v>101</v>
@@ -9725,7 +9893,7 @@
         <v>100</v>
       </c>
       <c r="AO31" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AP31" t="s">
         <v>100</v>
@@ -9749,22 +9917,22 @@
         <v>98</v>
       </c>
       <c r="AW31" t="s">
-        <v>456</v>
+        <v>99</v>
       </c>
       <c r="AX31" s="1">
-        <v>44973</v>
+        <v>44949</v>
       </c>
       <c r="AY31" s="1">
-        <v>44966</v>
+        <v>44947</v>
       </c>
       <c r="AZ31" t="s">
         <v>107</v>
       </c>
       <c r="BA31" t="s">
-        <v>94</v>
-      </c>
-      <c r="BB31" s="1">
-        <v>44973</v>
+        <v>100</v>
+      </c>
+      <c r="BB31" t="s">
+        <v>108</v>
       </c>
       <c r="BC31" t="s">
         <v>94</v>
@@ -9776,10 +9944,10 @@
         <v>147</v>
       </c>
       <c r="BF31" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="BG31" s="1">
-        <v>32631</v>
+        <v>41819</v>
       </c>
       <c r="BH31" t="s">
         <v>101</v>
@@ -9791,19 +9959,19 @@
         <v>101</v>
       </c>
       <c r="BL31" s="1">
-        <v>45019</v>
+        <v>45026</v>
       </c>
       <c r="BM31" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="BN31" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="BO31" s="1">
-        <v>44977</v>
+        <v>44950</v>
       </c>
       <c r="BP31" t="s">
-        <v>184</v>
+        <v>115</v>
       </c>
       <c r="BQ31" t="s">
         <v>101</v>
@@ -9815,13 +9983,13 @@
         <v>101</v>
       </c>
       <c r="BT31" t="s">
-        <v>426</v>
+        <v>169</v>
       </c>
       <c r="BU31" t="s">
         <v>117</v>
       </c>
       <c r="BV31" t="s">
-        <v>185</v>
+        <v>112</v>
       </c>
       <c r="BW31" t="s">
         <v>96</v>
@@ -9830,7 +9998,7 @@
         <v>118</v>
       </c>
       <c r="BY31" t="s">
-        <v>462</v>
+        <v>119</v>
       </c>
       <c r="BZ31" t="s">
         <v>96</v>
@@ -9839,7 +10007,7 @@
         <v>118</v>
       </c>
       <c r="CB31" t="s">
-        <v>462</v>
+        <v>119</v>
       </c>
       <c r="CC31" t="s">
         <v>118</v>
@@ -9848,7 +10016,7 @@
         <v>119</v>
       </c>
       <c r="CE31">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:83" x14ac:dyDescent="0.2">
@@ -9856,10 +10024,10 @@
         <v>83</v>
       </c>
       <c r="B32" s="1">
-        <v>44970</v>
+        <v>44955</v>
       </c>
       <c r="C32" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="D32" t="s">
         <v>85</v>
@@ -9868,28 +10036,28 @@
         <v>273</v>
       </c>
       <c r="F32" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="G32" t="s">
-        <v>428</v>
+        <v>466</v>
       </c>
       <c r="H32" t="s">
-        <v>203</v>
+        <v>88</v>
       </c>
       <c r="I32" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="J32" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="K32" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="L32" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="M32" t="s">
-        <v>466</v>
+        <v>351</v>
       </c>
       <c r="N32" t="s">
         <v>94</v>
@@ -9901,7 +10069,7 @@
         <v>96</v>
       </c>
       <c r="Q32" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="R32" t="s">
         <v>95</v>
@@ -9910,7 +10078,7 @@
         <v>98</v>
       </c>
       <c r="T32" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="U32" t="s">
         <v>100</v>
@@ -9919,7 +10087,7 @@
         <v>101</v>
       </c>
       <c r="W32" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="X32" t="s">
         <v>101</v>
@@ -9928,16 +10096,16 @@
         <v>101</v>
       </c>
       <c r="Z32" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="AA32" t="s">
-        <v>469</v>
+        <v>104</v>
       </c>
       <c r="AB32" t="s">
         <v>145</v>
       </c>
       <c r="AC32" t="s">
-        <v>282</v>
+        <v>146</v>
       </c>
       <c r="AD32" t="s">
         <v>84</v>
@@ -9958,7 +10126,7 @@
         <v>100</v>
       </c>
       <c r="AK32" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL32" t="s">
         <v>101</v>
@@ -9970,7 +10138,7 @@
         <v>100</v>
       </c>
       <c r="AO32" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AP32" t="s">
         <v>100</v>
@@ -9994,13 +10162,13 @@
         <v>98</v>
       </c>
       <c r="AW32" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="AX32" s="1">
-        <v>44970</v>
+        <v>44955</v>
       </c>
       <c r="AY32" s="1">
-        <v>44968</v>
+        <v>44953</v>
       </c>
       <c r="AZ32" t="s">
         <v>107</v>
@@ -10021,10 +10189,10 @@
         <v>147</v>
       </c>
       <c r="BF32" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="BG32" s="1">
-        <v>30623</v>
+        <v>40075</v>
       </c>
       <c r="BH32" t="s">
         <v>101</v>
@@ -10036,16 +10204,16 @@
         <v>101</v>
       </c>
       <c r="BL32" s="1">
-        <v>45019</v>
+        <v>45026</v>
       </c>
       <c r="BM32" t="s">
-        <v>284</v>
+        <v>473</v>
       </c>
       <c r="BN32" t="s">
         <v>310</v>
       </c>
       <c r="BO32" s="1">
-        <v>44971</v>
+        <v>44957</v>
       </c>
       <c r="BP32" t="s">
         <v>286</v>
@@ -10060,13 +10228,13 @@
         <v>101</v>
       </c>
       <c r="BT32" t="s">
-        <v>426</v>
+        <v>169</v>
       </c>
       <c r="BU32" t="s">
         <v>117</v>
       </c>
       <c r="BV32" t="s">
-        <v>288</v>
+        <v>311</v>
       </c>
       <c r="BW32" t="s">
         <v>96</v>
@@ -10075,7 +10243,7 @@
         <v>118</v>
       </c>
       <c r="BY32" t="s">
-        <v>119</v>
+        <v>214</v>
       </c>
       <c r="BZ32" t="s">
         <v>96</v>
@@ -10084,7 +10252,7 @@
         <v>118</v>
       </c>
       <c r="CB32" t="s">
-        <v>119</v>
+        <v>214</v>
       </c>
       <c r="CC32" t="s">
         <v>118</v>
@@ -10093,7 +10261,7 @@
         <v>119</v>
       </c>
       <c r="CE32">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:83" x14ac:dyDescent="0.2">
@@ -10101,40 +10269,40 @@
         <v>83</v>
       </c>
       <c r="B33" s="1">
-        <v>45016</v>
+        <v>44966</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
+        <v>179</v>
       </c>
       <c r="D33" t="s">
         <v>85</v>
       </c>
       <c r="E33" t="s">
-        <v>258</v>
+        <v>380</v>
       </c>
       <c r="F33" t="s">
-        <v>259</v>
+        <v>87</v>
       </c>
       <c r="G33" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="H33" t="s">
-        <v>101</v>
+        <v>475</v>
       </c>
       <c r="I33" t="s">
-        <v>472</v>
+        <v>231</v>
       </c>
       <c r="J33" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="K33" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="L33" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="M33" t="s">
-        <v>180</v>
+        <v>478</v>
       </c>
       <c r="N33" t="s">
         <v>94</v>
@@ -10158,31 +10326,31 @@
         <v>99</v>
       </c>
       <c r="U33" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="V33" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="W33" t="s">
-        <v>235</v>
+        <v>101</v>
       </c>
       <c r="X33" t="s">
         <v>101</v>
       </c>
       <c r="Y33" t="s">
-        <v>101</v>
+        <v>479</v>
       </c>
       <c r="Z33" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="AA33" t="s">
-        <v>266</v>
+        <v>481</v>
       </c>
       <c r="AB33" t="s">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="AC33" t="s">
-        <v>267</v>
+        <v>197</v>
       </c>
       <c r="AD33" t="s">
         <v>84</v>
@@ -10230,7 +10398,7 @@
         <v>94</v>
       </c>
       <c r="AT33" t="s">
-        <v>179</v>
+        <v>94</v>
       </c>
       <c r="AU33" t="s">
         <v>95</v>
@@ -10242,13 +10410,13 @@
         <v>99</v>
       </c>
       <c r="AX33" s="1">
-        <v>44990</v>
+        <v>44963</v>
       </c>
       <c r="AY33" s="1">
-        <v>44962</v>
+        <v>44961</v>
       </c>
       <c r="AZ33" t="s">
-        <v>179</v>
+        <v>107</v>
       </c>
       <c r="BA33" t="s">
         <v>100</v>
@@ -10266,10 +10434,10 @@
         <v>147</v>
       </c>
       <c r="BF33" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="BG33" s="1">
-        <v>41326</v>
+        <v>29409</v>
       </c>
       <c r="BH33" t="s">
         <v>101</v>
@@ -10281,19 +10449,19 @@
         <v>101</v>
       </c>
       <c r="BL33" s="1">
-        <v>45019</v>
+        <v>45026</v>
       </c>
       <c r="BM33" t="s">
-        <v>269</v>
+        <v>483</v>
       </c>
       <c r="BN33" t="s">
-        <v>270</v>
+        <v>390</v>
       </c>
       <c r="BO33" s="1">
-        <v>45016</v>
+        <v>44966</v>
       </c>
       <c r="BP33" t="s">
-        <v>271</v>
+        <v>391</v>
       </c>
       <c r="BQ33" t="s">
         <v>101</v>
@@ -10305,13 +10473,13 @@
         <v>101</v>
       </c>
       <c r="BT33" t="s">
-        <v>116</v>
+        <v>169</v>
       </c>
       <c r="BU33" t="s">
         <v>117</v>
       </c>
       <c r="BV33" t="s">
-        <v>272</v>
+        <v>392</v>
       </c>
       <c r="BW33" t="s">
         <v>96</v>
@@ -10338,7 +10506,7 @@
         <v>119</v>
       </c>
       <c r="CE33">
-        <v>40</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:83" x14ac:dyDescent="0.2">
@@ -10346,40 +10514,40 @@
         <v>83</v>
       </c>
       <c r="B34" s="1">
-        <v>44971</v>
+        <v>44956</v>
       </c>
       <c r="C34" t="s">
-        <v>84</v>
+        <v>179</v>
       </c>
       <c r="D34" t="s">
         <v>85</v>
       </c>
       <c r="E34" t="s">
-        <v>228</v>
+        <v>273</v>
       </c>
       <c r="F34" t="s">
-        <v>87</v>
+        <v>484</v>
       </c>
       <c r="G34" t="s">
-        <v>399</v>
+        <v>485</v>
       </c>
       <c r="H34" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="I34" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="J34" t="s">
-        <v>292</v>
+        <v>487</v>
       </c>
       <c r="K34" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="L34" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="M34" t="s">
-        <v>109</v>
+        <v>220</v>
       </c>
       <c r="N34" t="s">
         <v>94</v>
@@ -10391,7 +10559,7 @@
         <v>96</v>
       </c>
       <c r="Q34" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="R34" t="s">
         <v>95</v>
@@ -10400,25 +10568,25 @@
         <v>98</v>
       </c>
       <c r="T34" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="U34" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="V34" t="s">
-        <v>235</v>
+        <v>101</v>
       </c>
       <c r="W34" t="s">
-        <v>101</v>
+        <v>489</v>
       </c>
       <c r="X34" t="s">
         <v>101</v>
       </c>
       <c r="Y34" t="s">
-        <v>479</v>
+        <v>101</v>
       </c>
       <c r="Z34" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="AA34" t="s">
         <v>104</v>
@@ -10427,13 +10595,13 @@
         <v>145</v>
       </c>
       <c r="AC34" t="s">
-        <v>146</v>
+        <v>282</v>
       </c>
       <c r="AD34" t="s">
         <v>84</v>
       </c>
       <c r="AF34" t="s">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="AG34" t="s">
         <v>100</v>
@@ -10448,7 +10616,7 @@
         <v>100</v>
       </c>
       <c r="AK34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AL34" t="s">
         <v>101</v>
@@ -10460,7 +10628,7 @@
         <v>100</v>
       </c>
       <c r="AO34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AP34" t="s">
         <v>100</v>
@@ -10475,7 +10643,7 @@
         <v>94</v>
       </c>
       <c r="AT34" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AU34" t="s">
         <v>95</v>
@@ -10484,13 +10652,13 @@
         <v>98</v>
       </c>
       <c r="AW34" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="AX34" s="1">
-        <v>44971</v>
+        <v>44956</v>
       </c>
       <c r="AY34" s="1">
-        <v>44967</v>
+        <v>44956</v>
       </c>
       <c r="AZ34" t="s">
         <v>107</v>
@@ -10511,10 +10679,10 @@
         <v>147</v>
       </c>
       <c r="BF34" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="BG34" s="1">
-        <v>42341</v>
+        <v>34837</v>
       </c>
       <c r="BH34" t="s">
         <v>101</v>
@@ -10526,19 +10694,19 @@
         <v>101</v>
       </c>
       <c r="BL34" s="1">
-        <v>45019</v>
+        <v>45026</v>
       </c>
       <c r="BM34" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="BN34" t="s">
-        <v>483</v>
+        <v>310</v>
       </c>
       <c r="BO34" s="1">
-        <v>44977</v>
+        <v>44967</v>
       </c>
       <c r="BP34" t="s">
-        <v>241</v>
+        <v>286</v>
       </c>
       <c r="BQ34" t="s">
         <v>101</v>
@@ -10550,13 +10718,13 @@
         <v>101</v>
       </c>
       <c r="BT34" t="s">
-        <v>152</v>
+        <v>493</v>
       </c>
       <c r="BU34" t="s">
         <v>117</v>
       </c>
       <c r="BV34" t="s">
-        <v>242</v>
+        <v>494</v>
       </c>
       <c r="BW34" t="s">
         <v>96</v>
@@ -10565,7 +10733,7 @@
         <v>118</v>
       </c>
       <c r="BY34" t="s">
-        <v>119</v>
+        <v>214</v>
       </c>
       <c r="BZ34" t="s">
         <v>96</v>
@@ -10574,7 +10742,7 @@
         <v>118</v>
       </c>
       <c r="CB34" t="s">
-        <v>119</v>
+        <v>214</v>
       </c>
       <c r="CC34" t="s">
         <v>118</v>
@@ -10583,7 +10751,7 @@
         <v>119</v>
       </c>
       <c r="CE34">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:83" x14ac:dyDescent="0.2">
@@ -10591,40 +10759,40 @@
         <v>83</v>
       </c>
       <c r="B35" s="1">
-        <v>44975</v>
+        <v>44957</v>
       </c>
       <c r="C35" t="s">
-        <v>109</v>
+        <v>179</v>
       </c>
       <c r="D35" t="s">
         <v>85</v>
       </c>
       <c r="E35" t="s">
+        <v>273</v>
+      </c>
+      <c r="F35" t="s">
         <v>484</v>
       </c>
-      <c r="F35" t="s">
-        <v>87</v>
-      </c>
       <c r="G35" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="H35" t="s">
-        <v>486</v>
+        <v>203</v>
       </c>
       <c r="I35" t="s">
-        <v>487</v>
+        <v>246</v>
       </c>
       <c r="J35" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="K35" t="s">
         <v>138</v>
       </c>
       <c r="L35" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="M35" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="N35" t="s">
         <v>94</v>
@@ -10636,49 +10804,49 @@
         <v>96</v>
       </c>
       <c r="Q35" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="R35" t="s">
         <v>95</v>
       </c>
       <c r="S35" t="s">
-        <v>439</v>
+        <v>98</v>
       </c>
       <c r="T35" t="s">
-        <v>491</v>
+        <v>99</v>
       </c>
       <c r="U35" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="V35" t="s">
-        <v>492</v>
+        <v>101</v>
       </c>
       <c r="W35" t="s">
-        <v>101</v>
+        <v>499</v>
       </c>
       <c r="X35" t="s">
         <v>101</v>
       </c>
       <c r="Y35" t="s">
-        <v>351</v>
+        <v>101</v>
       </c>
       <c r="Z35" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="AA35" t="s">
-        <v>281</v>
+        <v>104</v>
       </c>
       <c r="AB35" t="s">
-        <v>494</v>
+        <v>145</v>
       </c>
       <c r="AC35" t="s">
-        <v>101</v>
+        <v>282</v>
       </c>
       <c r="AD35" t="s">
         <v>84</v>
       </c>
       <c r="AF35" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="AG35" t="s">
         <v>100</v>
@@ -10693,7 +10861,7 @@
         <v>100</v>
       </c>
       <c r="AK35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AL35" t="s">
         <v>101</v>
@@ -10705,7 +10873,7 @@
         <v>100</v>
       </c>
       <c r="AO35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AP35" t="s">
         <v>100</v>
@@ -10720,7 +10888,7 @@
         <v>94</v>
       </c>
       <c r="AT35" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AU35" t="s">
         <v>95</v>
@@ -10732,10 +10900,10 @@
         <v>99</v>
       </c>
       <c r="AX35" s="1">
-        <v>44975</v>
+        <v>44957</v>
       </c>
       <c r="AY35" s="1">
-        <v>44975</v>
+        <v>44955</v>
       </c>
       <c r="AZ35" t="s">
         <v>107</v>
@@ -10756,10 +10924,10 @@
         <v>147</v>
       </c>
       <c r="BF35" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="BG35" s="1">
-        <v>35484</v>
+        <v>33287</v>
       </c>
       <c r="BH35" t="s">
         <v>101</v>
@@ -10771,16 +10939,19 @@
         <v>101</v>
       </c>
       <c r="BL35" s="1">
-        <v>45019</v>
+        <v>45026</v>
       </c>
       <c r="BM35" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="BN35" t="s">
-        <v>497</v>
+        <v>310</v>
       </c>
       <c r="BO35" s="1">
-        <v>44984</v>
+        <v>44967</v>
+      </c>
+      <c r="BP35" t="s">
+        <v>286</v>
       </c>
       <c r="BQ35" t="s">
         <v>101</v>
@@ -10792,19 +10963,22 @@
         <v>101</v>
       </c>
       <c r="BT35" t="s">
-        <v>426</v>
+        <v>493</v>
       </c>
       <c r="BU35" t="s">
         <v>117</v>
       </c>
+      <c r="BV35" t="s">
+        <v>494</v>
+      </c>
       <c r="BW35" t="s">
         <v>96</v>
       </c>
       <c r="BX35" t="s">
-        <v>498</v>
+        <v>118</v>
       </c>
       <c r="BY35" t="s">
-        <v>499</v>
+        <v>119</v>
       </c>
       <c r="BZ35" t="s">
         <v>96</v>
@@ -10815,8 +10989,14 @@
       <c r="CB35" t="s">
         <v>119</v>
       </c>
+      <c r="CC35" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD35" t="s">
+        <v>119</v>
+      </c>
       <c r="CE35">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:83" x14ac:dyDescent="0.2">
@@ -10824,40 +11004,40 @@
         <v>83</v>
       </c>
       <c r="B36" s="1">
-        <v>44977</v>
+        <v>44959</v>
       </c>
       <c r="C36" t="s">
-        <v>109</v>
+        <v>179</v>
       </c>
       <c r="D36" t="s">
         <v>85</v>
       </c>
       <c r="E36" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="F36" t="s">
-        <v>87</v>
+        <v>188</v>
       </c>
       <c r="G36" t="s">
-        <v>399</v>
+        <v>203</v>
       </c>
       <c r="H36" t="s">
         <v>88</v>
       </c>
       <c r="I36" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="J36" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="K36" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="L36" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="M36" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="N36" t="s">
         <v>94</v>
@@ -10869,7 +11049,7 @@
         <v>96</v>
       </c>
       <c r="Q36" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="R36" t="s">
         <v>95</v>
@@ -10884,7 +11064,7 @@
         <v>94</v>
       </c>
       <c r="V36" t="s">
-        <v>141</v>
+        <v>347</v>
       </c>
       <c r="W36" t="s">
         <v>101</v>
@@ -10893,25 +11073,25 @@
         <v>101</v>
       </c>
       <c r="Y36" t="s">
-        <v>141</v>
+        <v>325</v>
       </c>
       <c r="Z36" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="AA36" t="s">
-        <v>504</v>
+        <v>104</v>
       </c>
       <c r="AB36" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="AC36" t="s">
-        <v>146</v>
+        <v>507</v>
       </c>
       <c r="AD36" t="s">
         <v>84</v>
       </c>
       <c r="AF36" t="s">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="AG36" t="s">
         <v>100</v>
@@ -10926,7 +11106,7 @@
         <v>100</v>
       </c>
       <c r="AK36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AL36" t="s">
         <v>101</v>
@@ -10938,7 +11118,7 @@
         <v>100</v>
       </c>
       <c r="AO36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AP36" t="s">
         <v>100</v>
@@ -10965,10 +11145,10 @@
         <v>99</v>
       </c>
       <c r="AX36" s="1">
-        <v>44977</v>
+        <v>44959</v>
       </c>
       <c r="AY36" s="1">
-        <v>44975</v>
+        <v>44958</v>
       </c>
       <c r="AZ36" t="s">
         <v>107</v>
@@ -10989,10 +11169,10 @@
         <v>147</v>
       </c>
       <c r="BF36" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="BG36" s="1">
-        <v>36543</v>
+        <v>38736</v>
       </c>
       <c r="BH36" t="s">
         <v>101</v>
@@ -11004,19 +11184,19 @@
         <v>101</v>
       </c>
       <c r="BL36" s="1">
-        <v>45019</v>
+        <v>45026</v>
       </c>
       <c r="BM36" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="BN36" t="s">
-        <v>507</v>
+        <v>254</v>
       </c>
       <c r="BO36" s="1">
-        <v>44978</v>
+        <v>44963</v>
       </c>
       <c r="BP36" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="BQ36" t="s">
         <v>101</v>
@@ -11028,13 +11208,13 @@
         <v>101</v>
       </c>
       <c r="BT36" t="s">
-        <v>426</v>
+        <v>169</v>
       </c>
       <c r="BU36" t="s">
         <v>117</v>
       </c>
       <c r="BV36" t="s">
-        <v>153</v>
+        <v>403</v>
       </c>
       <c r="BW36" t="s">
         <v>96</v>
@@ -11061,7 +11241,7 @@
         <v>119</v>
       </c>
       <c r="CE36">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:83" x14ac:dyDescent="0.2">
@@ -11069,40 +11249,40 @@
         <v>83</v>
       </c>
       <c r="B37" s="1">
-        <v>44974</v>
+        <v>44968</v>
       </c>
       <c r="C37" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="D37" t="s">
         <v>85</v>
       </c>
       <c r="E37" t="s">
-        <v>508</v>
+        <v>273</v>
       </c>
       <c r="F37" t="s">
-        <v>87</v>
+        <v>484</v>
       </c>
       <c r="G37" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H37" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="I37" t="s">
-        <v>464</v>
+        <v>124</v>
       </c>
       <c r="J37" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="K37" t="s">
         <v>138</v>
       </c>
       <c r="L37" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M37" t="s">
-        <v>513</v>
+        <v>234</v>
       </c>
       <c r="N37" t="s">
         <v>94</v>
@@ -11114,7 +11294,7 @@
         <v>96</v>
       </c>
       <c r="Q37" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="R37" t="s">
         <v>95</v>
@@ -11126,31 +11306,31 @@
         <v>99</v>
       </c>
       <c r="U37" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="V37" t="s">
-        <v>235</v>
+        <v>101</v>
       </c>
       <c r="W37" t="s">
-        <v>101</v>
+        <v>347</v>
       </c>
       <c r="X37" t="s">
         <v>101</v>
       </c>
       <c r="Y37" t="s">
-        <v>351</v>
+        <v>101</v>
       </c>
       <c r="Z37" t="s">
         <v>514</v>
       </c>
       <c r="AA37" t="s">
-        <v>104</v>
+        <v>515</v>
       </c>
       <c r="AB37" t="s">
         <v>145</v>
       </c>
       <c r="AC37" t="s">
-        <v>342</v>
+        <v>442</v>
       </c>
       <c r="AD37" t="s">
         <v>84</v>
@@ -11171,7 +11351,7 @@
         <v>100</v>
       </c>
       <c r="AK37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AL37" t="s">
         <v>101</v>
@@ -11183,7 +11363,7 @@
         <v>100</v>
       </c>
       <c r="AO37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AP37" t="s">
         <v>100</v>
@@ -11207,13 +11387,13 @@
         <v>98</v>
       </c>
       <c r="AW37" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="AX37" s="1">
-        <v>44974</v>
+        <v>44968</v>
       </c>
       <c r="AY37" s="1">
-        <v>44970</v>
+        <v>44966</v>
       </c>
       <c r="AZ37" t="s">
         <v>107</v>
@@ -11234,10 +11414,10 @@
         <v>147</v>
       </c>
       <c r="BF37" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="BG37" s="1">
-        <v>15675</v>
+        <v>35799</v>
       </c>
       <c r="BH37" t="s">
         <v>101</v>
@@ -11249,19 +11429,19 @@
         <v>101</v>
       </c>
       <c r="BL37" s="1">
-        <v>45019</v>
+        <v>45026</v>
       </c>
       <c r="BM37" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="BN37" t="s">
-        <v>517</v>
+        <v>310</v>
       </c>
       <c r="BO37" s="1">
-        <v>44977</v>
+        <v>44971</v>
       </c>
       <c r="BP37" t="s">
-        <v>518</v>
+        <v>286</v>
       </c>
       <c r="BQ37" t="s">
         <v>101</v>
@@ -11273,13 +11453,13 @@
         <v>101</v>
       </c>
       <c r="BT37" t="s">
-        <v>152</v>
+        <v>493</v>
       </c>
       <c r="BU37" t="s">
         <v>117</v>
       </c>
       <c r="BV37" t="s">
-        <v>519</v>
+        <v>494</v>
       </c>
       <c r="BW37" t="s">
         <v>96</v>
@@ -11297,7 +11477,7 @@
         <v>118</v>
       </c>
       <c r="CB37" t="s">
-        <v>214</v>
+        <v>119</v>
       </c>
       <c r="CC37" t="s">
         <v>118</v>
@@ -11306,7 +11486,7 @@
         <v>119</v>
       </c>
       <c r="CE37">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:83" x14ac:dyDescent="0.2">
@@ -11314,40 +11494,40 @@
         <v>83</v>
       </c>
       <c r="B38" s="1">
-        <v>44982</v>
+        <v>44975</v>
       </c>
       <c r="C38" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="D38" t="s">
         <v>85</v>
       </c>
       <c r="E38" t="s">
-        <v>273</v>
+        <v>170</v>
       </c>
       <c r="F38" t="s">
-        <v>180</v>
+        <v>87</v>
       </c>
       <c r="G38" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="H38" t="s">
-        <v>521</v>
+        <v>101</v>
       </c>
       <c r="I38" t="s">
-        <v>522</v>
+        <v>124</v>
       </c>
       <c r="J38" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="K38" t="s">
         <v>138</v>
       </c>
       <c r="L38" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="M38" t="s">
-        <v>525</v>
+        <v>158</v>
       </c>
       <c r="N38" t="s">
         <v>94</v>
@@ -11359,7 +11539,7 @@
         <v>96</v>
       </c>
       <c r="Q38" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="R38" t="s">
         <v>95</v>
@@ -11368,40 +11548,40 @@
         <v>98</v>
       </c>
       <c r="T38" t="s">
-        <v>99</v>
+        <v>521</v>
       </c>
       <c r="U38" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="V38" t="s">
         <v>101</v>
       </c>
       <c r="W38" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="X38" t="s">
-        <v>101</v>
+        <v>522</v>
       </c>
       <c r="Y38" t="s">
         <v>101</v>
       </c>
       <c r="Z38" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="AA38" t="s">
         <v>104</v>
       </c>
       <c r="AB38" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="AC38" t="s">
-        <v>282</v>
+        <v>129</v>
       </c>
       <c r="AD38" t="s">
         <v>84</v>
       </c>
       <c r="AF38" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="AG38" t="s">
         <v>100</v>
@@ -11416,7 +11596,7 @@
         <v>100</v>
       </c>
       <c r="AK38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AL38" t="s">
         <v>101</v>
@@ -11428,7 +11608,7 @@
         <v>100</v>
       </c>
       <c r="AO38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AP38" t="s">
         <v>100</v>
@@ -11443,7 +11623,7 @@
         <v>94</v>
       </c>
       <c r="AT38" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AU38" t="s">
         <v>95</v>
@@ -11452,22 +11632,22 @@
         <v>98</v>
       </c>
       <c r="AW38" t="s">
-        <v>99</v>
+        <v>521</v>
       </c>
       <c r="AX38" s="1">
-        <v>44982</v>
+        <v>44973</v>
       </c>
       <c r="AY38" s="1">
-        <v>44982</v>
+        <v>44966</v>
       </c>
       <c r="AZ38" t="s">
         <v>107</v>
       </c>
       <c r="BA38" t="s">
-        <v>100</v>
-      </c>
-      <c r="BB38" t="s">
-        <v>108</v>
+        <v>94</v>
+      </c>
+      <c r="BB38" s="1">
+        <v>44973</v>
       </c>
       <c r="BC38" t="s">
         <v>94</v>
@@ -11479,10 +11659,10 @@
         <v>147</v>
       </c>
       <c r="BF38" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="BG38" s="1">
-        <v>31601</v>
+        <v>32631</v>
       </c>
       <c r="BH38" t="s">
         <v>101</v>
@@ -11494,19 +11674,19 @@
         <v>101</v>
       </c>
       <c r="BL38" s="1">
-        <v>45019</v>
+        <v>45026</v>
       </c>
       <c r="BM38" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="BN38" t="s">
-        <v>310</v>
+        <v>526</v>
       </c>
       <c r="BO38" s="1">
-        <v>44987</v>
+        <v>44977</v>
       </c>
       <c r="BP38" t="s">
-        <v>286</v>
+        <v>184</v>
       </c>
       <c r="BQ38" t="s">
         <v>101</v>
@@ -11518,13 +11698,13 @@
         <v>101</v>
       </c>
       <c r="BT38" t="s">
-        <v>287</v>
+        <v>493</v>
       </c>
       <c r="BU38" t="s">
         <v>117</v>
       </c>
       <c r="BV38" t="s">
-        <v>311</v>
+        <v>185</v>
       </c>
       <c r="BW38" t="s">
         <v>96</v>
@@ -11533,7 +11713,7 @@
         <v>118</v>
       </c>
       <c r="BY38" t="s">
-        <v>119</v>
+        <v>527</v>
       </c>
       <c r="BZ38" t="s">
         <v>96</v>
@@ -11542,7 +11722,7 @@
         <v>118</v>
       </c>
       <c r="CB38" t="s">
-        <v>119</v>
+        <v>527</v>
       </c>
       <c r="CC38" t="s">
         <v>118</v>
@@ -11551,7 +11731,7 @@
         <v>119</v>
       </c>
       <c r="CE38">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:83" x14ac:dyDescent="0.2">
@@ -11559,52 +11739,52 @@
         <v>83</v>
       </c>
       <c r="B39" s="1">
-        <v>44984</v>
+        <v>44970</v>
       </c>
       <c r="C39" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="D39" t="s">
         <v>85</v>
       </c>
       <c r="E39" t="s">
-        <v>86</v>
+        <v>273</v>
       </c>
       <c r="F39" t="s">
         <v>87</v>
       </c>
       <c r="G39" t="s">
+        <v>495</v>
+      </c>
+      <c r="H39" t="s">
+        <v>203</v>
+      </c>
+      <c r="I39" t="s">
+        <v>528</v>
+      </c>
+      <c r="J39" t="s">
         <v>529</v>
       </c>
-      <c r="H39" t="s">
-        <v>390</v>
-      </c>
-      <c r="I39" t="s">
+      <c r="K39" t="s">
+        <v>138</v>
+      </c>
+      <c r="L39" t="s">
         <v>530</v>
       </c>
-      <c r="J39" t="s">
-        <v>362</v>
-      </c>
-      <c r="K39" t="s">
-        <v>218</v>
-      </c>
-      <c r="L39" t="s">
+      <c r="M39" t="s">
         <v>531</v>
       </c>
-      <c r="M39" t="s">
-        <v>264</v>
-      </c>
       <c r="N39" t="s">
         <v>94</v>
       </c>
       <c r="O39" t="s">
-        <v>221</v>
+        <v>95</v>
       </c>
       <c r="P39" t="s">
-        <v>222</v>
+        <v>96</v>
       </c>
       <c r="Q39" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="R39" t="s">
         <v>95</v>
@@ -11622,7 +11802,7 @@
         <v>101</v>
       </c>
       <c r="W39" t="s">
-        <v>467</v>
+        <v>532</v>
       </c>
       <c r="X39" t="s">
         <v>101</v>
@@ -11631,16 +11811,16 @@
         <v>101</v>
       </c>
       <c r="Z39" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AA39" t="s">
-        <v>104</v>
+        <v>534</v>
       </c>
       <c r="AB39" t="s">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="AC39" t="s">
-        <v>129</v>
+        <v>282</v>
       </c>
       <c r="AD39" t="s">
         <v>84</v>
@@ -11661,7 +11841,7 @@
         <v>100</v>
       </c>
       <c r="AK39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AL39" t="s">
         <v>101</v>
@@ -11673,7 +11853,7 @@
         <v>100</v>
       </c>
       <c r="AO39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AP39" t="s">
         <v>100</v>
@@ -11700,10 +11880,10 @@
         <v>99</v>
       </c>
       <c r="AX39" s="1">
-        <v>44984</v>
+        <v>44970</v>
       </c>
       <c r="AY39" s="1">
-        <v>44981</v>
+        <v>44968</v>
       </c>
       <c r="AZ39" t="s">
         <v>107</v>
@@ -11724,10 +11904,10 @@
         <v>147</v>
       </c>
       <c r="BF39" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="BG39" s="1">
-        <v>41687</v>
+        <v>30623</v>
       </c>
       <c r="BH39" t="s">
         <v>101</v>
@@ -11739,19 +11919,19 @@
         <v>101</v>
       </c>
       <c r="BL39" s="1">
-        <v>45019</v>
+        <v>45026</v>
       </c>
       <c r="BM39" t="s">
-        <v>534</v>
+        <v>284</v>
       </c>
       <c r="BN39" t="s">
-        <v>114</v>
+        <v>310</v>
       </c>
       <c r="BO39" s="1">
-        <v>44985</v>
+        <v>44971</v>
       </c>
       <c r="BP39" t="s">
-        <v>115</v>
+        <v>286</v>
       </c>
       <c r="BQ39" t="s">
         <v>101</v>
@@ -11763,13 +11943,13 @@
         <v>101</v>
       </c>
       <c r="BT39" t="s">
-        <v>426</v>
+        <v>493</v>
       </c>
       <c r="BU39" t="s">
         <v>117</v>
       </c>
       <c r="BV39" t="s">
-        <v>112</v>
+        <v>288</v>
       </c>
       <c r="BW39" t="s">
         <v>96</v>
@@ -11796,7 +11976,7 @@
         <v>119</v>
       </c>
       <c r="CE39">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:83" x14ac:dyDescent="0.2">
@@ -11804,19 +11984,19 @@
         <v>83</v>
       </c>
       <c r="B40" s="1">
-        <v>44979</v>
+        <v>45016</v>
       </c>
       <c r="C40" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="D40" t="s">
         <v>85</v>
       </c>
       <c r="E40" t="s">
-        <v>535</v>
+        <v>258</v>
       </c>
       <c r="F40" t="s">
-        <v>87</v>
+        <v>259</v>
       </c>
       <c r="G40" t="s">
         <v>536</v>
@@ -11831,13 +12011,13 @@
         <v>538</v>
       </c>
       <c r="K40" t="s">
-        <v>304</v>
+        <v>91</v>
       </c>
       <c r="L40" t="s">
         <v>539</v>
       </c>
       <c r="M40" t="s">
-        <v>107</v>
+        <v>180</v>
       </c>
       <c r="N40" t="s">
         <v>94</v>
@@ -11861,37 +12041,37 @@
         <v>99</v>
       </c>
       <c r="U40" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="V40" t="s">
+        <v>101</v>
+      </c>
+      <c r="W40" t="s">
+        <v>235</v>
+      </c>
+      <c r="X40" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z40" t="s">
         <v>540</v>
       </c>
-      <c r="W40" t="s">
-        <v>101</v>
-      </c>
-      <c r="X40" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y40" t="s">
-        <v>351</v>
-      </c>
-      <c r="Z40" t="s">
-        <v>541</v>
-      </c>
       <c r="AA40" t="s">
-        <v>104</v>
+        <v>266</v>
       </c>
       <c r="AB40" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="AC40" t="s">
-        <v>197</v>
+        <v>267</v>
       </c>
       <c r="AD40" t="s">
         <v>84</v>
       </c>
       <c r="AF40" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="AG40" t="s">
         <v>100</v>
@@ -11933,7 +12113,7 @@
         <v>94</v>
       </c>
       <c r="AT40" t="s">
-        <v>94</v>
+        <v>179</v>
       </c>
       <c r="AU40" t="s">
         <v>95</v>
@@ -11945,13 +12125,13 @@
         <v>99</v>
       </c>
       <c r="AX40" s="1">
-        <v>44979</v>
+        <v>44990</v>
       </c>
       <c r="AY40" s="1">
-        <v>44978</v>
+        <v>44962</v>
       </c>
       <c r="AZ40" t="s">
-        <v>107</v>
+        <v>179</v>
       </c>
       <c r="BA40" t="s">
         <v>100</v>
@@ -11969,10 +12149,10 @@
         <v>147</v>
       </c>
       <c r="BF40" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="BG40" s="1">
-        <v>43412</v>
+        <v>41326</v>
       </c>
       <c r="BH40" t="s">
         <v>101</v>
@@ -11984,19 +12164,19 @@
         <v>101</v>
       </c>
       <c r="BL40" s="1">
-        <v>45019</v>
+        <v>45026</v>
       </c>
       <c r="BM40" t="s">
-        <v>543</v>
+        <v>269</v>
       </c>
       <c r="BN40" t="s">
-        <v>544</v>
+        <v>270</v>
       </c>
       <c r="BO40" s="1">
-        <v>44979</v>
+        <v>45016</v>
       </c>
       <c r="BP40" t="s">
-        <v>545</v>
+        <v>271</v>
       </c>
       <c r="BQ40" t="s">
         <v>101</v>
@@ -12008,13 +12188,13 @@
         <v>101</v>
       </c>
       <c r="BT40" t="s">
-        <v>546</v>
+        <v>116</v>
       </c>
       <c r="BU40" t="s">
         <v>117</v>
       </c>
       <c r="BV40" t="s">
-        <v>547</v>
+        <v>272</v>
       </c>
       <c r="BW40" t="s">
         <v>96</v>
@@ -12041,7 +12221,7 @@
         <v>119</v>
       </c>
       <c r="CE40">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:83" x14ac:dyDescent="0.2">
@@ -12049,40 +12229,40 @@
         <v>83</v>
       </c>
       <c r="B41" s="1">
-        <v>44981</v>
+        <v>44971</v>
       </c>
       <c r="C41" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="D41" t="s">
         <v>85</v>
       </c>
       <c r="E41" t="s">
-        <v>548</v>
+        <v>228</v>
       </c>
       <c r="F41" t="s">
-        <v>513</v>
+        <v>87</v>
       </c>
       <c r="G41" t="s">
-        <v>325</v>
+        <v>466</v>
       </c>
       <c r="H41" t="s">
-        <v>549</v>
+        <v>88</v>
       </c>
       <c r="I41" t="s">
-        <v>123</v>
+        <v>542</v>
       </c>
       <c r="J41" t="s">
-        <v>246</v>
+        <v>292</v>
       </c>
       <c r="K41" t="s">
         <v>91</v>
       </c>
       <c r="L41" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="M41" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="N41" t="s">
         <v>94</v>
@@ -12118,25 +12298,25 @@
         <v>101</v>
       </c>
       <c r="Y41" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="Z41" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="AA41" t="s">
         <v>104</v>
       </c>
       <c r="AB41" t="s">
-        <v>553</v>
+        <v>145</v>
       </c>
       <c r="AC41" t="s">
-        <v>554</v>
+        <v>146</v>
       </c>
       <c r="AD41" t="s">
         <v>84</v>
       </c>
       <c r="AF41" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AG41" t="s">
         <v>100</v>
@@ -12190,10 +12370,10 @@
         <v>99</v>
       </c>
       <c r="AX41" s="1">
-        <v>44979</v>
+        <v>44971</v>
       </c>
       <c r="AY41" s="1">
-        <v>44977</v>
+        <v>44967</v>
       </c>
       <c r="AZ41" t="s">
         <v>107</v>
@@ -12214,10 +12394,10 @@
         <v>147</v>
       </c>
       <c r="BF41" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="BG41" s="1">
-        <v>39245</v>
+        <v>42341</v>
       </c>
       <c r="BH41" t="s">
         <v>101</v>
@@ -12229,16 +12409,19 @@
         <v>101</v>
       </c>
       <c r="BL41" s="1">
-        <v>45019</v>
+        <v>45026</v>
       </c>
       <c r="BM41" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="BN41" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="BO41" s="1">
-        <v>44981</v>
+        <v>44977</v>
+      </c>
+      <c r="BP41" t="s">
+        <v>241</v>
       </c>
       <c r="BQ41" t="s">
         <v>101</v>
@@ -12250,11 +12433,14 @@
         <v>101</v>
       </c>
       <c r="BT41" t="s">
-        <v>426</v>
+        <v>152</v>
       </c>
       <c r="BU41" t="s">
         <v>117</v>
       </c>
+      <c r="BV41" t="s">
+        <v>242</v>
+      </c>
       <c r="BW41" t="s">
         <v>96</v>
       </c>
@@ -12273,8 +12459,14 @@
       <c r="CB41" t="s">
         <v>119</v>
       </c>
+      <c r="CC41" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD41" t="s">
+        <v>119</v>
+      </c>
       <c r="CE41">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:83" x14ac:dyDescent="0.2">
@@ -12282,40 +12474,40 @@
         <v>83</v>
       </c>
       <c r="B42" s="1">
-        <v>44989</v>
+        <v>44975</v>
       </c>
       <c r="C42" t="s">
-        <v>264</v>
+        <v>109</v>
       </c>
       <c r="D42" t="s">
         <v>85</v>
       </c>
       <c r="E42" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="F42" t="s">
-        <v>559</v>
+        <v>87</v>
       </c>
       <c r="G42" t="s">
-        <v>203</v>
+        <v>550</v>
       </c>
       <c r="H42" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="I42" t="s">
-        <v>463</v>
+        <v>552</v>
       </c>
       <c r="J42" t="s">
-        <v>464</v>
+        <v>553</v>
       </c>
       <c r="K42" t="s">
         <v>138</v>
       </c>
       <c r="L42" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="M42" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="N42" t="s">
         <v>94</v>
@@ -12327,22 +12519,22 @@
         <v>96</v>
       </c>
       <c r="Q42" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="R42" t="s">
         <v>95</v>
       </c>
       <c r="S42" t="s">
-        <v>98</v>
+        <v>376</v>
       </c>
       <c r="T42" t="s">
-        <v>99</v>
+        <v>556</v>
       </c>
       <c r="U42" t="s">
         <v>94</v>
       </c>
       <c r="V42" t="s">
-        <v>492</v>
+        <v>557</v>
       </c>
       <c r="W42" t="s">
         <v>101</v>
@@ -12351,25 +12543,25 @@
         <v>101</v>
       </c>
       <c r="Y42" t="s">
-        <v>467</v>
+        <v>325</v>
       </c>
       <c r="Z42" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="AA42" t="s">
-        <v>104</v>
+        <v>281</v>
       </c>
       <c r="AB42" t="s">
-        <v>145</v>
+        <v>559</v>
       </c>
       <c r="AC42" t="s">
-        <v>197</v>
+        <v>101</v>
       </c>
       <c r="AD42" t="s">
         <v>84</v>
       </c>
       <c r="AF42" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="AG42" t="s">
         <v>100</v>
@@ -12384,7 +12576,7 @@
         <v>100</v>
       </c>
       <c r="AK42" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL42" t="s">
         <v>101</v>
@@ -12396,7 +12588,7 @@
         <v>100</v>
       </c>
       <c r="AO42" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AP42" t="s">
         <v>100</v>
@@ -12423,10 +12615,10 @@
         <v>99</v>
       </c>
       <c r="AX42" s="1">
-        <v>44988</v>
+        <v>44975</v>
       </c>
       <c r="AY42" s="1">
-        <v>44987</v>
+        <v>44975</v>
       </c>
       <c r="AZ42" t="s">
         <v>107</v>
@@ -12447,10 +12639,10 @@
         <v>147</v>
       </c>
       <c r="BF42" t="s">
-        <v>470</v>
+        <v>560</v>
       </c>
       <c r="BG42" s="1">
-        <v>14150</v>
+        <v>35484</v>
       </c>
       <c r="BH42" t="s">
         <v>101</v>
@@ -12462,16 +12654,16 @@
         <v>101</v>
       </c>
       <c r="BL42" s="1">
-        <v>45019</v>
+        <v>45026</v>
       </c>
       <c r="BM42" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="BN42" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="BO42" s="1">
-        <v>44989</v>
+        <v>44984</v>
       </c>
       <c r="BQ42" t="s">
         <v>101</v>
@@ -12483,7 +12675,7 @@
         <v>101</v>
       </c>
       <c r="BT42" t="s">
-        <v>426</v>
+        <v>493</v>
       </c>
       <c r="BU42" t="s">
         <v>117</v>
@@ -12492,10 +12684,10 @@
         <v>96</v>
       </c>
       <c r="BX42" t="s">
-        <v>118</v>
+        <v>563</v>
       </c>
       <c r="BY42" t="s">
-        <v>119</v>
+        <v>564</v>
       </c>
       <c r="BZ42" t="s">
         <v>96</v>
@@ -12507,7 +12699,7 @@
         <v>119</v>
       </c>
       <c r="CE42">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:83" x14ac:dyDescent="0.2">
@@ -12515,10 +12707,10 @@
         <v>83</v>
       </c>
       <c r="B43" s="1">
-        <v>44987</v>
+        <v>44977</v>
       </c>
       <c r="C43" t="s">
-        <v>264</v>
+        <v>109</v>
       </c>
       <c r="D43" t="s">
         <v>85</v>
@@ -12530,37 +12722,37 @@
         <v>87</v>
       </c>
       <c r="G43" t="s">
+        <v>466</v>
+      </c>
+      <c r="H43" t="s">
+        <v>88</v>
+      </c>
+      <c r="I43" t="s">
+        <v>565</v>
+      </c>
+      <c r="J43" t="s">
         <v>566</v>
       </c>
-      <c r="H43" t="s">
+      <c r="K43" t="s">
+        <v>138</v>
+      </c>
+      <c r="L43" t="s">
         <v>567</v>
       </c>
-      <c r="I43" t="s">
-        <v>568</v>
-      </c>
-      <c r="J43" t="s">
-        <v>569</v>
-      </c>
-      <c r="K43" t="s">
-        <v>218</v>
-      </c>
-      <c r="L43" t="s">
-        <v>570</v>
-      </c>
       <c r="M43" t="s">
-        <v>234</v>
+        <v>431</v>
       </c>
       <c r="N43" t="s">
         <v>94</v>
       </c>
       <c r="O43" t="s">
-        <v>221</v>
+        <v>95</v>
       </c>
       <c r="P43" t="s">
-        <v>222</v>
+        <v>96</v>
       </c>
       <c r="Q43" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="R43" t="s">
         <v>95</v>
@@ -12584,25 +12776,25 @@
         <v>101</v>
       </c>
       <c r="Y43" t="s">
-        <v>329</v>
+        <v>141</v>
       </c>
       <c r="Z43" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="AA43" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="AB43" t="s">
         <v>145</v>
       </c>
       <c r="AC43" t="s">
-        <v>573</v>
+        <v>146</v>
       </c>
       <c r="AD43" t="s">
         <v>84</v>
       </c>
       <c r="AF43" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="AG43" t="s">
         <v>100</v>
@@ -12617,7 +12809,7 @@
         <v>100</v>
       </c>
       <c r="AK43" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL43" t="s">
         <v>101</v>
@@ -12629,7 +12821,7 @@
         <v>100</v>
       </c>
       <c r="AO43" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AP43" t="s">
         <v>100</v>
@@ -12656,10 +12848,10 @@
         <v>99</v>
       </c>
       <c r="AX43" s="1">
-        <v>44987</v>
+        <v>44977</v>
       </c>
       <c r="AY43" s="1">
-        <v>44985</v>
+        <v>44975</v>
       </c>
       <c r="AZ43" t="s">
         <v>107</v>
@@ -12680,10 +12872,10 @@
         <v>147</v>
       </c>
       <c r="BF43" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="BG43" s="1">
-        <v>35626</v>
+        <v>36543</v>
       </c>
       <c r="BH43" t="s">
         <v>101</v>
@@ -12695,16 +12887,16 @@
         <v>101</v>
       </c>
       <c r="BL43" s="1">
-        <v>45019</v>
+        <v>45026</v>
       </c>
       <c r="BM43" t="s">
-        <v>506</v>
+        <v>571</v>
       </c>
       <c r="BN43" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="BO43" s="1">
-        <v>44988</v>
+        <v>44978</v>
       </c>
       <c r="BP43" t="s">
         <v>151</v>
@@ -12719,7 +12911,7 @@
         <v>101</v>
       </c>
       <c r="BT43" t="s">
-        <v>426</v>
+        <v>493</v>
       </c>
       <c r="BU43" t="s">
         <v>117</v>
@@ -12752,7 +12944,7 @@
         <v>119</v>
       </c>
       <c r="CE43">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:83" x14ac:dyDescent="0.2">
@@ -12760,40 +12952,40 @@
         <v>83</v>
       </c>
       <c r="B44" s="1">
-        <v>44991</v>
+        <v>44974</v>
       </c>
       <c r="C44" t="s">
-        <v>264</v>
+        <v>109</v>
       </c>
       <c r="D44" t="s">
         <v>85</v>
       </c>
       <c r="E44" t="s">
-        <v>133</v>
+        <v>573</v>
       </c>
       <c r="F44" t="s">
         <v>87</v>
       </c>
       <c r="G44" t="s">
-        <v>230</v>
+        <v>574</v>
       </c>
       <c r="H44" t="s">
-        <v>101</v>
+        <v>575</v>
       </c>
       <c r="I44" t="s">
+        <v>529</v>
+      </c>
+      <c r="J44" t="s">
         <v>576</v>
       </c>
-      <c r="J44" t="s">
+      <c r="K44" t="s">
+        <v>138</v>
+      </c>
+      <c r="L44" t="s">
         <v>577</v>
       </c>
-      <c r="K44" t="s">
-        <v>91</v>
-      </c>
-      <c r="L44" t="s">
+      <c r="M44" t="s">
         <v>578</v>
-      </c>
-      <c r="M44" t="s">
-        <v>120</v>
       </c>
       <c r="N44" t="s">
         <v>94</v>
@@ -12805,7 +12997,7 @@
         <v>96</v>
       </c>
       <c r="Q44" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="R44" t="s">
         <v>95</v>
@@ -12820,7 +13012,7 @@
         <v>94</v>
       </c>
       <c r="V44" t="s">
-        <v>141</v>
+        <v>235</v>
       </c>
       <c r="W44" t="s">
         <v>101</v>
@@ -12829,7 +13021,7 @@
         <v>101</v>
       </c>
       <c r="Y44" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="Z44" t="s">
         <v>579</v>
@@ -12841,13 +13033,13 @@
         <v>145</v>
       </c>
       <c r="AC44" t="s">
-        <v>146</v>
+        <v>370</v>
       </c>
       <c r="AD44" t="s">
         <v>84</v>
       </c>
       <c r="AF44" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="AG44" t="s">
         <v>100</v>
@@ -12862,7 +13054,7 @@
         <v>100</v>
       </c>
       <c r="AK44" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL44" t="s">
         <v>101</v>
@@ -12874,7 +13066,7 @@
         <v>100</v>
       </c>
       <c r="AO44" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AP44" t="s">
         <v>100</v>
@@ -12898,13 +13090,13 @@
         <v>98</v>
       </c>
       <c r="AW44" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="AX44" s="1">
-        <v>44991</v>
+        <v>44974</v>
       </c>
       <c r="AY44" s="1">
-        <v>44987</v>
+        <v>44970</v>
       </c>
       <c r="AZ44" t="s">
         <v>107</v>
@@ -12928,7 +13120,7 @@
         <v>580</v>
       </c>
       <c r="BG44" s="1">
-        <v>41744</v>
+        <v>15675</v>
       </c>
       <c r="BH44" t="s">
         <v>101</v>
@@ -12940,7 +13132,7 @@
         <v>101</v>
       </c>
       <c r="BL44" s="1">
-        <v>45019</v>
+        <v>45026</v>
       </c>
       <c r="BM44" t="s">
         <v>581</v>
@@ -12949,10 +13141,10 @@
         <v>582</v>
       </c>
       <c r="BO44" s="1">
-        <v>44999</v>
+        <v>44977</v>
       </c>
       <c r="BP44" t="s">
-        <v>151</v>
+        <v>583</v>
       </c>
       <c r="BQ44" t="s">
         <v>101</v>
@@ -12964,13 +13156,13 @@
         <v>101</v>
       </c>
       <c r="BT44" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="BU44" t="s">
         <v>117</v>
       </c>
       <c r="BV44" t="s">
-        <v>153</v>
+        <v>584</v>
       </c>
       <c r="BW44" t="s">
         <v>96</v>
@@ -12988,7 +13180,7 @@
         <v>118</v>
       </c>
       <c r="CB44" t="s">
-        <v>119</v>
+        <v>214</v>
       </c>
       <c r="CC44" t="s">
         <v>118</v>
@@ -12997,7 +13189,7 @@
         <v>119</v>
       </c>
       <c r="CE44">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:83" x14ac:dyDescent="0.2">
@@ -13005,40 +13197,40 @@
         <v>83</v>
       </c>
       <c r="B45" s="1">
-        <v>45016</v>
+        <v>44982</v>
       </c>
       <c r="C45" t="s">
-        <v>264</v>
+        <v>120</v>
       </c>
       <c r="D45" t="s">
         <v>85</v>
       </c>
       <c r="E45" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="F45" t="s">
-        <v>259</v>
+        <v>180</v>
       </c>
       <c r="G45" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="H45" t="s">
-        <v>101</v>
+        <v>586</v>
       </c>
       <c r="I45" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="J45" t="s">
-        <v>370</v>
+        <v>588</v>
       </c>
       <c r="K45" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="L45" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="M45" t="s">
-        <v>264</v>
+        <v>590</v>
       </c>
       <c r="N45" t="s">
         <v>94</v>
@@ -13068,7 +13260,7 @@
         <v>101</v>
       </c>
       <c r="W45" t="s">
-        <v>235</v>
+        <v>141</v>
       </c>
       <c r="X45" t="s">
         <v>101</v>
@@ -13077,22 +13269,22 @@
         <v>101</v>
       </c>
       <c r="Z45" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="AA45" t="s">
-        <v>266</v>
+        <v>104</v>
       </c>
       <c r="AB45" t="s">
         <v>145</v>
       </c>
       <c r="AC45" t="s">
-        <v>573</v>
+        <v>282</v>
       </c>
       <c r="AD45" t="s">
         <v>84</v>
       </c>
       <c r="AF45" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="AG45" t="s">
         <v>100</v>
@@ -13134,7 +13326,7 @@
         <v>94</v>
       </c>
       <c r="AT45" t="s">
-        <v>179</v>
+        <v>100</v>
       </c>
       <c r="AU45" t="s">
         <v>95</v>
@@ -13146,13 +13338,13 @@
         <v>99</v>
       </c>
       <c r="AX45" s="1">
-        <v>44984</v>
+        <v>44982</v>
       </c>
       <c r="AY45" s="1">
-        <v>44984</v>
+        <v>44982</v>
       </c>
       <c r="AZ45" t="s">
-        <v>179</v>
+        <v>107</v>
       </c>
       <c r="BA45" t="s">
         <v>100</v>
@@ -13170,10 +13362,10 @@
         <v>147</v>
       </c>
       <c r="BF45" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="BG45" s="1">
-        <v>41448</v>
+        <v>31601</v>
       </c>
       <c r="BH45" t="s">
         <v>101</v>
@@ -13185,19 +13377,19 @@
         <v>101</v>
       </c>
       <c r="BL45" s="1">
-        <v>45019</v>
+        <v>45026</v>
       </c>
       <c r="BM45" t="s">
-        <v>269</v>
+        <v>593</v>
       </c>
       <c r="BN45" t="s">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="BO45" s="1">
-        <v>45016</v>
+        <v>44987</v>
       </c>
       <c r="BP45" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="BQ45" t="s">
         <v>101</v>
@@ -13209,13 +13401,13 @@
         <v>101</v>
       </c>
       <c r="BT45" t="s">
-        <v>116</v>
+        <v>287</v>
       </c>
       <c r="BU45" t="s">
         <v>117</v>
       </c>
       <c r="BV45" t="s">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="BW45" t="s">
         <v>96</v>
@@ -13242,7 +13434,7 @@
         <v>119</v>
       </c>
       <c r="CE45">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:83" x14ac:dyDescent="0.2">
@@ -13250,37 +13442,37 @@
         <v>83</v>
       </c>
       <c r="B46" s="1">
-        <v>44998</v>
+        <v>44984</v>
       </c>
       <c r="C46" t="s">
-        <v>264</v>
+        <v>120</v>
       </c>
       <c r="D46" t="s">
         <v>85</v>
       </c>
       <c r="E46" t="s">
-        <v>588</v>
+        <v>86</v>
       </c>
       <c r="F46" t="s">
-        <v>589</v>
+        <v>87</v>
       </c>
       <c r="G46" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="H46" t="s">
-        <v>101</v>
+        <v>457</v>
       </c>
       <c r="I46" t="s">
-        <v>348</v>
+        <v>595</v>
       </c>
       <c r="J46" t="s">
-        <v>591</v>
+        <v>429</v>
       </c>
       <c r="K46" t="s">
-        <v>91</v>
+        <v>218</v>
       </c>
       <c r="L46" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="M46" t="s">
         <v>264</v>
@@ -13289,10 +13481,10 @@
         <v>94</v>
       </c>
       <c r="O46" t="s">
-        <v>95</v>
+        <v>221</v>
       </c>
       <c r="P46" t="s">
-        <v>96</v>
+        <v>222</v>
       </c>
       <c r="Q46" t="s">
         <v>127</v>
@@ -13307,37 +13499,37 @@
         <v>99</v>
       </c>
       <c r="U46" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="V46" t="s">
-        <v>235</v>
+        <v>101</v>
       </c>
       <c r="W46" t="s">
-        <v>101</v>
+        <v>532</v>
       </c>
       <c r="X46" t="s">
         <v>101</v>
       </c>
       <c r="Y46" t="s">
-        <v>351</v>
+        <v>101</v>
       </c>
       <c r="Z46" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="AA46" t="s">
         <v>104</v>
       </c>
       <c r="AB46" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="AC46" t="s">
-        <v>342</v>
+        <v>129</v>
       </c>
       <c r="AD46" t="s">
         <v>84</v>
       </c>
       <c r="AF46" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="AG46" t="s">
         <v>100</v>
@@ -13379,7 +13571,7 @@
         <v>94</v>
       </c>
       <c r="AT46" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AU46" t="s">
         <v>95</v>
@@ -13391,13 +13583,13 @@
         <v>99</v>
       </c>
       <c r="AX46" s="1">
-        <v>44987</v>
+        <v>44984</v>
       </c>
       <c r="AY46" s="1">
-        <v>44987</v>
+        <v>44981</v>
       </c>
       <c r="AZ46" t="s">
-        <v>179</v>
+        <v>107</v>
       </c>
       <c r="BA46" t="s">
         <v>100</v>
@@ -13415,10 +13607,10 @@
         <v>147</v>
       </c>
       <c r="BF46" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="BG46" s="1">
-        <v>41506</v>
+        <v>41687</v>
       </c>
       <c r="BH46" t="s">
         <v>101</v>
@@ -13430,19 +13622,19 @@
         <v>101</v>
       </c>
       <c r="BL46" s="1">
-        <v>45019</v>
+        <v>45026</v>
       </c>
       <c r="BM46" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="BN46" t="s">
-        <v>596</v>
+        <v>114</v>
       </c>
       <c r="BO46" s="1">
-        <v>44998</v>
+        <v>44985</v>
       </c>
       <c r="BP46" t="s">
-        <v>597</v>
+        <v>115</v>
       </c>
       <c r="BQ46" t="s">
         <v>101</v>
@@ -13454,13 +13646,13 @@
         <v>101</v>
       </c>
       <c r="BT46" t="s">
-        <v>116</v>
+        <v>493</v>
       </c>
       <c r="BU46" t="s">
         <v>117</v>
       </c>
       <c r="BV46" t="s">
-        <v>598</v>
+        <v>112</v>
       </c>
       <c r="BW46" t="s">
         <v>96</v>
@@ -13487,7 +13679,7 @@
         <v>119</v>
       </c>
       <c r="CE46">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:83" x14ac:dyDescent="0.2">
@@ -13495,40 +13687,40 @@
         <v>83</v>
       </c>
       <c r="B47" s="1">
-        <v>44990</v>
+        <v>44979</v>
       </c>
       <c r="C47" t="s">
-        <v>264</v>
+        <v>120</v>
       </c>
       <c r="D47" t="s">
         <v>85</v>
       </c>
       <c r="E47" t="s">
-        <v>273</v>
+        <v>600</v>
       </c>
       <c r="F47" t="s">
-        <v>180</v>
+        <v>87</v>
       </c>
       <c r="G47" t="s">
-        <v>88</v>
+        <v>601</v>
       </c>
       <c r="H47" t="s">
-        <v>324</v>
+        <v>101</v>
       </c>
       <c r="I47" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="J47" t="s">
-        <v>600</v>
+        <v>374</v>
       </c>
       <c r="K47" t="s">
-        <v>91</v>
+        <v>304</v>
       </c>
       <c r="L47" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="M47" t="s">
-        <v>317</v>
+        <v>107</v>
       </c>
       <c r="N47" t="s">
         <v>94</v>
@@ -13549,25 +13741,25 @@
         <v>98</v>
       </c>
       <c r="T47" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="U47" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="V47" t="s">
-        <v>101</v>
+        <v>604</v>
       </c>
       <c r="W47" t="s">
-        <v>602</v>
+        <v>101</v>
       </c>
       <c r="X47" t="s">
         <v>101</v>
       </c>
       <c r="Y47" t="s">
-        <v>101</v>
+        <v>325</v>
       </c>
       <c r="Z47" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="AA47" t="s">
         <v>104</v>
@@ -13582,7 +13774,7 @@
         <v>84</v>
       </c>
       <c r="AF47" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="AG47" t="s">
         <v>100</v>
@@ -13636,10 +13828,10 @@
         <v>99</v>
       </c>
       <c r="AX47" s="1">
-        <v>44990</v>
+        <v>44979</v>
       </c>
       <c r="AY47" s="1">
-        <v>44988</v>
+        <v>44978</v>
       </c>
       <c r="AZ47" t="s">
         <v>107</v>
@@ -13660,10 +13852,10 @@
         <v>147</v>
       </c>
       <c r="BF47" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="BG47" s="1">
-        <v>39591</v>
+        <v>43412</v>
       </c>
       <c r="BH47" t="s">
         <v>101</v>
@@ -13675,19 +13867,19 @@
         <v>101</v>
       </c>
       <c r="BL47" s="1">
-        <v>45019</v>
+        <v>45026</v>
       </c>
       <c r="BM47" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="BN47" t="s">
-        <v>310</v>
+        <v>608</v>
       </c>
       <c r="BO47" s="1">
-        <v>44991</v>
+        <v>44979</v>
       </c>
       <c r="BP47" t="s">
-        <v>286</v>
+        <v>609</v>
       </c>
       <c r="BQ47" t="s">
         <v>101</v>
@@ -13699,13 +13891,13 @@
         <v>101</v>
       </c>
       <c r="BT47" t="s">
-        <v>287</v>
+        <v>610</v>
       </c>
       <c r="BU47" t="s">
         <v>117</v>
       </c>
       <c r="BV47" t="s">
-        <v>311</v>
+        <v>611</v>
       </c>
       <c r="BW47" t="s">
         <v>96</v>
@@ -13714,7 +13906,7 @@
         <v>118</v>
       </c>
       <c r="BY47" t="s">
-        <v>214</v>
+        <v>119</v>
       </c>
       <c r="BZ47" t="s">
         <v>96</v>
@@ -13732,7 +13924,7 @@
         <v>119</v>
       </c>
       <c r="CE47">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:83" x14ac:dyDescent="0.2">
@@ -13740,40 +13932,40 @@
         <v>83</v>
       </c>
       <c r="B48" s="1">
-        <v>44998</v>
+        <v>44981</v>
       </c>
       <c r="C48" t="s">
-        <v>264</v>
+        <v>120</v>
       </c>
       <c r="D48" t="s">
         <v>85</v>
       </c>
       <c r="E48" t="s">
-        <v>588</v>
+        <v>612</v>
       </c>
       <c r="F48" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="G48" t="s">
-        <v>606</v>
+        <v>313</v>
       </c>
       <c r="H48" t="s">
-        <v>101</v>
+        <v>613</v>
       </c>
       <c r="I48" t="s">
-        <v>607</v>
+        <v>123</v>
       </c>
       <c r="J48" t="s">
-        <v>608</v>
+        <v>246</v>
       </c>
       <c r="K48" t="s">
         <v>91</v>
       </c>
       <c r="L48" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="M48" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="N48" t="s">
         <v>94</v>
@@ -13785,7 +13977,7 @@
         <v>96</v>
       </c>
       <c r="Q48" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="R48" t="s">
         <v>95</v>
@@ -13809,19 +14001,19 @@
         <v>101</v>
       </c>
       <c r="Y48" t="s">
-        <v>351</v>
+        <v>615</v>
       </c>
       <c r="Z48" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="AA48" t="s">
         <v>104</v>
       </c>
       <c r="AB48" t="s">
-        <v>145</v>
+        <v>617</v>
       </c>
       <c r="AC48" t="s">
-        <v>342</v>
+        <v>618</v>
       </c>
       <c r="AD48" t="s">
         <v>84</v>
@@ -13842,7 +14034,7 @@
         <v>100</v>
       </c>
       <c r="AK48" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL48" t="s">
         <v>101</v>
@@ -13854,7 +14046,7 @@
         <v>100</v>
       </c>
       <c r="AO48" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AP48" t="s">
         <v>100</v>
@@ -13869,7 +14061,7 @@
         <v>94</v>
       </c>
       <c r="AT48" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AU48" t="s">
         <v>95</v>
@@ -13881,13 +14073,13 @@
         <v>99</v>
       </c>
       <c r="AX48" s="1">
-        <v>44989</v>
+        <v>44979</v>
       </c>
       <c r="AY48" s="1">
-        <v>44989</v>
+        <v>44977</v>
       </c>
       <c r="AZ48" t="s">
-        <v>179</v>
+        <v>107</v>
       </c>
       <c r="BA48" t="s">
         <v>100</v>
@@ -13905,10 +14097,10 @@
         <v>147</v>
       </c>
       <c r="BF48" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="BG48" s="1">
-        <v>41818</v>
+        <v>39245</v>
       </c>
       <c r="BH48" t="s">
         <v>101</v>
@@ -13920,19 +14112,16 @@
         <v>101</v>
       </c>
       <c r="BL48" s="1">
-        <v>45019</v>
+        <v>45026</v>
       </c>
       <c r="BM48" t="s">
-        <v>595</v>
+        <v>620</v>
       </c>
       <c r="BN48" t="s">
-        <v>596</v>
+        <v>621</v>
       </c>
       <c r="BO48" s="1">
-        <v>44998</v>
-      </c>
-      <c r="BP48" t="s">
-        <v>597</v>
+        <v>44981</v>
       </c>
       <c r="BQ48" t="s">
         <v>101</v>
@@ -13944,14 +14133,11 @@
         <v>101</v>
       </c>
       <c r="BT48" t="s">
-        <v>116</v>
+        <v>493</v>
       </c>
       <c r="BU48" t="s">
         <v>117</v>
       </c>
-      <c r="BV48" t="s">
-        <v>598</v>
-      </c>
       <c r="BW48" t="s">
         <v>96</v>
       </c>
@@ -13970,13 +14156,1710 @@
       <c r="CB48" t="s">
         <v>119</v>
       </c>
-      <c r="CC48" t="s">
+      <c r="CE48">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>83</v>
+      </c>
+      <c r="B49" s="1">
+        <v>44989</v>
+      </c>
+      <c r="C49" t="s">
+        <v>264</v>
+      </c>
+      <c r="D49" t="s">
+        <v>85</v>
+      </c>
+      <c r="E49" t="s">
+        <v>622</v>
+      </c>
+      <c r="F49" t="s">
+        <v>623</v>
+      </c>
+      <c r="G49" t="s">
+        <v>203</v>
+      </c>
+      <c r="H49" t="s">
+        <v>624</v>
+      </c>
+      <c r="I49" t="s">
+        <v>528</v>
+      </c>
+      <c r="J49" t="s">
+        <v>529</v>
+      </c>
+      <c r="K49" t="s">
+        <v>138</v>
+      </c>
+      <c r="L49" t="s">
+        <v>625</v>
+      </c>
+      <c r="M49" t="s">
+        <v>626</v>
+      </c>
+      <c r="N49" t="s">
+        <v>94</v>
+      </c>
+      <c r="O49" t="s">
+        <v>95</v>
+      </c>
+      <c r="P49" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>97</v>
+      </c>
+      <c r="R49" t="s">
+        <v>95</v>
+      </c>
+      <c r="S49" t="s">
+        <v>98</v>
+      </c>
+      <c r="T49" t="s">
+        <v>99</v>
+      </c>
+      <c r="U49" t="s">
+        <v>94</v>
+      </c>
+      <c r="V49" t="s">
+        <v>557</v>
+      </c>
+      <c r="W49" t="s">
+        <v>101</v>
+      </c>
+      <c r="X49" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>532</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>627</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>197</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ49" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK49" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL49" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM49" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN49" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO49" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP49" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ49" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR49" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS49" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT49" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU49" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV49" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW49" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX49" s="1">
+        <v>44988</v>
+      </c>
+      <c r="AY49" s="1">
+        <v>44987</v>
+      </c>
+      <c r="AZ49" t="s">
+        <v>107</v>
+      </c>
+      <c r="BA49" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB49" t="s">
+        <v>108</v>
+      </c>
+      <c r="BC49" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD49" t="s">
+        <v>108</v>
+      </c>
+      <c r="BE49" t="s">
+        <v>147</v>
+      </c>
+      <c r="BF49" t="s">
+        <v>535</v>
+      </c>
+      <c r="BG49" s="1">
+        <v>14150</v>
+      </c>
+      <c r="BH49" t="s">
+        <v>101</v>
+      </c>
+      <c r="BI49" t="s">
+        <v>101</v>
+      </c>
+      <c r="BJ49" t="s">
+        <v>101</v>
+      </c>
+      <c r="BL49" s="1">
+        <v>45026</v>
+      </c>
+      <c r="BM49" t="s">
+        <v>628</v>
+      </c>
+      <c r="BN49" t="s">
+        <v>629</v>
+      </c>
+      <c r="BO49" s="1">
+        <v>44989</v>
+      </c>
+      <c r="BQ49" t="s">
+        <v>101</v>
+      </c>
+      <c r="BR49" t="s">
+        <v>101</v>
+      </c>
+      <c r="BS49" t="s">
+        <v>101</v>
+      </c>
+      <c r="BT49" t="s">
+        <v>493</v>
+      </c>
+      <c r="BU49" t="s">
+        <v>117</v>
+      </c>
+      <c r="BW49" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX49" t="s">
         <v>118</v>
       </c>
-      <c r="CD48" t="s">
+      <c r="BY49" t="s">
         <v>119</v>
       </c>
-      <c r="CE48">
+      <c r="BZ49" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA49" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB49" t="s">
+        <v>119</v>
+      </c>
+      <c r="CE49">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>83</v>
+      </c>
+      <c r="B50" s="1">
+        <v>44987</v>
+      </c>
+      <c r="C50" t="s">
+        <v>264</v>
+      </c>
+      <c r="D50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E50" t="s">
+        <v>133</v>
+      </c>
+      <c r="F50" t="s">
+        <v>87</v>
+      </c>
+      <c r="G50" t="s">
+        <v>630</v>
+      </c>
+      <c r="H50" t="s">
+        <v>631</v>
+      </c>
+      <c r="I50" t="s">
+        <v>632</v>
+      </c>
+      <c r="J50" t="s">
+        <v>633</v>
+      </c>
+      <c r="K50" t="s">
+        <v>218</v>
+      </c>
+      <c r="L50" t="s">
+        <v>634</v>
+      </c>
+      <c r="M50" t="s">
+        <v>234</v>
+      </c>
+      <c r="N50" t="s">
+        <v>94</v>
+      </c>
+      <c r="O50" t="s">
+        <v>221</v>
+      </c>
+      <c r="P50" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>97</v>
+      </c>
+      <c r="R50" t="s">
+        <v>95</v>
+      </c>
+      <c r="S50" t="s">
+        <v>98</v>
+      </c>
+      <c r="T50" t="s">
+        <v>99</v>
+      </c>
+      <c r="U50" t="s">
+        <v>94</v>
+      </c>
+      <c r="V50" t="s">
+        <v>141</v>
+      </c>
+      <c r="W50" t="s">
+        <v>101</v>
+      </c>
+      <c r="X50" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>347</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>635</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>636</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>637</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ50" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK50" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL50" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM50" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN50" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO50" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP50" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ50" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR50" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS50" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT50" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU50" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV50" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW50" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX50" s="1">
+        <v>44987</v>
+      </c>
+      <c r="AY50" s="1">
+        <v>44985</v>
+      </c>
+      <c r="AZ50" t="s">
+        <v>107</v>
+      </c>
+      <c r="BA50" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB50" t="s">
+        <v>108</v>
+      </c>
+      <c r="BC50" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD50" t="s">
+        <v>108</v>
+      </c>
+      <c r="BE50" t="s">
+        <v>147</v>
+      </c>
+      <c r="BF50" t="s">
+        <v>638</v>
+      </c>
+      <c r="BG50" s="1">
+        <v>35626</v>
+      </c>
+      <c r="BH50" t="s">
+        <v>101</v>
+      </c>
+      <c r="BI50" t="s">
+        <v>101</v>
+      </c>
+      <c r="BJ50" t="s">
+        <v>101</v>
+      </c>
+      <c r="BL50" s="1">
+        <v>45026</v>
+      </c>
+      <c r="BM50" t="s">
+        <v>571</v>
+      </c>
+      <c r="BN50" t="s">
+        <v>639</v>
+      </c>
+      <c r="BO50" s="1">
+        <v>44988</v>
+      </c>
+      <c r="BP50" t="s">
+        <v>151</v>
+      </c>
+      <c r="BQ50" t="s">
+        <v>101</v>
+      </c>
+      <c r="BR50" t="s">
+        <v>101</v>
+      </c>
+      <c r="BS50" t="s">
+        <v>101</v>
+      </c>
+      <c r="BT50" t="s">
+        <v>493</v>
+      </c>
+      <c r="BU50" t="s">
+        <v>117</v>
+      </c>
+      <c r="BV50" t="s">
+        <v>153</v>
+      </c>
+      <c r="BW50" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX50" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY50" t="s">
+        <v>119</v>
+      </c>
+      <c r="BZ50" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA50" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB50" t="s">
+        <v>119</v>
+      </c>
+      <c r="CC50" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD50" t="s">
+        <v>119</v>
+      </c>
+      <c r="CE50">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>83</v>
+      </c>
+      <c r="B51" s="1">
+        <v>44991</v>
+      </c>
+      <c r="C51" t="s">
+        <v>264</v>
+      </c>
+      <c r="D51" t="s">
+        <v>85</v>
+      </c>
+      <c r="E51" t="s">
+        <v>133</v>
+      </c>
+      <c r="F51" t="s">
+        <v>87</v>
+      </c>
+      <c r="G51" t="s">
+        <v>230</v>
+      </c>
+      <c r="H51" t="s">
+        <v>101</v>
+      </c>
+      <c r="I51" t="s">
+        <v>640</v>
+      </c>
+      <c r="J51" t="s">
+        <v>641</v>
+      </c>
+      <c r="K51" t="s">
+        <v>91</v>
+      </c>
+      <c r="L51" t="s">
+        <v>642</v>
+      </c>
+      <c r="M51" t="s">
+        <v>120</v>
+      </c>
+      <c r="N51" t="s">
+        <v>94</v>
+      </c>
+      <c r="O51" t="s">
+        <v>95</v>
+      </c>
+      <c r="P51" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>97</v>
+      </c>
+      <c r="R51" t="s">
+        <v>95</v>
+      </c>
+      <c r="S51" t="s">
+        <v>98</v>
+      </c>
+      <c r="T51" t="s">
+        <v>99</v>
+      </c>
+      <c r="U51" t="s">
+        <v>94</v>
+      </c>
+      <c r="V51" t="s">
+        <v>141</v>
+      </c>
+      <c r="W51" t="s">
+        <v>101</v>
+      </c>
+      <c r="X51" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>347</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>643</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC51" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI51" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ51" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK51" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL51" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM51" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN51" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO51" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP51" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ51" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR51" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS51" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT51" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU51" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV51" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW51" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX51" s="1">
+        <v>44991</v>
+      </c>
+      <c r="AY51" s="1">
+        <v>44987</v>
+      </c>
+      <c r="AZ51" t="s">
+        <v>107</v>
+      </c>
+      <c r="BA51" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB51" t="s">
+        <v>108</v>
+      </c>
+      <c r="BC51" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD51" t="s">
+        <v>108</v>
+      </c>
+      <c r="BE51" t="s">
+        <v>147</v>
+      </c>
+      <c r="BF51" t="s">
+        <v>644</v>
+      </c>
+      <c r="BG51" s="1">
+        <v>41744</v>
+      </c>
+      <c r="BH51" t="s">
+        <v>101</v>
+      </c>
+      <c r="BI51" t="s">
+        <v>101</v>
+      </c>
+      <c r="BJ51" t="s">
+        <v>101</v>
+      </c>
+      <c r="BL51" s="1">
+        <v>45026</v>
+      </c>
+      <c r="BM51" t="s">
+        <v>360</v>
+      </c>
+      <c r="BN51" t="s">
+        <v>361</v>
+      </c>
+      <c r="BO51" s="1">
+        <v>44999</v>
+      </c>
+      <c r="BP51" t="s">
+        <v>151</v>
+      </c>
+      <c r="BQ51" t="s">
+        <v>101</v>
+      </c>
+      <c r="BR51" t="s">
+        <v>101</v>
+      </c>
+      <c r="BS51" t="s">
+        <v>101</v>
+      </c>
+      <c r="BT51" t="s">
+        <v>116</v>
+      </c>
+      <c r="BU51" t="s">
+        <v>117</v>
+      </c>
+      <c r="BV51" t="s">
+        <v>153</v>
+      </c>
+      <c r="BW51" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX51" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY51" t="s">
+        <v>119</v>
+      </c>
+      <c r="BZ51" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA51" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB51" t="s">
+        <v>119</v>
+      </c>
+      <c r="CC51" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD51" t="s">
+        <v>119</v>
+      </c>
+      <c r="CE51">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>83</v>
+      </c>
+      <c r="B52" s="1">
+        <v>45016</v>
+      </c>
+      <c r="C52" t="s">
+        <v>264</v>
+      </c>
+      <c r="D52" t="s">
+        <v>85</v>
+      </c>
+      <c r="E52" t="s">
+        <v>258</v>
+      </c>
+      <c r="F52" t="s">
+        <v>259</v>
+      </c>
+      <c r="G52" t="s">
+        <v>645</v>
+      </c>
+      <c r="H52" t="s">
+        <v>101</v>
+      </c>
+      <c r="I52" t="s">
+        <v>646</v>
+      </c>
+      <c r="J52" t="s">
+        <v>437</v>
+      </c>
+      <c r="K52" t="s">
+        <v>91</v>
+      </c>
+      <c r="L52" t="s">
+        <v>647</v>
+      </c>
+      <c r="M52" t="s">
+        <v>264</v>
+      </c>
+      <c r="N52" t="s">
+        <v>94</v>
+      </c>
+      <c r="O52" t="s">
+        <v>95</v>
+      </c>
+      <c r="P52" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>127</v>
+      </c>
+      <c r="R52" t="s">
+        <v>95</v>
+      </c>
+      <c r="S52" t="s">
+        <v>98</v>
+      </c>
+      <c r="T52" t="s">
+        <v>99</v>
+      </c>
+      <c r="U52" t="s">
+        <v>100</v>
+      </c>
+      <c r="V52" t="s">
+        <v>101</v>
+      </c>
+      <c r="W52" t="s">
+        <v>235</v>
+      </c>
+      <c r="X52" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>648</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>266</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>637</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI52" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ52" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK52" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL52" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM52" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN52" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO52" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP52" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ52" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR52" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS52" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT52" t="s">
+        <v>179</v>
+      </c>
+      <c r="AU52" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV52" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW52" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX52" s="1">
+        <v>44984</v>
+      </c>
+      <c r="AY52" s="1">
+        <v>44984</v>
+      </c>
+      <c r="AZ52" t="s">
+        <v>179</v>
+      </c>
+      <c r="BA52" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB52" t="s">
+        <v>108</v>
+      </c>
+      <c r="BC52" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD52" t="s">
+        <v>108</v>
+      </c>
+      <c r="BE52" t="s">
+        <v>147</v>
+      </c>
+      <c r="BF52" t="s">
+        <v>649</v>
+      </c>
+      <c r="BG52" s="1">
+        <v>41448</v>
+      </c>
+      <c r="BH52" t="s">
+        <v>101</v>
+      </c>
+      <c r="BI52" t="s">
+        <v>101</v>
+      </c>
+      <c r="BJ52" t="s">
+        <v>101</v>
+      </c>
+      <c r="BL52" s="1">
+        <v>45026</v>
+      </c>
+      <c r="BM52" t="s">
+        <v>269</v>
+      </c>
+      <c r="BN52" t="s">
+        <v>270</v>
+      </c>
+      <c r="BO52" s="1">
+        <v>45016</v>
+      </c>
+      <c r="BP52" t="s">
+        <v>271</v>
+      </c>
+      <c r="BQ52" t="s">
+        <v>101</v>
+      </c>
+      <c r="BR52" t="s">
+        <v>101</v>
+      </c>
+      <c r="BS52" t="s">
+        <v>101</v>
+      </c>
+      <c r="BT52" t="s">
+        <v>116</v>
+      </c>
+      <c r="BU52" t="s">
+        <v>117</v>
+      </c>
+      <c r="BV52" t="s">
+        <v>272</v>
+      </c>
+      <c r="BW52" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX52" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY52" t="s">
+        <v>119</v>
+      </c>
+      <c r="BZ52" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA52" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB52" t="s">
+        <v>119</v>
+      </c>
+      <c r="CC52" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD52" t="s">
+        <v>119</v>
+      </c>
+      <c r="CE52">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>83</v>
+      </c>
+      <c r="B53" s="1">
+        <v>44998</v>
+      </c>
+      <c r="C53" t="s">
+        <v>264</v>
+      </c>
+      <c r="D53" t="s">
+        <v>85</v>
+      </c>
+      <c r="E53" t="s">
+        <v>404</v>
+      </c>
+      <c r="F53" t="s">
+        <v>405</v>
+      </c>
+      <c r="G53" t="s">
+        <v>650</v>
+      </c>
+      <c r="H53" t="s">
+        <v>101</v>
+      </c>
+      <c r="I53" t="s">
+        <v>383</v>
+      </c>
+      <c r="J53" t="s">
+        <v>651</v>
+      </c>
+      <c r="K53" t="s">
+        <v>91</v>
+      </c>
+      <c r="L53" t="s">
+        <v>652</v>
+      </c>
+      <c r="M53" t="s">
+        <v>264</v>
+      </c>
+      <c r="N53" t="s">
+        <v>94</v>
+      </c>
+      <c r="O53" t="s">
+        <v>95</v>
+      </c>
+      <c r="P53" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>127</v>
+      </c>
+      <c r="R53" t="s">
+        <v>95</v>
+      </c>
+      <c r="S53" t="s">
+        <v>98</v>
+      </c>
+      <c r="T53" t="s">
+        <v>99</v>
+      </c>
+      <c r="U53" t="s">
+        <v>94</v>
+      </c>
+      <c r="V53" t="s">
+        <v>235</v>
+      </c>
+      <c r="W53" t="s">
+        <v>101</v>
+      </c>
+      <c r="X53" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>653</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>370</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI53" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ53" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK53" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL53" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM53" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN53" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO53" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP53" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ53" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR53" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS53" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT53" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU53" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV53" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW53" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX53" s="1">
+        <v>44987</v>
+      </c>
+      <c r="AY53" s="1">
+        <v>44987</v>
+      </c>
+      <c r="AZ53" t="s">
+        <v>179</v>
+      </c>
+      <c r="BA53" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB53" t="s">
+        <v>108</v>
+      </c>
+      <c r="BC53" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD53" t="s">
+        <v>108</v>
+      </c>
+      <c r="BE53" t="s">
+        <v>147</v>
+      </c>
+      <c r="BF53" t="s">
+        <v>654</v>
+      </c>
+      <c r="BG53" s="1">
+        <v>41506</v>
+      </c>
+      <c r="BH53" t="s">
+        <v>101</v>
+      </c>
+      <c r="BI53" t="s">
+        <v>101</v>
+      </c>
+      <c r="BJ53" t="s">
+        <v>101</v>
+      </c>
+      <c r="BL53" s="1">
+        <v>45026</v>
+      </c>
+      <c r="BM53" t="s">
+        <v>413</v>
+      </c>
+      <c r="BN53" t="s">
+        <v>414</v>
+      </c>
+      <c r="BO53" s="1">
+        <v>44998</v>
+      </c>
+      <c r="BP53" t="s">
+        <v>415</v>
+      </c>
+      <c r="BQ53" t="s">
+        <v>101</v>
+      </c>
+      <c r="BR53" t="s">
+        <v>101</v>
+      </c>
+      <c r="BS53" t="s">
+        <v>101</v>
+      </c>
+      <c r="BT53" t="s">
+        <v>116</v>
+      </c>
+      <c r="BU53" t="s">
+        <v>117</v>
+      </c>
+      <c r="BV53" t="s">
+        <v>416</v>
+      </c>
+      <c r="BW53" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX53" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY53" t="s">
+        <v>119</v>
+      </c>
+      <c r="BZ53" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA53" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB53" t="s">
+        <v>119</v>
+      </c>
+      <c r="CC53" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD53" t="s">
+        <v>119</v>
+      </c>
+      <c r="CE53">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>83</v>
+      </c>
+      <c r="B54" s="1">
+        <v>44990</v>
+      </c>
+      <c r="C54" t="s">
+        <v>264</v>
+      </c>
+      <c r="D54" t="s">
+        <v>85</v>
+      </c>
+      <c r="E54" t="s">
+        <v>273</v>
+      </c>
+      <c r="F54" t="s">
+        <v>180</v>
+      </c>
+      <c r="G54" t="s">
+        <v>88</v>
+      </c>
+      <c r="H54" t="s">
+        <v>312</v>
+      </c>
+      <c r="I54" t="s">
+        <v>655</v>
+      </c>
+      <c r="J54" t="s">
+        <v>656</v>
+      </c>
+      <c r="K54" t="s">
+        <v>91</v>
+      </c>
+      <c r="L54" t="s">
+        <v>657</v>
+      </c>
+      <c r="M54" t="s">
+        <v>337</v>
+      </c>
+      <c r="N54" t="s">
+        <v>94</v>
+      </c>
+      <c r="O54" t="s">
+        <v>95</v>
+      </c>
+      <c r="P54" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>127</v>
+      </c>
+      <c r="R54" t="s">
+        <v>95</v>
+      </c>
+      <c r="S54" t="s">
+        <v>98</v>
+      </c>
+      <c r="T54" t="s">
+        <v>95</v>
+      </c>
+      <c r="U54" t="s">
+        <v>100</v>
+      </c>
+      <c r="V54" t="s">
+        <v>101</v>
+      </c>
+      <c r="W54" t="s">
+        <v>658</v>
+      </c>
+      <c r="X54" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>659</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>197</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ54" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK54" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL54" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM54" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN54" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO54" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP54" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ54" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR54" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS54" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT54" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU54" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV54" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW54" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX54" s="1">
+        <v>44990</v>
+      </c>
+      <c r="AY54" s="1">
+        <v>44988</v>
+      </c>
+      <c r="AZ54" t="s">
+        <v>107</v>
+      </c>
+      <c r="BA54" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB54" t="s">
+        <v>108</v>
+      </c>
+      <c r="BC54" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD54" t="s">
+        <v>108</v>
+      </c>
+      <c r="BE54" t="s">
+        <v>147</v>
+      </c>
+      <c r="BF54" t="s">
+        <v>660</v>
+      </c>
+      <c r="BG54" s="1">
+        <v>39591</v>
+      </c>
+      <c r="BH54" t="s">
+        <v>101</v>
+      </c>
+      <c r="BI54" t="s">
+        <v>101</v>
+      </c>
+      <c r="BJ54" t="s">
+        <v>101</v>
+      </c>
+      <c r="BL54" s="1">
+        <v>45026</v>
+      </c>
+      <c r="BM54" t="s">
+        <v>661</v>
+      </c>
+      <c r="BN54" t="s">
+        <v>310</v>
+      </c>
+      <c r="BO54" s="1">
+        <v>44991</v>
+      </c>
+      <c r="BP54" t="s">
+        <v>286</v>
+      </c>
+      <c r="BQ54" t="s">
+        <v>101</v>
+      </c>
+      <c r="BR54" t="s">
+        <v>101</v>
+      </c>
+      <c r="BS54" t="s">
+        <v>101</v>
+      </c>
+      <c r="BT54" t="s">
+        <v>287</v>
+      </c>
+      <c r="BU54" t="s">
+        <v>117</v>
+      </c>
+      <c r="BV54" t="s">
+        <v>311</v>
+      </c>
+      <c r="BW54" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX54" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY54" t="s">
+        <v>214</v>
+      </c>
+      <c r="BZ54" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA54" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB54" t="s">
+        <v>119</v>
+      </c>
+      <c r="CC54" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD54" t="s">
+        <v>119</v>
+      </c>
+      <c r="CE54">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>83</v>
+      </c>
+      <c r="B55" s="1">
+        <v>44998</v>
+      </c>
+      <c r="C55" t="s">
+        <v>264</v>
+      </c>
+      <c r="D55" t="s">
+        <v>85</v>
+      </c>
+      <c r="E55" t="s">
+        <v>404</v>
+      </c>
+      <c r="F55" t="s">
+        <v>405</v>
+      </c>
+      <c r="G55" t="s">
+        <v>662</v>
+      </c>
+      <c r="H55" t="s">
+        <v>101</v>
+      </c>
+      <c r="I55" t="s">
+        <v>663</v>
+      </c>
+      <c r="J55" t="s">
+        <v>664</v>
+      </c>
+      <c r="K55" t="s">
+        <v>91</v>
+      </c>
+      <c r="L55" t="s">
+        <v>665</v>
+      </c>
+      <c r="M55" t="s">
+        <v>120</v>
+      </c>
+      <c r="N55" t="s">
+        <v>94</v>
+      </c>
+      <c r="O55" t="s">
+        <v>95</v>
+      </c>
+      <c r="P55" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>97</v>
+      </c>
+      <c r="R55" t="s">
+        <v>95</v>
+      </c>
+      <c r="S55" t="s">
+        <v>98</v>
+      </c>
+      <c r="T55" t="s">
+        <v>99</v>
+      </c>
+      <c r="U55" t="s">
+        <v>94</v>
+      </c>
+      <c r="V55" t="s">
+        <v>235</v>
+      </c>
+      <c r="W55" t="s">
+        <v>101</v>
+      </c>
+      <c r="X55" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>666</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>370</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG55" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI55" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ55" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK55" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL55" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM55" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN55" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO55" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP55" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ55" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR55" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS55" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT55" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU55" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV55" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW55" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX55" s="1">
+        <v>44989</v>
+      </c>
+      <c r="AY55" s="1">
+        <v>44989</v>
+      </c>
+      <c r="AZ55" t="s">
+        <v>179</v>
+      </c>
+      <c r="BA55" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB55" t="s">
+        <v>108</v>
+      </c>
+      <c r="BC55" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD55" t="s">
+        <v>108</v>
+      </c>
+      <c r="BE55" t="s">
+        <v>147</v>
+      </c>
+      <c r="BF55" t="s">
+        <v>667</v>
+      </c>
+      <c r="BG55" s="1">
+        <v>41818</v>
+      </c>
+      <c r="BH55" t="s">
+        <v>101</v>
+      </c>
+      <c r="BI55" t="s">
+        <v>101</v>
+      </c>
+      <c r="BJ55" t="s">
+        <v>101</v>
+      </c>
+      <c r="BL55" s="1">
+        <v>45026</v>
+      </c>
+      <c r="BM55" t="s">
+        <v>413</v>
+      </c>
+      <c r="BN55" t="s">
+        <v>414</v>
+      </c>
+      <c r="BO55" s="1">
+        <v>44998</v>
+      </c>
+      <c r="BP55" t="s">
+        <v>415</v>
+      </c>
+      <c r="BQ55" t="s">
+        <v>101</v>
+      </c>
+      <c r="BR55" t="s">
+        <v>101</v>
+      </c>
+      <c r="BS55" t="s">
+        <v>101</v>
+      </c>
+      <c r="BT55" t="s">
+        <v>116</v>
+      </c>
+      <c r="BU55" t="s">
+        <v>117</v>
+      </c>
+      <c r="BV55" t="s">
+        <v>416</v>
+      </c>
+      <c r="BW55" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX55" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY55" t="s">
+        <v>119</v>
+      </c>
+      <c r="BZ55" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA55" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB55" t="s">
+        <v>119</v>
+      </c>
+      <c r="CC55" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD55" t="s">
+        <v>119</v>
+      </c>
+      <c r="CE55">
         <v>37</v>
       </c>
     </row>

--- a/Boletin_ Epi_Pereira/Datos/evento 831 datos basicos.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/evento 831 datos basicos.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5989" uniqueCount="811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6655" uniqueCount="869">
   <si>
     <t>cod_eve</t>
   </si>
@@ -1656,6 +1656,30 @@
     <t>315161737</t>
   </si>
   <si>
+    <t>DANA</t>
+  </si>
+  <si>
+    <t>ISABELA</t>
+  </si>
+  <si>
+    <t>PATIÑO</t>
+  </si>
+  <si>
+    <t>OSPINA</t>
+  </si>
+  <si>
+    <t>1089939682</t>
+  </si>
+  <si>
+    <t>CARRERA 10BIS # 22B-27</t>
+  </si>
+  <si>
+    <t>3148312431</t>
+  </si>
+  <si>
+    <t>CARLOS ANIBAL GUERRA</t>
+  </si>
+  <si>
     <t>MANUEL</t>
   </si>
   <si>
@@ -1680,6 +1704,27 @@
     <t>3146726257</t>
   </si>
   <si>
+    <t>PARAMO</t>
+  </si>
+  <si>
+    <t>GAITAN</t>
+  </si>
+  <si>
+    <t>1019122889</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>SANTA MONICA</t>
+  </si>
+  <si>
+    <t>CALLE 19 # 5-26</t>
+  </si>
+  <si>
+    <t>3209002007</t>
+  </si>
+  <si>
     <t>MARIANA</t>
   </si>
   <si>
@@ -1689,6 +1734,84 @@
     <t>1088018473</t>
   </si>
   <si>
+    <t>SIMON</t>
+  </si>
+  <si>
+    <t>TANGARIFE</t>
+  </si>
+  <si>
+    <t>1085720754</t>
+  </si>
+  <si>
+    <t>NARANJITO CUBA MZ 8 CASA 73</t>
+  </si>
+  <si>
+    <t>3217721102</t>
+  </si>
+  <si>
+    <t>VALENTINA</t>
+  </si>
+  <si>
+    <t>BERNAL</t>
+  </si>
+  <si>
+    <t>LOAIZA</t>
+  </si>
+  <si>
+    <t>1089101905</t>
+  </si>
+  <si>
+    <t>MANZAN 2 CASA 28</t>
+  </si>
+  <si>
+    <t>3213579866</t>
+  </si>
+  <si>
+    <t>ALEJANDRA LOPEZ</t>
+  </si>
+  <si>
+    <t>3140726257</t>
+  </si>
+  <si>
+    <t>GERALDINE</t>
+  </si>
+  <si>
+    <t>MARIN</t>
+  </si>
+  <si>
+    <t>1089616831</t>
+  </si>
+  <si>
+    <t>3 ESQUINAS TIENDA J Y D</t>
+  </si>
+  <si>
+    <t>3135252376</t>
+  </si>
+  <si>
+    <t>NICOLAS</t>
+  </si>
+  <si>
+    <t>CHALARCA</t>
+  </si>
+  <si>
+    <t>1128907930</t>
+  </si>
+  <si>
+    <t>VILLA ALEXANDRA</t>
+  </si>
+  <si>
+    <t>MANZANA 11 CASA 12</t>
+  </si>
+  <si>
+    <t>3203338672</t>
+  </si>
+  <si>
+    <t>JUAN GALVIS</t>
+  </si>
+  <si>
+    <t>320769511</t>
+  </si>
+  <si>
     <t>6600102477</t>
   </si>
   <si>
@@ -1716,6 +1839,69 @@
     <t>GRUPO EMI</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>YASMIN</t>
+  </si>
+  <si>
+    <t>CIFUENTES</t>
+  </si>
+  <si>
+    <t>1114120924</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>CLL 11 · 24-230</t>
+  </si>
+  <si>
+    <t>32301</t>
+  </si>
+  <si>
+    <t>3142109107</t>
+  </si>
+  <si>
+    <t>ESTEFANIA OYOLA OCAMPO</t>
+  </si>
+  <si>
+    <t>3108335523</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>SEPULVEDA</t>
+  </si>
+  <si>
+    <t>1027284801</t>
+  </si>
+  <si>
+    <t>CORALINA MZ 9 CASA 5 BELMONTE</t>
+  </si>
+  <si>
+    <t>3102706013</t>
+  </si>
+  <si>
+    <t>JHAUGH GALEANO RAMIREZ</t>
+  </si>
+  <si>
+    <t>1089936672</t>
+  </si>
+  <si>
+    <t>CARRERA 10B # 22B-27 PISO 2°</t>
+  </si>
+  <si>
+    <t>3002202230</t>
+  </si>
+  <si>
+    <t>CAMILO ACOSTA</t>
+  </si>
+  <si>
+    <t>3146408557</t>
+  </si>
+  <si>
     <t>HERNAN</t>
   </si>
   <si>
@@ -1749,9 +1935,6 @@
     <t>1019075093</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
     <t>CALLE 13 A # 12 - B 15 NUEVO CONTRI</t>
   </si>
   <si>
@@ -2097,9 +2280,6 @@
     <t>1094954679</t>
   </si>
   <si>
-    <t>26</t>
-  </si>
-  <si>
     <t>877</t>
   </si>
   <si>
@@ -2139,9 +2319,6 @@
     <t>3197337567</t>
   </si>
   <si>
-    <t>CAMILO ACOSTA</t>
-  </si>
-  <si>
     <t>3146408357</t>
   </si>
   <si>
@@ -2347,9 +2524,6 @@
   </si>
   <si>
     <t>3225443703</t>
-  </si>
-  <si>
-    <t>3146408557</t>
   </si>
   <si>
     <t>CARRILLO</t>
@@ -2835,7 +3009,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CE81"/>
+  <dimension ref="A1:CE90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3280,7 +3454,7 @@
         <v>112</v>
       </c>
       <c r="BL2" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM2" t="s">
         <v>113</v>
@@ -3528,7 +3702,7 @@
         <v>112</v>
       </c>
       <c r="BL3" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM3" t="s">
         <v>132</v>
@@ -3773,7 +3947,7 @@
         <v>101</v>
       </c>
       <c r="BL4" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM4" t="s">
         <v>149</v>
@@ -4018,7 +4192,7 @@
         <v>101</v>
       </c>
       <c r="BL5" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM5" t="s">
         <v>163</v>
@@ -4263,7 +4437,7 @@
         <v>101</v>
       </c>
       <c r="BL6" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM6" t="s">
         <v>168</v>
@@ -4508,7 +4682,7 @@
         <v>101</v>
       </c>
       <c r="BL7" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM7" t="s">
         <v>182</v>
@@ -4753,7 +4927,7 @@
         <v>101</v>
       </c>
       <c r="BL8" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM8" t="s">
         <v>199</v>
@@ -4998,7 +5172,7 @@
         <v>101</v>
       </c>
       <c r="BL9" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM9" t="s">
         <v>149</v>
@@ -5243,7 +5417,7 @@
         <v>101</v>
       </c>
       <c r="BL10" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM10" t="s">
         <v>226</v>
@@ -5488,7 +5662,7 @@
         <v>101</v>
       </c>
       <c r="BL11" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM11" t="s">
         <v>239</v>
@@ -5733,7 +5907,7 @@
         <v>101</v>
       </c>
       <c r="BL12" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM12" t="s">
         <v>253</v>
@@ -5978,7 +6152,7 @@
         <v>101</v>
       </c>
       <c r="BL13" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM13" t="s">
         <v>268</v>
@@ -6223,7 +6397,7 @@
         <v>101</v>
       </c>
       <c r="BL14" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM14" t="s">
         <v>268</v>
@@ -6468,7 +6642,7 @@
         <v>101</v>
       </c>
       <c r="BL15" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM15" t="s">
         <v>292</v>
@@ -6713,7 +6887,7 @@
         <v>101</v>
       </c>
       <c r="BL16" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM16" t="s">
         <v>303</v>
@@ -6958,7 +7132,7 @@
         <v>101</v>
       </c>
       <c r="BL17" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM17" t="s">
         <v>268</v>
@@ -7203,7 +7377,7 @@
         <v>101</v>
       </c>
       <c r="BL18" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM18" t="s">
         <v>321</v>
@@ -7448,7 +7622,7 @@
         <v>101</v>
       </c>
       <c r="BL19" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM19" t="s">
         <v>268</v>
@@ -7693,7 +7867,7 @@
         <v>101</v>
       </c>
       <c r="BL20" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM20" t="s">
         <v>268</v>
@@ -7938,7 +8112,7 @@
         <v>101</v>
       </c>
       <c r="BL21" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM21" t="s">
         <v>268</v>
@@ -8183,7 +8357,7 @@
         <v>101</v>
       </c>
       <c r="BL22" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM22" t="s">
         <v>352</v>
@@ -8428,7 +8602,7 @@
         <v>101</v>
       </c>
       <c r="BL23" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM23" t="s">
         <v>361</v>
@@ -8673,7 +8847,7 @@
         <v>101</v>
       </c>
       <c r="BL24" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM24" t="s">
         <v>371</v>
@@ -8918,7 +9092,7 @@
         <v>101</v>
       </c>
       <c r="BL25" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM25" t="s">
         <v>384</v>
@@ -9163,7 +9337,7 @@
         <v>101</v>
       </c>
       <c r="BL26" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM26" t="s">
         <v>268</v>
@@ -9408,7 +9582,7 @@
         <v>101</v>
       </c>
       <c r="BL27" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM27" t="s">
         <v>268</v>
@@ -9653,7 +9827,7 @@
         <v>101</v>
       </c>
       <c r="BL28" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM28" t="s">
         <v>402</v>
@@ -9898,7 +10072,7 @@
         <v>101</v>
       </c>
       <c r="BL29" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM29" t="s">
         <v>407</v>
@@ -10143,7 +10317,7 @@
         <v>101</v>
       </c>
       <c r="BL30" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM30" t="s">
         <v>268</v>
@@ -10388,7 +10562,7 @@
         <v>101</v>
       </c>
       <c r="BL31" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM31" t="s">
         <v>268</v>
@@ -10633,7 +10807,7 @@
         <v>101</v>
       </c>
       <c r="BL32" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM32" t="s">
         <v>426</v>
@@ -10878,7 +11052,7 @@
         <v>101</v>
       </c>
       <c r="BL33" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM33" t="s">
         <v>434</v>
@@ -11123,7 +11297,7 @@
         <v>101</v>
       </c>
       <c r="BL34" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM34" t="s">
         <v>446</v>
@@ -11368,7 +11542,7 @@
         <v>101</v>
       </c>
       <c r="BL35" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM35" t="s">
         <v>168</v>
@@ -11613,7 +11787,7 @@
         <v>101</v>
       </c>
       <c r="BL36" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM36" t="s">
         <v>462</v>
@@ -11858,7 +12032,7 @@
         <v>101</v>
       </c>
       <c r="BL37" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM37" t="s">
         <v>471</v>
@@ -12103,7 +12277,7 @@
         <v>101</v>
       </c>
       <c r="BL38" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM38" t="s">
         <v>434</v>
@@ -12348,7 +12522,7 @@
         <v>101</v>
       </c>
       <c r="BL39" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM39" t="s">
         <v>487</v>
@@ -12593,7 +12767,7 @@
         <v>101</v>
       </c>
       <c r="BL40" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM40" t="s">
         <v>268</v>
@@ -12838,7 +13012,7 @@
         <v>101</v>
       </c>
       <c r="BL41" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM41" t="s">
         <v>434</v>
@@ -13083,7 +13257,7 @@
         <v>101</v>
       </c>
       <c r="BL42" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM42" t="s">
         <v>512</v>
@@ -13328,7 +13502,7 @@
         <v>101</v>
       </c>
       <c r="BL43" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM43" t="s">
         <v>523</v>
@@ -13573,7 +13747,7 @@
         <v>101</v>
       </c>
       <c r="BL44" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM44" t="s">
         <v>268</v>
@@ -13818,7 +13992,7 @@
         <v>101</v>
       </c>
       <c r="BL45" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM45" t="s">
         <v>535</v>
@@ -14063,7 +14237,7 @@
         <v>101</v>
       </c>
       <c r="BL46" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM46" t="s">
         <v>434</v>
@@ -14128,7 +14302,7 @@
         <v>83</v>
       </c>
       <c r="B47" s="1">
-        <v>45023</v>
+        <v>45024</v>
       </c>
       <c r="C47" t="s">
         <v>380</v>
@@ -14137,31 +14311,31 @@
         <v>85</v>
       </c>
       <c r="E47" t="s">
-        <v>281</v>
+        <v>133</v>
       </c>
       <c r="F47" t="s">
-        <v>180</v>
+        <v>87</v>
       </c>
       <c r="G47" t="s">
-        <v>260</v>
+        <v>545</v>
       </c>
       <c r="H47" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="I47" t="s">
-        <v>314</v>
+        <v>547</v>
       </c>
       <c r="J47" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="K47" t="s">
         <v>91</v>
       </c>
       <c r="L47" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="M47" t="s">
-        <v>391</v>
+        <v>120</v>
       </c>
       <c r="N47" t="s">
         <v>94</v>
@@ -14173,7 +14347,7 @@
         <v>96</v>
       </c>
       <c r="Q47" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="R47" t="s">
         <v>95</v>
@@ -14185,22 +14359,22 @@
         <v>99</v>
       </c>
       <c r="U47" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="V47" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="W47" t="s">
-        <v>423</v>
+        <v>101</v>
       </c>
       <c r="X47" t="s">
         <v>101</v>
       </c>
       <c r="Y47" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="Z47" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="AA47" t="s">
         <v>266</v>
@@ -14209,13 +14383,13 @@
         <v>145</v>
       </c>
       <c r="AC47" t="s">
-        <v>549</v>
+        <v>146</v>
       </c>
       <c r="AD47" t="s">
         <v>84</v>
       </c>
       <c r="AF47" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="AG47" t="s">
         <v>100</v>
@@ -14230,7 +14404,7 @@
         <v>100</v>
       </c>
       <c r="AK47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AL47" t="s">
         <v>101</v>
@@ -14242,7 +14416,7 @@
         <v>100</v>
       </c>
       <c r="AO47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AP47" t="s">
         <v>100</v>
@@ -14257,7 +14431,7 @@
         <v>94</v>
       </c>
       <c r="AT47" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AU47" t="s">
         <v>95</v>
@@ -14269,7 +14443,7 @@
         <v>99</v>
       </c>
       <c r="AX47" s="1">
-        <v>45023</v>
+        <v>45024</v>
       </c>
       <c r="AY47" s="1">
         <v>45021</v>
@@ -14293,10 +14467,10 @@
         <v>147</v>
       </c>
       <c r="BF47" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="BG47" s="1">
-        <v>38577</v>
+        <v>41811</v>
       </c>
       <c r="BH47" t="s">
         <v>101</v>
@@ -14308,19 +14482,19 @@
         <v>101</v>
       </c>
       <c r="BL47" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM47" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="BN47" t="s">
-        <v>552</v>
+        <v>524</v>
       </c>
       <c r="BO47" s="1">
-        <v>45028</v>
+        <v>45040</v>
       </c>
       <c r="BP47" t="s">
-        <v>294</v>
+        <v>151</v>
       </c>
       <c r="BQ47" t="s">
         <v>101</v>
@@ -14338,7 +14512,7 @@
         <v>117</v>
       </c>
       <c r="BV47" t="s">
-        <v>354</v>
+        <v>153</v>
       </c>
       <c r="BW47" t="s">
         <v>96</v>
@@ -14365,7 +14539,7 @@
         <v>119</v>
       </c>
       <c r="CE47">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:83" x14ac:dyDescent="0.2">
@@ -14373,40 +14547,40 @@
         <v>83</v>
       </c>
       <c r="B48" s="1">
-        <v>45027</v>
+        <v>45023</v>
       </c>
       <c r="C48" t="s">
-        <v>126</v>
+        <v>380</v>
       </c>
       <c r="D48" t="s">
         <v>85</v>
       </c>
       <c r="E48" t="s">
-        <v>133</v>
+        <v>281</v>
       </c>
       <c r="F48" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="G48" t="s">
+        <v>260</v>
+      </c>
+      <c r="H48" t="s">
         <v>553</v>
       </c>
-      <c r="H48" t="s">
-        <v>101</v>
-      </c>
       <c r="I48" t="s">
-        <v>539</v>
+        <v>314</v>
       </c>
       <c r="J48" t="s">
         <v>554</v>
       </c>
       <c r="K48" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="L48" t="s">
         <v>555</v>
       </c>
       <c r="M48" t="s">
-        <v>286</v>
+        <v>391</v>
       </c>
       <c r="N48" t="s">
         <v>94</v>
@@ -14418,7 +14592,7 @@
         <v>96</v>
       </c>
       <c r="Q48" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="R48" t="s">
         <v>95</v>
@@ -14427,40 +14601,40 @@
         <v>98</v>
       </c>
       <c r="T48" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="U48" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="V48" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="W48" t="s">
-        <v>101</v>
+        <v>423</v>
       </c>
       <c r="X48" t="s">
         <v>101</v>
       </c>
       <c r="Y48" t="s">
-        <v>541</v>
+        <v>101</v>
       </c>
       <c r="Z48" t="s">
-        <v>542</v>
+        <v>556</v>
       </c>
       <c r="AA48" t="s">
-        <v>104</v>
+        <v>266</v>
       </c>
       <c r="AB48" t="s">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="AC48" t="s">
-        <v>106</v>
+        <v>557</v>
       </c>
       <c r="AD48" t="s">
         <v>84</v>
       </c>
       <c r="AF48" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="AG48" t="s">
         <v>100</v>
@@ -14475,7 +14649,7 @@
         <v>100</v>
       </c>
       <c r="AK48" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL48" t="s">
         <v>101</v>
@@ -14487,7 +14661,7 @@
         <v>100</v>
       </c>
       <c r="AO48" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AP48" t="s">
         <v>100</v>
@@ -14511,13 +14685,13 @@
         <v>98</v>
       </c>
       <c r="AW48" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="AX48" s="1">
-        <v>45027</v>
+        <v>45023</v>
       </c>
       <c r="AY48" s="1">
-        <v>45025</v>
+        <v>45021</v>
       </c>
       <c r="AZ48" t="s">
         <v>107</v>
@@ -14538,10 +14712,10 @@
         <v>147</v>
       </c>
       <c r="BF48" t="s">
-        <v>543</v>
+        <v>558</v>
       </c>
       <c r="BG48" s="1">
-        <v>34446</v>
+        <v>38577</v>
       </c>
       <c r="BH48" t="s">
         <v>101</v>
@@ -14553,19 +14727,19 @@
         <v>101</v>
       </c>
       <c r="BL48" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM48" t="s">
-        <v>434</v>
+        <v>559</v>
       </c>
       <c r="BN48" t="s">
-        <v>435</v>
+        <v>560</v>
       </c>
       <c r="BO48" s="1">
-        <v>45029</v>
+        <v>45028</v>
       </c>
       <c r="BP48" t="s">
-        <v>151</v>
+        <v>294</v>
       </c>
       <c r="BQ48" t="s">
         <v>101</v>
@@ -14583,7 +14757,7 @@
         <v>117</v>
       </c>
       <c r="BV48" t="s">
-        <v>153</v>
+        <v>354</v>
       </c>
       <c r="BW48" t="s">
         <v>96</v>
@@ -14592,7 +14766,7 @@
         <v>118</v>
       </c>
       <c r="BY48" t="s">
-        <v>214</v>
+        <v>119</v>
       </c>
       <c r="BZ48" t="s">
         <v>96</v>
@@ -14601,7 +14775,7 @@
         <v>118</v>
       </c>
       <c r="CB48" t="s">
-        <v>214</v>
+        <v>119</v>
       </c>
       <c r="CC48" t="s">
         <v>118</v>
@@ -14610,7 +14784,7 @@
         <v>119</v>
       </c>
       <c r="CE48">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:83" x14ac:dyDescent="0.2">
@@ -14618,7 +14792,7 @@
         <v>83</v>
       </c>
       <c r="B49" s="1">
-        <v>45027</v>
+        <v>45029</v>
       </c>
       <c r="C49" t="s">
         <v>126</v>
@@ -14627,31 +14801,31 @@
         <v>85</v>
       </c>
       <c r="E49" t="s">
-        <v>556</v>
+        <v>133</v>
       </c>
       <c r="F49" t="s">
         <v>87</v>
       </c>
       <c r="G49" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
       <c r="H49" t="s">
-        <v>101</v>
+        <v>261</v>
       </c>
       <c r="I49" t="s">
-        <v>156</v>
+        <v>561</v>
       </c>
       <c r="J49" t="s">
-        <v>156</v>
+        <v>562</v>
       </c>
       <c r="K49" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="L49" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="M49" t="s">
-        <v>109</v>
+        <v>564</v>
       </c>
       <c r="N49" t="s">
         <v>94</v>
@@ -14678,7 +14852,7 @@
         <v>94</v>
       </c>
       <c r="V49" t="s">
-        <v>235</v>
+        <v>141</v>
       </c>
       <c r="W49" t="s">
         <v>101</v>
@@ -14687,10 +14861,10 @@
         <v>101</v>
       </c>
       <c r="Y49" t="s">
-        <v>368</v>
+        <v>565</v>
       </c>
       <c r="Z49" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="AA49" t="s">
         <v>104</v>
@@ -14699,13 +14873,13 @@
         <v>145</v>
       </c>
       <c r="AC49" t="s">
-        <v>549</v>
+        <v>146</v>
       </c>
       <c r="AD49" t="s">
         <v>84</v>
       </c>
       <c r="AF49" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="AG49" t="s">
         <v>100</v>
@@ -14759,7 +14933,7 @@
         <v>95</v>
       </c>
       <c r="AX49" s="1">
-        <v>45027</v>
+        <v>45029</v>
       </c>
       <c r="AY49" s="1">
         <v>45025</v>
@@ -14783,10 +14957,10 @@
         <v>147</v>
       </c>
       <c r="BF49" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="BG49" s="1">
-        <v>42343</v>
+        <v>35275</v>
       </c>
       <c r="BH49" t="s">
         <v>101</v>
@@ -14798,19 +14972,19 @@
         <v>101</v>
       </c>
       <c r="BL49" s="1">
+        <v>45041</v>
+      </c>
+      <c r="BM49" t="s">
+        <v>168</v>
+      </c>
+      <c r="BN49" t="s">
+        <v>164</v>
+      </c>
+      <c r="BO49" s="1">
         <v>45034</v>
       </c>
-      <c r="BM49" t="s">
-        <v>561</v>
-      </c>
-      <c r="BN49" t="s">
-        <v>562</v>
-      </c>
-      <c r="BO49" s="1">
-        <v>45028</v>
-      </c>
       <c r="BP49" t="s">
-        <v>563</v>
+        <v>151</v>
       </c>
       <c r="BQ49" t="s">
         <v>101</v>
@@ -14822,13 +14996,13 @@
         <v>101</v>
       </c>
       <c r="BT49" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="BU49" t="s">
         <v>117</v>
       </c>
       <c r="BV49" t="s">
-        <v>564</v>
+        <v>153</v>
       </c>
       <c r="BW49" t="s">
         <v>96</v>
@@ -14855,7 +15029,7 @@
         <v>119</v>
       </c>
       <c r="CE49">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:83" x14ac:dyDescent="0.2">
@@ -14863,10 +15037,10 @@
         <v>83</v>
       </c>
       <c r="B50" s="1">
-        <v>44948</v>
+        <v>45027</v>
       </c>
       <c r="C50" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D50" t="s">
         <v>85</v>
@@ -14878,25 +15052,25 @@
         <v>87</v>
       </c>
       <c r="G50" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="H50" t="s">
-        <v>566</v>
+        <v>101</v>
       </c>
       <c r="I50" t="s">
-        <v>567</v>
+        <v>539</v>
       </c>
       <c r="J50" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="K50" t="s">
         <v>138</v>
       </c>
       <c r="L50" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M50" t="s">
-        <v>474</v>
+        <v>286</v>
       </c>
       <c r="N50" t="s">
         <v>94</v>
@@ -14908,7 +15082,7 @@
         <v>96</v>
       </c>
       <c r="Q50" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="R50" t="s">
         <v>95</v>
@@ -14917,7 +15091,7 @@
         <v>98</v>
       </c>
       <c r="T50" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="U50" t="s">
         <v>94</v>
@@ -14932,25 +15106,25 @@
         <v>101</v>
       </c>
       <c r="Y50" t="s">
-        <v>368</v>
+        <v>541</v>
       </c>
       <c r="Z50" t="s">
-        <v>570</v>
+        <v>542</v>
       </c>
       <c r="AA50" t="s">
         <v>104</v>
       </c>
       <c r="AB50" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="AC50" t="s">
-        <v>197</v>
+        <v>106</v>
       </c>
       <c r="AD50" t="s">
         <v>84</v>
       </c>
       <c r="AF50" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="AG50" t="s">
         <v>100</v>
@@ -14965,7 +15139,7 @@
         <v>100</v>
       </c>
       <c r="AK50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AL50" t="s">
         <v>101</v>
@@ -14977,7 +15151,7 @@
         <v>100</v>
       </c>
       <c r="AO50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AP50" t="s">
         <v>100</v>
@@ -14992,7 +15166,7 @@
         <v>94</v>
       </c>
       <c r="AT50" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AU50" t="s">
         <v>95</v>
@@ -15001,13 +15175,13 @@
         <v>98</v>
       </c>
       <c r="AW50" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="AX50" s="1">
-        <v>44948</v>
+        <v>45027</v>
       </c>
       <c r="AY50" s="1">
-        <v>44945</v>
+        <v>45025</v>
       </c>
       <c r="AZ50" t="s">
         <v>107</v>
@@ -15028,10 +15202,10 @@
         <v>147</v>
       </c>
       <c r="BF50" t="s">
-        <v>571</v>
+        <v>543</v>
       </c>
       <c r="BG50" s="1">
-        <v>36520</v>
+        <v>34446</v>
       </c>
       <c r="BH50" t="s">
         <v>101</v>
@@ -15043,16 +15217,16 @@
         <v>101</v>
       </c>
       <c r="BL50" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM50" t="s">
-        <v>572</v>
+        <v>434</v>
       </c>
       <c r="BN50" t="s">
-        <v>524</v>
+        <v>435</v>
       </c>
       <c r="BO50" s="1">
-        <v>44959</v>
+        <v>45029</v>
       </c>
       <c r="BP50" t="s">
         <v>151</v>
@@ -15067,7 +15241,7 @@
         <v>101</v>
       </c>
       <c r="BT50" t="s">
-        <v>271</v>
+        <v>116</v>
       </c>
       <c r="BU50" t="s">
         <v>117</v>
@@ -15082,7 +15256,7 @@
         <v>118</v>
       </c>
       <c r="BY50" t="s">
-        <v>119</v>
+        <v>214</v>
       </c>
       <c r="BZ50" t="s">
         <v>96</v>
@@ -15091,7 +15265,7 @@
         <v>118</v>
       </c>
       <c r="CB50" t="s">
-        <v>119</v>
+        <v>214</v>
       </c>
       <c r="CC50" t="s">
         <v>118</v>
@@ -15100,7 +15274,7 @@
         <v>119</v>
       </c>
       <c r="CE50">
-        <v>13</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:83" x14ac:dyDescent="0.2">
@@ -15108,40 +15282,40 @@
         <v>83</v>
       </c>
       <c r="B51" s="1">
-        <v>44948</v>
+        <v>45029</v>
       </c>
       <c r="C51" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D51" t="s">
         <v>85</v>
       </c>
       <c r="E51" t="s">
-        <v>281</v>
+        <v>133</v>
       </c>
       <c r="F51" t="s">
-        <v>180</v>
+        <v>87</v>
       </c>
       <c r="G51" t="s">
+        <v>571</v>
+      </c>
+      <c r="H51" t="s">
+        <v>101</v>
+      </c>
+      <c r="I51" t="s">
+        <v>572</v>
+      </c>
+      <c r="J51" t="s">
+        <v>539</v>
+      </c>
+      <c r="K51" t="s">
+        <v>91</v>
+      </c>
+      <c r="L51" t="s">
         <v>573</v>
       </c>
-      <c r="H51" t="s">
-        <v>101</v>
-      </c>
-      <c r="I51" t="s">
-        <v>437</v>
-      </c>
-      <c r="J51" t="s">
-        <v>574</v>
-      </c>
-      <c r="K51" t="s">
-        <v>138</v>
-      </c>
-      <c r="L51" t="s">
-        <v>575</v>
-      </c>
       <c r="M51" t="s">
-        <v>576</v>
+        <v>93</v>
       </c>
       <c r="N51" t="s">
         <v>94</v>
@@ -15153,7 +15327,7 @@
         <v>96</v>
       </c>
       <c r="Q51" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="R51" t="s">
         <v>95</v>
@@ -15165,37 +15339,37 @@
         <v>99</v>
       </c>
       <c r="U51" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="V51" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="W51" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="X51" t="s">
         <v>101</v>
       </c>
       <c r="Y51" t="s">
-        <v>101</v>
+        <v>423</v>
       </c>
       <c r="Z51" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="AA51" t="s">
-        <v>578</v>
+        <v>266</v>
       </c>
       <c r="AB51" t="s">
         <v>145</v>
       </c>
       <c r="AC51" t="s">
-        <v>579</v>
+        <v>146</v>
       </c>
       <c r="AD51" t="s">
         <v>84</v>
       </c>
       <c r="AF51" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="AG51" t="s">
         <v>100</v>
@@ -15210,7 +15384,7 @@
         <v>100</v>
       </c>
       <c r="AK51" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL51" t="s">
         <v>101</v>
@@ -15222,7 +15396,7 @@
         <v>100</v>
       </c>
       <c r="AO51" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AP51" t="s">
         <v>100</v>
@@ -15243,16 +15417,16 @@
         <v>95</v>
       </c>
       <c r="AV51" t="s">
-        <v>248</v>
+        <v>98</v>
       </c>
       <c r="AW51" t="s">
         <v>99</v>
       </c>
       <c r="AX51" s="1">
-        <v>44948</v>
+        <v>45029</v>
       </c>
       <c r="AY51" s="1">
-        <v>44943</v>
+        <v>45028</v>
       </c>
       <c r="AZ51" t="s">
         <v>107</v>
@@ -15273,10 +15447,10 @@
         <v>147</v>
       </c>
       <c r="BF51" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="BG51" s="1">
-        <v>33834</v>
+        <v>40590</v>
       </c>
       <c r="BH51" t="s">
         <v>101</v>
@@ -15288,19 +15462,19 @@
         <v>101</v>
       </c>
       <c r="BL51" s="1">
+        <v>45041</v>
+      </c>
+      <c r="BM51" t="s">
+        <v>434</v>
+      </c>
+      <c r="BN51" t="s">
+        <v>435</v>
+      </c>
+      <c r="BO51" s="1">
         <v>45034</v>
       </c>
-      <c r="BM51" t="s">
-        <v>581</v>
-      </c>
-      <c r="BN51" t="s">
-        <v>582</v>
-      </c>
-      <c r="BO51" s="1">
-        <v>44950</v>
-      </c>
       <c r="BP51" t="s">
-        <v>294</v>
+        <v>151</v>
       </c>
       <c r="BQ51" t="s">
         <v>101</v>
@@ -15312,13 +15486,13 @@
         <v>101</v>
       </c>
       <c r="BT51" t="s">
-        <v>271</v>
+        <v>116</v>
       </c>
       <c r="BU51" t="s">
         <v>117</v>
       </c>
       <c r="BV51" t="s">
-        <v>354</v>
+        <v>153</v>
       </c>
       <c r="BW51" t="s">
         <v>96</v>
@@ -15333,10 +15507,10 @@
         <v>96</v>
       </c>
       <c r="CA51" t="s">
-        <v>583</v>
+        <v>118</v>
       </c>
       <c r="CB51" t="s">
-        <v>583</v>
+        <v>119</v>
       </c>
       <c r="CC51" t="s">
         <v>118</v>
@@ -15345,7 +15519,7 @@
         <v>119</v>
       </c>
       <c r="CE51">
-        <v>9</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:83" x14ac:dyDescent="0.2">
@@ -15353,10 +15527,10 @@
         <v>83</v>
       </c>
       <c r="B52" s="1">
-        <v>44949</v>
+        <v>45027</v>
       </c>
       <c r="C52" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D52" t="s">
         <v>85</v>
@@ -15368,25 +15542,25 @@
         <v>180</v>
       </c>
       <c r="G52" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="H52" t="s">
-        <v>345</v>
+        <v>101</v>
       </c>
       <c r="I52" t="s">
-        <v>438</v>
+        <v>577</v>
       </c>
       <c r="J52" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="K52" t="s">
-        <v>340</v>
+        <v>91</v>
       </c>
       <c r="L52" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="M52" t="s">
-        <v>94</v>
+        <v>248</v>
       </c>
       <c r="N52" t="s">
         <v>94</v>
@@ -15398,7 +15572,7 @@
         <v>96</v>
       </c>
       <c r="Q52" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="R52" t="s">
         <v>95</v>
@@ -15416,7 +15590,7 @@
         <v>101</v>
       </c>
       <c r="W52" t="s">
-        <v>587</v>
+        <v>119</v>
       </c>
       <c r="X52" t="s">
         <v>101</v>
@@ -15425,16 +15599,16 @@
         <v>101</v>
       </c>
       <c r="Z52" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="AA52" t="s">
-        <v>104</v>
+        <v>266</v>
       </c>
       <c r="AB52" t="s">
         <v>145</v>
       </c>
       <c r="AC52" t="s">
-        <v>549</v>
+        <v>290</v>
       </c>
       <c r="AD52" t="s">
         <v>84</v>
@@ -15455,7 +15629,7 @@
         <v>100</v>
       </c>
       <c r="AK52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AL52" t="s">
         <v>101</v>
@@ -15467,7 +15641,7 @@
         <v>100</v>
       </c>
       <c r="AO52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AP52" t="s">
         <v>100</v>
@@ -15482,7 +15656,7 @@
         <v>94</v>
       </c>
       <c r="AT52" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AU52" t="s">
         <v>95</v>
@@ -15494,10 +15668,10 @@
         <v>99</v>
       </c>
       <c r="AX52" s="1">
-        <v>44949</v>
+        <v>45027</v>
       </c>
       <c r="AY52" s="1">
-        <v>44946</v>
+        <v>45026</v>
       </c>
       <c r="AZ52" t="s">
         <v>107</v>
@@ -15518,10 +15692,10 @@
         <v>147</v>
       </c>
       <c r="BF52" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="BG52" s="1">
-        <v>44322</v>
+        <v>40972</v>
       </c>
       <c r="BH52" t="s">
         <v>101</v>
@@ -15533,16 +15707,16 @@
         <v>101</v>
       </c>
       <c r="BL52" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM52" t="s">
-        <v>551</v>
+        <v>582</v>
       </c>
       <c r="BN52" t="s">
-        <v>552</v>
+        <v>583</v>
       </c>
       <c r="BO52" s="1">
-        <v>44956</v>
+        <v>45033</v>
       </c>
       <c r="BP52" t="s">
         <v>294</v>
@@ -15557,7 +15731,7 @@
         <v>101</v>
       </c>
       <c r="BT52" t="s">
-        <v>271</v>
+        <v>116</v>
       </c>
       <c r="BU52" t="s">
         <v>117</v>
@@ -15590,7 +15764,7 @@
         <v>119</v>
       </c>
       <c r="CE52">
-        <v>10</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:83" x14ac:dyDescent="0.2">
@@ -15598,40 +15772,40 @@
         <v>83</v>
       </c>
       <c r="B53" s="1">
-        <v>44949</v>
+        <v>45028</v>
       </c>
       <c r="C53" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D53" t="s">
         <v>85</v>
       </c>
       <c r="E53" t="s">
-        <v>86</v>
+        <v>133</v>
       </c>
       <c r="F53" t="s">
         <v>87</v>
       </c>
       <c r="G53" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="H53" t="s">
-        <v>591</v>
+        <v>101</v>
       </c>
       <c r="I53" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="J53" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="K53" t="s">
         <v>91</v>
       </c>
       <c r="L53" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="M53" t="s">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N53" t="s">
         <v>94</v>
@@ -15643,7 +15817,7 @@
         <v>96</v>
       </c>
       <c r="Q53" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="R53" t="s">
         <v>95</v>
@@ -15655,37 +15829,37 @@
         <v>99</v>
       </c>
       <c r="U53" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="V53" t="s">
         <v>101</v>
       </c>
       <c r="W53" t="s">
-        <v>595</v>
+        <v>101</v>
       </c>
       <c r="X53" t="s">
-        <v>101</v>
+        <v>194</v>
       </c>
       <c r="Y53" t="s">
         <v>101</v>
       </c>
       <c r="Z53" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="AA53" t="s">
-        <v>104</v>
+        <v>266</v>
       </c>
       <c r="AB53" t="s">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="AC53" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="AD53" t="s">
         <v>84</v>
       </c>
       <c r="AF53" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AG53" t="s">
         <v>100</v>
@@ -15700,7 +15874,7 @@
         <v>100</v>
       </c>
       <c r="AK53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AL53" t="s">
         <v>101</v>
@@ -15712,7 +15886,7 @@
         <v>100</v>
       </c>
       <c r="AO53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AP53" t="s">
         <v>100</v>
@@ -15739,10 +15913,10 @@
         <v>99</v>
       </c>
       <c r="AX53" s="1">
-        <v>44949</v>
+        <v>45028</v>
       </c>
       <c r="AY53" s="1">
-        <v>44947</v>
+        <v>45025</v>
       </c>
       <c r="AZ53" t="s">
         <v>107</v>
@@ -15763,10 +15937,10 @@
         <v>147</v>
       </c>
       <c r="BF53" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="BG53" s="1">
-        <v>41819</v>
+        <v>41219</v>
       </c>
       <c r="BH53" t="s">
         <v>101</v>
@@ -15778,19 +15952,19 @@
         <v>101</v>
       </c>
       <c r="BL53" s="1">
+        <v>45041</v>
+      </c>
+      <c r="BM53" t="s">
+        <v>552</v>
+      </c>
+      <c r="BN53" t="s">
+        <v>524</v>
+      </c>
+      <c r="BO53" s="1">
         <v>45034</v>
       </c>
-      <c r="BM53" t="s">
-        <v>598</v>
-      </c>
-      <c r="BN53" t="s">
-        <v>599</v>
-      </c>
-      <c r="BO53" s="1">
-        <v>44950</v>
-      </c>
       <c r="BP53" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="BQ53" t="s">
         <v>101</v>
@@ -15802,13 +15976,13 @@
         <v>101</v>
       </c>
       <c r="BT53" t="s">
-        <v>169</v>
+        <v>116</v>
       </c>
       <c r="BU53" t="s">
         <v>117</v>
       </c>
       <c r="BV53" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="BW53" t="s">
         <v>96</v>
@@ -15835,7 +16009,7 @@
         <v>119</v>
       </c>
       <c r="CE53">
-        <v>8</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:83" x14ac:dyDescent="0.2">
@@ -15843,40 +16017,40 @@
         <v>83</v>
       </c>
       <c r="B54" s="1">
-        <v>44955</v>
+        <v>45030</v>
       </c>
       <c r="C54" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="D54" t="s">
         <v>85</v>
       </c>
       <c r="E54" t="s">
-        <v>281</v>
+        <v>133</v>
       </c>
       <c r="F54" t="s">
-        <v>180</v>
+        <v>87</v>
       </c>
       <c r="G54" t="s">
-        <v>260</v>
+        <v>589</v>
       </c>
       <c r="H54" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="I54" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="J54" t="s">
-        <v>601</v>
+        <v>413</v>
       </c>
       <c r="K54" t="s">
         <v>91</v>
       </c>
       <c r="L54" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="M54" t="s">
-        <v>410</v>
+        <v>277</v>
       </c>
       <c r="N54" t="s">
         <v>94</v>
@@ -15900,25 +16074,25 @@
         <v>95</v>
       </c>
       <c r="U54" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="V54" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="W54" t="s">
-        <v>603</v>
+        <v>101</v>
       </c>
       <c r="X54" t="s">
         <v>101</v>
       </c>
       <c r="Y54" t="s">
-        <v>101</v>
+        <v>592</v>
       </c>
       <c r="Z54" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="AA54" t="s">
-        <v>104</v>
+        <v>266</v>
       </c>
       <c r="AB54" t="s">
         <v>145</v>
@@ -15930,7 +16104,7 @@
         <v>84</v>
       </c>
       <c r="AF54" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="AG54" t="s">
         <v>100</v>
@@ -15984,10 +16158,10 @@
         <v>95</v>
       </c>
       <c r="AX54" s="1">
-        <v>44955</v>
+        <v>45030</v>
       </c>
       <c r="AY54" s="1">
-        <v>44953</v>
+        <v>45027</v>
       </c>
       <c r="AZ54" t="s">
         <v>107</v>
@@ -16008,10 +16182,10 @@
         <v>147</v>
       </c>
       <c r="BF54" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="BG54" s="1">
-        <v>40075</v>
+        <v>41598</v>
       </c>
       <c r="BH54" t="s">
         <v>101</v>
@@ -16023,19 +16197,19 @@
         <v>101</v>
       </c>
       <c r="BL54" s="1">
+        <v>45041</v>
+      </c>
+      <c r="BM54" t="s">
+        <v>595</v>
+      </c>
+      <c r="BN54" t="s">
+        <v>596</v>
+      </c>
+      <c r="BO54" s="1">
         <v>45034</v>
       </c>
-      <c r="BM54" t="s">
-        <v>606</v>
-      </c>
-      <c r="BN54" t="s">
-        <v>353</v>
-      </c>
-      <c r="BO54" s="1">
-        <v>44957</v>
-      </c>
       <c r="BP54" t="s">
-        <v>294</v>
+        <v>151</v>
       </c>
       <c r="BQ54" t="s">
         <v>101</v>
@@ -16047,13 +16221,13 @@
         <v>101</v>
       </c>
       <c r="BT54" t="s">
-        <v>169</v>
+        <v>116</v>
       </c>
       <c r="BU54" t="s">
         <v>117</v>
       </c>
       <c r="BV54" t="s">
-        <v>354</v>
+        <v>153</v>
       </c>
       <c r="BW54" t="s">
         <v>96</v>
@@ -16080,7 +16254,7 @@
         <v>119</v>
       </c>
       <c r="CE54">
-        <v>11</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55" spans="1:83" x14ac:dyDescent="0.2">
@@ -16088,40 +16262,40 @@
         <v>83</v>
       </c>
       <c r="B55" s="1">
-        <v>44966</v>
+        <v>45027</v>
       </c>
       <c r="C55" t="s">
-        <v>179</v>
+        <v>126</v>
       </c>
       <c r="D55" t="s">
         <v>85</v>
       </c>
       <c r="E55" t="s">
-        <v>453</v>
+        <v>597</v>
       </c>
       <c r="F55" t="s">
         <v>87</v>
       </c>
       <c r="G55" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="H55" t="s">
-        <v>608</v>
+        <v>101</v>
       </c>
       <c r="I55" t="s">
-        <v>231</v>
+        <v>156</v>
       </c>
       <c r="J55" t="s">
-        <v>609</v>
+        <v>156</v>
       </c>
       <c r="K55" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="L55" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="M55" t="s">
-        <v>611</v>
+        <v>109</v>
       </c>
       <c r="N55" t="s">
         <v>94</v>
@@ -16142,13 +16316,13 @@
         <v>98</v>
       </c>
       <c r="T55" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="U55" t="s">
         <v>94</v>
       </c>
       <c r="V55" t="s">
-        <v>119</v>
+        <v>235</v>
       </c>
       <c r="W55" t="s">
         <v>101</v>
@@ -16157,25 +16331,25 @@
         <v>101</v>
       </c>
       <c r="Y55" t="s">
-        <v>612</v>
+        <v>368</v>
       </c>
       <c r="Z55" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="AA55" t="s">
-        <v>614</v>
+        <v>104</v>
       </c>
       <c r="AB55" t="s">
         <v>145</v>
       </c>
       <c r="AC55" t="s">
-        <v>197</v>
+        <v>557</v>
       </c>
       <c r="AD55" t="s">
         <v>84</v>
       </c>
       <c r="AF55" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="AG55" t="s">
         <v>100</v>
@@ -16226,13 +16400,13 @@
         <v>98</v>
       </c>
       <c r="AW55" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="AX55" s="1">
-        <v>44963</v>
+        <v>45027</v>
       </c>
       <c r="AY55" s="1">
-        <v>44961</v>
+        <v>45025</v>
       </c>
       <c r="AZ55" t="s">
         <v>107</v>
@@ -16253,10 +16427,10 @@
         <v>147</v>
       </c>
       <c r="BF55" t="s">
-        <v>615</v>
+        <v>601</v>
       </c>
       <c r="BG55" s="1">
-        <v>29409</v>
+        <v>42343</v>
       </c>
       <c r="BH55" t="s">
         <v>101</v>
@@ -16268,19 +16442,19 @@
         <v>101</v>
       </c>
       <c r="BL55" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM55" t="s">
-        <v>616</v>
+        <v>602</v>
       </c>
       <c r="BN55" t="s">
-        <v>463</v>
+        <v>603</v>
       </c>
       <c r="BO55" s="1">
-        <v>44966</v>
+        <v>45028</v>
       </c>
       <c r="BP55" t="s">
-        <v>464</v>
+        <v>604</v>
       </c>
       <c r="BQ55" t="s">
         <v>101</v>
@@ -16292,13 +16466,13 @@
         <v>101</v>
       </c>
       <c r="BT55" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="BU55" t="s">
         <v>117</v>
       </c>
       <c r="BV55" t="s">
-        <v>465</v>
+        <v>605</v>
       </c>
       <c r="BW55" t="s">
         <v>96</v>
@@ -16307,7 +16481,7 @@
         <v>118</v>
       </c>
       <c r="BY55" t="s">
-        <v>119</v>
+        <v>214</v>
       </c>
       <c r="BZ55" t="s">
         <v>96</v>
@@ -16316,7 +16490,7 @@
         <v>118</v>
       </c>
       <c r="CB55" t="s">
-        <v>119</v>
+        <v>214</v>
       </c>
       <c r="CC55" t="s">
         <v>118</v>
@@ -16325,7 +16499,7 @@
         <v>119</v>
       </c>
       <c r="CE55">
-        <v>14</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:83" x14ac:dyDescent="0.2">
@@ -16333,40 +16507,40 @@
         <v>83</v>
       </c>
       <c r="B56" s="1">
-        <v>44956</v>
+        <v>45036</v>
       </c>
       <c r="C56" t="s">
-        <v>179</v>
+        <v>606</v>
       </c>
       <c r="D56" t="s">
         <v>85</v>
       </c>
       <c r="E56" t="s">
-        <v>281</v>
+        <v>453</v>
       </c>
       <c r="F56" t="s">
-        <v>617</v>
+        <v>188</v>
       </c>
       <c r="G56" t="s">
-        <v>553</v>
+        <v>607</v>
       </c>
       <c r="H56" t="s">
         <v>101</v>
       </c>
       <c r="I56" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="J56" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="K56" t="s">
         <v>138</v>
       </c>
       <c r="L56" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="M56" t="s">
-        <v>220</v>
+        <v>610</v>
       </c>
       <c r="N56" t="s">
         <v>94</v>
@@ -16387,40 +16561,40 @@
         <v>98</v>
       </c>
       <c r="T56" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="U56" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="V56" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="W56" t="s">
-        <v>620</v>
+        <v>101</v>
       </c>
       <c r="X56" t="s">
         <v>101</v>
       </c>
       <c r="Y56" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="Z56" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="AA56" t="s">
-        <v>104</v>
+        <v>612</v>
       </c>
       <c r="AB56" t="s">
         <v>145</v>
       </c>
       <c r="AC56" t="s">
-        <v>290</v>
+        <v>197</v>
       </c>
       <c r="AD56" t="s">
         <v>84</v>
       </c>
       <c r="AF56" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="AG56" t="s">
         <v>100</v>
@@ -16462,7 +16636,7 @@
         <v>94</v>
       </c>
       <c r="AT56" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AU56" t="s">
         <v>95</v>
@@ -16471,13 +16645,13 @@
         <v>98</v>
       </c>
       <c r="AW56" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="AX56" s="1">
-        <v>44956</v>
+        <v>45036</v>
       </c>
       <c r="AY56" s="1">
-        <v>44956</v>
+        <v>45034</v>
       </c>
       <c r="AZ56" t="s">
         <v>107</v>
@@ -16498,10 +16672,10 @@
         <v>147</v>
       </c>
       <c r="BF56" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="BG56" s="1">
-        <v>34837</v>
+        <v>34025</v>
       </c>
       <c r="BH56" t="s">
         <v>101</v>
@@ -16513,19 +16687,19 @@
         <v>101</v>
       </c>
       <c r="BL56" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM56" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="BN56" t="s">
-        <v>353</v>
+        <v>615</v>
       </c>
       <c r="BO56" s="1">
-        <v>44967</v>
+        <v>45036</v>
       </c>
       <c r="BP56" t="s">
-        <v>294</v>
+        <v>464</v>
       </c>
       <c r="BQ56" t="s">
         <v>101</v>
@@ -16537,13 +16711,13 @@
         <v>101</v>
       </c>
       <c r="BT56" t="s">
-        <v>624</v>
+        <v>116</v>
       </c>
       <c r="BU56" t="s">
         <v>117</v>
       </c>
       <c r="BV56" t="s">
-        <v>625</v>
+        <v>465</v>
       </c>
       <c r="BW56" t="s">
         <v>96</v>
@@ -16552,7 +16726,7 @@
         <v>118</v>
       </c>
       <c r="BY56" t="s">
-        <v>214</v>
+        <v>119</v>
       </c>
       <c r="BZ56" t="s">
         <v>96</v>
@@ -16561,7 +16735,7 @@
         <v>118</v>
       </c>
       <c r="CB56" t="s">
-        <v>214</v>
+        <v>119</v>
       </c>
       <c r="CC56" t="s">
         <v>118</v>
@@ -16570,7 +16744,7 @@
         <v>119</v>
       </c>
       <c r="CE56">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:83" x14ac:dyDescent="0.2">
@@ -16578,40 +16752,40 @@
         <v>83</v>
       </c>
       <c r="B57" s="1">
-        <v>44957</v>
+        <v>45034</v>
       </c>
       <c r="C57" t="s">
-        <v>179</v>
+        <v>606</v>
       </c>
       <c r="D57" t="s">
         <v>85</v>
       </c>
       <c r="E57" t="s">
-        <v>281</v>
+        <v>597</v>
       </c>
       <c r="F57" t="s">
+        <v>87</v>
+      </c>
+      <c r="G57" t="s">
+        <v>135</v>
+      </c>
+      <c r="H57" t="s">
+        <v>101</v>
+      </c>
+      <c r="I57" t="s">
+        <v>616</v>
+      </c>
+      <c r="J57" t="s">
         <v>617</v>
       </c>
-      <c r="G57" t="s">
-        <v>626</v>
-      </c>
-      <c r="H57" t="s">
-        <v>203</v>
-      </c>
-      <c r="I57" t="s">
-        <v>246</v>
-      </c>
-      <c r="J57" t="s">
-        <v>627</v>
-      </c>
       <c r="K57" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="L57" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="M57" t="s">
-        <v>629</v>
+        <v>93</v>
       </c>
       <c r="N57" t="s">
         <v>94</v>
@@ -16623,7 +16797,7 @@
         <v>96</v>
       </c>
       <c r="Q57" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="R57" t="s">
         <v>95</v>
@@ -16635,22 +16809,22 @@
         <v>99</v>
       </c>
       <c r="U57" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="V57" t="s">
-        <v>101</v>
+        <v>235</v>
       </c>
       <c r="W57" t="s">
-        <v>630</v>
+        <v>101</v>
       </c>
       <c r="X57" t="s">
         <v>101</v>
       </c>
       <c r="Y57" t="s">
-        <v>101</v>
+        <v>368</v>
       </c>
       <c r="Z57" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="AA57" t="s">
         <v>104</v>
@@ -16659,13 +16833,13 @@
         <v>145</v>
       </c>
       <c r="AC57" t="s">
-        <v>290</v>
+        <v>444</v>
       </c>
       <c r="AD57" t="s">
         <v>84</v>
       </c>
       <c r="AF57" t="s">
-        <v>130</v>
+        <v>179</v>
       </c>
       <c r="AG57" t="s">
         <v>100</v>
@@ -16680,7 +16854,7 @@
         <v>100</v>
       </c>
       <c r="AK57" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL57" t="s">
         <v>101</v>
@@ -16692,7 +16866,7 @@
         <v>100</v>
       </c>
       <c r="AO57" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AP57" t="s">
         <v>100</v>
@@ -16707,7 +16881,7 @@
         <v>94</v>
       </c>
       <c r="AT57" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AU57" t="s">
         <v>95</v>
@@ -16719,10 +16893,10 @@
         <v>99</v>
       </c>
       <c r="AX57" s="1">
-        <v>44957</v>
+        <v>45034</v>
       </c>
       <c r="AY57" s="1">
-        <v>44955</v>
+        <v>45033</v>
       </c>
       <c r="AZ57" t="s">
         <v>107</v>
@@ -16743,10 +16917,10 @@
         <v>147</v>
       </c>
       <c r="BF57" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="BG57" s="1">
-        <v>33287</v>
+        <v>40469</v>
       </c>
       <c r="BH57" t="s">
         <v>101</v>
@@ -16758,19 +16932,19 @@
         <v>101</v>
       </c>
       <c r="BL57" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM57" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="BN57" t="s">
-        <v>353</v>
+        <v>603</v>
       </c>
       <c r="BO57" s="1">
-        <v>44967</v>
+        <v>45035</v>
       </c>
       <c r="BP57" t="s">
-        <v>294</v>
+        <v>604</v>
       </c>
       <c r="BQ57" t="s">
         <v>101</v>
@@ -16782,13 +16956,13 @@
         <v>101</v>
       </c>
       <c r="BT57" t="s">
-        <v>624</v>
+        <v>152</v>
       </c>
       <c r="BU57" t="s">
         <v>117</v>
       </c>
       <c r="BV57" t="s">
-        <v>625</v>
+        <v>605</v>
       </c>
       <c r="BW57" t="s">
         <v>96</v>
@@ -16815,7 +16989,7 @@
         <v>119</v>
       </c>
       <c r="CE57">
-        <v>17</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:83" x14ac:dyDescent="0.2">
@@ -16823,40 +16997,40 @@
         <v>83</v>
       </c>
       <c r="B58" s="1">
-        <v>44959</v>
+        <v>45036</v>
       </c>
       <c r="C58" t="s">
-        <v>179</v>
+        <v>606</v>
       </c>
       <c r="D58" t="s">
         <v>85</v>
       </c>
       <c r="E58" t="s">
-        <v>86</v>
+        <v>133</v>
       </c>
       <c r="F58" t="s">
-        <v>188</v>
+        <v>87</v>
       </c>
       <c r="G58" t="s">
-        <v>203</v>
+        <v>260</v>
       </c>
       <c r="H58" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="I58" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="J58" t="s">
-        <v>634</v>
+        <v>548</v>
       </c>
       <c r="K58" t="s">
         <v>91</v>
       </c>
       <c r="L58" t="s">
-        <v>635</v>
+        <v>622</v>
       </c>
       <c r="M58" t="s">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="N58" t="s">
         <v>94</v>
@@ -16868,7 +17042,7 @@
         <v>96</v>
       </c>
       <c r="Q58" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="R58" t="s">
         <v>95</v>
@@ -16883,7 +17057,7 @@
         <v>94</v>
       </c>
       <c r="V58" t="s">
-        <v>423</v>
+        <v>141</v>
       </c>
       <c r="W58" t="s">
         <v>101</v>
@@ -16892,25 +17066,25 @@
         <v>101</v>
       </c>
       <c r="Y58" t="s">
-        <v>368</v>
+        <v>141</v>
       </c>
       <c r="Z58" t="s">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="AA58" t="s">
-        <v>104</v>
+        <v>266</v>
       </c>
       <c r="AB58" t="s">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="AC58" t="s">
-        <v>637</v>
+        <v>146</v>
       </c>
       <c r="AD58" t="s">
         <v>84</v>
       </c>
       <c r="AF58" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AG58" t="s">
         <v>100</v>
@@ -16925,7 +17099,7 @@
         <v>100</v>
       </c>
       <c r="AK58" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL58" t="s">
         <v>101</v>
@@ -16937,7 +17111,7 @@
         <v>100</v>
       </c>
       <c r="AO58" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AP58" t="s">
         <v>100</v>
@@ -16964,10 +17138,10 @@
         <v>99</v>
       </c>
       <c r="AX58" s="1">
-        <v>44959</v>
+        <v>45036</v>
       </c>
       <c r="AY58" s="1">
-        <v>44958</v>
+        <v>45034</v>
       </c>
       <c r="AZ58" t="s">
         <v>107</v>
@@ -16988,10 +17162,10 @@
         <v>147</v>
       </c>
       <c r="BF58" t="s">
-        <v>638</v>
+        <v>624</v>
       </c>
       <c r="BG58" s="1">
-        <v>38736</v>
+        <v>40004</v>
       </c>
       <c r="BH58" t="s">
         <v>101</v>
@@ -17003,19 +17177,19 @@
         <v>101</v>
       </c>
       <c r="BL58" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM58" t="s">
-        <v>639</v>
+        <v>625</v>
       </c>
       <c r="BN58" t="s">
-        <v>254</v>
+        <v>626</v>
       </c>
       <c r="BO58" s="1">
-        <v>44963</v>
+        <v>45040</v>
       </c>
       <c r="BP58" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="BQ58" t="s">
         <v>101</v>
@@ -17027,13 +17201,13 @@
         <v>101</v>
       </c>
       <c r="BT58" t="s">
-        <v>169</v>
+        <v>116</v>
       </c>
       <c r="BU58" t="s">
         <v>117</v>
       </c>
       <c r="BV58" t="s">
-        <v>489</v>
+        <v>153</v>
       </c>
       <c r="BW58" t="s">
         <v>96</v>
@@ -17060,7 +17234,7 @@
         <v>119</v>
       </c>
       <c r="CE58">
-        <v>12</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59" spans="1:83" x14ac:dyDescent="0.2">
@@ -17068,40 +17242,40 @@
         <v>83</v>
       </c>
       <c r="B59" s="1">
-        <v>44968</v>
+        <v>44948</v>
       </c>
       <c r="C59" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="D59" t="s">
         <v>85</v>
       </c>
       <c r="E59" t="s">
-        <v>281</v>
+        <v>133</v>
       </c>
       <c r="F59" t="s">
-        <v>617</v>
+        <v>87</v>
       </c>
       <c r="G59" t="s">
-        <v>640</v>
+        <v>627</v>
       </c>
       <c r="H59" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
       <c r="I59" t="s">
-        <v>124</v>
+        <v>629</v>
       </c>
       <c r="J59" t="s">
-        <v>263</v>
+        <v>630</v>
       </c>
       <c r="K59" t="s">
         <v>138</v>
       </c>
       <c r="L59" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="M59" t="s">
-        <v>234</v>
+        <v>474</v>
       </c>
       <c r="N59" t="s">
         <v>94</v>
@@ -17113,7 +17287,7 @@
         <v>96</v>
       </c>
       <c r="Q59" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="R59" t="s">
         <v>95</v>
@@ -17125,31 +17299,31 @@
         <v>99</v>
       </c>
       <c r="U59" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="V59" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="W59" t="s">
-        <v>423</v>
+        <v>101</v>
       </c>
       <c r="X59" t="s">
         <v>101</v>
       </c>
       <c r="Y59" t="s">
-        <v>101</v>
+        <v>368</v>
       </c>
       <c r="Z59" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="AA59" t="s">
-        <v>644</v>
+        <v>104</v>
       </c>
       <c r="AB59" t="s">
         <v>145</v>
       </c>
       <c r="AC59" t="s">
-        <v>579</v>
+        <v>197</v>
       </c>
       <c r="AD59" t="s">
         <v>84</v>
@@ -17170,7 +17344,7 @@
         <v>100</v>
       </c>
       <c r="AK59" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL59" t="s">
         <v>101</v>
@@ -17182,7 +17356,7 @@
         <v>100</v>
       </c>
       <c r="AO59" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AP59" t="s">
         <v>100</v>
@@ -17197,7 +17371,7 @@
         <v>94</v>
       </c>
       <c r="AT59" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AU59" t="s">
         <v>95</v>
@@ -17209,10 +17383,10 @@
         <v>99</v>
       </c>
       <c r="AX59" s="1">
-        <v>44968</v>
+        <v>44948</v>
       </c>
       <c r="AY59" s="1">
-        <v>44966</v>
+        <v>44945</v>
       </c>
       <c r="AZ59" t="s">
         <v>107</v>
@@ -17233,10 +17407,10 @@
         <v>147</v>
       </c>
       <c r="BF59" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="BG59" s="1">
-        <v>35799</v>
+        <v>36520</v>
       </c>
       <c r="BH59" t="s">
         <v>101</v>
@@ -17248,19 +17422,19 @@
         <v>101</v>
       </c>
       <c r="BL59" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM59" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="BN59" t="s">
-        <v>353</v>
+        <v>524</v>
       </c>
       <c r="BO59" s="1">
-        <v>44971</v>
+        <v>44959</v>
       </c>
       <c r="BP59" t="s">
-        <v>294</v>
+        <v>151</v>
       </c>
       <c r="BQ59" t="s">
         <v>101</v>
@@ -17272,13 +17446,13 @@
         <v>101</v>
       </c>
       <c r="BT59" t="s">
-        <v>624</v>
+        <v>271</v>
       </c>
       <c r="BU59" t="s">
         <v>117</v>
       </c>
       <c r="BV59" t="s">
-        <v>625</v>
+        <v>153</v>
       </c>
       <c r="BW59" t="s">
         <v>96</v>
@@ -17305,7 +17479,7 @@
         <v>119</v>
       </c>
       <c r="CE59">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:83" x14ac:dyDescent="0.2">
@@ -17313,10 +17487,10 @@
         <v>83</v>
       </c>
       <c r="B60" s="1">
-        <v>45027</v>
+        <v>44948</v>
       </c>
       <c r="C60" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="D60" t="s">
         <v>85</v>
@@ -17325,28 +17499,28 @@
         <v>281</v>
       </c>
       <c r="F60" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="G60" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="H60" t="s">
         <v>101</v>
       </c>
       <c r="I60" t="s">
-        <v>366</v>
+        <v>437</v>
       </c>
       <c r="J60" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="K60" t="s">
         <v>138</v>
       </c>
       <c r="L60" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="M60" t="s">
-        <v>431</v>
+        <v>610</v>
       </c>
       <c r="N60" t="s">
         <v>94</v>
@@ -17376,7 +17550,7 @@
         <v>101</v>
       </c>
       <c r="W60" t="s">
-        <v>650</v>
+        <v>141</v>
       </c>
       <c r="X60" t="s">
         <v>101</v>
@@ -17385,22 +17559,22 @@
         <v>101</v>
       </c>
       <c r="Z60" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AA60" t="s">
-        <v>266</v>
+        <v>639</v>
       </c>
       <c r="AB60" t="s">
         <v>145</v>
       </c>
       <c r="AC60" t="s">
-        <v>290</v>
+        <v>640</v>
       </c>
       <c r="AD60" t="s">
         <v>84</v>
       </c>
       <c r="AF60" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="AG60" t="s">
         <v>100</v>
@@ -17442,22 +17616,22 @@
         <v>94</v>
       </c>
       <c r="AT60" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AU60" t="s">
         <v>95</v>
       </c>
       <c r="AV60" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="AW60" t="s">
         <v>99</v>
       </c>
       <c r="AX60" s="1">
-        <v>44965</v>
+        <v>44948</v>
       </c>
       <c r="AY60" s="1">
-        <v>44964</v>
+        <v>44943</v>
       </c>
       <c r="AZ60" t="s">
         <v>107</v>
@@ -17478,10 +17652,10 @@
         <v>147</v>
       </c>
       <c r="BF60" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="BG60" s="1">
-        <v>37317</v>
+        <v>33834</v>
       </c>
       <c r="BH60" t="s">
         <v>101</v>
@@ -17493,16 +17667,16 @@
         <v>101</v>
       </c>
       <c r="BL60" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM60" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="BN60" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="BO60" s="1">
-        <v>45027</v>
+        <v>44950</v>
       </c>
       <c r="BP60" t="s">
         <v>294</v>
@@ -17517,13 +17691,13 @@
         <v>101</v>
       </c>
       <c r="BT60" t="s">
-        <v>116</v>
+        <v>271</v>
       </c>
       <c r="BU60" t="s">
         <v>117</v>
       </c>
       <c r="BV60" t="s">
-        <v>295</v>
+        <v>354</v>
       </c>
       <c r="BW60" t="s">
         <v>96</v>
@@ -17538,10 +17712,10 @@
         <v>96</v>
       </c>
       <c r="CA60" t="s">
-        <v>118</v>
+        <v>644</v>
       </c>
       <c r="CB60" t="s">
-        <v>119</v>
+        <v>644</v>
       </c>
       <c r="CC60" t="s">
         <v>118</v>
@@ -17550,7 +17724,7 @@
         <v>119</v>
       </c>
       <c r="CE60">
-        <v>80</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:83" x14ac:dyDescent="0.2">
@@ -17558,40 +17732,40 @@
         <v>83</v>
       </c>
       <c r="B61" s="1">
-        <v>44975</v>
+        <v>44949</v>
       </c>
       <c r="C61" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="D61" t="s">
         <v>85</v>
       </c>
       <c r="E61" t="s">
-        <v>170</v>
+        <v>281</v>
       </c>
       <c r="F61" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="G61" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="H61" t="s">
-        <v>101</v>
+        <v>345</v>
       </c>
       <c r="I61" t="s">
-        <v>124</v>
+        <v>438</v>
       </c>
       <c r="J61" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="K61" t="s">
-        <v>138</v>
+        <v>340</v>
       </c>
       <c r="L61" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="M61" t="s">
-        <v>158</v>
+        <v>94</v>
       </c>
       <c r="N61" t="s">
         <v>94</v>
@@ -17603,7 +17777,7 @@
         <v>96</v>
       </c>
       <c r="Q61" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="R61" t="s">
         <v>95</v>
@@ -17612,40 +17786,40 @@
         <v>98</v>
       </c>
       <c r="T61" t="s">
-        <v>658</v>
+        <v>99</v>
       </c>
       <c r="U61" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="V61" t="s">
         <v>101</v>
       </c>
       <c r="W61" t="s">
-        <v>101</v>
+        <v>648</v>
       </c>
       <c r="X61" t="s">
-        <v>659</v>
+        <v>101</v>
       </c>
       <c r="Y61" t="s">
         <v>101</v>
       </c>
       <c r="Z61" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="AA61" t="s">
         <v>104</v>
       </c>
       <c r="AB61" t="s">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="AC61" t="s">
-        <v>129</v>
+        <v>557</v>
       </c>
       <c r="AD61" t="s">
         <v>84</v>
       </c>
       <c r="AF61" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="AG61" t="s">
         <v>100</v>
@@ -17660,7 +17834,7 @@
         <v>100</v>
       </c>
       <c r="AK61" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL61" t="s">
         <v>101</v>
@@ -17672,7 +17846,7 @@
         <v>100</v>
       </c>
       <c r="AO61" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AP61" t="s">
         <v>100</v>
@@ -17687,7 +17861,7 @@
         <v>94</v>
       </c>
       <c r="AT61" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AU61" t="s">
         <v>95</v>
@@ -17696,22 +17870,22 @@
         <v>98</v>
       </c>
       <c r="AW61" t="s">
-        <v>658</v>
+        <v>99</v>
       </c>
       <c r="AX61" s="1">
-        <v>44973</v>
+        <v>44949</v>
       </c>
       <c r="AY61" s="1">
-        <v>44966</v>
+        <v>44946</v>
       </c>
       <c r="AZ61" t="s">
         <v>107</v>
       </c>
       <c r="BA61" t="s">
-        <v>94</v>
-      </c>
-      <c r="BB61" s="1">
-        <v>44973</v>
+        <v>100</v>
+      </c>
+      <c r="BB61" t="s">
+        <v>108</v>
       </c>
       <c r="BC61" t="s">
         <v>94</v>
@@ -17723,10 +17897,10 @@
         <v>147</v>
       </c>
       <c r="BF61" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
       <c r="BG61" s="1">
-        <v>32631</v>
+        <v>44322</v>
       </c>
       <c r="BH61" t="s">
         <v>101</v>
@@ -17738,19 +17912,19 @@
         <v>101</v>
       </c>
       <c r="BL61" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM61" t="s">
-        <v>662</v>
+        <v>559</v>
       </c>
       <c r="BN61" t="s">
-        <v>663</v>
+        <v>560</v>
       </c>
       <c r="BO61" s="1">
-        <v>44977</v>
+        <v>44956</v>
       </c>
       <c r="BP61" t="s">
-        <v>184</v>
+        <v>294</v>
       </c>
       <c r="BQ61" t="s">
         <v>101</v>
@@ -17762,13 +17936,13 @@
         <v>101</v>
       </c>
       <c r="BT61" t="s">
-        <v>624</v>
+        <v>271</v>
       </c>
       <c r="BU61" t="s">
         <v>117</v>
       </c>
       <c r="BV61" t="s">
-        <v>185</v>
+        <v>354</v>
       </c>
       <c r="BW61" t="s">
         <v>96</v>
@@ -17777,7 +17951,7 @@
         <v>118</v>
       </c>
       <c r="BY61" t="s">
-        <v>664</v>
+        <v>119</v>
       </c>
       <c r="BZ61" t="s">
         <v>96</v>
@@ -17786,7 +17960,7 @@
         <v>118</v>
       </c>
       <c r="CB61" t="s">
-        <v>664</v>
+        <v>119</v>
       </c>
       <c r="CC61" t="s">
         <v>118</v>
@@ -17795,7 +17969,7 @@
         <v>119</v>
       </c>
       <c r="CE61">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:83" x14ac:dyDescent="0.2">
@@ -17803,40 +17977,40 @@
         <v>83</v>
       </c>
       <c r="B62" s="1">
-        <v>44970</v>
+        <v>44949</v>
       </c>
       <c r="C62" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="D62" t="s">
         <v>85</v>
       </c>
       <c r="E62" t="s">
-        <v>281</v>
+        <v>86</v>
       </c>
       <c r="F62" t="s">
         <v>87</v>
       </c>
       <c r="G62" t="s">
-        <v>626</v>
+        <v>651</v>
       </c>
       <c r="H62" t="s">
-        <v>203</v>
+        <v>652</v>
       </c>
       <c r="I62" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
       <c r="J62" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="K62" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="L62" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="M62" t="s">
-        <v>668</v>
+        <v>120</v>
       </c>
       <c r="N62" t="s">
         <v>94</v>
@@ -17848,7 +18022,7 @@
         <v>96</v>
       </c>
       <c r="Q62" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="R62" t="s">
         <v>95</v>
@@ -17866,7 +18040,7 @@
         <v>101</v>
       </c>
       <c r="W62" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
       <c r="X62" t="s">
         <v>101</v>
@@ -17875,22 +18049,22 @@
         <v>101</v>
       </c>
       <c r="Z62" t="s">
-        <v>670</v>
+        <v>657</v>
       </c>
       <c r="AA62" t="s">
-        <v>671</v>
+        <v>104</v>
       </c>
       <c r="AB62" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="AC62" t="s">
-        <v>290</v>
+        <v>129</v>
       </c>
       <c r="AD62" t="s">
         <v>84</v>
       </c>
       <c r="AF62" t="s">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="AG62" t="s">
         <v>100</v>
@@ -17905,7 +18079,7 @@
         <v>100</v>
       </c>
       <c r="AK62" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL62" t="s">
         <v>101</v>
@@ -17917,7 +18091,7 @@
         <v>100</v>
       </c>
       <c r="AO62" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AP62" t="s">
         <v>100</v>
@@ -17944,10 +18118,10 @@
         <v>99</v>
       </c>
       <c r="AX62" s="1">
-        <v>44970</v>
+        <v>44949</v>
       </c>
       <c r="AY62" s="1">
-        <v>44968</v>
+        <v>44947</v>
       </c>
       <c r="AZ62" t="s">
         <v>107</v>
@@ -17968,10 +18142,10 @@
         <v>147</v>
       </c>
       <c r="BF62" t="s">
-        <v>672</v>
+        <v>658</v>
       </c>
       <c r="BG62" s="1">
-        <v>30623</v>
+        <v>41819</v>
       </c>
       <c r="BH62" t="s">
         <v>101</v>
@@ -17983,19 +18157,19 @@
         <v>101</v>
       </c>
       <c r="BL62" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM62" t="s">
-        <v>292</v>
+        <v>659</v>
       </c>
       <c r="BN62" t="s">
-        <v>353</v>
+        <v>660</v>
       </c>
       <c r="BO62" s="1">
-        <v>44971</v>
+        <v>44950</v>
       </c>
       <c r="BP62" t="s">
-        <v>294</v>
+        <v>115</v>
       </c>
       <c r="BQ62" t="s">
         <v>101</v>
@@ -18007,13 +18181,13 @@
         <v>101</v>
       </c>
       <c r="BT62" t="s">
-        <v>624</v>
+        <v>169</v>
       </c>
       <c r="BU62" t="s">
         <v>117</v>
       </c>
       <c r="BV62" t="s">
-        <v>295</v>
+        <v>112</v>
       </c>
       <c r="BW62" t="s">
         <v>96</v>
@@ -18040,7 +18214,7 @@
         <v>119</v>
       </c>
       <c r="CE62">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:83" x14ac:dyDescent="0.2">
@@ -18048,40 +18222,40 @@
         <v>83</v>
       </c>
       <c r="B63" s="1">
-        <v>45016</v>
+        <v>44955</v>
       </c>
       <c r="C63" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="D63" t="s">
         <v>85</v>
       </c>
       <c r="E63" t="s">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c r="F63" t="s">
-        <v>259</v>
+        <v>180</v>
       </c>
       <c r="G63" t="s">
-        <v>673</v>
+        <v>260</v>
       </c>
       <c r="H63" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="I63" t="s">
-        <v>674</v>
+        <v>661</v>
       </c>
       <c r="J63" t="s">
-        <v>675</v>
+        <v>662</v>
       </c>
       <c r="K63" t="s">
         <v>91</v>
       </c>
       <c r="L63" t="s">
-        <v>676</v>
+        <v>663</v>
       </c>
       <c r="M63" t="s">
-        <v>180</v>
+        <v>410</v>
       </c>
       <c r="N63" t="s">
         <v>94</v>
@@ -18102,7 +18276,7 @@
         <v>98</v>
       </c>
       <c r="T63" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="U63" t="s">
         <v>100</v>
@@ -18111,7 +18285,7 @@
         <v>101</v>
       </c>
       <c r="W63" t="s">
-        <v>235</v>
+        <v>664</v>
       </c>
       <c r="X63" t="s">
         <v>101</v>
@@ -18120,22 +18294,22 @@
         <v>101</v>
       </c>
       <c r="Z63" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="AA63" t="s">
-        <v>266</v>
+        <v>104</v>
       </c>
       <c r="AB63" t="s">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="AC63" t="s">
-        <v>279</v>
+        <v>146</v>
       </c>
       <c r="AD63" t="s">
         <v>84</v>
       </c>
       <c r="AF63" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="AG63" t="s">
         <v>100</v>
@@ -18177,7 +18351,7 @@
         <v>94</v>
       </c>
       <c r="AT63" t="s">
-        <v>179</v>
+        <v>94</v>
       </c>
       <c r="AU63" t="s">
         <v>95</v>
@@ -18186,16 +18360,16 @@
         <v>98</v>
       </c>
       <c r="AW63" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="AX63" s="1">
-        <v>44990</v>
+        <v>44955</v>
       </c>
       <c r="AY63" s="1">
-        <v>44962</v>
+        <v>44953</v>
       </c>
       <c r="AZ63" t="s">
-        <v>179</v>
+        <v>107</v>
       </c>
       <c r="BA63" t="s">
         <v>100</v>
@@ -18213,10 +18387,10 @@
         <v>147</v>
       </c>
       <c r="BF63" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="BG63" s="1">
-        <v>41326</v>
+        <v>40075</v>
       </c>
       <c r="BH63" t="s">
         <v>101</v>
@@ -18228,19 +18402,19 @@
         <v>101</v>
       </c>
       <c r="BL63" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM63" t="s">
-        <v>268</v>
+        <v>667</v>
       </c>
       <c r="BN63" t="s">
-        <v>269</v>
+        <v>353</v>
       </c>
       <c r="BO63" s="1">
-        <v>45016</v>
+        <v>44957</v>
       </c>
       <c r="BP63" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="BQ63" t="s">
         <v>101</v>
@@ -18252,13 +18426,13 @@
         <v>101</v>
       </c>
       <c r="BT63" t="s">
-        <v>116</v>
+        <v>169</v>
       </c>
       <c r="BU63" t="s">
         <v>117</v>
       </c>
       <c r="BV63" t="s">
-        <v>272</v>
+        <v>354</v>
       </c>
       <c r="BW63" t="s">
         <v>96</v>
@@ -18267,7 +18441,7 @@
         <v>118</v>
       </c>
       <c r="BY63" t="s">
-        <v>119</v>
+        <v>214</v>
       </c>
       <c r="BZ63" t="s">
         <v>96</v>
@@ -18276,7 +18450,7 @@
         <v>118</v>
       </c>
       <c r="CB63" t="s">
-        <v>119</v>
+        <v>214</v>
       </c>
       <c r="CC63" t="s">
         <v>118</v>
@@ -18285,7 +18459,7 @@
         <v>119</v>
       </c>
       <c r="CE63">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:83" x14ac:dyDescent="0.2">
@@ -18293,40 +18467,40 @@
         <v>83</v>
       </c>
       <c r="B64" s="1">
-        <v>44971</v>
+        <v>44966</v>
       </c>
       <c r="C64" t="s">
-        <v>84</v>
+        <v>179</v>
       </c>
       <c r="D64" t="s">
         <v>85</v>
       </c>
       <c r="E64" t="s">
-        <v>228</v>
+        <v>453</v>
       </c>
       <c r="F64" t="s">
         <v>87</v>
       </c>
       <c r="G64" t="s">
-        <v>260</v>
+        <v>668</v>
       </c>
       <c r="H64" t="s">
-        <v>88</v>
+        <v>669</v>
       </c>
       <c r="I64" t="s">
-        <v>679</v>
+        <v>231</v>
       </c>
       <c r="J64" t="s">
-        <v>314</v>
+        <v>670</v>
       </c>
       <c r="K64" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="L64" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="M64" t="s">
-        <v>109</v>
+        <v>672</v>
       </c>
       <c r="N64" t="s">
         <v>94</v>
@@ -18353,7 +18527,7 @@
         <v>94</v>
       </c>
       <c r="V64" t="s">
-        <v>235</v>
+        <v>119</v>
       </c>
       <c r="W64" t="s">
         <v>101</v>
@@ -18362,25 +18536,25 @@
         <v>101</v>
       </c>
       <c r="Y64" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="Z64" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="AA64" t="s">
-        <v>104</v>
+        <v>675</v>
       </c>
       <c r="AB64" t="s">
         <v>145</v>
       </c>
       <c r="AC64" t="s">
-        <v>146</v>
+        <v>197</v>
       </c>
       <c r="AD64" t="s">
         <v>84</v>
       </c>
       <c r="AF64" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AG64" t="s">
         <v>100</v>
@@ -18434,10 +18608,10 @@
         <v>99</v>
       </c>
       <c r="AX64" s="1">
-        <v>44971</v>
+        <v>44963</v>
       </c>
       <c r="AY64" s="1">
-        <v>44967</v>
+        <v>44961</v>
       </c>
       <c r="AZ64" t="s">
         <v>107</v>
@@ -18458,10 +18632,10 @@
         <v>147</v>
       </c>
       <c r="BF64" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="BG64" s="1">
-        <v>42341</v>
+        <v>29409</v>
       </c>
       <c r="BH64" t="s">
         <v>101</v>
@@ -18473,19 +18647,19 @@
         <v>101</v>
       </c>
       <c r="BL64" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM64" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="BN64" t="s">
-        <v>685</v>
+        <v>463</v>
       </c>
       <c r="BO64" s="1">
-        <v>44977</v>
+        <v>44966</v>
       </c>
       <c r="BP64" t="s">
-        <v>241</v>
+        <v>464</v>
       </c>
       <c r="BQ64" t="s">
         <v>101</v>
@@ -18497,13 +18671,13 @@
         <v>101</v>
       </c>
       <c r="BT64" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="BU64" t="s">
         <v>117</v>
       </c>
       <c r="BV64" t="s">
-        <v>242</v>
+        <v>465</v>
       </c>
       <c r="BW64" t="s">
         <v>96</v>
@@ -18530,7 +18704,7 @@
         <v>119</v>
       </c>
       <c r="CE64">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:83" x14ac:dyDescent="0.2">
@@ -18538,40 +18712,40 @@
         <v>83</v>
       </c>
       <c r="B65" s="1">
-        <v>44975</v>
+        <v>44956</v>
       </c>
       <c r="C65" t="s">
-        <v>109</v>
+        <v>179</v>
       </c>
       <c r="D65" t="s">
         <v>85</v>
       </c>
       <c r="E65" t="s">
-        <v>686</v>
+        <v>281</v>
       </c>
       <c r="F65" t="s">
-        <v>87</v>
+        <v>678</v>
       </c>
       <c r="G65" t="s">
-        <v>687</v>
+        <v>568</v>
       </c>
       <c r="H65" t="s">
-        <v>688</v>
+        <v>101</v>
       </c>
       <c r="I65" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="J65" t="s">
-        <v>690</v>
+        <v>414</v>
       </c>
       <c r="K65" t="s">
         <v>138</v>
       </c>
       <c r="L65" t="s">
-        <v>691</v>
+        <v>680</v>
       </c>
       <c r="M65" t="s">
-        <v>692</v>
+        <v>220</v>
       </c>
       <c r="N65" t="s">
         <v>94</v>
@@ -18583,49 +18757,49 @@
         <v>96</v>
       </c>
       <c r="Q65" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="R65" t="s">
         <v>95</v>
       </c>
       <c r="S65" t="s">
-        <v>391</v>
+        <v>98</v>
       </c>
       <c r="T65" t="s">
-        <v>693</v>
+        <v>95</v>
       </c>
       <c r="U65" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="V65" t="s">
-        <v>694</v>
+        <v>101</v>
       </c>
       <c r="W65" t="s">
-        <v>101</v>
+        <v>681</v>
       </c>
       <c r="X65" t="s">
         <v>101</v>
       </c>
       <c r="Y65" t="s">
-        <v>368</v>
+        <v>101</v>
       </c>
       <c r="Z65" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="AA65" t="s">
-        <v>289</v>
+        <v>104</v>
       </c>
       <c r="AB65" t="s">
-        <v>330</v>
+        <v>145</v>
       </c>
       <c r="AC65" t="s">
-        <v>101</v>
+        <v>290</v>
       </c>
       <c r="AD65" t="s">
         <v>84</v>
       </c>
       <c r="AF65" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="AG65" t="s">
         <v>100</v>
@@ -18640,7 +18814,7 @@
         <v>100</v>
       </c>
       <c r="AK65" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AL65" t="s">
         <v>101</v>
@@ -18652,7 +18826,7 @@
         <v>100</v>
       </c>
       <c r="AO65" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AP65" t="s">
         <v>100</v>
@@ -18667,7 +18841,7 @@
         <v>94</v>
       </c>
       <c r="AT65" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AU65" t="s">
         <v>95</v>
@@ -18676,13 +18850,13 @@
         <v>98</v>
       </c>
       <c r="AW65" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="AX65" s="1">
-        <v>44975</v>
+        <v>44956</v>
       </c>
       <c r="AY65" s="1">
-        <v>44975</v>
+        <v>44956</v>
       </c>
       <c r="AZ65" t="s">
         <v>107</v>
@@ -18703,10 +18877,10 @@
         <v>147</v>
       </c>
       <c r="BF65" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
       <c r="BG65" s="1">
-        <v>35484</v>
+        <v>34837</v>
       </c>
       <c r="BH65" t="s">
         <v>101</v>
@@ -18718,16 +18892,19 @@
         <v>101</v>
       </c>
       <c r="BL65" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM65" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
       <c r="BN65" t="s">
-        <v>698</v>
+        <v>353</v>
       </c>
       <c r="BO65" s="1">
-        <v>44984</v>
+        <v>44967</v>
+      </c>
+      <c r="BP65" t="s">
+        <v>294</v>
       </c>
       <c r="BQ65" t="s">
         <v>101</v>
@@ -18739,19 +18916,22 @@
         <v>101</v>
       </c>
       <c r="BT65" t="s">
-        <v>624</v>
+        <v>685</v>
       </c>
       <c r="BU65" t="s">
         <v>117</v>
       </c>
+      <c r="BV65" t="s">
+        <v>686</v>
+      </c>
       <c r="BW65" t="s">
         <v>96</v>
       </c>
       <c r="BX65" t="s">
-        <v>699</v>
+        <v>118</v>
       </c>
       <c r="BY65" t="s">
-        <v>700</v>
+        <v>214</v>
       </c>
       <c r="BZ65" t="s">
         <v>96</v>
@@ -18760,10 +18940,16 @@
         <v>118</v>
       </c>
       <c r="CB65" t="s">
+        <v>214</v>
+      </c>
+      <c r="CC65" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD65" t="s">
         <v>119</v>
       </c>
       <c r="CE65">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" spans="1:83" x14ac:dyDescent="0.2">
@@ -18771,40 +18957,40 @@
         <v>83</v>
       </c>
       <c r="B66" s="1">
-        <v>44977</v>
+        <v>44957</v>
       </c>
       <c r="C66" t="s">
-        <v>109</v>
+        <v>179</v>
       </c>
       <c r="D66" t="s">
         <v>85</v>
       </c>
       <c r="E66" t="s">
-        <v>133</v>
+        <v>281</v>
       </c>
       <c r="F66" t="s">
-        <v>87</v>
+        <v>678</v>
       </c>
       <c r="G66" t="s">
-        <v>260</v>
+        <v>687</v>
       </c>
       <c r="H66" t="s">
-        <v>88</v>
+        <v>203</v>
       </c>
       <c r="I66" t="s">
-        <v>701</v>
+        <v>246</v>
       </c>
       <c r="J66" t="s">
-        <v>517</v>
+        <v>688</v>
       </c>
       <c r="K66" t="s">
         <v>138</v>
       </c>
       <c r="L66" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
       <c r="M66" t="s">
-        <v>474</v>
+        <v>690</v>
       </c>
       <c r="N66" t="s">
         <v>94</v>
@@ -18816,7 +19002,7 @@
         <v>96</v>
       </c>
       <c r="Q66" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="R66" t="s">
         <v>95</v>
@@ -18828,31 +19014,31 @@
         <v>99</v>
       </c>
       <c r="U66" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="V66" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="W66" t="s">
-        <v>101</v>
+        <v>691</v>
       </c>
       <c r="X66" t="s">
         <v>101</v>
       </c>
       <c r="Y66" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="Z66" t="s">
-        <v>703</v>
+        <v>692</v>
       </c>
       <c r="AA66" t="s">
-        <v>704</v>
+        <v>104</v>
       </c>
       <c r="AB66" t="s">
         <v>145</v>
       </c>
       <c r="AC66" t="s">
-        <v>146</v>
+        <v>290</v>
       </c>
       <c r="AD66" t="s">
         <v>84</v>
@@ -18873,7 +19059,7 @@
         <v>100</v>
       </c>
       <c r="AK66" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AL66" t="s">
         <v>101</v>
@@ -18885,7 +19071,7 @@
         <v>100</v>
       </c>
       <c r="AO66" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AP66" t="s">
         <v>100</v>
@@ -18900,7 +19086,7 @@
         <v>94</v>
       </c>
       <c r="AT66" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AU66" t="s">
         <v>95</v>
@@ -18912,10 +19098,10 @@
         <v>99</v>
       </c>
       <c r="AX66" s="1">
-        <v>44977</v>
+        <v>44957</v>
       </c>
       <c r="AY66" s="1">
-        <v>44975</v>
+        <v>44955</v>
       </c>
       <c r="AZ66" t="s">
         <v>107</v>
@@ -18936,10 +19122,10 @@
         <v>147</v>
       </c>
       <c r="BF66" t="s">
-        <v>705</v>
+        <v>693</v>
       </c>
       <c r="BG66" s="1">
-        <v>36543</v>
+        <v>33287</v>
       </c>
       <c r="BH66" t="s">
         <v>101</v>
@@ -18951,19 +19137,19 @@
         <v>101</v>
       </c>
       <c r="BL66" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM66" t="s">
-        <v>706</v>
+        <v>694</v>
       </c>
       <c r="BN66" t="s">
-        <v>707</v>
+        <v>353</v>
       </c>
       <c r="BO66" s="1">
-        <v>44978</v>
+        <v>44967</v>
       </c>
       <c r="BP66" t="s">
-        <v>151</v>
+        <v>294</v>
       </c>
       <c r="BQ66" t="s">
         <v>101</v>
@@ -18975,13 +19161,13 @@
         <v>101</v>
       </c>
       <c r="BT66" t="s">
-        <v>624</v>
+        <v>685</v>
       </c>
       <c r="BU66" t="s">
         <v>117</v>
       </c>
       <c r="BV66" t="s">
-        <v>153</v>
+        <v>686</v>
       </c>
       <c r="BW66" t="s">
         <v>96</v>
@@ -19008,7 +19194,7 @@
         <v>119</v>
       </c>
       <c r="CE66">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:83" x14ac:dyDescent="0.2">
@@ -19016,40 +19202,40 @@
         <v>83</v>
       </c>
       <c r="B67" s="1">
-        <v>44974</v>
+        <v>44959</v>
       </c>
       <c r="C67" t="s">
-        <v>109</v>
+        <v>179</v>
       </c>
       <c r="D67" t="s">
         <v>85</v>
       </c>
       <c r="E67" t="s">
-        <v>556</v>
+        <v>86</v>
       </c>
       <c r="F67" t="s">
-        <v>87</v>
+        <v>188</v>
       </c>
       <c r="G67" t="s">
-        <v>708</v>
+        <v>203</v>
       </c>
       <c r="H67" t="s">
-        <v>709</v>
+        <v>88</v>
       </c>
       <c r="I67" t="s">
-        <v>666</v>
+        <v>539</v>
       </c>
       <c r="J67" t="s">
-        <v>710</v>
+        <v>695</v>
       </c>
       <c r="K67" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="L67" t="s">
-        <v>711</v>
+        <v>696</v>
       </c>
       <c r="M67" t="s">
-        <v>712</v>
+        <v>391</v>
       </c>
       <c r="N67" t="s">
         <v>94</v>
@@ -19061,7 +19247,7 @@
         <v>96</v>
       </c>
       <c r="Q67" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="R67" t="s">
         <v>95</v>
@@ -19076,7 +19262,7 @@
         <v>94</v>
       </c>
       <c r="V67" t="s">
-        <v>235</v>
+        <v>423</v>
       </c>
       <c r="W67" t="s">
         <v>101</v>
@@ -19088,22 +19274,22 @@
         <v>368</v>
       </c>
       <c r="Z67" t="s">
-        <v>713</v>
+        <v>697</v>
       </c>
       <c r="AA67" t="s">
         <v>104</v>
       </c>
       <c r="AB67" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="AC67" t="s">
-        <v>444</v>
+        <v>698</v>
       </c>
       <c r="AD67" t="s">
         <v>84</v>
       </c>
       <c r="AF67" t="s">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="AG67" t="s">
         <v>100</v>
@@ -19118,7 +19304,7 @@
         <v>100</v>
       </c>
       <c r="AK67" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AL67" t="s">
         <v>101</v>
@@ -19130,7 +19316,7 @@
         <v>100</v>
       </c>
       <c r="AO67" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AP67" t="s">
         <v>100</v>
@@ -19154,13 +19340,13 @@
         <v>98</v>
       </c>
       <c r="AW67" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="AX67" s="1">
-        <v>44974</v>
+        <v>44959</v>
       </c>
       <c r="AY67" s="1">
-        <v>44970</v>
+        <v>44958</v>
       </c>
       <c r="AZ67" t="s">
         <v>107</v>
@@ -19181,10 +19367,10 @@
         <v>147</v>
       </c>
       <c r="BF67" t="s">
-        <v>714</v>
+        <v>699</v>
       </c>
       <c r="BG67" s="1">
-        <v>15675</v>
+        <v>38736</v>
       </c>
       <c r="BH67" t="s">
         <v>101</v>
@@ -19196,19 +19382,19 @@
         <v>101</v>
       </c>
       <c r="BL67" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM67" t="s">
-        <v>715</v>
+        <v>700</v>
       </c>
       <c r="BN67" t="s">
-        <v>562</v>
+        <v>254</v>
       </c>
       <c r="BO67" s="1">
-        <v>44977</v>
+        <v>44963</v>
       </c>
       <c r="BP67" t="s">
-        <v>563</v>
+        <v>115</v>
       </c>
       <c r="BQ67" t="s">
         <v>101</v>
@@ -19220,13 +19406,13 @@
         <v>101</v>
       </c>
       <c r="BT67" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="BU67" t="s">
         <v>117</v>
       </c>
       <c r="BV67" t="s">
-        <v>564</v>
+        <v>489</v>
       </c>
       <c r="BW67" t="s">
         <v>96</v>
@@ -19244,7 +19430,7 @@
         <v>118</v>
       </c>
       <c r="CB67" t="s">
-        <v>214</v>
+        <v>119</v>
       </c>
       <c r="CC67" t="s">
         <v>118</v>
@@ -19253,7 +19439,7 @@
         <v>119</v>
       </c>
       <c r="CE67">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:83" x14ac:dyDescent="0.2">
@@ -19261,40 +19447,40 @@
         <v>83</v>
       </c>
       <c r="B68" s="1">
-        <v>45029</v>
+        <v>44968</v>
       </c>
       <c r="C68" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="D68" t="s">
         <v>85</v>
       </c>
       <c r="E68" t="s">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c r="F68" t="s">
-        <v>259</v>
+        <v>678</v>
       </c>
       <c r="G68" t="s">
-        <v>716</v>
+        <v>701</v>
       </c>
       <c r="H68" t="s">
-        <v>101</v>
+        <v>702</v>
       </c>
       <c r="I68" t="s">
-        <v>656</v>
+        <v>124</v>
       </c>
       <c r="J68" t="s">
-        <v>717</v>
+        <v>263</v>
       </c>
       <c r="K68" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="L68" t="s">
-        <v>718</v>
+        <v>703</v>
       </c>
       <c r="M68" t="s">
-        <v>277</v>
+        <v>234</v>
       </c>
       <c r="N68" t="s">
         <v>94</v>
@@ -19306,7 +19492,7 @@
         <v>96</v>
       </c>
       <c r="Q68" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="R68" t="s">
         <v>95</v>
@@ -19324,7 +19510,7 @@
         <v>101</v>
       </c>
       <c r="W68" t="s">
-        <v>235</v>
+        <v>423</v>
       </c>
       <c r="X68" t="s">
         <v>101</v>
@@ -19333,22 +19519,22 @@
         <v>101</v>
       </c>
       <c r="Z68" t="s">
-        <v>719</v>
+        <v>704</v>
       </c>
       <c r="AA68" t="s">
-        <v>266</v>
+        <v>705</v>
       </c>
       <c r="AB68" t="s">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="AC68" t="s">
-        <v>251</v>
+        <v>640</v>
       </c>
       <c r="AD68" t="s">
         <v>84</v>
       </c>
       <c r="AF68" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="AG68" t="s">
         <v>100</v>
@@ -19363,7 +19549,7 @@
         <v>100</v>
       </c>
       <c r="AK68" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AL68" t="s">
         <v>101</v>
@@ -19375,7 +19561,7 @@
         <v>100</v>
       </c>
       <c r="AO68" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AP68" t="s">
         <v>100</v>
@@ -19390,7 +19576,7 @@
         <v>94</v>
       </c>
       <c r="AT68" t="s">
-        <v>179</v>
+        <v>94</v>
       </c>
       <c r="AU68" t="s">
         <v>95</v>
@@ -19402,13 +19588,13 @@
         <v>99</v>
       </c>
       <c r="AX68" s="1">
-        <v>44969</v>
+        <v>44968</v>
       </c>
       <c r="AY68" s="1">
-        <v>44969</v>
+        <v>44966</v>
       </c>
       <c r="AZ68" t="s">
-        <v>179</v>
+        <v>107</v>
       </c>
       <c r="BA68" t="s">
         <v>100</v>
@@ -19426,10 +19612,10 @@
         <v>147</v>
       </c>
       <c r="BF68" t="s">
-        <v>720</v>
+        <v>706</v>
       </c>
       <c r="BG68" s="1">
-        <v>41701</v>
+        <v>35799</v>
       </c>
       <c r="BH68" t="s">
         <v>101</v>
@@ -19441,19 +19627,19 @@
         <v>101</v>
       </c>
       <c r="BL68" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM68" t="s">
-        <v>721</v>
+        <v>707</v>
       </c>
       <c r="BN68" t="s">
-        <v>269</v>
+        <v>353</v>
       </c>
       <c r="BO68" s="1">
-        <v>45029</v>
+        <v>44971</v>
       </c>
       <c r="BP68" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="BQ68" t="s">
         <v>101</v>
@@ -19465,13 +19651,13 @@
         <v>101</v>
       </c>
       <c r="BT68" t="s">
-        <v>271</v>
+        <v>685</v>
       </c>
       <c r="BU68" t="s">
         <v>117</v>
       </c>
       <c r="BV68" t="s">
-        <v>272</v>
+        <v>686</v>
       </c>
       <c r="BW68" t="s">
         <v>96</v>
@@ -19498,7 +19684,7 @@
         <v>119</v>
       </c>
       <c r="CE68">
-        <v>69</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:83" x14ac:dyDescent="0.2">
@@ -19506,10 +19692,10 @@
         <v>83</v>
       </c>
       <c r="B69" s="1">
-        <v>44982</v>
+        <v>45027</v>
       </c>
       <c r="C69" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="D69" t="s">
         <v>85</v>
@@ -19518,28 +19704,28 @@
         <v>281</v>
       </c>
       <c r="F69" t="s">
-        <v>180</v>
+        <v>87</v>
       </c>
       <c r="G69" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="H69" t="s">
-        <v>723</v>
+        <v>101</v>
       </c>
       <c r="I69" t="s">
-        <v>724</v>
+        <v>366</v>
       </c>
       <c r="J69" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="K69" t="s">
         <v>138</v>
       </c>
       <c r="L69" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="M69" t="s">
-        <v>727</v>
+        <v>431</v>
       </c>
       <c r="N69" t="s">
         <v>94</v>
@@ -19551,7 +19737,7 @@
         <v>96</v>
       </c>
       <c r="Q69" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="R69" t="s">
         <v>95</v>
@@ -19569,7 +19755,7 @@
         <v>101</v>
       </c>
       <c r="W69" t="s">
-        <v>141</v>
+        <v>711</v>
       </c>
       <c r="X69" t="s">
         <v>101</v>
@@ -19578,10 +19764,10 @@
         <v>101</v>
       </c>
       <c r="Z69" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="AA69" t="s">
-        <v>104</v>
+        <v>266</v>
       </c>
       <c r="AB69" t="s">
         <v>145</v>
@@ -19608,7 +19794,7 @@
         <v>100</v>
       </c>
       <c r="AK69" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AL69" t="s">
         <v>101</v>
@@ -19620,7 +19806,7 @@
         <v>100</v>
       </c>
       <c r="AO69" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AP69" t="s">
         <v>100</v>
@@ -19647,10 +19833,10 @@
         <v>99</v>
       </c>
       <c r="AX69" s="1">
-        <v>44982</v>
+        <v>44965</v>
       </c>
       <c r="AY69" s="1">
-        <v>44982</v>
+        <v>44964</v>
       </c>
       <c r="AZ69" t="s">
         <v>107</v>
@@ -19671,10 +19857,10 @@
         <v>147</v>
       </c>
       <c r="BF69" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
       <c r="BG69" s="1">
-        <v>31601</v>
+        <v>37317</v>
       </c>
       <c r="BH69" t="s">
         <v>101</v>
@@ -19686,16 +19872,16 @@
         <v>101</v>
       </c>
       <c r="BL69" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM69" t="s">
-        <v>730</v>
+        <v>714</v>
       </c>
       <c r="BN69" t="s">
-        <v>353</v>
+        <v>715</v>
       </c>
       <c r="BO69" s="1">
-        <v>44987</v>
+        <v>45027</v>
       </c>
       <c r="BP69" t="s">
         <v>294</v>
@@ -19710,13 +19896,13 @@
         <v>101</v>
       </c>
       <c r="BT69" t="s">
-        <v>271</v>
+        <v>116</v>
       </c>
       <c r="BU69" t="s">
         <v>117</v>
       </c>
       <c r="BV69" t="s">
-        <v>354</v>
+        <v>295</v>
       </c>
       <c r="BW69" t="s">
         <v>96</v>
@@ -19743,7 +19929,7 @@
         <v>119</v>
       </c>
       <c r="CE69">
-        <v>28</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:83" x14ac:dyDescent="0.2">
@@ -19751,52 +19937,52 @@
         <v>83</v>
       </c>
       <c r="B70" s="1">
-        <v>44984</v>
+        <v>44975</v>
       </c>
       <c r="C70" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="D70" t="s">
         <v>85</v>
       </c>
       <c r="E70" t="s">
-        <v>86</v>
+        <v>170</v>
       </c>
       <c r="F70" t="s">
         <v>87</v>
       </c>
       <c r="G70" t="s">
-        <v>731</v>
+        <v>716</v>
       </c>
       <c r="H70" t="s">
-        <v>591</v>
+        <v>101</v>
       </c>
       <c r="I70" t="s">
-        <v>732</v>
+        <v>124</v>
       </c>
       <c r="J70" t="s">
-        <v>568</v>
+        <v>717</v>
       </c>
       <c r="K70" t="s">
-        <v>218</v>
+        <v>138</v>
       </c>
       <c r="L70" t="s">
-        <v>733</v>
+        <v>718</v>
       </c>
       <c r="M70" t="s">
-        <v>277</v>
+        <v>158</v>
       </c>
       <c r="N70" t="s">
         <v>94</v>
       </c>
       <c r="O70" t="s">
-        <v>221</v>
+        <v>95</v>
       </c>
       <c r="P70" t="s">
-        <v>222</v>
+        <v>96</v>
       </c>
       <c r="Q70" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="R70" t="s">
         <v>95</v>
@@ -19805,25 +19991,25 @@
         <v>98</v>
       </c>
       <c r="T70" t="s">
-        <v>99</v>
+        <v>719</v>
       </c>
       <c r="U70" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="V70" t="s">
         <v>101</v>
       </c>
       <c r="W70" t="s">
-        <v>669</v>
+        <v>101</v>
       </c>
       <c r="X70" t="s">
-        <v>101</v>
+        <v>720</v>
       </c>
       <c r="Y70" t="s">
         <v>101</v>
       </c>
       <c r="Z70" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="AA70" t="s">
         <v>104</v>
@@ -19838,7 +20024,7 @@
         <v>84</v>
       </c>
       <c r="AF70" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="AG70" t="s">
         <v>100</v>
@@ -19853,7 +20039,7 @@
         <v>100</v>
       </c>
       <c r="AK70" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AL70" t="s">
         <v>101</v>
@@ -19865,7 +20051,7 @@
         <v>100</v>
       </c>
       <c r="AO70" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AP70" t="s">
         <v>100</v>
@@ -19889,22 +20075,22 @@
         <v>98</v>
       </c>
       <c r="AW70" t="s">
-        <v>99</v>
+        <v>719</v>
       </c>
       <c r="AX70" s="1">
-        <v>44984</v>
+        <v>44973</v>
       </c>
       <c r="AY70" s="1">
-        <v>44981</v>
+        <v>44966</v>
       </c>
       <c r="AZ70" t="s">
         <v>107</v>
       </c>
       <c r="BA70" t="s">
-        <v>100</v>
-      </c>
-      <c r="BB70" t="s">
-        <v>108</v>
+        <v>94</v>
+      </c>
+      <c r="BB70" s="1">
+        <v>44973</v>
       </c>
       <c r="BC70" t="s">
         <v>94</v>
@@ -19916,10 +20102,10 @@
         <v>147</v>
       </c>
       <c r="BF70" t="s">
-        <v>735</v>
+        <v>722</v>
       </c>
       <c r="BG70" s="1">
-        <v>41687</v>
+        <v>32631</v>
       </c>
       <c r="BH70" t="s">
         <v>101</v>
@@ -19931,19 +20117,19 @@
         <v>101</v>
       </c>
       <c r="BL70" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM70" t="s">
-        <v>736</v>
+        <v>723</v>
       </c>
       <c r="BN70" t="s">
-        <v>114</v>
+        <v>724</v>
       </c>
       <c r="BO70" s="1">
-        <v>44985</v>
+        <v>44977</v>
       </c>
       <c r="BP70" t="s">
-        <v>115</v>
+        <v>184</v>
       </c>
       <c r="BQ70" t="s">
         <v>101</v>
@@ -19955,13 +20141,13 @@
         <v>101</v>
       </c>
       <c r="BT70" t="s">
-        <v>624</v>
+        <v>685</v>
       </c>
       <c r="BU70" t="s">
         <v>117</v>
       </c>
       <c r="BV70" t="s">
-        <v>112</v>
+        <v>185</v>
       </c>
       <c r="BW70" t="s">
         <v>96</v>
@@ -19970,7 +20156,7 @@
         <v>118</v>
       </c>
       <c r="BY70" t="s">
-        <v>119</v>
+        <v>725</v>
       </c>
       <c r="BZ70" t="s">
         <v>96</v>
@@ -19979,7 +20165,7 @@
         <v>118</v>
       </c>
       <c r="CB70" t="s">
-        <v>119</v>
+        <v>725</v>
       </c>
       <c r="CC70" t="s">
         <v>118</v>
@@ -19988,7 +20174,7 @@
         <v>119</v>
       </c>
       <c r="CE70">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" spans="1:83" x14ac:dyDescent="0.2">
@@ -19996,40 +20182,40 @@
         <v>83</v>
       </c>
       <c r="B71" s="1">
-        <v>44979</v>
+        <v>44970</v>
       </c>
       <c r="C71" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="D71" t="s">
         <v>85</v>
       </c>
       <c r="E71" t="s">
-        <v>737</v>
+        <v>281</v>
       </c>
       <c r="F71" t="s">
         <v>87</v>
       </c>
       <c r="G71" t="s">
-        <v>738</v>
+        <v>687</v>
       </c>
       <c r="H71" t="s">
-        <v>101</v>
+        <v>203</v>
       </c>
       <c r="I71" t="s">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="J71" t="s">
-        <v>448</v>
+        <v>727</v>
       </c>
       <c r="K71" t="s">
-        <v>340</v>
+        <v>138</v>
       </c>
       <c r="L71" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
       <c r="M71" t="s">
-        <v>107</v>
+        <v>729</v>
       </c>
       <c r="N71" t="s">
         <v>94</v>
@@ -20041,7 +20227,7 @@
         <v>96</v>
       </c>
       <c r="Q71" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="R71" t="s">
         <v>95</v>
@@ -20053,37 +20239,37 @@
         <v>99</v>
       </c>
       <c r="U71" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="V71" t="s">
-        <v>741</v>
+        <v>101</v>
       </c>
       <c r="W71" t="s">
-        <v>101</v>
+        <v>730</v>
       </c>
       <c r="X71" t="s">
         <v>101</v>
       </c>
       <c r="Y71" t="s">
-        <v>368</v>
+        <v>101</v>
       </c>
       <c r="Z71" t="s">
-        <v>742</v>
+        <v>731</v>
       </c>
       <c r="AA71" t="s">
-        <v>104</v>
+        <v>732</v>
       </c>
       <c r="AB71" t="s">
         <v>145</v>
       </c>
       <c r="AC71" t="s">
-        <v>197</v>
+        <v>290</v>
       </c>
       <c r="AD71" t="s">
         <v>84</v>
       </c>
       <c r="AF71" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="AG71" t="s">
         <v>100</v>
@@ -20098,7 +20284,7 @@
         <v>100</v>
       </c>
       <c r="AK71" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AL71" t="s">
         <v>101</v>
@@ -20110,7 +20296,7 @@
         <v>100</v>
       </c>
       <c r="AO71" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AP71" t="s">
         <v>100</v>
@@ -20137,10 +20323,10 @@
         <v>99</v>
       </c>
       <c r="AX71" s="1">
-        <v>44979</v>
+        <v>44970</v>
       </c>
       <c r="AY71" s="1">
-        <v>44978</v>
+        <v>44968</v>
       </c>
       <c r="AZ71" t="s">
         <v>107</v>
@@ -20161,10 +20347,10 @@
         <v>147</v>
       </c>
       <c r="BF71" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="BG71" s="1">
-        <v>43412</v>
+        <v>30623</v>
       </c>
       <c r="BH71" t="s">
         <v>101</v>
@@ -20176,19 +20362,19 @@
         <v>101</v>
       </c>
       <c r="BL71" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM71" t="s">
-        <v>744</v>
+        <v>292</v>
       </c>
       <c r="BN71" t="s">
-        <v>745</v>
+        <v>353</v>
       </c>
       <c r="BO71" s="1">
-        <v>44979</v>
+        <v>44971</v>
       </c>
       <c r="BP71" t="s">
-        <v>746</v>
+        <v>294</v>
       </c>
       <c r="BQ71" t="s">
         <v>101</v>
@@ -20200,13 +20386,13 @@
         <v>101</v>
       </c>
       <c r="BT71" t="s">
-        <v>747</v>
+        <v>685</v>
       </c>
       <c r="BU71" t="s">
         <v>117</v>
       </c>
       <c r="BV71" t="s">
-        <v>748</v>
+        <v>295</v>
       </c>
       <c r="BW71" t="s">
         <v>96</v>
@@ -20233,7 +20419,7 @@
         <v>119</v>
       </c>
       <c r="CE71">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" spans="1:83" x14ac:dyDescent="0.2">
@@ -20241,40 +20427,40 @@
         <v>83</v>
       </c>
       <c r="B72" s="1">
-        <v>44981</v>
+        <v>45016</v>
       </c>
       <c r="C72" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="D72" t="s">
         <v>85</v>
       </c>
       <c r="E72" t="s">
-        <v>749</v>
+        <v>258</v>
       </c>
       <c r="F72" t="s">
-        <v>712</v>
+        <v>259</v>
       </c>
       <c r="G72" t="s">
-        <v>356</v>
+        <v>734</v>
       </c>
       <c r="H72" t="s">
-        <v>750</v>
+        <v>101</v>
       </c>
       <c r="I72" t="s">
-        <v>123</v>
+        <v>735</v>
       </c>
       <c r="J72" t="s">
-        <v>246</v>
+        <v>736</v>
       </c>
       <c r="K72" t="s">
         <v>91</v>
       </c>
       <c r="L72" t="s">
-        <v>751</v>
+        <v>737</v>
       </c>
       <c r="M72" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="N72" t="s">
         <v>94</v>
@@ -20298,31 +20484,31 @@
         <v>99</v>
       </c>
       <c r="U72" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="V72" t="s">
+        <v>101</v>
+      </c>
+      <c r="W72" t="s">
         <v>235</v>
       </c>
-      <c r="W72" t="s">
-        <v>101</v>
-      </c>
       <c r="X72" t="s">
         <v>101</v>
       </c>
       <c r="Y72" t="s">
-        <v>752</v>
+        <v>101</v>
       </c>
       <c r="Z72" t="s">
-        <v>753</v>
+        <v>738</v>
       </c>
       <c r="AA72" t="s">
-        <v>104</v>
+        <v>266</v>
       </c>
       <c r="AB72" t="s">
-        <v>754</v>
+        <v>105</v>
       </c>
       <c r="AC72" t="s">
-        <v>755</v>
+        <v>279</v>
       </c>
       <c r="AD72" t="s">
         <v>84</v>
@@ -20370,7 +20556,7 @@
         <v>94</v>
       </c>
       <c r="AT72" t="s">
-        <v>94</v>
+        <v>179</v>
       </c>
       <c r="AU72" t="s">
         <v>95</v>
@@ -20382,13 +20568,13 @@
         <v>99</v>
       </c>
       <c r="AX72" s="1">
-        <v>44979</v>
+        <v>44990</v>
       </c>
       <c r="AY72" s="1">
-        <v>44977</v>
+        <v>44962</v>
       </c>
       <c r="AZ72" t="s">
-        <v>107</v>
+        <v>179</v>
       </c>
       <c r="BA72" t="s">
         <v>100</v>
@@ -20406,10 +20592,10 @@
         <v>147</v>
       </c>
       <c r="BF72" t="s">
-        <v>756</v>
+        <v>739</v>
       </c>
       <c r="BG72" s="1">
-        <v>39245</v>
+        <v>41326</v>
       </c>
       <c r="BH72" t="s">
         <v>101</v>
@@ -20421,16 +20607,19 @@
         <v>101</v>
       </c>
       <c r="BL72" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM72" t="s">
-        <v>757</v>
+        <v>268</v>
       </c>
       <c r="BN72" t="s">
-        <v>758</v>
+        <v>269</v>
       </c>
       <c r="BO72" s="1">
-        <v>44981</v>
+        <v>45016</v>
+      </c>
+      <c r="BP72" t="s">
+        <v>270</v>
       </c>
       <c r="BQ72" t="s">
         <v>101</v>
@@ -20442,11 +20631,14 @@
         <v>101</v>
       </c>
       <c r="BT72" t="s">
-        <v>624</v>
+        <v>116</v>
       </c>
       <c r="BU72" t="s">
         <v>117</v>
       </c>
+      <c r="BV72" t="s">
+        <v>272</v>
+      </c>
       <c r="BW72" t="s">
         <v>96</v>
       </c>
@@ -20465,8 +20657,14 @@
       <c r="CB72" t="s">
         <v>119</v>
       </c>
+      <c r="CC72" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD72" t="s">
+        <v>119</v>
+      </c>
       <c r="CE72">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73" spans="1:83" x14ac:dyDescent="0.2">
@@ -20474,40 +20672,40 @@
         <v>83</v>
       </c>
       <c r="B73" s="1">
-        <v>44989</v>
+        <v>44971</v>
       </c>
       <c r="C73" t="s">
-        <v>277</v>
+        <v>84</v>
       </c>
       <c r="D73" t="s">
         <v>85</v>
       </c>
       <c r="E73" t="s">
-        <v>759</v>
+        <v>228</v>
       </c>
       <c r="F73" t="s">
-        <v>760</v>
+        <v>87</v>
       </c>
       <c r="G73" t="s">
-        <v>203</v>
+        <v>260</v>
       </c>
       <c r="H73" t="s">
-        <v>761</v>
+        <v>88</v>
       </c>
       <c r="I73" t="s">
-        <v>665</v>
+        <v>740</v>
       </c>
       <c r="J73" t="s">
-        <v>666</v>
+        <v>314</v>
       </c>
       <c r="K73" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="L73" t="s">
-        <v>762</v>
+        <v>741</v>
       </c>
       <c r="M73" t="s">
-        <v>763</v>
+        <v>109</v>
       </c>
       <c r="N73" t="s">
         <v>94</v>
@@ -20519,7 +20717,7 @@
         <v>96</v>
       </c>
       <c r="Q73" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="R73" t="s">
         <v>95</v>
@@ -20534,7 +20732,7 @@
         <v>94</v>
       </c>
       <c r="V73" t="s">
-        <v>694</v>
+        <v>235</v>
       </c>
       <c r="W73" t="s">
         <v>101</v>
@@ -20543,10 +20741,10 @@
         <v>101</v>
       </c>
       <c r="Y73" t="s">
-        <v>669</v>
+        <v>742</v>
       </c>
       <c r="Z73" t="s">
-        <v>764</v>
+        <v>743</v>
       </c>
       <c r="AA73" t="s">
         <v>104</v>
@@ -20555,13 +20753,13 @@
         <v>145</v>
       </c>
       <c r="AC73" t="s">
-        <v>197</v>
+        <v>146</v>
       </c>
       <c r="AD73" t="s">
         <v>84</v>
       </c>
       <c r="AF73" t="s">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="AG73" t="s">
         <v>100</v>
@@ -20576,7 +20774,7 @@
         <v>100</v>
       </c>
       <c r="AK73" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL73" t="s">
         <v>101</v>
@@ -20588,7 +20786,7 @@
         <v>100</v>
       </c>
       <c r="AO73" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AP73" t="s">
         <v>100</v>
@@ -20615,10 +20813,10 @@
         <v>99</v>
       </c>
       <c r="AX73" s="1">
-        <v>44988</v>
+        <v>44971</v>
       </c>
       <c r="AY73" s="1">
-        <v>44987</v>
+        <v>44967</v>
       </c>
       <c r="AZ73" t="s">
         <v>107</v>
@@ -20639,10 +20837,10 @@
         <v>147</v>
       </c>
       <c r="BF73" t="s">
-        <v>672</v>
+        <v>744</v>
       </c>
       <c r="BG73" s="1">
-        <v>14150</v>
+        <v>42341</v>
       </c>
       <c r="BH73" t="s">
         <v>101</v>
@@ -20654,16 +20852,19 @@
         <v>101</v>
       </c>
       <c r="BL73" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM73" t="s">
-        <v>765</v>
+        <v>745</v>
       </c>
       <c r="BN73" t="s">
-        <v>766</v>
+        <v>746</v>
       </c>
       <c r="BO73" s="1">
-        <v>44989</v>
+        <v>44977</v>
+      </c>
+      <c r="BP73" t="s">
+        <v>241</v>
       </c>
       <c r="BQ73" t="s">
         <v>101</v>
@@ -20675,11 +20876,14 @@
         <v>101</v>
       </c>
       <c r="BT73" t="s">
-        <v>624</v>
+        <v>152</v>
       </c>
       <c r="BU73" t="s">
         <v>117</v>
       </c>
+      <c r="BV73" t="s">
+        <v>242</v>
+      </c>
       <c r="BW73" t="s">
         <v>96</v>
       </c>
@@ -20698,8 +20902,14 @@
       <c r="CB73" t="s">
         <v>119</v>
       </c>
+      <c r="CC73" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD73" t="s">
+        <v>119</v>
+      </c>
       <c r="CE73">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" spans="1:83" x14ac:dyDescent="0.2">
@@ -20707,67 +20917,67 @@
         <v>83</v>
       </c>
       <c r="B74" s="1">
-        <v>44987</v>
+        <v>44975</v>
       </c>
       <c r="C74" t="s">
-        <v>277</v>
+        <v>109</v>
       </c>
       <c r="D74" t="s">
         <v>85</v>
       </c>
       <c r="E74" t="s">
-        <v>133</v>
+        <v>747</v>
       </c>
       <c r="F74" t="s">
         <v>87</v>
       </c>
       <c r="G74" t="s">
-        <v>767</v>
+        <v>748</v>
       </c>
       <c r="H74" t="s">
-        <v>768</v>
+        <v>749</v>
       </c>
       <c r="I74" t="s">
-        <v>769</v>
+        <v>750</v>
       </c>
       <c r="J74" t="s">
-        <v>770</v>
+        <v>751</v>
       </c>
       <c r="K74" t="s">
-        <v>218</v>
+        <v>138</v>
       </c>
       <c r="L74" t="s">
-        <v>771</v>
+        <v>752</v>
       </c>
       <c r="M74" t="s">
-        <v>234</v>
+        <v>564</v>
       </c>
       <c r="N74" t="s">
         <v>94</v>
       </c>
       <c r="O74" t="s">
-        <v>221</v>
+        <v>95</v>
       </c>
       <c r="P74" t="s">
-        <v>222</v>
+        <v>96</v>
       </c>
       <c r="Q74" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="R74" t="s">
         <v>95</v>
       </c>
       <c r="S74" t="s">
-        <v>98</v>
+        <v>391</v>
       </c>
       <c r="T74" t="s">
-        <v>99</v>
+        <v>753</v>
       </c>
       <c r="U74" t="s">
         <v>94</v>
       </c>
       <c r="V74" t="s">
-        <v>141</v>
+        <v>754</v>
       </c>
       <c r="W74" t="s">
         <v>101</v>
@@ -20776,19 +20986,19 @@
         <v>101</v>
       </c>
       <c r="Y74" t="s">
-        <v>423</v>
+        <v>368</v>
       </c>
       <c r="Z74" t="s">
-        <v>772</v>
+        <v>755</v>
       </c>
       <c r="AA74" t="s">
-        <v>773</v>
+        <v>289</v>
       </c>
       <c r="AB74" t="s">
-        <v>145</v>
+        <v>330</v>
       </c>
       <c r="AC74" t="s">
-        <v>774</v>
+        <v>101</v>
       </c>
       <c r="AD74" t="s">
         <v>84</v>
@@ -20809,7 +21019,7 @@
         <v>100</v>
       </c>
       <c r="AK74" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL74" t="s">
         <v>101</v>
@@ -20821,7 +21031,7 @@
         <v>100</v>
       </c>
       <c r="AO74" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AP74" t="s">
         <v>100</v>
@@ -20848,10 +21058,10 @@
         <v>99</v>
       </c>
       <c r="AX74" s="1">
-        <v>44987</v>
+        <v>44975</v>
       </c>
       <c r="AY74" s="1">
-        <v>44985</v>
+        <v>44975</v>
       </c>
       <c r="AZ74" t="s">
         <v>107</v>
@@ -20872,10 +21082,10 @@
         <v>147</v>
       </c>
       <c r="BF74" t="s">
-        <v>775</v>
+        <v>756</v>
       </c>
       <c r="BG74" s="1">
-        <v>35626</v>
+        <v>35484</v>
       </c>
       <c r="BH74" t="s">
         <v>101</v>
@@ -20887,19 +21097,16 @@
         <v>101</v>
       </c>
       <c r="BL74" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM74" t="s">
-        <v>706</v>
+        <v>757</v>
       </c>
       <c r="BN74" t="s">
-        <v>776</v>
+        <v>758</v>
       </c>
       <c r="BO74" s="1">
-        <v>44988</v>
-      </c>
-      <c r="BP74" t="s">
-        <v>151</v>
+        <v>44984</v>
       </c>
       <c r="BQ74" t="s">
         <v>101</v>
@@ -20911,22 +21118,19 @@
         <v>101</v>
       </c>
       <c r="BT74" t="s">
-        <v>624</v>
+        <v>685</v>
       </c>
       <c r="BU74" t="s">
         <v>117</v>
       </c>
-      <c r="BV74" t="s">
-        <v>153</v>
-      </c>
       <c r="BW74" t="s">
         <v>96</v>
       </c>
       <c r="BX74" t="s">
-        <v>118</v>
+        <v>759</v>
       </c>
       <c r="BY74" t="s">
-        <v>119</v>
+        <v>760</v>
       </c>
       <c r="BZ74" t="s">
         <v>96</v>
@@ -20937,14 +21141,8 @@
       <c r="CB74" t="s">
         <v>119</v>
       </c>
-      <c r="CC74" t="s">
-        <v>118</v>
-      </c>
-      <c r="CD74" t="s">
-        <v>119</v>
-      </c>
       <c r="CE74">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" spans="1:83" x14ac:dyDescent="0.2">
@@ -20952,10 +21150,10 @@
         <v>83</v>
       </c>
       <c r="B75" s="1">
-        <v>44991</v>
+        <v>44977</v>
       </c>
       <c r="C75" t="s">
-        <v>277</v>
+        <v>109</v>
       </c>
       <c r="D75" t="s">
         <v>85</v>
@@ -20967,25 +21165,25 @@
         <v>87</v>
       </c>
       <c r="G75" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="H75" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="I75" t="s">
-        <v>777</v>
+        <v>761</v>
       </c>
       <c r="J75" t="s">
-        <v>778</v>
+        <v>517</v>
       </c>
       <c r="K75" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="L75" t="s">
-        <v>779</v>
+        <v>762</v>
       </c>
       <c r="M75" t="s">
-        <v>120</v>
+        <v>474</v>
       </c>
       <c r="N75" t="s">
         <v>94</v>
@@ -20997,7 +21195,7 @@
         <v>96</v>
       </c>
       <c r="Q75" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="R75" t="s">
         <v>95</v>
@@ -21021,13 +21219,13 @@
         <v>101</v>
       </c>
       <c r="Y75" t="s">
-        <v>423</v>
+        <v>141</v>
       </c>
       <c r="Z75" t="s">
-        <v>780</v>
+        <v>763</v>
       </c>
       <c r="AA75" t="s">
-        <v>104</v>
+        <v>764</v>
       </c>
       <c r="AB75" t="s">
         <v>145</v>
@@ -21039,7 +21237,7 @@
         <v>84</v>
       </c>
       <c r="AF75" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="AG75" t="s">
         <v>100</v>
@@ -21054,7 +21252,7 @@
         <v>100</v>
       </c>
       <c r="AK75" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL75" t="s">
         <v>101</v>
@@ -21066,7 +21264,7 @@
         <v>100</v>
       </c>
       <c r="AO75" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AP75" t="s">
         <v>100</v>
@@ -21093,10 +21291,10 @@
         <v>99</v>
       </c>
       <c r="AX75" s="1">
-        <v>44991</v>
+        <v>44977</v>
       </c>
       <c r="AY75" s="1">
-        <v>44987</v>
+        <v>44975</v>
       </c>
       <c r="AZ75" t="s">
         <v>107</v>
@@ -21117,10 +21315,10 @@
         <v>147</v>
       </c>
       <c r="BF75" t="s">
-        <v>781</v>
+        <v>765</v>
       </c>
       <c r="BG75" s="1">
-        <v>41744</v>
+        <v>36543</v>
       </c>
       <c r="BH75" t="s">
         <v>101</v>
@@ -21132,16 +21330,16 @@
         <v>101</v>
       </c>
       <c r="BL75" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM75" t="s">
-        <v>434</v>
+        <v>625</v>
       </c>
       <c r="BN75" t="s">
-        <v>435</v>
+        <v>766</v>
       </c>
       <c r="BO75" s="1">
-        <v>44999</v>
+        <v>44978</v>
       </c>
       <c r="BP75" t="s">
         <v>151</v>
@@ -21156,7 +21354,7 @@
         <v>101</v>
       </c>
       <c r="BT75" t="s">
-        <v>116</v>
+        <v>685</v>
       </c>
       <c r="BU75" t="s">
         <v>117</v>
@@ -21189,7 +21387,7 @@
         <v>119</v>
       </c>
       <c r="CE75">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" spans="1:83" x14ac:dyDescent="0.2">
@@ -21197,40 +21395,40 @@
         <v>83</v>
       </c>
       <c r="B76" s="1">
-        <v>45029</v>
+        <v>44974</v>
       </c>
       <c r="C76" t="s">
-        <v>277</v>
+        <v>109</v>
       </c>
       <c r="D76" t="s">
         <v>85</v>
       </c>
       <c r="E76" t="s">
-        <v>258</v>
+        <v>597</v>
       </c>
       <c r="F76" t="s">
-        <v>259</v>
+        <v>87</v>
       </c>
       <c r="G76" t="s">
-        <v>304</v>
+        <v>767</v>
       </c>
       <c r="H76" t="s">
-        <v>101</v>
+        <v>768</v>
       </c>
       <c r="I76" t="s">
-        <v>378</v>
+        <v>727</v>
       </c>
       <c r="J76" t="s">
-        <v>782</v>
+        <v>769</v>
       </c>
       <c r="K76" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="L76" t="s">
-        <v>783</v>
+        <v>770</v>
       </c>
       <c r="M76" t="s">
-        <v>248</v>
+        <v>771</v>
       </c>
       <c r="N76" t="s">
         <v>94</v>
@@ -21254,37 +21452,37 @@
         <v>99</v>
       </c>
       <c r="U76" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="V76" t="s">
-        <v>101</v>
+        <v>235</v>
       </c>
       <c r="W76" t="s">
-        <v>235</v>
+        <v>101</v>
       </c>
       <c r="X76" t="s">
         <v>101</v>
       </c>
       <c r="Y76" t="s">
-        <v>101</v>
+        <v>368</v>
       </c>
       <c r="Z76" t="s">
-        <v>784</v>
+        <v>772</v>
       </c>
       <c r="AA76" t="s">
-        <v>266</v>
+        <v>104</v>
       </c>
       <c r="AB76" t="s">
         <v>145</v>
       </c>
       <c r="AC76" t="s">
-        <v>343</v>
+        <v>444</v>
       </c>
       <c r="AD76" t="s">
         <v>84</v>
       </c>
       <c r="AF76" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="AG76" t="s">
         <v>100</v>
@@ -21326,7 +21524,7 @@
         <v>94</v>
       </c>
       <c r="AT76" t="s">
-        <v>179</v>
+        <v>94</v>
       </c>
       <c r="AU76" t="s">
         <v>95</v>
@@ -21335,16 +21533,16 @@
         <v>98</v>
       </c>
       <c r="AW76" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="AX76" s="1">
-        <v>44988</v>
+        <v>44974</v>
       </c>
       <c r="AY76" s="1">
-        <v>44988</v>
+        <v>44970</v>
       </c>
       <c r="AZ76" t="s">
-        <v>179</v>
+        <v>107</v>
       </c>
       <c r="BA76" t="s">
         <v>100</v>
@@ -21362,10 +21560,10 @@
         <v>147</v>
       </c>
       <c r="BF76" t="s">
-        <v>785</v>
+        <v>773</v>
       </c>
       <c r="BG76" s="1">
-        <v>40688</v>
+        <v>15675</v>
       </c>
       <c r="BH76" t="s">
         <v>101</v>
@@ -21377,19 +21575,19 @@
         <v>101</v>
       </c>
       <c r="BL76" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM76" t="s">
-        <v>786</v>
+        <v>774</v>
       </c>
       <c r="BN76" t="s">
-        <v>269</v>
+        <v>603</v>
       </c>
       <c r="BO76" s="1">
-        <v>45029</v>
+        <v>44977</v>
       </c>
       <c r="BP76" t="s">
-        <v>270</v>
+        <v>604</v>
       </c>
       <c r="BQ76" t="s">
         <v>101</v>
@@ -21401,13 +21599,13 @@
         <v>101</v>
       </c>
       <c r="BT76" t="s">
-        <v>271</v>
+        <v>152</v>
       </c>
       <c r="BU76" t="s">
         <v>117</v>
       </c>
       <c r="BV76" t="s">
-        <v>272</v>
+        <v>605</v>
       </c>
       <c r="BW76" t="s">
         <v>96</v>
@@ -21425,7 +21623,7 @@
         <v>118</v>
       </c>
       <c r="CB76" t="s">
-        <v>119</v>
+        <v>214</v>
       </c>
       <c r="CC76" t="s">
         <v>118</v>
@@ -21434,7 +21632,7 @@
         <v>119</v>
       </c>
       <c r="CE76">
-        <v>70</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" spans="1:83" x14ac:dyDescent="0.2">
@@ -21442,10 +21640,10 @@
         <v>83</v>
       </c>
       <c r="B77" s="1">
-        <v>45016</v>
+        <v>45029</v>
       </c>
       <c r="C77" t="s">
-        <v>277</v>
+        <v>109</v>
       </c>
       <c r="D77" t="s">
         <v>85</v>
@@ -21457,22 +21655,22 @@
         <v>259</v>
       </c>
       <c r="G77" t="s">
-        <v>787</v>
+        <v>775</v>
       </c>
       <c r="H77" t="s">
         <v>101</v>
       </c>
       <c r="I77" t="s">
-        <v>788</v>
+        <v>717</v>
       </c>
       <c r="J77" t="s">
-        <v>574</v>
+        <v>776</v>
       </c>
       <c r="K77" t="s">
         <v>91</v>
       </c>
       <c r="L77" t="s">
-        <v>789</v>
+        <v>777</v>
       </c>
       <c r="M77" t="s">
         <v>277</v>
@@ -21514,16 +21712,16 @@
         <v>101</v>
       </c>
       <c r="Z77" t="s">
-        <v>790</v>
+        <v>778</v>
       </c>
       <c r="AA77" t="s">
         <v>266</v>
       </c>
       <c r="AB77" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="AC77" t="s">
-        <v>774</v>
+        <v>251</v>
       </c>
       <c r="AD77" t="s">
         <v>84</v>
@@ -21583,10 +21781,10 @@
         <v>99</v>
       </c>
       <c r="AX77" s="1">
-        <v>44984</v>
+        <v>44969</v>
       </c>
       <c r="AY77" s="1">
-        <v>44984</v>
+        <v>44969</v>
       </c>
       <c r="AZ77" t="s">
         <v>179</v>
@@ -21607,10 +21805,10 @@
         <v>147</v>
       </c>
       <c r="BF77" t="s">
-        <v>791</v>
+        <v>779</v>
       </c>
       <c r="BG77" s="1">
-        <v>41448</v>
+        <v>41701</v>
       </c>
       <c r="BH77" t="s">
         <v>101</v>
@@ -21622,16 +21820,16 @@
         <v>101</v>
       </c>
       <c r="BL77" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM77" t="s">
-        <v>268</v>
+        <v>780</v>
       </c>
       <c r="BN77" t="s">
         <v>269</v>
       </c>
       <c r="BO77" s="1">
-        <v>45016</v>
+        <v>45029</v>
       </c>
       <c r="BP77" t="s">
         <v>270</v>
@@ -21646,7 +21844,7 @@
         <v>101</v>
       </c>
       <c r="BT77" t="s">
-        <v>116</v>
+        <v>271</v>
       </c>
       <c r="BU77" t="s">
         <v>117</v>
@@ -21679,7 +21877,7 @@
         <v>119</v>
       </c>
       <c r="CE77">
-        <v>42</v>
+        <v>69</v>
       </c>
     </row>
     <row r="78" spans="1:83" x14ac:dyDescent="0.2">
@@ -21687,40 +21885,40 @@
         <v>83</v>
       </c>
       <c r="B78" s="1">
-        <v>44998</v>
+        <v>44982</v>
       </c>
       <c r="C78" t="s">
-        <v>277</v>
+        <v>120</v>
       </c>
       <c r="D78" t="s">
         <v>85</v>
       </c>
       <c r="E78" t="s">
-        <v>503</v>
+        <v>281</v>
       </c>
       <c r="F78" t="s">
-        <v>504</v>
+        <v>180</v>
       </c>
       <c r="G78" t="s">
-        <v>792</v>
+        <v>781</v>
       </c>
       <c r="H78" t="s">
-        <v>101</v>
+        <v>782</v>
       </c>
       <c r="I78" t="s">
-        <v>456</v>
+        <v>783</v>
       </c>
       <c r="J78" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="K78" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="L78" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="M78" t="s">
-        <v>277</v>
+        <v>786</v>
       </c>
       <c r="N78" t="s">
         <v>94</v>
@@ -21744,22 +21942,22 @@
         <v>99</v>
       </c>
       <c r="U78" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="V78" t="s">
-        <v>235</v>
+        <v>101</v>
       </c>
       <c r="W78" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="X78" t="s">
         <v>101</v>
       </c>
       <c r="Y78" t="s">
-        <v>368</v>
+        <v>101</v>
       </c>
       <c r="Z78" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="AA78" t="s">
         <v>104</v>
@@ -21768,13 +21966,13 @@
         <v>145</v>
       </c>
       <c r="AC78" t="s">
-        <v>444</v>
+        <v>290</v>
       </c>
       <c r="AD78" t="s">
         <v>84</v>
       </c>
       <c r="AF78" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="AG78" t="s">
         <v>100</v>
@@ -21828,13 +22026,13 @@
         <v>99</v>
       </c>
       <c r="AX78" s="1">
-        <v>44987</v>
+        <v>44982</v>
       </c>
       <c r="AY78" s="1">
-        <v>44987</v>
+        <v>44982</v>
       </c>
       <c r="AZ78" t="s">
-        <v>179</v>
+        <v>107</v>
       </c>
       <c r="BA78" t="s">
         <v>100</v>
@@ -21852,10 +22050,10 @@
         <v>147</v>
       </c>
       <c r="BF78" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="BG78" s="1">
-        <v>41506</v>
+        <v>31601</v>
       </c>
       <c r="BH78" t="s">
         <v>101</v>
@@ -21867,19 +22065,19 @@
         <v>101</v>
       </c>
       <c r="BL78" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM78" t="s">
-        <v>512</v>
+        <v>789</v>
       </c>
       <c r="BN78" t="s">
-        <v>513</v>
+        <v>353</v>
       </c>
       <c r="BO78" s="1">
-        <v>44998</v>
+        <v>44987</v>
       </c>
       <c r="BP78" t="s">
-        <v>514</v>
+        <v>294</v>
       </c>
       <c r="BQ78" t="s">
         <v>101</v>
@@ -21891,13 +22089,13 @@
         <v>101</v>
       </c>
       <c r="BT78" t="s">
-        <v>116</v>
+        <v>271</v>
       </c>
       <c r="BU78" t="s">
         <v>117</v>
       </c>
       <c r="BV78" t="s">
-        <v>515</v>
+        <v>354</v>
       </c>
       <c r="BW78" t="s">
         <v>96</v>
@@ -21924,7 +22122,7 @@
         <v>119</v>
       </c>
       <c r="CE78">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79" spans="1:83" x14ac:dyDescent="0.2">
@@ -21932,52 +22130,52 @@
         <v>83</v>
       </c>
       <c r="B79" s="1">
-        <v>45029</v>
+        <v>44984</v>
       </c>
       <c r="C79" t="s">
-        <v>277</v>
+        <v>120</v>
       </c>
       <c r="D79" t="s">
         <v>85</v>
       </c>
       <c r="E79" t="s">
-        <v>258</v>
+        <v>86</v>
       </c>
       <c r="F79" t="s">
-        <v>259</v>
+        <v>87</v>
       </c>
       <c r="G79" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="H79" t="s">
-        <v>798</v>
+        <v>652</v>
       </c>
       <c r="I79" t="s">
-        <v>156</v>
+        <v>791</v>
       </c>
       <c r="J79" t="s">
-        <v>656</v>
+        <v>630</v>
       </c>
       <c r="K79" t="s">
-        <v>91</v>
+        <v>218</v>
       </c>
       <c r="L79" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="M79" t="s">
-        <v>93</v>
+        <v>277</v>
       </c>
       <c r="N79" t="s">
         <v>94</v>
       </c>
       <c r="O79" t="s">
-        <v>95</v>
+        <v>221</v>
       </c>
       <c r="P79" t="s">
-        <v>96</v>
+        <v>222</v>
       </c>
       <c r="Q79" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="R79" t="s">
         <v>95</v>
@@ -21995,7 +22193,7 @@
         <v>101</v>
       </c>
       <c r="W79" t="s">
-        <v>235</v>
+        <v>730</v>
       </c>
       <c r="X79" t="s">
         <v>101</v>
@@ -22004,22 +22202,22 @@
         <v>101</v>
       </c>
       <c r="Z79" t="s">
-        <v>719</v>
+        <v>793</v>
       </c>
       <c r="AA79" t="s">
-        <v>266</v>
+        <v>104</v>
       </c>
       <c r="AB79" t="s">
         <v>105</v>
       </c>
       <c r="AC79" t="s">
-        <v>251</v>
+        <v>129</v>
       </c>
       <c r="AD79" t="s">
         <v>84</v>
       </c>
       <c r="AF79" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="AG79" t="s">
         <v>100</v>
@@ -22034,7 +22232,7 @@
         <v>100</v>
       </c>
       <c r="AK79" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL79" t="s">
         <v>101</v>
@@ -22046,7 +22244,7 @@
         <v>100</v>
       </c>
       <c r="AO79" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AP79" t="s">
         <v>100</v>
@@ -22061,7 +22259,7 @@
         <v>94</v>
       </c>
       <c r="AT79" t="s">
-        <v>179</v>
+        <v>94</v>
       </c>
       <c r="AU79" t="s">
         <v>95</v>
@@ -22073,13 +22271,13 @@
         <v>99</v>
       </c>
       <c r="AX79" s="1">
-        <v>44988</v>
+        <v>44984</v>
       </c>
       <c r="AY79" s="1">
-        <v>44988</v>
+        <v>44981</v>
       </c>
       <c r="AZ79" t="s">
-        <v>179</v>
+        <v>107</v>
       </c>
       <c r="BA79" t="s">
         <v>100</v>
@@ -22097,10 +22295,10 @@
         <v>147</v>
       </c>
       <c r="BF79" t="s">
-        <v>720</v>
+        <v>794</v>
       </c>
       <c r="BG79" s="1">
-        <v>40519</v>
+        <v>41687</v>
       </c>
       <c r="BH79" t="s">
         <v>101</v>
@@ -22112,19 +22310,19 @@
         <v>101</v>
       </c>
       <c r="BL79" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM79" t="s">
-        <v>268</v>
+        <v>795</v>
       </c>
       <c r="BN79" t="s">
-        <v>269</v>
+        <v>114</v>
       </c>
       <c r="BO79" s="1">
-        <v>45029</v>
+        <v>44985</v>
       </c>
       <c r="BP79" t="s">
-        <v>270</v>
+        <v>115</v>
       </c>
       <c r="BQ79" t="s">
         <v>101</v>
@@ -22136,13 +22334,13 @@
         <v>101</v>
       </c>
       <c r="BT79" t="s">
-        <v>271</v>
+        <v>685</v>
       </c>
       <c r="BU79" t="s">
         <v>117</v>
       </c>
       <c r="BV79" t="s">
-        <v>272</v>
+        <v>112</v>
       </c>
       <c r="BW79" t="s">
         <v>96</v>
@@ -22169,7 +22367,7 @@
         <v>119</v>
       </c>
       <c r="CE79">
-        <v>71</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" spans="1:83" x14ac:dyDescent="0.2">
@@ -22177,40 +22375,40 @@
         <v>83</v>
       </c>
       <c r="B80" s="1">
-        <v>44990</v>
+        <v>44979</v>
       </c>
       <c r="C80" t="s">
-        <v>277</v>
+        <v>120</v>
       </c>
       <c r="D80" t="s">
         <v>85</v>
       </c>
       <c r="E80" t="s">
-        <v>281</v>
+        <v>796</v>
       </c>
       <c r="F80" t="s">
-        <v>180</v>
+        <v>87</v>
       </c>
       <c r="G80" t="s">
-        <v>88</v>
+        <v>797</v>
       </c>
       <c r="H80" t="s">
-        <v>355</v>
+        <v>101</v>
       </c>
       <c r="I80" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="J80" t="s">
-        <v>413</v>
+        <v>448</v>
       </c>
       <c r="K80" t="s">
-        <v>91</v>
+        <v>340</v>
       </c>
       <c r="L80" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="M80" t="s">
-        <v>380</v>
+        <v>107</v>
       </c>
       <c r="N80" t="s">
         <v>94</v>
@@ -22231,25 +22429,25 @@
         <v>98</v>
       </c>
       <c r="T80" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="U80" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="V80" t="s">
-        <v>101</v>
+        <v>800</v>
       </c>
       <c r="W80" t="s">
-        <v>802</v>
+        <v>101</v>
       </c>
       <c r="X80" t="s">
         <v>101</v>
       </c>
       <c r="Y80" t="s">
-        <v>101</v>
+        <v>368</v>
       </c>
       <c r="Z80" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="AA80" t="s">
         <v>104</v>
@@ -22264,7 +22462,7 @@
         <v>84</v>
       </c>
       <c r="AF80" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="AG80" t="s">
         <v>100</v>
@@ -22318,10 +22516,10 @@
         <v>99</v>
       </c>
       <c r="AX80" s="1">
-        <v>44990</v>
+        <v>44979</v>
       </c>
       <c r="AY80" s="1">
-        <v>44988</v>
+        <v>44978</v>
       </c>
       <c r="AZ80" t="s">
         <v>107</v>
@@ -22342,35 +22540,35 @@
         <v>147</v>
       </c>
       <c r="BF80" t="s">
+        <v>802</v>
+      </c>
+      <c r="BG80" s="1">
+        <v>43412</v>
+      </c>
+      <c r="BH80" t="s">
+        <v>101</v>
+      </c>
+      <c r="BI80" t="s">
+        <v>101</v>
+      </c>
+      <c r="BJ80" t="s">
+        <v>101</v>
+      </c>
+      <c r="BL80" s="1">
+        <v>45041</v>
+      </c>
+      <c r="BM80" t="s">
+        <v>803</v>
+      </c>
+      <c r="BN80" t="s">
         <v>804</v>
       </c>
-      <c r="BG80" s="1">
-        <v>39591</v>
-      </c>
-      <c r="BH80" t="s">
-        <v>101</v>
-      </c>
-      <c r="BI80" t="s">
-        <v>101</v>
-      </c>
-      <c r="BJ80" t="s">
-        <v>101</v>
-      </c>
-      <c r="BL80" s="1">
-        <v>45034</v>
-      </c>
-      <c r="BM80" t="s">
+      <c r="BO80" s="1">
+        <v>44979</v>
+      </c>
+      <c r="BP80" t="s">
         <v>805</v>
       </c>
-      <c r="BN80" t="s">
-        <v>353</v>
-      </c>
-      <c r="BO80" s="1">
-        <v>44991</v>
-      </c>
-      <c r="BP80" t="s">
-        <v>294</v>
-      </c>
       <c r="BQ80" t="s">
         <v>101</v>
       </c>
@@ -22381,13 +22579,13 @@
         <v>101</v>
       </c>
       <c r="BT80" t="s">
-        <v>271</v>
+        <v>806</v>
       </c>
       <c r="BU80" t="s">
         <v>117</v>
       </c>
       <c r="BV80" t="s">
-        <v>354</v>
+        <v>807</v>
       </c>
       <c r="BW80" t="s">
         <v>96</v>
@@ -22396,7 +22594,7 @@
         <v>118</v>
       </c>
       <c r="BY80" t="s">
-        <v>214</v>
+        <v>119</v>
       </c>
       <c r="BZ80" t="s">
         <v>96</v>
@@ -22414,7 +22612,7 @@
         <v>119</v>
       </c>
       <c r="CE80">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" spans="1:83" x14ac:dyDescent="0.2">
@@ -22422,40 +22620,40 @@
         <v>83</v>
       </c>
       <c r="B81" s="1">
-        <v>44998</v>
+        <v>44981</v>
       </c>
       <c r="C81" t="s">
-        <v>277</v>
+        <v>120</v>
       </c>
       <c r="D81" t="s">
         <v>85</v>
       </c>
       <c r="E81" t="s">
-        <v>503</v>
+        <v>808</v>
       </c>
       <c r="F81" t="s">
-        <v>504</v>
+        <v>771</v>
       </c>
       <c r="G81" t="s">
-        <v>806</v>
+        <v>356</v>
       </c>
       <c r="H81" t="s">
-        <v>101</v>
+        <v>809</v>
       </c>
       <c r="I81" t="s">
-        <v>538</v>
+        <v>123</v>
       </c>
       <c r="J81" t="s">
-        <v>807</v>
+        <v>246</v>
       </c>
       <c r="K81" t="s">
         <v>91</v>
       </c>
       <c r="L81" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="M81" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="N81" t="s">
         <v>94</v>
@@ -22467,7 +22665,7 @@
         <v>96</v>
       </c>
       <c r="Q81" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="R81" t="s">
         <v>95</v>
@@ -22491,19 +22689,19 @@
         <v>101</v>
       </c>
       <c r="Y81" t="s">
-        <v>368</v>
+        <v>811</v>
       </c>
       <c r="Z81" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="AA81" t="s">
         <v>104</v>
       </c>
       <c r="AB81" t="s">
-        <v>145</v>
+        <v>813</v>
       </c>
       <c r="AC81" t="s">
-        <v>444</v>
+        <v>814</v>
       </c>
       <c r="AD81" t="s">
         <v>84</v>
@@ -22524,7 +22722,7 @@
         <v>100</v>
       </c>
       <c r="AK81" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL81" t="s">
         <v>101</v>
@@ -22536,7 +22734,7 @@
         <v>100</v>
       </c>
       <c r="AO81" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AP81" t="s">
         <v>100</v>
@@ -22551,7 +22749,7 @@
         <v>94</v>
       </c>
       <c r="AT81" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AU81" t="s">
         <v>95</v>
@@ -22563,13 +22761,13 @@
         <v>99</v>
       </c>
       <c r="AX81" s="1">
-        <v>44989</v>
+        <v>44979</v>
       </c>
       <c r="AY81" s="1">
-        <v>44989</v>
+        <v>44977</v>
       </c>
       <c r="AZ81" t="s">
-        <v>179</v>
+        <v>107</v>
       </c>
       <c r="BA81" t="s">
         <v>100</v>
@@ -22587,10 +22785,10 @@
         <v>147</v>
       </c>
       <c r="BF81" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="BG81" s="1">
-        <v>41818</v>
+        <v>39245</v>
       </c>
       <c r="BH81" t="s">
         <v>101</v>
@@ -22602,19 +22800,16 @@
         <v>101</v>
       </c>
       <c r="BL81" s="1">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="BM81" t="s">
-        <v>512</v>
+        <v>816</v>
       </c>
       <c r="BN81" t="s">
-        <v>513</v>
+        <v>817</v>
       </c>
       <c r="BO81" s="1">
-        <v>44998</v>
-      </c>
-      <c r="BP81" t="s">
-        <v>514</v>
+        <v>44981</v>
       </c>
       <c r="BQ81" t="s">
         <v>101</v>
@@ -22626,14 +22821,11 @@
         <v>101</v>
       </c>
       <c r="BT81" t="s">
-        <v>116</v>
+        <v>685</v>
       </c>
       <c r="BU81" t="s">
         <v>117</v>
       </c>
-      <c r="BV81" t="s">
-        <v>515</v>
-      </c>
       <c r="BW81" t="s">
         <v>96</v>
       </c>
@@ -22652,13 +22844,2200 @@
       <c r="CB81" t="s">
         <v>119</v>
       </c>
-      <c r="CC81" t="s">
-        <v>118</v>
-      </c>
-      <c r="CD81" t="s">
+      <c r="CE81">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" s="1">
+        <v>44989</v>
+      </c>
+      <c r="C82" t="s">
+        <v>277</v>
+      </c>
+      <c r="D82" t="s">
+        <v>85</v>
+      </c>
+      <c r="E82" t="s">
+        <v>818</v>
+      </c>
+      <c r="F82" t="s">
+        <v>819</v>
+      </c>
+      <c r="G82" t="s">
+        <v>203</v>
+      </c>
+      <c r="H82" t="s">
+        <v>820</v>
+      </c>
+      <c r="I82" t="s">
+        <v>726</v>
+      </c>
+      <c r="J82" t="s">
+        <v>727</v>
+      </c>
+      <c r="K82" t="s">
+        <v>138</v>
+      </c>
+      <c r="L82" t="s">
+        <v>821</v>
+      </c>
+      <c r="M82" t="s">
+        <v>822</v>
+      </c>
+      <c r="N82" t="s">
+        <v>94</v>
+      </c>
+      <c r="O82" t="s">
+        <v>95</v>
+      </c>
+      <c r="P82" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>97</v>
+      </c>
+      <c r="R82" t="s">
+        <v>95</v>
+      </c>
+      <c r="S82" t="s">
+        <v>98</v>
+      </c>
+      <c r="T82" t="s">
+        <v>99</v>
+      </c>
+      <c r="U82" t="s">
+        <v>94</v>
+      </c>
+      <c r="V82" t="s">
+        <v>754</v>
+      </c>
+      <c r="W82" t="s">
+        <v>101</v>
+      </c>
+      <c r="X82" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>730</v>
+      </c>
+      <c r="Z82" t="s">
+        <v>823</v>
+      </c>
+      <c r="AA82" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB82" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC82" t="s">
+        <v>197</v>
+      </c>
+      <c r="AD82" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF82" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG82" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH82" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI82" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ82" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK82" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL82" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM82" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN82" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO82" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP82" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ82" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR82" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS82" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT82" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU82" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV82" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW82" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX82" s="1">
+        <v>44988</v>
+      </c>
+      <c r="AY82" s="1">
+        <v>44987</v>
+      </c>
+      <c r="AZ82" t="s">
+        <v>107</v>
+      </c>
+      <c r="BA82" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB82" t="s">
+        <v>108</v>
+      </c>
+      <c r="BC82" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD82" t="s">
+        <v>108</v>
+      </c>
+      <c r="BE82" t="s">
+        <v>147</v>
+      </c>
+      <c r="BF82" t="s">
+        <v>733</v>
+      </c>
+      <c r="BG82" s="1">
+        <v>14150</v>
+      </c>
+      <c r="BH82" t="s">
+        <v>101</v>
+      </c>
+      <c r="BI82" t="s">
+        <v>101</v>
+      </c>
+      <c r="BJ82" t="s">
+        <v>101</v>
+      </c>
+      <c r="BL82" s="1">
+        <v>45041</v>
+      </c>
+      <c r="BM82" t="s">
+        <v>824</v>
+      </c>
+      <c r="BN82" t="s">
+        <v>825</v>
+      </c>
+      <c r="BO82" s="1">
+        <v>44989</v>
+      </c>
+      <c r="BQ82" t="s">
+        <v>101</v>
+      </c>
+      <c r="BR82" t="s">
+        <v>101</v>
+      </c>
+      <c r="BS82" t="s">
+        <v>101</v>
+      </c>
+      <c r="BT82" t="s">
+        <v>685</v>
+      </c>
+      <c r="BU82" t="s">
+        <v>117</v>
+      </c>
+      <c r="BW82" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX82" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY82" t="s">
         <v>119</v>
       </c>
-      <c r="CE81">
+      <c r="BZ82" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA82" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB82" t="s">
+        <v>119</v>
+      </c>
+      <c r="CE82">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83" s="1">
+        <v>44987</v>
+      </c>
+      <c r="C83" t="s">
+        <v>277</v>
+      </c>
+      <c r="D83" t="s">
+        <v>85</v>
+      </c>
+      <c r="E83" t="s">
+        <v>133</v>
+      </c>
+      <c r="F83" t="s">
+        <v>87</v>
+      </c>
+      <c r="G83" t="s">
+        <v>826</v>
+      </c>
+      <c r="H83" t="s">
+        <v>827</v>
+      </c>
+      <c r="I83" t="s">
+        <v>828</v>
+      </c>
+      <c r="J83" t="s">
+        <v>829</v>
+      </c>
+      <c r="K83" t="s">
+        <v>218</v>
+      </c>
+      <c r="L83" t="s">
+        <v>830</v>
+      </c>
+      <c r="M83" t="s">
+        <v>234</v>
+      </c>
+      <c r="N83" t="s">
+        <v>94</v>
+      </c>
+      <c r="O83" t="s">
+        <v>221</v>
+      </c>
+      <c r="P83" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>97</v>
+      </c>
+      <c r="R83" t="s">
+        <v>95</v>
+      </c>
+      <c r="S83" t="s">
+        <v>98</v>
+      </c>
+      <c r="T83" t="s">
+        <v>99</v>
+      </c>
+      <c r="U83" t="s">
+        <v>94</v>
+      </c>
+      <c r="V83" t="s">
+        <v>141</v>
+      </c>
+      <c r="W83" t="s">
+        <v>101</v>
+      </c>
+      <c r="X83" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>423</v>
+      </c>
+      <c r="Z83" t="s">
+        <v>831</v>
+      </c>
+      <c r="AA83" t="s">
+        <v>832</v>
+      </c>
+      <c r="AB83" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC83" t="s">
+        <v>833</v>
+      </c>
+      <c r="AD83" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF83" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG83" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH83" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI83" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ83" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK83" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL83" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM83" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN83" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO83" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP83" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ83" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR83" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS83" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT83" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU83" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV83" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW83" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX83" s="1">
+        <v>44987</v>
+      </c>
+      <c r="AY83" s="1">
+        <v>44985</v>
+      </c>
+      <c r="AZ83" t="s">
+        <v>107</v>
+      </c>
+      <c r="BA83" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB83" t="s">
+        <v>108</v>
+      </c>
+      <c r="BC83" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD83" t="s">
+        <v>108</v>
+      </c>
+      <c r="BE83" t="s">
+        <v>147</v>
+      </c>
+      <c r="BF83" t="s">
+        <v>834</v>
+      </c>
+      <c r="BG83" s="1">
+        <v>35626</v>
+      </c>
+      <c r="BH83" t="s">
+        <v>101</v>
+      </c>
+      <c r="BI83" t="s">
+        <v>101</v>
+      </c>
+      <c r="BJ83" t="s">
+        <v>101</v>
+      </c>
+      <c r="BL83" s="1">
+        <v>45041</v>
+      </c>
+      <c r="BM83" t="s">
+        <v>625</v>
+      </c>
+      <c r="BN83" t="s">
+        <v>626</v>
+      </c>
+      <c r="BO83" s="1">
+        <v>44988</v>
+      </c>
+      <c r="BP83" t="s">
+        <v>151</v>
+      </c>
+      <c r="BQ83" t="s">
+        <v>101</v>
+      </c>
+      <c r="BR83" t="s">
+        <v>101</v>
+      </c>
+      <c r="BS83" t="s">
+        <v>101</v>
+      </c>
+      <c r="BT83" t="s">
+        <v>685</v>
+      </c>
+      <c r="BU83" t="s">
+        <v>117</v>
+      </c>
+      <c r="BV83" t="s">
+        <v>153</v>
+      </c>
+      <c r="BW83" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX83" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY83" t="s">
+        <v>119</v>
+      </c>
+      <c r="BZ83" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA83" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB83" t="s">
+        <v>119</v>
+      </c>
+      <c r="CC83" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD83" t="s">
+        <v>119</v>
+      </c>
+      <c r="CE83">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="84" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1">
+        <v>44991</v>
+      </c>
+      <c r="C84" t="s">
+        <v>277</v>
+      </c>
+      <c r="D84" t="s">
+        <v>85</v>
+      </c>
+      <c r="E84" t="s">
+        <v>133</v>
+      </c>
+      <c r="F84" t="s">
+        <v>87</v>
+      </c>
+      <c r="G84" t="s">
+        <v>230</v>
+      </c>
+      <c r="H84" t="s">
+        <v>101</v>
+      </c>
+      <c r="I84" t="s">
+        <v>835</v>
+      </c>
+      <c r="J84" t="s">
+        <v>836</v>
+      </c>
+      <c r="K84" t="s">
+        <v>91</v>
+      </c>
+      <c r="L84" t="s">
+        <v>837</v>
+      </c>
+      <c r="M84" t="s">
+        <v>120</v>
+      </c>
+      <c r="N84" t="s">
+        <v>94</v>
+      </c>
+      <c r="O84" t="s">
+        <v>95</v>
+      </c>
+      <c r="P84" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>97</v>
+      </c>
+      <c r="R84" t="s">
+        <v>95</v>
+      </c>
+      <c r="S84" t="s">
+        <v>98</v>
+      </c>
+      <c r="T84" t="s">
+        <v>99</v>
+      </c>
+      <c r="U84" t="s">
+        <v>94</v>
+      </c>
+      <c r="V84" t="s">
+        <v>141</v>
+      </c>
+      <c r="W84" t="s">
+        <v>101</v>
+      </c>
+      <c r="X84" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>423</v>
+      </c>
+      <c r="Z84" t="s">
+        <v>838</v>
+      </c>
+      <c r="AA84" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB84" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC84" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD84" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF84" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG84" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH84" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI84" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ84" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK84" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL84" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM84" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN84" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO84" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP84" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ84" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR84" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS84" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT84" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU84" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV84" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW84" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX84" s="1">
+        <v>44991</v>
+      </c>
+      <c r="AY84" s="1">
+        <v>44987</v>
+      </c>
+      <c r="AZ84" t="s">
+        <v>107</v>
+      </c>
+      <c r="BA84" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB84" t="s">
+        <v>108</v>
+      </c>
+      <c r="BC84" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD84" t="s">
+        <v>108</v>
+      </c>
+      <c r="BE84" t="s">
+        <v>147</v>
+      </c>
+      <c r="BF84" t="s">
+        <v>839</v>
+      </c>
+      <c r="BG84" s="1">
+        <v>41744</v>
+      </c>
+      <c r="BH84" t="s">
+        <v>101</v>
+      </c>
+      <c r="BI84" t="s">
+        <v>101</v>
+      </c>
+      <c r="BJ84" t="s">
+        <v>101</v>
+      </c>
+      <c r="BL84" s="1">
+        <v>45041</v>
+      </c>
+      <c r="BM84" t="s">
+        <v>434</v>
+      </c>
+      <c r="BN84" t="s">
+        <v>435</v>
+      </c>
+      <c r="BO84" s="1">
+        <v>44999</v>
+      </c>
+      <c r="BP84" t="s">
+        <v>151</v>
+      </c>
+      <c r="BQ84" t="s">
+        <v>101</v>
+      </c>
+      <c r="BR84" t="s">
+        <v>101</v>
+      </c>
+      <c r="BS84" t="s">
+        <v>101</v>
+      </c>
+      <c r="BT84" t="s">
+        <v>116</v>
+      </c>
+      <c r="BU84" t="s">
+        <v>117</v>
+      </c>
+      <c r="BV84" t="s">
+        <v>153</v>
+      </c>
+      <c r="BW84" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX84" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY84" t="s">
+        <v>119</v>
+      </c>
+      <c r="BZ84" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA84" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB84" t="s">
+        <v>119</v>
+      </c>
+      <c r="CC84" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD84" t="s">
+        <v>119</v>
+      </c>
+      <c r="CE84">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="85" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85" s="1">
+        <v>45029</v>
+      </c>
+      <c r="C85" t="s">
+        <v>277</v>
+      </c>
+      <c r="D85" t="s">
+        <v>85</v>
+      </c>
+      <c r="E85" t="s">
+        <v>258</v>
+      </c>
+      <c r="F85" t="s">
+        <v>259</v>
+      </c>
+      <c r="G85" t="s">
+        <v>304</v>
+      </c>
+      <c r="H85" t="s">
+        <v>101</v>
+      </c>
+      <c r="I85" t="s">
+        <v>378</v>
+      </c>
+      <c r="J85" t="s">
+        <v>840</v>
+      </c>
+      <c r="K85" t="s">
+        <v>91</v>
+      </c>
+      <c r="L85" t="s">
+        <v>841</v>
+      </c>
+      <c r="M85" t="s">
+        <v>248</v>
+      </c>
+      <c r="N85" t="s">
+        <v>94</v>
+      </c>
+      <c r="O85" t="s">
+        <v>95</v>
+      </c>
+      <c r="P85" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>127</v>
+      </c>
+      <c r="R85" t="s">
+        <v>95</v>
+      </c>
+      <c r="S85" t="s">
+        <v>98</v>
+      </c>
+      <c r="T85" t="s">
+        <v>99</v>
+      </c>
+      <c r="U85" t="s">
+        <v>100</v>
+      </c>
+      <c r="V85" t="s">
+        <v>101</v>
+      </c>
+      <c r="W85" t="s">
+        <v>235</v>
+      </c>
+      <c r="X85" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z85" t="s">
+        <v>842</v>
+      </c>
+      <c r="AA85" t="s">
+        <v>266</v>
+      </c>
+      <c r="AB85" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC85" t="s">
+        <v>343</v>
+      </c>
+      <c r="AD85" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF85" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG85" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH85" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI85" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ85" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK85" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL85" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM85" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN85" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO85" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP85" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ85" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR85" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS85" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT85" t="s">
+        <v>179</v>
+      </c>
+      <c r="AU85" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV85" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW85" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX85" s="1">
+        <v>44988</v>
+      </c>
+      <c r="AY85" s="1">
+        <v>44988</v>
+      </c>
+      <c r="AZ85" t="s">
+        <v>179</v>
+      </c>
+      <c r="BA85" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB85" t="s">
+        <v>108</v>
+      </c>
+      <c r="BC85" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD85" t="s">
+        <v>108</v>
+      </c>
+      <c r="BE85" t="s">
+        <v>147</v>
+      </c>
+      <c r="BF85" t="s">
+        <v>843</v>
+      </c>
+      <c r="BG85" s="1">
+        <v>40688</v>
+      </c>
+      <c r="BH85" t="s">
+        <v>101</v>
+      </c>
+      <c r="BI85" t="s">
+        <v>101</v>
+      </c>
+      <c r="BJ85" t="s">
+        <v>101</v>
+      </c>
+      <c r="BL85" s="1">
+        <v>45041</v>
+      </c>
+      <c r="BM85" t="s">
+        <v>844</v>
+      </c>
+      <c r="BN85" t="s">
+        <v>269</v>
+      </c>
+      <c r="BO85" s="1">
+        <v>45029</v>
+      </c>
+      <c r="BP85" t="s">
+        <v>270</v>
+      </c>
+      <c r="BQ85" t="s">
+        <v>101</v>
+      </c>
+      <c r="BR85" t="s">
+        <v>101</v>
+      </c>
+      <c r="BS85" t="s">
+        <v>101</v>
+      </c>
+      <c r="BT85" t="s">
+        <v>271</v>
+      </c>
+      <c r="BU85" t="s">
+        <v>117</v>
+      </c>
+      <c r="BV85" t="s">
+        <v>272</v>
+      </c>
+      <c r="BW85" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX85" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY85" t="s">
+        <v>119</v>
+      </c>
+      <c r="BZ85" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA85" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB85" t="s">
+        <v>119</v>
+      </c>
+      <c r="CC85" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD85" t="s">
+        <v>119</v>
+      </c>
+      <c r="CE85">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="86" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>83</v>
+      </c>
+      <c r="B86" s="1">
+        <v>45016</v>
+      </c>
+      <c r="C86" t="s">
+        <v>277</v>
+      </c>
+      <c r="D86" t="s">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>258</v>
+      </c>
+      <c r="F86" t="s">
+        <v>259</v>
+      </c>
+      <c r="G86" t="s">
+        <v>845</v>
+      </c>
+      <c r="H86" t="s">
+        <v>101</v>
+      </c>
+      <c r="I86" t="s">
+        <v>846</v>
+      </c>
+      <c r="J86" t="s">
+        <v>636</v>
+      </c>
+      <c r="K86" t="s">
+        <v>91</v>
+      </c>
+      <c r="L86" t="s">
+        <v>847</v>
+      </c>
+      <c r="M86" t="s">
+        <v>277</v>
+      </c>
+      <c r="N86" t="s">
+        <v>94</v>
+      </c>
+      <c r="O86" t="s">
+        <v>95</v>
+      </c>
+      <c r="P86" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>127</v>
+      </c>
+      <c r="R86" t="s">
+        <v>95</v>
+      </c>
+      <c r="S86" t="s">
+        <v>98</v>
+      </c>
+      <c r="T86" t="s">
+        <v>99</v>
+      </c>
+      <c r="U86" t="s">
+        <v>100</v>
+      </c>
+      <c r="V86" t="s">
+        <v>101</v>
+      </c>
+      <c r="W86" t="s">
+        <v>235</v>
+      </c>
+      <c r="X86" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z86" t="s">
+        <v>848</v>
+      </c>
+      <c r="AA86" t="s">
+        <v>266</v>
+      </c>
+      <c r="AB86" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC86" t="s">
+        <v>833</v>
+      </c>
+      <c r="AD86" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF86" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG86" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH86" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI86" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ86" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK86" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL86" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM86" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN86" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO86" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP86" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ86" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR86" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS86" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT86" t="s">
+        <v>179</v>
+      </c>
+      <c r="AU86" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV86" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW86" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX86" s="1">
+        <v>44984</v>
+      </c>
+      <c r="AY86" s="1">
+        <v>44984</v>
+      </c>
+      <c r="AZ86" t="s">
+        <v>179</v>
+      </c>
+      <c r="BA86" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB86" t="s">
+        <v>108</v>
+      </c>
+      <c r="BC86" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD86" t="s">
+        <v>108</v>
+      </c>
+      <c r="BE86" t="s">
+        <v>147</v>
+      </c>
+      <c r="BF86" t="s">
+        <v>849</v>
+      </c>
+      <c r="BG86" s="1">
+        <v>41448</v>
+      </c>
+      <c r="BH86" t="s">
+        <v>101</v>
+      </c>
+      <c r="BI86" t="s">
+        <v>101</v>
+      </c>
+      <c r="BJ86" t="s">
+        <v>101</v>
+      </c>
+      <c r="BL86" s="1">
+        <v>45041</v>
+      </c>
+      <c r="BM86" t="s">
+        <v>268</v>
+      </c>
+      <c r="BN86" t="s">
+        <v>269</v>
+      </c>
+      <c r="BO86" s="1">
+        <v>45016</v>
+      </c>
+      <c r="BP86" t="s">
+        <v>270</v>
+      </c>
+      <c r="BQ86" t="s">
+        <v>101</v>
+      </c>
+      <c r="BR86" t="s">
+        <v>101</v>
+      </c>
+      <c r="BS86" t="s">
+        <v>101</v>
+      </c>
+      <c r="BT86" t="s">
+        <v>116</v>
+      </c>
+      <c r="BU86" t="s">
+        <v>117</v>
+      </c>
+      <c r="BV86" t="s">
+        <v>272</v>
+      </c>
+      <c r="BW86" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX86" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY86" t="s">
+        <v>119</v>
+      </c>
+      <c r="BZ86" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA86" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB86" t="s">
+        <v>119</v>
+      </c>
+      <c r="CC86" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD86" t="s">
+        <v>119</v>
+      </c>
+      <c r="CE86">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="87" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>83</v>
+      </c>
+      <c r="B87" s="1">
+        <v>44998</v>
+      </c>
+      <c r="C87" t="s">
+        <v>277</v>
+      </c>
+      <c r="D87" t="s">
+        <v>85</v>
+      </c>
+      <c r="E87" t="s">
+        <v>503</v>
+      </c>
+      <c r="F87" t="s">
+        <v>504</v>
+      </c>
+      <c r="G87" t="s">
+        <v>850</v>
+      </c>
+      <c r="H87" t="s">
+        <v>101</v>
+      </c>
+      <c r="I87" t="s">
+        <v>456</v>
+      </c>
+      <c r="J87" t="s">
+        <v>851</v>
+      </c>
+      <c r="K87" t="s">
+        <v>91</v>
+      </c>
+      <c r="L87" t="s">
+        <v>852</v>
+      </c>
+      <c r="M87" t="s">
+        <v>277</v>
+      </c>
+      <c r="N87" t="s">
+        <v>94</v>
+      </c>
+      <c r="O87" t="s">
+        <v>95</v>
+      </c>
+      <c r="P87" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>127</v>
+      </c>
+      <c r="R87" t="s">
+        <v>95</v>
+      </c>
+      <c r="S87" t="s">
+        <v>98</v>
+      </c>
+      <c r="T87" t="s">
+        <v>99</v>
+      </c>
+      <c r="U87" t="s">
+        <v>94</v>
+      </c>
+      <c r="V87" t="s">
+        <v>235</v>
+      </c>
+      <c r="W87" t="s">
+        <v>101</v>
+      </c>
+      <c r="X87" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>368</v>
+      </c>
+      <c r="Z87" t="s">
+        <v>853</v>
+      </c>
+      <c r="AA87" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB87" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC87" t="s">
+        <v>444</v>
+      </c>
+      <c r="AD87" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF87" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG87" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH87" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI87" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ87" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK87" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL87" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM87" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN87" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO87" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP87" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ87" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR87" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS87" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT87" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU87" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV87" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW87" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX87" s="1">
+        <v>44987</v>
+      </c>
+      <c r="AY87" s="1">
+        <v>44987</v>
+      </c>
+      <c r="AZ87" t="s">
+        <v>179</v>
+      </c>
+      <c r="BA87" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB87" t="s">
+        <v>108</v>
+      </c>
+      <c r="BC87" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD87" t="s">
+        <v>108</v>
+      </c>
+      <c r="BE87" t="s">
+        <v>147</v>
+      </c>
+      <c r="BF87" t="s">
+        <v>854</v>
+      </c>
+      <c r="BG87" s="1">
+        <v>41506</v>
+      </c>
+      <c r="BH87" t="s">
+        <v>101</v>
+      </c>
+      <c r="BI87" t="s">
+        <v>101</v>
+      </c>
+      <c r="BJ87" t="s">
+        <v>101</v>
+      </c>
+      <c r="BL87" s="1">
+        <v>45041</v>
+      </c>
+      <c r="BM87" t="s">
+        <v>512</v>
+      </c>
+      <c r="BN87" t="s">
+        <v>513</v>
+      </c>
+      <c r="BO87" s="1">
+        <v>44998</v>
+      </c>
+      <c r="BP87" t="s">
+        <v>514</v>
+      </c>
+      <c r="BQ87" t="s">
+        <v>101</v>
+      </c>
+      <c r="BR87" t="s">
+        <v>101</v>
+      </c>
+      <c r="BS87" t="s">
+        <v>101</v>
+      </c>
+      <c r="BT87" t="s">
+        <v>116</v>
+      </c>
+      <c r="BU87" t="s">
+        <v>117</v>
+      </c>
+      <c r="BV87" t="s">
+        <v>515</v>
+      </c>
+      <c r="BW87" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX87" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY87" t="s">
+        <v>119</v>
+      </c>
+      <c r="BZ87" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA87" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB87" t="s">
+        <v>119</v>
+      </c>
+      <c r="CC87" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD87" t="s">
+        <v>119</v>
+      </c>
+      <c r="CE87">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="88" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>83</v>
+      </c>
+      <c r="B88" s="1">
+        <v>45029</v>
+      </c>
+      <c r="C88" t="s">
+        <v>277</v>
+      </c>
+      <c r="D88" t="s">
+        <v>85</v>
+      </c>
+      <c r="E88" t="s">
+        <v>258</v>
+      </c>
+      <c r="F88" t="s">
+        <v>259</v>
+      </c>
+      <c r="G88" t="s">
+        <v>855</v>
+      </c>
+      <c r="H88" t="s">
+        <v>856</v>
+      </c>
+      <c r="I88" t="s">
+        <v>156</v>
+      </c>
+      <c r="J88" t="s">
+        <v>717</v>
+      </c>
+      <c r="K88" t="s">
+        <v>91</v>
+      </c>
+      <c r="L88" t="s">
+        <v>857</v>
+      </c>
+      <c r="M88" t="s">
+        <v>93</v>
+      </c>
+      <c r="N88" t="s">
+        <v>94</v>
+      </c>
+      <c r="O88" t="s">
+        <v>95</v>
+      </c>
+      <c r="P88" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>97</v>
+      </c>
+      <c r="R88" t="s">
+        <v>95</v>
+      </c>
+      <c r="S88" t="s">
+        <v>98</v>
+      </c>
+      <c r="T88" t="s">
+        <v>99</v>
+      </c>
+      <c r="U88" t="s">
+        <v>100</v>
+      </c>
+      <c r="V88" t="s">
+        <v>101</v>
+      </c>
+      <c r="W88" t="s">
+        <v>235</v>
+      </c>
+      <c r="X88" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z88" t="s">
+        <v>778</v>
+      </c>
+      <c r="AA88" t="s">
+        <v>266</v>
+      </c>
+      <c r="AB88" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC88" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD88" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF88" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG88" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH88" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI88" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ88" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK88" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL88" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM88" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN88" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO88" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP88" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ88" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR88" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS88" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT88" t="s">
+        <v>179</v>
+      </c>
+      <c r="AU88" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV88" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW88" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX88" s="1">
+        <v>44988</v>
+      </c>
+      <c r="AY88" s="1">
+        <v>44988</v>
+      </c>
+      <c r="AZ88" t="s">
+        <v>179</v>
+      </c>
+      <c r="BA88" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB88" t="s">
+        <v>108</v>
+      </c>
+      <c r="BC88" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD88" t="s">
+        <v>108</v>
+      </c>
+      <c r="BE88" t="s">
+        <v>147</v>
+      </c>
+      <c r="BF88" t="s">
+        <v>779</v>
+      </c>
+      <c r="BG88" s="1">
+        <v>40519</v>
+      </c>
+      <c r="BH88" t="s">
+        <v>101</v>
+      </c>
+      <c r="BI88" t="s">
+        <v>101</v>
+      </c>
+      <c r="BJ88" t="s">
+        <v>101</v>
+      </c>
+      <c r="BL88" s="1">
+        <v>45041</v>
+      </c>
+      <c r="BM88" t="s">
+        <v>268</v>
+      </c>
+      <c r="BN88" t="s">
+        <v>269</v>
+      </c>
+      <c r="BO88" s="1">
+        <v>45029</v>
+      </c>
+      <c r="BP88" t="s">
+        <v>270</v>
+      </c>
+      <c r="BQ88" t="s">
+        <v>101</v>
+      </c>
+      <c r="BR88" t="s">
+        <v>101</v>
+      </c>
+      <c r="BS88" t="s">
+        <v>101</v>
+      </c>
+      <c r="BT88" t="s">
+        <v>271</v>
+      </c>
+      <c r="BU88" t="s">
+        <v>117</v>
+      </c>
+      <c r="BV88" t="s">
+        <v>272</v>
+      </c>
+      <c r="BW88" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX88" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY88" t="s">
+        <v>119</v>
+      </c>
+      <c r="BZ88" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA88" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB88" t="s">
+        <v>119</v>
+      </c>
+      <c r="CC88" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD88" t="s">
+        <v>119</v>
+      </c>
+      <c r="CE88">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="89" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>83</v>
+      </c>
+      <c r="B89" s="1">
+        <v>44990</v>
+      </c>
+      <c r="C89" t="s">
+        <v>277</v>
+      </c>
+      <c r="D89" t="s">
+        <v>85</v>
+      </c>
+      <c r="E89" t="s">
+        <v>281</v>
+      </c>
+      <c r="F89" t="s">
+        <v>180</v>
+      </c>
+      <c r="G89" t="s">
+        <v>88</v>
+      </c>
+      <c r="H89" t="s">
+        <v>355</v>
+      </c>
+      <c r="I89" t="s">
+        <v>858</v>
+      </c>
+      <c r="J89" t="s">
+        <v>413</v>
+      </c>
+      <c r="K89" t="s">
+        <v>91</v>
+      </c>
+      <c r="L89" t="s">
+        <v>859</v>
+      </c>
+      <c r="M89" t="s">
+        <v>380</v>
+      </c>
+      <c r="N89" t="s">
+        <v>94</v>
+      </c>
+      <c r="O89" t="s">
+        <v>95</v>
+      </c>
+      <c r="P89" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>127</v>
+      </c>
+      <c r="R89" t="s">
+        <v>95</v>
+      </c>
+      <c r="S89" t="s">
+        <v>98</v>
+      </c>
+      <c r="T89" t="s">
+        <v>95</v>
+      </c>
+      <c r="U89" t="s">
+        <v>100</v>
+      </c>
+      <c r="V89" t="s">
+        <v>101</v>
+      </c>
+      <c r="W89" t="s">
+        <v>860</v>
+      </c>
+      <c r="X89" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z89" t="s">
+        <v>861</v>
+      </c>
+      <c r="AA89" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB89" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC89" t="s">
+        <v>197</v>
+      </c>
+      <c r="AD89" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF89" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG89" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH89" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI89" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ89" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK89" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL89" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM89" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN89" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO89" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP89" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ89" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR89" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS89" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT89" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU89" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV89" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW89" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX89" s="1">
+        <v>44990</v>
+      </c>
+      <c r="AY89" s="1">
+        <v>44988</v>
+      </c>
+      <c r="AZ89" t="s">
+        <v>107</v>
+      </c>
+      <c r="BA89" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB89" t="s">
+        <v>108</v>
+      </c>
+      <c r="BC89" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD89" t="s">
+        <v>108</v>
+      </c>
+      <c r="BE89" t="s">
+        <v>147</v>
+      </c>
+      <c r="BF89" t="s">
+        <v>862</v>
+      </c>
+      <c r="BG89" s="1">
+        <v>39591</v>
+      </c>
+      <c r="BH89" t="s">
+        <v>101</v>
+      </c>
+      <c r="BI89" t="s">
+        <v>101</v>
+      </c>
+      <c r="BJ89" t="s">
+        <v>101</v>
+      </c>
+      <c r="BL89" s="1">
+        <v>45041</v>
+      </c>
+      <c r="BM89" t="s">
+        <v>863</v>
+      </c>
+      <c r="BN89" t="s">
+        <v>353</v>
+      </c>
+      <c r="BO89" s="1">
+        <v>44991</v>
+      </c>
+      <c r="BP89" t="s">
+        <v>294</v>
+      </c>
+      <c r="BQ89" t="s">
+        <v>101</v>
+      </c>
+      <c r="BR89" t="s">
+        <v>101</v>
+      </c>
+      <c r="BS89" t="s">
+        <v>101</v>
+      </c>
+      <c r="BT89" t="s">
+        <v>271</v>
+      </c>
+      <c r="BU89" t="s">
+        <v>117</v>
+      </c>
+      <c r="BV89" t="s">
+        <v>354</v>
+      </c>
+      <c r="BW89" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX89" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY89" t="s">
+        <v>214</v>
+      </c>
+      <c r="BZ89" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA89" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB89" t="s">
+        <v>119</v>
+      </c>
+      <c r="CC89" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD89" t="s">
+        <v>119</v>
+      </c>
+      <c r="CE89">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="90" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>83</v>
+      </c>
+      <c r="B90" s="1">
+        <v>44998</v>
+      </c>
+      <c r="C90" t="s">
+        <v>277</v>
+      </c>
+      <c r="D90" t="s">
+        <v>85</v>
+      </c>
+      <c r="E90" t="s">
+        <v>503</v>
+      </c>
+      <c r="F90" t="s">
+        <v>504</v>
+      </c>
+      <c r="G90" t="s">
+        <v>864</v>
+      </c>
+      <c r="H90" t="s">
+        <v>101</v>
+      </c>
+      <c r="I90" t="s">
+        <v>538</v>
+      </c>
+      <c r="J90" t="s">
+        <v>865</v>
+      </c>
+      <c r="K90" t="s">
+        <v>91</v>
+      </c>
+      <c r="L90" t="s">
+        <v>866</v>
+      </c>
+      <c r="M90" t="s">
+        <v>120</v>
+      </c>
+      <c r="N90" t="s">
+        <v>94</v>
+      </c>
+      <c r="O90" t="s">
+        <v>95</v>
+      </c>
+      <c r="P90" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>97</v>
+      </c>
+      <c r="R90" t="s">
+        <v>95</v>
+      </c>
+      <c r="S90" t="s">
+        <v>98</v>
+      </c>
+      <c r="T90" t="s">
+        <v>99</v>
+      </c>
+      <c r="U90" t="s">
+        <v>94</v>
+      </c>
+      <c r="V90" t="s">
+        <v>235</v>
+      </c>
+      <c r="W90" t="s">
+        <v>101</v>
+      </c>
+      <c r="X90" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>368</v>
+      </c>
+      <c r="Z90" t="s">
+        <v>867</v>
+      </c>
+      <c r="AA90" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB90" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC90" t="s">
+        <v>444</v>
+      </c>
+      <c r="AD90" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF90" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG90" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH90" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI90" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ90" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK90" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL90" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM90" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN90" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO90" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP90" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ90" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR90" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS90" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT90" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU90" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV90" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW90" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX90" s="1">
+        <v>44989</v>
+      </c>
+      <c r="AY90" s="1">
+        <v>44989</v>
+      </c>
+      <c r="AZ90" t="s">
+        <v>179</v>
+      </c>
+      <c r="BA90" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB90" t="s">
+        <v>108</v>
+      </c>
+      <c r="BC90" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD90" t="s">
+        <v>108</v>
+      </c>
+      <c r="BE90" t="s">
+        <v>147</v>
+      </c>
+      <c r="BF90" t="s">
+        <v>868</v>
+      </c>
+      <c r="BG90" s="1">
+        <v>41818</v>
+      </c>
+      <c r="BH90" t="s">
+        <v>101</v>
+      </c>
+      <c r="BI90" t="s">
+        <v>101</v>
+      </c>
+      <c r="BJ90" t="s">
+        <v>101</v>
+      </c>
+      <c r="BL90" s="1">
+        <v>45041</v>
+      </c>
+      <c r="BM90" t="s">
+        <v>512</v>
+      </c>
+      <c r="BN90" t="s">
+        <v>513</v>
+      </c>
+      <c r="BO90" s="1">
+        <v>44998</v>
+      </c>
+      <c r="BP90" t="s">
+        <v>514</v>
+      </c>
+      <c r="BQ90" t="s">
+        <v>101</v>
+      </c>
+      <c r="BR90" t="s">
+        <v>101</v>
+      </c>
+      <c r="BS90" t="s">
+        <v>101</v>
+      </c>
+      <c r="BT90" t="s">
+        <v>116</v>
+      </c>
+      <c r="BU90" t="s">
+        <v>117</v>
+      </c>
+      <c r="BV90" t="s">
+        <v>515</v>
+      </c>
+      <c r="BW90" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX90" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY90" t="s">
+        <v>119</v>
+      </c>
+      <c r="BZ90" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA90" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB90" t="s">
+        <v>119</v>
+      </c>
+      <c r="CC90" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD90" t="s">
+        <v>119</v>
+      </c>
+      <c r="CE90">
         <v>37</v>
       </c>
     </row>

--- a/Boletin_ Epi_Pereira/Datos/evento 831 datos basicos.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/evento 831 datos basicos.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cont_vtrujillov\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{02A0892B-0C11-466A-B010-1F3C45ED0361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="7485" windowHeight="4140"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="evento 831 datos basicos" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6655" uniqueCount="869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6951" uniqueCount="888">
   <si>
     <t>cod_eve</t>
   </si>
@@ -1749,6 +1750,21 @@
     <t>3217721102</t>
   </si>
   <si>
+    <t>PABLO</t>
+  </si>
+  <si>
+    <t>1088300484</t>
+  </si>
+  <si>
+    <t>AVENIDA DEL RIO # 25-23</t>
+  </si>
+  <si>
+    <t>3104406436</t>
+  </si>
+  <si>
+    <t>SECETERIA DE SALUD PUBLICA Y SEGURIDAD SOCIAL DE PEREIRS</t>
+  </si>
+  <si>
     <t>VALENTINA</t>
   </si>
   <si>
@@ -1900,6 +1916,48 @@
   </si>
   <si>
     <t>3146408557</t>
+  </si>
+  <si>
+    <t>MICHAEL</t>
+  </si>
+  <si>
+    <t>HENAO</t>
+  </si>
+  <si>
+    <t>HEREDIA</t>
+  </si>
+  <si>
+    <t>1004754904</t>
+  </si>
+  <si>
+    <t>ROCIO ALTO</t>
+  </si>
+  <si>
+    <t>CASA 123 ROCIO ALTO</t>
+  </si>
+  <si>
+    <t>3244933022</t>
+  </si>
+  <si>
+    <t>PATRICIA TIGREROS PARRA</t>
+  </si>
+  <si>
+    <t>SIVIGILA - 2018 -18.6.0$0$0.0</t>
+  </si>
+  <si>
+    <t>MARILYN</t>
+  </si>
+  <si>
+    <t>1085723171</t>
+  </si>
+  <si>
+    <t>AVNEIDA DEL RIO # 25-23</t>
+  </si>
+  <si>
+    <t>ALEXIS</t>
+  </si>
+  <si>
+    <t>1089615016</t>
   </si>
   <si>
     <t>HERNAN</t>
@@ -2631,7 +2689,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -2763,7 +2821,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -2775,7 +2833,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -2792,9 +2850,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -2822,14 +2880,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -2857,6 +2932,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3009,7 +3101,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CE90"/>
+  <dimension ref="A1:CE94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3454,7 +3546,7 @@
         <v>112</v>
       </c>
       <c r="BL2" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM2" t="s">
         <v>113</v>
@@ -3702,7 +3794,7 @@
         <v>112</v>
       </c>
       <c r="BL3" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM3" t="s">
         <v>132</v>
@@ -3947,7 +4039,7 @@
         <v>101</v>
       </c>
       <c r="BL4" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM4" t="s">
         <v>149</v>
@@ -4192,7 +4284,7 @@
         <v>101</v>
       </c>
       <c r="BL5" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM5" t="s">
         <v>163</v>
@@ -4437,7 +4529,7 @@
         <v>101</v>
       </c>
       <c r="BL6" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM6" t="s">
         <v>168</v>
@@ -4682,7 +4774,7 @@
         <v>101</v>
       </c>
       <c r="BL7" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM7" t="s">
         <v>182</v>
@@ -4927,7 +5019,7 @@
         <v>101</v>
       </c>
       <c r="BL8" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM8" t="s">
         <v>199</v>
@@ -5172,7 +5264,7 @@
         <v>101</v>
       </c>
       <c r="BL9" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM9" t="s">
         <v>149</v>
@@ -5417,7 +5509,7 @@
         <v>101</v>
       </c>
       <c r="BL10" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM10" t="s">
         <v>226</v>
@@ -5662,7 +5754,7 @@
         <v>101</v>
       </c>
       <c r="BL11" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM11" t="s">
         <v>239</v>
@@ -5907,7 +5999,7 @@
         <v>101</v>
       </c>
       <c r="BL12" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM12" t="s">
         <v>253</v>
@@ -6152,7 +6244,7 @@
         <v>101</v>
       </c>
       <c r="BL13" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM13" t="s">
         <v>268</v>
@@ -6397,7 +6489,7 @@
         <v>101</v>
       </c>
       <c r="BL14" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM14" t="s">
         <v>268</v>
@@ -6642,7 +6734,7 @@
         <v>101</v>
       </c>
       <c r="BL15" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM15" t="s">
         <v>292</v>
@@ -6887,7 +6979,7 @@
         <v>101</v>
       </c>
       <c r="BL16" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM16" t="s">
         <v>303</v>
@@ -7132,7 +7224,7 @@
         <v>101</v>
       </c>
       <c r="BL17" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM17" t="s">
         <v>268</v>
@@ -7377,7 +7469,7 @@
         <v>101</v>
       </c>
       <c r="BL18" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM18" t="s">
         <v>321</v>
@@ -7622,7 +7714,7 @@
         <v>101</v>
       </c>
       <c r="BL19" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM19" t="s">
         <v>268</v>
@@ -7867,7 +7959,7 @@
         <v>101</v>
       </c>
       <c r="BL20" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM20" t="s">
         <v>268</v>
@@ -8112,7 +8204,7 @@
         <v>101</v>
       </c>
       <c r="BL21" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM21" t="s">
         <v>268</v>
@@ -8357,7 +8449,7 @@
         <v>101</v>
       </c>
       <c r="BL22" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM22" t="s">
         <v>352</v>
@@ -8602,7 +8694,7 @@
         <v>101</v>
       </c>
       <c r="BL23" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM23" t="s">
         <v>361</v>
@@ -8847,7 +8939,7 @@
         <v>101</v>
       </c>
       <c r="BL24" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM24" t="s">
         <v>371</v>
@@ -9092,7 +9184,7 @@
         <v>101</v>
       </c>
       <c r="BL25" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM25" t="s">
         <v>384</v>
@@ -9337,7 +9429,7 @@
         <v>101</v>
       </c>
       <c r="BL26" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM26" t="s">
         <v>268</v>
@@ -9582,7 +9674,7 @@
         <v>101</v>
       </c>
       <c r="BL27" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM27" t="s">
         <v>268</v>
@@ -9827,7 +9919,7 @@
         <v>101</v>
       </c>
       <c r="BL28" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM28" t="s">
         <v>402</v>
@@ -10072,7 +10164,7 @@
         <v>101</v>
       </c>
       <c r="BL29" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM29" t="s">
         <v>407</v>
@@ -10317,7 +10409,7 @@
         <v>101</v>
       </c>
       <c r="BL30" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM30" t="s">
         <v>268</v>
@@ -10562,7 +10654,7 @@
         <v>101</v>
       </c>
       <c r="BL31" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM31" t="s">
         <v>268</v>
@@ -10807,7 +10899,7 @@
         <v>101</v>
       </c>
       <c r="BL32" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM32" t="s">
         <v>426</v>
@@ -11052,7 +11144,7 @@
         <v>101</v>
       </c>
       <c r="BL33" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM33" t="s">
         <v>434</v>
@@ -11297,7 +11389,7 @@
         <v>101</v>
       </c>
       <c r="BL34" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM34" t="s">
         <v>446</v>
@@ -11542,7 +11634,7 @@
         <v>101</v>
       </c>
       <c r="BL35" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM35" t="s">
         <v>168</v>
@@ -11787,7 +11879,7 @@
         <v>101</v>
       </c>
       <c r="BL36" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM36" t="s">
         <v>462</v>
@@ -12032,7 +12124,7 @@
         <v>101</v>
       </c>
       <c r="BL37" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM37" t="s">
         <v>471</v>
@@ -12277,7 +12369,7 @@
         <v>101</v>
       </c>
       <c r="BL38" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM38" t="s">
         <v>434</v>
@@ -12522,7 +12614,7 @@
         <v>101</v>
       </c>
       <c r="BL39" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM39" t="s">
         <v>487</v>
@@ -12767,7 +12859,7 @@
         <v>101</v>
       </c>
       <c r="BL40" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM40" t="s">
         <v>268</v>
@@ -13012,7 +13104,7 @@
         <v>101</v>
       </c>
       <c r="BL41" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM41" t="s">
         <v>434</v>
@@ -13257,7 +13349,7 @@
         <v>101</v>
       </c>
       <c r="BL42" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM42" t="s">
         <v>512</v>
@@ -13502,7 +13594,7 @@
         <v>101</v>
       </c>
       <c r="BL43" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM43" t="s">
         <v>523</v>
@@ -13747,7 +13839,7 @@
         <v>101</v>
       </c>
       <c r="BL44" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM44" t="s">
         <v>268</v>
@@ -13992,7 +14084,7 @@
         <v>101</v>
       </c>
       <c r="BL45" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM45" t="s">
         <v>535</v>
@@ -14237,7 +14329,7 @@
         <v>101</v>
       </c>
       <c r="BL46" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM46" t="s">
         <v>434</v>
@@ -14482,7 +14574,7 @@
         <v>101</v>
       </c>
       <c r="BL47" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM47" t="s">
         <v>552</v>
@@ -14727,7 +14819,7 @@
         <v>101</v>
       </c>
       <c r="BL48" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM48" t="s">
         <v>559</v>
@@ -14972,7 +15064,7 @@
         <v>101</v>
       </c>
       <c r="BL49" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM49" t="s">
         <v>168</v>
@@ -15217,7 +15309,7 @@
         <v>101</v>
       </c>
       <c r="BL50" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM50" t="s">
         <v>434</v>
@@ -15462,7 +15554,7 @@
         <v>101</v>
       </c>
       <c r="BL51" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM51" t="s">
         <v>434</v>
@@ -15527,7 +15619,7 @@
         <v>83</v>
       </c>
       <c r="B52" s="1">
-        <v>45027</v>
+        <v>45043</v>
       </c>
       <c r="C52" t="s">
         <v>126</v>
@@ -15536,31 +15628,31 @@
         <v>85</v>
       </c>
       <c r="E52" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="F52" t="s">
-        <v>180</v>
+        <v>259</v>
       </c>
       <c r="G52" t="s">
+        <v>260</v>
+      </c>
+      <c r="H52" t="s">
         <v>576</v>
       </c>
-      <c r="H52" t="s">
-        <v>101</v>
-      </c>
       <c r="I52" t="s">
-        <v>577</v>
+        <v>491</v>
       </c>
       <c r="J52" t="s">
-        <v>578</v>
+        <v>491</v>
       </c>
       <c r="K52" t="s">
         <v>91</v>
       </c>
       <c r="L52" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="M52" t="s">
-        <v>248</v>
+        <v>93</v>
       </c>
       <c r="N52" t="s">
         <v>94</v>
@@ -15572,7 +15664,7 @@
         <v>96</v>
       </c>
       <c r="Q52" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="R52" t="s">
         <v>95</v>
@@ -15590,7 +15682,7 @@
         <v>101</v>
       </c>
       <c r="W52" t="s">
-        <v>119</v>
+        <v>235</v>
       </c>
       <c r="X52" t="s">
         <v>101</v>
@@ -15599,22 +15691,22 @@
         <v>101</v>
       </c>
       <c r="Z52" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="AA52" t="s">
         <v>266</v>
       </c>
       <c r="AB52" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="AC52" t="s">
-        <v>290</v>
+        <v>129</v>
       </c>
       <c r="AD52" t="s">
         <v>84</v>
       </c>
       <c r="AF52" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="AG52" t="s">
         <v>100</v>
@@ -15629,7 +15721,7 @@
         <v>100</v>
       </c>
       <c r="AK52" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL52" t="s">
         <v>101</v>
@@ -15641,7 +15733,7 @@
         <v>100</v>
       </c>
       <c r="AO52" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AP52" t="s">
         <v>100</v>
@@ -15656,7 +15748,7 @@
         <v>94</v>
       </c>
       <c r="AT52" t="s">
-        <v>94</v>
+        <v>179</v>
       </c>
       <c r="AU52" t="s">
         <v>95</v>
@@ -15668,13 +15760,13 @@
         <v>99</v>
       </c>
       <c r="AX52" s="1">
-        <v>45027</v>
+        <v>45026</v>
       </c>
       <c r="AY52" s="1">
         <v>45026</v>
       </c>
       <c r="AZ52" t="s">
-        <v>107</v>
+        <v>179</v>
       </c>
       <c r="BA52" t="s">
         <v>100</v>
@@ -15692,10 +15784,10 @@
         <v>147</v>
       </c>
       <c r="BF52" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="BG52" s="1">
-        <v>40972</v>
+        <v>40353</v>
       </c>
       <c r="BH52" t="s">
         <v>101</v>
@@ -15707,19 +15799,19 @@
         <v>101</v>
       </c>
       <c r="BL52" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM52" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="BN52" t="s">
-        <v>583</v>
+        <v>269</v>
       </c>
       <c r="BO52" s="1">
-        <v>45033</v>
+        <v>45043</v>
       </c>
       <c r="BP52" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="BQ52" t="s">
         <v>101</v>
@@ -15731,13 +15823,13 @@
         <v>101</v>
       </c>
       <c r="BT52" t="s">
-        <v>116</v>
+        <v>271</v>
       </c>
       <c r="BU52" t="s">
         <v>117</v>
       </c>
       <c r="BV52" t="s">
-        <v>354</v>
+        <v>272</v>
       </c>
       <c r="BW52" t="s">
         <v>96</v>
@@ -15764,7 +15856,7 @@
         <v>119</v>
       </c>
       <c r="CE52">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:83" x14ac:dyDescent="0.2">
@@ -15772,7 +15864,7 @@
         <v>83</v>
       </c>
       <c r="B53" s="1">
-        <v>45028</v>
+        <v>45027</v>
       </c>
       <c r="C53" t="s">
         <v>126</v>
@@ -15781,31 +15873,31 @@
         <v>85</v>
       </c>
       <c r="E53" t="s">
-        <v>133</v>
+        <v>281</v>
       </c>
       <c r="F53" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="G53" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="H53" t="s">
         <v>101</v>
       </c>
       <c r="I53" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="J53" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="K53" t="s">
         <v>91</v>
       </c>
       <c r="L53" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="M53" t="s">
-        <v>180</v>
+        <v>248</v>
       </c>
       <c r="N53" t="s">
         <v>94</v>
@@ -15829,22 +15921,22 @@
         <v>99</v>
       </c>
       <c r="U53" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="V53" t="s">
         <v>101</v>
       </c>
       <c r="W53" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="X53" t="s">
-        <v>194</v>
+        <v>101</v>
       </c>
       <c r="Y53" t="s">
         <v>101</v>
       </c>
       <c r="Z53" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="AA53" t="s">
         <v>266</v>
@@ -15853,13 +15945,13 @@
         <v>145</v>
       </c>
       <c r="AC53" t="s">
-        <v>146</v>
+        <v>290</v>
       </c>
       <c r="AD53" t="s">
         <v>84</v>
       </c>
       <c r="AF53" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="AG53" t="s">
         <v>100</v>
@@ -15913,10 +16005,10 @@
         <v>99</v>
       </c>
       <c r="AX53" s="1">
-        <v>45028</v>
+        <v>45027</v>
       </c>
       <c r="AY53" s="1">
-        <v>45025</v>
+        <v>45026</v>
       </c>
       <c r="AZ53" t="s">
         <v>107</v>
@@ -15937,34 +16029,34 @@
         <v>147</v>
       </c>
       <c r="BF53" t="s">
+        <v>586</v>
+      </c>
+      <c r="BG53" s="1">
+        <v>40972</v>
+      </c>
+      <c r="BH53" t="s">
+        <v>101</v>
+      </c>
+      <c r="BI53" t="s">
+        <v>101</v>
+      </c>
+      <c r="BJ53" t="s">
+        <v>101</v>
+      </c>
+      <c r="BL53" s="1">
+        <v>45048</v>
+      </c>
+      <c r="BM53" t="s">
+        <v>587</v>
+      </c>
+      <c r="BN53" t="s">
         <v>588</v>
       </c>
-      <c r="BG53" s="1">
-        <v>41219</v>
-      </c>
-      <c r="BH53" t="s">
-        <v>101</v>
-      </c>
-      <c r="BI53" t="s">
-        <v>101</v>
-      </c>
-      <c r="BJ53" t="s">
-        <v>101</v>
-      </c>
-      <c r="BL53" s="1">
-        <v>45041</v>
-      </c>
-      <c r="BM53" t="s">
-        <v>552</v>
-      </c>
-      <c r="BN53" t="s">
-        <v>524</v>
-      </c>
       <c r="BO53" s="1">
-        <v>45034</v>
+        <v>45033</v>
       </c>
       <c r="BP53" t="s">
-        <v>151</v>
+        <v>294</v>
       </c>
       <c r="BQ53" t="s">
         <v>101</v>
@@ -15982,7 +16074,7 @@
         <v>117</v>
       </c>
       <c r="BV53" t="s">
-        <v>153</v>
+        <v>354</v>
       </c>
       <c r="BW53" t="s">
         <v>96</v>
@@ -16009,7 +16101,7 @@
         <v>119</v>
       </c>
       <c r="CE53">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:83" x14ac:dyDescent="0.2">
@@ -16017,7 +16109,7 @@
         <v>83</v>
       </c>
       <c r="B54" s="1">
-        <v>45030</v>
+        <v>45028</v>
       </c>
       <c r="C54" t="s">
         <v>126</v>
@@ -16041,7 +16133,7 @@
         <v>590</v>
       </c>
       <c r="J54" t="s">
-        <v>413</v>
+        <v>590</v>
       </c>
       <c r="K54" t="s">
         <v>91</v>
@@ -16050,7 +16142,7 @@
         <v>591</v>
       </c>
       <c r="M54" t="s">
-        <v>277</v>
+        <v>180</v>
       </c>
       <c r="N54" t="s">
         <v>94</v>
@@ -16062,7 +16154,7 @@
         <v>96</v>
       </c>
       <c r="Q54" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="R54" t="s">
         <v>95</v>
@@ -16071,25 +16163,25 @@
         <v>98</v>
       </c>
       <c r="T54" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="U54" t="s">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="V54" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="W54" t="s">
         <v>101</v>
       </c>
       <c r="X54" t="s">
-        <v>101</v>
+        <v>194</v>
       </c>
       <c r="Y54" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z54" t="s">
         <v>592</v>
-      </c>
-      <c r="Z54" t="s">
-        <v>593</v>
       </c>
       <c r="AA54" t="s">
         <v>266</v>
@@ -16119,7 +16211,7 @@
         <v>100</v>
       </c>
       <c r="AK54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AL54" t="s">
         <v>101</v>
@@ -16131,7 +16223,7 @@
         <v>100</v>
       </c>
       <c r="AO54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AP54" t="s">
         <v>100</v>
@@ -16155,13 +16247,13 @@
         <v>98</v>
       </c>
       <c r="AW54" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="AX54" s="1">
-        <v>45030</v>
+        <v>45028</v>
       </c>
       <c r="AY54" s="1">
-        <v>45027</v>
+        <v>45025</v>
       </c>
       <c r="AZ54" t="s">
         <v>107</v>
@@ -16182,10 +16274,10 @@
         <v>147</v>
       </c>
       <c r="BF54" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="BG54" s="1">
-        <v>41598</v>
+        <v>41219</v>
       </c>
       <c r="BH54" t="s">
         <v>101</v>
@@ -16197,13 +16289,13 @@
         <v>101</v>
       </c>
       <c r="BL54" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM54" t="s">
-        <v>595</v>
+        <v>552</v>
       </c>
       <c r="BN54" t="s">
-        <v>596</v>
+        <v>524</v>
       </c>
       <c r="BO54" s="1">
         <v>45034</v>
@@ -16236,7 +16328,7 @@
         <v>118</v>
       </c>
       <c r="BY54" t="s">
-        <v>214</v>
+        <v>119</v>
       </c>
       <c r="BZ54" t="s">
         <v>96</v>
@@ -16245,7 +16337,7 @@
         <v>118</v>
       </c>
       <c r="CB54" t="s">
-        <v>214</v>
+        <v>119</v>
       </c>
       <c r="CC54" t="s">
         <v>118</v>
@@ -16254,7 +16346,7 @@
         <v>119</v>
       </c>
       <c r="CE54">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:83" x14ac:dyDescent="0.2">
@@ -16262,7 +16354,7 @@
         <v>83</v>
       </c>
       <c r="B55" s="1">
-        <v>45027</v>
+        <v>45030</v>
       </c>
       <c r="C55" t="s">
         <v>126</v>
@@ -16271,31 +16363,31 @@
         <v>85</v>
       </c>
       <c r="E55" t="s">
-        <v>597</v>
+        <v>133</v>
       </c>
       <c r="F55" t="s">
         <v>87</v>
       </c>
       <c r="G55" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="H55" t="s">
         <v>101</v>
       </c>
       <c r="I55" t="s">
-        <v>156</v>
+        <v>595</v>
       </c>
       <c r="J55" t="s">
-        <v>156</v>
+        <v>413</v>
       </c>
       <c r="K55" t="s">
         <v>91</v>
       </c>
       <c r="L55" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="M55" t="s">
-        <v>109</v>
+        <v>277</v>
       </c>
       <c r="N55" t="s">
         <v>94</v>
@@ -16322,7 +16414,7 @@
         <v>94</v>
       </c>
       <c r="V55" t="s">
-        <v>235</v>
+        <v>141</v>
       </c>
       <c r="W55" t="s">
         <v>101</v>
@@ -16331,25 +16423,25 @@
         <v>101</v>
       </c>
       <c r="Y55" t="s">
-        <v>368</v>
+        <v>597</v>
       </c>
       <c r="Z55" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="AA55" t="s">
-        <v>104</v>
+        <v>266</v>
       </c>
       <c r="AB55" t="s">
         <v>145</v>
       </c>
       <c r="AC55" t="s">
-        <v>557</v>
+        <v>146</v>
       </c>
       <c r="AD55" t="s">
         <v>84</v>
       </c>
       <c r="AF55" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="AG55" t="s">
         <v>100</v>
@@ -16403,10 +16495,10 @@
         <v>95</v>
       </c>
       <c r="AX55" s="1">
+        <v>45030</v>
+      </c>
+      <c r="AY55" s="1">
         <v>45027</v>
-      </c>
-      <c r="AY55" s="1">
-        <v>45025</v>
       </c>
       <c r="AZ55" t="s">
         <v>107</v>
@@ -16427,34 +16519,34 @@
         <v>147</v>
       </c>
       <c r="BF55" t="s">
+        <v>599</v>
+      </c>
+      <c r="BG55" s="1">
+        <v>41598</v>
+      </c>
+      <c r="BH55" t="s">
+        <v>101</v>
+      </c>
+      <c r="BI55" t="s">
+        <v>101</v>
+      </c>
+      <c r="BJ55" t="s">
+        <v>101</v>
+      </c>
+      <c r="BL55" s="1">
+        <v>45048</v>
+      </c>
+      <c r="BM55" t="s">
+        <v>600</v>
+      </c>
+      <c r="BN55" t="s">
         <v>601</v>
       </c>
-      <c r="BG55" s="1">
-        <v>42343</v>
-      </c>
-      <c r="BH55" t="s">
-        <v>101</v>
-      </c>
-      <c r="BI55" t="s">
-        <v>101</v>
-      </c>
-      <c r="BJ55" t="s">
-        <v>101</v>
-      </c>
-      <c r="BL55" s="1">
-        <v>45041</v>
-      </c>
-      <c r="BM55" t="s">
-        <v>602</v>
-      </c>
-      <c r="BN55" t="s">
-        <v>603</v>
-      </c>
       <c r="BO55" s="1">
-        <v>45028</v>
+        <v>45034</v>
       </c>
       <c r="BP55" t="s">
-        <v>604</v>
+        <v>151</v>
       </c>
       <c r="BQ55" t="s">
         <v>101</v>
@@ -16466,13 +16558,13 @@
         <v>101</v>
       </c>
       <c r="BT55" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="BU55" t="s">
         <v>117</v>
       </c>
       <c r="BV55" t="s">
-        <v>605</v>
+        <v>153</v>
       </c>
       <c r="BW55" t="s">
         <v>96</v>
@@ -16499,7 +16591,7 @@
         <v>119</v>
       </c>
       <c r="CE55">
-        <v>74</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56" spans="1:83" x14ac:dyDescent="0.2">
@@ -16507,40 +16599,40 @@
         <v>83</v>
       </c>
       <c r="B56" s="1">
-        <v>45036</v>
+        <v>45027</v>
       </c>
       <c r="C56" t="s">
-        <v>606</v>
+        <v>126</v>
       </c>
       <c r="D56" t="s">
         <v>85</v>
       </c>
       <c r="E56" t="s">
-        <v>453</v>
+        <v>602</v>
       </c>
       <c r="F56" t="s">
-        <v>188</v>
+        <v>87</v>
       </c>
       <c r="G56" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="H56" t="s">
         <v>101</v>
       </c>
       <c r="I56" t="s">
-        <v>608</v>
+        <v>156</v>
       </c>
       <c r="J56" t="s">
-        <v>421</v>
+        <v>156</v>
       </c>
       <c r="K56" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="L56" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="M56" t="s">
-        <v>610</v>
+        <v>109</v>
       </c>
       <c r="N56" t="s">
         <v>94</v>
@@ -16552,7 +16644,7 @@
         <v>96</v>
       </c>
       <c r="Q56" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="R56" t="s">
         <v>95</v>
@@ -16561,13 +16653,13 @@
         <v>98</v>
       </c>
       <c r="T56" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="U56" t="s">
         <v>94</v>
       </c>
       <c r="V56" t="s">
-        <v>119</v>
+        <v>235</v>
       </c>
       <c r="W56" t="s">
         <v>101</v>
@@ -16576,19 +16668,19 @@
         <v>101</v>
       </c>
       <c r="Y56" t="s">
-        <v>141</v>
+        <v>368</v>
       </c>
       <c r="Z56" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="AA56" t="s">
-        <v>612</v>
+        <v>104</v>
       </c>
       <c r="AB56" t="s">
         <v>145</v>
       </c>
       <c r="AC56" t="s">
-        <v>197</v>
+        <v>557</v>
       </c>
       <c r="AD56" t="s">
         <v>84</v>
@@ -16609,7 +16701,7 @@
         <v>100</v>
       </c>
       <c r="AK56" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL56" t="s">
         <v>101</v>
@@ -16621,7 +16713,7 @@
         <v>100</v>
       </c>
       <c r="AO56" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AP56" t="s">
         <v>100</v>
@@ -16645,13 +16737,13 @@
         <v>98</v>
       </c>
       <c r="AW56" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="AX56" s="1">
-        <v>45036</v>
+        <v>45027</v>
       </c>
       <c r="AY56" s="1">
-        <v>45034</v>
+        <v>45025</v>
       </c>
       <c r="AZ56" t="s">
         <v>107</v>
@@ -16672,10 +16764,10 @@
         <v>147</v>
       </c>
       <c r="BF56" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="BG56" s="1">
-        <v>34025</v>
+        <v>42343</v>
       </c>
       <c r="BH56" t="s">
         <v>101</v>
@@ -16687,19 +16779,19 @@
         <v>101</v>
       </c>
       <c r="BL56" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM56" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="BN56" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="BO56" s="1">
-        <v>45036</v>
+        <v>45028</v>
       </c>
       <c r="BP56" t="s">
-        <v>464</v>
+        <v>609</v>
       </c>
       <c r="BQ56" t="s">
         <v>101</v>
@@ -16711,13 +16803,13 @@
         <v>101</v>
       </c>
       <c r="BT56" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="BU56" t="s">
         <v>117</v>
       </c>
       <c r="BV56" t="s">
-        <v>465</v>
+        <v>610</v>
       </c>
       <c r="BW56" t="s">
         <v>96</v>
@@ -16726,7 +16818,7 @@
         <v>118</v>
       </c>
       <c r="BY56" t="s">
-        <v>119</v>
+        <v>214</v>
       </c>
       <c r="BZ56" t="s">
         <v>96</v>
@@ -16735,7 +16827,7 @@
         <v>118</v>
       </c>
       <c r="CB56" t="s">
-        <v>119</v>
+        <v>214</v>
       </c>
       <c r="CC56" t="s">
         <v>118</v>
@@ -16744,7 +16836,7 @@
         <v>119</v>
       </c>
       <c r="CE56">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:83" x14ac:dyDescent="0.2">
@@ -16752,40 +16844,40 @@
         <v>83</v>
       </c>
       <c r="B57" s="1">
-        <v>45034</v>
+        <v>45036</v>
       </c>
       <c r="C57" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="D57" t="s">
         <v>85</v>
       </c>
       <c r="E57" t="s">
-        <v>597</v>
+        <v>453</v>
       </c>
       <c r="F57" t="s">
-        <v>87</v>
+        <v>188</v>
       </c>
       <c r="G57" t="s">
-        <v>135</v>
+        <v>612</v>
       </c>
       <c r="H57" t="s">
         <v>101</v>
       </c>
       <c r="I57" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="J57" t="s">
-        <v>617</v>
+        <v>421</v>
       </c>
       <c r="K57" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="L57" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="M57" t="s">
-        <v>93</v>
+        <v>615</v>
       </c>
       <c r="N57" t="s">
         <v>94</v>
@@ -16797,7 +16889,7 @@
         <v>96</v>
       </c>
       <c r="Q57" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="R57" t="s">
         <v>95</v>
@@ -16812,7 +16904,7 @@
         <v>94</v>
       </c>
       <c r="V57" t="s">
-        <v>235</v>
+        <v>119</v>
       </c>
       <c r="W57" t="s">
         <v>101</v>
@@ -16821,25 +16913,25 @@
         <v>101</v>
       </c>
       <c r="Y57" t="s">
-        <v>368</v>
+        <v>141</v>
       </c>
       <c r="Z57" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="AA57" t="s">
-        <v>104</v>
+        <v>617</v>
       </c>
       <c r="AB57" t="s">
         <v>145</v>
       </c>
       <c r="AC57" t="s">
-        <v>444</v>
+        <v>197</v>
       </c>
       <c r="AD57" t="s">
         <v>84</v>
       </c>
       <c r="AF57" t="s">
-        <v>179</v>
+        <v>107</v>
       </c>
       <c r="AG57" t="s">
         <v>100</v>
@@ -16854,7 +16946,7 @@
         <v>100</v>
       </c>
       <c r="AK57" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AL57" t="s">
         <v>101</v>
@@ -16866,7 +16958,7 @@
         <v>100</v>
       </c>
       <c r="AO57" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AP57" t="s">
         <v>100</v>
@@ -16893,10 +16985,10 @@
         <v>99</v>
       </c>
       <c r="AX57" s="1">
+        <v>45036</v>
+      </c>
+      <c r="AY57" s="1">
         <v>45034</v>
-      </c>
-      <c r="AY57" s="1">
-        <v>45033</v>
       </c>
       <c r="AZ57" t="s">
         <v>107</v>
@@ -16917,34 +17009,34 @@
         <v>147</v>
       </c>
       <c r="BF57" t="s">
+        <v>618</v>
+      </c>
+      <c r="BG57" s="1">
+        <v>34025</v>
+      </c>
+      <c r="BH57" t="s">
+        <v>101</v>
+      </c>
+      <c r="BI57" t="s">
+        <v>101</v>
+      </c>
+      <c r="BJ57" t="s">
+        <v>101</v>
+      </c>
+      <c r="BL57" s="1">
+        <v>45048</v>
+      </c>
+      <c r="BM57" t="s">
+        <v>619</v>
+      </c>
+      <c r="BN57" t="s">
         <v>620</v>
       </c>
-      <c r="BG57" s="1">
-        <v>40469</v>
-      </c>
-      <c r="BH57" t="s">
-        <v>101</v>
-      </c>
-      <c r="BI57" t="s">
-        <v>101</v>
-      </c>
-      <c r="BJ57" t="s">
-        <v>101</v>
-      </c>
-      <c r="BL57" s="1">
-        <v>45041</v>
-      </c>
-      <c r="BM57" t="s">
-        <v>621</v>
-      </c>
-      <c r="BN57" t="s">
-        <v>603</v>
-      </c>
       <c r="BO57" s="1">
-        <v>45035</v>
+        <v>45036</v>
       </c>
       <c r="BP57" t="s">
-        <v>604</v>
+        <v>464</v>
       </c>
       <c r="BQ57" t="s">
         <v>101</v>
@@ -16956,13 +17048,13 @@
         <v>101</v>
       </c>
       <c r="BT57" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="BU57" t="s">
         <v>117</v>
       </c>
       <c r="BV57" t="s">
-        <v>605</v>
+        <v>465</v>
       </c>
       <c r="BW57" t="s">
         <v>96</v>
@@ -16989,7 +17081,7 @@
         <v>119</v>
       </c>
       <c r="CE57">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:83" x14ac:dyDescent="0.2">
@@ -16997,40 +17089,40 @@
         <v>83</v>
       </c>
       <c r="B58" s="1">
-        <v>45036</v>
+        <v>45034</v>
       </c>
       <c r="C58" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="D58" t="s">
         <v>85</v>
       </c>
       <c r="E58" t="s">
-        <v>133</v>
+        <v>602</v>
       </c>
       <c r="F58" t="s">
         <v>87</v>
       </c>
       <c r="G58" t="s">
-        <v>260</v>
+        <v>135</v>
       </c>
       <c r="H58" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="I58" t="s">
-        <v>547</v>
+        <v>621</v>
       </c>
       <c r="J58" t="s">
-        <v>548</v>
+        <v>622</v>
       </c>
       <c r="K58" t="s">
         <v>91</v>
       </c>
       <c r="L58" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="M58" t="s">
-        <v>410</v>
+        <v>93</v>
       </c>
       <c r="N58" t="s">
         <v>94</v>
@@ -17057,7 +17149,7 @@
         <v>94</v>
       </c>
       <c r="V58" t="s">
-        <v>141</v>
+        <v>235</v>
       </c>
       <c r="W58" t="s">
         <v>101</v>
@@ -17066,25 +17158,25 @@
         <v>101</v>
       </c>
       <c r="Y58" t="s">
-        <v>141</v>
+        <v>368</v>
       </c>
       <c r="Z58" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AA58" t="s">
-        <v>266</v>
+        <v>104</v>
       </c>
       <c r="AB58" t="s">
         <v>145</v>
       </c>
       <c r="AC58" t="s">
-        <v>146</v>
+        <v>444</v>
       </c>
       <c r="AD58" t="s">
         <v>84</v>
       </c>
       <c r="AF58" t="s">
-        <v>100</v>
+        <v>179</v>
       </c>
       <c r="AG58" t="s">
         <v>100</v>
@@ -17138,10 +17230,10 @@
         <v>99</v>
       </c>
       <c r="AX58" s="1">
-        <v>45036</v>
+        <v>45034</v>
       </c>
       <c r="AY58" s="1">
-        <v>45034</v>
+        <v>45033</v>
       </c>
       <c r="AZ58" t="s">
         <v>107</v>
@@ -17162,10 +17254,10 @@
         <v>147</v>
       </c>
       <c r="BF58" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="BG58" s="1">
-        <v>40004</v>
+        <v>40469</v>
       </c>
       <c r="BH58" t="s">
         <v>101</v>
@@ -17177,19 +17269,19 @@
         <v>101</v>
       </c>
       <c r="BL58" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM58" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="BN58" t="s">
-        <v>626</v>
+        <v>608</v>
       </c>
       <c r="BO58" s="1">
-        <v>45040</v>
+        <v>45035</v>
       </c>
       <c r="BP58" t="s">
-        <v>151</v>
+        <v>609</v>
       </c>
       <c r="BQ58" t="s">
         <v>101</v>
@@ -17201,13 +17293,13 @@
         <v>101</v>
       </c>
       <c r="BT58" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="BU58" t="s">
         <v>117</v>
       </c>
       <c r="BV58" t="s">
-        <v>153</v>
+        <v>610</v>
       </c>
       <c r="BW58" t="s">
         <v>96</v>
@@ -17234,7 +17326,7 @@
         <v>119</v>
       </c>
       <c r="CE58">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:83" x14ac:dyDescent="0.2">
@@ -17242,10 +17334,10 @@
         <v>83</v>
       </c>
       <c r="B59" s="1">
-        <v>44948</v>
+        <v>45036</v>
       </c>
       <c r="C59" t="s">
-        <v>130</v>
+        <v>611</v>
       </c>
       <c r="D59" t="s">
         <v>85</v>
@@ -17257,25 +17349,25 @@
         <v>87</v>
       </c>
       <c r="G59" t="s">
+        <v>260</v>
+      </c>
+      <c r="H59" t="s">
+        <v>134</v>
+      </c>
+      <c r="I59" t="s">
+        <v>547</v>
+      </c>
+      <c r="J59" t="s">
+        <v>548</v>
+      </c>
+      <c r="K59" t="s">
+        <v>91</v>
+      </c>
+      <c r="L59" t="s">
         <v>627</v>
       </c>
-      <c r="H59" t="s">
-        <v>628</v>
-      </c>
-      <c r="I59" t="s">
-        <v>629</v>
-      </c>
-      <c r="J59" t="s">
-        <v>630</v>
-      </c>
-      <c r="K59" t="s">
-        <v>138</v>
-      </c>
-      <c r="L59" t="s">
-        <v>631</v>
-      </c>
       <c r="M59" t="s">
-        <v>474</v>
+        <v>410</v>
       </c>
       <c r="N59" t="s">
         <v>94</v>
@@ -17311,25 +17403,25 @@
         <v>101</v>
       </c>
       <c r="Y59" t="s">
-        <v>368</v>
+        <v>141</v>
       </c>
       <c r="Z59" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="AA59" t="s">
-        <v>104</v>
+        <v>266</v>
       </c>
       <c r="AB59" t="s">
         <v>145</v>
       </c>
       <c r="AC59" t="s">
-        <v>197</v>
+        <v>146</v>
       </c>
       <c r="AD59" t="s">
         <v>84</v>
       </c>
       <c r="AF59" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="AG59" t="s">
         <v>100</v>
@@ -17371,7 +17463,7 @@
         <v>94</v>
       </c>
       <c r="AT59" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AU59" t="s">
         <v>95</v>
@@ -17383,10 +17475,10 @@
         <v>99</v>
       </c>
       <c r="AX59" s="1">
-        <v>44948</v>
+        <v>45036</v>
       </c>
       <c r="AY59" s="1">
-        <v>44945</v>
+        <v>45034</v>
       </c>
       <c r="AZ59" t="s">
         <v>107</v>
@@ -17407,10 +17499,10 @@
         <v>147</v>
       </c>
       <c r="BF59" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="BG59" s="1">
-        <v>36520</v>
+        <v>40004</v>
       </c>
       <c r="BH59" t="s">
         <v>101</v>
@@ -17422,16 +17514,16 @@
         <v>101</v>
       </c>
       <c r="BL59" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM59" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="BN59" t="s">
-        <v>524</v>
+        <v>631</v>
       </c>
       <c r="BO59" s="1">
-        <v>44959</v>
+        <v>45040</v>
       </c>
       <c r="BP59" t="s">
         <v>151</v>
@@ -17446,7 +17538,7 @@
         <v>101</v>
       </c>
       <c r="BT59" t="s">
-        <v>271</v>
+        <v>116</v>
       </c>
       <c r="BU59" t="s">
         <v>117</v>
@@ -17479,7 +17571,7 @@
         <v>119</v>
       </c>
       <c r="CE59">
-        <v>13</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:83" x14ac:dyDescent="0.2">
@@ -17487,40 +17579,40 @@
         <v>83</v>
       </c>
       <c r="B60" s="1">
-        <v>44948</v>
+        <v>45041</v>
       </c>
       <c r="C60" t="s">
-        <v>130</v>
+        <v>391</v>
       </c>
       <c r="D60" t="s">
         <v>85</v>
       </c>
       <c r="E60" t="s">
-        <v>281</v>
+        <v>86</v>
       </c>
       <c r="F60" t="s">
-        <v>180</v>
+        <v>234</v>
       </c>
       <c r="G60" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="H60" t="s">
-        <v>101</v>
+        <v>455</v>
       </c>
       <c r="I60" t="s">
-        <v>437</v>
+        <v>633</v>
       </c>
       <c r="J60" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="K60" t="s">
         <v>138</v>
       </c>
       <c r="L60" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="M60" t="s">
-        <v>610</v>
+        <v>140</v>
       </c>
       <c r="N60" t="s">
         <v>94</v>
@@ -17550,7 +17642,7 @@
         <v>101</v>
       </c>
       <c r="W60" t="s">
-        <v>141</v>
+        <v>636</v>
       </c>
       <c r="X60" t="s">
         <v>101</v>
@@ -17559,22 +17651,22 @@
         <v>101</v>
       </c>
       <c r="Z60" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AA60" t="s">
-        <v>639</v>
+        <v>104</v>
       </c>
       <c r="AB60" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="AC60" t="s">
-        <v>640</v>
+        <v>129</v>
       </c>
       <c r="AD60" t="s">
         <v>84</v>
       </c>
       <c r="AF60" t="s">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="AG60" t="s">
         <v>100</v>
@@ -17622,16 +17714,16 @@
         <v>95</v>
       </c>
       <c r="AV60" t="s">
-        <v>248</v>
+        <v>98</v>
       </c>
       <c r="AW60" t="s">
         <v>99</v>
       </c>
       <c r="AX60" s="1">
-        <v>44948</v>
+        <v>45041</v>
       </c>
       <c r="AY60" s="1">
-        <v>44943</v>
+        <v>45040</v>
       </c>
       <c r="AZ60" t="s">
         <v>107</v>
@@ -17652,10 +17744,10 @@
         <v>147</v>
       </c>
       <c r="BF60" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="BG60" s="1">
-        <v>33834</v>
+        <v>37446</v>
       </c>
       <c r="BH60" t="s">
         <v>101</v>
@@ -17667,19 +17759,19 @@
         <v>101</v>
       </c>
       <c r="BL60" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM60" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="BN60" t="s">
-        <v>643</v>
+        <v>254</v>
       </c>
       <c r="BO60" s="1">
-        <v>44950</v>
+        <v>45044</v>
       </c>
       <c r="BP60" t="s">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="BQ60" t="s">
         <v>101</v>
@@ -17691,13 +17783,13 @@
         <v>101</v>
       </c>
       <c r="BT60" t="s">
-        <v>271</v>
+        <v>640</v>
       </c>
       <c r="BU60" t="s">
         <v>117</v>
       </c>
       <c r="BV60" t="s">
-        <v>354</v>
+        <v>257</v>
       </c>
       <c r="BW60" t="s">
         <v>96</v>
@@ -17712,10 +17804,10 @@
         <v>96</v>
       </c>
       <c r="CA60" t="s">
-        <v>644</v>
+        <v>118</v>
       </c>
       <c r="CB60" t="s">
-        <v>644</v>
+        <v>119</v>
       </c>
       <c r="CC60" t="s">
         <v>118</v>
@@ -17724,7 +17816,7 @@
         <v>119</v>
       </c>
       <c r="CE60">
-        <v>9</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61" spans="1:83" x14ac:dyDescent="0.2">
@@ -17732,40 +17824,40 @@
         <v>83</v>
       </c>
       <c r="B61" s="1">
-        <v>44949</v>
+        <v>45043</v>
       </c>
       <c r="C61" t="s">
-        <v>130</v>
+        <v>391</v>
       </c>
       <c r="D61" t="s">
         <v>85</v>
       </c>
       <c r="E61" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="F61" t="s">
-        <v>180</v>
+        <v>259</v>
       </c>
       <c r="G61" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="H61" t="s">
-        <v>345</v>
+        <v>101</v>
       </c>
       <c r="I61" t="s">
-        <v>438</v>
+        <v>491</v>
       </c>
       <c r="J61" t="s">
-        <v>646</v>
+        <v>491</v>
       </c>
       <c r="K61" t="s">
-        <v>340</v>
+        <v>91</v>
       </c>
       <c r="L61" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="M61" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="N61" t="s">
         <v>94</v>
@@ -17777,7 +17869,7 @@
         <v>96</v>
       </c>
       <c r="Q61" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="R61" t="s">
         <v>95</v>
@@ -17795,7 +17887,7 @@
         <v>101</v>
       </c>
       <c r="W61" t="s">
-        <v>648</v>
+        <v>235</v>
       </c>
       <c r="X61" t="s">
         <v>101</v>
@@ -17804,22 +17896,22 @@
         <v>101</v>
       </c>
       <c r="Z61" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="AA61" t="s">
-        <v>104</v>
+        <v>266</v>
       </c>
       <c r="AB61" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="AC61" t="s">
-        <v>557</v>
+        <v>129</v>
       </c>
       <c r="AD61" t="s">
         <v>84</v>
       </c>
       <c r="AF61" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="AG61" t="s">
         <v>100</v>
@@ -17834,7 +17926,7 @@
         <v>100</v>
       </c>
       <c r="AK61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AL61" t="s">
         <v>101</v>
@@ -17846,7 +17938,7 @@
         <v>100</v>
       </c>
       <c r="AO61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AP61" t="s">
         <v>100</v>
@@ -17861,7 +17953,7 @@
         <v>94</v>
       </c>
       <c r="AT61" t="s">
-        <v>100</v>
+        <v>179</v>
       </c>
       <c r="AU61" t="s">
         <v>95</v>
@@ -17873,13 +17965,13 @@
         <v>99</v>
       </c>
       <c r="AX61" s="1">
-        <v>44949</v>
+        <v>45040</v>
       </c>
       <c r="AY61" s="1">
-        <v>44946</v>
+        <v>45040</v>
       </c>
       <c r="AZ61" t="s">
-        <v>107</v>
+        <v>179</v>
       </c>
       <c r="BA61" t="s">
         <v>100</v>
@@ -17897,10 +17989,10 @@
         <v>147</v>
       </c>
       <c r="BF61" t="s">
-        <v>650</v>
+        <v>579</v>
       </c>
       <c r="BG61" s="1">
-        <v>44322</v>
+        <v>42161</v>
       </c>
       <c r="BH61" t="s">
         <v>101</v>
@@ -17912,19 +18004,19 @@
         <v>101</v>
       </c>
       <c r="BL61" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM61" t="s">
-        <v>559</v>
+        <v>268</v>
       </c>
       <c r="BN61" t="s">
-        <v>560</v>
+        <v>269</v>
       </c>
       <c r="BO61" s="1">
-        <v>44956</v>
+        <v>45043</v>
       </c>
       <c r="BP61" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="BQ61" t="s">
         <v>101</v>
@@ -17942,7 +18034,7 @@
         <v>117</v>
       </c>
       <c r="BV61" t="s">
-        <v>354</v>
+        <v>272</v>
       </c>
       <c r="BW61" t="s">
         <v>96</v>
@@ -17969,7 +18061,7 @@
         <v>119</v>
       </c>
       <c r="CE61">
-        <v>10</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:83" x14ac:dyDescent="0.2">
@@ -17977,40 +18069,40 @@
         <v>83</v>
       </c>
       <c r="B62" s="1">
-        <v>44949</v>
+        <v>45043</v>
       </c>
       <c r="C62" t="s">
-        <v>130</v>
+        <v>391</v>
       </c>
       <c r="D62" t="s">
         <v>85</v>
       </c>
       <c r="E62" t="s">
-        <v>86</v>
+        <v>258</v>
       </c>
       <c r="F62" t="s">
-        <v>87</v>
+        <v>259</v>
       </c>
       <c r="G62" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="H62" t="s">
-        <v>652</v>
+        <v>101</v>
       </c>
       <c r="I62" t="s">
-        <v>653</v>
+        <v>491</v>
       </c>
       <c r="J62" t="s">
-        <v>654</v>
+        <v>491</v>
       </c>
       <c r="K62" t="s">
         <v>91</v>
       </c>
       <c r="L62" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="M62" t="s">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N62" t="s">
         <v>94</v>
@@ -18040,7 +18132,7 @@
         <v>101</v>
       </c>
       <c r="W62" t="s">
-        <v>656</v>
+        <v>235</v>
       </c>
       <c r="X62" t="s">
         <v>101</v>
@@ -18049,10 +18141,10 @@
         <v>101</v>
       </c>
       <c r="Z62" t="s">
-        <v>657</v>
+        <v>578</v>
       </c>
       <c r="AA62" t="s">
-        <v>104</v>
+        <v>266</v>
       </c>
       <c r="AB62" t="s">
         <v>105</v>
@@ -18064,7 +18156,7 @@
         <v>84</v>
       </c>
       <c r="AF62" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AG62" t="s">
         <v>100</v>
@@ -18106,7 +18198,7 @@
         <v>94</v>
       </c>
       <c r="AT62" t="s">
-        <v>94</v>
+        <v>179</v>
       </c>
       <c r="AU62" t="s">
         <v>95</v>
@@ -18118,13 +18210,13 @@
         <v>99</v>
       </c>
       <c r="AX62" s="1">
-        <v>44949</v>
+        <v>45040</v>
       </c>
       <c r="AY62" s="1">
-        <v>44947</v>
+        <v>45040</v>
       </c>
       <c r="AZ62" t="s">
-        <v>107</v>
+        <v>179</v>
       </c>
       <c r="BA62" t="s">
         <v>100</v>
@@ -18142,10 +18234,10 @@
         <v>147</v>
       </c>
       <c r="BF62" t="s">
-        <v>658</v>
+        <v>579</v>
       </c>
       <c r="BG62" s="1">
-        <v>41819</v>
+        <v>41036</v>
       </c>
       <c r="BH62" t="s">
         <v>101</v>
@@ -18157,19 +18249,19 @@
         <v>101</v>
       </c>
       <c r="BL62" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM62" t="s">
-        <v>659</v>
+        <v>268</v>
       </c>
       <c r="BN62" t="s">
-        <v>660</v>
+        <v>269</v>
       </c>
       <c r="BO62" s="1">
-        <v>44950</v>
+        <v>45043</v>
       </c>
       <c r="BP62" t="s">
-        <v>115</v>
+        <v>270</v>
       </c>
       <c r="BQ62" t="s">
         <v>101</v>
@@ -18181,13 +18273,13 @@
         <v>101</v>
       </c>
       <c r="BT62" t="s">
-        <v>169</v>
+        <v>271</v>
       </c>
       <c r="BU62" t="s">
         <v>117</v>
       </c>
       <c r="BV62" t="s">
-        <v>112</v>
+        <v>272</v>
       </c>
       <c r="BW62" t="s">
         <v>96</v>
@@ -18214,7 +18306,7 @@
         <v>119</v>
       </c>
       <c r="CE62">
-        <v>8</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63" spans="1:83" x14ac:dyDescent="0.2">
@@ -18222,40 +18314,40 @@
         <v>83</v>
       </c>
       <c r="B63" s="1">
-        <v>44955</v>
+        <v>44948</v>
       </c>
       <c r="C63" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="D63" t="s">
         <v>85</v>
       </c>
       <c r="E63" t="s">
-        <v>281</v>
+        <v>133</v>
       </c>
       <c r="F63" t="s">
-        <v>180</v>
+        <v>87</v>
       </c>
       <c r="G63" t="s">
-        <v>260</v>
+        <v>646</v>
       </c>
       <c r="H63" t="s">
-        <v>88</v>
+        <v>647</v>
       </c>
       <c r="I63" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
       <c r="J63" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
       <c r="K63" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="L63" t="s">
-        <v>663</v>
+        <v>650</v>
       </c>
       <c r="M63" t="s">
-        <v>410</v>
+        <v>474</v>
       </c>
       <c r="N63" t="s">
         <v>94</v>
@@ -18276,25 +18368,25 @@
         <v>98</v>
       </c>
       <c r="T63" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="U63" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="V63" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="W63" t="s">
-        <v>664</v>
+        <v>101</v>
       </c>
       <c r="X63" t="s">
         <v>101</v>
       </c>
       <c r="Y63" t="s">
-        <v>101</v>
+        <v>368</v>
       </c>
       <c r="Z63" t="s">
-        <v>665</v>
+        <v>651</v>
       </c>
       <c r="AA63" t="s">
         <v>104</v>
@@ -18303,7 +18395,7 @@
         <v>145</v>
       </c>
       <c r="AC63" t="s">
-        <v>146</v>
+        <v>197</v>
       </c>
       <c r="AD63" t="s">
         <v>84</v>
@@ -18351,7 +18443,7 @@
         <v>94</v>
       </c>
       <c r="AT63" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AU63" t="s">
         <v>95</v>
@@ -18360,13 +18452,13 @@
         <v>98</v>
       </c>
       <c r="AW63" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="AX63" s="1">
-        <v>44955</v>
+        <v>44948</v>
       </c>
       <c r="AY63" s="1">
-        <v>44953</v>
+        <v>44945</v>
       </c>
       <c r="AZ63" t="s">
         <v>107</v>
@@ -18387,10 +18479,10 @@
         <v>147</v>
       </c>
       <c r="BF63" t="s">
-        <v>666</v>
+        <v>652</v>
       </c>
       <c r="BG63" s="1">
-        <v>40075</v>
+        <v>36520</v>
       </c>
       <c r="BH63" t="s">
         <v>101</v>
@@ -18402,19 +18494,19 @@
         <v>101</v>
       </c>
       <c r="BL63" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM63" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="BN63" t="s">
-        <v>353</v>
+        <v>524</v>
       </c>
       <c r="BO63" s="1">
-        <v>44957</v>
+        <v>44959</v>
       </c>
       <c r="BP63" t="s">
-        <v>294</v>
+        <v>151</v>
       </c>
       <c r="BQ63" t="s">
         <v>101</v>
@@ -18426,13 +18518,13 @@
         <v>101</v>
       </c>
       <c r="BT63" t="s">
-        <v>169</v>
+        <v>271</v>
       </c>
       <c r="BU63" t="s">
         <v>117</v>
       </c>
       <c r="BV63" t="s">
-        <v>354</v>
+        <v>153</v>
       </c>
       <c r="BW63" t="s">
         <v>96</v>
@@ -18441,7 +18533,7 @@
         <v>118</v>
       </c>
       <c r="BY63" t="s">
-        <v>214</v>
+        <v>119</v>
       </c>
       <c r="BZ63" t="s">
         <v>96</v>
@@ -18450,7 +18542,7 @@
         <v>118</v>
       </c>
       <c r="CB63" t="s">
-        <v>214</v>
+        <v>119</v>
       </c>
       <c r="CC63" t="s">
         <v>118</v>
@@ -18459,7 +18551,7 @@
         <v>119</v>
       </c>
       <c r="CE63">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:83" x14ac:dyDescent="0.2">
@@ -18467,40 +18559,40 @@
         <v>83</v>
       </c>
       <c r="B64" s="1">
-        <v>44966</v>
+        <v>44948</v>
       </c>
       <c r="C64" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
       <c r="D64" t="s">
         <v>85</v>
       </c>
       <c r="E64" t="s">
-        <v>453</v>
+        <v>281</v>
       </c>
       <c r="F64" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="G64" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="H64" t="s">
-        <v>669</v>
+        <v>101</v>
       </c>
       <c r="I64" t="s">
-        <v>231</v>
+        <v>437</v>
       </c>
       <c r="J64" t="s">
-        <v>670</v>
+        <v>655</v>
       </c>
       <c r="K64" t="s">
         <v>138</v>
       </c>
       <c r="L64" t="s">
-        <v>671</v>
+        <v>656</v>
       </c>
       <c r="M64" t="s">
-        <v>672</v>
+        <v>615</v>
       </c>
       <c r="N64" t="s">
         <v>94</v>
@@ -18512,7 +18604,7 @@
         <v>96</v>
       </c>
       <c r="Q64" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="R64" t="s">
         <v>95</v>
@@ -18524,37 +18616,37 @@
         <v>99</v>
       </c>
       <c r="U64" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="V64" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="W64" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="X64" t="s">
         <v>101</v>
       </c>
       <c r="Y64" t="s">
-        <v>673</v>
+        <v>101</v>
       </c>
       <c r="Z64" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="AA64" t="s">
-        <v>675</v>
+        <v>658</v>
       </c>
       <c r="AB64" t="s">
         <v>145</v>
       </c>
       <c r="AC64" t="s">
-        <v>197</v>
+        <v>659</v>
       </c>
       <c r="AD64" t="s">
         <v>84</v>
       </c>
       <c r="AF64" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="AG64" t="s">
         <v>100</v>
@@ -18569,7 +18661,7 @@
         <v>100</v>
       </c>
       <c r="AK64" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AL64" t="s">
         <v>101</v>
@@ -18581,7 +18673,7 @@
         <v>100</v>
       </c>
       <c r="AO64" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AP64" t="s">
         <v>100</v>
@@ -18602,16 +18694,16 @@
         <v>95</v>
       </c>
       <c r="AV64" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="AW64" t="s">
         <v>99</v>
       </c>
       <c r="AX64" s="1">
-        <v>44963</v>
+        <v>44948</v>
       </c>
       <c r="AY64" s="1">
-        <v>44961</v>
+        <v>44943</v>
       </c>
       <c r="AZ64" t="s">
         <v>107</v>
@@ -18632,10 +18724,10 @@
         <v>147</v>
       </c>
       <c r="BF64" t="s">
-        <v>676</v>
+        <v>660</v>
       </c>
       <c r="BG64" s="1">
-        <v>29409</v>
+        <v>33834</v>
       </c>
       <c r="BH64" t="s">
         <v>101</v>
@@ -18647,19 +18739,19 @@
         <v>101</v>
       </c>
       <c r="BL64" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM64" t="s">
-        <v>677</v>
+        <v>661</v>
       </c>
       <c r="BN64" t="s">
-        <v>463</v>
+        <v>662</v>
       </c>
       <c r="BO64" s="1">
-        <v>44966</v>
+        <v>44950</v>
       </c>
       <c r="BP64" t="s">
-        <v>464</v>
+        <v>294</v>
       </c>
       <c r="BQ64" t="s">
         <v>101</v>
@@ -18671,13 +18763,13 @@
         <v>101</v>
       </c>
       <c r="BT64" t="s">
-        <v>169</v>
+        <v>271</v>
       </c>
       <c r="BU64" t="s">
         <v>117</v>
       </c>
       <c r="BV64" t="s">
-        <v>465</v>
+        <v>354</v>
       </c>
       <c r="BW64" t="s">
         <v>96</v>
@@ -18692,10 +18784,10 @@
         <v>96</v>
       </c>
       <c r="CA64" t="s">
-        <v>118</v>
+        <v>663</v>
       </c>
       <c r="CB64" t="s">
-        <v>119</v>
+        <v>663</v>
       </c>
       <c r="CC64" t="s">
         <v>118</v>
@@ -18704,7 +18796,7 @@
         <v>119</v>
       </c>
       <c r="CE64">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:83" x14ac:dyDescent="0.2">
@@ -18712,10 +18804,10 @@
         <v>83</v>
       </c>
       <c r="B65" s="1">
-        <v>44956</v>
+        <v>44949</v>
       </c>
       <c r="C65" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
       <c r="D65" t="s">
         <v>85</v>
@@ -18724,28 +18816,28 @@
         <v>281</v>
       </c>
       <c r="F65" t="s">
-        <v>678</v>
+        <v>180</v>
       </c>
       <c r="G65" t="s">
-        <v>568</v>
+        <v>664</v>
       </c>
       <c r="H65" t="s">
-        <v>101</v>
+        <v>345</v>
       </c>
       <c r="I65" t="s">
-        <v>679</v>
+        <v>438</v>
       </c>
       <c r="J65" t="s">
-        <v>414</v>
+        <v>665</v>
       </c>
       <c r="K65" t="s">
-        <v>138</v>
+        <v>340</v>
       </c>
       <c r="L65" t="s">
-        <v>680</v>
+        <v>666</v>
       </c>
       <c r="M65" t="s">
-        <v>220</v>
+        <v>94</v>
       </c>
       <c r="N65" t="s">
         <v>94</v>
@@ -18757,7 +18849,7 @@
         <v>96</v>
       </c>
       <c r="Q65" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="R65" t="s">
         <v>95</v>
@@ -18766,7 +18858,7 @@
         <v>98</v>
       </c>
       <c r="T65" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="U65" t="s">
         <v>100</v>
@@ -18775,7 +18867,7 @@
         <v>101</v>
       </c>
       <c r="W65" t="s">
-        <v>681</v>
+        <v>667</v>
       </c>
       <c r="X65" t="s">
         <v>101</v>
@@ -18784,7 +18876,7 @@
         <v>101</v>
       </c>
       <c r="Z65" t="s">
-        <v>682</v>
+        <v>668</v>
       </c>
       <c r="AA65" t="s">
         <v>104</v>
@@ -18793,13 +18885,13 @@
         <v>145</v>
       </c>
       <c r="AC65" t="s">
-        <v>290</v>
+        <v>557</v>
       </c>
       <c r="AD65" t="s">
         <v>84</v>
       </c>
       <c r="AF65" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="AG65" t="s">
         <v>100</v>
@@ -18814,7 +18906,7 @@
         <v>100</v>
       </c>
       <c r="AK65" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL65" t="s">
         <v>101</v>
@@ -18826,7 +18918,7 @@
         <v>100</v>
       </c>
       <c r="AO65" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AP65" t="s">
         <v>100</v>
@@ -18850,13 +18942,13 @@
         <v>98</v>
       </c>
       <c r="AW65" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="AX65" s="1">
-        <v>44956</v>
+        <v>44949</v>
       </c>
       <c r="AY65" s="1">
-        <v>44956</v>
+        <v>44946</v>
       </c>
       <c r="AZ65" t="s">
         <v>107</v>
@@ -18877,10 +18969,10 @@
         <v>147</v>
       </c>
       <c r="BF65" t="s">
-        <v>683</v>
+        <v>669</v>
       </c>
       <c r="BG65" s="1">
-        <v>34837</v>
+        <v>44322</v>
       </c>
       <c r="BH65" t="s">
         <v>101</v>
@@ -18892,16 +18984,16 @@
         <v>101</v>
       </c>
       <c r="BL65" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM65" t="s">
-        <v>684</v>
+        <v>559</v>
       </c>
       <c r="BN65" t="s">
-        <v>353</v>
+        <v>560</v>
       </c>
       <c r="BO65" s="1">
-        <v>44967</v>
+        <v>44956</v>
       </c>
       <c r="BP65" t="s">
         <v>294</v>
@@ -18916,13 +19008,13 @@
         <v>101</v>
       </c>
       <c r="BT65" t="s">
-        <v>685</v>
+        <v>271</v>
       </c>
       <c r="BU65" t="s">
         <v>117</v>
       </c>
       <c r="BV65" t="s">
-        <v>686</v>
+        <v>354</v>
       </c>
       <c r="BW65" t="s">
         <v>96</v>
@@ -18931,7 +19023,7 @@
         <v>118</v>
       </c>
       <c r="BY65" t="s">
-        <v>214</v>
+        <v>119</v>
       </c>
       <c r="BZ65" t="s">
         <v>96</v>
@@ -18940,7 +19032,7 @@
         <v>118</v>
       </c>
       <c r="CB65" t="s">
-        <v>214</v>
+        <v>119</v>
       </c>
       <c r="CC65" t="s">
         <v>118</v>
@@ -18949,7 +19041,7 @@
         <v>119</v>
       </c>
       <c r="CE65">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:83" x14ac:dyDescent="0.2">
@@ -18957,40 +19049,40 @@
         <v>83</v>
       </c>
       <c r="B66" s="1">
-        <v>44957</v>
+        <v>44949</v>
       </c>
       <c r="C66" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
       <c r="D66" t="s">
         <v>85</v>
       </c>
       <c r="E66" t="s">
-        <v>281</v>
+        <v>86</v>
       </c>
       <c r="F66" t="s">
-        <v>678</v>
+        <v>87</v>
       </c>
       <c r="G66" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="H66" t="s">
-        <v>203</v>
+        <v>671</v>
       </c>
       <c r="I66" t="s">
-        <v>246</v>
+        <v>672</v>
       </c>
       <c r="J66" t="s">
-        <v>688</v>
+        <v>673</v>
       </c>
       <c r="K66" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="L66" t="s">
-        <v>689</v>
+        <v>674</v>
       </c>
       <c r="M66" t="s">
-        <v>690</v>
+        <v>120</v>
       </c>
       <c r="N66" t="s">
         <v>94</v>
@@ -19002,7 +19094,7 @@
         <v>96</v>
       </c>
       <c r="Q66" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="R66" t="s">
         <v>95</v>
@@ -19020,7 +19112,7 @@
         <v>101</v>
       </c>
       <c r="W66" t="s">
-        <v>691</v>
+        <v>675</v>
       </c>
       <c r="X66" t="s">
         <v>101</v>
@@ -19029,22 +19121,22 @@
         <v>101</v>
       </c>
       <c r="Z66" t="s">
-        <v>692</v>
+        <v>676</v>
       </c>
       <c r="AA66" t="s">
         <v>104</v>
       </c>
       <c r="AB66" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="AC66" t="s">
-        <v>290</v>
+        <v>129</v>
       </c>
       <c r="AD66" t="s">
         <v>84</v>
       </c>
       <c r="AF66" t="s">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="AG66" t="s">
         <v>100</v>
@@ -19059,7 +19151,7 @@
         <v>100</v>
       </c>
       <c r="AK66" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL66" t="s">
         <v>101</v>
@@ -19071,7 +19163,7 @@
         <v>100</v>
       </c>
       <c r="AO66" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AP66" t="s">
         <v>100</v>
@@ -19086,7 +19178,7 @@
         <v>94</v>
       </c>
       <c r="AT66" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AU66" t="s">
         <v>95</v>
@@ -19098,10 +19190,10 @@
         <v>99</v>
       </c>
       <c r="AX66" s="1">
-        <v>44957</v>
+        <v>44949</v>
       </c>
       <c r="AY66" s="1">
-        <v>44955</v>
+        <v>44947</v>
       </c>
       <c r="AZ66" t="s">
         <v>107</v>
@@ -19122,10 +19214,10 @@
         <v>147</v>
       </c>
       <c r="BF66" t="s">
-        <v>693</v>
+        <v>677</v>
       </c>
       <c r="BG66" s="1">
-        <v>33287</v>
+        <v>41819</v>
       </c>
       <c r="BH66" t="s">
         <v>101</v>
@@ -19137,19 +19229,19 @@
         <v>101</v>
       </c>
       <c r="BL66" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM66" t="s">
-        <v>694</v>
+        <v>678</v>
       </c>
       <c r="BN66" t="s">
-        <v>353</v>
+        <v>679</v>
       </c>
       <c r="BO66" s="1">
-        <v>44967</v>
+        <v>44950</v>
       </c>
       <c r="BP66" t="s">
-        <v>294</v>
+        <v>115</v>
       </c>
       <c r="BQ66" t="s">
         <v>101</v>
@@ -19161,13 +19253,13 @@
         <v>101</v>
       </c>
       <c r="BT66" t="s">
-        <v>685</v>
+        <v>169</v>
       </c>
       <c r="BU66" t="s">
         <v>117</v>
       </c>
       <c r="BV66" t="s">
-        <v>686</v>
+        <v>112</v>
       </c>
       <c r="BW66" t="s">
         <v>96</v>
@@ -19194,7 +19286,7 @@
         <v>119</v>
       </c>
       <c r="CE66">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:83" x14ac:dyDescent="0.2">
@@ -19202,40 +19294,40 @@
         <v>83</v>
       </c>
       <c r="B67" s="1">
-        <v>44959</v>
+        <v>44955</v>
       </c>
       <c r="C67" t="s">
-        <v>179</v>
+        <v>107</v>
       </c>
       <c r="D67" t="s">
         <v>85</v>
       </c>
       <c r="E67" t="s">
-        <v>86</v>
+        <v>281</v>
       </c>
       <c r="F67" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G67" t="s">
-        <v>203</v>
+        <v>260</v>
       </c>
       <c r="H67" t="s">
         <v>88</v>
       </c>
       <c r="I67" t="s">
-        <v>539</v>
+        <v>680</v>
       </c>
       <c r="J67" t="s">
-        <v>695</v>
+        <v>681</v>
       </c>
       <c r="K67" t="s">
         <v>91</v>
       </c>
       <c r="L67" t="s">
-        <v>696</v>
+        <v>682</v>
       </c>
       <c r="M67" t="s">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="N67" t="s">
         <v>94</v>
@@ -19247,7 +19339,7 @@
         <v>96</v>
       </c>
       <c r="Q67" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="R67" t="s">
         <v>95</v>
@@ -19256,40 +19348,40 @@
         <v>98</v>
       </c>
       <c r="T67" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="U67" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="V67" t="s">
-        <v>423</v>
+        <v>101</v>
       </c>
       <c r="W67" t="s">
-        <v>101</v>
+        <v>683</v>
       </c>
       <c r="X67" t="s">
         <v>101</v>
       </c>
       <c r="Y67" t="s">
-        <v>368</v>
+        <v>101</v>
       </c>
       <c r="Z67" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
       <c r="AA67" t="s">
         <v>104</v>
       </c>
       <c r="AB67" t="s">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="AC67" t="s">
-        <v>698</v>
+        <v>146</v>
       </c>
       <c r="AD67" t="s">
         <v>84</v>
       </c>
       <c r="AF67" t="s">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="AG67" t="s">
         <v>100</v>
@@ -19304,7 +19396,7 @@
         <v>100</v>
       </c>
       <c r="AK67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL67" t="s">
         <v>101</v>
@@ -19316,7 +19408,7 @@
         <v>100</v>
       </c>
       <c r="AO67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AP67" t="s">
         <v>100</v>
@@ -19340,13 +19432,13 @@
         <v>98</v>
       </c>
       <c r="AW67" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="AX67" s="1">
-        <v>44959</v>
+        <v>44955</v>
       </c>
       <c r="AY67" s="1">
-        <v>44958</v>
+        <v>44953</v>
       </c>
       <c r="AZ67" t="s">
         <v>107</v>
@@ -19367,10 +19459,10 @@
         <v>147</v>
       </c>
       <c r="BF67" t="s">
-        <v>699</v>
+        <v>685</v>
       </c>
       <c r="BG67" s="1">
-        <v>38736</v>
+        <v>40075</v>
       </c>
       <c r="BH67" t="s">
         <v>101</v>
@@ -19382,19 +19474,19 @@
         <v>101</v>
       </c>
       <c r="BL67" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM67" t="s">
-        <v>700</v>
+        <v>686</v>
       </c>
       <c r="BN67" t="s">
-        <v>254</v>
+        <v>353</v>
       </c>
       <c r="BO67" s="1">
-        <v>44963</v>
+        <v>44957</v>
       </c>
       <c r="BP67" t="s">
-        <v>115</v>
+        <v>294</v>
       </c>
       <c r="BQ67" t="s">
         <v>101</v>
@@ -19412,7 +19504,7 @@
         <v>117</v>
       </c>
       <c r="BV67" t="s">
-        <v>489</v>
+        <v>354</v>
       </c>
       <c r="BW67" t="s">
         <v>96</v>
@@ -19421,7 +19513,7 @@
         <v>118</v>
       </c>
       <c r="BY67" t="s">
-        <v>119</v>
+        <v>214</v>
       </c>
       <c r="BZ67" t="s">
         <v>96</v>
@@ -19430,7 +19522,7 @@
         <v>118</v>
       </c>
       <c r="CB67" t="s">
-        <v>119</v>
+        <v>214</v>
       </c>
       <c r="CC67" t="s">
         <v>118</v>
@@ -19439,7 +19531,7 @@
         <v>119</v>
       </c>
       <c r="CE67">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:83" x14ac:dyDescent="0.2">
@@ -19447,40 +19539,40 @@
         <v>83</v>
       </c>
       <c r="B68" s="1">
-        <v>44968</v>
+        <v>44966</v>
       </c>
       <c r="C68" t="s">
-        <v>84</v>
+        <v>179</v>
       </c>
       <c r="D68" t="s">
         <v>85</v>
       </c>
       <c r="E68" t="s">
-        <v>281</v>
+        <v>453</v>
       </c>
       <c r="F68" t="s">
-        <v>678</v>
+        <v>87</v>
       </c>
       <c r="G68" t="s">
-        <v>701</v>
+        <v>687</v>
       </c>
       <c r="H68" t="s">
-        <v>702</v>
+        <v>688</v>
       </c>
       <c r="I68" t="s">
-        <v>124</v>
+        <v>231</v>
       </c>
       <c r="J68" t="s">
-        <v>263</v>
+        <v>689</v>
       </c>
       <c r="K68" t="s">
         <v>138</v>
       </c>
       <c r="L68" t="s">
-        <v>703</v>
+        <v>690</v>
       </c>
       <c r="M68" t="s">
-        <v>234</v>
+        <v>691</v>
       </c>
       <c r="N68" t="s">
         <v>94</v>
@@ -19492,7 +19584,7 @@
         <v>96</v>
       </c>
       <c r="Q68" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="R68" t="s">
         <v>95</v>
@@ -19504,37 +19596,37 @@
         <v>99</v>
       </c>
       <c r="U68" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="V68" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="W68" t="s">
-        <v>423</v>
+        <v>101</v>
       </c>
       <c r="X68" t="s">
         <v>101</v>
       </c>
       <c r="Y68" t="s">
-        <v>101</v>
+        <v>692</v>
       </c>
       <c r="Z68" t="s">
-        <v>704</v>
+        <v>693</v>
       </c>
       <c r="AA68" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="AB68" t="s">
         <v>145</v>
       </c>
       <c r="AC68" t="s">
-        <v>640</v>
+        <v>197</v>
       </c>
       <c r="AD68" t="s">
         <v>84</v>
       </c>
       <c r="AF68" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="AG68" t="s">
         <v>100</v>
@@ -19549,7 +19641,7 @@
         <v>100</v>
       </c>
       <c r="AK68" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL68" t="s">
         <v>101</v>
@@ -19561,7 +19653,7 @@
         <v>100</v>
       </c>
       <c r="AO68" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AP68" t="s">
         <v>100</v>
@@ -19588,10 +19680,10 @@
         <v>99</v>
       </c>
       <c r="AX68" s="1">
-        <v>44968</v>
+        <v>44963</v>
       </c>
       <c r="AY68" s="1">
-        <v>44966</v>
+        <v>44961</v>
       </c>
       <c r="AZ68" t="s">
         <v>107</v>
@@ -19612,10 +19704,10 @@
         <v>147</v>
       </c>
       <c r="BF68" t="s">
-        <v>706</v>
+        <v>695</v>
       </c>
       <c r="BG68" s="1">
-        <v>35799</v>
+        <v>29409</v>
       </c>
       <c r="BH68" t="s">
         <v>101</v>
@@ -19627,19 +19719,19 @@
         <v>101</v>
       </c>
       <c r="BL68" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM68" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
       <c r="BN68" t="s">
-        <v>353</v>
+        <v>463</v>
       </c>
       <c r="BO68" s="1">
-        <v>44971</v>
+        <v>44966</v>
       </c>
       <c r="BP68" t="s">
-        <v>294</v>
+        <v>464</v>
       </c>
       <c r="BQ68" t="s">
         <v>101</v>
@@ -19651,13 +19743,13 @@
         <v>101</v>
       </c>
       <c r="BT68" t="s">
-        <v>685</v>
+        <v>169</v>
       </c>
       <c r="BU68" t="s">
         <v>117</v>
       </c>
       <c r="BV68" t="s">
-        <v>686</v>
+        <v>465</v>
       </c>
       <c r="BW68" t="s">
         <v>96</v>
@@ -19684,7 +19776,7 @@
         <v>119</v>
       </c>
       <c r="CE68">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:83" x14ac:dyDescent="0.2">
@@ -19692,10 +19784,10 @@
         <v>83</v>
       </c>
       <c r="B69" s="1">
-        <v>45027</v>
+        <v>44956</v>
       </c>
       <c r="C69" t="s">
-        <v>84</v>
+        <v>179</v>
       </c>
       <c r="D69" t="s">
         <v>85</v>
@@ -19704,28 +19796,28 @@
         <v>281</v>
       </c>
       <c r="F69" t="s">
-        <v>87</v>
+        <v>697</v>
       </c>
       <c r="G69" t="s">
-        <v>708</v>
+        <v>568</v>
       </c>
       <c r="H69" t="s">
         <v>101</v>
       </c>
       <c r="I69" t="s">
-        <v>366</v>
+        <v>698</v>
       </c>
       <c r="J69" t="s">
-        <v>709</v>
+        <v>414</v>
       </c>
       <c r="K69" t="s">
         <v>138</v>
       </c>
       <c r="L69" t="s">
-        <v>710</v>
+        <v>699</v>
       </c>
       <c r="M69" t="s">
-        <v>431</v>
+        <v>220</v>
       </c>
       <c r="N69" t="s">
         <v>94</v>
@@ -19746,7 +19838,7 @@
         <v>98</v>
       </c>
       <c r="T69" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="U69" t="s">
         <v>100</v>
@@ -19755,7 +19847,7 @@
         <v>101</v>
       </c>
       <c r="W69" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="X69" t="s">
         <v>101</v>
@@ -19764,10 +19856,10 @@
         <v>101</v>
       </c>
       <c r="Z69" t="s">
-        <v>712</v>
+        <v>701</v>
       </c>
       <c r="AA69" t="s">
-        <v>266</v>
+        <v>104</v>
       </c>
       <c r="AB69" t="s">
         <v>145</v>
@@ -19779,7 +19871,7 @@
         <v>84</v>
       </c>
       <c r="AF69" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="AG69" t="s">
         <v>100</v>
@@ -19830,13 +19922,13 @@
         <v>98</v>
       </c>
       <c r="AW69" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="AX69" s="1">
-        <v>44965</v>
+        <v>44956</v>
       </c>
       <c r="AY69" s="1">
-        <v>44964</v>
+        <v>44956</v>
       </c>
       <c r="AZ69" t="s">
         <v>107</v>
@@ -19857,10 +19949,10 @@
         <v>147</v>
       </c>
       <c r="BF69" t="s">
-        <v>713</v>
+        <v>702</v>
       </c>
       <c r="BG69" s="1">
-        <v>37317</v>
+        <v>34837</v>
       </c>
       <c r="BH69" t="s">
         <v>101</v>
@@ -19872,16 +19964,16 @@
         <v>101</v>
       </c>
       <c r="BL69" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM69" t="s">
-        <v>714</v>
+        <v>703</v>
       </c>
       <c r="BN69" t="s">
-        <v>715</v>
+        <v>353</v>
       </c>
       <c r="BO69" s="1">
-        <v>45027</v>
+        <v>44967</v>
       </c>
       <c r="BP69" t="s">
         <v>294</v>
@@ -19896,13 +19988,13 @@
         <v>101</v>
       </c>
       <c r="BT69" t="s">
-        <v>116</v>
+        <v>704</v>
       </c>
       <c r="BU69" t="s">
         <v>117</v>
       </c>
       <c r="BV69" t="s">
-        <v>295</v>
+        <v>705</v>
       </c>
       <c r="BW69" t="s">
         <v>96</v>
@@ -19911,7 +20003,7 @@
         <v>118</v>
       </c>
       <c r="BY69" t="s">
-        <v>119</v>
+        <v>214</v>
       </c>
       <c r="BZ69" t="s">
         <v>96</v>
@@ -19920,7 +20012,7 @@
         <v>118</v>
       </c>
       <c r="CB69" t="s">
-        <v>119</v>
+        <v>214</v>
       </c>
       <c r="CC69" t="s">
         <v>118</v>
@@ -19929,7 +20021,7 @@
         <v>119</v>
       </c>
       <c r="CE69">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:83" x14ac:dyDescent="0.2">
@@ -19937,40 +20029,40 @@
         <v>83</v>
       </c>
       <c r="B70" s="1">
-        <v>44975</v>
+        <v>44957</v>
       </c>
       <c r="C70" t="s">
-        <v>84</v>
+        <v>179</v>
       </c>
       <c r="D70" t="s">
         <v>85</v>
       </c>
       <c r="E70" t="s">
-        <v>170</v>
+        <v>281</v>
       </c>
       <c r="F70" t="s">
-        <v>87</v>
+        <v>697</v>
       </c>
       <c r="G70" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="H70" t="s">
-        <v>101</v>
+        <v>203</v>
       </c>
       <c r="I70" t="s">
-        <v>124</v>
+        <v>246</v>
       </c>
       <c r="J70" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="K70" t="s">
         <v>138</v>
       </c>
       <c r="L70" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="M70" t="s">
-        <v>158</v>
+        <v>709</v>
       </c>
       <c r="N70" t="s">
         <v>94</v>
@@ -19991,40 +20083,40 @@
         <v>98</v>
       </c>
       <c r="T70" t="s">
-        <v>719</v>
+        <v>99</v>
       </c>
       <c r="U70" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="V70" t="s">
         <v>101</v>
       </c>
       <c r="W70" t="s">
-        <v>101</v>
+        <v>710</v>
       </c>
       <c r="X70" t="s">
-        <v>720</v>
+        <v>101</v>
       </c>
       <c r="Y70" t="s">
         <v>101</v>
       </c>
       <c r="Z70" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="AA70" t="s">
         <v>104</v>
       </c>
       <c r="AB70" t="s">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="AC70" t="s">
-        <v>129</v>
+        <v>290</v>
       </c>
       <c r="AD70" t="s">
         <v>84</v>
       </c>
       <c r="AF70" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="AG70" t="s">
         <v>100</v>
@@ -20066,7 +20158,7 @@
         <v>94</v>
       </c>
       <c r="AT70" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AU70" t="s">
         <v>95</v>
@@ -20075,22 +20167,22 @@
         <v>98</v>
       </c>
       <c r="AW70" t="s">
-        <v>719</v>
+        <v>99</v>
       </c>
       <c r="AX70" s="1">
-        <v>44973</v>
+        <v>44957</v>
       </c>
       <c r="AY70" s="1">
-        <v>44966</v>
+        <v>44955</v>
       </c>
       <c r="AZ70" t="s">
         <v>107</v>
       </c>
       <c r="BA70" t="s">
-        <v>94</v>
-      </c>
-      <c r="BB70" s="1">
-        <v>44973</v>
+        <v>100</v>
+      </c>
+      <c r="BB70" t="s">
+        <v>108</v>
       </c>
       <c r="BC70" t="s">
         <v>94</v>
@@ -20102,10 +20194,10 @@
         <v>147</v>
       </c>
       <c r="BF70" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="BG70" s="1">
-        <v>32631</v>
+        <v>33287</v>
       </c>
       <c r="BH70" t="s">
         <v>101</v>
@@ -20117,19 +20209,19 @@
         <v>101</v>
       </c>
       <c r="BL70" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM70" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="BN70" t="s">
-        <v>724</v>
+        <v>353</v>
       </c>
       <c r="BO70" s="1">
-        <v>44977</v>
+        <v>44967</v>
       </c>
       <c r="BP70" t="s">
-        <v>184</v>
+        <v>294</v>
       </c>
       <c r="BQ70" t="s">
         <v>101</v>
@@ -20141,13 +20233,13 @@
         <v>101</v>
       </c>
       <c r="BT70" t="s">
-        <v>685</v>
+        <v>704</v>
       </c>
       <c r="BU70" t="s">
         <v>117</v>
       </c>
       <c r="BV70" t="s">
-        <v>185</v>
+        <v>705</v>
       </c>
       <c r="BW70" t="s">
         <v>96</v>
@@ -20156,7 +20248,7 @@
         <v>118</v>
       </c>
       <c r="BY70" t="s">
-        <v>725</v>
+        <v>119</v>
       </c>
       <c r="BZ70" t="s">
         <v>96</v>
@@ -20165,7 +20257,7 @@
         <v>118</v>
       </c>
       <c r="CB70" t="s">
-        <v>725</v>
+        <v>119</v>
       </c>
       <c r="CC70" t="s">
         <v>118</v>
@@ -20174,7 +20266,7 @@
         <v>119</v>
       </c>
       <c r="CE70">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:83" x14ac:dyDescent="0.2">
@@ -20182,40 +20274,40 @@
         <v>83</v>
       </c>
       <c r="B71" s="1">
-        <v>44970</v>
+        <v>44959</v>
       </c>
       <c r="C71" t="s">
-        <v>84</v>
+        <v>179</v>
       </c>
       <c r="D71" t="s">
         <v>85</v>
       </c>
       <c r="E71" t="s">
-        <v>281</v>
+        <v>86</v>
       </c>
       <c r="F71" t="s">
-        <v>87</v>
+        <v>188</v>
       </c>
       <c r="G71" t="s">
-        <v>687</v>
+        <v>203</v>
       </c>
       <c r="H71" t="s">
-        <v>203</v>
+        <v>88</v>
       </c>
       <c r="I71" t="s">
-        <v>726</v>
+        <v>539</v>
       </c>
       <c r="J71" t="s">
-        <v>727</v>
+        <v>714</v>
       </c>
       <c r="K71" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="L71" t="s">
-        <v>728</v>
+        <v>715</v>
       </c>
       <c r="M71" t="s">
-        <v>729</v>
+        <v>391</v>
       </c>
       <c r="N71" t="s">
         <v>94</v>
@@ -20239,37 +20331,37 @@
         <v>99</v>
       </c>
       <c r="U71" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="V71" t="s">
-        <v>101</v>
+        <v>423</v>
       </c>
       <c r="W71" t="s">
-        <v>730</v>
+        <v>101</v>
       </c>
       <c r="X71" t="s">
         <v>101</v>
       </c>
       <c r="Y71" t="s">
-        <v>101</v>
+        <v>368</v>
       </c>
       <c r="Z71" t="s">
-        <v>731</v>
+        <v>716</v>
       </c>
       <c r="AA71" t="s">
-        <v>732</v>
+        <v>104</v>
       </c>
       <c r="AB71" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="AC71" t="s">
-        <v>290</v>
+        <v>717</v>
       </c>
       <c r="AD71" t="s">
         <v>84</v>
       </c>
       <c r="AF71" t="s">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="AG71" t="s">
         <v>100</v>
@@ -20323,10 +20415,10 @@
         <v>99</v>
       </c>
       <c r="AX71" s="1">
-        <v>44970</v>
+        <v>44959</v>
       </c>
       <c r="AY71" s="1">
-        <v>44968</v>
+        <v>44958</v>
       </c>
       <c r="AZ71" t="s">
         <v>107</v>
@@ -20347,10 +20439,10 @@
         <v>147</v>
       </c>
       <c r="BF71" t="s">
-        <v>733</v>
+        <v>718</v>
       </c>
       <c r="BG71" s="1">
-        <v>30623</v>
+        <v>38736</v>
       </c>
       <c r="BH71" t="s">
         <v>101</v>
@@ -20362,19 +20454,19 @@
         <v>101</v>
       </c>
       <c r="BL71" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM71" t="s">
-        <v>292</v>
+        <v>719</v>
       </c>
       <c r="BN71" t="s">
-        <v>353</v>
+        <v>254</v>
       </c>
       <c r="BO71" s="1">
-        <v>44971</v>
+        <v>44963</v>
       </c>
       <c r="BP71" t="s">
-        <v>294</v>
+        <v>115</v>
       </c>
       <c r="BQ71" t="s">
         <v>101</v>
@@ -20386,13 +20478,13 @@
         <v>101</v>
       </c>
       <c r="BT71" t="s">
-        <v>685</v>
+        <v>169</v>
       </c>
       <c r="BU71" t="s">
         <v>117</v>
       </c>
       <c r="BV71" t="s">
-        <v>295</v>
+        <v>489</v>
       </c>
       <c r="BW71" t="s">
         <v>96</v>
@@ -20419,7 +20511,7 @@
         <v>119</v>
       </c>
       <c r="CE71">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:83" x14ac:dyDescent="0.2">
@@ -20427,7 +20519,7 @@
         <v>83</v>
       </c>
       <c r="B72" s="1">
-        <v>45016</v>
+        <v>44968</v>
       </c>
       <c r="C72" t="s">
         <v>84</v>
@@ -20436,31 +20528,31 @@
         <v>85</v>
       </c>
       <c r="E72" t="s">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c r="F72" t="s">
-        <v>259</v>
+        <v>697</v>
       </c>
       <c r="G72" t="s">
-        <v>734</v>
+        <v>720</v>
       </c>
       <c r="H72" t="s">
-        <v>101</v>
+        <v>721</v>
       </c>
       <c r="I72" t="s">
-        <v>735</v>
+        <v>124</v>
       </c>
       <c r="J72" t="s">
-        <v>736</v>
+        <v>263</v>
       </c>
       <c r="K72" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="L72" t="s">
-        <v>737</v>
+        <v>722</v>
       </c>
       <c r="M72" t="s">
-        <v>180</v>
+        <v>234</v>
       </c>
       <c r="N72" t="s">
         <v>94</v>
@@ -20472,7 +20564,7 @@
         <v>96</v>
       </c>
       <c r="Q72" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="R72" t="s">
         <v>95</v>
@@ -20490,7 +20582,7 @@
         <v>101</v>
       </c>
       <c r="W72" t="s">
-        <v>235</v>
+        <v>423</v>
       </c>
       <c r="X72" t="s">
         <v>101</v>
@@ -20499,22 +20591,22 @@
         <v>101</v>
       </c>
       <c r="Z72" t="s">
-        <v>738</v>
+        <v>723</v>
       </c>
       <c r="AA72" t="s">
-        <v>266</v>
+        <v>724</v>
       </c>
       <c r="AB72" t="s">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="AC72" t="s">
-        <v>279</v>
+        <v>659</v>
       </c>
       <c r="AD72" t="s">
         <v>84</v>
       </c>
       <c r="AF72" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="AG72" t="s">
         <v>100</v>
@@ -20529,7 +20621,7 @@
         <v>100</v>
       </c>
       <c r="AK72" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AL72" t="s">
         <v>101</v>
@@ -20541,7 +20633,7 @@
         <v>100</v>
       </c>
       <c r="AO72" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AP72" t="s">
         <v>100</v>
@@ -20556,7 +20648,7 @@
         <v>94</v>
       </c>
       <c r="AT72" t="s">
-        <v>179</v>
+        <v>94</v>
       </c>
       <c r="AU72" t="s">
         <v>95</v>
@@ -20568,13 +20660,13 @@
         <v>99</v>
       </c>
       <c r="AX72" s="1">
-        <v>44990</v>
+        <v>44968</v>
       </c>
       <c r="AY72" s="1">
-        <v>44962</v>
+        <v>44966</v>
       </c>
       <c r="AZ72" t="s">
-        <v>179</v>
+        <v>107</v>
       </c>
       <c r="BA72" t="s">
         <v>100</v>
@@ -20592,10 +20684,10 @@
         <v>147</v>
       </c>
       <c r="BF72" t="s">
-        <v>739</v>
+        <v>725</v>
       </c>
       <c r="BG72" s="1">
-        <v>41326</v>
+        <v>35799</v>
       </c>
       <c r="BH72" t="s">
         <v>101</v>
@@ -20607,19 +20699,19 @@
         <v>101</v>
       </c>
       <c r="BL72" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM72" t="s">
-        <v>268</v>
+        <v>726</v>
       </c>
       <c r="BN72" t="s">
-        <v>269</v>
+        <v>353</v>
       </c>
       <c r="BO72" s="1">
-        <v>45016</v>
+        <v>44971</v>
       </c>
       <c r="BP72" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="BQ72" t="s">
         <v>101</v>
@@ -20631,13 +20723,13 @@
         <v>101</v>
       </c>
       <c r="BT72" t="s">
-        <v>116</v>
+        <v>704</v>
       </c>
       <c r="BU72" t="s">
         <v>117</v>
       </c>
       <c r="BV72" t="s">
-        <v>272</v>
+        <v>705</v>
       </c>
       <c r="BW72" t="s">
         <v>96</v>
@@ -20664,7 +20756,7 @@
         <v>119</v>
       </c>
       <c r="CE72">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:83" x14ac:dyDescent="0.2">
@@ -20672,7 +20764,7 @@
         <v>83</v>
       </c>
       <c r="B73" s="1">
-        <v>44971</v>
+        <v>45027</v>
       </c>
       <c r="C73" t="s">
         <v>84</v>
@@ -20681,31 +20773,31 @@
         <v>85</v>
       </c>
       <c r="E73" t="s">
-        <v>228</v>
+        <v>281</v>
       </c>
       <c r="F73" t="s">
         <v>87</v>
       </c>
       <c r="G73" t="s">
-        <v>260</v>
+        <v>727</v>
       </c>
       <c r="H73" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="I73" t="s">
-        <v>740</v>
+        <v>366</v>
       </c>
       <c r="J73" t="s">
-        <v>314</v>
+        <v>728</v>
       </c>
       <c r="K73" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="L73" t="s">
-        <v>741</v>
+        <v>729</v>
       </c>
       <c r="M73" t="s">
-        <v>109</v>
+        <v>431</v>
       </c>
       <c r="N73" t="s">
         <v>94</v>
@@ -20717,7 +20809,7 @@
         <v>96</v>
       </c>
       <c r="Q73" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="R73" t="s">
         <v>95</v>
@@ -20729,37 +20821,37 @@
         <v>99</v>
       </c>
       <c r="U73" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="V73" t="s">
-        <v>235</v>
+        <v>101</v>
       </c>
       <c r="W73" t="s">
-        <v>101</v>
+        <v>730</v>
       </c>
       <c r="X73" t="s">
         <v>101</v>
       </c>
       <c r="Y73" t="s">
-        <v>742</v>
+        <v>101</v>
       </c>
       <c r="Z73" t="s">
-        <v>743</v>
+        <v>731</v>
       </c>
       <c r="AA73" t="s">
-        <v>104</v>
+        <v>266</v>
       </c>
       <c r="AB73" t="s">
         <v>145</v>
       </c>
       <c r="AC73" t="s">
-        <v>146</v>
+        <v>290</v>
       </c>
       <c r="AD73" t="s">
         <v>84</v>
       </c>
       <c r="AF73" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="AG73" t="s">
         <v>100</v>
@@ -20774,7 +20866,7 @@
         <v>100</v>
       </c>
       <c r="AK73" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AL73" t="s">
         <v>101</v>
@@ -20786,7 +20878,7 @@
         <v>100</v>
       </c>
       <c r="AO73" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AP73" t="s">
         <v>100</v>
@@ -20801,7 +20893,7 @@
         <v>94</v>
       </c>
       <c r="AT73" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AU73" t="s">
         <v>95</v>
@@ -20813,10 +20905,10 @@
         <v>99</v>
       </c>
       <c r="AX73" s="1">
-        <v>44971</v>
+        <v>44965</v>
       </c>
       <c r="AY73" s="1">
-        <v>44967</v>
+        <v>44964</v>
       </c>
       <c r="AZ73" t="s">
         <v>107</v>
@@ -20837,10 +20929,10 @@
         <v>147</v>
       </c>
       <c r="BF73" t="s">
-        <v>744</v>
+        <v>732</v>
       </c>
       <c r="BG73" s="1">
-        <v>42341</v>
+        <v>37317</v>
       </c>
       <c r="BH73" t="s">
         <v>101</v>
@@ -20852,19 +20944,19 @@
         <v>101</v>
       </c>
       <c r="BL73" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM73" t="s">
-        <v>745</v>
+        <v>733</v>
       </c>
       <c r="BN73" t="s">
-        <v>746</v>
+        <v>734</v>
       </c>
       <c r="BO73" s="1">
-        <v>44977</v>
+        <v>45027</v>
       </c>
       <c r="BP73" t="s">
-        <v>241</v>
+        <v>294</v>
       </c>
       <c r="BQ73" t="s">
         <v>101</v>
@@ -20876,13 +20968,13 @@
         <v>101</v>
       </c>
       <c r="BT73" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="BU73" t="s">
         <v>117</v>
       </c>
       <c r="BV73" t="s">
-        <v>242</v>
+        <v>295</v>
       </c>
       <c r="BW73" t="s">
         <v>96</v>
@@ -20909,7 +21001,7 @@
         <v>119</v>
       </c>
       <c r="CE73">
-        <v>19</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74" spans="1:83" x14ac:dyDescent="0.2">
@@ -20920,37 +21012,37 @@
         <v>44975</v>
       </c>
       <c r="C74" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="D74" t="s">
         <v>85</v>
       </c>
       <c r="E74" t="s">
-        <v>747</v>
+        <v>170</v>
       </c>
       <c r="F74" t="s">
         <v>87</v>
       </c>
       <c r="G74" t="s">
-        <v>748</v>
+        <v>735</v>
       </c>
       <c r="H74" t="s">
-        <v>749</v>
+        <v>101</v>
       </c>
       <c r="I74" t="s">
-        <v>750</v>
+        <v>124</v>
       </c>
       <c r="J74" t="s">
-        <v>751</v>
+        <v>736</v>
       </c>
       <c r="K74" t="s">
         <v>138</v>
       </c>
       <c r="L74" t="s">
-        <v>752</v>
+        <v>737</v>
       </c>
       <c r="M74" t="s">
-        <v>564</v>
+        <v>158</v>
       </c>
       <c r="N74" t="s">
         <v>94</v>
@@ -20962,43 +21054,43 @@
         <v>96</v>
       </c>
       <c r="Q74" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="R74" t="s">
         <v>95</v>
       </c>
       <c r="S74" t="s">
-        <v>391</v>
+        <v>98</v>
       </c>
       <c r="T74" t="s">
-        <v>753</v>
+        <v>738</v>
       </c>
       <c r="U74" t="s">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="V74" t="s">
-        <v>754</v>
+        <v>101</v>
       </c>
       <c r="W74" t="s">
         <v>101</v>
       </c>
       <c r="X74" t="s">
-        <v>101</v>
+        <v>739</v>
       </c>
       <c r="Y74" t="s">
-        <v>368</v>
+        <v>101</v>
       </c>
       <c r="Z74" t="s">
-        <v>755</v>
+        <v>740</v>
       </c>
       <c r="AA74" t="s">
-        <v>289</v>
+        <v>104</v>
       </c>
       <c r="AB74" t="s">
-        <v>330</v>
+        <v>105</v>
       </c>
       <c r="AC74" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="AD74" t="s">
         <v>84</v>
@@ -21019,7 +21111,7 @@
         <v>100</v>
       </c>
       <c r="AK74" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AL74" t="s">
         <v>101</v>
@@ -21031,7 +21123,7 @@
         <v>100</v>
       </c>
       <c r="AO74" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AP74" t="s">
         <v>100</v>
@@ -21055,22 +21147,22 @@
         <v>98</v>
       </c>
       <c r="AW74" t="s">
-        <v>99</v>
+        <v>738</v>
       </c>
       <c r="AX74" s="1">
-        <v>44975</v>
+        <v>44973</v>
       </c>
       <c r="AY74" s="1">
-        <v>44975</v>
+        <v>44966</v>
       </c>
       <c r="AZ74" t="s">
         <v>107</v>
       </c>
       <c r="BA74" t="s">
-        <v>100</v>
-      </c>
-      <c r="BB74" t="s">
-        <v>108</v>
+        <v>94</v>
+      </c>
+      <c r="BB74" s="1">
+        <v>44973</v>
       </c>
       <c r="BC74" t="s">
         <v>94</v>
@@ -21082,10 +21174,10 @@
         <v>147</v>
       </c>
       <c r="BF74" t="s">
-        <v>756</v>
+        <v>741</v>
       </c>
       <c r="BG74" s="1">
-        <v>35484</v>
+        <v>32631</v>
       </c>
       <c r="BH74" t="s">
         <v>101</v>
@@ -21097,16 +21189,19 @@
         <v>101</v>
       </c>
       <c r="BL74" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM74" t="s">
-        <v>757</v>
+        <v>742</v>
       </c>
       <c r="BN74" t="s">
-        <v>758</v>
+        <v>743</v>
       </c>
       <c r="BO74" s="1">
-        <v>44984</v>
+        <v>44977</v>
+      </c>
+      <c r="BP74" t="s">
+        <v>184</v>
       </c>
       <c r="BQ74" t="s">
         <v>101</v>
@@ -21118,19 +21213,22 @@
         <v>101</v>
       </c>
       <c r="BT74" t="s">
-        <v>685</v>
+        <v>704</v>
       </c>
       <c r="BU74" t="s">
         <v>117</v>
       </c>
+      <c r="BV74" t="s">
+        <v>185</v>
+      </c>
       <c r="BW74" t="s">
         <v>96</v>
       </c>
       <c r="BX74" t="s">
-        <v>759</v>
+        <v>118</v>
       </c>
       <c r="BY74" t="s">
-        <v>760</v>
+        <v>744</v>
       </c>
       <c r="BZ74" t="s">
         <v>96</v>
@@ -21139,10 +21237,16 @@
         <v>118</v>
       </c>
       <c r="CB74" t="s">
+        <v>744</v>
+      </c>
+      <c r="CC74" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD74" t="s">
         <v>119</v>
       </c>
       <c r="CE74">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" spans="1:83" x14ac:dyDescent="0.2">
@@ -21150,40 +21254,40 @@
         <v>83</v>
       </c>
       <c r="B75" s="1">
-        <v>44977</v>
+        <v>44970</v>
       </c>
       <c r="C75" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="D75" t="s">
         <v>85</v>
       </c>
       <c r="E75" t="s">
-        <v>133</v>
+        <v>281</v>
       </c>
       <c r="F75" t="s">
         <v>87</v>
       </c>
       <c r="G75" t="s">
-        <v>260</v>
+        <v>706</v>
       </c>
       <c r="H75" t="s">
-        <v>88</v>
+        <v>203</v>
       </c>
       <c r="I75" t="s">
-        <v>761</v>
+        <v>745</v>
       </c>
       <c r="J75" t="s">
-        <v>517</v>
+        <v>746</v>
       </c>
       <c r="K75" t="s">
         <v>138</v>
       </c>
       <c r="L75" t="s">
-        <v>762</v>
+        <v>747</v>
       </c>
       <c r="M75" t="s">
-        <v>474</v>
+        <v>748</v>
       </c>
       <c r="N75" t="s">
         <v>94</v>
@@ -21195,7 +21299,7 @@
         <v>96</v>
       </c>
       <c r="Q75" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="R75" t="s">
         <v>95</v>
@@ -21207,31 +21311,31 @@
         <v>99</v>
       </c>
       <c r="U75" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="V75" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="W75" t="s">
-        <v>101</v>
+        <v>749</v>
       </c>
       <c r="X75" t="s">
         <v>101</v>
       </c>
       <c r="Y75" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="Z75" t="s">
-        <v>763</v>
+        <v>750</v>
       </c>
       <c r="AA75" t="s">
-        <v>764</v>
+        <v>751</v>
       </c>
       <c r="AB75" t="s">
         <v>145</v>
       </c>
       <c r="AC75" t="s">
-        <v>146</v>
+        <v>290</v>
       </c>
       <c r="AD75" t="s">
         <v>84</v>
@@ -21252,7 +21356,7 @@
         <v>100</v>
       </c>
       <c r="AK75" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AL75" t="s">
         <v>101</v>
@@ -21264,7 +21368,7 @@
         <v>100</v>
       </c>
       <c r="AO75" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AP75" t="s">
         <v>100</v>
@@ -21291,10 +21395,10 @@
         <v>99</v>
       </c>
       <c r="AX75" s="1">
-        <v>44977</v>
+        <v>44970</v>
       </c>
       <c r="AY75" s="1">
-        <v>44975</v>
+        <v>44968</v>
       </c>
       <c r="AZ75" t="s">
         <v>107</v>
@@ -21315,10 +21419,10 @@
         <v>147</v>
       </c>
       <c r="BF75" t="s">
-        <v>765</v>
+        <v>752</v>
       </c>
       <c r="BG75" s="1">
-        <v>36543</v>
+        <v>30623</v>
       </c>
       <c r="BH75" t="s">
         <v>101</v>
@@ -21330,19 +21434,19 @@
         <v>101</v>
       </c>
       <c r="BL75" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM75" t="s">
-        <v>625</v>
+        <v>292</v>
       </c>
       <c r="BN75" t="s">
-        <v>766</v>
+        <v>353</v>
       </c>
       <c r="BO75" s="1">
-        <v>44978</v>
+        <v>44971</v>
       </c>
       <c r="BP75" t="s">
-        <v>151</v>
+        <v>294</v>
       </c>
       <c r="BQ75" t="s">
         <v>101</v>
@@ -21354,13 +21458,13 @@
         <v>101</v>
       </c>
       <c r="BT75" t="s">
-        <v>685</v>
+        <v>704</v>
       </c>
       <c r="BU75" t="s">
         <v>117</v>
       </c>
       <c r="BV75" t="s">
-        <v>153</v>
+        <v>295</v>
       </c>
       <c r="BW75" t="s">
         <v>96</v>
@@ -21387,7 +21491,7 @@
         <v>119</v>
       </c>
       <c r="CE75">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" spans="1:83" x14ac:dyDescent="0.2">
@@ -21395,40 +21499,40 @@
         <v>83</v>
       </c>
       <c r="B76" s="1">
-        <v>44974</v>
+        <v>45016</v>
       </c>
       <c r="C76" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="D76" t="s">
         <v>85</v>
       </c>
       <c r="E76" t="s">
-        <v>597</v>
+        <v>258</v>
       </c>
       <c r="F76" t="s">
-        <v>87</v>
+        <v>259</v>
       </c>
       <c r="G76" t="s">
-        <v>767</v>
+        <v>753</v>
       </c>
       <c r="H76" t="s">
-        <v>768</v>
+        <v>101</v>
       </c>
       <c r="I76" t="s">
-        <v>727</v>
+        <v>754</v>
       </c>
       <c r="J76" t="s">
-        <v>769</v>
+        <v>755</v>
       </c>
       <c r="K76" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="L76" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="M76" t="s">
-        <v>771</v>
+        <v>180</v>
       </c>
       <c r="N76" t="s">
         <v>94</v>
@@ -21452,37 +21556,37 @@
         <v>99</v>
       </c>
       <c r="U76" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="V76" t="s">
+        <v>101</v>
+      </c>
+      <c r="W76" t="s">
         <v>235</v>
       </c>
-      <c r="W76" t="s">
-        <v>101</v>
-      </c>
       <c r="X76" t="s">
         <v>101</v>
       </c>
       <c r="Y76" t="s">
-        <v>368</v>
+        <v>101</v>
       </c>
       <c r="Z76" t="s">
-        <v>772</v>
+        <v>757</v>
       </c>
       <c r="AA76" t="s">
-        <v>104</v>
+        <v>266</v>
       </c>
       <c r="AB76" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="AC76" t="s">
-        <v>444</v>
+        <v>279</v>
       </c>
       <c r="AD76" t="s">
         <v>84</v>
       </c>
       <c r="AF76" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="AG76" t="s">
         <v>100</v>
@@ -21524,7 +21628,7 @@
         <v>94</v>
       </c>
       <c r="AT76" t="s">
-        <v>94</v>
+        <v>179</v>
       </c>
       <c r="AU76" t="s">
         <v>95</v>
@@ -21533,16 +21637,16 @@
         <v>98</v>
       </c>
       <c r="AW76" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="AX76" s="1">
-        <v>44974</v>
+        <v>44990</v>
       </c>
       <c r="AY76" s="1">
-        <v>44970</v>
+        <v>44962</v>
       </c>
       <c r="AZ76" t="s">
-        <v>107</v>
+        <v>179</v>
       </c>
       <c r="BA76" t="s">
         <v>100</v>
@@ -21560,10 +21664,10 @@
         <v>147</v>
       </c>
       <c r="BF76" t="s">
-        <v>773</v>
+        <v>758</v>
       </c>
       <c r="BG76" s="1">
-        <v>15675</v>
+        <v>41326</v>
       </c>
       <c r="BH76" t="s">
         <v>101</v>
@@ -21575,19 +21679,19 @@
         <v>101</v>
       </c>
       <c r="BL76" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM76" t="s">
-        <v>774</v>
+        <v>268</v>
       </c>
       <c r="BN76" t="s">
-        <v>603</v>
+        <v>269</v>
       </c>
       <c r="BO76" s="1">
-        <v>44977</v>
+        <v>45016</v>
       </c>
       <c r="BP76" t="s">
-        <v>604</v>
+        <v>270</v>
       </c>
       <c r="BQ76" t="s">
         <v>101</v>
@@ -21599,13 +21703,13 @@
         <v>101</v>
       </c>
       <c r="BT76" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="BU76" t="s">
         <v>117</v>
       </c>
       <c r="BV76" t="s">
-        <v>605</v>
+        <v>272</v>
       </c>
       <c r="BW76" t="s">
         <v>96</v>
@@ -21623,7 +21727,7 @@
         <v>118</v>
       </c>
       <c r="CB76" t="s">
-        <v>214</v>
+        <v>119</v>
       </c>
       <c r="CC76" t="s">
         <v>118</v>
@@ -21632,7 +21736,7 @@
         <v>119</v>
       </c>
       <c r="CE76">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77" spans="1:83" x14ac:dyDescent="0.2">
@@ -21640,40 +21744,40 @@
         <v>83</v>
       </c>
       <c r="B77" s="1">
-        <v>45029</v>
+        <v>44971</v>
       </c>
       <c r="C77" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="D77" t="s">
         <v>85</v>
       </c>
       <c r="E77" t="s">
-        <v>258</v>
+        <v>228</v>
       </c>
       <c r="F77" t="s">
-        <v>259</v>
+        <v>87</v>
       </c>
       <c r="G77" t="s">
-        <v>775</v>
+        <v>260</v>
       </c>
       <c r="H77" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="I77" t="s">
-        <v>717</v>
+        <v>759</v>
       </c>
       <c r="J77" t="s">
-        <v>776</v>
+        <v>314</v>
       </c>
       <c r="K77" t="s">
         <v>91</v>
       </c>
       <c r="L77" t="s">
-        <v>777</v>
+        <v>760</v>
       </c>
       <c r="M77" t="s">
-        <v>277</v>
+        <v>109</v>
       </c>
       <c r="N77" t="s">
         <v>94</v>
@@ -21697,37 +21801,37 @@
         <v>99</v>
       </c>
       <c r="U77" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="V77" t="s">
-        <v>101</v>
+        <v>235</v>
       </c>
       <c r="W77" t="s">
-        <v>235</v>
+        <v>101</v>
       </c>
       <c r="X77" t="s">
         <v>101</v>
       </c>
       <c r="Y77" t="s">
-        <v>101</v>
+        <v>761</v>
       </c>
       <c r="Z77" t="s">
-        <v>778</v>
+        <v>762</v>
       </c>
       <c r="AA77" t="s">
-        <v>266</v>
+        <v>104</v>
       </c>
       <c r="AB77" t="s">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="AC77" t="s">
-        <v>251</v>
+        <v>146</v>
       </c>
       <c r="AD77" t="s">
         <v>84</v>
       </c>
       <c r="AF77" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AG77" t="s">
         <v>100</v>
@@ -21769,7 +21873,7 @@
         <v>94</v>
       </c>
       <c r="AT77" t="s">
-        <v>179</v>
+        <v>94</v>
       </c>
       <c r="AU77" t="s">
         <v>95</v>
@@ -21781,13 +21885,13 @@
         <v>99</v>
       </c>
       <c r="AX77" s="1">
-        <v>44969</v>
+        <v>44971</v>
       </c>
       <c r="AY77" s="1">
-        <v>44969</v>
+        <v>44967</v>
       </c>
       <c r="AZ77" t="s">
-        <v>179</v>
+        <v>107</v>
       </c>
       <c r="BA77" t="s">
         <v>100</v>
@@ -21805,10 +21909,10 @@
         <v>147</v>
       </c>
       <c r="BF77" t="s">
-        <v>779</v>
+        <v>763</v>
       </c>
       <c r="BG77" s="1">
-        <v>41701</v>
+        <v>42341</v>
       </c>
       <c r="BH77" t="s">
         <v>101</v>
@@ -21820,19 +21924,19 @@
         <v>101</v>
       </c>
       <c r="BL77" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM77" t="s">
-        <v>780</v>
+        <v>764</v>
       </c>
       <c r="BN77" t="s">
-        <v>269</v>
+        <v>765</v>
       </c>
       <c r="BO77" s="1">
-        <v>45029</v>
+        <v>44977</v>
       </c>
       <c r="BP77" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="BQ77" t="s">
         <v>101</v>
@@ -21844,13 +21948,13 @@
         <v>101</v>
       </c>
       <c r="BT77" t="s">
-        <v>271</v>
+        <v>152</v>
       </c>
       <c r="BU77" t="s">
         <v>117</v>
       </c>
       <c r="BV77" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
       <c r="BW77" t="s">
         <v>96</v>
@@ -21877,7 +21981,7 @@
         <v>119</v>
       </c>
       <c r="CE77">
-        <v>69</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78" spans="1:83" x14ac:dyDescent="0.2">
@@ -21885,40 +21989,40 @@
         <v>83</v>
       </c>
       <c r="B78" s="1">
-        <v>44982</v>
+        <v>44975</v>
       </c>
       <c r="C78" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D78" t="s">
         <v>85</v>
       </c>
       <c r="E78" t="s">
-        <v>281</v>
+        <v>766</v>
       </c>
       <c r="F78" t="s">
-        <v>180</v>
+        <v>87</v>
       </c>
       <c r="G78" t="s">
-        <v>781</v>
+        <v>767</v>
       </c>
       <c r="H78" t="s">
-        <v>782</v>
+        <v>768</v>
       </c>
       <c r="I78" t="s">
-        <v>783</v>
+        <v>769</v>
       </c>
       <c r="J78" t="s">
-        <v>784</v>
+        <v>770</v>
       </c>
       <c r="K78" t="s">
         <v>138</v>
       </c>
       <c r="L78" t="s">
-        <v>785</v>
+        <v>771</v>
       </c>
       <c r="M78" t="s">
-        <v>786</v>
+        <v>564</v>
       </c>
       <c r="N78" t="s">
         <v>94</v>
@@ -21936,43 +22040,43 @@
         <v>95</v>
       </c>
       <c r="S78" t="s">
-        <v>98</v>
+        <v>391</v>
       </c>
       <c r="T78" t="s">
-        <v>99</v>
+        <v>772</v>
       </c>
       <c r="U78" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="V78" t="s">
-        <v>101</v>
+        <v>773</v>
       </c>
       <c r="W78" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="X78" t="s">
         <v>101</v>
       </c>
       <c r="Y78" t="s">
-        <v>101</v>
+        <v>368</v>
       </c>
       <c r="Z78" t="s">
-        <v>787</v>
+        <v>774</v>
       </c>
       <c r="AA78" t="s">
-        <v>104</v>
+        <v>289</v>
       </c>
       <c r="AB78" t="s">
-        <v>145</v>
+        <v>330</v>
       </c>
       <c r="AC78" t="s">
-        <v>290</v>
+        <v>101</v>
       </c>
       <c r="AD78" t="s">
         <v>84</v>
       </c>
       <c r="AF78" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="AG78" t="s">
         <v>100</v>
@@ -22014,7 +22118,7 @@
         <v>94</v>
       </c>
       <c r="AT78" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AU78" t="s">
         <v>95</v>
@@ -22026,10 +22130,10 @@
         <v>99</v>
       </c>
       <c r="AX78" s="1">
-        <v>44982</v>
+        <v>44975</v>
       </c>
       <c r="AY78" s="1">
-        <v>44982</v>
+        <v>44975</v>
       </c>
       <c r="AZ78" t="s">
         <v>107</v>
@@ -22050,10 +22154,10 @@
         <v>147</v>
       </c>
       <c r="BF78" t="s">
-        <v>788</v>
+        <v>775</v>
       </c>
       <c r="BG78" s="1">
-        <v>31601</v>
+        <v>35484</v>
       </c>
       <c r="BH78" t="s">
         <v>101</v>
@@ -22065,19 +22169,16 @@
         <v>101</v>
       </c>
       <c r="BL78" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM78" t="s">
-        <v>789</v>
+        <v>776</v>
       </c>
       <c r="BN78" t="s">
-        <v>353</v>
+        <v>777</v>
       </c>
       <c r="BO78" s="1">
-        <v>44987</v>
-      </c>
-      <c r="BP78" t="s">
-        <v>294</v>
+        <v>44984</v>
       </c>
       <c r="BQ78" t="s">
         <v>101</v>
@@ -22089,22 +22190,19 @@
         <v>101</v>
       </c>
       <c r="BT78" t="s">
-        <v>271</v>
+        <v>704</v>
       </c>
       <c r="BU78" t="s">
         <v>117</v>
       </c>
-      <c r="BV78" t="s">
-        <v>354</v>
-      </c>
       <c r="BW78" t="s">
         <v>96</v>
       </c>
       <c r="BX78" t="s">
-        <v>118</v>
+        <v>778</v>
       </c>
       <c r="BY78" t="s">
-        <v>119</v>
+        <v>779</v>
       </c>
       <c r="BZ78" t="s">
         <v>96</v>
@@ -22115,14 +22213,8 @@
       <c r="CB78" t="s">
         <v>119</v>
       </c>
-      <c r="CC78" t="s">
-        <v>118</v>
-      </c>
-      <c r="CD78" t="s">
-        <v>119</v>
-      </c>
       <c r="CE78">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" spans="1:83" x14ac:dyDescent="0.2">
@@ -22130,49 +22222,49 @@
         <v>83</v>
       </c>
       <c r="B79" s="1">
-        <v>44984</v>
+        <v>44977</v>
       </c>
       <c r="C79" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D79" t="s">
         <v>85</v>
       </c>
       <c r="E79" t="s">
-        <v>86</v>
+        <v>133</v>
       </c>
       <c r="F79" t="s">
         <v>87</v>
       </c>
       <c r="G79" t="s">
-        <v>790</v>
+        <v>260</v>
       </c>
       <c r="H79" t="s">
-        <v>652</v>
+        <v>88</v>
       </c>
       <c r="I79" t="s">
-        <v>791</v>
+        <v>780</v>
       </c>
       <c r="J79" t="s">
-        <v>630</v>
+        <v>517</v>
       </c>
       <c r="K79" t="s">
-        <v>218</v>
+        <v>138</v>
       </c>
       <c r="L79" t="s">
-        <v>792</v>
+        <v>781</v>
       </c>
       <c r="M79" t="s">
-        <v>277</v>
+        <v>474</v>
       </c>
       <c r="N79" t="s">
         <v>94</v>
       </c>
       <c r="O79" t="s">
-        <v>221</v>
+        <v>95</v>
       </c>
       <c r="P79" t="s">
-        <v>222</v>
+        <v>96</v>
       </c>
       <c r="Q79" t="s">
         <v>127</v>
@@ -22187,31 +22279,31 @@
         <v>99</v>
       </c>
       <c r="U79" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="V79" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="W79" t="s">
-        <v>730</v>
+        <v>101</v>
       </c>
       <c r="X79" t="s">
         <v>101</v>
       </c>
       <c r="Y79" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="Z79" t="s">
-        <v>793</v>
+        <v>782</v>
       </c>
       <c r="AA79" t="s">
-        <v>104</v>
+        <v>783</v>
       </c>
       <c r="AB79" t="s">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="AC79" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="AD79" t="s">
         <v>84</v>
@@ -22271,10 +22363,10 @@
         <v>99</v>
       </c>
       <c r="AX79" s="1">
-        <v>44984</v>
+        <v>44977</v>
       </c>
       <c r="AY79" s="1">
-        <v>44981</v>
+        <v>44975</v>
       </c>
       <c r="AZ79" t="s">
         <v>107</v>
@@ -22295,10 +22387,10 @@
         <v>147</v>
       </c>
       <c r="BF79" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="BG79" s="1">
-        <v>41687</v>
+        <v>36543</v>
       </c>
       <c r="BH79" t="s">
         <v>101</v>
@@ -22310,19 +22402,19 @@
         <v>101</v>
       </c>
       <c r="BL79" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM79" t="s">
-        <v>795</v>
+        <v>630</v>
       </c>
       <c r="BN79" t="s">
-        <v>114</v>
+        <v>785</v>
       </c>
       <c r="BO79" s="1">
-        <v>44985</v>
+        <v>44978</v>
       </c>
       <c r="BP79" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="BQ79" t="s">
         <v>101</v>
@@ -22334,13 +22426,13 @@
         <v>101</v>
       </c>
       <c r="BT79" t="s">
-        <v>685</v>
+        <v>704</v>
       </c>
       <c r="BU79" t="s">
         <v>117</v>
       </c>
       <c r="BV79" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="BW79" t="s">
         <v>96</v>
@@ -22367,7 +22459,7 @@
         <v>119</v>
       </c>
       <c r="CE79">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80" spans="1:83" x14ac:dyDescent="0.2">
@@ -22375,40 +22467,40 @@
         <v>83</v>
       </c>
       <c r="B80" s="1">
-        <v>44979</v>
+        <v>44974</v>
       </c>
       <c r="C80" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D80" t="s">
         <v>85</v>
       </c>
       <c r="E80" t="s">
-        <v>796</v>
+        <v>602</v>
       </c>
       <c r="F80" t="s">
         <v>87</v>
       </c>
       <c r="G80" t="s">
-        <v>797</v>
+        <v>786</v>
       </c>
       <c r="H80" t="s">
-        <v>101</v>
+        <v>787</v>
       </c>
       <c r="I80" t="s">
-        <v>798</v>
+        <v>746</v>
       </c>
       <c r="J80" t="s">
-        <v>448</v>
+        <v>788</v>
       </c>
       <c r="K80" t="s">
-        <v>340</v>
+        <v>138</v>
       </c>
       <c r="L80" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
       <c r="M80" t="s">
-        <v>107</v>
+        <v>790</v>
       </c>
       <c r="N80" t="s">
         <v>94</v>
@@ -22435,7 +22527,7 @@
         <v>94</v>
       </c>
       <c r="V80" t="s">
-        <v>800</v>
+        <v>235</v>
       </c>
       <c r="W80" t="s">
         <v>101</v>
@@ -22447,7 +22539,7 @@
         <v>368</v>
       </c>
       <c r="Z80" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
       <c r="AA80" t="s">
         <v>104</v>
@@ -22456,13 +22548,13 @@
         <v>145</v>
       </c>
       <c r="AC80" t="s">
-        <v>197</v>
+        <v>444</v>
       </c>
       <c r="AD80" t="s">
         <v>84</v>
       </c>
       <c r="AF80" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="AG80" t="s">
         <v>100</v>
@@ -22513,13 +22605,13 @@
         <v>98</v>
       </c>
       <c r="AW80" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="AX80" s="1">
-        <v>44979</v>
+        <v>44974</v>
       </c>
       <c r="AY80" s="1">
-        <v>44978</v>
+        <v>44970</v>
       </c>
       <c r="AZ80" t="s">
         <v>107</v>
@@ -22540,10 +22632,10 @@
         <v>147</v>
       </c>
       <c r="BF80" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
       <c r="BG80" s="1">
-        <v>43412</v>
+        <v>15675</v>
       </c>
       <c r="BH80" t="s">
         <v>101</v>
@@ -22555,19 +22647,19 @@
         <v>101</v>
       </c>
       <c r="BL80" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM80" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="BN80" t="s">
-        <v>804</v>
+        <v>608</v>
       </c>
       <c r="BO80" s="1">
-        <v>44979</v>
+        <v>44977</v>
       </c>
       <c r="BP80" t="s">
-        <v>805</v>
+        <v>609</v>
       </c>
       <c r="BQ80" t="s">
         <v>101</v>
@@ -22579,13 +22671,13 @@
         <v>101</v>
       </c>
       <c r="BT80" t="s">
-        <v>806</v>
+        <v>152</v>
       </c>
       <c r="BU80" t="s">
         <v>117</v>
       </c>
       <c r="BV80" t="s">
-        <v>807</v>
+        <v>610</v>
       </c>
       <c r="BW80" t="s">
         <v>96</v>
@@ -22603,7 +22695,7 @@
         <v>118</v>
       </c>
       <c r="CB80" t="s">
-        <v>119</v>
+        <v>214</v>
       </c>
       <c r="CC80" t="s">
         <v>118</v>
@@ -22612,7 +22704,7 @@
         <v>119</v>
       </c>
       <c r="CE80">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" spans="1:83" x14ac:dyDescent="0.2">
@@ -22620,40 +22712,40 @@
         <v>83</v>
       </c>
       <c r="B81" s="1">
-        <v>44981</v>
+        <v>45029</v>
       </c>
       <c r="C81" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D81" t="s">
         <v>85</v>
       </c>
       <c r="E81" t="s">
-        <v>808</v>
+        <v>258</v>
       </c>
       <c r="F81" t="s">
-        <v>771</v>
+        <v>259</v>
       </c>
       <c r="G81" t="s">
-        <v>356</v>
+        <v>794</v>
       </c>
       <c r="H81" t="s">
-        <v>809</v>
+        <v>101</v>
       </c>
       <c r="I81" t="s">
-        <v>123</v>
+        <v>736</v>
       </c>
       <c r="J81" t="s">
-        <v>246</v>
+        <v>795</v>
       </c>
       <c r="K81" t="s">
         <v>91</v>
       </c>
       <c r="L81" t="s">
-        <v>810</v>
+        <v>796</v>
       </c>
       <c r="M81" t="s">
-        <v>126</v>
+        <v>277</v>
       </c>
       <c r="N81" t="s">
         <v>94</v>
@@ -22677,31 +22769,31 @@
         <v>99</v>
       </c>
       <c r="U81" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="V81" t="s">
+        <v>101</v>
+      </c>
+      <c r="W81" t="s">
         <v>235</v>
       </c>
-      <c r="W81" t="s">
-        <v>101</v>
-      </c>
       <c r="X81" t="s">
         <v>101</v>
       </c>
       <c r="Y81" t="s">
-        <v>811</v>
+        <v>101</v>
       </c>
       <c r="Z81" t="s">
-        <v>812</v>
+        <v>797</v>
       </c>
       <c r="AA81" t="s">
-        <v>104</v>
+        <v>266</v>
       </c>
       <c r="AB81" t="s">
-        <v>813</v>
+        <v>105</v>
       </c>
       <c r="AC81" t="s">
-        <v>814</v>
+        <v>251</v>
       </c>
       <c r="AD81" t="s">
         <v>84</v>
@@ -22749,7 +22841,7 @@
         <v>94</v>
       </c>
       <c r="AT81" t="s">
-        <v>94</v>
+        <v>179</v>
       </c>
       <c r="AU81" t="s">
         <v>95</v>
@@ -22761,13 +22853,13 @@
         <v>99</v>
       </c>
       <c r="AX81" s="1">
-        <v>44979</v>
+        <v>44969</v>
       </c>
       <c r="AY81" s="1">
-        <v>44977</v>
+        <v>44969</v>
       </c>
       <c r="AZ81" t="s">
-        <v>107</v>
+        <v>179</v>
       </c>
       <c r="BA81" t="s">
         <v>100</v>
@@ -22785,10 +22877,10 @@
         <v>147</v>
       </c>
       <c r="BF81" t="s">
-        <v>815</v>
+        <v>798</v>
       </c>
       <c r="BG81" s="1">
-        <v>39245</v>
+        <v>41701</v>
       </c>
       <c r="BH81" t="s">
         <v>101</v>
@@ -22800,16 +22892,19 @@
         <v>101</v>
       </c>
       <c r="BL81" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM81" t="s">
-        <v>816</v>
+        <v>799</v>
       </c>
       <c r="BN81" t="s">
-        <v>817</v>
+        <v>269</v>
       </c>
       <c r="BO81" s="1">
-        <v>44981</v>
+        <v>45029</v>
+      </c>
+      <c r="BP81" t="s">
+        <v>270</v>
       </c>
       <c r="BQ81" t="s">
         <v>101</v>
@@ -22821,11 +22916,14 @@
         <v>101</v>
       </c>
       <c r="BT81" t="s">
-        <v>685</v>
+        <v>271</v>
       </c>
       <c r="BU81" t="s">
         <v>117</v>
       </c>
+      <c r="BV81" t="s">
+        <v>272</v>
+      </c>
       <c r="BW81" t="s">
         <v>96</v>
       </c>
@@ -22844,8 +22942,14 @@
       <c r="CB81" t="s">
         <v>119</v>
       </c>
+      <c r="CC81" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD81" t="s">
+        <v>119</v>
+      </c>
       <c r="CE81">
-        <v>24</v>
+        <v>69</v>
       </c>
     </row>
     <row r="82" spans="1:83" x14ac:dyDescent="0.2">
@@ -22853,40 +22957,40 @@
         <v>83</v>
       </c>
       <c r="B82" s="1">
-        <v>44989</v>
+        <v>44982</v>
       </c>
       <c r="C82" t="s">
-        <v>277</v>
+        <v>120</v>
       </c>
       <c r="D82" t="s">
         <v>85</v>
       </c>
       <c r="E82" t="s">
-        <v>818</v>
+        <v>281</v>
       </c>
       <c r="F82" t="s">
-        <v>819</v>
+        <v>180</v>
       </c>
       <c r="G82" t="s">
-        <v>203</v>
+        <v>800</v>
       </c>
       <c r="H82" t="s">
-        <v>820</v>
+        <v>801</v>
       </c>
       <c r="I82" t="s">
-        <v>726</v>
+        <v>802</v>
       </c>
       <c r="J82" t="s">
-        <v>727</v>
+        <v>803</v>
       </c>
       <c r="K82" t="s">
         <v>138</v>
       </c>
       <c r="L82" t="s">
-        <v>821</v>
+        <v>804</v>
       </c>
       <c r="M82" t="s">
-        <v>822</v>
+        <v>805</v>
       </c>
       <c r="N82" t="s">
         <v>94</v>
@@ -22898,7 +23002,7 @@
         <v>96</v>
       </c>
       <c r="Q82" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="R82" t="s">
         <v>95</v>
@@ -22910,22 +23014,22 @@
         <v>99</v>
       </c>
       <c r="U82" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="V82" t="s">
-        <v>754</v>
+        <v>101</v>
       </c>
       <c r="W82" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="X82" t="s">
         <v>101</v>
       </c>
       <c r="Y82" t="s">
-        <v>730</v>
+        <v>101</v>
       </c>
       <c r="Z82" t="s">
-        <v>823</v>
+        <v>806</v>
       </c>
       <c r="AA82" t="s">
         <v>104</v>
@@ -22934,13 +23038,13 @@
         <v>145</v>
       </c>
       <c r="AC82" t="s">
-        <v>197</v>
+        <v>290</v>
       </c>
       <c r="AD82" t="s">
         <v>84</v>
       </c>
       <c r="AF82" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="AG82" t="s">
         <v>100</v>
@@ -22955,7 +23059,7 @@
         <v>100</v>
       </c>
       <c r="AK82" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL82" t="s">
         <v>101</v>
@@ -22967,7 +23071,7 @@
         <v>100</v>
       </c>
       <c r="AO82" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AP82" t="s">
         <v>100</v>
@@ -22982,7 +23086,7 @@
         <v>94</v>
       </c>
       <c r="AT82" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AU82" t="s">
         <v>95</v>
@@ -22994,10 +23098,10 @@
         <v>99</v>
       </c>
       <c r="AX82" s="1">
-        <v>44988</v>
+        <v>44982</v>
       </c>
       <c r="AY82" s="1">
-        <v>44987</v>
+        <v>44982</v>
       </c>
       <c r="AZ82" t="s">
         <v>107</v>
@@ -23018,10 +23122,10 @@
         <v>147</v>
       </c>
       <c r="BF82" t="s">
-        <v>733</v>
+        <v>807</v>
       </c>
       <c r="BG82" s="1">
-        <v>14150</v>
+        <v>31601</v>
       </c>
       <c r="BH82" t="s">
         <v>101</v>
@@ -23033,16 +23137,19 @@
         <v>101</v>
       </c>
       <c r="BL82" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM82" t="s">
-        <v>824</v>
+        <v>808</v>
       </c>
       <c r="BN82" t="s">
-        <v>825</v>
+        <v>353</v>
       </c>
       <c r="BO82" s="1">
-        <v>44989</v>
+        <v>44987</v>
+      </c>
+      <c r="BP82" t="s">
+        <v>294</v>
       </c>
       <c r="BQ82" t="s">
         <v>101</v>
@@ -23054,11 +23161,14 @@
         <v>101</v>
       </c>
       <c r="BT82" t="s">
-        <v>685</v>
+        <v>271</v>
       </c>
       <c r="BU82" t="s">
         <v>117</v>
       </c>
+      <c r="BV82" t="s">
+        <v>354</v>
+      </c>
       <c r="BW82" t="s">
         <v>96</v>
       </c>
@@ -23077,8 +23187,14 @@
       <c r="CB82" t="s">
         <v>119</v>
       </c>
+      <c r="CC82" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD82" t="s">
+        <v>119</v>
+      </c>
       <c r="CE82">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83" spans="1:83" x14ac:dyDescent="0.2">
@@ -23086,40 +23202,40 @@
         <v>83</v>
       </c>
       <c r="B83" s="1">
-        <v>44987</v>
+        <v>44984</v>
       </c>
       <c r="C83" t="s">
-        <v>277</v>
+        <v>120</v>
       </c>
       <c r="D83" t="s">
         <v>85</v>
       </c>
       <c r="E83" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="F83" t="s">
         <v>87</v>
       </c>
       <c r="G83" t="s">
-        <v>826</v>
+        <v>809</v>
       </c>
       <c r="H83" t="s">
-        <v>827</v>
+        <v>671</v>
       </c>
       <c r="I83" t="s">
-        <v>828</v>
+        <v>810</v>
       </c>
       <c r="J83" t="s">
-        <v>829</v>
+        <v>649</v>
       </c>
       <c r="K83" t="s">
         <v>218</v>
       </c>
       <c r="L83" t="s">
-        <v>830</v>
+        <v>811</v>
       </c>
       <c r="M83" t="s">
-        <v>234</v>
+        <v>277</v>
       </c>
       <c r="N83" t="s">
         <v>94</v>
@@ -23131,7 +23247,7 @@
         <v>222</v>
       </c>
       <c r="Q83" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="R83" t="s">
         <v>95</v>
@@ -23143,37 +23259,37 @@
         <v>99</v>
       </c>
       <c r="U83" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="V83" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="W83" t="s">
-        <v>101</v>
+        <v>749</v>
       </c>
       <c r="X83" t="s">
         <v>101</v>
       </c>
       <c r="Y83" t="s">
-        <v>423</v>
+        <v>101</v>
       </c>
       <c r="Z83" t="s">
-        <v>831</v>
+        <v>812</v>
       </c>
       <c r="AA83" t="s">
-        <v>832</v>
+        <v>104</v>
       </c>
       <c r="AB83" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="AC83" t="s">
-        <v>833</v>
+        <v>129</v>
       </c>
       <c r="AD83" t="s">
         <v>84</v>
       </c>
       <c r="AF83" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="AG83" t="s">
         <v>100</v>
@@ -23188,7 +23304,7 @@
         <v>100</v>
       </c>
       <c r="AK83" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL83" t="s">
         <v>101</v>
@@ -23200,7 +23316,7 @@
         <v>100</v>
       </c>
       <c r="AO83" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AP83" t="s">
         <v>100</v>
@@ -23227,10 +23343,10 @@
         <v>99</v>
       </c>
       <c r="AX83" s="1">
-        <v>44987</v>
+        <v>44984</v>
       </c>
       <c r="AY83" s="1">
-        <v>44985</v>
+        <v>44981</v>
       </c>
       <c r="AZ83" t="s">
         <v>107</v>
@@ -23251,10 +23367,10 @@
         <v>147</v>
       </c>
       <c r="BF83" t="s">
-        <v>834</v>
+        <v>813</v>
       </c>
       <c r="BG83" s="1">
-        <v>35626</v>
+        <v>41687</v>
       </c>
       <c r="BH83" t="s">
         <v>101</v>
@@ -23266,19 +23382,19 @@
         <v>101</v>
       </c>
       <c r="BL83" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM83" t="s">
-        <v>625</v>
+        <v>814</v>
       </c>
       <c r="BN83" t="s">
-        <v>626</v>
+        <v>114</v>
       </c>
       <c r="BO83" s="1">
-        <v>44988</v>
+        <v>44985</v>
       </c>
       <c r="BP83" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="BQ83" t="s">
         <v>101</v>
@@ -23290,13 +23406,13 @@
         <v>101</v>
       </c>
       <c r="BT83" t="s">
-        <v>685</v>
+        <v>704</v>
       </c>
       <c r="BU83" t="s">
         <v>117</v>
       </c>
       <c r="BV83" t="s">
-        <v>153</v>
+        <v>112</v>
       </c>
       <c r="BW83" t="s">
         <v>96</v>
@@ -23323,7 +23439,7 @@
         <v>119</v>
       </c>
       <c r="CE83">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84" spans="1:83" x14ac:dyDescent="0.2">
@@ -23331,40 +23447,40 @@
         <v>83</v>
       </c>
       <c r="B84" s="1">
-        <v>44991</v>
+        <v>44979</v>
       </c>
       <c r="C84" t="s">
-        <v>277</v>
+        <v>120</v>
       </c>
       <c r="D84" t="s">
         <v>85</v>
       </c>
       <c r="E84" t="s">
-        <v>133</v>
+        <v>815</v>
       </c>
       <c r="F84" t="s">
         <v>87</v>
       </c>
       <c r="G84" t="s">
-        <v>230</v>
+        <v>816</v>
       </c>
       <c r="H84" t="s">
         <v>101</v>
       </c>
       <c r="I84" t="s">
-        <v>835</v>
+        <v>817</v>
       </c>
       <c r="J84" t="s">
-        <v>836</v>
+        <v>448</v>
       </c>
       <c r="K84" t="s">
-        <v>91</v>
+        <v>340</v>
       </c>
       <c r="L84" t="s">
-        <v>837</v>
+        <v>818</v>
       </c>
       <c r="M84" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="N84" t="s">
         <v>94</v>
@@ -23376,7 +23492,7 @@
         <v>96</v>
       </c>
       <c r="Q84" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="R84" t="s">
         <v>95</v>
@@ -23391,7 +23507,7 @@
         <v>94</v>
       </c>
       <c r="V84" t="s">
-        <v>141</v>
+        <v>819</v>
       </c>
       <c r="W84" t="s">
         <v>101</v>
@@ -23400,10 +23516,10 @@
         <v>101</v>
       </c>
       <c r="Y84" t="s">
-        <v>423</v>
+        <v>368</v>
       </c>
       <c r="Z84" t="s">
-        <v>838</v>
+        <v>820</v>
       </c>
       <c r="AA84" t="s">
         <v>104</v>
@@ -23412,13 +23528,13 @@
         <v>145</v>
       </c>
       <c r="AC84" t="s">
-        <v>146</v>
+        <v>197</v>
       </c>
       <c r="AD84" t="s">
         <v>84</v>
       </c>
       <c r="AF84" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="AG84" t="s">
         <v>100</v>
@@ -23433,7 +23549,7 @@
         <v>100</v>
       </c>
       <c r="AK84" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL84" t="s">
         <v>101</v>
@@ -23445,7 +23561,7 @@
         <v>100</v>
       </c>
       <c r="AO84" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AP84" t="s">
         <v>100</v>
@@ -23472,10 +23588,10 @@
         <v>99</v>
       </c>
       <c r="AX84" s="1">
-        <v>44991</v>
+        <v>44979</v>
       </c>
       <c r="AY84" s="1">
-        <v>44987</v>
+        <v>44978</v>
       </c>
       <c r="AZ84" t="s">
         <v>107</v>
@@ -23496,10 +23612,10 @@
         <v>147</v>
       </c>
       <c r="BF84" t="s">
-        <v>839</v>
+        <v>821</v>
       </c>
       <c r="BG84" s="1">
-        <v>41744</v>
+        <v>43412</v>
       </c>
       <c r="BH84" t="s">
         <v>101</v>
@@ -23511,19 +23627,19 @@
         <v>101</v>
       </c>
       <c r="BL84" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM84" t="s">
-        <v>434</v>
+        <v>822</v>
       </c>
       <c r="BN84" t="s">
-        <v>435</v>
+        <v>823</v>
       </c>
       <c r="BO84" s="1">
-        <v>44999</v>
+        <v>44979</v>
       </c>
       <c r="BP84" t="s">
-        <v>151</v>
+        <v>824</v>
       </c>
       <c r="BQ84" t="s">
         <v>101</v>
@@ -23535,13 +23651,13 @@
         <v>101</v>
       </c>
       <c r="BT84" t="s">
-        <v>116</v>
+        <v>825</v>
       </c>
       <c r="BU84" t="s">
         <v>117</v>
       </c>
       <c r="BV84" t="s">
-        <v>153</v>
+        <v>826</v>
       </c>
       <c r="BW84" t="s">
         <v>96</v>
@@ -23568,7 +23684,7 @@
         <v>119</v>
       </c>
       <c r="CE84">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85" spans="1:83" x14ac:dyDescent="0.2">
@@ -23576,40 +23692,40 @@
         <v>83</v>
       </c>
       <c r="B85" s="1">
-        <v>45029</v>
+        <v>44981</v>
       </c>
       <c r="C85" t="s">
-        <v>277</v>
+        <v>120</v>
       </c>
       <c r="D85" t="s">
         <v>85</v>
       </c>
       <c r="E85" t="s">
-        <v>258</v>
+        <v>827</v>
       </c>
       <c r="F85" t="s">
-        <v>259</v>
+        <v>790</v>
       </c>
       <c r="G85" t="s">
-        <v>304</v>
+        <v>356</v>
       </c>
       <c r="H85" t="s">
-        <v>101</v>
+        <v>828</v>
       </c>
       <c r="I85" t="s">
-        <v>378</v>
+        <v>123</v>
       </c>
       <c r="J85" t="s">
-        <v>840</v>
+        <v>246</v>
       </c>
       <c r="K85" t="s">
         <v>91</v>
       </c>
       <c r="L85" t="s">
-        <v>841</v>
+        <v>829</v>
       </c>
       <c r="M85" t="s">
-        <v>248</v>
+        <v>126</v>
       </c>
       <c r="N85" t="s">
         <v>94</v>
@@ -23633,31 +23749,31 @@
         <v>99</v>
       </c>
       <c r="U85" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="V85" t="s">
-        <v>101</v>
+        <v>235</v>
       </c>
       <c r="W85" t="s">
-        <v>235</v>
+        <v>101</v>
       </c>
       <c r="X85" t="s">
         <v>101</v>
       </c>
       <c r="Y85" t="s">
-        <v>101</v>
+        <v>830</v>
       </c>
       <c r="Z85" t="s">
-        <v>842</v>
+        <v>831</v>
       </c>
       <c r="AA85" t="s">
-        <v>266</v>
+        <v>104</v>
       </c>
       <c r="AB85" t="s">
-        <v>145</v>
+        <v>832</v>
       </c>
       <c r="AC85" t="s">
-        <v>343</v>
+        <v>833</v>
       </c>
       <c r="AD85" t="s">
         <v>84</v>
@@ -23705,7 +23821,7 @@
         <v>94</v>
       </c>
       <c r="AT85" t="s">
-        <v>179</v>
+        <v>94</v>
       </c>
       <c r="AU85" t="s">
         <v>95</v>
@@ -23717,13 +23833,13 @@
         <v>99</v>
       </c>
       <c r="AX85" s="1">
-        <v>44988</v>
+        <v>44979</v>
       </c>
       <c r="AY85" s="1">
-        <v>44988</v>
+        <v>44977</v>
       </c>
       <c r="AZ85" t="s">
-        <v>179</v>
+        <v>107</v>
       </c>
       <c r="BA85" t="s">
         <v>100</v>
@@ -23741,10 +23857,10 @@
         <v>147</v>
       </c>
       <c r="BF85" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="BG85" s="1">
-        <v>40688</v>
+        <v>39245</v>
       </c>
       <c r="BH85" t="s">
         <v>101</v>
@@ -23756,19 +23872,16 @@
         <v>101</v>
       </c>
       <c r="BL85" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM85" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="BN85" t="s">
-        <v>269</v>
+        <v>836</v>
       </c>
       <c r="BO85" s="1">
-        <v>45029</v>
-      </c>
-      <c r="BP85" t="s">
-        <v>270</v>
+        <v>44981</v>
       </c>
       <c r="BQ85" t="s">
         <v>101</v>
@@ -23780,14 +23893,11 @@
         <v>101</v>
       </c>
       <c r="BT85" t="s">
-        <v>271</v>
+        <v>704</v>
       </c>
       <c r="BU85" t="s">
         <v>117</v>
       </c>
-      <c r="BV85" t="s">
-        <v>272</v>
-      </c>
       <c r="BW85" t="s">
         <v>96</v>
       </c>
@@ -23806,14 +23916,8 @@
       <c r="CB85" t="s">
         <v>119</v>
       </c>
-      <c r="CC85" t="s">
-        <v>118</v>
-      </c>
-      <c r="CD85" t="s">
-        <v>119</v>
-      </c>
       <c r="CE85">
-        <v>70</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" spans="1:83" x14ac:dyDescent="0.2">
@@ -23821,7 +23925,7 @@
         <v>83</v>
       </c>
       <c r="B86" s="1">
-        <v>45016</v>
+        <v>44989</v>
       </c>
       <c r="C86" t="s">
         <v>277</v>
@@ -23830,31 +23934,31 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>258</v>
+        <v>837</v>
       </c>
       <c r="F86" t="s">
-        <v>259</v>
+        <v>838</v>
       </c>
       <c r="G86" t="s">
-        <v>845</v>
+        <v>203</v>
       </c>
       <c r="H86" t="s">
-        <v>101</v>
+        <v>839</v>
       </c>
       <c r="I86" t="s">
-        <v>846</v>
+        <v>745</v>
       </c>
       <c r="J86" t="s">
-        <v>636</v>
+        <v>746</v>
       </c>
       <c r="K86" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="L86" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="M86" t="s">
-        <v>277</v>
+        <v>841</v>
       </c>
       <c r="N86" t="s">
         <v>94</v>
@@ -23866,7 +23970,7 @@
         <v>96</v>
       </c>
       <c r="Q86" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="R86" t="s">
         <v>95</v>
@@ -23878,37 +23982,37 @@
         <v>99</v>
       </c>
       <c r="U86" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="V86" t="s">
-        <v>101</v>
+        <v>773</v>
       </c>
       <c r="W86" t="s">
-        <v>235</v>
+        <v>101</v>
       </c>
       <c r="X86" t="s">
         <v>101</v>
       </c>
       <c r="Y86" t="s">
-        <v>101</v>
+        <v>749</v>
       </c>
       <c r="Z86" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="AA86" t="s">
-        <v>266</v>
+        <v>104</v>
       </c>
       <c r="AB86" t="s">
         <v>145</v>
       </c>
       <c r="AC86" t="s">
-        <v>833</v>
+        <v>197</v>
       </c>
       <c r="AD86" t="s">
         <v>84</v>
       </c>
       <c r="AF86" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="AG86" t="s">
         <v>100</v>
@@ -23923,7 +24027,7 @@
         <v>100</v>
       </c>
       <c r="AK86" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AL86" t="s">
         <v>101</v>
@@ -23935,7 +24039,7 @@
         <v>100</v>
       </c>
       <c r="AO86" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AP86" t="s">
         <v>100</v>
@@ -23950,7 +24054,7 @@
         <v>94</v>
       </c>
       <c r="AT86" t="s">
-        <v>179</v>
+        <v>94</v>
       </c>
       <c r="AU86" t="s">
         <v>95</v>
@@ -23962,13 +24066,13 @@
         <v>99</v>
       </c>
       <c r="AX86" s="1">
-        <v>44984</v>
+        <v>44988</v>
       </c>
       <c r="AY86" s="1">
-        <v>44984</v>
+        <v>44987</v>
       </c>
       <c r="AZ86" t="s">
-        <v>179</v>
+        <v>107</v>
       </c>
       <c r="BA86" t="s">
         <v>100</v>
@@ -23986,10 +24090,10 @@
         <v>147</v>
       </c>
       <c r="BF86" t="s">
-        <v>849</v>
+        <v>752</v>
       </c>
       <c r="BG86" s="1">
-        <v>41448</v>
+        <v>14150</v>
       </c>
       <c r="BH86" t="s">
         <v>101</v>
@@ -24001,19 +24105,16 @@
         <v>101</v>
       </c>
       <c r="BL86" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM86" t="s">
-        <v>268</v>
+        <v>843</v>
       </c>
       <c r="BN86" t="s">
-        <v>269</v>
+        <v>844</v>
       </c>
       <c r="BO86" s="1">
-        <v>45016</v>
-      </c>
-      <c r="BP86" t="s">
-        <v>270</v>
+        <v>44989</v>
       </c>
       <c r="BQ86" t="s">
         <v>101</v>
@@ -24025,14 +24126,11 @@
         <v>101</v>
       </c>
       <c r="BT86" t="s">
-        <v>116</v>
+        <v>704</v>
       </c>
       <c r="BU86" t="s">
         <v>117</v>
       </c>
-      <c r="BV86" t="s">
-        <v>272</v>
-      </c>
       <c r="BW86" t="s">
         <v>96</v>
       </c>
@@ -24051,14 +24149,8 @@
       <c r="CB86" t="s">
         <v>119</v>
       </c>
-      <c r="CC86" t="s">
-        <v>118</v>
-      </c>
-      <c r="CD86" t="s">
-        <v>119</v>
-      </c>
       <c r="CE86">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87" spans="1:83" x14ac:dyDescent="0.2">
@@ -24066,7 +24158,7 @@
         <v>83</v>
       </c>
       <c r="B87" s="1">
-        <v>44998</v>
+        <v>44987</v>
       </c>
       <c r="C87" t="s">
         <v>277</v>
@@ -24075,43 +24167,43 @@
         <v>85</v>
       </c>
       <c r="E87" t="s">
-        <v>503</v>
+        <v>133</v>
       </c>
       <c r="F87" t="s">
-        <v>504</v>
+        <v>87</v>
       </c>
       <c r="G87" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="H87" t="s">
-        <v>101</v>
+        <v>846</v>
       </c>
       <c r="I87" t="s">
-        <v>456</v>
+        <v>847</v>
       </c>
       <c r="J87" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="K87" t="s">
-        <v>91</v>
+        <v>218</v>
       </c>
       <c r="L87" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="M87" t="s">
-        <v>277</v>
+        <v>234</v>
       </c>
       <c r="N87" t="s">
         <v>94</v>
       </c>
       <c r="O87" t="s">
-        <v>95</v>
+        <v>221</v>
       </c>
       <c r="P87" t="s">
-        <v>96</v>
+        <v>222</v>
       </c>
       <c r="Q87" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="R87" t="s">
         <v>95</v>
@@ -24126,7 +24218,7 @@
         <v>94</v>
       </c>
       <c r="V87" t="s">
-        <v>235</v>
+        <v>141</v>
       </c>
       <c r="W87" t="s">
         <v>101</v>
@@ -24135,19 +24227,19 @@
         <v>101</v>
       </c>
       <c r="Y87" t="s">
-        <v>368</v>
+        <v>423</v>
       </c>
       <c r="Z87" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="AA87" t="s">
-        <v>104</v>
+        <v>851</v>
       </c>
       <c r="AB87" t="s">
         <v>145</v>
       </c>
       <c r="AC87" t="s">
-        <v>444</v>
+        <v>852</v>
       </c>
       <c r="AD87" t="s">
         <v>84</v>
@@ -24168,7 +24260,7 @@
         <v>100</v>
       </c>
       <c r="AK87" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AL87" t="s">
         <v>101</v>
@@ -24180,7 +24272,7 @@
         <v>100</v>
       </c>
       <c r="AO87" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AP87" t="s">
         <v>100</v>
@@ -24195,7 +24287,7 @@
         <v>94</v>
       </c>
       <c r="AT87" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AU87" t="s">
         <v>95</v>
@@ -24210,10 +24302,10 @@
         <v>44987</v>
       </c>
       <c r="AY87" s="1">
-        <v>44987</v>
+        <v>44985</v>
       </c>
       <c r="AZ87" t="s">
-        <v>179</v>
+        <v>107</v>
       </c>
       <c r="BA87" t="s">
         <v>100</v>
@@ -24231,10 +24323,10 @@
         <v>147</v>
       </c>
       <c r="BF87" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="BG87" s="1">
-        <v>41506</v>
+        <v>35626</v>
       </c>
       <c r="BH87" t="s">
         <v>101</v>
@@ -24246,19 +24338,19 @@
         <v>101</v>
       </c>
       <c r="BL87" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM87" t="s">
-        <v>512</v>
+        <v>630</v>
       </c>
       <c r="BN87" t="s">
-        <v>513</v>
+        <v>631</v>
       </c>
       <c r="BO87" s="1">
-        <v>44998</v>
+        <v>44988</v>
       </c>
       <c r="BP87" t="s">
-        <v>514</v>
+        <v>151</v>
       </c>
       <c r="BQ87" t="s">
         <v>101</v>
@@ -24270,13 +24362,13 @@
         <v>101</v>
       </c>
       <c r="BT87" t="s">
-        <v>116</v>
+        <v>704</v>
       </c>
       <c r="BU87" t="s">
         <v>117</v>
       </c>
       <c r="BV87" t="s">
-        <v>515</v>
+        <v>153</v>
       </c>
       <c r="BW87" t="s">
         <v>96</v>
@@ -24303,7 +24395,7 @@
         <v>119</v>
       </c>
       <c r="CE87">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88" spans="1:83" x14ac:dyDescent="0.2">
@@ -24311,7 +24403,7 @@
         <v>83</v>
       </c>
       <c r="B88" s="1">
-        <v>45029</v>
+        <v>44991</v>
       </c>
       <c r="C88" t="s">
         <v>277</v>
@@ -24320,31 +24412,31 @@
         <v>85</v>
       </c>
       <c r="E88" t="s">
-        <v>258</v>
+        <v>133</v>
       </c>
       <c r="F88" t="s">
-        <v>259</v>
+        <v>87</v>
       </c>
       <c r="G88" t="s">
+        <v>230</v>
+      </c>
+      <c r="H88" t="s">
+        <v>101</v>
+      </c>
+      <c r="I88" t="s">
+        <v>854</v>
+      </c>
+      <c r="J88" t="s">
         <v>855</v>
-      </c>
-      <c r="H88" t="s">
-        <v>856</v>
-      </c>
-      <c r="I88" t="s">
-        <v>156</v>
-      </c>
-      <c r="J88" t="s">
-        <v>717</v>
       </c>
       <c r="K88" t="s">
         <v>91</v>
       </c>
       <c r="L88" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="M88" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="N88" t="s">
         <v>94</v>
@@ -24368,31 +24460,31 @@
         <v>99</v>
       </c>
       <c r="U88" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="V88" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="W88" t="s">
-        <v>235</v>
+        <v>101</v>
       </c>
       <c r="X88" t="s">
         <v>101</v>
       </c>
       <c r="Y88" t="s">
-        <v>101</v>
+        <v>423</v>
       </c>
       <c r="Z88" t="s">
-        <v>778</v>
+        <v>857</v>
       </c>
       <c r="AA88" t="s">
-        <v>266</v>
+        <v>104</v>
       </c>
       <c r="AB88" t="s">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="AC88" t="s">
-        <v>251</v>
+        <v>146</v>
       </c>
       <c r="AD88" t="s">
         <v>84</v>
@@ -24440,7 +24532,7 @@
         <v>94</v>
       </c>
       <c r="AT88" t="s">
-        <v>179</v>
+        <v>94</v>
       </c>
       <c r="AU88" t="s">
         <v>95</v>
@@ -24452,13 +24544,13 @@
         <v>99</v>
       </c>
       <c r="AX88" s="1">
-        <v>44988</v>
+        <v>44991</v>
       </c>
       <c r="AY88" s="1">
-        <v>44988</v>
+        <v>44987</v>
       </c>
       <c r="AZ88" t="s">
-        <v>179</v>
+        <v>107</v>
       </c>
       <c r="BA88" t="s">
         <v>100</v>
@@ -24476,10 +24568,10 @@
         <v>147</v>
       </c>
       <c r="BF88" t="s">
-        <v>779</v>
+        <v>858</v>
       </c>
       <c r="BG88" s="1">
-        <v>40519</v>
+        <v>41744</v>
       </c>
       <c r="BH88" t="s">
         <v>101</v>
@@ -24491,19 +24583,19 @@
         <v>101</v>
       </c>
       <c r="BL88" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM88" t="s">
-        <v>268</v>
+        <v>434</v>
       </c>
       <c r="BN88" t="s">
-        <v>269</v>
+        <v>435</v>
       </c>
       <c r="BO88" s="1">
-        <v>45029</v>
+        <v>44999</v>
       </c>
       <c r="BP88" t="s">
-        <v>270</v>
+        <v>151</v>
       </c>
       <c r="BQ88" t="s">
         <v>101</v>
@@ -24515,13 +24607,13 @@
         <v>101</v>
       </c>
       <c r="BT88" t="s">
-        <v>271</v>
+        <v>116</v>
       </c>
       <c r="BU88" t="s">
         <v>117</v>
       </c>
       <c r="BV88" t="s">
-        <v>272</v>
+        <v>153</v>
       </c>
       <c r="BW88" t="s">
         <v>96</v>
@@ -24548,7 +24640,7 @@
         <v>119</v>
       </c>
       <c r="CE88">
-        <v>71</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89" spans="1:83" x14ac:dyDescent="0.2">
@@ -24556,7 +24648,7 @@
         <v>83</v>
       </c>
       <c r="B89" s="1">
-        <v>44990</v>
+        <v>45029</v>
       </c>
       <c r="C89" t="s">
         <v>277</v>
@@ -24565,31 +24657,31 @@
         <v>85</v>
       </c>
       <c r="E89" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="F89" t="s">
-        <v>180</v>
+        <v>259</v>
       </c>
       <c r="G89" t="s">
-        <v>88</v>
+        <v>304</v>
       </c>
       <c r="H89" t="s">
-        <v>355</v>
+        <v>101</v>
       </c>
       <c r="I89" t="s">
-        <v>858</v>
+        <v>378</v>
       </c>
       <c r="J89" t="s">
-        <v>413</v>
+        <v>859</v>
       </c>
       <c r="K89" t="s">
         <v>91</v>
       </c>
       <c r="L89" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="M89" t="s">
-        <v>380</v>
+        <v>248</v>
       </c>
       <c r="N89" t="s">
         <v>94</v>
@@ -24610,7 +24702,7 @@
         <v>98</v>
       </c>
       <c r="T89" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="U89" t="s">
         <v>100</v>
@@ -24619,7 +24711,7 @@
         <v>101</v>
       </c>
       <c r="W89" t="s">
-        <v>860</v>
+        <v>235</v>
       </c>
       <c r="X89" t="s">
         <v>101</v>
@@ -24631,19 +24723,19 @@
         <v>861</v>
       </c>
       <c r="AA89" t="s">
-        <v>104</v>
+        <v>266</v>
       </c>
       <c r="AB89" t="s">
         <v>145</v>
       </c>
       <c r="AC89" t="s">
-        <v>197</v>
+        <v>343</v>
       </c>
       <c r="AD89" t="s">
         <v>84</v>
       </c>
       <c r="AF89" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="AG89" t="s">
         <v>100</v>
@@ -24685,7 +24777,7 @@
         <v>94</v>
       </c>
       <c r="AT89" t="s">
-        <v>94</v>
+        <v>179</v>
       </c>
       <c r="AU89" t="s">
         <v>95</v>
@@ -24697,13 +24789,13 @@
         <v>99</v>
       </c>
       <c r="AX89" s="1">
-        <v>44990</v>
+        <v>44988</v>
       </c>
       <c r="AY89" s="1">
         <v>44988</v>
       </c>
       <c r="AZ89" t="s">
-        <v>107</v>
+        <v>179</v>
       </c>
       <c r="BA89" t="s">
         <v>100</v>
@@ -24724,7 +24816,7 @@
         <v>862</v>
       </c>
       <c r="BG89" s="1">
-        <v>39591</v>
+        <v>40688</v>
       </c>
       <c r="BH89" t="s">
         <v>101</v>
@@ -24736,19 +24828,19 @@
         <v>101</v>
       </c>
       <c r="BL89" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM89" t="s">
         <v>863</v>
       </c>
       <c r="BN89" t="s">
-        <v>353</v>
+        <v>269</v>
       </c>
       <c r="BO89" s="1">
-        <v>44991</v>
+        <v>45029</v>
       </c>
       <c r="BP89" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="BQ89" t="s">
         <v>101</v>
@@ -24766,7 +24858,7 @@
         <v>117</v>
       </c>
       <c r="BV89" t="s">
-        <v>354</v>
+        <v>272</v>
       </c>
       <c r="BW89" t="s">
         <v>96</v>
@@ -24775,7 +24867,7 @@
         <v>118</v>
       </c>
       <c r="BY89" t="s">
-        <v>214</v>
+        <v>119</v>
       </c>
       <c r="BZ89" t="s">
         <v>96</v>
@@ -24793,7 +24885,7 @@
         <v>119</v>
       </c>
       <c r="CE89">
-        <v>33</v>
+        <v>70</v>
       </c>
     </row>
     <row r="90" spans="1:83" x14ac:dyDescent="0.2">
@@ -24801,7 +24893,7 @@
         <v>83</v>
       </c>
       <c r="B90" s="1">
-        <v>44998</v>
+        <v>45016</v>
       </c>
       <c r="C90" t="s">
         <v>277</v>
@@ -24810,10 +24902,10 @@
         <v>85</v>
       </c>
       <c r="E90" t="s">
-        <v>503</v>
+        <v>258</v>
       </c>
       <c r="F90" t="s">
-        <v>504</v>
+        <v>259</v>
       </c>
       <c r="G90" t="s">
         <v>864</v>
@@ -24822,10 +24914,10 @@
         <v>101</v>
       </c>
       <c r="I90" t="s">
-        <v>538</v>
+        <v>865</v>
       </c>
       <c r="J90" t="s">
-        <v>865</v>
+        <v>655</v>
       </c>
       <c r="K90" t="s">
         <v>91</v>
@@ -24834,7 +24926,7 @@
         <v>866</v>
       </c>
       <c r="M90" t="s">
-        <v>120</v>
+        <v>277</v>
       </c>
       <c r="N90" t="s">
         <v>94</v>
@@ -24846,7 +24938,7 @@
         <v>96</v>
       </c>
       <c r="Q90" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="R90" t="s">
         <v>95</v>
@@ -24858,31 +24950,31 @@
         <v>99</v>
       </c>
       <c r="U90" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="V90" t="s">
+        <v>101</v>
+      </c>
+      <c r="W90" t="s">
         <v>235</v>
       </c>
-      <c r="W90" t="s">
-        <v>101</v>
-      </c>
       <c r="X90" t="s">
         <v>101</v>
       </c>
       <c r="Y90" t="s">
-        <v>368</v>
+        <v>101</v>
       </c>
       <c r="Z90" t="s">
         <v>867</v>
       </c>
       <c r="AA90" t="s">
-        <v>104</v>
+        <v>266</v>
       </c>
       <c r="AB90" t="s">
         <v>145</v>
       </c>
       <c r="AC90" t="s">
-        <v>444</v>
+        <v>852</v>
       </c>
       <c r="AD90" t="s">
         <v>84</v>
@@ -24903,7 +24995,7 @@
         <v>100</v>
       </c>
       <c r="AK90" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL90" t="s">
         <v>101</v>
@@ -24915,7 +25007,7 @@
         <v>100</v>
       </c>
       <c r="AO90" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AP90" t="s">
         <v>100</v>
@@ -24930,7 +25022,7 @@
         <v>94</v>
       </c>
       <c r="AT90" t="s">
-        <v>100</v>
+        <v>179</v>
       </c>
       <c r="AU90" t="s">
         <v>95</v>
@@ -24942,10 +25034,10 @@
         <v>99</v>
       </c>
       <c r="AX90" s="1">
-        <v>44989</v>
+        <v>44984</v>
       </c>
       <c r="AY90" s="1">
-        <v>44989</v>
+        <v>44984</v>
       </c>
       <c r="AZ90" t="s">
         <v>179</v>
@@ -24969,7 +25061,7 @@
         <v>868</v>
       </c>
       <c r="BG90" s="1">
-        <v>41818</v>
+        <v>41448</v>
       </c>
       <c r="BH90" t="s">
         <v>101</v>
@@ -24981,19 +25073,19 @@
         <v>101</v>
       </c>
       <c r="BL90" s="1">
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="BM90" t="s">
-        <v>512</v>
+        <v>268</v>
       </c>
       <c r="BN90" t="s">
-        <v>513</v>
+        <v>269</v>
       </c>
       <c r="BO90" s="1">
-        <v>44998</v>
+        <v>45016</v>
       </c>
       <c r="BP90" t="s">
-        <v>514</v>
+        <v>270</v>
       </c>
       <c r="BQ90" t="s">
         <v>101</v>
@@ -25011,7 +25103,7 @@
         <v>117</v>
       </c>
       <c r="BV90" t="s">
-        <v>515</v>
+        <v>272</v>
       </c>
       <c r="BW90" t="s">
         <v>96</v>
@@ -25038,6 +25130,986 @@
         <v>119</v>
       </c>
       <c r="CE90">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="91" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>83</v>
+      </c>
+      <c r="B91" s="1">
+        <v>44998</v>
+      </c>
+      <c r="C91" t="s">
+        <v>277</v>
+      </c>
+      <c r="D91" t="s">
+        <v>85</v>
+      </c>
+      <c r="E91" t="s">
+        <v>503</v>
+      </c>
+      <c r="F91" t="s">
+        <v>504</v>
+      </c>
+      <c r="G91" t="s">
+        <v>869</v>
+      </c>
+      <c r="H91" t="s">
+        <v>101</v>
+      </c>
+      <c r="I91" t="s">
+        <v>456</v>
+      </c>
+      <c r="J91" t="s">
+        <v>870</v>
+      </c>
+      <c r="K91" t="s">
+        <v>91</v>
+      </c>
+      <c r="L91" t="s">
+        <v>871</v>
+      </c>
+      <c r="M91" t="s">
+        <v>277</v>
+      </c>
+      <c r="N91" t="s">
+        <v>94</v>
+      </c>
+      <c r="O91" t="s">
+        <v>95</v>
+      </c>
+      <c r="P91" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>127</v>
+      </c>
+      <c r="R91" t="s">
+        <v>95</v>
+      </c>
+      <c r="S91" t="s">
+        <v>98</v>
+      </c>
+      <c r="T91" t="s">
+        <v>99</v>
+      </c>
+      <c r="U91" t="s">
+        <v>94</v>
+      </c>
+      <c r="V91" t="s">
+        <v>235</v>
+      </c>
+      <c r="W91" t="s">
+        <v>101</v>
+      </c>
+      <c r="X91" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>368</v>
+      </c>
+      <c r="Z91" t="s">
+        <v>872</v>
+      </c>
+      <c r="AA91" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB91" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC91" t="s">
+        <v>444</v>
+      </c>
+      <c r="AD91" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF91" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG91" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH91" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI91" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ91" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK91" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL91" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM91" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN91" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO91" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP91" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ91" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR91" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS91" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT91" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU91" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV91" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW91" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX91" s="1">
+        <v>44987</v>
+      </c>
+      <c r="AY91" s="1">
+        <v>44987</v>
+      </c>
+      <c r="AZ91" t="s">
+        <v>179</v>
+      </c>
+      <c r="BA91" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB91" t="s">
+        <v>108</v>
+      </c>
+      <c r="BC91" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD91" t="s">
+        <v>108</v>
+      </c>
+      <c r="BE91" t="s">
+        <v>147</v>
+      </c>
+      <c r="BF91" t="s">
+        <v>873</v>
+      </c>
+      <c r="BG91" s="1">
+        <v>41506</v>
+      </c>
+      <c r="BH91" t="s">
+        <v>101</v>
+      </c>
+      <c r="BI91" t="s">
+        <v>101</v>
+      </c>
+      <c r="BJ91" t="s">
+        <v>101</v>
+      </c>
+      <c r="BL91" s="1">
+        <v>45048</v>
+      </c>
+      <c r="BM91" t="s">
+        <v>512</v>
+      </c>
+      <c r="BN91" t="s">
+        <v>513</v>
+      </c>
+      <c r="BO91" s="1">
+        <v>44998</v>
+      </c>
+      <c r="BP91" t="s">
+        <v>514</v>
+      </c>
+      <c r="BQ91" t="s">
+        <v>101</v>
+      </c>
+      <c r="BR91" t="s">
+        <v>101</v>
+      </c>
+      <c r="BS91" t="s">
+        <v>101</v>
+      </c>
+      <c r="BT91" t="s">
+        <v>116</v>
+      </c>
+      <c r="BU91" t="s">
+        <v>117</v>
+      </c>
+      <c r="BV91" t="s">
+        <v>515</v>
+      </c>
+      <c r="BW91" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX91" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY91" t="s">
+        <v>119</v>
+      </c>
+      <c r="BZ91" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA91" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB91" t="s">
+        <v>119</v>
+      </c>
+      <c r="CC91" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD91" t="s">
+        <v>119</v>
+      </c>
+      <c r="CE91">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="92" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>83</v>
+      </c>
+      <c r="B92" s="1">
+        <v>45029</v>
+      </c>
+      <c r="C92" t="s">
+        <v>277</v>
+      </c>
+      <c r="D92" t="s">
+        <v>85</v>
+      </c>
+      <c r="E92" t="s">
+        <v>258</v>
+      </c>
+      <c r="F92" t="s">
+        <v>259</v>
+      </c>
+      <c r="G92" t="s">
+        <v>874</v>
+      </c>
+      <c r="H92" t="s">
+        <v>875</v>
+      </c>
+      <c r="I92" t="s">
+        <v>156</v>
+      </c>
+      <c r="J92" t="s">
+        <v>736</v>
+      </c>
+      <c r="K92" t="s">
+        <v>91</v>
+      </c>
+      <c r="L92" t="s">
+        <v>876</v>
+      </c>
+      <c r="M92" t="s">
+        <v>93</v>
+      </c>
+      <c r="N92" t="s">
+        <v>94</v>
+      </c>
+      <c r="O92" t="s">
+        <v>95</v>
+      </c>
+      <c r="P92" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>97</v>
+      </c>
+      <c r="R92" t="s">
+        <v>95</v>
+      </c>
+      <c r="S92" t="s">
+        <v>98</v>
+      </c>
+      <c r="T92" t="s">
+        <v>99</v>
+      </c>
+      <c r="U92" t="s">
+        <v>100</v>
+      </c>
+      <c r="V92" t="s">
+        <v>101</v>
+      </c>
+      <c r="W92" t="s">
+        <v>235</v>
+      </c>
+      <c r="X92" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z92" t="s">
+        <v>797</v>
+      </c>
+      <c r="AA92" t="s">
+        <v>266</v>
+      </c>
+      <c r="AB92" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC92" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD92" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF92" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG92" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH92" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI92" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ92" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK92" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL92" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM92" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN92" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO92" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP92" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ92" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR92" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS92" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT92" t="s">
+        <v>179</v>
+      </c>
+      <c r="AU92" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV92" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW92" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX92" s="1">
+        <v>44988</v>
+      </c>
+      <c r="AY92" s="1">
+        <v>44988</v>
+      </c>
+      <c r="AZ92" t="s">
+        <v>179</v>
+      </c>
+      <c r="BA92" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB92" t="s">
+        <v>108</v>
+      </c>
+      <c r="BC92" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD92" t="s">
+        <v>108</v>
+      </c>
+      <c r="BE92" t="s">
+        <v>147</v>
+      </c>
+      <c r="BF92" t="s">
+        <v>798</v>
+      </c>
+      <c r="BG92" s="1">
+        <v>40519</v>
+      </c>
+      <c r="BH92" t="s">
+        <v>101</v>
+      </c>
+      <c r="BI92" t="s">
+        <v>101</v>
+      </c>
+      <c r="BJ92" t="s">
+        <v>101</v>
+      </c>
+      <c r="BL92" s="1">
+        <v>45048</v>
+      </c>
+      <c r="BM92" t="s">
+        <v>268</v>
+      </c>
+      <c r="BN92" t="s">
+        <v>269</v>
+      </c>
+      <c r="BO92" s="1">
+        <v>45029</v>
+      </c>
+      <c r="BP92" t="s">
+        <v>270</v>
+      </c>
+      <c r="BQ92" t="s">
+        <v>101</v>
+      </c>
+      <c r="BR92" t="s">
+        <v>101</v>
+      </c>
+      <c r="BS92" t="s">
+        <v>101</v>
+      </c>
+      <c r="BT92" t="s">
+        <v>271</v>
+      </c>
+      <c r="BU92" t="s">
+        <v>117</v>
+      </c>
+      <c r="BV92" t="s">
+        <v>272</v>
+      </c>
+      <c r="BW92" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX92" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY92" t="s">
+        <v>119</v>
+      </c>
+      <c r="BZ92" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA92" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB92" t="s">
+        <v>119</v>
+      </c>
+      <c r="CC92" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD92" t="s">
+        <v>119</v>
+      </c>
+      <c r="CE92">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="93" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>83</v>
+      </c>
+      <c r="B93" s="1">
+        <v>44990</v>
+      </c>
+      <c r="C93" t="s">
+        <v>277</v>
+      </c>
+      <c r="D93" t="s">
+        <v>85</v>
+      </c>
+      <c r="E93" t="s">
+        <v>281</v>
+      </c>
+      <c r="F93" t="s">
+        <v>180</v>
+      </c>
+      <c r="G93" t="s">
+        <v>88</v>
+      </c>
+      <c r="H93" t="s">
+        <v>355</v>
+      </c>
+      <c r="I93" t="s">
+        <v>877</v>
+      </c>
+      <c r="J93" t="s">
+        <v>413</v>
+      </c>
+      <c r="K93" t="s">
+        <v>91</v>
+      </c>
+      <c r="L93" t="s">
+        <v>878</v>
+      </c>
+      <c r="M93" t="s">
+        <v>380</v>
+      </c>
+      <c r="N93" t="s">
+        <v>94</v>
+      </c>
+      <c r="O93" t="s">
+        <v>95</v>
+      </c>
+      <c r="P93" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>127</v>
+      </c>
+      <c r="R93" t="s">
+        <v>95</v>
+      </c>
+      <c r="S93" t="s">
+        <v>98</v>
+      </c>
+      <c r="T93" t="s">
+        <v>95</v>
+      </c>
+      <c r="U93" t="s">
+        <v>100</v>
+      </c>
+      <c r="V93" t="s">
+        <v>101</v>
+      </c>
+      <c r="W93" t="s">
+        <v>879</v>
+      </c>
+      <c r="X93" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z93" t="s">
+        <v>880</v>
+      </c>
+      <c r="AA93" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB93" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC93" t="s">
+        <v>197</v>
+      </c>
+      <c r="AD93" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF93" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG93" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH93" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI93" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ93" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK93" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL93" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM93" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN93" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO93" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP93" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ93" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR93" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS93" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT93" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU93" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV93" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW93" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX93" s="1">
+        <v>44990</v>
+      </c>
+      <c r="AY93" s="1">
+        <v>44988</v>
+      </c>
+      <c r="AZ93" t="s">
+        <v>107</v>
+      </c>
+      <c r="BA93" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB93" t="s">
+        <v>108</v>
+      </c>
+      <c r="BC93" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD93" t="s">
+        <v>108</v>
+      </c>
+      <c r="BE93" t="s">
+        <v>147</v>
+      </c>
+      <c r="BF93" t="s">
+        <v>881</v>
+      </c>
+      <c r="BG93" s="1">
+        <v>39591</v>
+      </c>
+      <c r="BH93" t="s">
+        <v>101</v>
+      </c>
+      <c r="BI93" t="s">
+        <v>101</v>
+      </c>
+      <c r="BJ93" t="s">
+        <v>101</v>
+      </c>
+      <c r="BL93" s="1">
+        <v>45048</v>
+      </c>
+      <c r="BM93" t="s">
+        <v>882</v>
+      </c>
+      <c r="BN93" t="s">
+        <v>353</v>
+      </c>
+      <c r="BO93" s="1">
+        <v>44991</v>
+      </c>
+      <c r="BP93" t="s">
+        <v>294</v>
+      </c>
+      <c r="BQ93" t="s">
+        <v>101</v>
+      </c>
+      <c r="BR93" t="s">
+        <v>101</v>
+      </c>
+      <c r="BS93" t="s">
+        <v>101</v>
+      </c>
+      <c r="BT93" t="s">
+        <v>271</v>
+      </c>
+      <c r="BU93" t="s">
+        <v>117</v>
+      </c>
+      <c r="BV93" t="s">
+        <v>354</v>
+      </c>
+      <c r="BW93" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX93" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY93" t="s">
+        <v>214</v>
+      </c>
+      <c r="BZ93" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA93" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB93" t="s">
+        <v>119</v>
+      </c>
+      <c r="CC93" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD93" t="s">
+        <v>119</v>
+      </c>
+      <c r="CE93">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="94" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>83</v>
+      </c>
+      <c r="B94" s="1">
+        <v>44998</v>
+      </c>
+      <c r="C94" t="s">
+        <v>277</v>
+      </c>
+      <c r="D94" t="s">
+        <v>85</v>
+      </c>
+      <c r="E94" t="s">
+        <v>503</v>
+      </c>
+      <c r="F94" t="s">
+        <v>504</v>
+      </c>
+      <c r="G94" t="s">
+        <v>883</v>
+      </c>
+      <c r="H94" t="s">
+        <v>101</v>
+      </c>
+      <c r="I94" t="s">
+        <v>538</v>
+      </c>
+      <c r="J94" t="s">
+        <v>884</v>
+      </c>
+      <c r="K94" t="s">
+        <v>91</v>
+      </c>
+      <c r="L94" t="s">
+        <v>885</v>
+      </c>
+      <c r="M94" t="s">
+        <v>120</v>
+      </c>
+      <c r="N94" t="s">
+        <v>94</v>
+      </c>
+      <c r="O94" t="s">
+        <v>95</v>
+      </c>
+      <c r="P94" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>97</v>
+      </c>
+      <c r="R94" t="s">
+        <v>95</v>
+      </c>
+      <c r="S94" t="s">
+        <v>98</v>
+      </c>
+      <c r="T94" t="s">
+        <v>99</v>
+      </c>
+      <c r="U94" t="s">
+        <v>94</v>
+      </c>
+      <c r="V94" t="s">
+        <v>235</v>
+      </c>
+      <c r="W94" t="s">
+        <v>101</v>
+      </c>
+      <c r="X94" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>368</v>
+      </c>
+      <c r="Z94" t="s">
+        <v>886</v>
+      </c>
+      <c r="AA94" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB94" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC94" t="s">
+        <v>444</v>
+      </c>
+      <c r="AD94" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF94" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG94" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH94" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI94" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ94" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK94" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL94" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM94" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN94" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO94" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP94" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ94" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR94" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS94" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT94" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU94" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV94" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW94" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX94" s="1">
+        <v>44989</v>
+      </c>
+      <c r="AY94" s="1">
+        <v>44989</v>
+      </c>
+      <c r="AZ94" t="s">
+        <v>179</v>
+      </c>
+      <c r="BA94" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB94" t="s">
+        <v>108</v>
+      </c>
+      <c r="BC94" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD94" t="s">
+        <v>108</v>
+      </c>
+      <c r="BE94" t="s">
+        <v>147</v>
+      </c>
+      <c r="BF94" t="s">
+        <v>887</v>
+      </c>
+      <c r="BG94" s="1">
+        <v>41818</v>
+      </c>
+      <c r="BH94" t="s">
+        <v>101</v>
+      </c>
+      <c r="BI94" t="s">
+        <v>101</v>
+      </c>
+      <c r="BJ94" t="s">
+        <v>101</v>
+      </c>
+      <c r="BL94" s="1">
+        <v>45048</v>
+      </c>
+      <c r="BM94" t="s">
+        <v>512</v>
+      </c>
+      <c r="BN94" t="s">
+        <v>513</v>
+      </c>
+      <c r="BO94" s="1">
+        <v>44998</v>
+      </c>
+      <c r="BP94" t="s">
+        <v>514</v>
+      </c>
+      <c r="BQ94" t="s">
+        <v>101</v>
+      </c>
+      <c r="BR94" t="s">
+        <v>101</v>
+      </c>
+      <c r="BS94" t="s">
+        <v>101</v>
+      </c>
+      <c r="BT94" t="s">
+        <v>116</v>
+      </c>
+      <c r="BU94" t="s">
+        <v>117</v>
+      </c>
+      <c r="BV94" t="s">
+        <v>515</v>
+      </c>
+      <c r="BW94" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX94" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY94" t="s">
+        <v>119</v>
+      </c>
+      <c r="BZ94" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA94" t="s">
+        <v>118</v>
+      </c>
+      <c r="CB94" t="s">
+        <v>119</v>
+      </c>
+      <c r="CC94" t="s">
+        <v>118</v>
+      </c>
+      <c r="CD94" t="s">
+        <v>119</v>
+      </c>
+      <c r="CE94">
         <v>37</v>
       </c>
     </row>
